--- a/Book Ranking.xlsx
+++ b/Book Ranking.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="76">
   <si>
     <t>Book Ranking</t>
   </si>
@@ -64,9 +64,6 @@
     <t>How Music Works</t>
   </si>
   <si>
-    <t>Danger of American Fascism</t>
-  </si>
-  <si>
     <t>Backbone</t>
   </si>
   <si>
@@ -142,66 +139,24 @@
     <t xml:space="preserve">Simplicity: The Freedom of Letting Go  </t>
   </si>
   <si>
-    <t xml:space="preserve"> - Sprint: How to Solve Big Problems and Test New Ideas in Just Five Days  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - The Bread Baker's Apprentice: Mastering the Art of Extraordinary Bread  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Living Buddha, Living Christ 10th Anniversary Edition  </t>
-  </si>
-  <si>
     <t>Thermodynamics</t>
   </si>
   <si>
     <t xml:space="preserve">On Tyranny: Twenty Lessons From the Twentieth Century  </t>
   </si>
   <si>
-    <t xml:space="preserve"> - The Gnôsis of the Light  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Left of Bang: How the Marine Corps' Combat Hunter Program Can Save Your Life  </t>
   </si>
   <si>
-    <t xml:space="preserve"> - How We Decide  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - On the Decay of the Art of Lying  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - History of Religion a Sketch of Primitive Religious Beliefs and Practices, and of the Origin and Character of the Great Systems  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Storm in a Teacup: The Physics of Everyday Life  </t>
   </si>
   <si>
-    <t xml:space="preserve"> - The Obstacle Is the Way: The Timeless Art of Turning Trials Into Triumph  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Silence: A Christian History  </t>
   </si>
   <si>
-    <t xml:space="preserve"> - Tools of Titans: The Tactics, Routines, and Habits of Billionaires, Icons, and World-Class Performers  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - The Wisdom of Insecurity  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - War Against War: The American Fight for Peace, 1914-1918    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Eichmann in Jerusalem: A Report on the Banality of Evil (Penguin Classics)  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Black Earth: The Holocaust as History and Warning  </t>
   </si>
   <si>
-    <t xml:space="preserve"> - Physics Made Simple: A Complete Introduction to the Basic Principles of This Fundamental Science (Made    - Simple (Broadway Books))  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Red Notice: A True Story of High Finance, Murder, and One Man’s Fight for Justice  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> - The Gamble: General Petraeus and the American Military Adventure in Iraq  </t>
   </si>
   <si>
@@ -211,24 +166,12 @@
     <t xml:space="preserve">The Righteous Mind: Why Good People Are Divided by Politics and Religion  </t>
   </si>
   <si>
-    <t xml:space="preserve"> - Mind in the Balance: Meditation in Science, Buddhism, and Christianity  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Why Buddhism Is True: The Science and Philosophy of Meditation and Enlightenment  </t>
   </si>
   <si>
-    <t xml:space="preserve"> - The Gatekeepers: How the White House Chiefs of Staff Define Every Presidency  </t>
-  </si>
-  <si>
     <t xml:space="preserve">The Psychopath Test: A Journey Through the Madness Industry  </t>
   </si>
   <si>
-    <t xml:space="preserve"> - Abraham Lincoln and the Structure of Reason  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - The American Bible-Whose America Is This?: How Our Words Unite, Divide, and Define a Nation  </t>
-  </si>
-  <si>
     <t xml:space="preserve">I Am a Strange Loop  </t>
   </si>
   <si>
@@ -236,6 +179,72 @@
   </si>
   <si>
     <t xml:space="preserve">Drop the Rock: Removing Character Defects - Steps Six and Seven  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Wisdom of Insecurity  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">War Against War: The American Fight for Peace, 1914-1918    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eichmann in Jerusalem: A Report on the Banality of Evil (Penguin Classics)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mind in the Balance: Meditation in Science, Buddhism, and Christianity  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Living Buddha, Living Christ 10th Anniversary Edition  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Gnôsis of the Light  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the Decay of the Art of Lying  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physics Made Simple: A Complete Introduction to the Basic Principles of This Fundamental Science (Made    - Simple (Broadway Books))  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Notice: A True Story of High Finance, Murder, and One Man’s Fight for Justice  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The American Bible-Whose America Is This?: How Our Words Unite, Divide, and Define a Nation  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">History of Religion a Sketch of Primitive Religious Beliefs and Practices, and of the Origin and Character of the Great Systems  </t>
+  </si>
+  <si>
+    <t>How Democracies Die</t>
+  </si>
+  <si>
+    <t>The Information: A History, A Theory, A Flood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint: How to Solve Big Problems and Test New Ideas in Just Five Days  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Obstacle Is the Way: The Timeless Art of Turning Trials Into Triumph  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How We Decide  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Bread Baker's Apprentice: Mastering the Art of Extraordinary Bread  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Gatekeepers: How the White House Chiefs of Staff Define Every Presidency  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abraham Lincoln and the Structure of Reason  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tools of Titans: The Tactics, Routines, and Habits of Billionaires, Icons, and World-Class Performers  </t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -243,7 +252,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -293,8 +302,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,11 +608,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +622,7 @@
     <col min="4" max="4" width="17.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -621,7 +630,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -634,10 +643,13 @@
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3">
         <v>4</v>
@@ -649,898 +661,1237 @@
         <f>B3/C3</f>
         <v>8.6956521739130432E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
         <f>B4/C4</f>
-        <v>5.4054054054054057E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="D5" s="7">
         <f>B5/C5</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D6" s="7">
         <f>B6/C6</f>
-        <v>3.0303030303030304E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B7" s="3">
         <v>4</v>
       </c>
       <c r="C7" s="3">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="D7" s="7">
         <f>B7/C7</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3">
-        <v>228</v>
+        <v>160</v>
       </c>
       <c r="D8" s="7">
         <f>B8/C8</f>
-        <v>2.1929824561403508E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B9" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="D9" s="7">
         <f>B9/C9</f>
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3">
-        <v>224</v>
+        <v>128</v>
       </c>
       <c r="D10" s="7">
         <f>B10/C10</f>
-        <v>1.7857142857142856E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.34375E-2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="3">
         <v>5</v>
       </c>
       <c r="C11" s="3">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="D11" s="7">
         <f>B11/C11</f>
-        <v>1.7361111111111112E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.1929824561403508E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B12" s="3">
         <v>4</v>
       </c>
       <c r="C12" s="3">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="D12" s="7">
         <f>B12/C12</f>
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B13" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" s="3">
-        <v>336</v>
+        <v>160</v>
       </c>
       <c r="D13" s="7">
         <f>B13/C13</f>
-        <v>1.488095238095238E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B14" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="3">
-        <v>368</v>
+        <v>224</v>
       </c>
       <c r="D14" s="7">
         <f>B14/C14</f>
-        <v>1.358695652173913E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B15" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="D15" s="7">
         <f>B15/C15</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="3">
-        <v>336</v>
+        <v>182</v>
       </c>
       <c r="D16" s="7">
         <f>B16/C16</f>
-        <v>1.1904761904761904E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.6483516483516484E-2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B17" s="3">
         <v>4</v>
       </c>
       <c r="C17" s="3">
-        <v>384</v>
+        <v>250</v>
       </c>
       <c r="D17" s="7">
         <f>B17/C17</f>
-        <v>1.0416666666666666E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B18" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="D18" s="7">
         <f>B18/C18</f>
-        <v>1.0416666666666666E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.488095238095238E-2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3">
-        <v>400</v>
+        <v>208</v>
       </c>
       <c r="D19" s="7">
         <f>B19/C19</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.4423076923076924E-2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B20" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="3">
-        <v>416</v>
+        <v>368</v>
       </c>
       <c r="D20" s="7">
         <f>B20/C20</f>
-        <v>9.6153846153846159E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.358695652173913E-2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="3">
         <v>4</v>
       </c>
       <c r="C21" s="3">
-        <v>436</v>
+        <v>320</v>
       </c>
       <c r="D21" s="7">
         <f>B21/C21</f>
-        <v>9.1743119266055051E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B22" s="3">
         <v>4</v>
       </c>
       <c r="C22" s="3">
-        <v>444</v>
+        <v>336</v>
       </c>
       <c r="D22" s="7">
         <f>B22/C22</f>
-        <v>9.0090090090090089E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3">
-        <v>464</v>
+        <v>256</v>
       </c>
       <c r="D23" s="7">
         <f>B23/C23</f>
-        <v>8.6206896551724137E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.171875E-2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B24" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
-        <v>464</v>
+        <v>264</v>
       </c>
       <c r="D24" s="7">
         <f>B24/C24</f>
-        <v>8.6206896551724137E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.1363636363636364E-2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>480</v>
+        <v>384</v>
       </c>
       <c r="D25" s="7">
         <f>B25/C25</f>
-        <v>8.3333333333333332E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>499</v>
+        <v>384</v>
       </c>
       <c r="D26" s="7">
         <f>B26/C26</f>
-        <v>8.0160320641282558E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B27" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3">
-        <v>512</v>
+        <v>288</v>
       </c>
       <c r="D27" s="7">
         <f>B27/C27</f>
-        <v>7.8125E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" s="3">
         <v>4</v>
       </c>
       <c r="C28" s="3">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="D28" s="7">
         <f>B28/C28</f>
-        <v>7.1428571428571426E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01</v>
+      </c>
+      <c r="E28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B29" s="3">
         <v>4</v>
       </c>
       <c r="C29" s="3">
-        <v>704</v>
+        <v>416</v>
       </c>
       <c r="D29" s="7">
         <f>B29/C29</f>
-        <v>5.681818181818182E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.6153846153846159E-3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B30" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C30" s="3">
-        <v>736</v>
+        <v>208</v>
       </c>
       <c r="D30" s="7">
         <f>B30/C30</f>
-        <v>5.434782608695652E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.6153846153846159E-3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3">
+        <v>208</v>
+      </c>
+      <c r="D31" s="7">
+        <f>B31/C31</f>
+        <v>9.6153846153846159E-3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="3">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3">
+        <v>436</v>
+      </c>
+      <c r="D32" s="7">
+        <f>B32/C32</f>
+        <v>9.1743119266055051E-3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="3">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3">
+        <v>444</v>
+      </c>
+      <c r="D33" s="7">
+        <f>B33/C33</f>
+        <v>9.0090090090090089E-3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="3">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3">
+        <v>336</v>
+      </c>
+      <c r="D34" s="7">
+        <f>B34/C34</f>
+        <v>8.9285714285714281E-3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="3">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3">
+        <v>464</v>
+      </c>
+      <c r="D35" s="7">
+        <f>B35/C35</f>
+        <v>8.6206896551724137E-3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="3">
+        <v>4</v>
+      </c>
+      <c r="C36" s="3">
+        <v>464</v>
+      </c>
+      <c r="D36" s="7">
+        <f>B36/C36</f>
+        <v>8.6206896551724137E-3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="3">
+        <v>3</v>
+      </c>
+      <c r="C37" s="3">
+        <v>352</v>
+      </c>
+      <c r="D37" s="7">
+        <f>B37/C37</f>
+        <v>8.5227272727272721E-3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="3">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3">
+        <v>480</v>
+      </c>
+      <c r="D38" s="7">
+        <f>B38/C38</f>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="3">
+        <v>3</v>
+      </c>
+      <c r="C39" s="3">
+        <v>360</v>
+      </c>
+      <c r="D39" s="7">
+        <f>B39/C39</f>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3">
+        <v>240</v>
+      </c>
+      <c r="D40" s="7">
+        <f>B40/C40</f>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="3">
-        <v>3</v>
-      </c>
-      <c r="D31" s="7" t="e">
-        <f>B31/C31</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="3">
-        <v>3</v>
-      </c>
-      <c r="D32" s="7" t="e">
-        <f>B32/C32</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="B41" s="3">
+        <v>3</v>
+      </c>
+      <c r="C41" s="3">
+        <v>368</v>
+      </c>
+      <c r="D41" s="7">
+        <f>B41/C41</f>
+        <v>8.152173913043478E-3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="3">
+        <v>3</v>
+      </c>
+      <c r="C42" s="3">
+        <v>368</v>
+      </c>
+      <c r="D42" s="7">
+        <f>B42/C42</f>
+        <v>8.152173913043478E-3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="3">
-        <v>3</v>
-      </c>
-      <c r="D33" s="7" t="e">
-        <f>B33/C33</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="3">
-        <v>3</v>
-      </c>
-      <c r="D34" s="7" t="e">
-        <f>B34/C34</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="3">
-        <v>3</v>
-      </c>
-      <c r="D35" s="7" t="e">
-        <f>B35/C35</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="3">
-        <v>3</v>
-      </c>
-      <c r="D36" s="7" t="e">
-        <f>B36/C36</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="3">
-        <v>3</v>
-      </c>
-      <c r="D37" s="7" t="e">
-        <f>B37/C37</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="B43" s="3">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3">
+        <v>371</v>
+      </c>
+      <c r="D43" s="7">
+        <f>B43/C43</f>
+        <v>8.0862533692722376E-3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="3">
+        <v>4</v>
+      </c>
+      <c r="C44" s="3">
+        <v>499</v>
+      </c>
+      <c r="D44" s="7">
+        <f>B44/C44</f>
+        <v>8.0160320641282558E-3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2</v>
+      </c>
+      <c r="C45" s="3">
+        <v>250</v>
+      </c>
+      <c r="D45" s="7">
+        <f>B45/C45</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="3">
-        <v>3</v>
-      </c>
-      <c r="D38" s="7" t="e">
-        <f>B38/C38</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="3">
-        <v>3</v>
-      </c>
-      <c r="D39" s="7" t="e">
-        <f>B39/C39</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="3">
-        <v>3</v>
-      </c>
-      <c r="D40" s="7" t="e">
-        <f>B40/C40</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="3">
-        <v>3</v>
-      </c>
-      <c r="D41" s="7" t="e">
-        <f>B41/C41</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="3">
-        <v>3</v>
-      </c>
-      <c r="D42" s="7" t="e">
-        <f>B42/C42</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="3">
-        <v>3</v>
-      </c>
-      <c r="D43" s="7" t="e">
-        <f>B43/C43</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="3">
-        <v>3</v>
-      </c>
-      <c r="D44" s="7" t="e">
-        <f>B44/C44</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="3">
-        <v>3</v>
-      </c>
-      <c r="D45" s="7" t="e">
-        <f>B45/C45</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="B46" s="3">
-        <v>3</v>
-      </c>
-      <c r="D46" s="7" t="e">
+        <v>4</v>
+      </c>
+      <c r="C46" s="3">
+        <v>512</v>
+      </c>
+      <c r="D46" s="7">
         <f>B46/C46</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="3">
+        <v>2</v>
+      </c>
+      <c r="C47" s="3">
+        <v>264</v>
+      </c>
+      <c r="D47" s="7">
+        <f>B47/C47</f>
+        <v>7.575757575757576E-3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="3">
-        <v>3</v>
-      </c>
-      <c r="D47" s="7" t="e">
-        <f>B47/C47</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="B48" s="3">
         <v>3</v>
       </c>
-      <c r="D48" s="7" t="e">
+      <c r="C48" s="3">
+        <v>400</v>
+      </c>
+      <c r="D48" s="7">
         <f>B48/C48</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B49" s="3">
-        <v>3</v>
-      </c>
-      <c r="D49" s="7" t="e">
+        <v>4</v>
+      </c>
+      <c r="C49" s="3">
+        <v>544</v>
+      </c>
+      <c r="D49" s="7">
         <f>B49/C49</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.3529411764705881E-3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="B50" s="3">
-        <v>3</v>
-      </c>
-      <c r="D50" s="7" t="e">
+        <v>4</v>
+      </c>
+      <c r="C50" s="3">
+        <v>560</v>
+      </c>
+      <c r="D50" s="7">
         <f>B50/C50</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.1428571428571426E-3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="B51" s="3">
-        <v>3</v>
-      </c>
-      <c r="D51" s="7" t="e">
+        <v>2</v>
+      </c>
+      <c r="C51" s="3">
+        <v>284</v>
+      </c>
+      <c r="D51" s="7">
         <f>B51/C51</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.0422535211267607E-3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B52" s="3">
         <v>2</v>
       </c>
       <c r="C52" s="3">
-        <v>616</v>
+        <v>288</v>
       </c>
       <c r="D52" s="7">
         <f>B52/C52</f>
-        <v>3.246753246753247E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B53" s="3">
-        <v>2</v>
-      </c>
-      <c r="D53" s="7" t="e">
-        <f t="shared" ref="D4:D67" si="0">B53/C53</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3">
+        <v>148</v>
+      </c>
+      <c r="D53" s="7">
+        <f>B53/C53</f>
+        <v>6.7567567567567571E-3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B54" s="3">
-        <v>2</v>
-      </c>
-      <c r="D54" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C54" s="3">
+        <v>480</v>
+      </c>
+      <c r="D54" s="7">
+        <f>B54/C54</f>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B55" s="3">
-        <v>2</v>
-      </c>
-      <c r="D55" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C55" s="3">
+        <v>480</v>
+      </c>
+      <c r="D55" s="7">
+        <f>B55/C55</f>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B56" s="3">
-        <v>2</v>
-      </c>
-      <c r="D56" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C56" s="3">
+        <v>488</v>
+      </c>
+      <c r="D56" s="7">
+        <f>B56/C56</f>
+        <v>6.1475409836065573E-3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="B57" s="3">
         <v>2</v>
       </c>
-      <c r="D57" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="3">
+        <v>332</v>
+      </c>
+      <c r="D57" s="7">
+        <f>B57/C57</f>
+        <v>6.024096385542169E-3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B58" s="3">
-        <v>2</v>
-      </c>
-      <c r="D58" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C58" s="3">
+        <v>704</v>
+      </c>
+      <c r="D58" s="7">
+        <f>B58/C58</f>
+        <v>5.681818181818182E-3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="B59" s="3">
-        <v>2</v>
-      </c>
-      <c r="D59" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C59" s="3">
+        <v>736</v>
+      </c>
+      <c r="D59" s="7">
+        <f>B59/C59</f>
+        <v>5.434782608695652E-3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B60" s="3">
         <v>2</v>
       </c>
-      <c r="D60" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="3">
+        <v>373</v>
+      </c>
+      <c r="D60" s="7">
+        <f>B60/C60</f>
+        <v>5.3619302949061663E-3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B61" s="3">
-        <v>2</v>
-      </c>
-      <c r="D61" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C61" s="3">
+        <v>560</v>
+      </c>
+      <c r="D61" s="7">
+        <f>B61/C61</f>
+        <v>5.3571428571428572E-3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B62" s="3">
-        <v>2</v>
-      </c>
-      <c r="D62" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C62" s="3">
+        <v>560</v>
+      </c>
+      <c r="D62" s="7">
+        <f>B62/C62</f>
+        <v>5.3571428571428572E-3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B63" s="3">
-        <v>2</v>
-      </c>
-      <c r="D63" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C63" s="3">
+        <v>576</v>
+      </c>
+      <c r="D63" s="7">
+        <f>B63/C63</f>
+        <v>5.208333333333333E-3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B64" s="3">
         <v>2</v>
       </c>
-      <c r="D64" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="3">
+        <v>384</v>
+      </c>
+      <c r="D64" s="7">
+        <f>B64/C64</f>
+        <v>5.208333333333333E-3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B65" s="3">
         <v>2</v>
       </c>
-      <c r="D65" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="3">
+        <v>400</v>
+      </c>
+      <c r="D65" s="7">
+        <f>B65/C65</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B66" s="3">
         <v>2</v>
       </c>
-      <c r="D66" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="3">
+        <v>416</v>
+      </c>
+      <c r="D66" s="7">
+        <f>B66/C66</f>
+        <v>4.807692307692308E-3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B67" s="3">
         <v>2</v>
       </c>
-      <c r="D67" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="3">
+        <v>416</v>
+      </c>
+      <c r="D67" s="7">
+        <f>B67/C67</f>
+        <v>4.807692307692308E-3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B68" s="3">
         <v>2</v>
       </c>
-      <c r="D68" s="7" t="e">
-        <f t="shared" ref="D68:D70" si="1">B68/C68</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="3">
+        <v>528</v>
+      </c>
+      <c r="D68" s="7">
+        <f>B68/C68</f>
+        <v>3.787878787878788E-3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B69" s="3">
         <v>2</v>
       </c>
-      <c r="D69" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C69" s="3">
+        <v>544</v>
+      </c>
+      <c r="D69" s="7">
+        <f>B69/C69</f>
+        <v>3.6764705882352941E-3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B70" s="3">
-        <v>1</v>
-      </c>
-      <c r="D70" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3</v>
+      </c>
+      <c r="C70" s="3">
+        <v>848</v>
+      </c>
+      <c r="D70" s="7">
+        <f>B70/C70</f>
+        <v>3.5377358490566039E-3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="3">
+        <v>2</v>
+      </c>
+      <c r="C71" s="3">
+        <v>616</v>
+      </c>
+      <c r="D71" s="7">
+        <f>B71/C71</f>
+        <v>3.246753246753247E-3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:D70">
-    <sortState ref="A3:D52">
+    <sortState ref="A3:D71">
       <sortCondition descending="1" ref="D2:D70"/>
     </sortState>
   </autoFilter>

--- a/Book Ranking.xlsx
+++ b/Book Ranking.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="79">
   <si>
     <t>Book Ranking</t>
   </si>
@@ -245,6 +245,15 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Bringin up Bebe</t>
+  </si>
+  <si>
+    <t>Fiasco</t>
+  </si>
+  <si>
+    <t>The Relativity of Wrong (Asimov)</t>
   </si>
 </sst>
 </file>
@@ -608,11 +617,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,17 +1180,17 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B32" s="3">
         <v>4</v>
       </c>
       <c r="C32" s="3">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D32" s="7">
         <f>B32/C32</f>
-        <v>9.1743119266055051E-3</v>
+        <v>9.2592592592592587E-3</v>
       </c>
       <c r="E32" t="s">
         <v>75</v>
@@ -1189,17 +1198,17 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B33" s="3">
         <v>4</v>
       </c>
       <c r="C33" s="3">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="D33" s="7">
         <f>B33/C33</f>
-        <v>9.0090090090090089E-3</v>
+        <v>9.1743119266055051E-3</v>
       </c>
       <c r="E33" t="s">
         <v>75</v>
@@ -1207,17 +1216,17 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="B34" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" s="3">
-        <v>336</v>
+        <v>444</v>
       </c>
       <c r="D34" s="7">
         <f>B34/C34</f>
-        <v>8.9285714285714281E-3</v>
+        <v>9.0090090090090089E-3</v>
       </c>
       <c r="E34" t="s">
         <v>75</v>
@@ -1225,17 +1234,17 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" s="3">
-        <v>464</v>
+        <v>336</v>
       </c>
       <c r="D35" s="7">
         <f>B35/C35</f>
-        <v>8.6206896551724137E-3</v>
+        <v>8.9285714285714281E-3</v>
       </c>
       <c r="E35" t="s">
         <v>75</v>
@@ -1243,17 +1252,17 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B36" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C36" s="3">
-        <v>464</v>
+        <v>225</v>
       </c>
       <c r="D36" s="7">
         <f>B36/C36</f>
-        <v>8.6206896551724137E-3</v>
+        <v>8.8888888888888889E-3</v>
       </c>
       <c r="E36" t="s">
         <v>75</v>
@@ -1261,17 +1270,17 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B37" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C37" s="3">
-        <v>352</v>
+        <v>464</v>
       </c>
       <c r="D37" s="7">
         <f>B37/C37</f>
-        <v>8.5227272727272721E-3</v>
+        <v>8.6206896551724137E-3</v>
       </c>
       <c r="E37" t="s">
         <v>75</v>
@@ -1279,17 +1288,17 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="B38" s="3">
         <v>4</v>
       </c>
       <c r="C38" s="3">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="D38" s="7">
         <f>B38/C38</f>
-        <v>8.3333333333333332E-3</v>
+        <v>8.6206896551724137E-3</v>
       </c>
       <c r="E38" t="s">
         <v>75</v>
@@ -1297,17 +1306,17 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B39" s="3">
         <v>3</v>
       </c>
       <c r="C39" s="3">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D39" s="7">
         <f>B39/C39</f>
-        <v>8.3333333333333332E-3</v>
+        <v>8.5227272727272721E-3</v>
       </c>
       <c r="E39" t="s">
         <v>75</v>
@@ -1315,13 +1324,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B40" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C40" s="3">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="D40" s="7">
         <f>B40/C40</f>
@@ -1333,17 +1342,17 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B41" s="3">
         <v>3</v>
       </c>
       <c r="C41" s="3">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D41" s="7">
         <f>B41/C41</f>
-        <v>8.152173913043478E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E41" t="s">
         <v>75</v>
@@ -1351,17 +1360,17 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B42" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" s="3">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="D42" s="7">
         <f>B42/C42</f>
-        <v>8.152173913043478E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E42" t="s">
         <v>75</v>
@@ -1369,17 +1378,17 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B43" s="3">
         <v>3</v>
       </c>
       <c r="C43" s="3">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D43" s="7">
         <f>B43/C43</f>
-        <v>8.0862533692722376E-3</v>
+        <v>8.152173913043478E-3</v>
       </c>
       <c r="E43" t="s">
         <v>75</v>
@@ -1387,17 +1396,17 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B44" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" s="3">
-        <v>499</v>
+        <v>368</v>
       </c>
       <c r="D44" s="7">
         <f>B44/C44</f>
-        <v>8.0160320641282558E-3</v>
+        <v>8.152173913043478E-3</v>
       </c>
       <c r="E44" t="s">
         <v>75</v>
@@ -1405,17 +1414,17 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="B45" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45" s="3">
-        <v>250</v>
+        <v>371</v>
       </c>
       <c r="D45" s="7">
         <f>B45/C45</f>
-        <v>8.0000000000000002E-3</v>
+        <v>8.0862533692722376E-3</v>
       </c>
       <c r="E45" t="s">
         <v>75</v>
@@ -1423,17 +1432,17 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B46" s="3">
         <v>4</v>
       </c>
       <c r="C46" s="3">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="D46" s="7">
         <f>B46/C46</f>
-        <v>7.8125E-3</v>
+        <v>8.0160320641282558E-3</v>
       </c>
       <c r="E46" t="s">
         <v>75</v>
@@ -1441,17 +1450,17 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B47" s="3">
         <v>2</v>
       </c>
       <c r="C47" s="3">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="D47" s="7">
         <f>B47/C47</f>
-        <v>7.575757575757576E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E47" t="s">
         <v>75</v>
@@ -1459,17 +1468,17 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B48" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C48" s="3">
-        <v>400</v>
+        <v>512</v>
       </c>
       <c r="D48" s="7">
         <f>B48/C48</f>
-        <v>7.4999999999999997E-3</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="E48" t="s">
         <v>75</v>
@@ -1477,17 +1486,17 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B49" s="3">
         <v>4</v>
       </c>
       <c r="C49" s="3">
-        <v>544</v>
+        <v>512</v>
       </c>
       <c r="D49" s="7">
         <f>B49/C49</f>
-        <v>7.3529411764705881E-3</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="E49" t="s">
         <v>75</v>
@@ -1495,17 +1504,17 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B50" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C50" s="3">
-        <v>560</v>
+        <v>264</v>
       </c>
       <c r="D50" s="7">
         <f>B50/C50</f>
-        <v>7.1428571428571426E-3</v>
+        <v>7.575757575757576E-3</v>
       </c>
       <c r="E50" t="s">
         <v>75</v>
@@ -1513,17 +1522,17 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B51" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51" s="3">
-        <v>284</v>
+        <v>400</v>
       </c>
       <c r="D51" s="7">
         <f>B51/C51</f>
-        <v>7.0422535211267607E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="E51" t="s">
         <v>75</v>
@@ -1531,17 +1540,17 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B52" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C52" s="3">
-        <v>288</v>
+        <v>544</v>
       </c>
       <c r="D52" s="7">
         <f>B52/C52</f>
-        <v>6.9444444444444441E-3</v>
+        <v>7.3529411764705881E-3</v>
       </c>
       <c r="E52" t="s">
         <v>75</v>
@@ -1549,17 +1558,17 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B53" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C53" s="3">
-        <v>148</v>
+        <v>560</v>
       </c>
       <c r="D53" s="7">
         <f>B53/C53</f>
-        <v>6.7567567567567571E-3</v>
+        <v>7.1428571428571426E-3</v>
       </c>
       <c r="E53" t="s">
         <v>75</v>
@@ -1567,17 +1576,17 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B54" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" s="3">
-        <v>480</v>
+        <v>284</v>
       </c>
       <c r="D54" s="7">
         <f>B54/C54</f>
-        <v>6.2500000000000003E-3</v>
+        <v>7.0422535211267607E-3</v>
       </c>
       <c r="E54" t="s">
         <v>75</v>
@@ -1585,17 +1594,17 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B55" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" s="3">
-        <v>480</v>
+        <v>288</v>
       </c>
       <c r="D55" s="7">
         <f>B55/C55</f>
-        <v>6.2500000000000003E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="E55" t="s">
         <v>75</v>
@@ -1603,17 +1612,17 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B56" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C56" s="3">
-        <v>488</v>
+        <v>148</v>
       </c>
       <c r="D56" s="7">
         <f>B56/C56</f>
-        <v>6.1475409836065573E-3</v>
+        <v>6.7567567567567571E-3</v>
       </c>
       <c r="E56" t="s">
         <v>75</v>
@@ -1621,17 +1630,17 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B57" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C57" s="3">
-        <v>332</v>
+        <v>480</v>
       </c>
       <c r="D57" s="7">
         <f>B57/C57</f>
-        <v>6.024096385542169E-3</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="E57" t="s">
         <v>75</v>
@@ -1639,17 +1648,17 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B58" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C58" s="3">
-        <v>704</v>
+        <v>480</v>
       </c>
       <c r="D58" s="7">
         <f>B58/C58</f>
-        <v>5.681818181818182E-3</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="E58" t="s">
         <v>75</v>
@@ -1657,17 +1666,17 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="B59" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59" s="3">
-        <v>736</v>
+        <v>488</v>
       </c>
       <c r="D59" s="7">
         <f>B59/C59</f>
-        <v>5.434782608695652E-3</v>
+        <v>6.1475409836065573E-3</v>
       </c>
       <c r="E59" t="s">
         <v>75</v>
@@ -1675,17 +1684,17 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="B60" s="3">
         <v>2</v>
       </c>
       <c r="C60" s="3">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="D60" s="7">
         <f>B60/C60</f>
-        <v>5.3619302949061663E-3</v>
+        <v>6.024096385542169E-3</v>
       </c>
       <c r="E60" t="s">
         <v>75</v>
@@ -1693,17 +1702,17 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B61" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C61" s="3">
-        <v>560</v>
+        <v>704</v>
       </c>
       <c r="D61" s="7">
         <f>B61/C61</f>
-        <v>5.3571428571428572E-3</v>
+        <v>5.681818181818182E-3</v>
       </c>
       <c r="E61" t="s">
         <v>75</v>
@@ -1711,17 +1720,17 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="B62" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C62" s="3">
-        <v>560</v>
+        <v>736</v>
       </c>
       <c r="D62" s="7">
         <f>B62/C62</f>
-        <v>5.3571428571428572E-3</v>
+        <v>5.434782608695652E-3</v>
       </c>
       <c r="E62" t="s">
         <v>75</v>
@@ -1729,17 +1738,17 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B63" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" s="3">
-        <v>576</v>
+        <v>373</v>
       </c>
       <c r="D63" s="7">
         <f>B63/C63</f>
-        <v>5.208333333333333E-3</v>
+        <v>5.3619302949061663E-3</v>
       </c>
       <c r="E63" t="s">
         <v>75</v>
@@ -1747,17 +1756,17 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B64" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C64" s="3">
-        <v>384</v>
+        <v>560</v>
       </c>
       <c r="D64" s="7">
         <f>B64/C64</f>
-        <v>5.208333333333333E-3</v>
+        <v>5.3571428571428572E-3</v>
       </c>
       <c r="E64" t="s">
         <v>75</v>
@@ -1765,17 +1774,17 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B65" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C65" s="3">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="D65" s="7">
         <f>B65/C65</f>
-        <v>5.0000000000000001E-3</v>
+        <v>5.3571428571428572E-3</v>
       </c>
       <c r="E65" t="s">
         <v>75</v>
@@ -1783,17 +1792,17 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B66" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C66" s="3">
-        <v>416</v>
+        <v>576</v>
       </c>
       <c r="D66" s="7">
         <f>B66/C66</f>
-        <v>4.807692307692308E-3</v>
+        <v>5.208333333333333E-3</v>
       </c>
       <c r="E66" t="s">
         <v>75</v>
@@ -1801,17 +1810,17 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="B67" s="3">
         <v>2</v>
       </c>
       <c r="C67" s="3">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="D67" s="7">
         <f>B67/C67</f>
-        <v>4.807692307692308E-3</v>
+        <v>5.208333333333333E-3</v>
       </c>
       <c r="E67" t="s">
         <v>75</v>
@@ -1819,17 +1828,17 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B68" s="3">
         <v>2</v>
       </c>
       <c r="C68" s="3">
-        <v>528</v>
+        <v>400</v>
       </c>
       <c r="D68" s="7">
         <f>B68/C68</f>
-        <v>3.787878787878788E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E68" t="s">
         <v>75</v>
@@ -1837,17 +1846,17 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B69" s="3">
         <v>2</v>
       </c>
       <c r="C69" s="3">
-        <v>544</v>
+        <v>416</v>
       </c>
       <c r="D69" s="7">
         <f>B69/C69</f>
-        <v>3.6764705882352941E-3</v>
+        <v>4.807692307692308E-3</v>
       </c>
       <c r="E69" t="s">
         <v>75</v>
@@ -1855,17 +1864,17 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B70" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" s="3">
-        <v>848</v>
+        <v>416</v>
       </c>
       <c r="D70" s="7">
         <f>B70/C70</f>
-        <v>3.5377358490566039E-3</v>
+        <v>4.807692307692308E-3</v>
       </c>
       <c r="E70" t="s">
         <v>75</v>
@@ -1873,25 +1882,79 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B71" s="3">
         <v>2</v>
       </c>
       <c r="C71" s="3">
-        <v>616</v>
+        <v>528</v>
       </c>
       <c r="D71" s="7">
         <f>B71/C71</f>
+        <v>3.787878787878788E-3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" s="3">
+        <v>2</v>
+      </c>
+      <c r="C72" s="3">
+        <v>544</v>
+      </c>
+      <c r="D72" s="7">
+        <f>B72/C72</f>
+        <v>3.6764705882352941E-3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" s="3">
+        <v>3</v>
+      </c>
+      <c r="C73" s="3">
+        <v>848</v>
+      </c>
+      <c r="D73" s="7">
+        <f>B73/C73</f>
+        <v>3.5377358490566039E-3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="3">
+        <v>2</v>
+      </c>
+      <c r="C74" s="3">
+        <v>616</v>
+      </c>
+      <c r="D74" s="7">
+        <f>B74/C74</f>
         <v>3.246753246753247E-3</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E74" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:D70">
-    <sortState ref="A3:D71">
+    <sortState ref="A3:D74">
       <sortCondition descending="1" ref="D2:D70"/>
     </sortState>
   </autoFilter>

--- a/Book Ranking.xlsx
+++ b/Book Ranking.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="85">
   <si>
     <t>Book Ranking</t>
   </si>
@@ -254,6 +254,24 @@
   </si>
   <si>
     <t>The Relativity of Wrong (Asimov)</t>
+  </si>
+  <si>
+    <t>The Hero with a Thousand Faces</t>
+  </si>
+  <si>
+    <t>Maneuver Warfare Handbook</t>
+  </si>
+  <si>
+    <t>Markings (Dag)</t>
+  </si>
+  <si>
+    <t>The Penguin Guide to the United States Constitution</t>
+  </si>
+  <si>
+    <t>Buddhism: An Introduction and Guide</t>
+  </si>
+  <si>
+    <t>Letters from a Stoic</t>
   </si>
 </sst>
 </file>
@@ -617,11 +635,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,17 +748,17 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="B7" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D7" s="7">
         <f>B7/C7</f>
-        <v>3.0303030303030304E-2</v>
+        <v>3.7593984962406013E-2</v>
       </c>
       <c r="E7" t="s">
         <v>75</v>
@@ -748,17 +766,17 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B8" s="3">
         <v>4</v>
       </c>
       <c r="C8" s="3">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="D8" s="7">
         <f>B8/C8</f>
-        <v>2.5000000000000001E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="E8" t="s">
         <v>75</v>
@@ -766,13 +784,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D9" s="7">
         <f>B9/C9</f>
@@ -784,17 +802,17 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="D10" s="7">
         <f>B10/C10</f>
-        <v>2.34375E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E10" t="s">
         <v>75</v>
@@ -802,17 +820,17 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" s="3">
-        <v>228</v>
+        <v>128</v>
       </c>
       <c r="D11" s="7">
         <f>B11/C11</f>
-        <v>2.1929824561403508E-2</v>
+        <v>2.34375E-2</v>
       </c>
       <c r="E11" t="s">
         <v>75</v>
@@ -820,17 +838,17 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="3">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
         <f>B12/C12</f>
-        <v>2.0833333333333332E-2</v>
+        <v>2.1929824561403508E-2</v>
       </c>
       <c r="E12" t="s">
         <v>75</v>
@@ -838,17 +856,17 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="3">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="D13" s="7">
         <f>B13/C13</f>
-        <v>1.8749999999999999E-2</v>
+        <v>2.0942408376963352E-2</v>
       </c>
       <c r="E13" t="s">
         <v>75</v>
@@ -856,17 +874,17 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="B14" s="3">
         <v>4</v>
       </c>
       <c r="C14" s="3">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="D14" s="7">
         <f>B14/C14</f>
-        <v>1.7857142857142856E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E14" t="s">
         <v>75</v>
@@ -874,17 +892,17 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" s="3">
-        <v>288</v>
+        <v>160</v>
       </c>
       <c r="D15" s="7">
         <f>B15/C15</f>
-        <v>1.7361111111111112E-2</v>
+        <v>1.8749999999999999E-2</v>
       </c>
       <c r="E15" t="s">
         <v>75</v>
@@ -892,17 +910,17 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="B16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="3">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="D16" s="7">
         <f>B16/C16</f>
-        <v>1.6483516483516484E-2</v>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="E16" t="s">
         <v>75</v>
@@ -910,17 +928,17 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="D17" s="7">
         <f>B17/C17</f>
-        <v>1.6E-2</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="E17" t="s">
         <v>75</v>
@@ -928,17 +946,17 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="B18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="3">
-        <v>336</v>
+        <v>231</v>
       </c>
       <c r="D18" s="7">
         <f>B18/C18</f>
-        <v>1.488095238095238E-2</v>
+        <v>1.7316017316017316E-2</v>
       </c>
       <c r="E18" t="s">
         <v>75</v>
@@ -946,17 +964,17 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B19" s="3">
         <v>3</v>
       </c>
       <c r="C19" s="3">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="D19" s="7">
         <f>B19/C19</f>
-        <v>1.4423076923076924E-2</v>
+        <v>1.6483516483516484E-2</v>
       </c>
       <c r="E19" t="s">
         <v>75</v>
@@ -964,17 +982,17 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3">
-        <v>368</v>
+        <v>250</v>
       </c>
       <c r="D20" s="7">
         <f>B20/C20</f>
-        <v>1.358695652173913E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E20" t="s">
         <v>75</v>
@@ -982,17 +1000,17 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B21" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="D21" s="7">
         <f>B21/C21</f>
-        <v>1.2500000000000001E-2</v>
+        <v>1.488095238095238E-2</v>
       </c>
       <c r="E21" t="s">
         <v>75</v>
@@ -1000,17 +1018,17 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B22" s="3">
         <v>4</v>
       </c>
       <c r="C22" s="3">
-        <v>336</v>
+        <v>276</v>
       </c>
       <c r="D22" s="7">
         <f>B22/C22</f>
-        <v>1.1904761904761904E-2</v>
+        <v>1.4492753623188406E-2</v>
       </c>
       <c r="E22" t="s">
         <v>75</v>
@@ -1018,17 +1036,17 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3">
         <v>3</v>
       </c>
       <c r="C23" s="3">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="D23" s="7">
         <f>B23/C23</f>
-        <v>1.171875E-2</v>
+        <v>1.4423076923076924E-2</v>
       </c>
       <c r="E23" t="s">
         <v>75</v>
@@ -1036,17 +1054,17 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="B24" s="3">
         <v>3</v>
       </c>
       <c r="C24" s="3">
-        <v>264</v>
+        <v>213</v>
       </c>
       <c r="D24" s="7">
         <f>B24/C24</f>
-        <v>1.1363636363636364E-2</v>
+        <v>1.4084507042253521E-2</v>
       </c>
       <c r="E24" t="s">
         <v>75</v>
@@ -1054,17 +1072,17 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="D25" s="7">
         <f>B25/C25</f>
-        <v>1.0416666666666666E-2</v>
+        <v>1.358695652173913E-2</v>
       </c>
       <c r="E25" t="s">
         <v>75</v>
@@ -1072,17 +1090,17 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>384</v>
+        <v>320</v>
       </c>
       <c r="D26" s="7">
         <f>B26/C26</f>
-        <v>1.0416666666666666E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="E26" t="s">
         <v>75</v>
@@ -1090,17 +1108,17 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B27" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>288</v>
+        <v>336</v>
       </c>
       <c r="D27" s="7">
         <f>B27/C27</f>
-        <v>1.0416666666666666E-2</v>
+        <v>1.1904761904761904E-2</v>
       </c>
       <c r="E27" t="s">
         <v>75</v>
@@ -1108,17 +1126,17 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B28" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
-        <v>400</v>
+        <v>256</v>
       </c>
       <c r="D28" s="7">
         <f>B28/C28</f>
-        <v>0.01</v>
+        <v>1.171875E-2</v>
       </c>
       <c r="E28" t="s">
         <v>75</v>
@@ -1126,17 +1144,17 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="B29" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" s="3">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="D29" s="7">
         <f>B29/C29</f>
-        <v>9.6153846153846159E-3</v>
+        <v>1.1574074074074073E-2</v>
       </c>
       <c r="E29" t="s">
         <v>75</v>
@@ -1144,17 +1162,17 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="3">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="D30" s="7">
         <f>B30/C30</f>
-        <v>9.6153846153846159E-3</v>
+        <v>1.1363636363636364E-2</v>
       </c>
       <c r="E30" t="s">
         <v>75</v>
@@ -1162,17 +1180,17 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="B31" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C31" s="3">
-        <v>208</v>
+        <v>384</v>
       </c>
       <c r="D31" s="7">
         <f>B31/C31</f>
-        <v>9.6153846153846159E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E31" t="s">
         <v>75</v>
@@ -1180,17 +1198,17 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B32" s="3">
         <v>4</v>
       </c>
       <c r="C32" s="3">
-        <v>432</v>
+        <v>384</v>
       </c>
       <c r="D32" s="7">
         <f>B32/C32</f>
-        <v>9.2592592592592587E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E32" t="s">
         <v>75</v>
@@ -1198,17 +1216,17 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B33" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" s="3">
-        <v>436</v>
+        <v>288</v>
       </c>
       <c r="D33" s="7">
         <f>B33/C33</f>
-        <v>9.1743119266055051E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E33" t="s">
         <v>75</v>
@@ -1216,17 +1234,17 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B34" s="3">
         <v>4</v>
       </c>
       <c r="C34" s="3">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="D34" s="7">
         <f>B34/C34</f>
-        <v>9.0090090090090089E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E34" t="s">
         <v>75</v>
@@ -1234,17 +1252,17 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B35" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" s="3">
-        <v>336</v>
+        <v>416</v>
       </c>
       <c r="D35" s="7">
         <f>B35/C35</f>
-        <v>8.9285714285714281E-3</v>
+        <v>9.6153846153846159E-3</v>
       </c>
       <c r="E35" t="s">
         <v>75</v>
@@ -1252,17 +1270,17 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="B36" s="3">
         <v>2</v>
       </c>
       <c r="C36" s="3">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="D36" s="7">
         <f>B36/C36</f>
-        <v>8.8888888888888889E-3</v>
+        <v>9.6153846153846159E-3</v>
       </c>
       <c r="E36" t="s">
         <v>75</v>
@@ -1270,17 +1288,17 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B37" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C37" s="3">
-        <v>464</v>
+        <v>208</v>
       </c>
       <c r="D37" s="7">
         <f>B37/C37</f>
-        <v>8.6206896551724137E-3</v>
+        <v>9.6153846153846159E-3</v>
       </c>
       <c r="E37" t="s">
         <v>75</v>
@@ -1288,17 +1306,17 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B38" s="3">
         <v>4</v>
       </c>
       <c r="C38" s="3">
-        <v>464</v>
+        <v>432</v>
       </c>
       <c r="D38" s="7">
         <f>B38/C38</f>
-        <v>8.6206896551724137E-3</v>
+        <v>9.2592592592592587E-3</v>
       </c>
       <c r="E38" t="s">
         <v>75</v>
@@ -1306,17 +1324,17 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B39" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C39" s="3">
-        <v>352</v>
+        <v>436</v>
       </c>
       <c r="D39" s="7">
         <f>B39/C39</f>
-        <v>8.5227272727272721E-3</v>
+        <v>9.1743119266055051E-3</v>
       </c>
       <c r="E39" t="s">
         <v>75</v>
@@ -1324,17 +1342,17 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B40" s="3">
         <v>4</v>
       </c>
       <c r="C40" s="3">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="D40" s="7">
         <f>B40/C40</f>
-        <v>8.3333333333333332E-3</v>
+        <v>9.0090090090090089E-3</v>
       </c>
       <c r="E40" t="s">
         <v>75</v>
@@ -1342,17 +1360,17 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B41" s="3">
         <v>3</v>
       </c>
       <c r="C41" s="3">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="D41" s="7">
         <f>B41/C41</f>
-        <v>8.3333333333333332E-3</v>
+        <v>8.9285714285714281E-3</v>
       </c>
       <c r="E41" t="s">
         <v>75</v>
@@ -1360,17 +1378,17 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="B42" s="3">
         <v>2</v>
       </c>
       <c r="C42" s="3">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D42" s="7">
         <f>B42/C42</f>
-        <v>8.3333333333333332E-3</v>
+        <v>8.8888888888888889E-3</v>
       </c>
       <c r="E42" t="s">
         <v>75</v>
@@ -1378,17 +1396,17 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B43" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C43" s="3">
-        <v>368</v>
+        <v>464</v>
       </c>
       <c r="D43" s="7">
         <f>B43/C43</f>
-        <v>8.152173913043478E-3</v>
+        <v>8.6206896551724137E-3</v>
       </c>
       <c r="E43" t="s">
         <v>75</v>
@@ -1396,17 +1414,17 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="B44" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C44" s="3">
-        <v>368</v>
+        <v>464</v>
       </c>
       <c r="D44" s="7">
         <f>B44/C44</f>
-        <v>8.152173913043478E-3</v>
+        <v>8.6206896551724137E-3</v>
       </c>
       <c r="E44" t="s">
         <v>75</v>
@@ -1414,17 +1432,17 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B45" s="3">
         <v>3</v>
       </c>
       <c r="C45" s="3">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="D45" s="7">
         <f>B45/C45</f>
-        <v>8.0862533692722376E-3</v>
+        <v>8.5227272727272721E-3</v>
       </c>
       <c r="E45" t="s">
         <v>75</v>
@@ -1432,17 +1450,17 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B46" s="3">
         <v>4</v>
       </c>
       <c r="C46" s="3">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="D46" s="7">
         <f>B46/C46</f>
-        <v>8.0160320641282558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E46" t="s">
         <v>75</v>
@@ -1450,17 +1468,17 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B47" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47" s="3">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="D47" s="7">
         <f>B47/C47</f>
-        <v>8.0000000000000002E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E47" t="s">
         <v>75</v>
@@ -1468,17 +1486,17 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B48" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C48" s="3">
-        <v>512</v>
+        <v>240</v>
       </c>
       <c r="D48" s="7">
         <f>B48/C48</f>
-        <v>7.8125E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E48" t="s">
         <v>75</v>
@@ -1486,17 +1504,17 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="B49" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" s="3">
-        <v>512</v>
+        <v>368</v>
       </c>
       <c r="D49" s="7">
         <f>B49/C49</f>
-        <v>7.8125E-3</v>
+        <v>8.152173913043478E-3</v>
       </c>
       <c r="E49" t="s">
         <v>75</v>
@@ -1504,17 +1522,17 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B50" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C50" s="3">
-        <v>264</v>
+        <v>368</v>
       </c>
       <c r="D50" s="7">
         <f>B50/C50</f>
-        <v>7.575757575757576E-3</v>
+        <v>8.152173913043478E-3</v>
       </c>
       <c r="E50" t="s">
         <v>75</v>
@@ -1522,17 +1540,17 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B51" s="3">
         <v>3</v>
       </c>
       <c r="C51" s="3">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="D51" s="7">
         <f>B51/C51</f>
-        <v>7.4999999999999997E-3</v>
+        <v>8.0862533692722376E-3</v>
       </c>
       <c r="E51" t="s">
         <v>75</v>
@@ -1540,17 +1558,17 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="B52" s="3">
         <v>4</v>
       </c>
       <c r="C52" s="3">
-        <v>544</v>
+        <v>499</v>
       </c>
       <c r="D52" s="7">
         <f>B52/C52</f>
-        <v>7.3529411764705881E-3</v>
+        <v>8.0160320641282558E-3</v>
       </c>
       <c r="E52" t="s">
         <v>75</v>
@@ -1558,17 +1576,17 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="B53" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C53" s="3">
-        <v>560</v>
+        <v>250</v>
       </c>
       <c r="D53" s="7">
         <f>B53/C53</f>
-        <v>7.1428571428571426E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E53" t="s">
         <v>75</v>
@@ -1576,17 +1594,17 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B54" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C54" s="3">
-        <v>284</v>
+        <v>512</v>
       </c>
       <c r="D54" s="7">
         <f>B54/C54</f>
-        <v>7.0422535211267607E-3</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="E54" t="s">
         <v>75</v>
@@ -1594,17 +1612,17 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B55" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C55" s="3">
-        <v>288</v>
+        <v>512</v>
       </c>
       <c r="D55" s="7">
         <f>B55/C55</f>
-        <v>6.9444444444444441E-3</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="E55" t="s">
         <v>75</v>
@@ -1612,17 +1630,17 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B56" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56" s="3">
-        <v>148</v>
+        <v>264</v>
       </c>
       <c r="D56" s="7">
         <f>B56/C56</f>
-        <v>6.7567567567567571E-3</v>
+        <v>7.575757575757576E-3</v>
       </c>
       <c r="E56" t="s">
         <v>75</v>
@@ -1630,17 +1648,17 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B57" s="3">
         <v>3</v>
       </c>
       <c r="C57" s="3">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="D57" s="7">
         <f>B57/C57</f>
-        <v>6.2500000000000003E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="E57" t="s">
         <v>75</v>
@@ -1648,17 +1666,17 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B58" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C58" s="3">
-        <v>480</v>
+        <v>544</v>
       </c>
       <c r="D58" s="7">
         <f>B58/C58</f>
-        <v>6.2500000000000003E-3</v>
+        <v>7.3529411764705881E-3</v>
       </c>
       <c r="E58" t="s">
         <v>75</v>
@@ -1666,17 +1684,17 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B59" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C59" s="3">
-        <v>488</v>
+        <v>560</v>
       </c>
       <c r="D59" s="7">
         <f>B59/C59</f>
-        <v>6.1475409836065573E-3</v>
+        <v>7.1428571428571426E-3</v>
       </c>
       <c r="E59" t="s">
         <v>75</v>
@@ -1684,17 +1702,17 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="B60" s="3">
         <v>2</v>
       </c>
       <c r="C60" s="3">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="D60" s="7">
         <f>B60/C60</f>
-        <v>6.024096385542169E-3</v>
+        <v>7.0422535211267607E-3</v>
       </c>
       <c r="E60" t="s">
         <v>75</v>
@@ -1702,17 +1720,17 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B61" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C61" s="3">
-        <v>704</v>
+        <v>288</v>
       </c>
       <c r="D61" s="7">
         <f>B61/C61</f>
-        <v>5.681818181818182E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="E61" t="s">
         <v>75</v>
@@ -1720,17 +1738,17 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B62" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C62" s="3">
-        <v>736</v>
+        <v>148</v>
       </c>
       <c r="D62" s="7">
         <f>B62/C62</f>
-        <v>5.434782608695652E-3</v>
+        <v>6.7567567567567571E-3</v>
       </c>
       <c r="E62" t="s">
         <v>75</v>
@@ -1738,17 +1756,17 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B63" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63" s="3">
-        <v>373</v>
+        <v>480</v>
       </c>
       <c r="D63" s="7">
         <f>B63/C63</f>
-        <v>5.3619302949061663E-3</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="E63" t="s">
         <v>75</v>
@@ -1756,17 +1774,17 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B64" s="3">
         <v>3</v>
       </c>
       <c r="C64" s="3">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="D64" s="7">
         <f>B64/C64</f>
-        <v>5.3571428571428572E-3</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="E64" t="s">
         <v>75</v>
@@ -1774,17 +1792,17 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B65" s="3">
         <v>3</v>
       </c>
       <c r="C65" s="3">
-        <v>560</v>
+        <v>488</v>
       </c>
       <c r="D65" s="7">
         <f>B65/C65</f>
-        <v>5.3571428571428572E-3</v>
+        <v>6.1475409836065573E-3</v>
       </c>
       <c r="E65" t="s">
         <v>75</v>
@@ -1792,17 +1810,17 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="B66" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66" s="3">
-        <v>576</v>
+        <v>332</v>
       </c>
       <c r="D66" s="7">
         <f>B66/C66</f>
-        <v>5.208333333333333E-3</v>
+        <v>6.024096385542169E-3</v>
       </c>
       <c r="E66" t="s">
         <v>75</v>
@@ -1810,17 +1828,17 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B67" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C67" s="3">
-        <v>384</v>
+        <v>704</v>
       </c>
       <c r="D67" s="7">
         <f>B67/C67</f>
-        <v>5.208333333333333E-3</v>
+        <v>5.681818181818182E-3</v>
       </c>
       <c r="E67" t="s">
         <v>75</v>
@@ -1828,17 +1846,17 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="B68" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C68" s="3">
-        <v>400</v>
+        <v>736</v>
       </c>
       <c r="D68" s="7">
         <f>B68/C68</f>
-        <v>5.0000000000000001E-3</v>
+        <v>5.434782608695652E-3</v>
       </c>
       <c r="E68" t="s">
         <v>75</v>
@@ -1846,17 +1864,17 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B69" s="3">
         <v>2</v>
       </c>
       <c r="C69" s="3">
-        <v>416</v>
+        <v>373</v>
       </c>
       <c r="D69" s="7">
         <f>B69/C69</f>
-        <v>4.807692307692308E-3</v>
+        <v>5.3619302949061663E-3</v>
       </c>
       <c r="E69" t="s">
         <v>75</v>
@@ -1864,17 +1882,17 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="B70" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C70" s="3">
-        <v>416</v>
+        <v>560</v>
       </c>
       <c r="D70" s="7">
         <f>B70/C70</f>
-        <v>4.807692307692308E-3</v>
+        <v>5.3571428571428572E-3</v>
       </c>
       <c r="E70" t="s">
         <v>75</v>
@@ -1882,17 +1900,17 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B71" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C71" s="3">
-        <v>528</v>
+        <v>560</v>
       </c>
       <c r="D71" s="7">
         <f>B71/C71</f>
-        <v>3.787878787878788E-3</v>
+        <v>5.3571428571428572E-3</v>
       </c>
       <c r="E71" t="s">
         <v>75</v>
@@ -1900,17 +1918,17 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B72" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C72" s="3">
-        <v>544</v>
+        <v>576</v>
       </c>
       <c r="D72" s="7">
         <f>B72/C72</f>
-        <v>3.6764705882352941E-3</v>
+        <v>5.208333333333333E-3</v>
       </c>
       <c r="E72" t="s">
         <v>75</v>
@@ -1918,17 +1936,17 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B73" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73" s="3">
-        <v>848</v>
+        <v>384</v>
       </c>
       <c r="D73" s="7">
         <f>B73/C73</f>
-        <v>3.5377358490566039E-3</v>
+        <v>5.208333333333333E-3</v>
       </c>
       <c r="E73" t="s">
         <v>75</v>
@@ -1936,25 +1954,133 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B74" s="3">
         <v>2</v>
       </c>
       <c r="C74" s="3">
-        <v>616</v>
+        <v>400</v>
       </c>
       <c r="D74" s="7">
         <f>B74/C74</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="3">
+        <v>2</v>
+      </c>
+      <c r="C75" s="3">
+        <v>416</v>
+      </c>
+      <c r="D75" s="7">
+        <f>B75/C75</f>
+        <v>4.807692307692308E-3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B76" s="3">
+        <v>2</v>
+      </c>
+      <c r="C76" s="3">
+        <v>416</v>
+      </c>
+      <c r="D76" s="7">
+        <f>B76/C76</f>
+        <v>4.807692307692308E-3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" s="3">
+        <v>2</v>
+      </c>
+      <c r="C77" s="3">
+        <v>528</v>
+      </c>
+      <c r="D77" s="7">
+        <f>B77/C77</f>
+        <v>3.787878787878788E-3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" s="3">
+        <v>2</v>
+      </c>
+      <c r="C78" s="3">
+        <v>544</v>
+      </c>
+      <c r="D78" s="7">
+        <f>B78/C78</f>
+        <v>3.6764705882352941E-3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" s="3">
+        <v>3</v>
+      </c>
+      <c r="C79" s="3">
+        <v>848</v>
+      </c>
+      <c r="D79" s="7">
+        <f>B79/C79</f>
+        <v>3.5377358490566039E-3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="3">
+        <v>2</v>
+      </c>
+      <c r="C80" s="3">
+        <v>616</v>
+      </c>
+      <c r="D80" s="7">
+        <f>B80/C80</f>
         <v>3.246753246753247E-3</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E80" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:D70">
-    <sortState ref="A3:D74">
+    <sortState ref="A3:D80">
       <sortCondition descending="1" ref="D2:D70"/>
     </sortState>
   </autoFilter>

--- a/Book Ranking.xlsx
+++ b/Book Ranking.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="86">
   <si>
     <t>Book Ranking</t>
   </si>
@@ -157,9 +157,6 @@
     <t xml:space="preserve">Black Earth: The Holocaust as History and Warning  </t>
   </si>
   <si>
-    <t xml:space="preserve"> - The Gamble: General Petraeus and the American Military Adventure in Iraq  </t>
-  </si>
-  <si>
     <t>Wrapped in the Flag: A Personal History of America's Radical Right</t>
   </si>
   <si>
@@ -272,6 +269,12 @@
   </si>
   <si>
     <t>Letters from a Stoic</t>
+  </si>
+  <si>
+    <t>The Great Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Gamble: General Petraeus and the American Military Adventure in Iraq  </t>
   </si>
 </sst>
 </file>
@@ -318,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -331,6 +334,7 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,11 +639,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +675,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -685,16 +689,16 @@
         <v>46</v>
       </c>
       <c r="D3" s="7">
-        <f>B3/C3</f>
+        <f t="shared" ref="D3:D34" si="0">B3/C3</f>
         <v>8.6956521739130432E-2</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
@@ -703,11 +707,11 @@
         <v>30</v>
       </c>
       <c r="D4" s="7">
-        <f>B4/C4</f>
+        <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -721,11 +725,11 @@
         <v>74</v>
       </c>
       <c r="D5" s="7">
-        <f>B5/C5</f>
+        <f t="shared" si="0"/>
         <v>5.4054054054054057E-2</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -739,16 +743,16 @@
         <v>120</v>
       </c>
       <c r="D6" s="7">
-        <f>B6/C6</f>
+        <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
@@ -757,16 +761,16 @@
         <v>133</v>
       </c>
       <c r="D7" s="7">
-        <f>B7/C7</f>
+        <f t="shared" si="0"/>
         <v>3.7593984962406013E-2</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3">
         <v>4</v>
@@ -775,11 +779,11 @@
         <v>132</v>
       </c>
       <c r="D8" s="7">
-        <f>B8/C8</f>
+        <f t="shared" si="0"/>
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -793,16 +797,16 @@
         <v>160</v>
       </c>
       <c r="D9" s="7">
-        <f>B9/C9</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="3">
         <v>2</v>
@@ -811,11 +815,11 @@
         <v>80</v>
       </c>
       <c r="D10" s="7">
-        <f>B10/C10</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -829,11 +833,11 @@
         <v>128</v>
       </c>
       <c r="D11" s="7">
-        <f>B11/C11</f>
+        <f t="shared" si="0"/>
         <v>2.34375E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -847,16 +851,16 @@
         <v>228</v>
       </c>
       <c r="D12" s="7">
-        <f>B12/C12</f>
+        <f t="shared" si="0"/>
         <v>2.1929824561403508E-2</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="3">
         <v>4</v>
@@ -865,11 +869,11 @@
         <v>191</v>
       </c>
       <c r="D13" s="7">
-        <f>B13/C13</f>
+        <f t="shared" si="0"/>
         <v>2.0942408376963352E-2</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -883,16 +887,16 @@
         <v>192</v>
       </c>
       <c r="D14" s="7">
-        <f>B14/C14</f>
+        <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
@@ -901,16 +905,16 @@
         <v>160</v>
       </c>
       <c r="D15" s="7">
-        <f>B15/C15</f>
+        <f t="shared" si="0"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="3">
         <v>4</v>
@@ -919,16 +923,16 @@
         <v>224</v>
       </c>
       <c r="D16" s="7">
-        <f>B16/C16</f>
+        <f t="shared" si="0"/>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="3">
         <v>5</v>
@@ -937,16 +941,16 @@
         <v>288</v>
       </c>
       <c r="D17" s="7">
-        <f>B17/C17</f>
+        <f t="shared" si="0"/>
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="3">
         <v>4</v>
@@ -955,11 +959,11 @@
         <v>231</v>
       </c>
       <c r="D18" s="7">
-        <f>B18/C18</f>
+        <f t="shared" si="0"/>
         <v>1.7316017316017316E-2</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -973,11 +977,11 @@
         <v>182</v>
       </c>
       <c r="D19" s="7">
-        <f>B19/C19</f>
+        <f t="shared" si="0"/>
         <v>1.6483516483516484E-2</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -991,16 +995,16 @@
         <v>250</v>
       </c>
       <c r="D20" s="7">
-        <f>B20/C20</f>
+        <f t="shared" si="0"/>
         <v>1.6E-2</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="3">
         <v>5</v>
@@ -1009,16 +1013,16 @@
         <v>336</v>
       </c>
       <c r="D21" s="7">
-        <f>B21/C21</f>
+        <f t="shared" si="0"/>
         <v>1.488095238095238E-2</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" s="3">
         <v>4</v>
@@ -1027,11 +1031,11 @@
         <v>276</v>
       </c>
       <c r="D22" s="7">
-        <f>B22/C22</f>
+        <f t="shared" si="0"/>
         <v>1.4492753623188406E-2</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1045,16 +1049,16 @@
         <v>208</v>
       </c>
       <c r="D23" s="7">
-        <f>B23/C23</f>
+        <f t="shared" si="0"/>
         <v>1.4423076923076924E-2</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="3">
         <v>3</v>
@@ -1063,16 +1067,16 @@
         <v>213</v>
       </c>
       <c r="D24" s="7">
-        <f>B24/C24</f>
+        <f t="shared" si="0"/>
         <v>1.4084507042253521E-2</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="3">
         <v>5</v>
@@ -1081,16 +1085,16 @@
         <v>368</v>
       </c>
       <c r="D25" s="7">
-        <f>B25/C25</f>
+        <f t="shared" si="0"/>
         <v>1.358695652173913E-2</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -1099,16 +1103,16 @@
         <v>320</v>
       </c>
       <c r="D26" s="7">
-        <f>B26/C26</f>
+        <f t="shared" si="0"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
@@ -1117,11 +1121,11 @@
         <v>336</v>
       </c>
       <c r="D27" s="7">
-        <f>B27/C27</f>
+        <f t="shared" si="0"/>
         <v>1.1904761904761904E-2</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1135,16 +1139,16 @@
         <v>256</v>
       </c>
       <c r="D28" s="7">
-        <f>B28/C28</f>
+        <f t="shared" si="0"/>
         <v>1.171875E-2</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B29" s="3">
         <v>5</v>
@@ -1153,16 +1157,16 @@
         <v>432</v>
       </c>
       <c r="D29" s="7">
-        <f>B29/C29</f>
+        <f t="shared" si="0"/>
         <v>1.1574074074074073E-2</v>
       </c>
       <c r="E29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>3</v>
@@ -1171,11 +1175,11 @@
         <v>264</v>
       </c>
       <c r="D30" s="7">
-        <f>B30/C30</f>
+        <f t="shared" si="0"/>
         <v>1.1363636363636364E-2</v>
       </c>
       <c r="E30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1189,16 +1193,16 @@
         <v>384</v>
       </c>
       <c r="D31" s="7">
-        <f>B31/C31</f>
+        <f t="shared" si="0"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="3">
         <v>4</v>
@@ -1207,11 +1211,11 @@
         <v>384</v>
       </c>
       <c r="D32" s="7">
-        <f>B32/C32</f>
+        <f t="shared" si="0"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1225,11 +1229,11 @@
         <v>288</v>
       </c>
       <c r="D33" s="7">
-        <f>B33/C33</f>
+        <f t="shared" si="0"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1243,16 +1247,16 @@
         <v>400</v>
       </c>
       <c r="D34" s="7">
-        <f>B34/C34</f>
+        <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B35" s="3">
         <v>4</v>
@@ -1261,34 +1265,34 @@
         <v>416</v>
       </c>
       <c r="D35" s="7">
-        <f>B35/C35</f>
+        <f t="shared" ref="D35:D66" si="1">B35/C35</f>
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="8">
         <v>2</v>
       </c>
       <c r="C36" s="3">
         <v>208</v>
       </c>
       <c r="D36" s="7">
-        <f>B36/C36</f>
+        <f t="shared" si="1"/>
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="E36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37" s="3">
         <v>2</v>
@@ -1297,16 +1301,16 @@
         <v>208</v>
       </c>
       <c r="D37" s="7">
-        <f>B37/C37</f>
+        <f t="shared" si="1"/>
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="E37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38" s="3">
         <v>4</v>
@@ -1315,16 +1319,16 @@
         <v>432</v>
       </c>
       <c r="D38" s="7">
-        <f>B38/C38</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="3">
         <v>4</v>
@@ -1333,11 +1337,11 @@
         <v>436</v>
       </c>
       <c r="D39" s="7">
-        <f>B39/C39</f>
+        <f t="shared" si="1"/>
         <v>9.1743119266055051E-3</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1351,16 +1355,16 @@
         <v>444</v>
       </c>
       <c r="D40" s="7">
-        <f>B40/C40</f>
+        <f t="shared" si="1"/>
         <v>9.0090090090090089E-3</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" s="3">
         <v>3</v>
@@ -1369,16 +1373,16 @@
         <v>336</v>
       </c>
       <c r="D41" s="7">
-        <f>B41/C41</f>
+        <f t="shared" si="1"/>
         <v>8.9285714285714281E-3</v>
       </c>
       <c r="E41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B42" s="3">
         <v>2</v>
@@ -1387,11 +1391,11 @@
         <v>225</v>
       </c>
       <c r="D42" s="7">
-        <f>B42/C42</f>
+        <f t="shared" si="1"/>
         <v>8.8888888888888889E-3</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1405,16 +1409,16 @@
         <v>464</v>
       </c>
       <c r="D43" s="7">
-        <f>B43/C43</f>
+        <f t="shared" si="1"/>
         <v>8.6206896551724137E-3</v>
       </c>
       <c r="E43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B44" s="3">
         <v>4</v>
@@ -1423,11 +1427,11 @@
         <v>464</v>
       </c>
       <c r="D44" s="7">
-        <f>B44/C44</f>
+        <f t="shared" si="1"/>
         <v>8.6206896551724137E-3</v>
       </c>
       <c r="E44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1441,11 +1445,11 @@
         <v>352</v>
       </c>
       <c r="D45" s="7">
-        <f>B45/C45</f>
+        <f t="shared" si="1"/>
         <v>8.5227272727272721E-3</v>
       </c>
       <c r="E45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1459,11 +1463,11 @@
         <v>480</v>
       </c>
       <c r="D46" s="7">
-        <f>B46/C46</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="E46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1477,11 +1481,11 @@
         <v>360</v>
       </c>
       <c r="D47" s="7">
-        <f>B47/C47</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="E47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1495,11 +1499,11 @@
         <v>240</v>
       </c>
       <c r="D48" s="7">
-        <f>B48/C48</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="E48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1513,11 +1517,11 @@
         <v>368</v>
       </c>
       <c r="D49" s="7">
-        <f>B49/C49</f>
+        <f t="shared" si="1"/>
         <v>8.152173913043478E-3</v>
       </c>
       <c r="E49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1531,11 +1535,11 @@
         <v>368</v>
       </c>
       <c r="D50" s="7">
-        <f>B50/C50</f>
+        <f t="shared" si="1"/>
         <v>8.152173913043478E-3</v>
       </c>
       <c r="E50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1549,11 +1553,11 @@
         <v>371</v>
       </c>
       <c r="D51" s="7">
-        <f>B51/C51</f>
+        <f t="shared" si="1"/>
         <v>8.0862533692722376E-3</v>
       </c>
       <c r="E51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1567,16 +1571,16 @@
         <v>499</v>
       </c>
       <c r="D52" s="7">
-        <f>B52/C52</f>
+        <f t="shared" si="1"/>
         <v>8.0160320641282558E-3</v>
       </c>
       <c r="E52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="3">
         <v>2</v>
@@ -1585,11 +1589,11 @@
         <v>250</v>
       </c>
       <c r="D53" s="7">
-        <f>B53/C53</f>
+        <f t="shared" si="1"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1603,16 +1607,16 @@
         <v>512</v>
       </c>
       <c r="D54" s="7">
-        <f>B54/C54</f>
+        <f t="shared" si="1"/>
         <v>7.8125E-3</v>
       </c>
       <c r="E54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B55" s="3">
         <v>4</v>
@@ -1621,16 +1625,16 @@
         <v>512</v>
       </c>
       <c r="D55" s="7">
-        <f>B55/C55</f>
+        <f t="shared" si="1"/>
         <v>7.8125E-3</v>
       </c>
       <c r="E55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B56" s="3">
         <v>2</v>
@@ -1639,16 +1643,16 @@
         <v>264</v>
       </c>
       <c r="D56" s="7">
-        <f>B56/C56</f>
+        <f t="shared" si="1"/>
         <v>7.575757575757576E-3</v>
       </c>
       <c r="E56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="3">
         <v>3</v>
@@ -1657,16 +1661,16 @@
         <v>400</v>
       </c>
       <c r="D57" s="7">
-        <f>B57/C57</f>
+        <f t="shared" si="1"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" s="3">
         <v>4</v>
@@ -1675,11 +1679,11 @@
         <v>544</v>
       </c>
       <c r="D58" s="7">
-        <f>B58/C58</f>
+        <f t="shared" si="1"/>
         <v>7.3529411764705881E-3</v>
       </c>
       <c r="E58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1693,11 +1697,11 @@
         <v>560</v>
       </c>
       <c r="D59" s="7">
-        <f>B59/C59</f>
+        <f t="shared" si="1"/>
         <v>7.1428571428571426E-3</v>
       </c>
       <c r="E59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1711,16 +1715,16 @@
         <v>284</v>
       </c>
       <c r="D60" s="7">
-        <f>B60/C60</f>
+        <f t="shared" si="1"/>
         <v>7.0422535211267607E-3</v>
       </c>
       <c r="E60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B61" s="3">
         <v>2</v>
@@ -1729,16 +1733,16 @@
         <v>288</v>
       </c>
       <c r="D61" s="7">
-        <f>B61/C61</f>
+        <f t="shared" si="1"/>
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="E61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" s="3">
         <v>1</v>
@@ -1747,11 +1751,11 @@
         <v>148</v>
       </c>
       <c r="D62" s="7">
-        <f>B62/C62</f>
+        <f t="shared" si="1"/>
         <v>6.7567567567567571E-3</v>
       </c>
       <c r="E62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1765,11 +1769,11 @@
         <v>480</v>
       </c>
       <c r="D63" s="7">
-        <f>B63/C63</f>
+        <f t="shared" si="1"/>
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="E63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1783,11 +1787,11 @@
         <v>480</v>
       </c>
       <c r="D64" s="7">
-        <f>B64/C64</f>
+        <f t="shared" si="1"/>
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="E64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1801,16 +1805,16 @@
         <v>488</v>
       </c>
       <c r="D65" s="7">
-        <f>B65/C65</f>
+        <f t="shared" si="1"/>
         <v>6.1475409836065573E-3</v>
       </c>
       <c r="E65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="3">
         <v>2</v>
@@ -1819,11 +1823,11 @@
         <v>332</v>
       </c>
       <c r="D66" s="7">
-        <f>B66/C66</f>
+        <f t="shared" si="1"/>
         <v>6.024096385542169E-3</v>
       </c>
       <c r="E66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1837,16 +1841,16 @@
         <v>704</v>
       </c>
       <c r="D67" s="7">
-        <f>B67/C67</f>
+        <f t="shared" ref="D67:D98" si="2">B67/C67</f>
         <v>5.681818181818182E-3</v>
       </c>
       <c r="E67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" s="3">
         <v>4</v>
@@ -1855,11 +1859,11 @@
         <v>736</v>
       </c>
       <c r="D68" s="7">
-        <f>B68/C68</f>
+        <f t="shared" si="2"/>
         <v>5.434782608695652E-3</v>
       </c>
       <c r="E68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1873,11 +1877,11 @@
         <v>373</v>
       </c>
       <c r="D69" s="7">
-        <f>B69/C69</f>
+        <f t="shared" si="2"/>
         <v>5.3619302949061663E-3</v>
       </c>
       <c r="E69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1891,11 +1895,11 @@
         <v>560</v>
       </c>
       <c r="D70" s="7">
-        <f>B70/C70</f>
+        <f t="shared" si="2"/>
         <v>5.3571428571428572E-3</v>
       </c>
       <c r="E70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1909,11 +1913,11 @@
         <v>560</v>
       </c>
       <c r="D71" s="7">
-        <f>B71/C71</f>
+        <f t="shared" si="2"/>
         <v>5.3571428571428572E-3</v>
       </c>
       <c r="E71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1927,11 +1931,11 @@
         <v>576</v>
       </c>
       <c r="D72" s="7">
-        <f>B72/C72</f>
+        <f t="shared" si="2"/>
         <v>5.208333333333333E-3</v>
       </c>
       <c r="E72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -1945,11 +1949,11 @@
         <v>384</v>
       </c>
       <c r="D73" s="7">
-        <f>B73/C73</f>
+        <f t="shared" si="2"/>
         <v>5.208333333333333E-3</v>
       </c>
       <c r="E73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -1963,11 +1967,11 @@
         <v>400</v>
       </c>
       <c r="D74" s="7">
-        <f>B74/C74</f>
+        <f t="shared" si="2"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -1981,16 +1985,16 @@
         <v>416</v>
       </c>
       <c r="D75" s="7">
-        <f>B75/C75</f>
+        <f t="shared" si="2"/>
         <v>4.807692307692308E-3</v>
       </c>
       <c r="E75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B76" s="3">
         <v>2</v>
@@ -1999,16 +2003,16 @@
         <v>416</v>
       </c>
       <c r="D76" s="7">
-        <f>B76/C76</f>
+        <f t="shared" si="2"/>
         <v>4.807692307692308E-3</v>
       </c>
       <c r="E76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B77" s="3">
         <v>2</v>
@@ -2017,16 +2021,16 @@
         <v>528</v>
       </c>
       <c r="D77" s="7">
-        <f>B77/C77</f>
+        <f t="shared" si="2"/>
         <v>3.787878787878788E-3</v>
       </c>
       <c r="E77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B78" s="3">
         <v>2</v>
@@ -2035,11 +2039,11 @@
         <v>544</v>
       </c>
       <c r="D78" s="7">
-        <f>B78/C78</f>
+        <f t="shared" si="2"/>
         <v>3.6764705882352941E-3</v>
       </c>
       <c r="E78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2053,11 +2057,11 @@
         <v>848</v>
       </c>
       <c r="D79" s="7">
-        <f>B79/C79</f>
+        <f t="shared" si="2"/>
         <v>3.5377358490566039E-3</v>
       </c>
       <c r="E79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2071,11 +2075,20 @@
         <v>616</v>
       </c>
       <c r="D80" s="7">
-        <f>B80/C80</f>
+        <f t="shared" si="2"/>
         <v>3.246753246753247E-3</v>
       </c>
       <c r="E80" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -2085,5 +2098,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Book Ranking.xlsx
+++ b/Book Ranking.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="91">
   <si>
     <t>Book Ranking</t>
   </si>
@@ -275,6 +275,21 @@
   </si>
   <si>
     <t xml:space="preserve">The Gamble: General Petraeus and the American Military Adventure in Iraq  </t>
+  </si>
+  <si>
+    <t>Promise me Dad</t>
+  </si>
+  <si>
+    <t>The Elements of Zen</t>
+  </si>
+  <si>
+    <t>Dr. Suess: American Icon</t>
+  </si>
+  <si>
+    <t>Myths to Live By</t>
+  </si>
+  <si>
+    <t>Flight of the Wild Gander</t>
   </si>
 </sst>
 </file>
@@ -639,11 +654,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,7 +704,7 @@
         <v>46</v>
       </c>
       <c r="D3" s="7">
-        <f t="shared" ref="D3:D34" si="0">B3/C3</f>
+        <f>B3/C3</f>
         <v>8.6956521739130432E-2</v>
       </c>
       <c r="E3" t="s">
@@ -707,7 +722,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="7">
-        <f t="shared" si="0"/>
+        <f>B4/C4</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="E4" t="s">
@@ -725,7 +740,7 @@
         <v>74</v>
       </c>
       <c r="D5" s="7">
-        <f t="shared" si="0"/>
+        <f>B5/C5</f>
         <v>5.4054054054054057E-2</v>
       </c>
       <c r="E5" t="s">
@@ -743,7 +758,7 @@
         <v>120</v>
       </c>
       <c r="D6" s="7">
-        <f t="shared" si="0"/>
+        <f>B6/C6</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E6" t="s">
@@ -761,7 +776,7 @@
         <v>133</v>
       </c>
       <c r="D7" s="7">
-        <f t="shared" si="0"/>
+        <f>B7/C7</f>
         <v>3.7593984962406013E-2</v>
       </c>
       <c r="E7" t="s">
@@ -779,7 +794,7 @@
         <v>132</v>
       </c>
       <c r="D8" s="7">
-        <f t="shared" si="0"/>
+        <f>B8/C8</f>
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="E8" t="s">
@@ -797,7 +812,7 @@
         <v>160</v>
       </c>
       <c r="D9" s="7">
-        <f t="shared" si="0"/>
+        <f>B9/C9</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E9" t="s">
@@ -815,7 +830,7 @@
         <v>80</v>
       </c>
       <c r="D10" s="7">
-        <f t="shared" si="0"/>
+        <f>B10/C10</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E10" t="s">
@@ -824,17 +839,17 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B11" s="3">
         <v>3</v>
       </c>
       <c r="C11" s="3">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D11" s="7">
-        <f t="shared" si="0"/>
-        <v>2.34375E-2</v>
+        <f>B11/C11</f>
+        <v>2.4193548387096774E-2</v>
       </c>
       <c r="E11" t="s">
         <v>74</v>
@@ -842,17 +857,17 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3">
-        <v>228</v>
+        <v>128</v>
       </c>
       <c r="D12" s="7">
-        <f t="shared" si="0"/>
-        <v>2.1929824561403508E-2</v>
+        <f>B12/C12</f>
+        <v>2.34375E-2</v>
       </c>
       <c r="E12" t="s">
         <v>74</v>
@@ -860,17 +875,17 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="B13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" s="3">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="D13" s="7">
-        <f t="shared" si="0"/>
-        <v>2.0942408376963352E-2</v>
+        <f>B13/C13</f>
+        <v>2.1929824561403508E-2</v>
       </c>
       <c r="E13" t="s">
         <v>74</v>
@@ -878,17 +893,17 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="B14" s="3">
         <v>4</v>
       </c>
       <c r="C14" s="3">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D14" s="7">
-        <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <f>B14/C14</f>
+        <v>2.0942408376963352E-2</v>
       </c>
       <c r="E14" t="s">
         <v>74</v>
@@ -896,17 +911,17 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="3">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="D15" s="7">
-        <f t="shared" si="0"/>
-        <v>1.8749999999999999E-2</v>
+        <f>B15/C15</f>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E15" t="s">
         <v>74</v>
@@ -914,17 +929,17 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B16" s="3">
         <v>4</v>
       </c>
       <c r="C16" s="3">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="D16" s="7">
-        <f t="shared" si="0"/>
-        <v>1.7857142857142856E-2</v>
+        <f>B16/C16</f>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="E16" t="s">
         <v>74</v>
@@ -932,17 +947,17 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B17" s="3">
         <v>5</v>
       </c>
       <c r="C17" s="3">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="D17" s="7">
-        <f t="shared" si="0"/>
-        <v>1.7361111111111112E-2</v>
+        <f>B17/C17</f>
+        <v>1.937984496124031E-2</v>
       </c>
       <c r="E17" t="s">
         <v>74</v>
@@ -950,17 +965,17 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="B18" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="D18" s="7">
-        <f t="shared" si="0"/>
-        <v>1.7316017316017316E-2</v>
+        <f>B18/C18</f>
+        <v>1.8749999999999999E-2</v>
       </c>
       <c r="E18" t="s">
         <v>74</v>
@@ -968,17 +983,17 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="B19" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="3">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" si="0"/>
-        <v>1.6483516483516484E-2</v>
+        <f>B19/C19</f>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="E19" t="s">
         <v>74</v>
@@ -986,17 +1001,17 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="B20" s="3">
         <v>4</v>
       </c>
       <c r="C20" s="3">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" si="0"/>
-        <v>1.6E-2</v>
+        <f>B20/C20</f>
+        <v>1.7699115044247787E-2</v>
       </c>
       <c r="E20" t="s">
         <v>74</v>
@@ -1004,17 +1019,17 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B21" s="3">
         <v>5</v>
       </c>
       <c r="C21" s="3">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="D21" s="7">
-        <f t="shared" si="0"/>
-        <v>1.488095238095238E-2</v>
+        <f>B21/C21</f>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="E21" t="s">
         <v>74</v>
@@ -1022,17 +1037,17 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="3">
         <v>4</v>
       </c>
       <c r="C22" s="3">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="D22" s="7">
-        <f t="shared" si="0"/>
-        <v>1.4492753623188406E-2</v>
+        <f>B22/C22</f>
+        <v>1.7316017316017316E-2</v>
       </c>
       <c r="E22" t="s">
         <v>74</v>
@@ -1040,17 +1055,17 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B23" s="3">
         <v>3</v>
       </c>
       <c r="C23" s="3">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="D23" s="7">
-        <f t="shared" si="0"/>
-        <v>1.4423076923076924E-2</v>
+        <f>B23/C23</f>
+        <v>1.6483516483516484E-2</v>
       </c>
       <c r="E23" t="s">
         <v>74</v>
@@ -1058,17 +1073,17 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="B24" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" s="3">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="D24" s="7">
-        <f t="shared" si="0"/>
-        <v>1.4084507042253521E-2</v>
+        <f>B24/C24</f>
+        <v>1.6E-2</v>
       </c>
       <c r="E24" t="s">
         <v>74</v>
@@ -1076,17 +1091,17 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B25" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>368</v>
+        <v>266</v>
       </c>
       <c r="D25" s="7">
-        <f t="shared" si="0"/>
-        <v>1.358695652173913E-2</v>
+        <f>B25/C25</f>
+        <v>1.5037593984962405E-2</v>
       </c>
       <c r="E25" t="s">
         <v>74</v>
@@ -1094,17 +1109,17 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="D26" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2500000000000001E-2</v>
+        <f>B26/C26</f>
+        <v>1.488095238095238E-2</v>
       </c>
       <c r="E26" t="s">
         <v>74</v>
@@ -1112,17 +1127,17 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>336</v>
+        <v>276</v>
       </c>
       <c r="D27" s="7">
-        <f t="shared" si="0"/>
-        <v>1.1904761904761904E-2</v>
+        <f>B27/C27</f>
+        <v>1.4492753623188406E-2</v>
       </c>
       <c r="E27" t="s">
         <v>74</v>
@@ -1130,17 +1145,17 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B28" s="3">
         <v>3</v>
       </c>
       <c r="C28" s="3">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="D28" s="7">
-        <f t="shared" si="0"/>
-        <v>1.171875E-2</v>
+        <f>B28/C28</f>
+        <v>1.4423076923076924E-2</v>
       </c>
       <c r="E28" t="s">
         <v>74</v>
@@ -1148,17 +1163,17 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B29" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29" s="3">
-        <v>432</v>
+        <v>213</v>
       </c>
       <c r="D29" s="7">
-        <f t="shared" si="0"/>
-        <v>1.1574074074074073E-2</v>
+        <f>B29/C29</f>
+        <v>1.4084507042253521E-2</v>
       </c>
       <c r="E29" t="s">
         <v>74</v>
@@ -1166,17 +1181,17 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B30" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C30" s="3">
-        <v>264</v>
+        <v>368</v>
       </c>
       <c r="D30" s="7">
-        <f t="shared" si="0"/>
-        <v>1.1363636363636364E-2</v>
+        <f>B30/C30</f>
+        <v>1.358695652173913E-2</v>
       </c>
       <c r="E30" t="s">
         <v>74</v>
@@ -1184,17 +1199,17 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="B31" s="3">
         <v>4</v>
       </c>
       <c r="C31" s="3">
-        <v>384</v>
+        <v>320</v>
       </c>
       <c r="D31" s="7">
-        <f t="shared" si="0"/>
-        <v>1.0416666666666666E-2</v>
+        <f>B31/C31</f>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="E31" t="s">
         <v>74</v>
@@ -1202,17 +1217,17 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="3">
         <v>4</v>
       </c>
       <c r="C32" s="3">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="D32" s="7">
-        <f t="shared" si="0"/>
-        <v>1.0416666666666666E-2</v>
+        <f>B32/C32</f>
+        <v>1.1904761904761904E-2</v>
       </c>
       <c r="E32" t="s">
         <v>74</v>
@@ -1220,17 +1235,17 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B33" s="3">
         <v>3</v>
       </c>
       <c r="C33" s="3">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="D33" s="7">
-        <f t="shared" si="0"/>
-        <v>1.0416666666666666E-2</v>
+        <f>B33/C33</f>
+        <v>1.171875E-2</v>
       </c>
       <c r="E33" t="s">
         <v>74</v>
@@ -1238,17 +1253,17 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="B34" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" s="3">
-        <v>400</v>
+        <v>432</v>
       </c>
       <c r="D34" s="7">
-        <f t="shared" si="0"/>
-        <v>0.01</v>
+        <f>B34/C34</f>
+        <v>1.1574074074074073E-2</v>
       </c>
       <c r="E34" t="s">
         <v>74</v>
@@ -1256,17 +1271,17 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="B35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" s="3">
-        <v>416</v>
+        <v>264</v>
       </c>
       <c r="D35" s="7">
-        <f t="shared" ref="D35:D66" si="1">B35/C35</f>
-        <v>9.6153846153846159E-3</v>
+        <f>B35/C35</f>
+        <v>1.1363636363636364E-2</v>
       </c>
       <c r="E35" t="s">
         <v>74</v>
@@ -1274,17 +1289,17 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="8">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="B36" s="3">
+        <v>4</v>
       </c>
       <c r="C36" s="3">
-        <v>208</v>
+        <v>384</v>
       </c>
       <c r="D36" s="7">
-        <f t="shared" si="1"/>
-        <v>9.6153846153846159E-3</v>
+        <f>B36/C36</f>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E36" t="s">
         <v>74</v>
@@ -1292,17 +1307,17 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B37" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C37" s="3">
-        <v>208</v>
+        <v>384</v>
       </c>
       <c r="D37" s="7">
-        <f t="shared" si="1"/>
-        <v>9.6153846153846159E-3</v>
+        <f>B37/C37</f>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E37" t="s">
         <v>74</v>
@@ -1310,17 +1325,17 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="B38" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" s="3">
-        <v>432</v>
+        <v>288</v>
       </c>
       <c r="D38" s="7">
-        <f t="shared" si="1"/>
-        <v>9.2592592592592587E-3</v>
+        <f>B38/C38</f>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E38" t="s">
         <v>74</v>
@@ -1328,17 +1343,17 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B39" s="3">
         <v>4</v>
       </c>
       <c r="C39" s="3">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="D39" s="7">
-        <f t="shared" si="1"/>
-        <v>9.1743119266055051E-3</v>
+        <f>B39/C39</f>
+        <v>0.01</v>
       </c>
       <c r="E39" t="s">
         <v>74</v>
@@ -1346,17 +1361,17 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="B40" s="3">
         <v>4</v>
       </c>
       <c r="C40" s="3">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="D40" s="7">
-        <f t="shared" si="1"/>
-        <v>9.0090090090090089E-3</v>
+        <f>B40/C40</f>
+        <v>9.6153846153846159E-3</v>
       </c>
       <c r="E40" t="s">
         <v>74</v>
@@ -1364,17 +1379,17 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="3">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="B41" s="8">
+        <v>2</v>
       </c>
       <c r="C41" s="3">
-        <v>336</v>
+        <v>208</v>
       </c>
       <c r="D41" s="7">
-        <f t="shared" si="1"/>
-        <v>8.9285714285714281E-3</v>
+        <f>B41/C41</f>
+        <v>9.6153846153846159E-3</v>
       </c>
       <c r="E41" t="s">
         <v>74</v>
@@ -1382,17 +1397,17 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B42" s="3">
         <v>2</v>
       </c>
       <c r="C42" s="3">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="D42" s="7">
-        <f t="shared" si="1"/>
-        <v>8.8888888888888889E-3</v>
+        <f>B42/C42</f>
+        <v>9.6153846153846159E-3</v>
       </c>
       <c r="E42" t="s">
         <v>74</v>
@@ -1400,17 +1415,17 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="B43" s="3">
         <v>4</v>
       </c>
       <c r="C43" s="3">
-        <v>464</v>
+        <v>432</v>
       </c>
       <c r="D43" s="7">
-        <f t="shared" si="1"/>
-        <v>8.6206896551724137E-3</v>
+        <f>B43/C43</f>
+        <v>9.2592592592592587E-3</v>
       </c>
       <c r="E43" t="s">
         <v>74</v>
@@ -1418,17 +1433,17 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B44" s="3">
         <v>4</v>
       </c>
       <c r="C44" s="3">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="D44" s="7">
-        <f t="shared" si="1"/>
-        <v>8.6206896551724137E-3</v>
+        <f>B44/C44</f>
+        <v>9.1743119266055051E-3</v>
       </c>
       <c r="E44" t="s">
         <v>74</v>
@@ -1436,17 +1451,17 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B45" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C45" s="3">
-        <v>352</v>
+        <v>444</v>
       </c>
       <c r="D45" s="7">
-        <f t="shared" si="1"/>
-        <v>8.5227272727272721E-3</v>
+        <f>B45/C45</f>
+        <v>9.0090090090090089E-3</v>
       </c>
       <c r="E45" t="s">
         <v>74</v>
@@ -1454,17 +1469,17 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B46" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" s="3">
-        <v>480</v>
+        <v>336</v>
       </c>
       <c r="D46" s="7">
-        <f t="shared" si="1"/>
-        <v>8.3333333333333332E-3</v>
+        <f>B46/C46</f>
+        <v>8.9285714285714281E-3</v>
       </c>
       <c r="E46" t="s">
         <v>74</v>
@@ -1472,17 +1487,17 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="B47" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" s="3">
-        <v>360</v>
+        <v>225</v>
       </c>
       <c r="D47" s="7">
-        <f t="shared" si="1"/>
-        <v>8.3333333333333332E-3</v>
+        <f>B47/C47</f>
+        <v>8.8888888888888889E-3</v>
       </c>
       <c r="E47" t="s">
         <v>74</v>
@@ -1490,17 +1505,17 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B48" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C48" s="3">
-        <v>240</v>
+        <v>464</v>
       </c>
       <c r="D48" s="7">
-        <f t="shared" si="1"/>
-        <v>8.3333333333333332E-3</v>
+        <f>B48/C48</f>
+        <v>8.6206896551724137E-3</v>
       </c>
       <c r="E48" t="s">
         <v>74</v>
@@ -1508,17 +1523,17 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="B49" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C49" s="3">
-        <v>368</v>
+        <v>464</v>
       </c>
       <c r="D49" s="7">
-        <f t="shared" si="1"/>
-        <v>8.152173913043478E-3</v>
+        <f>B49/C49</f>
+        <v>8.6206896551724137E-3</v>
       </c>
       <c r="E49" t="s">
         <v>74</v>
@@ -1526,17 +1541,17 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B50" s="3">
         <v>3</v>
       </c>
       <c r="C50" s="3">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="D50" s="7">
-        <f t="shared" si="1"/>
-        <v>8.152173913043478E-3</v>
+        <f>B50/C50</f>
+        <v>8.5227272727272721E-3</v>
       </c>
       <c r="E50" t="s">
         <v>74</v>
@@ -1544,17 +1559,17 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B51" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C51" s="3">
-        <v>371</v>
+        <v>480</v>
       </c>
       <c r="D51" s="7">
-        <f t="shared" si="1"/>
-        <v>8.0862533692722376E-3</v>
+        <f>B51/C51</f>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E51" t="s">
         <v>74</v>
@@ -1562,17 +1577,17 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B52" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C52" s="3">
-        <v>499</v>
+        <v>360</v>
       </c>
       <c r="D52" s="7">
-        <f t="shared" si="1"/>
-        <v>8.0160320641282558E-3</v>
+        <f>B52/C52</f>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E52" t="s">
         <v>74</v>
@@ -1580,17 +1595,17 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B53" s="3">
         <v>2</v>
       </c>
       <c r="C53" s="3">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D53" s="7">
-        <f t="shared" si="1"/>
-        <v>8.0000000000000002E-3</v>
+        <f>B53/C53</f>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E53" t="s">
         <v>74</v>
@@ -1598,17 +1613,17 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B54" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54" s="3">
-        <v>512</v>
+        <v>368</v>
       </c>
       <c r="D54" s="7">
-        <f t="shared" si="1"/>
-        <v>7.8125E-3</v>
+        <f>B54/C54</f>
+        <v>8.152173913043478E-3</v>
       </c>
       <c r="E54" t="s">
         <v>74</v>
@@ -1616,17 +1631,17 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="B55" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C55" s="3">
-        <v>512</v>
+        <v>368</v>
       </c>
       <c r="D55" s="7">
-        <f t="shared" si="1"/>
-        <v>7.8125E-3</v>
+        <f>B55/C55</f>
+        <v>8.152173913043478E-3</v>
       </c>
       <c r="E55" t="s">
         <v>74</v>
@@ -1634,17 +1649,17 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B56" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56" s="3">
-        <v>264</v>
+        <v>371</v>
       </c>
       <c r="D56" s="7">
-        <f t="shared" si="1"/>
-        <v>7.575757575757576E-3</v>
+        <f>B56/C56</f>
+        <v>8.0862533692722376E-3</v>
       </c>
       <c r="E56" t="s">
         <v>74</v>
@@ -1652,17 +1667,17 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B57" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C57" s="3">
-        <v>400</v>
+        <v>499</v>
       </c>
       <c r="D57" s="7">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
+        <f>B57/C57</f>
+        <v>8.0160320641282558E-3</v>
       </c>
       <c r="E57" t="s">
         <v>74</v>
@@ -1670,17 +1685,17 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B58" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C58" s="3">
-        <v>544</v>
+        <v>250</v>
       </c>
       <c r="D58" s="7">
-        <f t="shared" si="1"/>
-        <v>7.3529411764705881E-3</v>
+        <f>B58/C58</f>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E58" t="s">
         <v>74</v>
@@ -1688,17 +1703,17 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B59" s="3">
         <v>4</v>
       </c>
       <c r="C59" s="3">
-        <v>560</v>
+        <v>512</v>
       </c>
       <c r="D59" s="7">
-        <f t="shared" si="1"/>
-        <v>7.1428571428571426E-3</v>
+        <f>B59/C59</f>
+        <v>7.8125E-3</v>
       </c>
       <c r="E59" t="s">
         <v>74</v>
@@ -1706,17 +1721,17 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B60" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C60" s="3">
-        <v>284</v>
+        <v>512</v>
       </c>
       <c r="D60" s="7">
-        <f t="shared" si="1"/>
-        <v>7.0422535211267607E-3</v>
+        <f>B60/C60</f>
+        <v>7.8125E-3</v>
       </c>
       <c r="E60" t="s">
         <v>74</v>
@@ -1724,17 +1739,17 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B61" s="3">
         <v>2</v>
       </c>
       <c r="C61" s="3">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="D61" s="7">
-        <f t="shared" si="1"/>
-        <v>6.9444444444444441E-3</v>
+        <f>B61/C61</f>
+        <v>7.575757575757576E-3</v>
       </c>
       <c r="E61" t="s">
         <v>74</v>
@@ -1742,17 +1757,17 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B62" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62" s="3">
-        <v>148</v>
+        <v>400</v>
       </c>
       <c r="D62" s="7">
-        <f t="shared" si="1"/>
-        <v>6.7567567567567571E-3</v>
+        <f>B62/C62</f>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="E62" t="s">
         <v>74</v>
@@ -1760,17 +1775,17 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B63" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C63" s="3">
-        <v>480</v>
+        <v>544</v>
       </c>
       <c r="D63" s="7">
-        <f t="shared" si="1"/>
-        <v>6.2500000000000003E-3</v>
+        <f>B63/C63</f>
+        <v>7.3529411764705881E-3</v>
       </c>
       <c r="E63" t="s">
         <v>74</v>
@@ -1778,17 +1793,17 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B64" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C64" s="3">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="D64" s="7">
-        <f t="shared" si="1"/>
-        <v>6.2500000000000003E-3</v>
+        <f>B64/C64</f>
+        <v>7.1428571428571426E-3</v>
       </c>
       <c r="E64" t="s">
         <v>74</v>
@@ -1796,17 +1811,17 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B65" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" s="3">
-        <v>488</v>
+        <v>284</v>
       </c>
       <c r="D65" s="7">
-        <f t="shared" si="1"/>
-        <v>6.1475409836065573E-3</v>
+        <f>B65/C65</f>
+        <v>7.0422535211267607E-3</v>
       </c>
       <c r="E65" t="s">
         <v>74</v>
@@ -1814,17 +1829,17 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B66" s="3">
         <v>2</v>
       </c>
       <c r="C66" s="3">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="D66" s="7">
-        <f t="shared" si="1"/>
-        <v>6.024096385542169E-3</v>
+        <f>B66/C66</f>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="E66" t="s">
         <v>74</v>
@@ -1832,17 +1847,17 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B67" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C67" s="3">
-        <v>704</v>
+        <v>148</v>
       </c>
       <c r="D67" s="7">
-        <f t="shared" ref="D67:D98" si="2">B67/C67</f>
-        <v>5.681818181818182E-3</v>
+        <f>B67/C67</f>
+        <v>6.7567567567567571E-3</v>
       </c>
       <c r="E67" t="s">
         <v>74</v>
@@ -1850,17 +1865,17 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="B68" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68" s="3">
-        <v>736</v>
+        <v>480</v>
       </c>
       <c r="D68" s="7">
-        <f t="shared" si="2"/>
-        <v>5.434782608695652E-3</v>
+        <f>B68/C68</f>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="E68" t="s">
         <v>74</v>
@@ -1868,17 +1883,17 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B69" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C69" s="3">
-        <v>373</v>
+        <v>480</v>
       </c>
       <c r="D69" s="7">
-        <f t="shared" si="2"/>
-        <v>5.3619302949061663E-3</v>
+        <f>B69/C69</f>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="E69" t="s">
         <v>74</v>
@@ -1886,17 +1901,17 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B70" s="3">
         <v>3</v>
       </c>
       <c r="C70" s="3">
-        <v>560</v>
+        <v>488</v>
       </c>
       <c r="D70" s="7">
-        <f t="shared" si="2"/>
-        <v>5.3571428571428572E-3</v>
+        <f>B70/C70</f>
+        <v>6.1475409836065573E-3</v>
       </c>
       <c r="E70" t="s">
         <v>74</v>
@@ -1904,17 +1919,17 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="B71" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71" s="3">
-        <v>560</v>
+        <v>332</v>
       </c>
       <c r="D71" s="7">
-        <f t="shared" si="2"/>
-        <v>5.3571428571428572E-3</v>
+        <f>B71/C71</f>
+        <v>6.024096385542169E-3</v>
       </c>
       <c r="E71" t="s">
         <v>74</v>
@@ -1922,17 +1937,17 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B72" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C72" s="3">
-        <v>576</v>
+        <v>704</v>
       </c>
       <c r="D72" s="7">
-        <f t="shared" si="2"/>
-        <v>5.208333333333333E-3</v>
+        <f>B72/C72</f>
+        <v>5.681818181818182E-3</v>
       </c>
       <c r="E72" t="s">
         <v>74</v>
@@ -1940,17 +1955,17 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B73" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C73" s="3">
-        <v>384</v>
+        <v>736</v>
       </c>
       <c r="D73" s="7">
-        <f t="shared" si="2"/>
-        <v>5.208333333333333E-3</v>
+        <f>B73/C73</f>
+        <v>5.434782608695652E-3</v>
       </c>
       <c r="E73" t="s">
         <v>74</v>
@@ -1958,17 +1973,17 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B74" s="3">
         <v>2</v>
       </c>
       <c r="C74" s="3">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="D74" s="7">
-        <f t="shared" si="2"/>
-        <v>5.0000000000000001E-3</v>
+        <f>B74/C74</f>
+        <v>5.3619302949061663E-3</v>
       </c>
       <c r="E74" t="s">
         <v>74</v>
@@ -1976,17 +1991,17 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B75" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C75" s="3">
-        <v>416</v>
+        <v>560</v>
       </c>
       <c r="D75" s="7">
-        <f t="shared" si="2"/>
-        <v>4.807692307692308E-3</v>
+        <f>B75/C75</f>
+        <v>5.3571428571428572E-3</v>
       </c>
       <c r="E75" t="s">
         <v>74</v>
@@ -1994,17 +2009,17 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B76" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C76" s="3">
-        <v>416</v>
+        <v>560</v>
       </c>
       <c r="D76" s="7">
-        <f t="shared" si="2"/>
-        <v>4.807692307692308E-3</v>
+        <f>B76/C76</f>
+        <v>5.3571428571428572E-3</v>
       </c>
       <c r="E76" t="s">
         <v>74</v>
@@ -2012,17 +2027,17 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B77" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C77" s="3">
-        <v>528</v>
+        <v>576</v>
       </c>
       <c r="D77" s="7">
-        <f t="shared" si="2"/>
-        <v>3.787878787878788E-3</v>
+        <f>B77/C77</f>
+        <v>5.208333333333333E-3</v>
       </c>
       <c r="E77" t="s">
         <v>74</v>
@@ -2030,17 +2045,17 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="B78" s="3">
         <v>2</v>
       </c>
       <c r="C78" s="3">
-        <v>544</v>
+        <v>384</v>
       </c>
       <c r="D78" s="7">
-        <f t="shared" si="2"/>
-        <v>3.6764705882352941E-3</v>
+        <f>B78/C78</f>
+        <v>5.208333333333333E-3</v>
       </c>
       <c r="E78" t="s">
         <v>74</v>
@@ -2048,17 +2063,17 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="B79" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C79" s="3">
-        <v>848</v>
+        <v>200</v>
       </c>
       <c r="D79" s="7">
-        <f t="shared" si="2"/>
-        <v>3.5377358490566039E-3</v>
+        <f>B79/C79</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E79" t="s">
         <v>74</v>
@@ -2066,17 +2081,17 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B80" s="3">
         <v>2</v>
       </c>
       <c r="C80" s="3">
-        <v>616</v>
+        <v>400</v>
       </c>
       <c r="D80" s="7">
-        <f t="shared" si="2"/>
-        <v>3.246753246753247E-3</v>
+        <f>B80/C80</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E80" t="s">
         <v>74</v>
@@ -2084,16 +2099,97 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D81" s="7" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>33</v>
+      </c>
+      <c r="B81" s="3">
+        <v>2</v>
+      </c>
+      <c r="C81" s="3">
+        <v>416</v>
+      </c>
+      <c r="D81" s="7">
+        <f>B81/C81</f>
+        <v>4.807692307692308E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B82" s="3">
+        <v>2</v>
+      </c>
+      <c r="C82" s="3">
+        <v>416</v>
+      </c>
+      <c r="D82" s="7">
+        <f>B82/C82</f>
+        <v>4.807692307692308E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B83" s="3">
+        <v>2</v>
+      </c>
+      <c r="C83" s="3">
+        <v>528</v>
+      </c>
+      <c r="D83" s="7">
+        <f>B83/C83</f>
+        <v>3.787878787878788E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B84" s="3">
+        <v>2</v>
+      </c>
+      <c r="C84" s="3">
+        <v>544</v>
+      </c>
+      <c r="D84" s="7">
+        <f>B84/C84</f>
+        <v>3.6764705882352941E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" s="3">
+        <v>3</v>
+      </c>
+      <c r="C85" s="3">
+        <v>848</v>
+      </c>
+      <c r="D85" s="7">
+        <f>B85/C85</f>
+        <v>3.5377358490566039E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="3">
+        <v>2</v>
+      </c>
+      <c r="C86" s="3">
+        <v>616</v>
+      </c>
+      <c r="D86" s="7">
+        <f>B86/C86</f>
+        <v>3.246753246753247E-3</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:D70">
-    <sortState ref="A3:D80">
+    <sortState ref="A3:D86">
       <sortCondition descending="1" ref="D2:D70"/>
     </sortState>
   </autoFilter>

--- a/Book Ranking.xlsx
+++ b/Book Ranking.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="94">
   <si>
     <t>Book Ranking</t>
   </si>
@@ -290,6 +290,15 @@
   </si>
   <si>
     <t>Flight of the Wild Gander</t>
+  </si>
+  <si>
+    <t>Rise and Fall of the Third Reich</t>
+  </si>
+  <si>
+    <t>Zoar (Pamphlet)</t>
+  </si>
+  <si>
+    <t>Finite and Infinite Games</t>
   </si>
 </sst>
 </file>
@@ -654,11 +663,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,17 +722,17 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D4" s="7">
         <f>B4/C4</f>
-        <v>6.6666666666666666E-2</v>
+        <v>6.8493150684931503E-2</v>
       </c>
       <c r="E4" t="s">
         <v>74</v>
@@ -731,17 +740,17 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B5" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
         <f>B5/C5</f>
-        <v>5.4054054054054057E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="E5" t="s">
         <v>74</v>
@@ -749,17 +758,17 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="D6" s="7">
         <f>B6/C6</f>
-        <v>4.1666666666666664E-2</v>
+        <v>5.4054054054054057E-2</v>
       </c>
       <c r="E6" t="s">
         <v>74</v>
@@ -767,17 +776,17 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7" s="3">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D7" s="7">
         <f>B7/C7</f>
-        <v>3.7593984962406013E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E7" t="s">
         <v>74</v>
@@ -785,17 +794,17 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B8" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D8" s="7">
         <f>B8/C8</f>
-        <v>3.0303030303030304E-2</v>
+        <v>3.7593984962406013E-2</v>
       </c>
       <c r="E8" t="s">
         <v>74</v>
@@ -803,17 +812,17 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B9" s="3">
         <v>4</v>
       </c>
       <c r="C9" s="3">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="D9" s="7">
         <f>B9/C9</f>
-        <v>2.5000000000000001E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="E9" t="s">
         <v>74</v>
@@ -821,13 +830,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D10" s="7">
         <f>B10/C10</f>
@@ -839,17 +848,17 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B11" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D11" s="7">
         <f>B11/C11</f>
-        <v>2.4193548387096774E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E11" t="s">
         <v>74</v>
@@ -857,17 +866,17 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B12" s="3">
         <v>3</v>
       </c>
       <c r="C12" s="3">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D12" s="7">
         <f>B12/C12</f>
-        <v>2.34375E-2</v>
+        <v>2.4193548387096774E-2</v>
       </c>
       <c r="E12" t="s">
         <v>74</v>
@@ -875,17 +884,17 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" s="3">
-        <v>228</v>
+        <v>128</v>
       </c>
       <c r="D13" s="7">
         <f>B13/C13</f>
-        <v>2.1929824561403508E-2</v>
+        <v>2.34375E-2</v>
       </c>
       <c r="E13" t="s">
         <v>74</v>
@@ -893,17 +902,17 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="B14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="3">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="D14" s="7">
         <f>B14/C14</f>
-        <v>2.0942408376963352E-2</v>
+        <v>2.1929824561403508E-2</v>
       </c>
       <c r="E14" t="s">
         <v>74</v>
@@ -911,17 +920,17 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="B15" s="3">
         <v>4</v>
       </c>
       <c r="C15" s="3">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D15" s="7">
         <f>B15/C15</f>
-        <v>2.0833333333333332E-2</v>
+        <v>2.0942408376963352E-2</v>
       </c>
       <c r="E15" t="s">
         <v>74</v>
@@ -929,17 +938,17 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="B16" s="3">
         <v>4</v>
       </c>
       <c r="C16" s="3">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D16" s="7">
         <f>B16/C16</f>
-        <v>2.0202020202020204E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E16" t="s">
         <v>74</v>
@@ -947,17 +956,17 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B17" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="3">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="D17" s="7">
         <f>B17/C17</f>
-        <v>1.937984496124031E-2</v>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="E17" t="s">
         <v>74</v>
@@ -965,17 +974,17 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="B18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3">
-        <v>160</v>
+        <v>258</v>
       </c>
       <c r="D18" s="7">
         <f>B18/C18</f>
-        <v>1.8749999999999999E-2</v>
+        <v>1.937984496124031E-2</v>
       </c>
       <c r="E18" t="s">
         <v>74</v>
@@ -983,17 +992,17 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="D19" s="7">
         <f>B19/C19</f>
-        <v>1.7857142857142856E-2</v>
+        <v>1.8749999999999999E-2</v>
       </c>
       <c r="E19" t="s">
         <v>74</v>
@@ -1001,17 +1010,17 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="B20" s="3">
         <v>4</v>
       </c>
       <c r="C20" s="3">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D20" s="7">
         <f>B20/C20</f>
-        <v>1.7699115044247787E-2</v>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="E20" t="s">
         <v>74</v>
@@ -1019,17 +1028,17 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B21" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="3">
-        <v>288</v>
+        <v>226</v>
       </c>
       <c r="D21" s="7">
         <f>B21/C21</f>
-        <v>1.7361111111111112E-2</v>
+        <v>1.7699115044247787E-2</v>
       </c>
       <c r="E21" t="s">
         <v>74</v>
@@ -1037,17 +1046,17 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B22" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" s="3">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="D22" s="7">
         <f>B22/C22</f>
-        <v>1.7316017316017316E-2</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="E22" t="s">
         <v>74</v>
@@ -1055,17 +1064,17 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="B23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="D23" s="7">
         <f>B23/C23</f>
-        <v>1.6483516483516484E-2</v>
+        <v>1.7316017316017316E-2</v>
       </c>
       <c r="E23" t="s">
         <v>74</v>
@@ -1073,17 +1082,17 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B24" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="D24" s="7">
         <f>B24/C24</f>
-        <v>1.6E-2</v>
+        <v>1.6483516483516484E-2</v>
       </c>
       <c r="E24" t="s">
         <v>74</v>
@@ -1091,17 +1100,17 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="D25" s="7">
         <f>B25/C25</f>
-        <v>1.5037593984962405E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E25" t="s">
         <v>74</v>
@@ -1109,17 +1118,17 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="B26" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="D26" s="7">
         <f>B26/C26</f>
-        <v>1.488095238095238E-2</v>
+        <v>1.5037593984962405E-2</v>
       </c>
       <c r="E26" t="s">
         <v>74</v>
@@ -1127,17 +1136,17 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="B27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3">
-        <v>276</v>
+        <v>336</v>
       </c>
       <c r="D27" s="7">
         <f>B27/C27</f>
-        <v>1.4492753623188406E-2</v>
+        <v>1.488095238095238E-2</v>
       </c>
       <c r="E27" t="s">
         <v>74</v>
@@ -1145,17 +1154,17 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="B28" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" s="3">
-        <v>208</v>
+        <v>276</v>
       </c>
       <c r="D28" s="7">
         <f>B28/C28</f>
-        <v>1.4423076923076924E-2</v>
+        <v>1.4492753623188406E-2</v>
       </c>
       <c r="E28" t="s">
         <v>74</v>
@@ -1163,17 +1172,17 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="B29" s="3">
         <v>3</v>
       </c>
       <c r="C29" s="3">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D29" s="7">
         <f>B29/C29</f>
-        <v>1.4084507042253521E-2</v>
+        <v>1.4423076923076924E-2</v>
       </c>
       <c r="E29" t="s">
         <v>74</v>
@@ -1181,17 +1190,17 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B30" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C30" s="3">
-        <v>368</v>
+        <v>213</v>
       </c>
       <c r="D30" s="7">
         <f>B30/C30</f>
-        <v>1.358695652173913E-2</v>
+        <v>1.4084507042253521E-2</v>
       </c>
       <c r="E30" t="s">
         <v>74</v>
@@ -1199,17 +1208,17 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B31" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31" s="3">
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="D31" s="7">
         <f>B31/C31</f>
-        <v>1.2500000000000001E-2</v>
+        <v>1.358695652173913E-2</v>
       </c>
       <c r="E31" t="s">
         <v>74</v>
@@ -1217,17 +1226,17 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="3">
         <v>4</v>
       </c>
       <c r="C32" s="3">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="D32" s="7">
         <f>B32/C32</f>
-        <v>1.1904761904761904E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="E32" t="s">
         <v>74</v>
@@ -1235,17 +1244,17 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="B33" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" s="3">
-        <v>256</v>
+        <v>336</v>
       </c>
       <c r="D33" s="7">
         <f>B33/C33</f>
-        <v>1.171875E-2</v>
+        <v>1.1904761904761904E-2</v>
       </c>
       <c r="E33" t="s">
         <v>74</v>
@@ -1253,17 +1262,17 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B34" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C34" s="3">
-        <v>432</v>
+        <v>256</v>
       </c>
       <c r="D34" s="7">
         <f>B34/C34</f>
-        <v>1.1574074074074073E-2</v>
+        <v>1.171875E-2</v>
       </c>
       <c r="E34" t="s">
         <v>74</v>
@@ -1271,17 +1280,17 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B35" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C35" s="3">
-        <v>264</v>
+        <v>432</v>
       </c>
       <c r="D35" s="7">
         <f>B35/C35</f>
-        <v>1.1363636363636364E-2</v>
+        <v>1.1574074074074073E-2</v>
       </c>
       <c r="E35" t="s">
         <v>74</v>
@@ -1289,17 +1298,17 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B36" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" s="3">
-        <v>384</v>
+        <v>264</v>
       </c>
       <c r="D36" s="7">
         <f>B36/C36</f>
-        <v>1.0416666666666666E-2</v>
+        <v>1.1363636363636364E-2</v>
       </c>
       <c r="E36" t="s">
         <v>74</v>
@@ -1307,7 +1316,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B37" s="3">
         <v>4</v>
@@ -1325,13 +1334,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B38" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38" s="3">
-        <v>288</v>
+        <v>384</v>
       </c>
       <c r="D38" s="7">
         <f>B38/C38</f>
@@ -1343,17 +1352,17 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B39" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" s="3">
-        <v>400</v>
+        <v>288</v>
       </c>
       <c r="D39" s="7">
         <f>B39/C39</f>
-        <v>0.01</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E39" t="s">
         <v>74</v>
@@ -1361,17 +1370,17 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="B40" s="3">
         <v>4</v>
       </c>
       <c r="C40" s="3">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="D40" s="7">
         <f>B40/C40</f>
-        <v>9.6153846153846159E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E40" t="s">
         <v>74</v>
@@ -1379,13 +1388,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="8">
-        <v>2</v>
+        <v>85</v>
+      </c>
+      <c r="B41" s="3">
+        <v>4</v>
       </c>
       <c r="C41" s="3">
-        <v>208</v>
+        <v>416</v>
       </c>
       <c r="D41" s="7">
         <f>B41/C41</f>
@@ -1397,9 +1406,9 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="3">
+        <v>16</v>
+      </c>
+      <c r="B42" s="8">
         <v>2</v>
       </c>
       <c r="C42" s="3">
@@ -1415,17 +1424,17 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B43" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C43" s="3">
-        <v>432</v>
+        <v>208</v>
       </c>
       <c r="D43" s="7">
         <f>B43/C43</f>
-        <v>9.2592592592592587E-3</v>
+        <v>9.6153846153846159E-3</v>
       </c>
       <c r="E43" t="s">
         <v>74</v>
@@ -1433,17 +1442,17 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="B44" s="3">
         <v>4</v>
       </c>
       <c r="C44" s="3">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D44" s="7">
         <f>B44/C44</f>
-        <v>9.1743119266055051E-3</v>
+        <v>9.2592592592592587E-3</v>
       </c>
       <c r="E44" t="s">
         <v>74</v>
@@ -1451,17 +1460,17 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B45" s="3">
         <v>4</v>
       </c>
       <c r="C45" s="3">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="D45" s="7">
         <f>B45/C45</f>
-        <v>9.0090090090090089E-3</v>
+        <v>9.1743119266055051E-3</v>
       </c>
       <c r="E45" t="s">
         <v>74</v>
@@ -1469,17 +1478,17 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B46" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46" s="3">
-        <v>336</v>
+        <v>444</v>
       </c>
       <c r="D46" s="7">
         <f>B46/C46</f>
-        <v>8.9285714285714281E-3</v>
+        <v>9.0090090090090089E-3</v>
       </c>
       <c r="E46" t="s">
         <v>74</v>
@@ -1487,17 +1496,17 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B47" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47" s="3">
-        <v>225</v>
+        <v>336</v>
       </c>
       <c r="D47" s="7">
         <f>B47/C47</f>
-        <v>8.8888888888888889E-3</v>
+        <v>8.9285714285714281E-3</v>
       </c>
       <c r="E47" t="s">
         <v>74</v>
@@ -1505,17 +1514,17 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="B48" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C48" s="3">
-        <v>464</v>
+        <v>225</v>
       </c>
       <c r="D48" s="7">
         <f>B48/C48</f>
-        <v>8.6206896551724137E-3</v>
+        <v>8.8888888888888889E-3</v>
       </c>
       <c r="E48" t="s">
         <v>74</v>
@@ -1523,7 +1532,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="B49" s="3">
         <v>4</v>
@@ -1541,17 +1550,17 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B50" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C50" s="3">
-        <v>352</v>
+        <v>464</v>
       </c>
       <c r="D50" s="7">
         <f>B50/C50</f>
-        <v>8.5227272727272721E-3</v>
+        <v>8.6206896551724137E-3</v>
       </c>
       <c r="E50" t="s">
         <v>74</v>
@@ -1559,17 +1568,17 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B51" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51" s="3">
-        <v>480</v>
+        <v>352</v>
       </c>
       <c r="D51" s="7">
         <f>B51/C51</f>
-        <v>8.3333333333333332E-3</v>
+        <v>8.5227272727272721E-3</v>
       </c>
       <c r="E51" t="s">
         <v>74</v>
@@ -1577,13 +1586,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B52" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C52" s="3">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D52" s="7">
         <f>B52/C52</f>
@@ -1595,13 +1604,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B53" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53" s="3">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="D53" s="7">
         <f>B53/C53</f>
@@ -1613,17 +1622,17 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B54" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" s="3">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="D54" s="7">
         <f>B54/C54</f>
-        <v>8.152173913043478E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E54" t="s">
         <v>74</v>
@@ -1631,7 +1640,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B55" s="3">
         <v>3</v>
@@ -1649,17 +1658,17 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B56" s="3">
         <v>3</v>
       </c>
       <c r="C56" s="3">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D56" s="7">
         <f>B56/C56</f>
-        <v>8.0862533692722376E-3</v>
+        <v>8.152173913043478E-3</v>
       </c>
       <c r="E56" t="s">
         <v>74</v>
@@ -1667,17 +1676,17 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B57" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C57" s="3">
-        <v>499</v>
+        <v>371</v>
       </c>
       <c r="D57" s="7">
         <f>B57/C57</f>
-        <v>8.0160320641282558E-3</v>
+        <v>8.0862533692722376E-3</v>
       </c>
       <c r="E57" t="s">
         <v>74</v>
@@ -1685,17 +1694,17 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="B58" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C58" s="3">
-        <v>250</v>
+        <v>499</v>
       </c>
       <c r="D58" s="7">
         <f>B58/C58</f>
-        <v>8.0000000000000002E-3</v>
+        <v>8.0160320641282558E-3</v>
       </c>
       <c r="E58" t="s">
         <v>74</v>
@@ -1703,17 +1712,17 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B59" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C59" s="3">
-        <v>512</v>
+        <v>250</v>
       </c>
       <c r="D59" s="7">
         <f>B59/C59</f>
-        <v>7.8125E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E59" t="s">
         <v>74</v>
@@ -1721,7 +1730,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="B60" s="3">
         <v>4</v>
@@ -1739,17 +1748,17 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="B61" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C61" s="3">
-        <v>264</v>
+        <v>512</v>
       </c>
       <c r="D61" s="7">
         <f>B61/C61</f>
-        <v>7.575757575757576E-3</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="E61" t="s">
         <v>74</v>
@@ -1757,17 +1766,17 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B62" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" s="3">
-        <v>400</v>
+        <v>264</v>
       </c>
       <c r="D62" s="7">
         <f>B62/C62</f>
-        <v>7.4999999999999997E-3</v>
+        <v>7.575757575757576E-3</v>
       </c>
       <c r="E62" t="s">
         <v>74</v>
@@ -1775,17 +1784,17 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B63" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C63" s="3">
-        <v>544</v>
+        <v>400</v>
       </c>
       <c r="D63" s="7">
         <f>B63/C63</f>
-        <v>7.3529411764705881E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="E63" t="s">
         <v>74</v>
@@ -1793,17 +1802,17 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B64" s="3">
         <v>4</v>
       </c>
       <c r="C64" s="3">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="D64" s="7">
         <f>B64/C64</f>
-        <v>7.1428571428571426E-3</v>
+        <v>7.3529411764705881E-3</v>
       </c>
       <c r="E64" t="s">
         <v>74</v>
@@ -1811,17 +1820,17 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B65" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C65" s="3">
-        <v>284</v>
+        <v>560</v>
       </c>
       <c r="D65" s="7">
         <f>B65/C65</f>
-        <v>7.0422535211267607E-3</v>
+        <v>7.1428571428571426E-3</v>
       </c>
       <c r="E65" t="s">
         <v>74</v>
@@ -1829,17 +1838,17 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B66" s="3">
         <v>2</v>
       </c>
       <c r="C66" s="3">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D66" s="7">
         <f>B66/C66</f>
-        <v>6.9444444444444441E-3</v>
+        <v>7.0422535211267607E-3</v>
       </c>
       <c r="E66" t="s">
         <v>74</v>
@@ -1847,17 +1856,17 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B67" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67" s="3">
-        <v>148</v>
+        <v>288</v>
       </c>
       <c r="D67" s="7">
         <f>B67/C67</f>
-        <v>6.7567567567567571E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="E67" t="s">
         <v>74</v>
@@ -1865,17 +1874,17 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="B68" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C68" s="3">
-        <v>480</v>
+        <v>148</v>
       </c>
       <c r="D68" s="7">
         <f>B68/C68</f>
-        <v>6.2500000000000003E-3</v>
+        <v>6.7567567567567571E-3</v>
       </c>
       <c r="E68" t="s">
         <v>74</v>
@@ -1883,7 +1892,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B69" s="3">
         <v>3</v>
@@ -1901,17 +1910,17 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B70" s="3">
         <v>3</v>
       </c>
       <c r="C70" s="3">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D70" s="7">
         <f>B70/C70</f>
-        <v>6.1475409836065573E-3</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="E70" t="s">
         <v>74</v>
@@ -1919,17 +1928,17 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B71" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C71" s="3">
-        <v>332</v>
+        <v>488</v>
       </c>
       <c r="D71" s="7">
         <f>B71/C71</f>
-        <v>6.024096385542169E-3</v>
+        <v>6.1475409836065573E-3</v>
       </c>
       <c r="E71" t="s">
         <v>74</v>
@@ -1937,17 +1946,17 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B72" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C72" s="3">
-        <v>704</v>
+        <v>332</v>
       </c>
       <c r="D72" s="7">
         <f>B72/C72</f>
-        <v>5.681818181818182E-3</v>
+        <v>6.024096385542169E-3</v>
       </c>
       <c r="E72" t="s">
         <v>74</v>
@@ -1955,17 +1964,17 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="B73" s="3">
         <v>4</v>
       </c>
       <c r="C73" s="3">
-        <v>736</v>
+        <v>704</v>
       </c>
       <c r="D73" s="7">
         <f>B73/C73</f>
-        <v>5.434782608695652E-3</v>
+        <v>5.681818181818182E-3</v>
       </c>
       <c r="E73" t="s">
         <v>74</v>
@@ -1973,17 +1982,17 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="B74" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C74" s="3">
-        <v>373</v>
+        <v>736</v>
       </c>
       <c r="D74" s="7">
         <f>B74/C74</f>
-        <v>5.3619302949061663E-3</v>
+        <v>5.434782608695652E-3</v>
       </c>
       <c r="E74" t="s">
         <v>74</v>
@@ -1991,17 +2000,17 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B75" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" s="3">
-        <v>560</v>
+        <v>373</v>
       </c>
       <c r="D75" s="7">
         <f>B75/C75</f>
-        <v>5.3571428571428572E-3</v>
+        <v>5.3619302949061663E-3</v>
       </c>
       <c r="E75" t="s">
         <v>74</v>
@@ -2009,7 +2018,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B76" s="3">
         <v>3</v>
@@ -2027,17 +2036,17 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B77" s="3">
         <v>3</v>
       </c>
       <c r="C77" s="3">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="D77" s="7">
         <f>B77/C77</f>
-        <v>5.208333333333333E-3</v>
+        <v>5.3571428571428572E-3</v>
       </c>
       <c r="E77" t="s">
         <v>74</v>
@@ -2045,13 +2054,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B78" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C78" s="3">
-        <v>384</v>
+        <v>576</v>
       </c>
       <c r="D78" s="7">
         <f>B78/C78</f>
@@ -2063,17 +2072,17 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="B79" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C79" s="3">
-        <v>200</v>
+        <v>384</v>
       </c>
       <c r="D79" s="7">
         <f>B79/C79</f>
-        <v>5.0000000000000001E-3</v>
+        <v>5.208333333333333E-3</v>
       </c>
       <c r="E79" t="s">
         <v>74</v>
@@ -2081,13 +2090,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="B80" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C80" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D80" s="7">
         <f>B80/C80</f>
@@ -2097,24 +2106,27 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B81" s="3">
         <v>2</v>
       </c>
       <c r="C81" s="3">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="D81" s="7">
         <f>B81/C81</f>
-        <v>4.807692307692308E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E81" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B82" s="3">
         <v>2</v>
@@ -2126,70 +2138,136 @@
         <f>B82/C82</f>
         <v>4.807692307692308E-3</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B83" s="3">
         <v>2</v>
       </c>
       <c r="C83" s="3">
-        <v>528</v>
+        <v>416</v>
       </c>
       <c r="D83" s="7">
         <f>B83/C83</f>
-        <v>3.787878787878788E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.807692307692308E-3</v>
+      </c>
+      <c r="E83" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B84" s="3">
         <v>2</v>
       </c>
       <c r="C84" s="3">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="D84" s="7">
         <f>B84/C84</f>
-        <v>3.6764705882352941E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.787878787878788E-3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B85" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C85" s="3">
-        <v>848</v>
+        <v>544</v>
       </c>
       <c r="D85" s="7">
         <f>B85/C85</f>
-        <v>3.5377358490566039E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.6764705882352941E-3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B86" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C86" s="3">
-        <v>616</v>
+        <v>848</v>
       </c>
       <c r="D86" s="7">
         <f>B86/C86</f>
+        <v>3.5377358490566039E-3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="3">
+        <v>2</v>
+      </c>
+      <c r="C87" s="3">
+        <v>616</v>
+      </c>
+      <c r="D87" s="7">
+        <f>B87/C87</f>
         <v>3.246753246753247E-3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="3">
+        <v>3</v>
+      </c>
+      <c r="C88" s="3">
+        <v>1280</v>
+      </c>
+      <c r="D88" s="7">
+        <f>B88/C88</f>
+        <v>2.3437499999999999E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" s="3">
+        <v>2</v>
+      </c>
+      <c r="C89" s="3">
+        <v>160</v>
+      </c>
+      <c r="D89" s="7">
+        <f>B89/C89</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E89" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:D70">
-    <sortState ref="A3:D86">
+    <sortState ref="A3:D88">
       <sortCondition descending="1" ref="D2:D70"/>
     </sortState>
   </autoFilter>

--- a/Book Ranking.xlsx
+++ b/Book Ranking.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="110">
   <si>
     <t>Book Ranking</t>
   </si>
@@ -299,6 +299,54 @@
   </si>
   <si>
     <t>Finite and Infinite Games</t>
+  </si>
+  <si>
+    <t>Nuclear Weapons and Coercive Diplomacy</t>
+  </si>
+  <si>
+    <t>Custer's Last Stand: The Anatomy of an American Myth</t>
+  </si>
+  <si>
+    <t>Boots and Saddles</t>
+  </si>
+  <si>
+    <t>Campaigns of General Custer</t>
+  </si>
+  <si>
+    <t>The Big Bonanza</t>
+  </si>
+  <si>
+    <t>Irish Life in the Seventeenth Century</t>
+  </si>
+  <si>
+    <t>An Unfinished Life</t>
+  </si>
+  <si>
+    <t>Norman Rockwell: A Sixty Year Retrospective</t>
+  </si>
+  <si>
+    <t>A Global History of Architecture</t>
+  </si>
+  <si>
+    <t>A Pictoral History of the Great Lakes</t>
+  </si>
+  <si>
+    <t>Mooney</t>
+  </si>
+  <si>
+    <t>History of Nevada: Elliot</t>
+  </si>
+  <si>
+    <t>1000 Beautiful Things</t>
+  </si>
+  <si>
+    <t>Venetian Masque</t>
+  </si>
+  <si>
+    <t>The Last King</t>
+  </si>
+  <si>
+    <t>Ohio A Personal Portrait of the 17th State</t>
   </si>
 </sst>
 </file>
@@ -663,11 +711,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,17 +842,17 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B8" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="D8" s="7">
         <f>B8/C8</f>
-        <v>3.7593984962406013E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E8" t="s">
         <v>74</v>
@@ -812,17 +860,17 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B9" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D9" s="7">
         <f>B9/C9</f>
-        <v>3.0303030303030304E-2</v>
+        <v>3.7593984962406013E-2</v>
       </c>
       <c r="E9" t="s">
         <v>74</v>
@@ -830,17 +878,17 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B10" s="3">
         <v>4</v>
       </c>
       <c r="C10" s="3">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="D10" s="7">
         <f>B10/C10</f>
-        <v>2.5000000000000001E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="E10" t="s">
         <v>74</v>
@@ -848,13 +896,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D11" s="7">
         <f>B11/C11</f>
@@ -866,17 +914,17 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D12" s="7">
         <f>B12/C12</f>
-        <v>2.4193548387096774E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E12" t="s">
         <v>74</v>
@@ -884,17 +932,17 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B13" s="3">
         <v>3</v>
       </c>
       <c r="C13" s="3">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D13" s="7">
         <f>B13/C13</f>
-        <v>2.34375E-2</v>
+        <v>2.4193548387096774E-2</v>
       </c>
       <c r="E13" t="s">
         <v>74</v>
@@ -902,17 +950,17 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="3">
-        <v>228</v>
+        <v>128</v>
       </c>
       <c r="D14" s="7">
         <f>B14/C14</f>
-        <v>2.1929824561403508E-2</v>
+        <v>2.34375E-2</v>
       </c>
       <c r="E14" t="s">
         <v>74</v>
@@ -920,17 +968,17 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="B15" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="D15" s="7">
         <f>B15/C15</f>
-        <v>2.0942408376963352E-2</v>
+        <v>2.1929824561403508E-2</v>
       </c>
       <c r="E15" t="s">
         <v>74</v>
@@ -938,17 +986,17 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="B16" s="3">
         <v>4</v>
       </c>
       <c r="C16" s="3">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D16" s="7">
         <f>B16/C16</f>
-        <v>2.0833333333333332E-2</v>
+        <v>2.0942408376963352E-2</v>
       </c>
       <c r="E16" t="s">
         <v>74</v>
@@ -956,17 +1004,17 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="B17" s="3">
         <v>4</v>
       </c>
       <c r="C17" s="3">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D17" s="7">
         <f>B17/C17</f>
-        <v>2.0202020202020204E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E17" t="s">
         <v>74</v>
@@ -974,17 +1022,17 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="3">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="D18" s="7">
         <f>B18/C18</f>
-        <v>1.937984496124031E-2</v>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="E18" t="s">
         <v>74</v>
@@ -992,17 +1040,17 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="B19" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" s="3">
-        <v>160</v>
+        <v>258</v>
       </c>
       <c r="D19" s="7">
         <f>B19/C19</f>
-        <v>1.8749999999999999E-2</v>
+        <v>1.937984496124031E-2</v>
       </c>
       <c r="E19" t="s">
         <v>74</v>
@@ -1010,17 +1058,17 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="B20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c r="D20" s="7">
         <f>B20/C20</f>
-        <v>1.7857142857142856E-2</v>
+        <v>1.9108280254777069E-2</v>
       </c>
       <c r="E20" t="s">
         <v>74</v>
@@ -1028,17 +1076,17 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="B21" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3">
-        <v>226</v>
+        <v>160</v>
       </c>
       <c r="D21" s="7">
         <f>B21/C21</f>
-        <v>1.7699115044247787E-2</v>
+        <v>1.8749999999999999E-2</v>
       </c>
       <c r="E21" t="s">
         <v>74</v>
@@ -1046,17 +1094,17 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="3">
-        <v>288</v>
+        <v>224</v>
       </c>
       <c r="D22" s="7">
         <f>B22/C22</f>
-        <v>1.7361111111111112E-2</v>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="E22" t="s">
         <v>74</v>
@@ -1064,17 +1112,17 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B23" s="3">
         <v>4</v>
       </c>
       <c r="C23" s="3">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D23" s="7">
         <f>B23/C23</f>
-        <v>1.7316017316017316E-2</v>
+        <v>1.7699115044247787E-2</v>
       </c>
       <c r="E23" t="s">
         <v>74</v>
@@ -1082,17 +1130,17 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="B24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C24" s="3">
-        <v>182</v>
+        <v>288</v>
       </c>
       <c r="D24" s="7">
         <f>B24/C24</f>
-        <v>1.6483516483516484E-2</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="E24" t="s">
         <v>74</v>
@@ -1100,17 +1148,17 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="D25" s="7">
         <f>B25/C25</f>
-        <v>1.6E-2</v>
+        <v>1.7316017316017316E-2</v>
       </c>
       <c r="E25" t="s">
         <v>74</v>
@@ -1118,17 +1166,17 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3">
-        <v>266</v>
+        <v>182</v>
       </c>
       <c r="D26" s="7">
         <f>B26/C26</f>
-        <v>1.5037593984962405E-2</v>
+        <v>1.6483516483516484E-2</v>
       </c>
       <c r="E26" t="s">
         <v>74</v>
@@ -1136,17 +1184,17 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>336</v>
+        <v>250</v>
       </c>
       <c r="D27" s="7">
         <f>B27/C27</f>
-        <v>1.488095238095238E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E27" t="s">
         <v>74</v>
@@ -1154,17 +1202,17 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B28" s="3">
         <v>4</v>
       </c>
       <c r="C28" s="3">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D28" s="7">
         <f>B28/C28</f>
-        <v>1.4492753623188406E-2</v>
+        <v>1.5037593984962405E-2</v>
       </c>
       <c r="E28" t="s">
         <v>74</v>
@@ -1172,17 +1220,17 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B29" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C29" s="3">
-        <v>208</v>
+        <v>336</v>
       </c>
       <c r="D29" s="7">
         <f>B29/C29</f>
-        <v>1.4423076923076924E-2</v>
+        <v>1.488095238095238E-2</v>
       </c>
       <c r="E29" t="s">
         <v>74</v>
@@ -1190,17 +1238,17 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="B30" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" s="3">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="D30" s="7">
         <f>B30/C30</f>
-        <v>1.4084507042253521E-2</v>
+        <v>1.4598540145985401E-2</v>
       </c>
       <c r="E30" t="s">
         <v>74</v>
@@ -1208,17 +1256,17 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B31" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="3">
-        <v>368</v>
+        <v>276</v>
       </c>
       <c r="D31" s="7">
         <f>B31/C31</f>
-        <v>1.358695652173913E-2</v>
+        <v>1.4492753623188406E-2</v>
       </c>
       <c r="E31" t="s">
         <v>74</v>
@@ -1226,17 +1274,17 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="B32" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="3">
-        <v>320</v>
+        <v>208</v>
       </c>
       <c r="D32" s="7">
         <f>B32/C32</f>
-        <v>1.2500000000000001E-2</v>
+        <v>1.4423076923076924E-2</v>
       </c>
       <c r="E32" t="s">
         <v>74</v>
@@ -1244,17 +1292,17 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B33" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" s="3">
-        <v>336</v>
+        <v>213</v>
       </c>
       <c r="D33" s="7">
         <f>B33/C33</f>
-        <v>1.1904761904761904E-2</v>
+        <v>1.4084507042253521E-2</v>
       </c>
       <c r="E33" t="s">
         <v>74</v>
@@ -1262,17 +1310,17 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B34" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C34" s="3">
-        <v>256</v>
+        <v>368</v>
       </c>
       <c r="D34" s="7">
         <f>B34/C34</f>
-        <v>1.171875E-2</v>
+        <v>1.358695652173913E-2</v>
       </c>
       <c r="E34" t="s">
         <v>74</v>
@@ -1280,17 +1328,17 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B35" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" s="3">
-        <v>432</v>
+        <v>320</v>
       </c>
       <c r="D35" s="7">
         <f>B35/C35</f>
-        <v>1.1574074074074073E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="E35" t="s">
         <v>74</v>
@@ -1298,17 +1346,17 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B36" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" s="3">
-        <v>264</v>
+        <v>160</v>
       </c>
       <c r="D36" s="7">
         <f>B36/C36</f>
-        <v>1.1363636363636364E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="E36" t="s">
         <v>74</v>
@@ -1316,17 +1364,17 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="B37" s="3">
         <v>4</v>
       </c>
       <c r="C37" s="3">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="D37" s="7">
         <f>B37/C37</f>
-        <v>1.0416666666666666E-2</v>
+        <v>1.1904761904761904E-2</v>
       </c>
       <c r="E37" t="s">
         <v>74</v>
@@ -1334,17 +1382,17 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B38" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" s="3">
-        <v>384</v>
+        <v>256</v>
       </c>
       <c r="D38" s="7">
         <f>B38/C38</f>
-        <v>1.0416666666666666E-2</v>
+        <v>1.171875E-2</v>
       </c>
       <c r="E38" t="s">
         <v>74</v>
@@ -1352,17 +1400,17 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="B39" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C39" s="3">
-        <v>288</v>
+        <v>432</v>
       </c>
       <c r="D39" s="7">
         <f>B39/C39</f>
-        <v>1.0416666666666666E-2</v>
+        <v>1.1574074074074073E-2</v>
       </c>
       <c r="E39" t="s">
         <v>74</v>
@@ -1370,17 +1418,17 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B40" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" s="3">
-        <v>400</v>
+        <v>264</v>
       </c>
       <c r="D40" s="7">
         <f>B40/C40</f>
-        <v>0.01</v>
+        <v>1.1363636363636364E-2</v>
       </c>
       <c r="E40" t="s">
         <v>74</v>
@@ -1388,17 +1436,17 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B41" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" s="3">
-        <v>416</v>
+        <v>266</v>
       </c>
       <c r="D41" s="7">
         <f>B41/C41</f>
-        <v>9.6153846153846159E-3</v>
+        <v>1.1278195488721804E-2</v>
       </c>
       <c r="E41" t="s">
         <v>74</v>
@@ -1406,17 +1454,17 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="8">
-        <v>2</v>
+        <v>105</v>
+      </c>
+      <c r="B42" s="3">
+        <v>3</v>
       </c>
       <c r="C42" s="3">
-        <v>208</v>
+        <v>277</v>
       </c>
       <c r="D42" s="7">
         <f>B42/C42</f>
-        <v>9.6153846153846159E-3</v>
+        <v>1.0830324909747292E-2</v>
       </c>
       <c r="E42" t="s">
         <v>74</v>
@@ -1424,17 +1472,17 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="B43" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C43" s="3">
-        <v>208</v>
+        <v>384</v>
       </c>
       <c r="D43" s="7">
         <f>B43/C43</f>
-        <v>9.6153846153846159E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E43" t="s">
         <v>74</v>
@@ -1442,17 +1490,17 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B44" s="3">
         <v>4</v>
       </c>
       <c r="C44" s="3">
-        <v>432</v>
+        <v>384</v>
       </c>
       <c r="D44" s="7">
         <f>B44/C44</f>
-        <v>9.2592592592592587E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E44" t="s">
         <v>74</v>
@@ -1460,17 +1508,17 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B45" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" s="3">
-        <v>436</v>
+        <v>288</v>
       </c>
       <c r="D45" s="7">
         <f>B45/C45</f>
-        <v>9.1743119266055051E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E45" t="s">
         <v>74</v>
@@ -1478,17 +1526,17 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B46" s="3">
         <v>4</v>
       </c>
       <c r="C46" s="3">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="D46" s="7">
         <f>B46/C46</f>
-        <v>9.0090090090090089E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E46" t="s">
         <v>74</v>
@@ -1496,17 +1544,17 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="B47" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" s="3">
-        <v>336</v>
+        <v>200</v>
       </c>
       <c r="D47" s="7">
         <f>B47/C47</f>
-        <v>8.9285714285714281E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E47" t="s">
         <v>74</v>
@@ -1514,17 +1562,17 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B48" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C48" s="3">
-        <v>225</v>
+        <v>416</v>
       </c>
       <c r="D48" s="7">
         <f>B48/C48</f>
-        <v>8.8888888888888889E-3</v>
+        <v>9.6153846153846159E-3</v>
       </c>
       <c r="E48" t="s">
         <v>74</v>
@@ -1532,17 +1580,17 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="3">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="B49" s="8">
+        <v>2</v>
       </c>
       <c r="C49" s="3">
-        <v>464</v>
+        <v>208</v>
       </c>
       <c r="D49" s="7">
         <f>B49/C49</f>
-        <v>8.6206896551724137E-3</v>
+        <v>9.6153846153846159E-3</v>
       </c>
       <c r="E49" t="s">
         <v>74</v>
@@ -1550,17 +1598,17 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B50" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C50" s="3">
-        <v>464</v>
+        <v>208</v>
       </c>
       <c r="D50" s="7">
         <f>B50/C50</f>
-        <v>8.6206896551724137E-3</v>
+        <v>9.6153846153846159E-3</v>
       </c>
       <c r="E50" t="s">
         <v>74</v>
@@ -1568,17 +1616,17 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="B51" s="3">
         <v>3</v>
       </c>
       <c r="C51" s="3">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="D51" s="7">
         <f>B51/C51</f>
-        <v>8.5227272727272721E-3</v>
+        <v>9.4936708860759497E-3</v>
       </c>
       <c r="E51" t="s">
         <v>74</v>
@@ -1586,17 +1634,17 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="B52" s="3">
         <v>4</v>
       </c>
       <c r="C52" s="3">
-        <v>480</v>
+        <v>432</v>
       </c>
       <c r="D52" s="7">
         <f>B52/C52</f>
-        <v>8.3333333333333332E-3</v>
+        <v>9.2592592592592587E-3</v>
       </c>
       <c r="E52" t="s">
         <v>74</v>
@@ -1604,17 +1652,17 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B53" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C53" s="3">
-        <v>360</v>
+        <v>436</v>
       </c>
       <c r="D53" s="7">
         <f>B53/C53</f>
-        <v>8.3333333333333332E-3</v>
+        <v>9.1743119266055051E-3</v>
       </c>
       <c r="E53" t="s">
         <v>74</v>
@@ -1622,17 +1670,17 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C54" s="3">
-        <v>240</v>
+        <v>444</v>
       </c>
       <c r="D54" s="7">
         <f>B54/C54</f>
-        <v>8.3333333333333332E-3</v>
+        <v>9.0090090090090089E-3</v>
       </c>
       <c r="E54" t="s">
         <v>74</v>
@@ -1640,17 +1688,17 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B55" s="3">
         <v>3</v>
       </c>
       <c r="C55" s="3">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="D55" s="7">
         <f>B55/C55</f>
-        <v>8.152173913043478E-3</v>
+        <v>8.9285714285714281E-3</v>
       </c>
       <c r="E55" t="s">
         <v>74</v>
@@ -1658,17 +1706,17 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="B56" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" s="3">
-        <v>368</v>
+        <v>225</v>
       </c>
       <c r="D56" s="7">
         <f>B56/C56</f>
-        <v>8.152173913043478E-3</v>
+        <v>8.8888888888888889E-3</v>
       </c>
       <c r="E56" t="s">
         <v>74</v>
@@ -1676,17 +1724,17 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="B57" s="3">
         <v>3</v>
       </c>
       <c r="C57" s="3">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="D57" s="7">
         <f>B57/C57</f>
-        <v>8.0862533692722376E-3</v>
+        <v>8.7209302325581394E-3</v>
       </c>
       <c r="E57" t="s">
         <v>74</v>
@@ -1694,17 +1742,17 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B58" s="3">
         <v>4</v>
       </c>
       <c r="C58" s="3">
-        <v>499</v>
+        <v>464</v>
       </c>
       <c r="D58" s="7">
         <f>B58/C58</f>
-        <v>8.0160320641282558E-3</v>
+        <v>8.6206896551724137E-3</v>
       </c>
       <c r="E58" t="s">
         <v>74</v>
@@ -1712,17 +1760,17 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B59" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C59" s="3">
-        <v>250</v>
+        <v>464</v>
       </c>
       <c r="D59" s="7">
         <f>B59/C59</f>
-        <v>8.0000000000000002E-3</v>
+        <v>8.6206896551724137E-3</v>
       </c>
       <c r="E59" t="s">
         <v>74</v>
@@ -1730,17 +1778,17 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B60" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C60" s="3">
-        <v>512</v>
+        <v>352</v>
       </c>
       <c r="D60" s="7">
         <f>B60/C60</f>
-        <v>7.8125E-3</v>
+        <v>8.5227272727272721E-3</v>
       </c>
       <c r="E60" t="s">
         <v>74</v>
@@ -1748,17 +1796,17 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="B61" s="3">
         <v>4</v>
       </c>
       <c r="C61" s="3">
-        <v>512</v>
+        <v>480</v>
       </c>
       <c r="D61" s="7">
         <f>B61/C61</f>
-        <v>7.8125E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E61" t="s">
         <v>74</v>
@@ -1766,17 +1814,17 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B62" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62" s="3">
-        <v>264</v>
+        <v>360</v>
       </c>
       <c r="D62" s="7">
         <f>B62/C62</f>
-        <v>7.575757575757576E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E62" t="s">
         <v>74</v>
@@ -1784,17 +1832,17 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B63" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" s="3">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="D63" s="7">
         <f>B63/C63</f>
-        <v>7.4999999999999997E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E63" t="s">
         <v>74</v>
@@ -1802,17 +1850,17 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B64" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C64" s="3">
-        <v>544</v>
+        <v>368</v>
       </c>
       <c r="D64" s="7">
         <f>B64/C64</f>
-        <v>7.3529411764705881E-3</v>
+        <v>8.152173913043478E-3</v>
       </c>
       <c r="E64" t="s">
         <v>74</v>
@@ -1820,17 +1868,17 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B65" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C65" s="3">
-        <v>560</v>
+        <v>368</v>
       </c>
       <c r="D65" s="7">
         <f>B65/C65</f>
-        <v>7.1428571428571426E-3</v>
+        <v>8.152173913043478E-3</v>
       </c>
       <c r="E65" t="s">
         <v>74</v>
@@ -1838,17 +1886,17 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B66" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C66" s="3">
-        <v>284</v>
+        <v>371</v>
       </c>
       <c r="D66" s="7">
         <f>B66/C66</f>
-        <v>7.0422535211267607E-3</v>
+        <v>8.0862533692722376E-3</v>
       </c>
       <c r="E66" t="s">
         <v>74</v>
@@ -1856,17 +1904,17 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B67" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C67" s="3">
-        <v>288</v>
+        <v>499</v>
       </c>
       <c r="D67" s="7">
         <f>B67/C67</f>
-        <v>6.9444444444444441E-3</v>
+        <v>8.0160320641282558E-3</v>
       </c>
       <c r="E67" t="s">
         <v>74</v>
@@ -1874,17 +1922,17 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B68" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" s="3">
-        <v>148</v>
+        <v>250</v>
       </c>
       <c r="D68" s="7">
         <f>B68/C68</f>
-        <v>6.7567567567567571E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E68" t="s">
         <v>74</v>
@@ -1892,17 +1940,17 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B69" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C69" s="3">
-        <v>480</v>
+        <v>512</v>
       </c>
       <c r="D69" s="7">
         <f>B69/C69</f>
-        <v>6.2500000000000003E-3</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="E69" t="s">
         <v>74</v>
@@ -1910,17 +1958,17 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B70" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C70" s="3">
-        <v>480</v>
+        <v>512</v>
       </c>
       <c r="D70" s="7">
         <f>B70/C70</f>
-        <v>6.2500000000000003E-3</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="E70" t="s">
         <v>74</v>
@@ -1928,17 +1976,17 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B71" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71" s="3">
-        <v>488</v>
+        <v>264</v>
       </c>
       <c r="D71" s="7">
         <f>B71/C71</f>
-        <v>6.1475409836065573E-3</v>
+        <v>7.575757575757576E-3</v>
       </c>
       <c r="E71" t="s">
         <v>74</v>
@@ -1946,17 +1994,17 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B72" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C72" s="3">
-        <v>332</v>
+        <v>400</v>
       </c>
       <c r="D72" s="7">
         <f>B72/C72</f>
-        <v>6.024096385542169E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="E72" t="s">
         <v>74</v>
@@ -1964,17 +2012,17 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B73" s="3">
         <v>4</v>
       </c>
       <c r="C73" s="3">
-        <v>704</v>
+        <v>544</v>
       </c>
       <c r="D73" s="7">
         <f>B73/C73</f>
-        <v>5.681818181818182E-3</v>
+        <v>7.3529411764705881E-3</v>
       </c>
       <c r="E73" t="s">
         <v>74</v>
@@ -1982,17 +2030,17 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="B74" s="3">
         <v>4</v>
       </c>
       <c r="C74" s="3">
-        <v>736</v>
+        <v>560</v>
       </c>
       <c r="D74" s="7">
         <f>B74/C74</f>
-        <v>5.434782608695652E-3</v>
+        <v>7.1428571428571426E-3</v>
       </c>
       <c r="E74" t="s">
         <v>74</v>
@@ -2000,17 +2048,17 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B75" s="3">
         <v>2</v>
       </c>
       <c r="C75" s="3">
-        <v>373</v>
+        <v>284</v>
       </c>
       <c r="D75" s="7">
         <f>B75/C75</f>
-        <v>5.3619302949061663E-3</v>
+        <v>7.0422535211267607E-3</v>
       </c>
       <c r="E75" t="s">
         <v>74</v>
@@ -2018,17 +2066,17 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B76" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C76" s="3">
-        <v>560</v>
+        <v>288</v>
       </c>
       <c r="D76" s="7">
         <f>B76/C76</f>
-        <v>5.3571428571428572E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="E76" t="s">
         <v>74</v>
@@ -2036,17 +2084,17 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="B77" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C77" s="3">
-        <v>560</v>
+        <v>148</v>
       </c>
       <c r="D77" s="7">
         <f>B77/C77</f>
-        <v>5.3571428571428572E-3</v>
+        <v>6.7567567567567571E-3</v>
       </c>
       <c r="E77" t="s">
         <v>74</v>
@@ -2054,17 +2102,17 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="B78" s="3">
         <v>3</v>
       </c>
       <c r="C78" s="3">
-        <v>576</v>
+        <v>450</v>
       </c>
       <c r="D78" s="7">
         <f>B78/C78</f>
-        <v>5.208333333333333E-3</v>
+        <v>6.6666666666666671E-3</v>
       </c>
       <c r="E78" t="s">
         <v>74</v>
@@ -2072,17 +2120,17 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B79" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C79" s="3">
-        <v>384</v>
+        <v>480</v>
       </c>
       <c r="D79" s="7">
         <f>B79/C79</f>
-        <v>5.208333333333333E-3</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="E79" t="s">
         <v>74</v>
@@ -2090,17 +2138,17 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="B80" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C80" s="3">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="D80" s="7">
         <f>B80/C80</f>
-        <v>5.0000000000000001E-3</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="E80" t="s">
         <v>74</v>
@@ -2108,17 +2156,17 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B81" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C81" s="3">
-        <v>400</v>
+        <v>488</v>
       </c>
       <c r="D81" s="7">
         <f>B81/C81</f>
-        <v>5.0000000000000001E-3</v>
+        <v>6.1475409836065573E-3</v>
       </c>
       <c r="E81" t="s">
         <v>74</v>
@@ -2126,17 +2174,17 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B82" s="3">
         <v>2</v>
       </c>
       <c r="C82" s="3">
-        <v>416</v>
+        <v>332</v>
       </c>
       <c r="D82" s="7">
         <f>B82/C82</f>
-        <v>4.807692307692308E-3</v>
+        <v>6.024096385542169E-3</v>
       </c>
       <c r="E82" t="s">
         <v>74</v>
@@ -2144,17 +2192,17 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="B83" s="3">
         <v>2</v>
       </c>
       <c r="C83" s="3">
-        <v>416</v>
+        <v>332</v>
       </c>
       <c r="D83" s="7">
         <f>B83/C83</f>
-        <v>4.807692307692308E-3</v>
+        <v>6.024096385542169E-3</v>
       </c>
       <c r="E83" t="s">
         <v>74</v>
@@ -2162,17 +2210,17 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="B84" s="3">
         <v>2</v>
       </c>
       <c r="C84" s="3">
-        <v>528</v>
+        <v>344</v>
       </c>
       <c r="D84" s="7">
         <f>B84/C84</f>
-        <v>3.787878787878788E-3</v>
+        <v>5.8139534883720929E-3</v>
       </c>
       <c r="E84" t="s">
         <v>74</v>
@@ -2180,17 +2228,17 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B85" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C85" s="3">
-        <v>544</v>
+        <v>704</v>
       </c>
       <c r="D85" s="7">
         <f>B85/C85</f>
-        <v>3.6764705882352941E-3</v>
+        <v>5.681818181818182E-3</v>
       </c>
       <c r="E85" t="s">
         <v>74</v>
@@ -2198,17 +2246,17 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="B86" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C86" s="3">
-        <v>848</v>
+        <v>366</v>
       </c>
       <c r="D86" s="7">
         <f>B86/C86</f>
-        <v>3.5377358490566039E-3</v>
+        <v>5.4644808743169399E-3</v>
       </c>
       <c r="E86" t="s">
         <v>74</v>
@@ -2216,17 +2264,17 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B87" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C87" s="3">
-        <v>616</v>
+        <v>736</v>
       </c>
       <c r="D87" s="7">
         <f>B87/C87</f>
-        <v>3.246753246753247E-3</v>
+        <v>5.434782608695652E-3</v>
       </c>
       <c r="E87" t="s">
         <v>74</v>
@@ -2234,40 +2282,283 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="B88" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88" s="3">
-        <v>1280</v>
+        <v>373</v>
       </c>
       <c r="D88" s="7">
         <f>B88/C88</f>
-        <v>2.3437499999999999E-3</v>
+        <v>5.3619302949061663E-3</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="B89" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C89" s="3">
-        <v>160</v>
+        <v>560</v>
       </c>
       <c r="D89" s="7">
         <f>B89/C89</f>
-        <v>1.2500000000000001E-2</v>
+        <v>5.3571428571428572E-3</v>
       </c>
       <c r="E89" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90" s="3">
+        <v>3</v>
+      </c>
+      <c r="C90" s="3">
+        <v>560</v>
+      </c>
+      <c r="D90" s="7">
+        <f>B90/C90</f>
+        <v>5.3571428571428572E-3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91" s="3">
+        <v>3</v>
+      </c>
+      <c r="C91" s="3">
+        <v>576</v>
+      </c>
+      <c r="D91" s="7">
+        <f>B91/C91</f>
+        <v>5.208333333333333E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" s="3">
+        <v>2</v>
+      </c>
+      <c r="C92" s="3">
+        <v>384</v>
+      </c>
+      <c r="D92" s="7">
+        <f>B92/C92</f>
+        <v>5.208333333333333E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B93" s="3">
+        <v>1</v>
+      </c>
+      <c r="C93" s="3">
+        <v>200</v>
+      </c>
+      <c r="D93" s="7">
+        <f>B93/C93</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" s="3">
+        <v>2</v>
+      </c>
+      <c r="C94" s="3">
+        <v>400</v>
+      </c>
+      <c r="D94" s="7">
+        <f>B94/C94</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" s="3">
+        <v>2</v>
+      </c>
+      <c r="C95" s="3">
+        <v>416</v>
+      </c>
+      <c r="D95" s="7">
+        <f>B95/C95</f>
+        <v>4.807692307692308E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B96" s="3">
+        <v>2</v>
+      </c>
+      <c r="C96" s="3">
+        <v>416</v>
+      </c>
+      <c r="D96" s="7">
+        <f>B96/C96</f>
+        <v>4.807692307692308E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" s="3">
+        <v>4</v>
+      </c>
+      <c r="C97" s="3">
+        <v>848</v>
+      </c>
+      <c r="D97" s="7">
+        <f>B97/C97</f>
+        <v>4.7169811320754715E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B98" s="3">
+        <v>2</v>
+      </c>
+      <c r="C98" s="3">
+        <v>456</v>
+      </c>
+      <c r="D98" s="7">
+        <f>B98/C98</f>
+        <v>4.3859649122807015E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B99" s="3">
+        <v>2</v>
+      </c>
+      <c r="C99" s="3">
+        <v>528</v>
+      </c>
+      <c r="D99" s="7">
+        <f>B99/C99</f>
+        <v>3.787878787878788E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B100" s="3">
+        <v>2</v>
+      </c>
+      <c r="C100" s="3">
+        <v>544</v>
+      </c>
+      <c r="D100" s="7">
+        <f>B100/C100</f>
+        <v>3.6764705882352941E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B101" s="3">
+        <v>3</v>
+      </c>
+      <c r="C101" s="3">
+        <v>848</v>
+      </c>
+      <c r="D101" s="7">
+        <f>B101/C101</f>
+        <v>3.5377358490566039E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" s="3">
+        <v>3</v>
+      </c>
+      <c r="C102" s="3">
+        <v>864</v>
+      </c>
+      <c r="D102" s="7">
+        <f>B102/C102</f>
+        <v>3.472222222222222E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="3">
+        <v>2</v>
+      </c>
+      <c r="C103" s="3">
+        <v>616</v>
+      </c>
+      <c r="D103" s="7">
+        <f>B103/C103</f>
+        <v>3.246753246753247E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B104" s="3">
+        <v>1</v>
+      </c>
+      <c r="C104" s="3">
+        <v>320</v>
+      </c>
+      <c r="D104" s="7">
+        <f>B104/C104</f>
+        <v>3.1250000000000002E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B105" s="3">
+        <v>3</v>
+      </c>
+      <c r="C105" s="3">
+        <v>1280</v>
+      </c>
+      <c r="D105" s="7">
+        <f>B105/C105</f>
+        <v>2.3437499999999999E-3</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:D70">
-    <sortState ref="A3:D88">
+    <sortState ref="A3:D105">
       <sortCondition descending="1" ref="D2:D70"/>
     </sortState>
   </autoFilter>

--- a/Book Ranking.xlsx
+++ b/Book Ranking.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="129">
   <si>
     <t>Book Ranking</t>
   </si>
@@ -347,6 +347,63 @@
   </si>
   <si>
     <t>Ohio A Personal Portrait of the 17th State</t>
+  </si>
+  <si>
+    <t>Rifleman Dodd</t>
+  </si>
+  <si>
+    <t>World War I at Home</t>
+  </si>
+  <si>
+    <t>The War To End All Wars (Coffman)</t>
+  </si>
+  <si>
+    <t>Johnny Got His Gun</t>
+  </si>
+  <si>
+    <t>World War I (Baldwin)</t>
+  </si>
+  <si>
+    <t>The Eastern Front 1914-1917</t>
+  </si>
+  <si>
+    <t>Guidebook for Marines</t>
+  </si>
+  <si>
+    <t>On Killing</t>
+  </si>
+  <si>
+    <t>14-18: Understanding the Great War</t>
+  </si>
+  <si>
+    <t>Cavalry of the Clouds</t>
+  </si>
+  <si>
+    <t>Undertones of War</t>
+  </si>
+  <si>
+    <t>Sinking of the Titanic</t>
+  </si>
+  <si>
+    <t>History of the World War (March)</t>
+  </si>
+  <si>
+    <t>World War for Humanity</t>
+  </si>
+  <si>
+    <t>School for Soldiers</t>
+  </si>
+  <si>
+    <t>The First World War (Strachan)</t>
+  </si>
+  <si>
+    <t>Solderi from the Wars Returning (Carrington)</t>
+  </si>
+  <si>
+    <t>The New Knighthood</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -711,11 +768,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,11 +818,11 @@
         <v>46</v>
       </c>
       <c r="D3" s="7">
-        <f>B3/C3</f>
+        <f t="shared" ref="D3:D34" si="0">B3/C3</f>
         <v>8.6956521739130432E-2</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -779,7 +836,7 @@
         <v>73</v>
       </c>
       <c r="D4" s="7">
-        <f>B4/C4</f>
+        <f t="shared" si="0"/>
         <v>6.8493150684931503E-2</v>
       </c>
       <c r="E4" t="s">
@@ -797,7 +854,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="7">
-        <f>B5/C5</f>
+        <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="E5" t="s">
@@ -815,7 +872,7 @@
         <v>74</v>
       </c>
       <c r="D6" s="7">
-        <f>B6/C6</f>
+        <f t="shared" si="0"/>
         <v>5.4054054054054057E-2</v>
       </c>
       <c r="E6" t="s">
@@ -833,7 +890,7 @@
         <v>120</v>
       </c>
       <c r="D7" s="7">
-        <f>B7/C7</f>
+        <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E7" t="s">
@@ -851,7 +908,7 @@
         <v>72</v>
       </c>
       <c r="D8" s="7">
-        <f>B8/C8</f>
+        <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E8" t="s">
@@ -869,7 +926,7 @@
         <v>133</v>
       </c>
       <c r="D9" s="7">
-        <f>B9/C9</f>
+        <f t="shared" si="0"/>
         <v>3.7593984962406013E-2</v>
       </c>
       <c r="E9" t="s">
@@ -887,7 +944,7 @@
         <v>132</v>
       </c>
       <c r="D10" s="7">
-        <f>B10/C10</f>
+        <f t="shared" si="0"/>
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="E10" t="s">
@@ -905,7 +962,7 @@
         <v>160</v>
       </c>
       <c r="D11" s="7">
-        <f>B11/C11</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E11" t="s">
@@ -923,7 +980,7 @@
         <v>80</v>
       </c>
       <c r="D12" s="7">
-        <f>B12/C12</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E12" t="s">
@@ -941,7 +998,7 @@
         <v>124</v>
       </c>
       <c r="D13" s="7">
-        <f>B13/C13</f>
+        <f t="shared" si="0"/>
         <v>2.4193548387096774E-2</v>
       </c>
       <c r="E13" t="s">
@@ -959,7 +1016,7 @@
         <v>128</v>
       </c>
       <c r="D14" s="7">
-        <f>B14/C14</f>
+        <f t="shared" si="0"/>
         <v>2.34375E-2</v>
       </c>
       <c r="E14" t="s">
@@ -977,7 +1034,7 @@
         <v>228</v>
       </c>
       <c r="D15" s="7">
-        <f>B15/C15</f>
+        <f t="shared" si="0"/>
         <v>2.1929824561403508E-2</v>
       </c>
       <c r="E15" t="s">
@@ -995,7 +1052,7 @@
         <v>191</v>
       </c>
       <c r="D16" s="7">
-        <f>B16/C16</f>
+        <f t="shared" si="0"/>
         <v>2.0942408376963352E-2</v>
       </c>
       <c r="E16" t="s">
@@ -1013,7 +1070,7 @@
         <v>192</v>
       </c>
       <c r="D17" s="7">
-        <f>B17/C17</f>
+        <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="E17" t="s">
@@ -1031,7 +1088,7 @@
         <v>198</v>
       </c>
       <c r="D18" s="7">
-        <f>B18/C18</f>
+        <f t="shared" si="0"/>
         <v>2.0202020202020204E-2</v>
       </c>
       <c r="E18" t="s">
@@ -1049,7 +1106,7 @@
         <v>258</v>
       </c>
       <c r="D19" s="7">
-        <f>B19/C19</f>
+        <f t="shared" si="0"/>
         <v>1.937984496124031E-2</v>
       </c>
       <c r="E19" t="s">
@@ -1067,7 +1124,7 @@
         <v>157</v>
       </c>
       <c r="D20" s="7">
-        <f>B20/C20</f>
+        <f t="shared" si="0"/>
         <v>1.9108280254777069E-2</v>
       </c>
       <c r="E20" t="s">
@@ -1085,7 +1142,7 @@
         <v>160</v>
       </c>
       <c r="D21" s="7">
-        <f>B21/C21</f>
+        <f t="shared" si="0"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="E21" t="s">
@@ -1103,7 +1160,7 @@
         <v>224</v>
       </c>
       <c r="D22" s="7">
-        <f>B22/C22</f>
+        <f t="shared" si="0"/>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="E22" t="s">
@@ -1121,7 +1178,7 @@
         <v>226</v>
       </c>
       <c r="D23" s="7">
-        <f>B23/C23</f>
+        <f t="shared" si="0"/>
         <v>1.7699115044247787E-2</v>
       </c>
       <c r="E23" t="s">
@@ -1139,7 +1196,7 @@
         <v>288</v>
       </c>
       <c r="D24" s="7">
-        <f>B24/C24</f>
+        <f t="shared" si="0"/>
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="E24" t="s">
@@ -1157,7 +1214,7 @@
         <v>231</v>
       </c>
       <c r="D25" s="7">
-        <f>B25/C25</f>
+        <f t="shared" si="0"/>
         <v>1.7316017316017316E-2</v>
       </c>
       <c r="E25" t="s">
@@ -1175,7 +1232,7 @@
         <v>182</v>
       </c>
       <c r="D26" s="7">
-        <f>B26/C26</f>
+        <f t="shared" si="0"/>
         <v>1.6483516483516484E-2</v>
       </c>
       <c r="E26" t="s">
@@ -1193,7 +1250,7 @@
         <v>250</v>
       </c>
       <c r="D27" s="7">
-        <f>B27/C27</f>
+        <f t="shared" si="0"/>
         <v>1.6E-2</v>
       </c>
       <c r="E27" t="s">
@@ -1211,7 +1268,7 @@
         <v>266</v>
       </c>
       <c r="D28" s="7">
-        <f>B28/C28</f>
+        <f t="shared" si="0"/>
         <v>1.5037593984962405E-2</v>
       </c>
       <c r="E28" t="s">
@@ -1229,7 +1286,7 @@
         <v>336</v>
       </c>
       <c r="D29" s="7">
-        <f>B29/C29</f>
+        <f t="shared" si="0"/>
         <v>1.488095238095238E-2</v>
       </c>
       <c r="E29" t="s">
@@ -1247,7 +1304,7 @@
         <v>137</v>
       </c>
       <c r="D30" s="7">
-        <f>B30/C30</f>
+        <f t="shared" si="0"/>
         <v>1.4598540145985401E-2</v>
       </c>
       <c r="E30" t="s">
@@ -1265,7 +1322,7 @@
         <v>276</v>
       </c>
       <c r="D31" s="7">
-        <f>B31/C31</f>
+        <f t="shared" si="0"/>
         <v>1.4492753623188406E-2</v>
       </c>
       <c r="E31" t="s">
@@ -1283,7 +1340,7 @@
         <v>208</v>
       </c>
       <c r="D32" s="7">
-        <f>B32/C32</f>
+        <f t="shared" si="0"/>
         <v>1.4423076923076924E-2</v>
       </c>
       <c r="E32" t="s">
@@ -1301,7 +1358,7 @@
         <v>213</v>
       </c>
       <c r="D33" s="7">
-        <f>B33/C33</f>
+        <f t="shared" si="0"/>
         <v>1.4084507042253521E-2</v>
       </c>
       <c r="E33" t="s">
@@ -1319,7 +1376,7 @@
         <v>368</v>
       </c>
       <c r="D34" s="7">
-        <f>B34/C34</f>
+        <f t="shared" si="0"/>
         <v>1.358695652173913E-2</v>
       </c>
       <c r="E34" t="s">
@@ -1337,7 +1394,7 @@
         <v>320</v>
       </c>
       <c r="D35" s="7">
-        <f>B35/C35</f>
+        <f t="shared" ref="D35:D66" si="1">B35/C35</f>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="E35" t="s">
@@ -1355,7 +1412,7 @@
         <v>160</v>
       </c>
       <c r="D36" s="7">
-        <f>B36/C36</f>
+        <f t="shared" si="1"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="E36" t="s">
@@ -1373,7 +1430,7 @@
         <v>336</v>
       </c>
       <c r="D37" s="7">
-        <f>B37/C37</f>
+        <f t="shared" si="1"/>
         <v>1.1904761904761904E-2</v>
       </c>
       <c r="E37" t="s">
@@ -1391,7 +1448,7 @@
         <v>256</v>
       </c>
       <c r="D38" s="7">
-        <f>B38/C38</f>
+        <f t="shared" si="1"/>
         <v>1.171875E-2</v>
       </c>
       <c r="E38" t="s">
@@ -1409,7 +1466,7 @@
         <v>432</v>
       </c>
       <c r="D39" s="7">
-        <f>B39/C39</f>
+        <f t="shared" si="1"/>
         <v>1.1574074074074073E-2</v>
       </c>
       <c r="E39" t="s">
@@ -1427,7 +1484,7 @@
         <v>264</v>
       </c>
       <c r="D40" s="7">
-        <f>B40/C40</f>
+        <f t="shared" si="1"/>
         <v>1.1363636363636364E-2</v>
       </c>
       <c r="E40" t="s">
@@ -1445,7 +1502,7 @@
         <v>266</v>
       </c>
       <c r="D41" s="7">
-        <f>B41/C41</f>
+        <f t="shared" si="1"/>
         <v>1.1278195488721804E-2</v>
       </c>
       <c r="E41" t="s">
@@ -1463,7 +1520,7 @@
         <v>277</v>
       </c>
       <c r="D42" s="7">
-        <f>B42/C42</f>
+        <f t="shared" si="1"/>
         <v>1.0830324909747292E-2</v>
       </c>
       <c r="E42" t="s">
@@ -1481,7 +1538,7 @@
         <v>384</v>
       </c>
       <c r="D43" s="7">
-        <f>B43/C43</f>
+        <f t="shared" si="1"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E43" t="s">
@@ -1499,7 +1556,7 @@
         <v>384</v>
       </c>
       <c r="D44" s="7">
-        <f>B44/C44</f>
+        <f t="shared" si="1"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E44" t="s">
@@ -1517,7 +1574,7 @@
         <v>288</v>
       </c>
       <c r="D45" s="7">
-        <f>B45/C45</f>
+        <f t="shared" si="1"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E45" t="s">
@@ -1535,7 +1592,7 @@
         <v>400</v>
       </c>
       <c r="D46" s="7">
-        <f>B46/C46</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="E46" t="s">
@@ -1553,7 +1610,7 @@
         <v>200</v>
       </c>
       <c r="D47" s="7">
-        <f>B47/C47</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="E47" t="s">
@@ -1571,7 +1628,7 @@
         <v>416</v>
       </c>
       <c r="D48" s="7">
-        <f>B48/C48</f>
+        <f t="shared" si="1"/>
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="E48" t="s">
@@ -1589,7 +1646,7 @@
         <v>208</v>
       </c>
       <c r="D49" s="7">
-        <f>B49/C49</f>
+        <f t="shared" si="1"/>
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="E49" t="s">
@@ -1607,7 +1664,7 @@
         <v>208</v>
       </c>
       <c r="D50" s="7">
-        <f>B50/C50</f>
+        <f t="shared" si="1"/>
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="E50" t="s">
@@ -1625,7 +1682,7 @@
         <v>316</v>
       </c>
       <c r="D51" s="7">
-        <f>B51/C51</f>
+        <f t="shared" si="1"/>
         <v>9.4936708860759497E-3</v>
       </c>
       <c r="E51" t="s">
@@ -1643,7 +1700,7 @@
         <v>432</v>
       </c>
       <c r="D52" s="7">
-        <f>B52/C52</f>
+        <f t="shared" si="1"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="E52" t="s">
@@ -1661,7 +1718,7 @@
         <v>436</v>
       </c>
       <c r="D53" s="7">
-        <f>B53/C53</f>
+        <f t="shared" si="1"/>
         <v>9.1743119266055051E-3</v>
       </c>
       <c r="E53" t="s">
@@ -1679,7 +1736,7 @@
         <v>444</v>
       </c>
       <c r="D54" s="7">
-        <f>B54/C54</f>
+        <f t="shared" si="1"/>
         <v>9.0090090090090089E-3</v>
       </c>
       <c r="E54" t="s">
@@ -1697,7 +1754,7 @@
         <v>336</v>
       </c>
       <c r="D55" s="7">
-        <f>B55/C55</f>
+        <f t="shared" si="1"/>
         <v>8.9285714285714281E-3</v>
       </c>
       <c r="E55" t="s">
@@ -1715,7 +1772,7 @@
         <v>225</v>
       </c>
       <c r="D56" s="7">
-        <f>B56/C56</f>
+        <f t="shared" si="1"/>
         <v>8.8888888888888889E-3</v>
       </c>
       <c r="E56" t="s">
@@ -1733,7 +1790,7 @@
         <v>344</v>
       </c>
       <c r="D57" s="7">
-        <f>B57/C57</f>
+        <f t="shared" si="1"/>
         <v>8.7209302325581394E-3</v>
       </c>
       <c r="E57" t="s">
@@ -1751,7 +1808,7 @@
         <v>464</v>
       </c>
       <c r="D58" s="7">
-        <f>B58/C58</f>
+        <f t="shared" si="1"/>
         <v>8.6206896551724137E-3</v>
       </c>
       <c r="E58" t="s">
@@ -1769,7 +1826,7 @@
         <v>464</v>
       </c>
       <c r="D59" s="7">
-        <f>B59/C59</f>
+        <f t="shared" si="1"/>
         <v>8.6206896551724137E-3</v>
       </c>
       <c r="E59" t="s">
@@ -1787,7 +1844,7 @@
         <v>352</v>
       </c>
       <c r="D60" s="7">
-        <f>B60/C60</f>
+        <f t="shared" si="1"/>
         <v>8.5227272727272721E-3</v>
       </c>
       <c r="E60" t="s">
@@ -1805,7 +1862,7 @@
         <v>480</v>
       </c>
       <c r="D61" s="7">
-        <f>B61/C61</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="E61" t="s">
@@ -1823,7 +1880,7 @@
         <v>360</v>
       </c>
       <c r="D62" s="7">
-        <f>B62/C62</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="E62" t="s">
@@ -1841,7 +1898,7 @@
         <v>240</v>
       </c>
       <c r="D63" s="7">
-        <f>B63/C63</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="E63" t="s">
@@ -1859,7 +1916,7 @@
         <v>368</v>
       </c>
       <c r="D64" s="7">
-        <f>B64/C64</f>
+        <f t="shared" si="1"/>
         <v>8.152173913043478E-3</v>
       </c>
       <c r="E64" t="s">
@@ -1877,7 +1934,7 @@
         <v>368</v>
       </c>
       <c r="D65" s="7">
-        <f>B65/C65</f>
+        <f t="shared" si="1"/>
         <v>8.152173913043478E-3</v>
       </c>
       <c r="E65" t="s">
@@ -1895,7 +1952,7 @@
         <v>371</v>
       </c>
       <c r="D66" s="7">
-        <f>B66/C66</f>
+        <f t="shared" si="1"/>
         <v>8.0862533692722376E-3</v>
       </c>
       <c r="E66" t="s">
@@ -1913,7 +1970,7 @@
         <v>499</v>
       </c>
       <c r="D67" s="7">
-        <f>B67/C67</f>
+        <f t="shared" ref="D67:D98" si="2">B67/C67</f>
         <v>8.0160320641282558E-3</v>
       </c>
       <c r="E67" t="s">
@@ -1931,7 +1988,7 @@
         <v>250</v>
       </c>
       <c r="D68" s="7">
-        <f>B68/C68</f>
+        <f t="shared" si="2"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E68" t="s">
@@ -1949,7 +2006,7 @@
         <v>512</v>
       </c>
       <c r="D69" s="7">
-        <f>B69/C69</f>
+        <f t="shared" si="2"/>
         <v>7.8125E-3</v>
       </c>
       <c r="E69" t="s">
@@ -1967,7 +2024,7 @@
         <v>512</v>
       </c>
       <c r="D70" s="7">
-        <f>B70/C70</f>
+        <f t="shared" si="2"/>
         <v>7.8125E-3</v>
       </c>
       <c r="E70" t="s">
@@ -1985,7 +2042,7 @@
         <v>264</v>
       </c>
       <c r="D71" s="7">
-        <f>B71/C71</f>
+        <f t="shared" si="2"/>
         <v>7.575757575757576E-3</v>
       </c>
       <c r="E71" t="s">
@@ -2003,7 +2060,7 @@
         <v>400</v>
       </c>
       <c r="D72" s="7">
-        <f>B72/C72</f>
+        <f t="shared" si="2"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E72" t="s">
@@ -2021,7 +2078,7 @@
         <v>544</v>
       </c>
       <c r="D73" s="7">
-        <f>B73/C73</f>
+        <f t="shared" si="2"/>
         <v>7.3529411764705881E-3</v>
       </c>
       <c r="E73" t="s">
@@ -2039,7 +2096,7 @@
         <v>560</v>
       </c>
       <c r="D74" s="7">
-        <f>B74/C74</f>
+        <f t="shared" si="2"/>
         <v>7.1428571428571426E-3</v>
       </c>
       <c r="E74" t="s">
@@ -2057,7 +2114,7 @@
         <v>284</v>
       </c>
       <c r="D75" s="7">
-        <f>B75/C75</f>
+        <f t="shared" si="2"/>
         <v>7.0422535211267607E-3</v>
       </c>
       <c r="E75" t="s">
@@ -2075,7 +2132,7 @@
         <v>288</v>
       </c>
       <c r="D76" s="7">
-        <f>B76/C76</f>
+        <f t="shared" si="2"/>
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="E76" t="s">
@@ -2093,7 +2150,7 @@
         <v>148</v>
       </c>
       <c r="D77" s="7">
-        <f>B77/C77</f>
+        <f t="shared" si="2"/>
         <v>6.7567567567567571E-3</v>
       </c>
       <c r="E77" t="s">
@@ -2111,7 +2168,7 @@
         <v>450</v>
       </c>
       <c r="D78" s="7">
-        <f>B78/C78</f>
+        <f t="shared" si="2"/>
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="E78" t="s">
@@ -2129,7 +2186,7 @@
         <v>480</v>
       </c>
       <c r="D79" s="7">
-        <f>B79/C79</f>
+        <f t="shared" si="2"/>
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="E79" t="s">
@@ -2147,7 +2204,7 @@
         <v>480</v>
       </c>
       <c r="D80" s="7">
-        <f>B80/C80</f>
+        <f t="shared" si="2"/>
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="E80" t="s">
@@ -2165,7 +2222,7 @@
         <v>488</v>
       </c>
       <c r="D81" s="7">
-        <f>B81/C81</f>
+        <f t="shared" si="2"/>
         <v>6.1475409836065573E-3</v>
       </c>
       <c r="E81" t="s">
@@ -2183,7 +2240,7 @@
         <v>332</v>
       </c>
       <c r="D82" s="7">
-        <f>B82/C82</f>
+        <f t="shared" si="2"/>
         <v>6.024096385542169E-3</v>
       </c>
       <c r="E82" t="s">
@@ -2201,7 +2258,7 @@
         <v>332</v>
       </c>
       <c r="D83" s="7">
-        <f>B83/C83</f>
+        <f t="shared" si="2"/>
         <v>6.024096385542169E-3</v>
       </c>
       <c r="E83" t="s">
@@ -2219,7 +2276,7 @@
         <v>344</v>
       </c>
       <c r="D84" s="7">
-        <f>B84/C84</f>
+        <f t="shared" si="2"/>
         <v>5.8139534883720929E-3</v>
       </c>
       <c r="E84" t="s">
@@ -2237,7 +2294,7 @@
         <v>704</v>
       </c>
       <c r="D85" s="7">
-        <f>B85/C85</f>
+        <f t="shared" si="2"/>
         <v>5.681818181818182E-3</v>
       </c>
       <c r="E85" t="s">
@@ -2255,7 +2312,7 @@
         <v>366</v>
       </c>
       <c r="D86" s="7">
-        <f>B86/C86</f>
+        <f t="shared" si="2"/>
         <v>5.4644808743169399E-3</v>
       </c>
       <c r="E86" t="s">
@@ -2273,7 +2330,7 @@
         <v>736</v>
       </c>
       <c r="D87" s="7">
-        <f>B87/C87</f>
+        <f t="shared" si="2"/>
         <v>5.434782608695652E-3</v>
       </c>
       <c r="E87" t="s">
@@ -2291,7 +2348,7 @@
         <v>373</v>
       </c>
       <c r="D88" s="7">
-        <f>B88/C88</f>
+        <f t="shared" si="2"/>
         <v>5.3619302949061663E-3</v>
       </c>
     </row>
@@ -2306,7 +2363,7 @@
         <v>560</v>
       </c>
       <c r="D89" s="7">
-        <f>B89/C89</f>
+        <f t="shared" si="2"/>
         <v>5.3571428571428572E-3</v>
       </c>
       <c r="E89" t="s">
@@ -2324,7 +2381,7 @@
         <v>560</v>
       </c>
       <c r="D90" s="7">
-        <f>B90/C90</f>
+        <f t="shared" si="2"/>
         <v>5.3571428571428572E-3</v>
       </c>
       <c r="E90" t="s">
@@ -2342,7 +2399,7 @@
         <v>576</v>
       </c>
       <c r="D91" s="7">
-        <f>B91/C91</f>
+        <f t="shared" si="2"/>
         <v>5.208333333333333E-3</v>
       </c>
     </row>
@@ -2357,7 +2414,7 @@
         <v>384</v>
       </c>
       <c r="D92" s="7">
-        <f>B92/C92</f>
+        <f t="shared" si="2"/>
         <v>5.208333333333333E-3</v>
       </c>
     </row>
@@ -2372,7 +2429,7 @@
         <v>200</v>
       </c>
       <c r="D93" s="7">
-        <f>B93/C93</f>
+        <f t="shared" si="2"/>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -2387,7 +2444,7 @@
         <v>400</v>
       </c>
       <c r="D94" s="7">
-        <f>B94/C94</f>
+        <f t="shared" si="2"/>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -2402,7 +2459,7 @@
         <v>416</v>
       </c>
       <c r="D95" s="7">
-        <f>B95/C95</f>
+        <f t="shared" si="2"/>
         <v>4.807692307692308E-3</v>
       </c>
     </row>
@@ -2417,7 +2474,7 @@
         <v>416</v>
       </c>
       <c r="D96" s="7">
-        <f>B96/C96</f>
+        <f t="shared" si="2"/>
         <v>4.807692307692308E-3</v>
       </c>
     </row>
@@ -2432,7 +2489,7 @@
         <v>848</v>
       </c>
       <c r="D97" s="7">
-        <f>B97/C97</f>
+        <f t="shared" si="2"/>
         <v>4.7169811320754715E-3</v>
       </c>
     </row>
@@ -2447,7 +2504,7 @@
         <v>456</v>
       </c>
       <c r="D98" s="7">
-        <f>B98/C98</f>
+        <f t="shared" si="2"/>
         <v>4.3859649122807015E-3</v>
       </c>
     </row>
@@ -2462,7 +2519,7 @@
         <v>528</v>
       </c>
       <c r="D99" s="7">
-        <f>B99/C99</f>
+        <f t="shared" ref="D99:D130" si="3">B99/C99</f>
         <v>3.787878787878788E-3</v>
       </c>
     </row>
@@ -2477,7 +2534,7 @@
         <v>544</v>
       </c>
       <c r="D100" s="7">
-        <f>B100/C100</f>
+        <f t="shared" si="3"/>
         <v>3.6764705882352941E-3</v>
       </c>
     </row>
@@ -2492,7 +2549,7 @@
         <v>848</v>
       </c>
       <c r="D101" s="7">
-        <f>B101/C101</f>
+        <f t="shared" si="3"/>
         <v>3.5377358490566039E-3</v>
       </c>
     </row>
@@ -2507,7 +2564,7 @@
         <v>864</v>
       </c>
       <c r="D102" s="7">
-        <f>B102/C102</f>
+        <f t="shared" si="3"/>
         <v>3.472222222222222E-3</v>
       </c>
     </row>
@@ -2522,7 +2579,7 @@
         <v>616</v>
       </c>
       <c r="D103" s="7">
-        <f>B103/C103</f>
+        <f t="shared" si="3"/>
         <v>3.246753246753247E-3</v>
       </c>
     </row>
@@ -2537,7 +2594,7 @@
         <v>320</v>
       </c>
       <c r="D104" s="7">
-        <f>B104/C104</f>
+        <f t="shared" si="3"/>
         <v>3.1250000000000002E-3</v>
       </c>
     </row>
@@ -2552,8 +2609,170 @@
         <v>1280</v>
       </c>
       <c r="D105" s="7">
-        <f>B105/C105</f>
+        <f t="shared" si="3"/>
         <v>2.3437499999999999E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D106" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D107" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D108" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D109" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D110" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D111" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D112" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D113" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D114" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D115" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D116" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D117" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D118" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D119" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D120" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D121" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D122" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D123" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/Book Ranking.xlsx
+++ b/Book Ranking.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="130">
   <si>
     <t>Book Ranking</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>The Ransom of Russian Art</t>
   </si>
 </sst>
 </file>
@@ -768,11 +771,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <pane ySplit="2" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2519,7 +2522,7 @@
         <v>528</v>
       </c>
       <c r="D99" s="7">
-        <f t="shared" ref="D99:D130" si="3">B99/C99</f>
+        <f t="shared" ref="D99:D124" si="3">B99/C99</f>
         <v>3.787878787878788E-3</v>
       </c>
     </row>
@@ -2771,6 +2774,15 @@
         <v>127</v>
       </c>
       <c r="D123" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D124" s="7" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>

--- a/Book Ranking.xlsx
+++ b/Book Ranking.xlsx
@@ -8,16 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$E$218</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="132">
   <si>
     <t>Book Ranking</t>
   </si>
@@ -407,6 +408,12 @@
   </si>
   <si>
     <t>The Ransom of Russian Art</t>
+  </si>
+  <si>
+    <t>Book Read</t>
+  </si>
+  <si>
+    <t>Yes (Reading Again)</t>
   </si>
 </sst>
 </file>
@@ -771,11 +778,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E124"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A120" sqref="A120"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,6 +791,7 @@
     <col min="1" max="1" width="125.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="17.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -810,7 +819,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
@@ -2354,6 +2363,9 @@
         <f t="shared" si="2"/>
         <v>5.3619302949061663E-3</v>
       </c>
+      <c r="E88" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
@@ -2405,6 +2417,9 @@
         <f t="shared" si="2"/>
         <v>5.208333333333333E-3</v>
       </c>
+      <c r="E91" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
@@ -2420,6 +2435,9 @@
         <f t="shared" si="2"/>
         <v>5.208333333333333E-3</v>
       </c>
+      <c r="E92" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
@@ -2435,6 +2453,9 @@
         <f t="shared" si="2"/>
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="E93" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
@@ -2450,6 +2471,9 @@
         <f t="shared" si="2"/>
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="E94" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -2465,6 +2489,9 @@
         <f t="shared" si="2"/>
         <v>4.807692307692308E-3</v>
       </c>
+      <c r="E95" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
@@ -2480,8 +2507,11 @@
         <f t="shared" si="2"/>
         <v>4.807692307692308E-3</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>100</v>
       </c>
@@ -2495,8 +2525,11 @@
         <f t="shared" si="2"/>
         <v>4.7169811320754715E-3</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>106</v>
       </c>
@@ -2510,8 +2543,11 @@
         <f t="shared" si="2"/>
         <v>4.3859649122807015E-3</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>47</v>
       </c>
@@ -2525,8 +2561,11 @@
         <f t="shared" ref="D99:D124" si="3">B99/C99</f>
         <v>3.787878787878788E-3</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>62</v>
       </c>
@@ -2540,8 +2579,11 @@
         <f t="shared" si="3"/>
         <v>3.6764705882352941E-3</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>23</v>
       </c>
@@ -2555,8 +2597,11 @@
         <f t="shared" si="3"/>
         <v>3.5377358490566039E-3</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>102</v>
       </c>
@@ -2570,8 +2615,11 @@
         <f t="shared" si="3"/>
         <v>3.472222222222222E-3</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>6</v>
       </c>
@@ -2585,8 +2633,11 @@
         <f t="shared" si="3"/>
         <v>3.246753246753247E-3</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>99</v>
       </c>
@@ -2600,8 +2651,11 @@
         <f t="shared" si="3"/>
         <v>3.1250000000000002E-3</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>91</v>
       </c>
@@ -2612,188 +2666,861 @@
         <v>1280</v>
       </c>
       <c r="D105" s="7">
-        <f t="shared" si="3"/>
+        <f>IFERROR(B105/C105," ")</f>
         <v>2.3437499999999999E-3</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D106" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D106" s="7" t="str">
+        <f>IFERROR(B106/C106," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E106" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D107" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D107" s="7" t="str">
+        <f t="shared" ref="D107:D170" si="4">IFERROR(B107/C107," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E107" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D108" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D108" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E108" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D109" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D109" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E109" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D110" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D110" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E110" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D111" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D111" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E111" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D112" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D112" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E112" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D113" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E113" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E114" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D115" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E115" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D116" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D116" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E116" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D117" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D117" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E117" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D118" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D118" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E118" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D119" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D119" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E119" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D120" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D120" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E120" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D121" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D121" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E121" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D122" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D122" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E122" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D123" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D123" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E123" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D124" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="D124" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E124" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D125" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D126" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D127" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D128" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D129" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D130" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D131" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D132" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D133" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D134" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D135" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D136" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D137" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D138" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D139" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D140" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D141" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D142" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D143" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D144" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D145" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D146" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D147" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D148" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D149" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D150" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D151" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D152" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D153" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D154" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D155" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D156" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D157" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D158" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D159" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D160" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D161" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D162" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D163" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D164" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D165" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D166" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D167" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D168" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D169" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D170" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D171" s="7" t="str">
+        <f t="shared" ref="D171:D218" si="5">IFERROR(B171/C171," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D172" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D173" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D174" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D175" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D176" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D177" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D178" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D179" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D180" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D181" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D182" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D183" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D184" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D185" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D186" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D187" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D188" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D189" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D190" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D191" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D192" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D193" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D194" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D195" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D196" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D197" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D198" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D199" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D200" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D201" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D202" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D203" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D204" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D205" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D206" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D207" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D208" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D209" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D210" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D211" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D212" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D213" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D214" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D215" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D216" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D217" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D218" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D70">
-    <sortState ref="A3:D105">
-      <sortCondition descending="1" ref="D2:D70"/>
-    </sortState>
+  <autoFilter ref="A2:E218">
+    <filterColumn colId="4">
+      <filters blank="1">
+        <filter val="No"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3:E138</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Book Ranking.xlsx
+++ b/Book Ranking.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="133">
   <si>
     <t>Book Ranking</t>
   </si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>Yes (Reading Again)</t>
+  </si>
+  <si>
+    <t>The Elements of Journalism</t>
   </si>
 </sst>
 </file>
@@ -779,11 +782,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E218"/>
+  <dimension ref="A1:E219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2558,7 +2561,7 @@
         <v>528</v>
       </c>
       <c r="D99" s="7">
-        <f t="shared" ref="D99:D124" si="3">B99/C99</f>
+        <f t="shared" ref="D99:D104" si="3">B99/C99</f>
         <v>3.787878787878788E-3</v>
       </c>
       <c r="E99" t="s">
@@ -2902,9 +2905,15 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D125" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
+      </c>
+      <c r="E125" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -3179,7 +3188,7 @@
     </row>
     <row r="171" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D171" s="7" t="str">
-        <f t="shared" ref="D171:D218" si="5">IFERROR(B171/C171," ")</f>
+        <f t="shared" ref="D171:D219" si="5">IFERROR(B171/C171," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -3461,6 +3470,12 @@
     </row>
     <row r="218" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D218" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D219" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3468,7 +3483,7 @@
   </sheetData>
   <autoFilter ref="A2:E218">
     <filterColumn colId="4">
-      <filters blank="1">
+      <filters>
         <filter val="No"/>
       </filters>
     </filterColumn>

--- a/Book Ranking.xlsx
+++ b/Book Ranking.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="134">
   <si>
     <t>Book Ranking</t>
   </si>
@@ -417,6 +417,9 @@
   </si>
   <si>
     <t>The Elements of Journalism</t>
+  </si>
+  <si>
+    <t>A Monk's Guide to a Clean House</t>
   </si>
 </sst>
 </file>
@@ -785,8 +788,8 @@
   <dimension ref="A1:E219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E125" sqref="E125"/>
+      <pane ySplit="2" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A126" sqref="A126:E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2917,9 +2920,15 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="D126" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <f>IFERROR(B126/C126," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E126" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -3188,7 +3197,7 @@
     </row>
     <row r="171" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D171" s="7" t="str">
-        <f t="shared" ref="D171:D219" si="5">IFERROR(B171/C171," ")</f>
+        <f t="shared" ref="D171:D220" si="5">IFERROR(B171/C171," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -3497,7 +3506,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E138</xm:sqref>
+          <xm:sqref>E3:E125 E127:E138</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Book Ranking.xlsx
+++ b/Book Ranking.xlsx
@@ -59,9 +59,6 @@
     <t>The Gnostic Gospels.</t>
   </si>
   <si>
-    <t>Empire of the Summer Moon: Quanah Parker and the Rise and Fall of the Comanches, the Most Powerful</t>
-  </si>
-  <si>
     <t>How Music Works</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
     <t xml:space="preserve">Living Buddha, Living Christ 10th Anniversary Edition  </t>
   </si>
   <si>
-    <t xml:space="preserve">The Gnôsis of the Light  </t>
-  </si>
-  <si>
     <t xml:space="preserve">On the Decay of the Art of Lying  </t>
   </si>
   <si>
@@ -245,9 +239,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Bringin up Bebe</t>
-  </si>
-  <si>
     <t>Fiasco</t>
   </si>
   <si>
@@ -284,9 +275,6 @@
     <t>The Elements of Zen</t>
   </si>
   <si>
-    <t>Dr. Suess: American Icon</t>
-  </si>
-  <si>
     <t>Myths to Live By</t>
   </si>
   <si>
@@ -329,9 +317,6 @@
     <t>A Global History of Architecture</t>
   </si>
   <si>
-    <t>A Pictoral History of the Great Lakes</t>
-  </si>
-  <si>
     <t>Mooney</t>
   </si>
   <si>
@@ -398,9 +383,6 @@
     <t>The First World War (Strachan)</t>
   </si>
   <si>
-    <t>Solderi from the Wars Returning (Carrington)</t>
-  </si>
-  <si>
     <t>The New Knighthood</t>
   </si>
   <si>
@@ -420,6 +402,24 @@
   </si>
   <si>
     <t>A Monk's Guide to a Clean House</t>
+  </si>
+  <si>
+    <t>Soldier from the Wars Returning (Carrington)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Gnosis of the Light  </t>
+  </si>
+  <si>
+    <t>Dr. Seuss: American Icon</t>
+  </si>
+  <si>
+    <t>Bringing up Bebe</t>
+  </si>
+  <si>
+    <t>Empire of the Summer Moon: Quanah Parker and the Rise and Fall of the Comanche's, the Most Powerful</t>
+  </si>
+  <si>
+    <t>A Pictorial History of the Great Lakes</t>
   </si>
 </sst>
 </file>
@@ -788,8 +788,8 @@
   <dimension ref="A1:E219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A126" sqref="A126:E126"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,12 +822,12 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3">
         <v>4</v>
@@ -840,12 +840,12 @@
         <v>8.6956521739130432E-2</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B4" s="3">
         <v>5</v>
@@ -858,12 +858,12 @@
         <v>6.8493150684931503E-2</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
@@ -876,12 +876,12 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
@@ -894,12 +894,12 @@
         <v>5.4054054054054057E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
@@ -912,12 +912,12 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B8" s="3">
         <v>3</v>
@@ -930,12 +930,12 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B9" s="3">
         <v>5</v>
@@ -948,12 +948,12 @@
         <v>3.7593984962406013E-2</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="3">
         <v>4</v>
@@ -966,12 +966,12 @@
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3">
         <v>4</v>
@@ -984,12 +984,12 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
@@ -1002,12 +1002,12 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B13" s="3">
         <v>3</v>
@@ -1020,12 +1020,12 @@
         <v>2.4193548387096774E-2</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="3">
         <v>3</v>
@@ -1038,12 +1038,12 @@
         <v>2.34375E-2</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="3">
         <v>5</v>
@@ -1056,12 +1056,12 @@
         <v>2.1929824561403508E-2</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B16" s="3">
         <v>4</v>
@@ -1074,12 +1074,12 @@
         <v>2.0942408376963352E-2</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="3">
         <v>4</v>
@@ -1092,12 +1092,12 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="B18" s="3">
         <v>4</v>
@@ -1110,12 +1110,12 @@
         <v>2.0202020202020204E-2</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B19" s="3">
         <v>5</v>
@@ -1128,12 +1128,12 @@
         <v>1.937984496124031E-2</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B20" s="3">
         <v>3</v>
@@ -1146,12 +1146,12 @@
         <v>1.9108280254777069E-2</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="3">
         <v>3</v>
@@ -1164,12 +1164,12 @@
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B22" s="3">
         <v>4</v>
@@ -1182,12 +1182,12 @@
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B23" s="3">
         <v>4</v>
@@ -1200,12 +1200,12 @@
         <v>1.7699115044247787E-2</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B24" s="3">
         <v>5</v>
@@ -1218,12 +1218,12 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
@@ -1236,7 +1236,7 @@
         <v>1.7316017316017316E-2</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1254,12 +1254,12 @@
         <v>1.6483516483516484E-2</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
@@ -1272,12 +1272,12 @@
         <v>1.6E-2</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B28" s="3">
         <v>4</v>
@@ -1290,12 +1290,12 @@
         <v>1.5037593984962405E-2</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="3">
         <v>5</v>
@@ -1308,12 +1308,12 @@
         <v>1.488095238095238E-2</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B30" s="3">
         <v>2</v>
@@ -1326,12 +1326,12 @@
         <v>1.4598540145985401E-2</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B31" s="3">
         <v>4</v>
@@ -1344,12 +1344,12 @@
         <v>1.4492753623188406E-2</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="3">
         <v>3</v>
@@ -1362,12 +1362,12 @@
         <v>1.4423076923076924E-2</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B33" s="3">
         <v>3</v>
@@ -1380,12 +1380,12 @@
         <v>1.4084507042253521E-2</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="3">
         <v>5</v>
@@ -1398,12 +1398,12 @@
         <v>1.358695652173913E-2</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B35" s="3">
         <v>4</v>
@@ -1416,12 +1416,12 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B36" s="3">
         <v>2</v>
@@ -1434,12 +1434,12 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B37" s="3">
         <v>4</v>
@@ -1452,12 +1452,12 @@
         <v>1.1904761904761904E-2</v>
       </c>
       <c r="E37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="3">
         <v>3</v>
@@ -1470,12 +1470,12 @@
         <v>1.171875E-2</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B39" s="3">
         <v>5</v>
@@ -1488,12 +1488,12 @@
         <v>1.1574074074074073E-2</v>
       </c>
       <c r="E39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" s="3">
         <v>3</v>
@@ -1506,12 +1506,12 @@
         <v>1.1363636363636364E-2</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B41" s="3">
         <v>3</v>
@@ -1524,12 +1524,12 @@
         <v>1.1278195488721804E-2</v>
       </c>
       <c r="E41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B42" s="3">
         <v>3</v>
@@ -1542,12 +1542,12 @@
         <v>1.0830324909747292E-2</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B43" s="3">
         <v>4</v>
@@ -1560,12 +1560,12 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B44" s="3">
         <v>4</v>
@@ -1578,12 +1578,12 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="3">
         <v>3</v>
@@ -1596,12 +1596,12 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B46" s="3">
         <v>4</v>
@@ -1614,12 +1614,12 @@
         <v>0.01</v>
       </c>
       <c r="E46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B47" s="3">
         <v>2</v>
@@ -1632,12 +1632,12 @@
         <v>0.01</v>
       </c>
       <c r="E47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B48" s="3">
         <v>4</v>
@@ -1650,12 +1650,12 @@
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="E48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B49" s="8">
         <v>2</v>
@@ -1668,12 +1668,12 @@
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="E49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B50" s="3">
         <v>2</v>
@@ -1686,12 +1686,12 @@
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="E50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B51" s="3">
         <v>3</v>
@@ -1704,12 +1704,12 @@
         <v>9.4936708860759497E-3</v>
       </c>
       <c r="E51" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="B52" s="3">
         <v>4</v>
@@ -1722,12 +1722,12 @@
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="E52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" s="3">
         <v>4</v>
@@ -1740,7 +1740,7 @@
         <v>9.1743119266055051E-3</v>
       </c>
       <c r="E53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1758,12 +1758,12 @@
         <v>9.0090090090090089E-3</v>
       </c>
       <c r="E54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" s="3">
         <v>3</v>
@@ -1776,12 +1776,12 @@
         <v>8.9285714285714281E-3</v>
       </c>
       <c r="E55" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B56" s="3">
         <v>2</v>
@@ -1794,12 +1794,12 @@
         <v>8.8888888888888889E-3</v>
       </c>
       <c r="E56" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B57" s="3">
         <v>3</v>
@@ -1812,7 +1812,7 @@
         <v>8.7209302325581394E-3</v>
       </c>
       <c r="E57" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1830,12 +1830,12 @@
         <v>8.6206896551724137E-3</v>
       </c>
       <c r="E58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B59" s="3">
         <v>4</v>
@@ -1848,12 +1848,12 @@
         <v>8.6206896551724137E-3</v>
       </c>
       <c r="E59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B60" s="3">
         <v>3</v>
@@ -1866,12 +1866,12 @@
         <v>8.5227272727272721E-3</v>
       </c>
       <c r="E60" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B61" s="3">
         <v>4</v>
@@ -1884,12 +1884,12 @@
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="E61" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B62" s="3">
         <v>3</v>
@@ -1902,7 +1902,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="E62" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1920,7 +1920,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="E63" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1938,12 +1938,12 @@
         <v>8.152173913043478E-3</v>
       </c>
       <c r="E64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B65" s="3">
         <v>3</v>
@@ -1956,12 +1956,12 @@
         <v>8.152173913043478E-3</v>
       </c>
       <c r="E65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="B66" s="3">
         <v>3</v>
@@ -1974,7 +1974,7 @@
         <v>8.0862533692722376E-3</v>
       </c>
       <c r="E66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1992,12 +1992,12 @@
         <v>8.0160320641282558E-3</v>
       </c>
       <c r="E67" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B68" s="3">
         <v>2</v>
@@ -2010,12 +2010,12 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E68" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B69" s="3">
         <v>4</v>
@@ -2028,12 +2028,12 @@
         <v>7.8125E-3</v>
       </c>
       <c r="E69" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B70" s="3">
         <v>4</v>
@@ -2046,12 +2046,12 @@
         <v>7.8125E-3</v>
       </c>
       <c r="E70" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B71" s="3">
         <v>2</v>
@@ -2064,12 +2064,12 @@
         <v>7.575757575757576E-3</v>
       </c>
       <c r="E71" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B72" s="3">
         <v>3</v>
@@ -2082,12 +2082,12 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E72" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B73" s="3">
         <v>4</v>
@@ -2100,12 +2100,12 @@
         <v>7.3529411764705881E-3</v>
       </c>
       <c r="E73" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B74" s="3">
         <v>4</v>
@@ -2118,7 +2118,7 @@
         <v>7.1428571428571426E-3</v>
       </c>
       <c r="E74" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2136,12 +2136,12 @@
         <v>7.0422535211267607E-3</v>
       </c>
       <c r="E75" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B76" s="3">
         <v>2</v>
@@ -2154,12 +2154,12 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="E76" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B77" s="3">
         <v>1</v>
@@ -2172,12 +2172,12 @@
         <v>6.7567567567567571E-3</v>
       </c>
       <c r="E77" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B78" s="3">
         <v>3</v>
@@ -2190,12 +2190,12 @@
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="E78" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B79" s="3">
         <v>3</v>
@@ -2208,12 +2208,12 @@
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="E79" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B80" s="3">
         <v>3</v>
@@ -2226,12 +2226,12 @@
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="E80" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B81" s="3">
         <v>3</v>
@@ -2244,12 +2244,12 @@
         <v>6.1475409836065573E-3</v>
       </c>
       <c r="E81" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B82" s="3">
         <v>2</v>
@@ -2262,12 +2262,12 @@
         <v>6.024096385542169E-3</v>
       </c>
       <c r="E82" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B83" s="3">
         <v>2</v>
@@ -2280,12 +2280,12 @@
         <v>6.024096385542169E-3</v>
       </c>
       <c r="E83" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B84" s="3">
         <v>2</v>
@@ -2298,12 +2298,12 @@
         <v>5.8139534883720929E-3</v>
       </c>
       <c r="E84" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B85" s="3">
         <v>4</v>
@@ -2316,12 +2316,12 @@
         <v>5.681818181818182E-3</v>
       </c>
       <c r="E85" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B86" s="3">
         <v>2</v>
@@ -2334,12 +2334,12 @@
         <v>5.4644808743169399E-3</v>
       </c>
       <c r="E86" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B87" s="3">
         <v>4</v>
@@ -2352,12 +2352,12 @@
         <v>5.434782608695652E-3</v>
       </c>
       <c r="E87" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B88" s="3">
         <v>2</v>
@@ -2370,12 +2370,12 @@
         <v>5.3619302949061663E-3</v>
       </c>
       <c r="E88" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B89" s="3">
         <v>3</v>
@@ -2388,12 +2388,12 @@
         <v>5.3571428571428572E-3</v>
       </c>
       <c r="E89" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B90" s="3">
         <v>3</v>
@@ -2406,12 +2406,12 @@
         <v>5.3571428571428572E-3</v>
       </c>
       <c r="E90" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B91" s="3">
         <v>3</v>
@@ -2424,12 +2424,12 @@
         <v>5.208333333333333E-3</v>
       </c>
       <c r="E91" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B92" s="3">
         <v>2</v>
@@ -2442,12 +2442,12 @@
         <v>5.208333333333333E-3</v>
       </c>
       <c r="E92" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B93" s="3">
         <v>1</v>
@@ -2460,12 +2460,12 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E93" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B94" s="3">
         <v>2</v>
@@ -2478,12 +2478,12 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E94" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B95" s="3">
         <v>2</v>
@@ -2496,12 +2496,12 @@
         <v>4.807692307692308E-3</v>
       </c>
       <c r="E95" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B96" s="3">
         <v>2</v>
@@ -2514,12 +2514,12 @@
         <v>4.807692307692308E-3</v>
       </c>
       <c r="E96" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B97" s="3">
         <v>4</v>
@@ -2532,12 +2532,12 @@
         <v>4.7169811320754715E-3</v>
       </c>
       <c r="E97" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B98" s="3">
         <v>2</v>
@@ -2550,12 +2550,12 @@
         <v>4.3859649122807015E-3</v>
       </c>
       <c r="E98" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B99" s="3">
         <v>2</v>
@@ -2568,12 +2568,12 @@
         <v>3.787878787878788E-3</v>
       </c>
       <c r="E99" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B100" s="3">
         <v>2</v>
@@ -2586,12 +2586,12 @@
         <v>3.6764705882352941E-3</v>
       </c>
       <c r="E100" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B101" s="3">
         <v>3</v>
@@ -2604,12 +2604,12 @@
         <v>3.5377358490566039E-3</v>
       </c>
       <c r="E101" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B102" s="3">
         <v>3</v>
@@ -2622,7 +2622,7 @@
         <v>3.472222222222222E-3</v>
       </c>
       <c r="E102" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2640,12 +2640,12 @@
         <v>3.246753246753247E-3</v>
       </c>
       <c r="E103" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B104" s="3">
         <v>1</v>
@@ -2658,12 +2658,12 @@
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="E104" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B105" s="3">
         <v>3</v>
@@ -2676,259 +2676,259 @@
         <v>2.3437499999999999E-3</v>
       </c>
       <c r="E105" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D106" s="7" t="str">
         <f>IFERROR(B106/C106," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E106" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D107" s="7" t="str">
         <f t="shared" ref="D107:D170" si="4">IFERROR(B107/C107," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E107" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D108" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E108" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D109" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E109" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D110" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E110" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D111" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E111" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D112" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E112" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D113" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E113" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D114" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E114" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D115" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E115" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D116" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E116" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D117" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E117" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D118" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E118" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D119" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E119" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D120" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E120" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D121" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E121" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D122" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E122" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D123" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E123" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D124" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E124" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D125" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E125" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D126" s="7" t="str">
         <f>IFERROR(B126/C126," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E126" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -3197,7 +3197,7 @@
     </row>
     <row r="171" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D171" s="7" t="str">
-        <f t="shared" ref="D171:D220" si="5">IFERROR(B171/C171," ")</f>
+        <f t="shared" ref="D171:D219" si="5">IFERROR(B171/C171," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -3526,22 +3526,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Book Ranking.xlsx
+++ b/Book Ranking.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="135">
   <si>
     <t>Book Ranking</t>
   </si>
@@ -420,6 +420,9 @@
   </si>
   <si>
     <t>A Pictorial History of the Great Lakes</t>
+  </si>
+  <si>
+    <t>A Testament of Hope: The Essential Writings and Speeches (MLK)</t>
   </si>
 </sst>
 </file>
@@ -788,8 +791,8 @@
   <dimension ref="A1:E219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
+      <pane ySplit="2" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2932,9 +2935,15 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="D127" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
+      </c>
+      <c r="E127" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">

--- a/Book Ranking.xlsx
+++ b/Book Ranking.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="137">
   <si>
     <t>Book Ranking</t>
   </si>
@@ -423,6 +423,12 @@
   </si>
   <si>
     <t>A Testament of Hope: The Essential Writings and Speeches (MLK)</t>
+  </si>
+  <si>
+    <t>Knocking on Labor's Door</t>
+  </si>
+  <si>
+    <t>Impeachment: A Citizen's Guide</t>
   </si>
 </sst>
 </file>
@@ -792,7 +798,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E127" sqref="E127"/>
+      <selection pane="bottomLeft" activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2947,102 +2953,120 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B128" s="3">
+        <v>3</v>
+      </c>
       <c r="D128" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E128" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B129" s="3">
+        <v>4</v>
+      </c>
       <c r="D129" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D130" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D131" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D132" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D133" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D134" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D135" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D136" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D137" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D138" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D139" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D140" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D141" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D142" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D143" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D144" s="7" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>

--- a/Book Ranking.xlsx
+++ b/Book Ranking.xlsx
@@ -797,8 +797,8 @@
   <dimension ref="A1:E219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E129" sqref="E129"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,181 +852,151 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="B4" s="3">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3">
-        <v>73</v>
-      </c>
-      <c r="D4" s="7">
-        <f t="shared" si="0"/>
-        <v>6.8493150684931503E-2</v>
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="str">
+        <f>IFERROR(B4/C4," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
-        <v>30</v>
-      </c>
-      <c r="D5" s="7">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+      <c r="D5" s="7" t="str">
+        <f>IFERROR(B5/C5," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3">
-        <v>74</v>
-      </c>
-      <c r="D6" s="7">
-        <f t="shared" si="0"/>
-        <v>5.4054054054054057E-2</v>
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="str">
+        <f>IFERROR(B6/C6," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7" t="str">
+        <f>IFERROR(B7/C7," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7" t="str">
+        <f>IFERROR(B8/C8," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7" t="str">
+        <f>IFERROR(B9/C9," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7" t="str">
+        <f>IFERROR(B10/C10," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7" t="str">
+        <f>IFERROR(B11/C11," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="7">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="3">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3">
-        <v>72</v>
-      </c>
-      <c r="D8" s="7">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="3">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3">
-        <v>133</v>
-      </c>
-      <c r="D9" s="7">
-        <f t="shared" si="0"/>
-        <v>3.7593984962406013E-2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="3">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3">
-        <v>132</v>
-      </c>
-      <c r="D10" s="7">
-        <f t="shared" si="0"/>
-        <v>3.0303030303030304E-2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="3">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3">
-        <v>160</v>
-      </c>
-      <c r="D11" s="7">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="B12" s="3">
         <v>2</v>
       </c>
-      <c r="C12" s="3">
-        <v>80</v>
-      </c>
-      <c r="D12" s="7">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000001E-2</v>
+      <c r="D12" s="7" t="str">
+        <f>IFERROR(B12/C12," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="B13" s="3">
-        <v>3</v>
-      </c>
-      <c r="C13" s="3">
-        <v>124</v>
-      </c>
-      <c r="D13" s="7">
-        <f t="shared" si="0"/>
-        <v>2.4193548387096774E-2</v>
+        <v>2</v>
+      </c>
+      <c r="D13" s="7" t="str">
+        <f>IFERROR(B13/C13," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E13" t="s">
         <v>72</v>
@@ -1034,17 +1004,17 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="B14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14" s="3">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D14" s="7">
-        <f t="shared" si="0"/>
-        <v>2.34375E-2</v>
+        <f>B14/C14</f>
+        <v>6.8493150684931503E-2</v>
       </c>
       <c r="E14" t="s">
         <v>72</v>
@@ -1052,17 +1022,17 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B15" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C15" s="3">
-        <v>228</v>
+        <v>30</v>
       </c>
       <c r="D15" s="7">
-        <f t="shared" si="0"/>
-        <v>2.1929824561403508E-2</v>
+        <f>B15/C15</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="E15" t="s">
         <v>72</v>
@@ -1070,17 +1040,17 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="B16" s="3">
         <v>4</v>
       </c>
       <c r="C16" s="3">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="D16" s="7">
-        <f t="shared" si="0"/>
-        <v>2.0942408376963352E-2</v>
+        <f>B16/C16</f>
+        <v>5.4054054054054057E-2</v>
       </c>
       <c r="E16" t="s">
         <v>72</v>
@@ -1088,17 +1058,17 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c r="D17" s="7">
-        <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <f>B17/C17</f>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E17" t="s">
         <v>72</v>
@@ -1106,17 +1076,17 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="B18" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3">
-        <v>198</v>
+        <v>72</v>
       </c>
       <c r="D18" s="7">
-        <f t="shared" si="0"/>
-        <v>2.0202020202020204E-2</v>
+        <f>B18/C18</f>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E18" t="s">
         <v>72</v>
@@ -1124,17 +1094,17 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="B19" s="3">
         <v>5</v>
       </c>
       <c r="C19" s="3">
-        <v>258</v>
+        <v>128</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" si="0"/>
-        <v>1.937984496124031E-2</v>
+        <f>IFERROR(B19/C19," ")</f>
+        <v>3.90625E-2</v>
       </c>
       <c r="E19" t="s">
         <v>72</v>
@@ -1142,17 +1112,17 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B20" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C20" s="3">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" si="0"/>
-        <v>1.9108280254777069E-2</v>
+        <f>B20/C20</f>
+        <v>3.7593984962406013E-2</v>
       </c>
       <c r="E20" t="s">
         <v>72</v>
@@ -1160,17 +1130,17 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="3">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="D21" s="7">
-        <f t="shared" si="0"/>
-        <v>1.8749999999999999E-2</v>
+        <f>B21/C21</f>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="E21" t="s">
         <v>72</v>
@@ -1178,17 +1148,17 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B22" s="3">
         <v>4</v>
       </c>
       <c r="C22" s="3">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="D22" s="7">
-        <f t="shared" si="0"/>
-        <v>1.7857142857142856E-2</v>
+        <f>B22/C22</f>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E22" t="s">
         <v>72</v>
@@ -1196,17 +1166,17 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="B23" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23" s="3">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="D23" s="7">
-        <f t="shared" si="0"/>
-        <v>1.7699115044247787E-2</v>
+        <f>B23/C23</f>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E23" t="s">
         <v>72</v>
@@ -1214,17 +1184,17 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B24" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
-        <v>288</v>
+        <v>124</v>
       </c>
       <c r="D24" s="7">
-        <f t="shared" si="0"/>
-        <v>1.7361111111111112E-2</v>
+        <f>B24/C24</f>
+        <v>2.4193548387096774E-2</v>
       </c>
       <c r="E24" t="s">
         <v>72</v>
@@ -1232,17 +1202,17 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="D25" s="7">
-        <f t="shared" si="0"/>
-        <v>1.7316017316017316E-2</v>
+        <f>IFERROR(B25/C25," ")</f>
+        <v>2.403846153846154E-2</v>
       </c>
       <c r="E25" t="s">
         <v>72</v>
@@ -1250,17 +1220,17 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B26" s="3">
         <v>3</v>
       </c>
       <c r="C26" s="3">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="D26" s="7">
-        <f t="shared" si="0"/>
-        <v>1.6483516483516484E-2</v>
+        <f>B26/C26</f>
+        <v>2.34375E-2</v>
       </c>
       <c r="E26" t="s">
         <v>72</v>
@@ -1268,17 +1238,17 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="D27" s="7">
-        <f t="shared" si="0"/>
-        <v>1.6E-2</v>
+        <f>B27/C27</f>
+        <v>2.1929824561403508E-2</v>
       </c>
       <c r="E27" t="s">
         <v>72</v>
@@ -1286,17 +1256,17 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B28" s="3">
         <v>4</v>
       </c>
       <c r="C28" s="3">
-        <v>266</v>
+        <v>191</v>
       </c>
       <c r="D28" s="7">
-        <f t="shared" si="0"/>
-        <v>1.5037593984962405E-2</v>
+        <f>B28/C28</f>
+        <v>2.0942408376963352E-2</v>
       </c>
       <c r="E28" t="s">
         <v>72</v>
@@ -1304,17 +1274,17 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B29" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="3">
-        <v>336</v>
+        <v>192</v>
       </c>
       <c r="D29" s="7">
-        <f t="shared" si="0"/>
-        <v>1.488095238095238E-2</v>
+        <f>B29/C29</f>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E29" t="s">
         <v>72</v>
@@ -1322,17 +1292,17 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B30" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C30" s="3">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="D30" s="7">
-        <f t="shared" si="0"/>
-        <v>1.4598540145985401E-2</v>
+        <f>B30/C30</f>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="E30" t="s">
         <v>72</v>
@@ -1340,17 +1310,17 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B31" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31" s="3">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="D31" s="7">
-        <f t="shared" si="0"/>
-        <v>1.4492753623188406E-2</v>
+        <f>B31/C31</f>
+        <v>1.937984496124031E-2</v>
       </c>
       <c r="E31" t="s">
         <v>72</v>
@@ -1358,17 +1328,17 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="B32" s="3">
         <v>3</v>
       </c>
       <c r="C32" s="3">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="D32" s="7">
-        <f t="shared" si="0"/>
-        <v>1.4423076923076924E-2</v>
+        <f>B32/C32</f>
+        <v>1.9108280254777069E-2</v>
       </c>
       <c r="E32" t="s">
         <v>72</v>
@@ -1376,17 +1346,17 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B33" s="3">
         <v>3</v>
       </c>
       <c r="C33" s="3">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="D33" s="7">
-        <f t="shared" si="0"/>
-        <v>1.4084507042253521E-2</v>
+        <f>B33/C33</f>
+        <v>1.8749999999999999E-2</v>
       </c>
       <c r="E33" t="s">
         <v>72</v>
@@ -1394,17 +1364,17 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B34" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" s="3">
-        <v>368</v>
+        <v>224</v>
       </c>
       <c r="D34" s="7">
-        <f t="shared" si="0"/>
-        <v>1.358695652173913E-2</v>
+        <f>B34/C34</f>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="E34" t="s">
         <v>72</v>
@@ -1412,17 +1382,17 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B35" s="3">
         <v>4</v>
       </c>
       <c r="C35" s="3">
-        <v>320</v>
+        <v>226</v>
       </c>
       <c r="D35" s="7">
-        <f t="shared" ref="D35:D66" si="1">B35/C35</f>
-        <v>1.2500000000000001E-2</v>
+        <f>B35/C35</f>
+        <v>1.7699115044247787E-2</v>
       </c>
       <c r="E35" t="s">
         <v>72</v>
@@ -1430,17 +1400,17 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="B36" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C36" s="3">
-        <v>160</v>
+        <v>288</v>
       </c>
       <c r="D36" s="7">
-        <f t="shared" si="1"/>
-        <v>1.2500000000000001E-2</v>
+        <f>B36/C36</f>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="E36" t="s">
         <v>72</v>
@@ -1448,17 +1418,17 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B37" s="3">
         <v>4</v>
       </c>
       <c r="C37" s="3">
-        <v>336</v>
+        <v>231</v>
       </c>
       <c r="D37" s="7">
-        <f t="shared" si="1"/>
-        <v>1.1904761904761904E-2</v>
+        <f>B37/C37</f>
+        <v>1.7316017316017316E-2</v>
       </c>
       <c r="E37" t="s">
         <v>72</v>
@@ -1466,17 +1436,17 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="B38" s="3">
         <v>3</v>
       </c>
       <c r="C38" s="3">
-        <v>256</v>
+        <v>181</v>
       </c>
       <c r="D38" s="7">
-        <f t="shared" si="1"/>
-        <v>1.171875E-2</v>
+        <f>IFERROR(B38/C38," ")</f>
+        <v>1.6574585635359115E-2</v>
       </c>
       <c r="E38" t="s">
         <v>72</v>
@@ -1484,17 +1454,17 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="B39" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C39" s="3">
-        <v>432</v>
+        <v>182</v>
       </c>
       <c r="D39" s="7">
-        <f t="shared" si="1"/>
-        <v>1.1574074074074073E-2</v>
+        <f>B39/C39</f>
+        <v>1.6483516483516484E-2</v>
       </c>
       <c r="E39" t="s">
         <v>72</v>
@@ -1502,17 +1472,17 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B40" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C40" s="3">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="D40" s="7">
-        <f t="shared" si="1"/>
-        <v>1.1363636363636364E-2</v>
+        <f>B40/C40</f>
+        <v>1.6E-2</v>
       </c>
       <c r="E40" t="s">
         <v>72</v>
@@ -1520,17 +1490,17 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B41" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41" s="3">
         <v>266</v>
       </c>
       <c r="D41" s="7">
-        <f t="shared" si="1"/>
-        <v>1.1278195488721804E-2</v>
+        <f>B41/C41</f>
+        <v>1.5037593984962405E-2</v>
       </c>
       <c r="E41" t="s">
         <v>72</v>
@@ -1538,17 +1508,17 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C42" s="3">
-        <v>277</v>
+        <v>336</v>
       </c>
       <c r="D42" s="7">
-        <f t="shared" si="1"/>
-        <v>1.0830324909747292E-2</v>
+        <f>B42/C42</f>
+        <v>1.488095238095238E-2</v>
       </c>
       <c r="E42" t="s">
         <v>72</v>
@@ -1556,17 +1526,17 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="B43" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C43" s="3">
-        <v>384</v>
+        <v>137</v>
       </c>
       <c r="D43" s="7">
-        <f t="shared" si="1"/>
-        <v>1.0416666666666666E-2</v>
+        <f>B43/C43</f>
+        <v>1.4598540145985401E-2</v>
       </c>
       <c r="E43" t="s">
         <v>72</v>
@@ -1574,17 +1544,17 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B44" s="3">
         <v>4</v>
       </c>
       <c r="C44" s="3">
-        <v>384</v>
+        <v>276</v>
       </c>
       <c r="D44" s="7">
-        <f t="shared" si="1"/>
-        <v>1.0416666666666666E-2</v>
+        <f>B44/C44</f>
+        <v>1.4492753623188406E-2</v>
       </c>
       <c r="E44" t="s">
         <v>72</v>
@@ -1592,17 +1562,17 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B45" s="3">
         <v>3</v>
       </c>
       <c r="C45" s="3">
-        <v>288</v>
+        <v>208</v>
       </c>
       <c r="D45" s="7">
-        <f t="shared" si="1"/>
-        <v>1.0416666666666666E-2</v>
+        <f>B45/C45</f>
+        <v>1.4423076923076924E-2</v>
       </c>
       <c r="E45" t="s">
         <v>72</v>
@@ -1610,17 +1580,17 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="B46" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" s="3">
-        <v>400</v>
+        <v>213</v>
       </c>
       <c r="D46" s="7">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
+        <f>B46/C46</f>
+        <v>1.4084507042253521E-2</v>
       </c>
       <c r="E46" t="s">
         <v>72</v>
@@ -1628,17 +1598,17 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B47" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47" s="3">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D47" s="7">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
+        <f>IFERROR(B47/C47," ")</f>
+        <v>1.3636363636363636E-2</v>
       </c>
       <c r="E47" t="s">
         <v>72</v>
@@ -1646,17 +1616,17 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="B48" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C48" s="3">
-        <v>416</v>
+        <v>368</v>
       </c>
       <c r="D48" s="7">
-        <f t="shared" si="1"/>
-        <v>9.6153846153846159E-3</v>
+        <f>B48/C48</f>
+        <v>1.358695652173913E-2</v>
       </c>
       <c r="E48" t="s">
         <v>72</v>
@@ -1664,17 +1634,17 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="8">
-        <v>2</v>
+        <v>66</v>
+      </c>
+      <c r="B49" s="3">
+        <v>4</v>
       </c>
       <c r="C49" s="3">
-        <v>208</v>
+        <v>320</v>
       </c>
       <c r="D49" s="7">
-        <f t="shared" si="1"/>
-        <v>9.6153846153846159E-3</v>
+        <f>B49/C49</f>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="E49" t="s">
         <v>72</v>
@@ -1682,17 +1652,17 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="B50" s="3">
         <v>2</v>
       </c>
       <c r="C50" s="3">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="D50" s="7">
-        <f t="shared" si="1"/>
-        <v>9.6153846153846159E-3</v>
+        <f>B50/C50</f>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="E50" t="s">
         <v>72</v>
@@ -1700,17 +1670,17 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="B51" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C51" s="3">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="D51" s="7">
-        <f t="shared" si="1"/>
-        <v>9.4936708860759497E-3</v>
+        <f>B51/C51</f>
+        <v>1.1904761904761904E-2</v>
       </c>
       <c r="E51" t="s">
         <v>72</v>
@@ -1718,17 +1688,17 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="B52" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C52" s="3">
-        <v>432</v>
+        <v>256</v>
       </c>
       <c r="D52" s="7">
-        <f t="shared" si="1"/>
-        <v>9.2592592592592587E-3</v>
+        <f>B52/C52</f>
+        <v>1.171875E-2</v>
       </c>
       <c r="E52" t="s">
         <v>72</v>
@@ -1736,17 +1706,17 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="B53" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53" s="3">
-        <v>436</v>
+        <v>256</v>
       </c>
       <c r="D53" s="7">
-        <f t="shared" si="1"/>
-        <v>9.1743119266055051E-3</v>
+        <f>IFERROR(B53/C53," ")</f>
+        <v>1.171875E-2</v>
       </c>
       <c r="E53" t="s">
         <v>72</v>
@@ -1754,17 +1724,17 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="B54" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C54" s="3">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="D54" s="7">
-        <f t="shared" si="1"/>
-        <v>9.0090090090090089E-3</v>
+        <f>B54/C54</f>
+        <v>1.1574074074074073E-2</v>
       </c>
       <c r="E54" t="s">
         <v>72</v>
@@ -1772,17 +1742,17 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" s="3">
         <v>3</v>
       </c>
       <c r="C55" s="3">
-        <v>336</v>
+        <v>264</v>
       </c>
       <c r="D55" s="7">
-        <f t="shared" si="1"/>
-        <v>8.9285714285714281E-3</v>
+        <f>B55/C55</f>
+        <v>1.1363636363636364E-2</v>
       </c>
       <c r="E55" t="s">
         <v>72</v>
@@ -1790,17 +1760,17 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="B56" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C56" s="3">
-        <v>225</v>
+        <v>352</v>
       </c>
       <c r="D56" s="7">
-        <f t="shared" si="1"/>
-        <v>8.8888888888888889E-3</v>
+        <f>IFERROR(B56/C56," ")</f>
+        <v>1.1363636363636364E-2</v>
       </c>
       <c r="E56" t="s">
         <v>72</v>
@@ -1808,17 +1778,17 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57" s="3">
         <v>3</v>
       </c>
       <c r="C57" s="3">
-        <v>344</v>
+        <v>266</v>
       </c>
       <c r="D57" s="7">
-        <f t="shared" si="1"/>
-        <v>8.7209302325581394E-3</v>
+        <f>B57/C57</f>
+        <v>1.1278195488721804E-2</v>
       </c>
       <c r="E57" t="s">
         <v>72</v>
@@ -1826,17 +1796,17 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="B58" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C58" s="3">
-        <v>464</v>
+        <v>277</v>
       </c>
       <c r="D58" s="7">
-        <f t="shared" si="1"/>
-        <v>8.6206896551724137E-3</v>
+        <f>B58/C58</f>
+        <v>1.0830324909747292E-2</v>
       </c>
       <c r="E58" t="s">
         <v>72</v>
@@ -1844,17 +1814,17 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B59" s="3">
         <v>4</v>
       </c>
       <c r="C59" s="3">
-        <v>464</v>
+        <v>384</v>
       </c>
       <c r="D59" s="7">
-        <f t="shared" si="1"/>
-        <v>8.6206896551724137E-3</v>
+        <f>B59/C59</f>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E59" t="s">
         <v>72</v>
@@ -1862,17 +1832,17 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B60" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C60" s="3">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="D60" s="7">
-        <f t="shared" si="1"/>
-        <v>8.5227272727272721E-3</v>
+        <f>B60/C60</f>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E60" t="s">
         <v>72</v>
@@ -1880,17 +1850,17 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B61" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C61" s="3">
-        <v>480</v>
+        <v>288</v>
       </c>
       <c r="D61" s="7">
-        <f t="shared" si="1"/>
-        <v>8.3333333333333332E-3</v>
+        <f>B61/C61</f>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E61" t="s">
         <v>72</v>
@@ -1898,17 +1868,17 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="B62" s="3">
         <v>3</v>
       </c>
       <c r="C62" s="3">
-        <v>360</v>
+        <v>288</v>
       </c>
       <c r="D62" s="7">
-        <f t="shared" si="1"/>
-        <v>8.3333333333333332E-3</v>
+        <f>IFERROR(B62/C62," ")</f>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E62" t="s">
         <v>72</v>
@@ -1916,17 +1886,17 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B63" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C63" s="3">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="D63" s="7">
-        <f t="shared" si="1"/>
-        <v>8.3333333333333332E-3</v>
+        <f>B63/C63</f>
+        <v>0.01</v>
       </c>
       <c r="E63" t="s">
         <v>72</v>
@@ -1934,17 +1904,17 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="B64" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" s="3">
-        <v>368</v>
+        <v>200</v>
       </c>
       <c r="D64" s="7">
-        <f t="shared" si="1"/>
-        <v>8.152173913043478E-3</v>
+        <f>B64/C64</f>
+        <v>0.01</v>
       </c>
       <c r="E64" t="s">
         <v>72</v>
@@ -1952,17 +1922,17 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="B65" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C65" s="3">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="D65" s="7">
-        <f t="shared" si="1"/>
-        <v>8.152173913043478E-3</v>
+        <f>IFERROR(B65/C65," ")</f>
+        <v>0.01</v>
       </c>
       <c r="E65" t="s">
         <v>72</v>
@@ -1970,17 +1940,17 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="B66" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C66" s="3">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="D66" s="7">
-        <f t="shared" si="1"/>
-        <v>8.0862533692722376E-3</v>
+        <f>B66/C66</f>
+        <v>9.6153846153846159E-3</v>
       </c>
       <c r="E66" t="s">
         <v>72</v>
@@ -1988,17 +1958,17 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" s="3">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="B67" s="8">
+        <v>2</v>
       </c>
       <c r="C67" s="3">
-        <v>499</v>
+        <v>208</v>
       </c>
       <c r="D67" s="7">
-        <f t="shared" ref="D67:D98" si="2">B67/C67</f>
-        <v>8.0160320641282558E-3</v>
+        <f>B67/C67</f>
+        <v>9.6153846153846159E-3</v>
       </c>
       <c r="E67" t="s">
         <v>72</v>
@@ -2006,17 +1976,17 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B68" s="3">
         <v>2</v>
       </c>
       <c r="C68" s="3">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="D68" s="7">
-        <f t="shared" si="2"/>
-        <v>8.0000000000000002E-3</v>
+        <f>B68/C68</f>
+        <v>9.6153846153846159E-3</v>
       </c>
       <c r="E68" t="s">
         <v>72</v>
@@ -2024,17 +1994,17 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="B69" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C69" s="3">
-        <v>512</v>
+        <v>312</v>
       </c>
       <c r="D69" s="7">
-        <f t="shared" si="2"/>
-        <v>7.8125E-3</v>
+        <f>IFERROR(B69/C69," ")</f>
+        <v>9.6153846153846159E-3</v>
       </c>
       <c r="E69" t="s">
         <v>72</v>
@@ -2042,17 +2012,17 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B70" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C70" s="3">
-        <v>512</v>
+        <v>316</v>
       </c>
       <c r="D70" s="7">
-        <f t="shared" si="2"/>
-        <v>7.8125E-3</v>
+        <f>B70/C70</f>
+        <v>9.4936708860759497E-3</v>
       </c>
       <c r="E70" t="s">
         <v>72</v>
@@ -2060,17 +2030,17 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="B71" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C71" s="3">
-        <v>264</v>
+        <v>432</v>
       </c>
       <c r="D71" s="7">
-        <f t="shared" si="2"/>
-        <v>7.575757575757576E-3</v>
+        <f>B71/C71</f>
+        <v>9.2592592592592587E-3</v>
       </c>
       <c r="E71" t="s">
         <v>72</v>
@@ -2078,17 +2048,17 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B72" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C72" s="3">
-        <v>400</v>
+        <v>436</v>
       </c>
       <c r="D72" s="7">
-        <f t="shared" si="2"/>
-        <v>7.4999999999999997E-3</v>
+        <f>B72/C72</f>
+        <v>9.1743119266055051E-3</v>
       </c>
       <c r="E72" t="s">
         <v>72</v>
@@ -2096,17 +2066,17 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="B73" s="3">
         <v>4</v>
       </c>
       <c r="C73" s="3">
-        <v>544</v>
+        <v>444</v>
       </c>
       <c r="D73" s="7">
-        <f t="shared" si="2"/>
-        <v>7.3529411764705881E-3</v>
+        <f>B73/C73</f>
+        <v>9.0090090090090089E-3</v>
       </c>
       <c r="E73" t="s">
         <v>72</v>
@@ -2114,17 +2084,17 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B74" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C74" s="3">
-        <v>560</v>
+        <v>336</v>
       </c>
       <c r="D74" s="7">
-        <f t="shared" si="2"/>
-        <v>7.1428571428571426E-3</v>
+        <f>B74/C74</f>
+        <v>8.9285714285714281E-3</v>
       </c>
       <c r="E74" t="s">
         <v>72</v>
@@ -2132,17 +2102,17 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="B75" s="3">
         <v>2</v>
       </c>
       <c r="C75" s="3">
-        <v>284</v>
+        <v>225</v>
       </c>
       <c r="D75" s="7">
-        <f t="shared" si="2"/>
-        <v>7.0422535211267607E-3</v>
+        <f>B75/C75</f>
+        <v>8.8888888888888889E-3</v>
       </c>
       <c r="E75" t="s">
         <v>72</v>
@@ -2150,17 +2120,17 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="B76" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C76" s="3">
-        <v>288</v>
+        <v>344</v>
       </c>
       <c r="D76" s="7">
-        <f t="shared" si="2"/>
-        <v>6.9444444444444441E-3</v>
+        <f>B76/C76</f>
+        <v>8.7209302325581394E-3</v>
       </c>
       <c r="E76" t="s">
         <v>72</v>
@@ -2168,17 +2138,17 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B77" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C77" s="3">
-        <v>148</v>
+        <v>464</v>
       </c>
       <c r="D77" s="7">
-        <f t="shared" si="2"/>
-        <v>6.7567567567567571E-3</v>
+        <f>B77/C77</f>
+        <v>8.6206896551724137E-3</v>
       </c>
       <c r="E77" t="s">
         <v>72</v>
@@ -2186,17 +2156,17 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B78" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C78" s="3">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="D78" s="7">
-        <f t="shared" si="2"/>
-        <v>6.6666666666666671E-3</v>
+        <f>B78/C78</f>
+        <v>8.6206896551724137E-3</v>
       </c>
       <c r="E78" t="s">
         <v>72</v>
@@ -2204,17 +2174,17 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B79" s="3">
         <v>3</v>
       </c>
       <c r="C79" s="3">
-        <v>480</v>
+        <v>352</v>
       </c>
       <c r="D79" s="7">
-        <f t="shared" si="2"/>
-        <v>6.2500000000000003E-3</v>
+        <f>B79/C79</f>
+        <v>8.5227272727272721E-3</v>
       </c>
       <c r="E79" t="s">
         <v>72</v>
@@ -2222,17 +2192,17 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="B80" s="3">
         <v>3</v>
       </c>
       <c r="C80" s="3">
-        <v>480</v>
+        <v>352</v>
       </c>
       <c r="D80" s="7">
-        <f t="shared" si="2"/>
-        <v>6.2500000000000003E-3</v>
+        <f>IFERROR(B80/C80," ")</f>
+        <v>8.5227272727272721E-3</v>
       </c>
       <c r="E80" t="s">
         <v>72</v>
@@ -2240,17 +2210,17 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B81" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C81" s="3">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D81" s="7">
-        <f t="shared" si="2"/>
-        <v>6.1475409836065573E-3</v>
+        <f>B81/C81</f>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E81" t="s">
         <v>72</v>
@@ -2258,17 +2228,17 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="B82" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C82" s="3">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="D82" s="7">
-        <f t="shared" si="2"/>
-        <v>6.024096385542169E-3</v>
+        <f>B82/C82</f>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E82" t="s">
         <v>72</v>
@@ -2276,17 +2246,17 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="B83" s="3">
         <v>2</v>
       </c>
       <c r="C83" s="3">
-        <v>332</v>
+        <v>240</v>
       </c>
       <c r="D83" s="7">
-        <f t="shared" si="2"/>
-        <v>6.024096385542169E-3</v>
+        <f>B83/C83</f>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E83" t="s">
         <v>72</v>
@@ -2294,17 +2264,17 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="B84" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C84" s="3">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="D84" s="7">
-        <f t="shared" si="2"/>
-        <v>5.8139534883720929E-3</v>
+        <f>B84/C84</f>
+        <v>8.152173913043478E-3</v>
       </c>
       <c r="E84" t="s">
         <v>72</v>
@@ -2312,17 +2282,17 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B85" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C85" s="3">
-        <v>704</v>
+        <v>368</v>
       </c>
       <c r="D85" s="7">
-        <f t="shared" si="2"/>
-        <v>5.681818181818182E-3</v>
+        <f>B85/C85</f>
+        <v>8.152173913043478E-3</v>
       </c>
       <c r="E85" t="s">
         <v>72</v>
@@ -2330,17 +2300,17 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="B86" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C86" s="3">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="D86" s="7">
-        <f t="shared" si="2"/>
-        <v>5.4644808743169399E-3</v>
+        <f>B86/C86</f>
+        <v>8.0862533692722376E-3</v>
       </c>
       <c r="E86" t="s">
         <v>72</v>
@@ -2348,17 +2318,17 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="B87" s="3">
         <v>4</v>
       </c>
       <c r="C87" s="3">
-        <v>736</v>
+        <v>499</v>
       </c>
       <c r="D87" s="7">
-        <f t="shared" si="2"/>
-        <v>5.434782608695652E-3</v>
+        <f>B87/C87</f>
+        <v>8.0160320641282558E-3</v>
       </c>
       <c r="E87" t="s">
         <v>72</v>
@@ -2366,17 +2336,17 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B88" s="3">
         <v>2</v>
       </c>
       <c r="C88" s="3">
-        <v>373</v>
+        <v>250</v>
       </c>
       <c r="D88" s="7">
-        <f t="shared" si="2"/>
-        <v>5.3619302949061663E-3</v>
+        <f>B88/C88</f>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E88" t="s">
         <v>72</v>
@@ -2384,17 +2354,17 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B89" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C89" s="3">
-        <v>560</v>
+        <v>512</v>
       </c>
       <c r="D89" s="7">
-        <f t="shared" si="2"/>
-        <v>5.3571428571428572E-3</v>
+        <f>B89/C89</f>
+        <v>7.8125E-3</v>
       </c>
       <c r="E89" t="s">
         <v>72</v>
@@ -2402,17 +2372,17 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="B90" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C90" s="3">
-        <v>560</v>
+        <v>512</v>
       </c>
       <c r="D90" s="7">
-        <f t="shared" si="2"/>
-        <v>5.3571428571428572E-3</v>
+        <f>B90/C90</f>
+        <v>7.8125E-3</v>
       </c>
       <c r="E90" t="s">
         <v>72</v>
@@ -2420,17 +2390,17 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B91" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91" s="3">
-        <v>576</v>
+        <v>264</v>
       </c>
       <c r="D91" s="7">
-        <f t="shared" si="2"/>
-        <v>5.208333333333333E-3</v>
+        <f>B91/C91</f>
+        <v>7.575757575757576E-3</v>
       </c>
       <c r="E91" t="s">
         <v>72</v>
@@ -2438,17 +2408,17 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B92" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C92" s="3">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="D92" s="7">
-        <f t="shared" si="2"/>
-        <v>5.208333333333333E-3</v>
+        <f>B92/C92</f>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="E92" t="s">
         <v>72</v>
@@ -2456,17 +2426,17 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B93" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C93" s="3">
-        <v>200</v>
+        <v>544</v>
       </c>
       <c r="D93" s="7">
-        <f t="shared" si="2"/>
-        <v>5.0000000000000001E-3</v>
+        <f>B93/C93</f>
+        <v>7.3529411764705881E-3</v>
       </c>
       <c r="E93" t="s">
         <v>72</v>
@@ -2474,17 +2444,17 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="B94" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C94" s="3">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="D94" s="7">
-        <f t="shared" si="2"/>
-        <v>5.0000000000000001E-3</v>
+        <f>IFERROR(B94/C94," ")</f>
+        <v>7.2115384615384619E-3</v>
       </c>
       <c r="E94" t="s">
         <v>72</v>
@@ -2492,17 +2462,17 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B95" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C95" s="3">
-        <v>416</v>
+        <v>560</v>
       </c>
       <c r="D95" s="7">
-        <f t="shared" si="2"/>
-        <v>4.807692307692308E-3</v>
+        <f>B95/C95</f>
+        <v>7.1428571428571426E-3</v>
       </c>
       <c r="E95" t="s">
         <v>72</v>
@@ -2510,17 +2480,17 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B96" s="3">
         <v>2</v>
       </c>
       <c r="C96" s="3">
-        <v>416</v>
+        <v>284</v>
       </c>
       <c r="D96" s="7">
-        <f t="shared" si="2"/>
-        <v>4.807692307692308E-3</v>
+        <f>B96/C96</f>
+        <v>7.0422535211267607E-3</v>
       </c>
       <c r="E96" t="s">
         <v>72</v>
@@ -2528,17 +2498,17 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="B97" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C97" s="3">
-        <v>848</v>
+        <v>288</v>
       </c>
       <c r="D97" s="7">
-        <f t="shared" si="2"/>
-        <v>4.7169811320754715E-3</v>
+        <f>B97/C97</f>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="E97" t="s">
         <v>72</v>
@@ -2546,17 +2516,17 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B98" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C98" s="3">
-        <v>456</v>
+        <v>736</v>
       </c>
       <c r="D98" s="7">
-        <f t="shared" si="2"/>
-        <v>4.3859649122807015E-3</v>
+        <f>IFERROR(B98/C98," ")</f>
+        <v>6.793478260869565E-3</v>
       </c>
       <c r="E98" t="s">
         <v>72</v>
@@ -2564,17 +2534,17 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B99" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C99" s="3">
-        <v>528</v>
+        <v>148</v>
       </c>
       <c r="D99" s="7">
-        <f t="shared" ref="D99:D104" si="3">B99/C99</f>
-        <v>3.787878787878788E-3</v>
+        <f>B99/C99</f>
+        <v>6.7567567567567571E-3</v>
       </c>
       <c r="E99" t="s">
         <v>72</v>
@@ -2582,17 +2552,17 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="B100" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C100" s="3">
-        <v>544</v>
+        <v>450</v>
       </c>
       <c r="D100" s="7">
-        <f t="shared" si="3"/>
-        <v>3.6764705882352941E-3</v>
+        <f>B100/C100</f>
+        <v>6.6666666666666671E-3</v>
       </c>
       <c r="E100" t="s">
         <v>72</v>
@@ -2600,17 +2570,17 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="B101" s="3">
         <v>3</v>
       </c>
       <c r="C101" s="3">
-        <v>848</v>
+        <v>464</v>
       </c>
       <c r="D101" s="7">
-        <f t="shared" si="3"/>
-        <v>3.5377358490566039E-3</v>
+        <f>IFERROR(B101/C101," ")</f>
+        <v>6.4655172413793103E-3</v>
       </c>
       <c r="E101" t="s">
         <v>72</v>
@@ -2618,17 +2588,17 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="B102" s="3">
         <v>3</v>
       </c>
       <c r="C102" s="3">
-        <v>864</v>
+        <v>480</v>
       </c>
       <c r="D102" s="7">
-        <f t="shared" si="3"/>
-        <v>3.472222222222222E-3</v>
+        <f>B102/C102</f>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="E102" t="s">
         <v>72</v>
@@ -2636,17 +2606,17 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B103" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C103" s="3">
-        <v>616</v>
+        <v>480</v>
       </c>
       <c r="D103" s="7">
-        <f t="shared" si="3"/>
-        <v>3.246753246753247E-3</v>
+        <f>B103/C103</f>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="E103" t="s">
         <v>72</v>
@@ -2654,17 +2624,17 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="B104" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C104" s="3">
-        <v>320</v>
+        <v>488</v>
       </c>
       <c r="D104" s="7">
-        <f t="shared" si="3"/>
-        <v>3.1250000000000002E-3</v>
+        <f>B104/C104</f>
+        <v>6.1475409836065573E-3</v>
       </c>
       <c r="E104" t="s">
         <v>72</v>
@@ -2672,17 +2642,17 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B105" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105" s="3">
-        <v>1280</v>
+        <v>332</v>
       </c>
       <c r="D105" s="7">
-        <f>IFERROR(B105/C105," ")</f>
-        <v>2.3437499999999999E-3</v>
+        <f>B105/C105</f>
+        <v>6.024096385542169E-3</v>
       </c>
       <c r="E105" t="s">
         <v>72</v>
@@ -2690,11 +2660,17 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D106" s="7" t="str">
-        <f>IFERROR(B106/C106," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>102</v>
+      </c>
+      <c r="B106" s="3">
+        <v>2</v>
+      </c>
+      <c r="C106" s="3">
+        <v>332</v>
+      </c>
+      <c r="D106" s="7">
+        <f>B106/C106</f>
+        <v>6.024096385542169E-3</v>
       </c>
       <c r="E106" t="s">
         <v>72</v>
@@ -2702,11 +2678,17 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D107" s="7" t="str">
-        <f t="shared" ref="D107:D170" si="4">IFERROR(B107/C107," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>133</v>
+      </c>
+      <c r="B107" s="3">
+        <v>2</v>
+      </c>
+      <c r="C107" s="3">
+        <v>344</v>
+      </c>
+      <c r="D107" s="7">
+        <f>B107/C107</f>
+        <v>5.8139534883720929E-3</v>
       </c>
       <c r="E107" t="s">
         <v>72</v>
@@ -2714,11 +2696,17 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D108" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v>34</v>
+      </c>
+      <c r="B108" s="3">
+        <v>4</v>
+      </c>
+      <c r="C108" s="3">
+        <v>704</v>
+      </c>
+      <c r="D108" s="7">
+        <f>B108/C108</f>
+        <v>5.681818181818182E-3</v>
       </c>
       <c r="E108" t="s">
         <v>72</v>
@@ -2726,11 +2714,17 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D109" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v>103</v>
+      </c>
+      <c r="B109" s="3">
+        <v>2</v>
+      </c>
+      <c r="C109" s="3">
+        <v>366</v>
+      </c>
+      <c r="D109" s="7">
+        <f>B109/C109</f>
+        <v>5.4644808743169399E-3</v>
       </c>
       <c r="E109" t="s">
         <v>72</v>
@@ -2738,11 +2732,17 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D110" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v>70</v>
+      </c>
+      <c r="B110" s="3">
+        <v>4</v>
+      </c>
+      <c r="C110" s="3">
+        <v>736</v>
+      </c>
+      <c r="D110" s="7">
+        <f>B110/C110</f>
+        <v>5.434782608695652E-3</v>
       </c>
       <c r="E110" t="s">
         <v>72</v>
@@ -2750,11 +2750,17 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D111" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v>36</v>
+      </c>
+      <c r="B111" s="3">
+        <v>2</v>
+      </c>
+      <c r="C111" s="3">
+        <v>373</v>
+      </c>
+      <c r="D111" s="7">
+        <f>B111/C111</f>
+        <v>5.3619302949061663E-3</v>
       </c>
       <c r="E111" t="s">
         <v>72</v>
@@ -2762,11 +2768,17 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D112" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v>23</v>
+      </c>
+      <c r="B112" s="3">
+        <v>3</v>
+      </c>
+      <c r="C112" s="3">
+        <v>560</v>
+      </c>
+      <c r="D112" s="7">
+        <f>B112/C112</f>
+        <v>5.3571428571428572E-3</v>
       </c>
       <c r="E112" t="s">
         <v>72</v>
@@ -2774,11 +2786,17 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D113" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v>26</v>
+      </c>
+      <c r="B113" s="3">
+        <v>3</v>
+      </c>
+      <c r="C113" s="3">
+        <v>560</v>
+      </c>
+      <c r="D113" s="7">
+        <f>B113/C113</f>
+        <v>5.3571428571428572E-3</v>
       </c>
       <c r="E113" t="s">
         <v>72</v>
@@ -2786,11 +2804,17 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D114" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v>27</v>
+      </c>
+      <c r="B114" s="3">
+        <v>3</v>
+      </c>
+      <c r="C114" s="3">
+        <v>576</v>
+      </c>
+      <c r="D114" s="7">
+        <f>B114/C114</f>
+        <v>5.208333333333333E-3</v>
       </c>
       <c r="E114" t="s">
         <v>72</v>
@@ -2798,11 +2822,17 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D115" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v>13</v>
+      </c>
+      <c r="B115" s="3">
+        <v>2</v>
+      </c>
+      <c r="C115" s="3">
+        <v>384</v>
+      </c>
+      <c r="D115" s="7">
+        <f>B115/C115</f>
+        <v>5.208333333333333E-3</v>
       </c>
       <c r="E115" t="s">
         <v>72</v>
@@ -2810,11 +2840,17 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D116" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v>81</v>
+      </c>
+      <c r="B116" s="3">
+        <v>1</v>
+      </c>
+      <c r="C116" s="3">
+        <v>200</v>
+      </c>
+      <c r="D116" s="7">
+        <f>B116/C116</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E116" t="s">
         <v>72</v>
@@ -2822,11 +2858,17 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D117" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v>16</v>
+      </c>
+      <c r="B117" s="3">
+        <v>2</v>
+      </c>
+      <c r="C117" s="3">
+        <v>400</v>
+      </c>
+      <c r="D117" s="7">
+        <f>B117/C117</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E117" t="s">
         <v>72</v>
@@ -2834,11 +2876,17 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D118" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v>32</v>
+      </c>
+      <c r="B118" s="3">
+        <v>2</v>
+      </c>
+      <c r="C118" s="3">
+        <v>416</v>
+      </c>
+      <c r="D118" s="7">
+        <f>B118/C118</f>
+        <v>4.807692307692308E-3</v>
       </c>
       <c r="E118" t="s">
         <v>72</v>
@@ -2846,11 +2894,17 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D119" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v>59</v>
+      </c>
+      <c r="B119" s="3">
+        <v>2</v>
+      </c>
+      <c r="C119" s="3">
+        <v>416</v>
+      </c>
+      <c r="D119" s="7">
+        <f>B119/C119</f>
+        <v>4.807692307692308E-3</v>
       </c>
       <c r="E119" t="s">
         <v>72</v>
@@ -2858,11 +2912,17 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D120" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v>96</v>
+      </c>
+      <c r="B120" s="3">
+        <v>4</v>
+      </c>
+      <c r="C120" s="3">
+        <v>848</v>
+      </c>
+      <c r="D120" s="7">
+        <f>B120/C120</f>
+        <v>4.7169811320754715E-3</v>
       </c>
       <c r="E120" t="s">
         <v>72</v>
@@ -2870,11 +2930,17 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D121" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v>107</v>
+      </c>
+      <c r="B121" s="3">
+        <v>2</v>
+      </c>
+      <c r="C121" s="3">
+        <v>440</v>
+      </c>
+      <c r="D121" s="7">
+        <f>IFERROR(B121/C121," ")</f>
+        <v>4.5454545454545452E-3</v>
       </c>
       <c r="E121" t="s">
         <v>72</v>
@@ -2882,11 +2948,17 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D122" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v>101</v>
+      </c>
+      <c r="B122" s="3">
+        <v>2</v>
+      </c>
+      <c r="C122" s="3">
+        <v>456</v>
+      </c>
+      <c r="D122" s="7">
+        <f>B122/C122</f>
+        <v>4.3859649122807015E-3</v>
       </c>
       <c r="E122" t="s">
         <v>72</v>
@@ -2894,11 +2966,17 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D123" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v>46</v>
+      </c>
+      <c r="B123" s="3">
+        <v>2</v>
+      </c>
+      <c r="C123" s="3">
+        <v>528</v>
+      </c>
+      <c r="D123" s="7">
+        <f>B123/C123</f>
+        <v>3.787878787878788E-3</v>
       </c>
       <c r="E123" t="s">
         <v>72</v>
@@ -2906,11 +2984,17 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D124" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v>60</v>
+      </c>
+      <c r="B124" s="3">
+        <v>2</v>
+      </c>
+      <c r="C124" s="3">
+        <v>544</v>
+      </c>
+      <c r="D124" s="7">
+        <f>B124/C124</f>
+        <v>3.6764705882352941E-3</v>
       </c>
       <c r="E124" t="s">
         <v>72</v>
@@ -2918,11 +3002,17 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D125" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v>22</v>
+      </c>
+      <c r="B125" s="3">
+        <v>3</v>
+      </c>
+      <c r="C125" s="3">
+        <v>848</v>
+      </c>
+      <c r="D125" s="7">
+        <f>B125/C125</f>
+        <v>3.5377358490566039E-3</v>
       </c>
       <c r="E125" t="s">
         <v>72</v>
@@ -2930,11 +3020,17 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D126" s="7" t="str">
-        <f>IFERROR(B126/C126," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>98</v>
+      </c>
+      <c r="B126" s="3">
+        <v>3</v>
+      </c>
+      <c r="C126" s="3">
+        <v>864</v>
+      </c>
+      <c r="D126" s="7">
+        <f>B126/C126</f>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="E126" t="s">
         <v>72</v>
@@ -2942,11 +3038,17 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D127" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v>6</v>
+      </c>
+      <c r="B127" s="3">
+        <v>2</v>
+      </c>
+      <c r="C127" s="3">
+        <v>616</v>
+      </c>
+      <c r="D127" s="7">
+        <f>B127/C127</f>
+        <v>3.246753246753247E-3</v>
       </c>
       <c r="E127" t="s">
         <v>72</v>
@@ -2954,14 +3056,17 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="B128" s="3">
-        <v>3</v>
-      </c>
-      <c r="D128" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v>1</v>
+      </c>
+      <c r="C128" s="3">
+        <v>320</v>
+      </c>
+      <c r="D128" s="7">
+        <f>B128/C128</f>
+        <v>3.1250000000000002E-3</v>
       </c>
       <c r="E128" t="s">
         <v>72</v>
@@ -2969,566 +3074,577 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B129" s="3">
-        <v>4</v>
-      </c>
-      <c r="D129" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v>3</v>
+      </c>
+      <c r="C129" s="3">
+        <v>1280</v>
+      </c>
+      <c r="D129" s="7">
+        <f>IFERROR(B129/C129," ")</f>
+        <v>2.3437499999999999E-3</v>
       </c>
       <c r="E129" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D130" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D107:D170" si="1">IFERROR(B130/C130," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D131" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D132" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D133" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D134" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D135" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D136" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D137" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D138" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D139" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D140" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D141" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D142" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D143" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D144" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="145" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D145" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="146" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D146" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="147" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D147" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="148" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D148" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="149" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D149" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="150" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D150" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="151" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D151" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="152" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D152" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="153" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D153" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="154" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D154" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="155" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D155" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="156" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D156" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="157" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D157" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="158" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D158" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="159" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D159" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="160" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D160" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="161" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D161" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="162" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D162" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="163" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D163" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="164" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D164" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="165" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D165" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="166" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D166" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="167" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D167" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="168" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D168" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="169" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D169" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="170" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D170" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="171" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D171" s="7" t="str">
-        <f t="shared" ref="D171:D219" si="5">IFERROR(B171/C171," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D171:D219" si="2">IFERROR(B171/C171," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="172" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D172" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="173" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D173" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="174" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D174" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="175" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D175" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="176" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D176" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="177" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D177" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="178" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D178" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="179" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D179" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="180" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D180" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="181" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D181" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="182" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D182" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="183" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D183" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="184" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D184" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="185" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D185" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="186" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D186" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="187" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D187" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="188" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D188" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="189" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D189" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="190" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D190" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="191" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D191" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="192" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D192" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="193" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D193" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="194" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D194" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="195" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D195" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="196" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D196" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="197" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D197" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="198" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D198" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="199" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D199" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="200" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D200" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="201" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D201" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="202" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D202" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="203" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D203" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="204" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D204" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="205" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D205" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="206" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D206" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="207" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D207" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="208" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D208" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="209" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D209" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="210" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D210" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="211" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D211" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="212" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D212" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="213" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D213" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="214" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D214" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="215" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D215" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="216" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D216" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="217" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D217" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="218" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D218" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="219" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D219" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:E218">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <filterColumn colId="4">
       <filters>
         <filter val="No"/>
       </filters>
     </filterColumn>
+    <sortState ref="A4:E129">
+      <sortCondition descending="1" ref="D2:D218"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Book Ranking.xlsx
+++ b/Book Ranking.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="138">
   <si>
     <t>Book Ranking</t>
   </si>
@@ -429,6 +429,9 @@
   </si>
   <si>
     <t>Impeachment: A Citizen's Guide</t>
+  </si>
+  <si>
+    <t>Advice Not Given: A Guide for Getting Over Yourself</t>
   </si>
 </sst>
 </file>
@@ -798,7 +801,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,7 +848,7 @@
         <v>46</v>
       </c>
       <c r="D3" s="7">
-        <f t="shared" ref="D3:D34" si="0">B3/C3</f>
+        <f t="shared" ref="D3" si="0">B3/C3</f>
         <v>8.6956521739130432E-2</v>
       </c>
       <c r="E3" t="s">
@@ -860,7 +863,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="7" t="str">
-        <f>IFERROR(B4/C4," ")</f>
+        <f t="shared" ref="D4:D13" si="1">IFERROR(B4/C4," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E4" t="s">
@@ -875,7 +878,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="7" t="str">
-        <f>IFERROR(B5/C5," ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E5" t="s">
@@ -890,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="7" t="str">
-        <f>IFERROR(B6/C6," ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E6" t="s">
@@ -905,7 +908,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="7" t="str">
-        <f>IFERROR(B7/C7," ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E7" t="s">
@@ -920,7 +923,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="7" t="str">
-        <f>IFERROR(B8/C8," ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E8" t="s">
@@ -935,7 +938,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="7" t="str">
-        <f>IFERROR(B9/C9," ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E9" t="s">
@@ -950,7 +953,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="7" t="str">
-        <f>IFERROR(B10/C10," ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E10" t="s">
@@ -965,7 +968,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="7" t="str">
-        <f>IFERROR(B11/C11," ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E11" t="s">
@@ -980,7 +983,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="7" t="str">
-        <f>IFERROR(B12/C12," ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E12" t="s">
@@ -995,7 +998,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="7" t="str">
-        <f>IFERROR(B13/C13," ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E13" t="s">
@@ -1049,7 +1052,7 @@
         <v>74</v>
       </c>
       <c r="D16" s="7">
-        <f>B16/C16</f>
+        <f t="shared" ref="D16:D79" si="2">IFERROR(B16/C16," ")</f>
         <v>5.4054054054054057E-2</v>
       </c>
       <c r="E16" t="s">
@@ -1067,7 +1070,7 @@
         <v>120</v>
       </c>
       <c r="D17" s="7">
-        <f>B17/C17</f>
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E17" t="s">
@@ -1085,7 +1088,7 @@
         <v>72</v>
       </c>
       <c r="D18" s="7">
-        <f>B18/C18</f>
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E18" t="s">
@@ -1103,7 +1106,7 @@
         <v>128</v>
       </c>
       <c r="D19" s="7">
-        <f>IFERROR(B19/C19," ")</f>
+        <f t="shared" si="2"/>
         <v>3.90625E-2</v>
       </c>
       <c r="E19" t="s">
@@ -1121,7 +1124,7 @@
         <v>133</v>
       </c>
       <c r="D20" s="7">
-        <f>B20/C20</f>
+        <f t="shared" si="2"/>
         <v>3.7593984962406013E-2</v>
       </c>
       <c r="E20" t="s">
@@ -1139,7 +1142,7 @@
         <v>132</v>
       </c>
       <c r="D21" s="7">
-        <f>B21/C21</f>
+        <f t="shared" si="2"/>
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="E21" t="s">
@@ -1157,7 +1160,7 @@
         <v>160</v>
       </c>
       <c r="D22" s="7">
-        <f>B22/C22</f>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E22" t="s">
@@ -1175,7 +1178,7 @@
         <v>80</v>
       </c>
       <c r="D23" s="7">
-        <f>B23/C23</f>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E23" t="s">
@@ -1193,7 +1196,7 @@
         <v>124</v>
       </c>
       <c r="D24" s="7">
-        <f>B24/C24</f>
+        <f t="shared" si="2"/>
         <v>2.4193548387096774E-2</v>
       </c>
       <c r="E24" t="s">
@@ -1211,7 +1214,7 @@
         <v>208</v>
       </c>
       <c r="D25" s="7">
-        <f>IFERROR(B25/C25," ")</f>
+        <f t="shared" si="2"/>
         <v>2.403846153846154E-2</v>
       </c>
       <c r="E25" t="s">
@@ -1229,7 +1232,7 @@
         <v>128</v>
       </c>
       <c r="D26" s="7">
-        <f>B26/C26</f>
+        <f t="shared" si="2"/>
         <v>2.34375E-2</v>
       </c>
       <c r="E26" t="s">
@@ -1238,17 +1241,17 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="B27" s="3">
         <v>5</v>
       </c>
       <c r="C27" s="3">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D27" s="7">
-        <f>B27/C27</f>
-        <v>2.1929824561403508E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.2321428571428572E-2</v>
       </c>
       <c r="E27" t="s">
         <v>72</v>
@@ -1256,17 +1259,17 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" s="3">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="D28" s="7">
-        <f>B28/C28</f>
-        <v>2.0942408376963352E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.1929824561403508E-2</v>
       </c>
       <c r="E28" t="s">
         <v>72</v>
@@ -1274,17 +1277,17 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B29" s="3">
         <v>4</v>
       </c>
       <c r="C29" s="3">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D29" s="7">
-        <f>B29/C29</f>
-        <v>2.0833333333333332E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.0942408376963352E-2</v>
       </c>
       <c r="E29" t="s">
         <v>72</v>
@@ -1292,17 +1295,17 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="B30" s="3">
         <v>4</v>
       </c>
       <c r="C30" s="3">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D30" s="7">
-        <f>B30/C30</f>
-        <v>2.0202020202020204E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E30" t="s">
         <v>72</v>
@@ -1310,17 +1313,17 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="B31" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="3">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="D31" s="7">
-        <f>B31/C31</f>
-        <v>1.937984496124031E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="E31" t="s">
         <v>72</v>
@@ -1328,17 +1331,17 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B32" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C32" s="3">
-        <v>157</v>
+        <v>258</v>
       </c>
       <c r="D32" s="7">
-        <f>B32/C32</f>
-        <v>1.9108280254777069E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.937984496124031E-2</v>
       </c>
       <c r="E32" t="s">
         <v>72</v>
@@ -1346,17 +1349,17 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B33" s="3">
         <v>3</v>
       </c>
       <c r="C33" s="3">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D33" s="7">
-        <f>B33/C33</f>
-        <v>1.8749999999999999E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.9108280254777069E-2</v>
       </c>
       <c r="E33" t="s">
         <v>72</v>
@@ -1364,17 +1367,17 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B34" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="3">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="D34" s="7">
-        <f>B34/C34</f>
-        <v>1.7857142857142856E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.8749999999999999E-2</v>
       </c>
       <c r="E34" t="s">
         <v>72</v>
@@ -1382,17 +1385,17 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B35" s="3">
         <v>4</v>
       </c>
       <c r="C35" s="3">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D35" s="7">
-        <f>B35/C35</f>
-        <v>1.7699115044247787E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="E35" t="s">
         <v>72</v>
@@ -1400,17 +1403,17 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="B36" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" s="3">
-        <v>288</v>
+        <v>226</v>
       </c>
       <c r="D36" s="7">
-        <f>B36/C36</f>
-        <v>1.7361111111111112E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7699115044247787E-2</v>
       </c>
       <c r="E36" t="s">
         <v>72</v>
@@ -1418,17 +1421,17 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B37" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C37" s="3">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="D37" s="7">
-        <f>B37/C37</f>
-        <v>1.7316017316017316E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="E37" t="s">
         <v>72</v>
@@ -1436,17 +1439,17 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="B38" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38" s="3">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="D38" s="7">
-        <f>IFERROR(B38/C38," ")</f>
-        <v>1.6574585635359115E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7316017316017316E-2</v>
       </c>
       <c r="E38" t="s">
         <v>72</v>
@@ -1454,17 +1457,17 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="B39" s="3">
         <v>3</v>
       </c>
       <c r="C39" s="3">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D39" s="7">
-        <f>B39/C39</f>
-        <v>1.6483516483516484E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.6574585635359115E-2</v>
       </c>
       <c r="E39" t="s">
         <v>72</v>
@@ -1472,17 +1475,17 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B40" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" s="3">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="D40" s="7">
-        <f>B40/C40</f>
-        <v>1.6E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.6483516483516484E-2</v>
       </c>
       <c r="E40" t="s">
         <v>72</v>
@@ -1490,17 +1493,17 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="B41" s="3">
         <v>4</v>
       </c>
       <c r="C41" s="3">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="D41" s="7">
-        <f>B41/C41</f>
-        <v>1.5037593984962405E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.6E-2</v>
       </c>
       <c r="E41" t="s">
         <v>72</v>
@@ -1508,17 +1511,17 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="B42" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42" s="3">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="D42" s="7">
-        <f>B42/C42</f>
-        <v>1.488095238095238E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.5037593984962405E-2</v>
       </c>
       <c r="E42" t="s">
         <v>72</v>
@@ -1526,17 +1529,17 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="B43" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C43" s="3">
-        <v>137</v>
+        <v>336</v>
       </c>
       <c r="D43" s="7">
-        <f>B43/C43</f>
-        <v>1.4598540145985401E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.488095238095238E-2</v>
       </c>
       <c r="E43" t="s">
         <v>72</v>
@@ -1544,17 +1547,17 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B44" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C44" s="3">
-        <v>276</v>
+        <v>137</v>
       </c>
       <c r="D44" s="7">
-        <f>B44/C44</f>
-        <v>1.4492753623188406E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.4598540145985401E-2</v>
       </c>
       <c r="E44" t="s">
         <v>72</v>
@@ -1562,17 +1565,17 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B45" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C45" s="3">
-        <v>208</v>
+        <v>276</v>
       </c>
       <c r="D45" s="7">
-        <f>B45/C45</f>
-        <v>1.4423076923076924E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.4492753623188406E-2</v>
       </c>
       <c r="E45" t="s">
         <v>72</v>
@@ -1580,17 +1583,17 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="B46" s="3">
         <v>3</v>
       </c>
       <c r="C46" s="3">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D46" s="7">
-        <f>B46/C46</f>
-        <v>1.4084507042253521E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.4423076923076924E-2</v>
       </c>
       <c r="E46" t="s">
         <v>72</v>
@@ -1598,17 +1601,17 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="B47" s="3">
         <v>3</v>
       </c>
       <c r="C47" s="3">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D47" s="7">
-        <f>IFERROR(B47/C47," ")</f>
-        <v>1.3636363636363636E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.4084507042253521E-2</v>
       </c>
       <c r="E47" t="s">
         <v>72</v>
@@ -1616,17 +1619,17 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="B48" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C48" s="3">
-        <v>368</v>
+        <v>220</v>
       </c>
       <c r="D48" s="7">
-        <f>B48/C48</f>
-        <v>1.358695652173913E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.3636363636363636E-2</v>
       </c>
       <c r="E48" t="s">
         <v>72</v>
@@ -1634,17 +1637,17 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B49" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C49" s="3">
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="D49" s="7">
-        <f>B49/C49</f>
-        <v>1.2500000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.358695652173913E-2</v>
       </c>
       <c r="E49" t="s">
         <v>72</v>
@@ -1652,16 +1655,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B50" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C50" s="3">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="D50" s="7">
-        <f>B50/C50</f>
+        <f t="shared" si="2"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="E50" t="s">
@@ -1670,17 +1673,17 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="B51" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C51" s="3">
-        <v>336</v>
+        <v>160</v>
       </c>
       <c r="D51" s="7">
-        <f>B51/C51</f>
-        <v>1.1904761904761904E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="E51" t="s">
         <v>72</v>
@@ -1688,17 +1691,17 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="B52" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C52" s="3">
-        <v>256</v>
+        <v>336</v>
       </c>
       <c r="D52" s="7">
-        <f>B52/C52</f>
-        <v>1.171875E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.1904761904761904E-2</v>
       </c>
       <c r="E52" t="s">
         <v>72</v>
@@ -1706,7 +1709,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="B53" s="3">
         <v>3</v>
@@ -1715,7 +1718,7 @@
         <v>256</v>
       </c>
       <c r="D53" s="7">
-        <f>IFERROR(B53/C53," ")</f>
+        <f t="shared" si="2"/>
         <v>1.171875E-2</v>
       </c>
       <c r="E53" t="s">
@@ -1724,17 +1727,17 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="B54" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C54" s="3">
-        <v>432</v>
+        <v>256</v>
       </c>
       <c r="D54" s="7">
-        <f>B54/C54</f>
-        <v>1.1574074074074073E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.171875E-2</v>
       </c>
       <c r="E54" t="s">
         <v>72</v>
@@ -1742,17 +1745,17 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B55" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C55" s="3">
-        <v>264</v>
+        <v>432</v>
       </c>
       <c r="D55" s="7">
-        <f>B55/C55</f>
-        <v>1.1363636363636364E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.1574074074074073E-2</v>
       </c>
       <c r="E55" t="s">
         <v>72</v>
@@ -1760,16 +1763,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="B56" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56" s="3">
-        <v>352</v>
+        <v>264</v>
       </c>
       <c r="D56" s="7">
-        <f>IFERROR(B56/C56," ")</f>
+        <f t="shared" si="2"/>
         <v>1.1363636363636364E-2</v>
       </c>
       <c r="E56" t="s">
@@ -1778,17 +1781,17 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="B57" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C57" s="3">
-        <v>266</v>
+        <v>352</v>
       </c>
       <c r="D57" s="7">
-        <f>B57/C57</f>
-        <v>1.1278195488721804E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.1363636363636364E-2</v>
       </c>
       <c r="E57" t="s">
         <v>72</v>
@@ -1796,17 +1799,17 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B58" s="3">
         <v>3</v>
       </c>
       <c r="C58" s="3">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="D58" s="7">
-        <f>B58/C58</f>
-        <v>1.0830324909747292E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.1278195488721804E-2</v>
       </c>
       <c r="E58" t="s">
         <v>72</v>
@@ -1814,17 +1817,17 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="B59" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59" s="3">
-        <v>384</v>
+        <v>277</v>
       </c>
       <c r="D59" s="7">
-        <f>B59/C59</f>
-        <v>1.0416666666666666E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.0830324909747292E-2</v>
       </c>
       <c r="E59" t="s">
         <v>72</v>
@@ -1832,7 +1835,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="B60" s="3">
         <v>4</v>
@@ -1841,7 +1844,7 @@
         <v>384</v>
       </c>
       <c r="D60" s="7">
-        <f>B60/C60</f>
+        <f t="shared" si="2"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E60" t="s">
@@ -1850,16 +1853,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B61" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C61" s="3">
-        <v>288</v>
+        <v>384</v>
       </c>
       <c r="D61" s="7">
-        <f>B61/C61</f>
+        <f t="shared" si="2"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E61" t="s">
@@ -1868,7 +1871,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="B62" s="3">
         <v>3</v>
@@ -1877,7 +1880,7 @@
         <v>288</v>
       </c>
       <c r="D62" s="7">
-        <f>IFERROR(B62/C62," ")</f>
+        <f t="shared" si="2"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E62" t="s">
@@ -1886,17 +1889,17 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="B63" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C63" s="3">
-        <v>400</v>
+        <v>288</v>
       </c>
       <c r="D63" s="7">
-        <f>B63/C63</f>
-        <v>0.01</v>
+        <f t="shared" si="2"/>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E63" t="s">
         <v>72</v>
@@ -1904,16 +1907,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="B64" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C64" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D64" s="7">
-        <f>B64/C64</f>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="E64" t="s">
@@ -1922,16 +1925,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B65" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C65" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D65" s="7">
-        <f>IFERROR(B65/C65," ")</f>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="E65" t="s">
@@ -1940,17 +1943,17 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="B66" s="3">
         <v>4</v>
       </c>
       <c r="C66" s="3">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="D66" s="7">
-        <f>B66/C66</f>
-        <v>9.6153846153846159E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.01</v>
       </c>
       <c r="E66" t="s">
         <v>72</v>
@@ -1958,16 +1961,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" s="8">
-        <v>2</v>
+        <v>82</v>
+      </c>
+      <c r="B67" s="3">
+        <v>4</v>
       </c>
       <c r="C67" s="3">
-        <v>208</v>
+        <v>416</v>
       </c>
       <c r="D67" s="7">
-        <f>B67/C67</f>
+        <f t="shared" si="2"/>
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="E67" t="s">
@@ -1976,16 +1979,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B68" s="3">
+        <v>15</v>
+      </c>
+      <c r="B68" s="8">
         <v>2</v>
       </c>
       <c r="C68" s="3">
         <v>208</v>
       </c>
       <c r="D68" s="7">
-        <f>B68/C68</f>
+        <f t="shared" si="2"/>
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="E68" t="s">
@@ -1994,16 +1997,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="B69" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69" s="3">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="D69" s="7">
-        <f>IFERROR(B69/C69," ")</f>
+        <f t="shared" si="2"/>
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="E69" t="s">
@@ -2012,17 +2015,17 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="B70" s="3">
         <v>3</v>
       </c>
       <c r="C70" s="3">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D70" s="7">
-        <f>B70/C70</f>
-        <v>9.4936708860759497E-3</v>
+        <f t="shared" si="2"/>
+        <v>9.6153846153846159E-3</v>
       </c>
       <c r="E70" t="s">
         <v>72</v>
@@ -2030,17 +2033,17 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="B71" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C71" s="3">
-        <v>432</v>
+        <v>316</v>
       </c>
       <c r="D71" s="7">
-        <f>B71/C71</f>
-        <v>9.2592592592592587E-3</v>
+        <f t="shared" si="2"/>
+        <v>9.4936708860759497E-3</v>
       </c>
       <c r="E71" t="s">
         <v>72</v>
@@ -2048,17 +2051,17 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="B72" s="3">
         <v>4</v>
       </c>
       <c r="C72" s="3">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D72" s="7">
-        <f>B72/C72</f>
-        <v>9.1743119266055051E-3</v>
+        <f t="shared" si="2"/>
+        <v>9.2592592592592587E-3</v>
       </c>
       <c r="E72" t="s">
         <v>72</v>
@@ -2066,17 +2069,17 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B73" s="3">
         <v>4</v>
       </c>
       <c r="C73" s="3">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="D73" s="7">
-        <f>B73/C73</f>
-        <v>9.0090090090090089E-3</v>
+        <f t="shared" si="2"/>
+        <v>9.1743119266055051E-3</v>
       </c>
       <c r="E73" t="s">
         <v>72</v>
@@ -2084,17 +2087,17 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="B74" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C74" s="3">
-        <v>336</v>
+        <v>444</v>
       </c>
       <c r="D74" s="7">
-        <f>B74/C74</f>
-        <v>8.9285714285714281E-3</v>
+        <f t="shared" si="2"/>
+        <v>9.0090090090090089E-3</v>
       </c>
       <c r="E74" t="s">
         <v>72</v>
@@ -2102,17 +2105,17 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B75" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C75" s="3">
-        <v>225</v>
+        <v>336</v>
       </c>
       <c r="D75" s="7">
-        <f>B75/C75</f>
-        <v>8.8888888888888889E-3</v>
+        <f t="shared" si="2"/>
+        <v>8.9285714285714281E-3</v>
       </c>
       <c r="E75" t="s">
         <v>72</v>
@@ -2120,17 +2123,17 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B76" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C76" s="3">
-        <v>344</v>
+        <v>225</v>
       </c>
       <c r="D76" s="7">
-        <f>B76/C76</f>
-        <v>8.7209302325581394E-3</v>
+        <f t="shared" si="2"/>
+        <v>8.8888888888888889E-3</v>
       </c>
       <c r="E76" t="s">
         <v>72</v>
@@ -2138,17 +2141,17 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="B77" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C77" s="3">
-        <v>464</v>
+        <v>344</v>
       </c>
       <c r="D77" s="7">
-        <f>B77/C77</f>
-        <v>8.6206896551724137E-3</v>
+        <f t="shared" si="2"/>
+        <v>8.7209302325581394E-3</v>
       </c>
       <c r="E77" t="s">
         <v>72</v>
@@ -2156,7 +2159,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="B78" s="3">
         <v>4</v>
@@ -2165,7 +2168,7 @@
         <v>464</v>
       </c>
       <c r="D78" s="7">
-        <f>B78/C78</f>
+        <f t="shared" si="2"/>
         <v>8.6206896551724137E-3</v>
       </c>
       <c r="E78" t="s">
@@ -2174,17 +2177,17 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B79" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C79" s="3">
-        <v>352</v>
+        <v>464</v>
       </c>
       <c r="D79" s="7">
-        <f>B79/C79</f>
-        <v>8.5227272727272721E-3</v>
+        <f t="shared" si="2"/>
+        <v>8.6206896551724137E-3</v>
       </c>
       <c r="E79" t="s">
         <v>72</v>
@@ -2192,7 +2195,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="B80" s="3">
         <v>3</v>
@@ -2201,7 +2204,7 @@
         <v>352</v>
       </c>
       <c r="D80" s="7">
-        <f>IFERROR(B80/C80," ")</f>
+        <f t="shared" ref="D80:D129" si="3">IFERROR(B80/C80," ")</f>
         <v>8.5227272727272721E-3</v>
       </c>
       <c r="E80" t="s">
@@ -2210,17 +2213,17 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="B81" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81" s="3">
-        <v>480</v>
+        <v>352</v>
       </c>
       <c r="D81" s="7">
-        <f>B81/C81</f>
-        <v>8.3333333333333332E-3</v>
+        <f t="shared" si="3"/>
+        <v>8.5227272727272721E-3</v>
       </c>
       <c r="E81" t="s">
         <v>72</v>
@@ -2228,16 +2231,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B82" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C82" s="3">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D82" s="7">
-        <f>B82/C82</f>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="E82" t="s">
@@ -2246,16 +2249,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B83" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C83" s="3">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="D83" s="7">
-        <f>B83/C83</f>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="E83" t="s">
@@ -2264,17 +2267,17 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B84" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C84" s="3">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="D84" s="7">
-        <f>B84/C84</f>
-        <v>8.152173913043478E-3</v>
+        <f t="shared" si="3"/>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E84" t="s">
         <v>72</v>
@@ -2282,7 +2285,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B85" s="3">
         <v>3</v>
@@ -2291,7 +2294,7 @@
         <v>368</v>
       </c>
       <c r="D85" s="7">
-        <f>B85/C85</f>
+        <f t="shared" si="3"/>
         <v>8.152173913043478E-3</v>
       </c>
       <c r="E85" t="s">
@@ -2300,17 +2303,17 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="B86" s="3">
         <v>3</v>
       </c>
       <c r="C86" s="3">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D86" s="7">
-        <f>B86/C86</f>
-        <v>8.0862533692722376E-3</v>
+        <f t="shared" si="3"/>
+        <v>8.152173913043478E-3</v>
       </c>
       <c r="E86" t="s">
         <v>72</v>
@@ -2318,17 +2321,17 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="B87" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C87" s="3">
-        <v>499</v>
+        <v>371</v>
       </c>
       <c r="D87" s="7">
-        <f>B87/C87</f>
-        <v>8.0160320641282558E-3</v>
+        <f t="shared" si="3"/>
+        <v>8.0862533692722376E-3</v>
       </c>
       <c r="E87" t="s">
         <v>72</v>
@@ -2336,17 +2339,17 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="B88" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C88" s="3">
-        <v>250</v>
+        <v>499</v>
       </c>
       <c r="D88" s="7">
-        <f>B88/C88</f>
-        <v>8.0000000000000002E-3</v>
+        <f t="shared" si="3"/>
+        <v>8.0160320641282558E-3</v>
       </c>
       <c r="E88" t="s">
         <v>72</v>
@@ -2354,17 +2357,17 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B89" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C89" s="3">
-        <v>512</v>
+        <v>250</v>
       </c>
       <c r="D89" s="7">
-        <f>B89/C89</f>
-        <v>7.8125E-3</v>
+        <f t="shared" si="3"/>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E89" t="s">
         <v>72</v>
@@ -2372,7 +2375,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="B90" s="3">
         <v>4</v>
@@ -2381,7 +2384,7 @@
         <v>512</v>
       </c>
       <c r="D90" s="7">
-        <f>B90/C90</f>
+        <f t="shared" si="3"/>
         <v>7.8125E-3</v>
       </c>
       <c r="E90" t="s">
@@ -2390,17 +2393,17 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B91" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C91" s="3">
-        <v>264</v>
+        <v>512</v>
       </c>
       <c r="D91" s="7">
-        <f>B91/C91</f>
-        <v>7.575757575757576E-3</v>
+        <f t="shared" si="3"/>
+        <v>7.8125E-3</v>
       </c>
       <c r="E91" t="s">
         <v>72</v>
@@ -2408,17 +2411,17 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B92" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92" s="3">
-        <v>400</v>
+        <v>264</v>
       </c>
       <c r="D92" s="7">
-        <f>B92/C92</f>
-        <v>7.4999999999999997E-3</v>
+        <f t="shared" si="3"/>
+        <v>7.575757575757576E-3</v>
       </c>
       <c r="E92" t="s">
         <v>72</v>
@@ -2426,17 +2429,17 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B93" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C93" s="3">
-        <v>544</v>
+        <v>400</v>
       </c>
       <c r="D93" s="7">
-        <f>B93/C93</f>
-        <v>7.3529411764705881E-3</v>
+        <f t="shared" si="3"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="E93" t="s">
         <v>72</v>
@@ -2444,17 +2447,17 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B94" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C94" s="3">
-        <v>416</v>
+        <v>544</v>
       </c>
       <c r="D94" s="7">
-        <f>IFERROR(B94/C94," ")</f>
-        <v>7.2115384615384619E-3</v>
+        <f t="shared" si="3"/>
+        <v>7.3529411764705881E-3</v>
       </c>
       <c r="E94" t="s">
         <v>72</v>
@@ -2462,17 +2465,17 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="B95" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C95" s="3">
-        <v>560</v>
+        <v>416</v>
       </c>
       <c r="D95" s="7">
-        <f>B95/C95</f>
-        <v>7.1428571428571426E-3</v>
+        <f t="shared" si="3"/>
+        <v>7.2115384615384619E-3</v>
       </c>
       <c r="E95" t="s">
         <v>72</v>
@@ -2480,17 +2483,17 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B96" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C96" s="3">
-        <v>284</v>
+        <v>560</v>
       </c>
       <c r="D96" s="7">
-        <f>B96/C96</f>
-        <v>7.0422535211267607E-3</v>
+        <f t="shared" si="3"/>
+        <v>7.1428571428571426E-3</v>
       </c>
       <c r="E96" t="s">
         <v>72</v>
@@ -2498,17 +2501,17 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="B97" s="3">
         <v>2</v>
       </c>
       <c r="C97" s="3">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D97" s="7">
-        <f>B97/C97</f>
-        <v>6.9444444444444441E-3</v>
+        <f t="shared" si="3"/>
+        <v>7.0422535211267607E-3</v>
       </c>
       <c r="E97" t="s">
         <v>72</v>
@@ -2516,17 +2519,17 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="B98" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C98" s="3">
-        <v>736</v>
+        <v>288</v>
       </c>
       <c r="D98" s="7">
-        <f>IFERROR(B98/C98," ")</f>
-        <v>6.793478260869565E-3</v>
+        <f t="shared" si="3"/>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="E98" t="s">
         <v>72</v>
@@ -2534,17 +2537,17 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="B99" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C99" s="3">
-        <v>148</v>
+        <v>736</v>
       </c>
       <c r="D99" s="7">
-        <f>B99/C99</f>
-        <v>6.7567567567567571E-3</v>
+        <f t="shared" si="3"/>
+        <v>6.793478260869565E-3</v>
       </c>
       <c r="E99" t="s">
         <v>72</v>
@@ -2552,17 +2555,17 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B100" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C100" s="3">
-        <v>450</v>
+        <v>148</v>
       </c>
       <c r="D100" s="7">
-        <f>B100/C100</f>
-        <v>6.6666666666666671E-3</v>
+        <f t="shared" si="3"/>
+        <v>6.7567567567567571E-3</v>
       </c>
       <c r="E100" t="s">
         <v>72</v>
@@ -2570,17 +2573,17 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B101" s="3">
         <v>3</v>
       </c>
       <c r="C101" s="3">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="D101" s="7">
-        <f>IFERROR(B101/C101," ")</f>
-        <v>6.4655172413793103E-3</v>
+        <f t="shared" si="3"/>
+        <v>6.6666666666666671E-3</v>
       </c>
       <c r="E101" t="s">
         <v>72</v>
@@ -2588,17 +2591,17 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="B102" s="3">
         <v>3</v>
       </c>
       <c r="C102" s="3">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="D102" s="7">
-        <f>B102/C102</f>
-        <v>6.2500000000000003E-3</v>
+        <f t="shared" si="3"/>
+        <v>6.4655172413793103E-3</v>
       </c>
       <c r="E102" t="s">
         <v>72</v>
@@ -2606,7 +2609,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B103" s="3">
         <v>3</v>
@@ -2615,7 +2618,7 @@
         <v>480</v>
       </c>
       <c r="D103" s="7">
-        <f>B103/C103</f>
+        <f t="shared" si="3"/>
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="E103" t="s">
@@ -2624,17 +2627,17 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B104" s="3">
         <v>3</v>
       </c>
       <c r="C104" s="3">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D104" s="7">
-        <f>B104/C104</f>
-        <v>6.1475409836065573E-3</v>
+        <f t="shared" si="3"/>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="E104" t="s">
         <v>72</v>
@@ -2642,17 +2645,17 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B105" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C105" s="3">
-        <v>332</v>
+        <v>488</v>
       </c>
       <c r="D105" s="7">
-        <f>B105/C105</f>
-        <v>6.024096385542169E-3</v>
+        <f t="shared" si="3"/>
+        <v>6.1475409836065573E-3</v>
       </c>
       <c r="E105" t="s">
         <v>72</v>
@@ -2660,7 +2663,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="B106" s="3">
         <v>2</v>
@@ -2669,7 +2672,7 @@
         <v>332</v>
       </c>
       <c r="D106" s="7">
-        <f>B106/C106</f>
+        <f t="shared" si="3"/>
         <v>6.024096385542169E-3</v>
       </c>
       <c r="E106" t="s">
@@ -2678,17 +2681,17 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="B107" s="3">
         <v>2</v>
       </c>
       <c r="C107" s="3">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="D107" s="7">
-        <f>B107/C107</f>
-        <v>5.8139534883720929E-3</v>
+        <f t="shared" si="3"/>
+        <v>6.024096385542169E-3</v>
       </c>
       <c r="E107" t="s">
         <v>72</v>
@@ -2696,17 +2699,17 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="B108" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C108" s="3">
-        <v>704</v>
+        <v>344</v>
       </c>
       <c r="D108" s="7">
-        <f>B108/C108</f>
-        <v>5.681818181818182E-3</v>
+        <f t="shared" si="3"/>
+        <v>5.8139534883720929E-3</v>
       </c>
       <c r="E108" t="s">
         <v>72</v>
@@ -2714,17 +2717,17 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="B109" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C109" s="3">
-        <v>366</v>
+        <v>704</v>
       </c>
       <c r="D109" s="7">
-        <f>B109/C109</f>
-        <v>5.4644808743169399E-3</v>
+        <f t="shared" si="3"/>
+        <v>5.681818181818182E-3</v>
       </c>
       <c r="E109" t="s">
         <v>72</v>
@@ -2732,17 +2735,17 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="B110" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C110" s="3">
-        <v>736</v>
+        <v>366</v>
       </c>
       <c r="D110" s="7">
-        <f>B110/C110</f>
-        <v>5.434782608695652E-3</v>
+        <f t="shared" si="3"/>
+        <v>5.4644808743169399E-3</v>
       </c>
       <c r="E110" t="s">
         <v>72</v>
@@ -2750,17 +2753,17 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B111" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C111" s="3">
-        <v>373</v>
+        <v>736</v>
       </c>
       <c r="D111" s="7">
-        <f>B111/C111</f>
-        <v>5.3619302949061663E-3</v>
+        <f t="shared" si="3"/>
+        <v>5.434782608695652E-3</v>
       </c>
       <c r="E111" t="s">
         <v>72</v>
@@ -2768,17 +2771,17 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B112" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C112" s="3">
-        <v>560</v>
+        <v>373</v>
       </c>
       <c r="D112" s="7">
-        <f>B112/C112</f>
-        <v>5.3571428571428572E-3</v>
+        <f t="shared" si="3"/>
+        <v>5.3619302949061663E-3</v>
       </c>
       <c r="E112" t="s">
         <v>72</v>
@@ -2786,7 +2789,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B113" s="3">
         <v>3</v>
@@ -2795,7 +2798,7 @@
         <v>560</v>
       </c>
       <c r="D113" s="7">
-        <f>B113/C113</f>
+        <f t="shared" si="3"/>
         <v>5.3571428571428572E-3</v>
       </c>
       <c r="E113" t="s">
@@ -2804,17 +2807,17 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B114" s="3">
         <v>3</v>
       </c>
       <c r="C114" s="3">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="D114" s="7">
-        <f>B114/C114</f>
-        <v>5.208333333333333E-3</v>
+        <f t="shared" si="3"/>
+        <v>5.3571428571428572E-3</v>
       </c>
       <c r="E114" t="s">
         <v>72</v>
@@ -2822,16 +2825,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B115" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C115" s="3">
-        <v>384</v>
+        <v>576</v>
       </c>
       <c r="D115" s="7">
-        <f>B115/C115</f>
+        <f t="shared" si="3"/>
         <v>5.208333333333333E-3</v>
       </c>
       <c r="E115" t="s">
@@ -2840,17 +2843,17 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="B116" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C116" s="3">
-        <v>200</v>
+        <v>384</v>
       </c>
       <c r="D116" s="7">
-        <f>B116/C116</f>
-        <v>5.0000000000000001E-3</v>
+        <f t="shared" si="3"/>
+        <v>5.208333333333333E-3</v>
       </c>
       <c r="E116" t="s">
         <v>72</v>
@@ -2858,16 +2861,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="B117" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C117" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D117" s="7">
-        <f>B117/C117</f>
+        <f t="shared" si="3"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E117" t="s">
@@ -2876,17 +2879,17 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B118" s="3">
         <v>2</v>
       </c>
       <c r="C118" s="3">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="D118" s="7">
-        <f>B118/C118</f>
-        <v>4.807692307692308E-3</v>
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E118" t="s">
         <v>72</v>
@@ -2894,7 +2897,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B119" s="3">
         <v>2</v>
@@ -2903,7 +2906,7 @@
         <v>416</v>
       </c>
       <c r="D119" s="7">
-        <f>B119/C119</f>
+        <f t="shared" si="3"/>
         <v>4.807692307692308E-3</v>
       </c>
       <c r="E119" t="s">
@@ -2912,17 +2915,17 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="B120" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C120" s="3">
-        <v>848</v>
+        <v>416</v>
       </c>
       <c r="D120" s="7">
-        <f>B120/C120</f>
-        <v>4.7169811320754715E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.807692307692308E-3</v>
       </c>
       <c r="E120" t="s">
         <v>72</v>
@@ -2930,17 +2933,17 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B121" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C121" s="3">
-        <v>440</v>
+        <v>848</v>
       </c>
       <c r="D121" s="7">
-        <f>IFERROR(B121/C121," ")</f>
-        <v>4.5454545454545452E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.7169811320754715E-3</v>
       </c>
       <c r="E121" t="s">
         <v>72</v>
@@ -2948,17 +2951,17 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B122" s="3">
         <v>2</v>
       </c>
       <c r="C122" s="3">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="D122" s="7">
-        <f>B122/C122</f>
-        <v>4.3859649122807015E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.5454545454545452E-3</v>
       </c>
       <c r="E122" t="s">
         <v>72</v>
@@ -2966,17 +2969,17 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="B123" s="3">
         <v>2</v>
       </c>
       <c r="C123" s="3">
-        <v>528</v>
+        <v>456</v>
       </c>
       <c r="D123" s="7">
-        <f>B123/C123</f>
-        <v>3.787878787878788E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.3859649122807015E-3</v>
       </c>
       <c r="E123" t="s">
         <v>72</v>
@@ -2984,17 +2987,17 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B124" s="3">
         <v>2</v>
       </c>
       <c r="C124" s="3">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="D124" s="7">
-        <f>B124/C124</f>
-        <v>3.6764705882352941E-3</v>
+        <f t="shared" si="3"/>
+        <v>3.787878787878788E-3</v>
       </c>
       <c r="E124" t="s">
         <v>72</v>
@@ -3002,17 +3005,17 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B125" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C125" s="3">
-        <v>848</v>
+        <v>544</v>
       </c>
       <c r="D125" s="7">
-        <f>B125/C125</f>
-        <v>3.5377358490566039E-3</v>
+        <f t="shared" si="3"/>
+        <v>3.6764705882352941E-3</v>
       </c>
       <c r="E125" t="s">
         <v>72</v>
@@ -3020,17 +3023,17 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="B126" s="3">
         <v>3</v>
       </c>
       <c r="C126" s="3">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="D126" s="7">
-        <f>B126/C126</f>
-        <v>3.472222222222222E-3</v>
+        <f t="shared" si="3"/>
+        <v>3.5377358490566039E-3</v>
       </c>
       <c r="E126" t="s">
         <v>72</v>
@@ -3038,17 +3041,17 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="B127" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C127" s="3">
-        <v>616</v>
+        <v>864</v>
       </c>
       <c r="D127" s="7">
-        <f>B127/C127</f>
-        <v>3.246753246753247E-3</v>
+        <f t="shared" si="3"/>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="E127" t="s">
         <v>72</v>
@@ -3056,17 +3059,17 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="B128" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C128" s="3">
-        <v>320</v>
+        <v>616</v>
       </c>
       <c r="D128" s="7">
-        <f>B128/C128</f>
-        <v>3.1250000000000002E-3</v>
+        <f t="shared" si="3"/>
+        <v>3.246753246753247E-3</v>
       </c>
       <c r="E128" t="s">
         <v>72</v>
@@ -3074,17 +3077,17 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B129" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C129" s="3">
-        <v>1280</v>
+        <v>320</v>
       </c>
       <c r="D129" s="7">
-        <f>IFERROR(B129/C129," ")</f>
-        <v>2.3437499999999999E-3</v>
+        <f t="shared" si="3"/>
+        <v>3.1250000000000002E-3</v>
       </c>
       <c r="E129" t="s">
         <v>72</v>
@@ -3092,542 +3095,554 @@
     </row>
     <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D130" s="7" t="str">
-        <f t="shared" ref="D107:D170" si="1">IFERROR(B130/C130," ")</f>
+        <f>IFERROR(B130/C130," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D131" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B131/C131," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D132" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B132/C132," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D133" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B133/C133," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D134" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B134/C134," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D135" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B135/C135," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D136" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B136/C136," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D137" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B137/C137," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D138" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B138/C138," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D139" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B139/C139," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D140" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B140/C140," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D141" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B141/C141," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D142" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B142/C142," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D143" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B143/C143," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D144" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B144/C144," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="145" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D145" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B145/C145," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="146" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D146" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B146/C146," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="147" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D147" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B147/C147," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="148" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D148" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B148/C148," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="149" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D149" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B149/C149," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="150" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D150" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B150/C150," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="151" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D151" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B151/C151," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="152" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D152" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B152/C152," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="153" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D153" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B153/C153," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="154" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D154" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B154/C154," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="155" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D155" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B155/C155," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="156" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D156" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B156/C156," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="157" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D157" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B157/C157," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="158" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D158" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B158/C158," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="159" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D159" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B159/C159," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="160" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D160" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B160/C160," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="161" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D161" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B161/C161," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="162" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D162" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B162/C162," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="163" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D163" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B163/C163," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="164" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D164" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B164/C164," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="165" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D165" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B165/C165," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="166" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D166" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B166/C166," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="167" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D167" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B167/C167," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="168" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D168" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B168/C168," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="169" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D169" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B169/C169," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="170" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D170" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(B170/C170," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="171" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D171" s="7" t="str">
-        <f t="shared" ref="D171:D219" si="2">IFERROR(B171/C171," ")</f>
+        <f>IFERROR(B171/C171," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="172" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D172" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B172/C172," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="173" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D173" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B173/C173," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="174" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D174" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B174/C174," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="175" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D175" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B175/C175," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="176" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D176" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B176/C176," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="177" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D177" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B177/C177," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="178" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D178" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B178/C178," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="179" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D179" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B179/C179," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="180" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D180" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B180/C180," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="181" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D181" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B181/C181," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="182" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D182" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B182/C182," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="183" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D183" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B183/C183," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="184" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D184" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B184/C184," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="185" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D185" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B185/C185," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="186" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D186" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B186/C186," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="187" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D187" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B187/C187," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="188" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D188" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B188/C188," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="189" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D189" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B189/C189," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="190" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D190" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B190/C190," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="191" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D191" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B191/C191," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="192" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D192" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B192/C192," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="193" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D193" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B193/C193," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="194" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D194" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B194/C194," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="195" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D195" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B195/C195," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="196" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D196" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B196/C196," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="197" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D197" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B197/C197," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="198" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D198" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B198/C198," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="199" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D199" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B199/C199," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="200" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D200" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B200/C200," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="201" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D201" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B201/C201," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="202" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D202" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B202/C202," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="203" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D203" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B203/C203," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="204" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D204" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B204/C204," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="205" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D205" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B205/C205," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="206" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D206" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B206/C206," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="207" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D207" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B207/C207," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="208" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D208" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="209" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+        <f>IFERROR(B208/C208," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D209" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="210" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+        <f>IFERROR(B209/C209," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D210" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="211" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+        <f>IFERROR(B210/C210," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D211" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="212" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+        <f>IFERROR(B211/C211," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D212" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="213" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+        <f>IFERROR(B212/C212," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D213" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="214" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+        <f>IFERROR(B213/C213," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D214" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="215" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+        <f>IFERROR(B214/C214," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D215" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="216" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+        <f>IFERROR(B215/C215," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D216" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="217" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+        <f>IFERROR(B216/C216," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D217" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="218" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+        <f>IFERROR(B217/C217," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D218" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D219" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <f>IFERROR(B218/C218," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B219" s="3">
+        <v>3</v>
+      </c>
+      <c r="C219" s="3">
+        <v>1280</v>
+      </c>
+      <c r="D219" s="7">
+        <f t="shared" ref="D219" si="4">IFERROR(B219/C219," ")</f>
+        <v>2.3437499999999999E-3</v>
+      </c>
+      <c r="E219" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3642,7 +3657,7 @@
         <filter val="No"/>
       </filters>
     </filterColumn>
-    <sortState ref="A4:E129">
+    <sortState ref="A14:E219">
       <sortCondition descending="1" ref="D2:D218"/>
     </sortState>
   </autoFilter>

--- a/Book Ranking.xlsx
+++ b/Book Ranking.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="144">
   <si>
     <t>Book Ranking</t>
   </si>
@@ -432,6 +432,24 @@
   </si>
   <si>
     <t>Advice Not Given: A Guide for Getting Over Yourself</t>
+  </si>
+  <si>
+    <t>Wisdom and the Context of Knowledge: Knowing that One Doesn't Know: Meacham (Report)</t>
+  </si>
+  <si>
+    <t>A Mathematica Theory of Communication: CE Shannon (Report)</t>
+  </si>
+  <si>
+    <t>The Waste Land: Poem</t>
+  </si>
+  <si>
+    <t>Randomness and Mathematical Proof (Report)</t>
+  </si>
+  <si>
+    <t>Power laws, Pareto distributinos and Zipf's Law (Report)</t>
+  </si>
+  <si>
+    <t>Self-organised criticality-what it is and what it isn't (Report)</t>
   </si>
 </sst>
 </file>
@@ -441,7 +459,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,13 +475,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -475,10 +505,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -492,8 +523,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -797,11 +832,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E219"/>
+  <dimension ref="A1:E225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,17 +1042,17 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="B14" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="3">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D14" s="7">
-        <f>B14/C14</f>
-        <v>6.8493150684931503E-2</v>
+        <f>IFERROR(B14/C14," ")</f>
+        <v>0.44444444444444442</v>
       </c>
       <c r="E14" t="s">
         <v>72</v>
@@ -1025,17 +1060,17 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="B15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D15" s="7">
-        <f>B15/C15</f>
-        <v>6.6666666666666666E-2</v>
+        <f>IFERROR(B15/C15," ")</f>
+        <v>0.21428571428571427</v>
       </c>
       <c r="E15" t="s">
         <v>72</v>
@@ -1043,17 +1078,17 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="B16" s="3">
         <v>4</v>
       </c>
       <c r="C16" s="3">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D16" s="7">
-        <f t="shared" ref="D16:D79" si="2">IFERROR(B16/C16," ")</f>
-        <v>5.4054054054054057E-2</v>
+        <f>IFERROR(B16/C16," ")</f>
+        <v>0.2</v>
       </c>
       <c r="E16" t="s">
         <v>72</v>
@@ -1061,17 +1096,17 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="B17" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17" s="3">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="D17" s="7">
-        <f t="shared" si="2"/>
-        <v>4.1666666666666664E-2</v>
+        <f>IFERROR(B17/C17," ")</f>
+        <v>0.15</v>
       </c>
       <c r="E17" t="s">
         <v>72</v>
@@ -1079,35 +1114,35 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="B18" s="3">
         <v>3</v>
       </c>
       <c r="C18" s="3">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="D18" s="7">
-        <f t="shared" si="2"/>
-        <v>4.1666666666666664E-2</v>
+        <f>IFERROR(B18/C18," ")</f>
+        <v>0.12</v>
       </c>
       <c r="E18" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>127</v>
+      <c r="A19" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="B19" s="3">
         <v>5</v>
       </c>
       <c r="C19" s="3">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" si="2"/>
-        <v>3.90625E-2</v>
+        <f>B19/C19</f>
+        <v>6.8493150684931503E-2</v>
       </c>
       <c r="E19" t="s">
         <v>72</v>
@@ -1115,17 +1150,17 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B20" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" si="2"/>
-        <v>3.7593984962406013E-2</v>
+        <f>B20/C20</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="E20" t="s">
         <v>72</v>
@@ -1133,17 +1168,17 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="B21" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="D21" s="7">
-        <f t="shared" si="2"/>
-        <v>3.0303030303030304E-2</v>
+        <f>IFERROR(B21/C21," ")</f>
+        <v>5.4545454545454543E-2</v>
       </c>
       <c r="E21" t="s">
         <v>72</v>
@@ -1151,17 +1186,17 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B22" s="3">
         <v>4</v>
       </c>
       <c r="C22" s="3">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="D22" s="7">
-        <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <f>IFERROR(B22/C22," ")</f>
+        <v>5.4054054054054057E-2</v>
       </c>
       <c r="E22" t="s">
         <v>72</v>
@@ -1169,17 +1204,17 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="B23" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C23" s="3">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D23" s="7">
-        <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <f>IFERROR(B23/C23," ")</f>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E23" t="s">
         <v>72</v>
@@ -1187,17 +1222,17 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B24" s="3">
         <v>3</v>
       </c>
       <c r="C24" s="3">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="D24" s="7">
-        <f t="shared" si="2"/>
-        <v>2.4193548387096774E-2</v>
+        <f>IFERROR(B24/C24," ")</f>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E24" t="s">
         <v>72</v>
@@ -1205,17 +1240,17 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B25" s="3">
         <v>5</v>
       </c>
       <c r="C25" s="3">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="D25" s="7">
-        <f t="shared" si="2"/>
-        <v>2.403846153846154E-2</v>
+        <f>IFERROR(B25/C25," ")</f>
+        <v>3.90625E-2</v>
       </c>
       <c r="E25" t="s">
         <v>72</v>
@@ -1223,17 +1258,17 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B26" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D26" s="7">
-        <f t="shared" si="2"/>
-        <v>2.34375E-2</v>
+        <f>IFERROR(B26/C26," ")</f>
+        <v>3.7593984962406013E-2</v>
       </c>
       <c r="E26" t="s">
         <v>72</v>
@@ -1241,17 +1276,17 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="B27" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>224</v>
+        <v>132</v>
       </c>
       <c r="D27" s="7">
-        <f t="shared" si="2"/>
-        <v>2.2321428571428572E-2</v>
+        <f>IFERROR(B27/C27," ")</f>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="E27" t="s">
         <v>72</v>
@@ -1259,17 +1294,17 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B28" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="3">
-        <v>228</v>
+        <v>160</v>
       </c>
       <c r="D28" s="7">
-        <f t="shared" si="2"/>
-        <v>2.1929824561403508E-2</v>
+        <f>IFERROR(B28/C28," ")</f>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E28" t="s">
         <v>72</v>
@@ -1277,17 +1312,17 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="B29" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C29" s="3">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="D29" s="7">
-        <f t="shared" si="2"/>
-        <v>2.0942408376963352E-2</v>
+        <f>IFERROR(B29/C29," ")</f>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E29" t="s">
         <v>72</v>
@@ -1295,17 +1330,17 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="B30" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" s="3">
-        <v>192</v>
+        <v>124</v>
       </c>
       <c r="D30" s="7">
-        <f t="shared" si="2"/>
-        <v>2.0833333333333332E-2</v>
+        <f>IFERROR(B30/C30," ")</f>
+        <v>2.4193548387096774E-2</v>
       </c>
       <c r="E30" t="s">
         <v>72</v>
@@ -1313,17 +1348,17 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B31" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31" s="3">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="D31" s="7">
-        <f t="shared" si="2"/>
-        <v>2.0202020202020204E-2</v>
+        <f>IFERROR(B31/C31," ")</f>
+        <v>2.403846153846154E-2</v>
       </c>
       <c r="E31" t="s">
         <v>72</v>
@@ -1331,17 +1366,17 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B32" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C32" s="3">
-        <v>258</v>
+        <v>128</v>
       </c>
       <c r="D32" s="7">
-        <f t="shared" si="2"/>
-        <v>1.937984496124031E-2</v>
+        <f>IFERROR(B32/C32," ")</f>
+        <v>2.34375E-2</v>
       </c>
       <c r="E32" t="s">
         <v>72</v>
@@ -1349,17 +1384,17 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="B33" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C33" s="3">
-        <v>157</v>
+        <v>224</v>
       </c>
       <c r="D33" s="7">
-        <f t="shared" si="2"/>
-        <v>1.9108280254777069E-2</v>
+        <f>IFERROR(B33/C33," ")</f>
+        <v>2.2321428571428572E-2</v>
       </c>
       <c r="E33" t="s">
         <v>72</v>
@@ -1367,17 +1402,17 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B34" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C34" s="3">
-        <v>160</v>
+        <v>228</v>
       </c>
       <c r="D34" s="7">
-        <f t="shared" si="2"/>
-        <v>1.8749999999999999E-2</v>
+        <f>IFERROR(B34/C34," ")</f>
+        <v>2.1929824561403508E-2</v>
       </c>
       <c r="E34" t="s">
         <v>72</v>
@@ -1385,17 +1420,17 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B35" s="3">
         <v>4</v>
       </c>
       <c r="C35" s="3">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="D35" s="7">
-        <f t="shared" si="2"/>
-        <v>1.7857142857142856E-2</v>
+        <f>IFERROR(B35/C35," ")</f>
+        <v>2.0942408376963352E-2</v>
       </c>
       <c r="E35" t="s">
         <v>72</v>
@@ -1403,17 +1438,17 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="B36" s="3">
         <v>4</v>
       </c>
       <c r="C36" s="3">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="D36" s="7">
-        <f t="shared" si="2"/>
-        <v>1.7699115044247787E-2</v>
+        <f>IFERROR(B36/C36," ")</f>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E36" t="s">
         <v>72</v>
@@ -1421,17 +1456,17 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="B37" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" s="3">
-        <v>288</v>
+        <v>198</v>
       </c>
       <c r="D37" s="7">
-        <f t="shared" si="2"/>
-        <v>1.7361111111111112E-2</v>
+        <f>IFERROR(B37/C37," ")</f>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="E37" t="s">
         <v>72</v>
@@ -1439,17 +1474,17 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B38" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C38" s="3">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="D38" s="7">
-        <f t="shared" si="2"/>
-        <v>1.7316017316017316E-2</v>
+        <f>IFERROR(B38/C38," ")</f>
+        <v>1.937984496124031E-2</v>
       </c>
       <c r="E38" t="s">
         <v>72</v>
@@ -1457,17 +1492,17 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="B39" s="3">
         <v>3</v>
       </c>
       <c r="C39" s="3">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="D39" s="7">
-        <f t="shared" si="2"/>
-        <v>1.6574585635359115E-2</v>
+        <f>IFERROR(B39/C39," ")</f>
+        <v>1.9108280254777069E-2</v>
       </c>
       <c r="E39" t="s">
         <v>72</v>
@@ -1475,17 +1510,17 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B40" s="3">
         <v>3</v>
       </c>
       <c r="C40" s="3">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="D40" s="7">
-        <f t="shared" si="2"/>
-        <v>1.6483516483516484E-2</v>
+        <f>IFERROR(B40/C40," ")</f>
+        <v>1.8749999999999999E-2</v>
       </c>
       <c r="E40" t="s">
         <v>72</v>
@@ -1493,17 +1528,17 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="B41" s="3">
         <v>4</v>
       </c>
       <c r="C41" s="3">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="D41" s="7">
-        <f t="shared" si="2"/>
-        <v>1.6E-2</v>
+        <f>IFERROR(B41/C41," ")</f>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="E41" t="s">
         <v>72</v>
@@ -1511,17 +1546,17 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B42" s="3">
         <v>4</v>
       </c>
       <c r="C42" s="3">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="D42" s="7">
-        <f t="shared" si="2"/>
-        <v>1.5037593984962405E-2</v>
+        <f>IFERROR(B42/C42," ")</f>
+        <v>1.7699115044247787E-2</v>
       </c>
       <c r="E42" t="s">
         <v>72</v>
@@ -1529,17 +1564,17 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B43" s="3">
         <v>5</v>
       </c>
       <c r="C43" s="3">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="D43" s="7">
-        <f t="shared" si="2"/>
-        <v>1.488095238095238E-2</v>
+        <f>IFERROR(B43/C43," ")</f>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="E43" t="s">
         <v>72</v>
@@ -1547,17 +1582,17 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B44" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C44" s="3">
-        <v>137</v>
+        <v>231</v>
       </c>
       <c r="D44" s="7">
-        <f t="shared" si="2"/>
-        <v>1.4598540145985401E-2</v>
+        <f>IFERROR(B44/C44," ")</f>
+        <v>1.7316017316017316E-2</v>
       </c>
       <c r="E44" t="s">
         <v>72</v>
@@ -1565,17 +1600,17 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="B45" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" s="3">
-        <v>276</v>
+        <v>181</v>
       </c>
       <c r="D45" s="7">
-        <f t="shared" si="2"/>
-        <v>1.4492753623188406E-2</v>
+        <f>IFERROR(B45/C45," ")</f>
+        <v>1.6574585635359115E-2</v>
       </c>
       <c r="E45" t="s">
         <v>72</v>
@@ -1583,17 +1618,17 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B46" s="3">
         <v>3</v>
       </c>
       <c r="C46" s="3">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="D46" s="7">
-        <f t="shared" si="2"/>
-        <v>1.4423076923076924E-2</v>
+        <f>IFERROR(B46/C46," ")</f>
+        <v>1.6483516483516484E-2</v>
       </c>
       <c r="E46" t="s">
         <v>72</v>
@@ -1601,17 +1636,17 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="B47" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C47" s="3">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="D47" s="7">
-        <f t="shared" si="2"/>
-        <v>1.4084507042253521E-2</v>
+        <f>IFERROR(B47/C47," ")</f>
+        <v>1.6E-2</v>
       </c>
       <c r="E47" t="s">
         <v>72</v>
@@ -1619,17 +1654,17 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B48" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C48" s="3">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="D48" s="7">
-        <f t="shared" si="2"/>
-        <v>1.3636363636363636E-2</v>
+        <f>IFERROR(B48/C48," ")</f>
+        <v>1.5037593984962405E-2</v>
       </c>
       <c r="E48" t="s">
         <v>72</v>
@@ -1637,17 +1672,17 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B49" s="3">
         <v>5</v>
       </c>
       <c r="C49" s="3">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="D49" s="7">
-        <f t="shared" si="2"/>
-        <v>1.358695652173913E-2</v>
+        <f>IFERROR(B49/C49," ")</f>
+        <v>1.488095238095238E-2</v>
       </c>
       <c r="E49" t="s">
         <v>72</v>
@@ -1655,17 +1690,17 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="B50" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C50" s="3">
-        <v>320</v>
+        <v>137</v>
       </c>
       <c r="D50" s="7">
-        <f t="shared" si="2"/>
-        <v>1.2500000000000001E-2</v>
+        <f>IFERROR(B50/C50," ")</f>
+        <v>1.4598540145985401E-2</v>
       </c>
       <c r="E50" t="s">
         <v>72</v>
@@ -1673,17 +1708,17 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B51" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C51" s="3">
-        <v>160</v>
+        <v>276</v>
       </c>
       <c r="D51" s="7">
-        <f t="shared" si="2"/>
-        <v>1.2500000000000001E-2</v>
+        <f>IFERROR(B51/C51," ")</f>
+        <v>1.4492753623188406E-2</v>
       </c>
       <c r="E51" t="s">
         <v>72</v>
@@ -1691,17 +1726,17 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="B52" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C52" s="3">
-        <v>336</v>
+        <v>208</v>
       </c>
       <c r="D52" s="7">
-        <f t="shared" si="2"/>
-        <v>1.1904761904761904E-2</v>
+        <f>IFERROR(B52/C52," ")</f>
+        <v>1.4423076923076924E-2</v>
       </c>
       <c r="E52" t="s">
         <v>72</v>
@@ -1709,17 +1744,17 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B53" s="3">
         <v>3</v>
       </c>
       <c r="C53" s="3">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="D53" s="7">
-        <f t="shared" si="2"/>
-        <v>1.171875E-2</v>
+        <f>IFERROR(B53/C53," ")</f>
+        <v>1.4084507042253521E-2</v>
       </c>
       <c r="E53" t="s">
         <v>72</v>
@@ -1727,17 +1762,17 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B54" s="3">
         <v>3</v>
       </c>
       <c r="C54" s="3">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="D54" s="7">
-        <f t="shared" si="2"/>
-        <v>1.171875E-2</v>
+        <f>IFERROR(B54/C54," ")</f>
+        <v>1.3636363636363636E-2</v>
       </c>
       <c r="E54" t="s">
         <v>72</v>
@@ -1745,17 +1780,17 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B55" s="3">
         <v>5</v>
       </c>
       <c r="C55" s="3">
-        <v>432</v>
+        <v>368</v>
       </c>
       <c r="D55" s="7">
-        <f t="shared" si="2"/>
-        <v>1.1574074074074073E-2</v>
+        <f>IFERROR(B55/C55," ")</f>
+        <v>1.358695652173913E-2</v>
       </c>
       <c r="E55" t="s">
         <v>72</v>
@@ -1763,17 +1798,17 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B56" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C56" s="3">
-        <v>264</v>
+        <v>320</v>
       </c>
       <c r="D56" s="7">
-        <f t="shared" si="2"/>
-        <v>1.1363636363636364E-2</v>
+        <f>IFERROR(B56/C56," ")</f>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="E56" t="s">
         <v>72</v>
@@ -1781,17 +1816,17 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="B57" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C57" s="3">
-        <v>352</v>
+        <v>160</v>
       </c>
       <c r="D57" s="7">
-        <f t="shared" si="2"/>
-        <v>1.1363636363636364E-2</v>
+        <f>IFERROR(B57/C57," ")</f>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="E57" t="s">
         <v>72</v>
@@ -1799,17 +1834,17 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C58" s="3">
-        <v>266</v>
+        <v>336</v>
       </c>
       <c r="D58" s="7">
-        <f t="shared" si="2"/>
-        <v>1.1278195488721804E-2</v>
+        <f>IFERROR(B58/C58," ")</f>
+        <v>1.1904761904761904E-2</v>
       </c>
       <c r="E58" t="s">
         <v>72</v>
@@ -1817,17 +1852,17 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="B59" s="3">
         <v>3</v>
       </c>
       <c r="C59" s="3">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="D59" s="7">
-        <f t="shared" si="2"/>
-        <v>1.0830324909747292E-2</v>
+        <f>IFERROR(B59/C59," ")</f>
+        <v>1.171875E-2</v>
       </c>
       <c r="E59" t="s">
         <v>72</v>
@@ -1835,17 +1870,17 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="B60" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C60" s="3">
-        <v>384</v>
+        <v>256</v>
       </c>
       <c r="D60" s="7">
-        <f t="shared" si="2"/>
-        <v>1.0416666666666666E-2</v>
+        <f>IFERROR(B60/C60," ")</f>
+        <v>1.171875E-2</v>
       </c>
       <c r="E60" t="s">
         <v>72</v>
@@ -1853,17 +1888,17 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B61" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C61" s="3">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="D61" s="7">
-        <f t="shared" si="2"/>
-        <v>1.0416666666666666E-2</v>
+        <f>IFERROR(B61/C61," ")</f>
+        <v>1.1574074074074073E-2</v>
       </c>
       <c r="E61" t="s">
         <v>72</v>
@@ -1871,17 +1906,17 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B62" s="3">
         <v>3</v>
       </c>
       <c r="C62" s="3">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="D62" s="7">
-        <f t="shared" si="2"/>
-        <v>1.0416666666666666E-2</v>
+        <f>IFERROR(B62/C62," ")</f>
+        <v>1.1363636363636364E-2</v>
       </c>
       <c r="E62" t="s">
         <v>72</v>
@@ -1889,17 +1924,17 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B63" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C63" s="3">
-        <v>288</v>
+        <v>352</v>
       </c>
       <c r="D63" s="7">
-        <f t="shared" si="2"/>
-        <v>1.0416666666666666E-2</v>
+        <f>IFERROR(B63/C63," ")</f>
+        <v>1.1363636363636364E-2</v>
       </c>
       <c r="E63" t="s">
         <v>72</v>
@@ -1907,17 +1942,17 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="B64" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C64" s="3">
-        <v>400</v>
+        <v>266</v>
       </c>
       <c r="D64" s="7">
-        <f t="shared" si="2"/>
-        <v>0.01</v>
+        <f>IFERROR(B64/C64," ")</f>
+        <v>1.1278195488721804E-2</v>
       </c>
       <c r="E64" t="s">
         <v>72</v>
@@ -1925,17 +1960,17 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B65" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C65" s="3">
-        <v>200</v>
+        <v>277</v>
       </c>
       <c r="D65" s="7">
-        <f t="shared" si="2"/>
-        <v>0.01</v>
+        <f>IFERROR(B65/C65," ")</f>
+        <v>1.0830324909747292E-2</v>
       </c>
       <c r="E65" t="s">
         <v>72</v>
@@ -1943,17 +1978,17 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="B66" s="3">
         <v>4</v>
       </c>
       <c r="C66" s="3">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="D66" s="7">
-        <f t="shared" si="2"/>
-        <v>0.01</v>
+        <f>IFERROR(B66/C66," ")</f>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E66" t="s">
         <v>72</v>
@@ -1961,17 +1996,17 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B67" s="3">
         <v>4</v>
       </c>
       <c r="C67" s="3">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="D67" s="7">
-        <f t="shared" si="2"/>
-        <v>9.6153846153846159E-3</v>
+        <f>IFERROR(B67/C67," ")</f>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E67" t="s">
         <v>72</v>
@@ -1979,17 +2014,17 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B68" s="8">
-        <v>2</v>
+        <v>42</v>
+      </c>
+      <c r="B68" s="3">
+        <v>3</v>
       </c>
       <c r="C68" s="3">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="D68" s="7">
-        <f t="shared" si="2"/>
-        <v>9.6153846153846159E-3</v>
+        <f>IFERROR(B68/C68," ")</f>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E68" t="s">
         <v>72</v>
@@ -1997,17 +2032,17 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B69" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C69" s="3">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="D69" s="7">
-        <f t="shared" si="2"/>
-        <v>9.6153846153846159E-3</v>
+        <f>IFERROR(B69/C69," ")</f>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E69" t="s">
         <v>72</v>
@@ -2015,17 +2050,17 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="B70" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C70" s="3">
-        <v>312</v>
+        <v>400</v>
       </c>
       <c r="D70" s="7">
-        <f t="shared" si="2"/>
-        <v>9.6153846153846159E-3</v>
+        <f>IFERROR(B70/C70," ")</f>
+        <v>0.01</v>
       </c>
       <c r="E70" t="s">
         <v>72</v>
@@ -2033,17 +2068,17 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B71" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71" s="3">
-        <v>316</v>
+        <v>200</v>
       </c>
       <c r="D71" s="7">
-        <f t="shared" si="2"/>
-        <v>9.4936708860759497E-3</v>
+        <f>IFERROR(B71/C71," ")</f>
+        <v>0.01</v>
       </c>
       <c r="E71" t="s">
         <v>72</v>
@@ -2051,17 +2086,17 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B72" s="3">
         <v>4</v>
       </c>
       <c r="C72" s="3">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="D72" s="7">
-        <f t="shared" si="2"/>
-        <v>9.2592592592592587E-3</v>
+        <f>IFERROR(B72/C72," ")</f>
+        <v>0.01</v>
       </c>
       <c r="E72" t="s">
         <v>72</v>
@@ -2069,17 +2104,17 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B73" s="3">
         <v>4</v>
       </c>
       <c r="C73" s="3">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="D73" s="7">
-        <f t="shared" si="2"/>
-        <v>9.1743119266055051E-3</v>
+        <f>IFERROR(B73/C73," ")</f>
+        <v>9.6153846153846159E-3</v>
       </c>
       <c r="E73" t="s">
         <v>72</v>
@@ -2087,17 +2122,17 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" s="3">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="B74" s="8">
+        <v>2</v>
       </c>
       <c r="C74" s="3">
-        <v>444</v>
+        <v>208</v>
       </c>
       <c r="D74" s="7">
-        <f t="shared" si="2"/>
-        <v>9.0090090090090089E-3</v>
+        <f>IFERROR(B74/C74," ")</f>
+        <v>9.6153846153846159E-3</v>
       </c>
       <c r="E74" t="s">
         <v>72</v>
@@ -2105,17 +2140,17 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B75" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" s="3">
-        <v>336</v>
+        <v>208</v>
       </c>
       <c r="D75" s="7">
-        <f t="shared" si="2"/>
-        <v>8.9285714285714281E-3</v>
+        <f>IFERROR(B75/C75," ")</f>
+        <v>9.6153846153846159E-3</v>
       </c>
       <c r="E75" t="s">
         <v>72</v>
@@ -2123,17 +2158,17 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="B76" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C76" s="3">
-        <v>225</v>
+        <v>312</v>
       </c>
       <c r="D76" s="7">
-        <f t="shared" si="2"/>
-        <v>8.8888888888888889E-3</v>
+        <f>IFERROR(B76/C76," ")</f>
+        <v>9.6153846153846159E-3</v>
       </c>
       <c r="E76" t="s">
         <v>72</v>
@@ -2141,17 +2176,17 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B77" s="3">
         <v>3</v>
       </c>
       <c r="C77" s="3">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="D77" s="7">
-        <f t="shared" si="2"/>
-        <v>8.7209302325581394E-3</v>
+        <f>IFERROR(B77/C77," ")</f>
+        <v>9.4936708860759497E-3</v>
       </c>
       <c r="E77" t="s">
         <v>72</v>
@@ -2159,17 +2194,17 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="B78" s="3">
         <v>4</v>
       </c>
       <c r="C78" s="3">
-        <v>464</v>
+        <v>432</v>
       </c>
       <c r="D78" s="7">
-        <f t="shared" si="2"/>
-        <v>8.6206896551724137E-3</v>
+        <f>IFERROR(B78/C78," ")</f>
+        <v>9.2592592592592587E-3</v>
       </c>
       <c r="E78" t="s">
         <v>72</v>
@@ -2177,17 +2212,17 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B79" s="3">
         <v>4</v>
       </c>
       <c r="C79" s="3">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="D79" s="7">
-        <f t="shared" si="2"/>
-        <v>8.6206896551724137E-3</v>
+        <f>IFERROR(B79/C79," ")</f>
+        <v>9.1743119266055051E-3</v>
       </c>
       <c r="E79" t="s">
         <v>72</v>
@@ -2195,17 +2230,17 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B80" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C80" s="3">
-        <v>352</v>
+        <v>444</v>
       </c>
       <c r="D80" s="7">
-        <f t="shared" ref="D80:D129" si="3">IFERROR(B80/C80," ")</f>
-        <v>8.5227272727272721E-3</v>
+        <f>IFERROR(B80/C80," ")</f>
+        <v>9.0090090090090089E-3</v>
       </c>
       <c r="E80" t="s">
         <v>72</v>
@@ -2213,17 +2248,17 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="B81" s="3">
         <v>3</v>
       </c>
       <c r="C81" s="3">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="D81" s="7">
-        <f t="shared" si="3"/>
-        <v>8.5227272727272721E-3</v>
+        <f>IFERROR(B81/C81," ")</f>
+        <v>8.9285714285714281E-3</v>
       </c>
       <c r="E81" t="s">
         <v>72</v>
@@ -2231,17 +2266,17 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="B82" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C82" s="3">
-        <v>480</v>
+        <v>225</v>
       </c>
       <c r="D82" s="7">
-        <f t="shared" si="3"/>
-        <v>8.3333333333333332E-3</v>
+        <f>IFERROR(B82/C82," ")</f>
+        <v>8.8888888888888889E-3</v>
       </c>
       <c r="E82" t="s">
         <v>72</v>
@@ -2249,17 +2284,17 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="B83" s="3">
         <v>3</v>
       </c>
       <c r="C83" s="3">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="D83" s="7">
-        <f t="shared" si="3"/>
-        <v>8.3333333333333332E-3</v>
+        <f>IFERROR(B83/C83," ")</f>
+        <v>8.7209302325581394E-3</v>
       </c>
       <c r="E83" t="s">
         <v>72</v>
@@ -2267,17 +2302,17 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B84" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C84" s="3">
-        <v>240</v>
+        <v>464</v>
       </c>
       <c r="D84" s="7">
-        <f t="shared" si="3"/>
-        <v>8.3333333333333332E-3</v>
+        <f>IFERROR(B84/C84," ")</f>
+        <v>8.6206896551724137E-3</v>
       </c>
       <c r="E84" t="s">
         <v>72</v>
@@ -2285,17 +2320,17 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="B85" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C85" s="3">
-        <v>368</v>
+        <v>464</v>
       </c>
       <c r="D85" s="7">
-        <f t="shared" si="3"/>
-        <v>8.152173913043478E-3</v>
+        <f>IFERROR(B85/C85," ")</f>
+        <v>8.6206896551724137E-3</v>
       </c>
       <c r="E85" t="s">
         <v>72</v>
@@ -2303,17 +2338,17 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B86" s="3">
         <v>3</v>
       </c>
       <c r="C86" s="3">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="D86" s="7">
-        <f t="shared" si="3"/>
-        <v>8.152173913043478E-3</v>
+        <f>IFERROR(B86/C86," ")</f>
+        <v>8.5227272727272721E-3</v>
       </c>
       <c r="E86" t="s">
         <v>72</v>
@@ -2321,17 +2356,17 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B87" s="3">
         <v>3</v>
       </c>
       <c r="C87" s="3">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="D87" s="7">
-        <f t="shared" si="3"/>
-        <v>8.0862533692722376E-3</v>
+        <f>IFERROR(B87/C87," ")</f>
+        <v>8.5227272727272721E-3</v>
       </c>
       <c r="E87" t="s">
         <v>72</v>
@@ -2339,17 +2374,17 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B88" s="3">
         <v>4</v>
       </c>
       <c r="C88" s="3">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="D88" s="7">
-        <f t="shared" si="3"/>
-        <v>8.0160320641282558E-3</v>
+        <f>IFERROR(B88/C88," ")</f>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E88" t="s">
         <v>72</v>
@@ -2357,17 +2392,17 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B89" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C89" s="3">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="D89" s="7">
-        <f t="shared" si="3"/>
-        <v>8.0000000000000002E-3</v>
+        <f>IFERROR(B89/C89," ")</f>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E89" t="s">
         <v>72</v>
@@ -2375,17 +2410,17 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B90" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C90" s="3">
-        <v>512</v>
+        <v>240</v>
       </c>
       <c r="D90" s="7">
-        <f t="shared" si="3"/>
-        <v>7.8125E-3</v>
+        <f>IFERROR(B90/C90," ")</f>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E90" t="s">
         <v>72</v>
@@ -2393,17 +2428,17 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="B91" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C91" s="3">
-        <v>512</v>
+        <v>368</v>
       </c>
       <c r="D91" s="7">
-        <f t="shared" si="3"/>
-        <v>7.8125E-3</v>
+        <f>IFERROR(B91/C91," ")</f>
+        <v>8.152173913043478E-3</v>
       </c>
       <c r="E91" t="s">
         <v>72</v>
@@ -2411,17 +2446,17 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B92" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C92" s="3">
-        <v>264</v>
+        <v>368</v>
       </c>
       <c r="D92" s="7">
-        <f t="shared" si="3"/>
-        <v>7.575757575757576E-3</v>
+        <f>IFERROR(B92/C92," ")</f>
+        <v>8.152173913043478E-3</v>
       </c>
       <c r="E92" t="s">
         <v>72</v>
@@ -2429,17 +2464,17 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="B93" s="3">
         <v>3</v>
       </c>
       <c r="C93" s="3">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="D93" s="7">
-        <f t="shared" si="3"/>
-        <v>7.4999999999999997E-3</v>
+        <f>IFERROR(B93/C93," ")</f>
+        <v>8.0862533692722376E-3</v>
       </c>
       <c r="E93" t="s">
         <v>72</v>
@@ -2447,17 +2482,17 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="B94" s="3">
         <v>4</v>
       </c>
       <c r="C94" s="3">
-        <v>544</v>
+        <v>499</v>
       </c>
       <c r="D94" s="7">
-        <f t="shared" si="3"/>
-        <v>7.3529411764705881E-3</v>
+        <f>IFERROR(B94/C94," ")</f>
+        <v>8.0160320641282558E-3</v>
       </c>
       <c r="E94" t="s">
         <v>72</v>
@@ -2465,17 +2500,17 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="B95" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C95" s="3">
-        <v>416</v>
+        <v>250</v>
       </c>
       <c r="D95" s="7">
-        <f t="shared" si="3"/>
-        <v>7.2115384615384619E-3</v>
+        <f>IFERROR(B95/C95," ")</f>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E95" t="s">
         <v>72</v>
@@ -2483,17 +2518,17 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B96" s="3">
         <v>4</v>
       </c>
       <c r="C96" s="3">
-        <v>560</v>
+        <v>512</v>
       </c>
       <c r="D96" s="7">
-        <f t="shared" si="3"/>
-        <v>7.1428571428571426E-3</v>
+        <f>IFERROR(B96/C96," ")</f>
+        <v>7.8125E-3</v>
       </c>
       <c r="E96" t="s">
         <v>72</v>
@@ -2501,17 +2536,17 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="B97" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C97" s="3">
-        <v>284</v>
+        <v>512</v>
       </c>
       <c r="D97" s="7">
-        <f t="shared" si="3"/>
-        <v>7.0422535211267607E-3</v>
+        <f>IFERROR(B97/C97," ")</f>
+        <v>7.8125E-3</v>
       </c>
       <c r="E97" t="s">
         <v>72</v>
@@ -2519,17 +2554,17 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B98" s="3">
         <v>2</v>
       </c>
       <c r="C98" s="3">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="D98" s="7">
-        <f t="shared" si="3"/>
-        <v>6.9444444444444441E-3</v>
+        <f>IFERROR(B98/C98," ")</f>
+        <v>7.575757575757576E-3</v>
       </c>
       <c r="E98" t="s">
         <v>72</v>
@@ -2537,17 +2572,17 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="B99" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C99" s="3">
-        <v>736</v>
+        <v>400</v>
       </c>
       <c r="D99" s="7">
-        <f t="shared" si="3"/>
-        <v>6.793478260869565E-3</v>
+        <f>IFERROR(B99/C99," ")</f>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="E99" t="s">
         <v>72</v>
@@ -2555,17 +2590,17 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B100" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C100" s="3">
-        <v>148</v>
+        <v>544</v>
       </c>
       <c r="D100" s="7">
-        <f t="shared" si="3"/>
-        <v>6.7567567567567571E-3</v>
+        <f>IFERROR(B100/C100," ")</f>
+        <v>7.3529411764705881E-3</v>
       </c>
       <c r="E100" t="s">
         <v>72</v>
@@ -2573,17 +2608,17 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B101" s="3">
         <v>3</v>
       </c>
       <c r="C101" s="3">
-        <v>450</v>
+        <v>416</v>
       </c>
       <c r="D101" s="7">
-        <f t="shared" si="3"/>
-        <v>6.6666666666666671E-3</v>
+        <f>IFERROR(B101/C101," ")</f>
+        <v>7.2115384615384619E-3</v>
       </c>
       <c r="E101" t="s">
         <v>72</v>
@@ -2591,17 +2626,17 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="B102" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C102" s="3">
-        <v>464</v>
+        <v>560</v>
       </c>
       <c r="D102" s="7">
-        <f t="shared" si="3"/>
-        <v>6.4655172413793103E-3</v>
+        <f>IFERROR(B102/C102," ")</f>
+        <v>7.1428571428571426E-3</v>
       </c>
       <c r="E102" t="s">
         <v>72</v>
@@ -2609,17 +2644,17 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B103" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C103" s="3">
-        <v>480</v>
+        <v>284</v>
       </c>
       <c r="D103" s="7">
-        <f t="shared" si="3"/>
-        <v>6.2500000000000003E-3</v>
+        <f>IFERROR(B103/C103," ")</f>
+        <v>7.0422535211267607E-3</v>
       </c>
       <c r="E103" t="s">
         <v>72</v>
@@ -2627,17 +2662,17 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B104" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C104" s="3">
-        <v>480</v>
+        <v>288</v>
       </c>
       <c r="D104" s="7">
-        <f t="shared" si="3"/>
-        <v>6.2500000000000003E-3</v>
+        <f>IFERROR(B104/C104," ")</f>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="E104" t="s">
         <v>72</v>
@@ -2645,17 +2680,17 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="B105" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C105" s="3">
-        <v>488</v>
+        <v>736</v>
       </c>
       <c r="D105" s="7">
-        <f t="shared" si="3"/>
-        <v>6.1475409836065573E-3</v>
+        <f>IFERROR(B105/C105," ")</f>
+        <v>6.793478260869565E-3</v>
       </c>
       <c r="E105" t="s">
         <v>72</v>
@@ -2663,17 +2698,17 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B106" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" s="3">
-        <v>332</v>
+        <v>148</v>
       </c>
       <c r="D106" s="7">
-        <f t="shared" si="3"/>
-        <v>6.024096385542169E-3</v>
+        <f>IFERROR(B106/C106," ")</f>
+        <v>6.7567567567567571E-3</v>
       </c>
       <c r="E106" t="s">
         <v>72</v>
@@ -2681,17 +2716,17 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B107" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C107" s="3">
-        <v>332</v>
+        <v>450</v>
       </c>
       <c r="D107" s="7">
-        <f t="shared" si="3"/>
-        <v>6.024096385542169E-3</v>
+        <f>IFERROR(B107/C107," ")</f>
+        <v>6.6666666666666671E-3</v>
       </c>
       <c r="E107" t="s">
         <v>72</v>
@@ -2699,17 +2734,17 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B108" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C108" s="3">
-        <v>344</v>
+        <v>464</v>
       </c>
       <c r="D108" s="7">
-        <f t="shared" si="3"/>
-        <v>5.8139534883720929E-3</v>
+        <f>IFERROR(B108/C108," ")</f>
+        <v>6.4655172413793103E-3</v>
       </c>
       <c r="E108" t="s">
         <v>72</v>
@@ -2717,17 +2752,17 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B109" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C109" s="3">
-        <v>704</v>
+        <v>480</v>
       </c>
       <c r="D109" s="7">
-        <f t="shared" si="3"/>
-        <v>5.681818181818182E-3</v>
+        <f>IFERROR(B109/C109," ")</f>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="E109" t="s">
         <v>72</v>
@@ -2735,17 +2770,17 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="B110" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C110" s="3">
-        <v>366</v>
+        <v>480</v>
       </c>
       <c r="D110" s="7">
-        <f t="shared" si="3"/>
-        <v>5.4644808743169399E-3</v>
+        <f>IFERROR(B110/C110," ")</f>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="E110" t="s">
         <v>72</v>
@@ -2753,17 +2788,17 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="B111" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C111" s="3">
-        <v>736</v>
+        <v>488</v>
       </c>
       <c r="D111" s="7">
-        <f t="shared" si="3"/>
-        <v>5.434782608695652E-3</v>
+        <f>IFERROR(B111/C111," ")</f>
+        <v>6.1475409836065573E-3</v>
       </c>
       <c r="E111" t="s">
         <v>72</v>
@@ -2771,17 +2806,17 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B112" s="3">
         <v>2</v>
       </c>
       <c r="C112" s="3">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="D112" s="7">
-        <f t="shared" si="3"/>
-        <v>5.3619302949061663E-3</v>
+        <f>IFERROR(B112/C112," ")</f>
+        <v>6.024096385542169E-3</v>
       </c>
       <c r="E112" t="s">
         <v>72</v>
@@ -2789,17 +2824,17 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="B113" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C113" s="3">
-        <v>560</v>
+        <v>332</v>
       </c>
       <c r="D113" s="7">
-        <f t="shared" si="3"/>
-        <v>5.3571428571428572E-3</v>
+        <f>IFERROR(B113/C113," ")</f>
+        <v>6.024096385542169E-3</v>
       </c>
       <c r="E113" t="s">
         <v>72</v>
@@ -2807,17 +2842,17 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="B114" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C114" s="3">
-        <v>560</v>
+        <v>344</v>
       </c>
       <c r="D114" s="7">
-        <f t="shared" si="3"/>
-        <v>5.3571428571428572E-3</v>
+        <f>IFERROR(B114/C114," ")</f>
+        <v>5.8139534883720929E-3</v>
       </c>
       <c r="E114" t="s">
         <v>72</v>
@@ -2825,17 +2860,17 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B115" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C115" s="3">
-        <v>576</v>
+        <v>704</v>
       </c>
       <c r="D115" s="7">
-        <f t="shared" si="3"/>
-        <v>5.208333333333333E-3</v>
+        <f>IFERROR(B115/C115," ")</f>
+        <v>5.681818181818182E-3</v>
       </c>
       <c r="E115" t="s">
         <v>72</v>
@@ -2843,17 +2878,17 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="B116" s="3">
         <v>2</v>
       </c>
       <c r="C116" s="3">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="D116" s="7">
-        <f t="shared" si="3"/>
-        <v>5.208333333333333E-3</v>
+        <f>IFERROR(B116/C116," ")</f>
+        <v>5.4644808743169399E-3</v>
       </c>
       <c r="E116" t="s">
         <v>72</v>
@@ -2861,17 +2896,17 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B117" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C117" s="3">
-        <v>200</v>
+        <v>736</v>
       </c>
       <c r="D117" s="7">
-        <f t="shared" si="3"/>
-        <v>5.0000000000000001E-3</v>
+        <f>IFERROR(B117/C117," ")</f>
+        <v>5.434782608695652E-3</v>
       </c>
       <c r="E117" t="s">
         <v>72</v>
@@ -2879,17 +2914,17 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B118" s="3">
         <v>2</v>
       </c>
       <c r="C118" s="3">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="D118" s="7">
-        <f t="shared" si="3"/>
-        <v>5.0000000000000001E-3</v>
+        <f>IFERROR(B118/C118," ")</f>
+        <v>5.3619302949061663E-3</v>
       </c>
       <c r="E118" t="s">
         <v>72</v>
@@ -2897,17 +2932,17 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B119" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C119" s="3">
-        <v>416</v>
+        <v>560</v>
       </c>
       <c r="D119" s="7">
-        <f t="shared" si="3"/>
-        <v>4.807692307692308E-3</v>
+        <f>IFERROR(B119/C119," ")</f>
+        <v>5.3571428571428572E-3</v>
       </c>
       <c r="E119" t="s">
         <v>72</v>
@@ -2915,17 +2950,17 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B120" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C120" s="3">
-        <v>416</v>
+        <v>560</v>
       </c>
       <c r="D120" s="7">
-        <f t="shared" si="3"/>
-        <v>4.807692307692308E-3</v>
+        <f>IFERROR(B120/C120," ")</f>
+        <v>5.3571428571428572E-3</v>
       </c>
       <c r="E120" t="s">
         <v>72</v>
@@ -2933,17 +2968,17 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="B121" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C121" s="3">
-        <v>848</v>
+        <v>576</v>
       </c>
       <c r="D121" s="7">
-        <f t="shared" si="3"/>
-        <v>4.7169811320754715E-3</v>
+        <f>IFERROR(B121/C121," ")</f>
+        <v>5.208333333333333E-3</v>
       </c>
       <c r="E121" t="s">
         <v>72</v>
@@ -2951,17 +2986,17 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="B122" s="3">
         <v>2</v>
       </c>
       <c r="C122" s="3">
-        <v>440</v>
+        <v>384</v>
       </c>
       <c r="D122" s="7">
-        <f t="shared" si="3"/>
-        <v>4.5454545454545452E-3</v>
+        <f>IFERROR(B122/C122," ")</f>
+        <v>5.208333333333333E-3</v>
       </c>
       <c r="E122" t="s">
         <v>72</v>
@@ -2969,17 +3004,17 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B123" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C123" s="3">
-        <v>456</v>
+        <v>200</v>
       </c>
       <c r="D123" s="7">
-        <f t="shared" si="3"/>
-        <v>4.3859649122807015E-3</v>
+        <f>IFERROR(B123/C123," ")</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E123" t="s">
         <v>72</v>
@@ -2987,17 +3022,17 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B124" s="3">
         <v>2</v>
       </c>
       <c r="C124" s="3">
-        <v>528</v>
+        <v>400</v>
       </c>
       <c r="D124" s="7">
-        <f t="shared" si="3"/>
-        <v>3.787878787878788E-3</v>
+        <f>IFERROR(B124/C124," ")</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E124" t="s">
         <v>72</v>
@@ -3005,17 +3040,17 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B125" s="3">
         <v>2</v>
       </c>
       <c r="C125" s="3">
-        <v>544</v>
+        <v>416</v>
       </c>
       <c r="D125" s="7">
-        <f t="shared" si="3"/>
-        <v>3.6764705882352941E-3</v>
+        <f>IFERROR(B125/C125," ")</f>
+        <v>4.807692307692308E-3</v>
       </c>
       <c r="E125" t="s">
         <v>72</v>
@@ -3023,17 +3058,17 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="B126" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C126" s="3">
-        <v>848</v>
+        <v>416</v>
       </c>
       <c r="D126" s="7">
-        <f t="shared" si="3"/>
-        <v>3.5377358490566039E-3</v>
+        <f>IFERROR(B126/C126," ")</f>
+        <v>4.807692307692308E-3</v>
       </c>
       <c r="E126" t="s">
         <v>72</v>
@@ -3041,17 +3076,17 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B127" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C127" s="3">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="D127" s="7">
-        <f t="shared" si="3"/>
-        <v>3.472222222222222E-3</v>
+        <f>IFERROR(B127/C127," ")</f>
+        <v>4.7169811320754715E-3</v>
       </c>
       <c r="E127" t="s">
         <v>72</v>
@@ -3059,17 +3094,17 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="B128" s="3">
         <v>2</v>
       </c>
       <c r="C128" s="3">
-        <v>616</v>
+        <v>440</v>
       </c>
       <c r="D128" s="7">
-        <f t="shared" si="3"/>
-        <v>3.246753246753247E-3</v>
+        <f>IFERROR(B128/C128," ")</f>
+        <v>4.5454545454545452E-3</v>
       </c>
       <c r="E128" t="s">
         <v>72</v>
@@ -3077,17 +3112,17 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B129" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C129" s="3">
-        <v>320</v>
+        <v>456</v>
       </c>
       <c r="D129" s="7">
-        <f t="shared" si="3"/>
-        <v>3.1250000000000002E-3</v>
+        <f>IFERROR(B129/C129," ")</f>
+        <v>4.3859649122807015E-3</v>
       </c>
       <c r="E129" t="s">
         <v>72</v>
@@ -3629,19 +3664,127 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B219" s="3">
+        <v>2</v>
+      </c>
+      <c r="C219" s="3">
+        <v>528</v>
+      </c>
+      <c r="D219" s="7">
+        <f>IFERROR(B219/C219," ")</f>
+        <v>3.787878787878788E-3</v>
+      </c>
+      <c r="E219" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B220" s="3">
+        <v>2</v>
+      </c>
+      <c r="C220" s="3">
+        <v>544</v>
+      </c>
+      <c r="D220" s="7">
+        <f>IFERROR(B220/C220," ")</f>
+        <v>3.6764705882352941E-3</v>
+      </c>
+      <c r="E220" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B221" s="3">
+        <v>3</v>
+      </c>
+      <c r="C221" s="3">
+        <v>848</v>
+      </c>
+      <c r="D221" s="7">
+        <f>IFERROR(B221/C221," ")</f>
+        <v>3.5377358490566039E-3</v>
+      </c>
+      <c r="E221" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B222" s="3">
+        <v>3</v>
+      </c>
+      <c r="C222" s="3">
+        <v>864</v>
+      </c>
+      <c r="D222" s="7">
+        <f>IFERROR(B222/C222," ")</f>
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E222" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B223" s="3">
+        <v>2</v>
+      </c>
+      <c r="C223" s="3">
+        <v>616</v>
+      </c>
+      <c r="D223" s="7">
+        <f>IFERROR(B223/C223," ")</f>
+        <v>3.246753246753247E-3</v>
+      </c>
+      <c r="E223" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B224" s="3">
+        <v>1</v>
+      </c>
+      <c r="C224" s="3">
+        <v>320</v>
+      </c>
+      <c r="D224" s="7">
+        <f>IFERROR(B224/C224," ")</f>
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="E224" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B219" s="3">
-        <v>3</v>
-      </c>
-      <c r="C219" s="3">
+      <c r="B225" s="3">
+        <v>3</v>
+      </c>
+      <c r="C225" s="3">
         <v>1280</v>
       </c>
-      <c r="D219" s="7">
-        <f t="shared" ref="D219" si="4">IFERROR(B219/C219," ")</f>
+      <c r="D225" s="7">
+        <f>IFERROR(B225/C225," ")</f>
         <v>2.3437499999999999E-3</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E225" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3657,7 +3800,7 @@
         <filter val="No"/>
       </filters>
     </filterColumn>
-    <sortState ref="A14:E219">
+    <sortState ref="A14:E225">
       <sortCondition descending="1" ref="D2:D218"/>
     </sortState>
   </autoFilter>

--- a/Book Ranking.xlsx
+++ b/Book Ranking.xlsx
@@ -459,7 +459,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,25 +475,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -505,11 +493,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -523,12 +510,8 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1131,7 +1114,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" t="s">
         <v>88</v>
       </c>
       <c r="B19" s="3">
@@ -1145,7 +1128,7 @@
         <v>6.8493150684931503E-2</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1177,7 +1160,7 @@
         <v>55</v>
       </c>
       <c r="D21" s="7">
-        <f>IFERROR(B21/C21," ")</f>
+        <f t="shared" ref="D21:D84" si="2">IFERROR(B21/C21," ")</f>
         <v>5.4545454545454543E-2</v>
       </c>
       <c r="E21" t="s">
@@ -1195,7 +1178,7 @@
         <v>74</v>
       </c>
       <c r="D22" s="7">
-        <f>IFERROR(B22/C22," ")</f>
+        <f t="shared" si="2"/>
         <v>5.4054054054054057E-2</v>
       </c>
       <c r="E22" t="s">
@@ -1213,7 +1196,7 @@
         <v>120</v>
       </c>
       <c r="D23" s="7">
-        <f>IFERROR(B23/C23," ")</f>
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E23" t="s">
@@ -1231,7 +1214,7 @@
         <v>72</v>
       </c>
       <c r="D24" s="7">
-        <f>IFERROR(B24/C24," ")</f>
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E24" t="s">
@@ -1249,7 +1232,7 @@
         <v>128</v>
       </c>
       <c r="D25" s="7">
-        <f>IFERROR(B25/C25," ")</f>
+        <f t="shared" si="2"/>
         <v>3.90625E-2</v>
       </c>
       <c r="E25" t="s">
@@ -1267,7 +1250,7 @@
         <v>133</v>
       </c>
       <c r="D26" s="7">
-        <f>IFERROR(B26/C26," ")</f>
+        <f t="shared" si="2"/>
         <v>3.7593984962406013E-2</v>
       </c>
       <c r="E26" t="s">
@@ -1285,7 +1268,7 @@
         <v>132</v>
       </c>
       <c r="D27" s="7">
-        <f>IFERROR(B27/C27," ")</f>
+        <f t="shared" si="2"/>
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="E27" t="s">
@@ -1303,7 +1286,7 @@
         <v>160</v>
       </c>
       <c r="D28" s="7">
-        <f>IFERROR(B28/C28," ")</f>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E28" t="s">
@@ -1321,7 +1304,7 @@
         <v>80</v>
       </c>
       <c r="D29" s="7">
-        <f>IFERROR(B29/C29," ")</f>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E29" t="s">
@@ -1339,7 +1322,7 @@
         <v>124</v>
       </c>
       <c r="D30" s="7">
-        <f>IFERROR(B30/C30," ")</f>
+        <f t="shared" si="2"/>
         <v>2.4193548387096774E-2</v>
       </c>
       <c r="E30" t="s">
@@ -1357,7 +1340,7 @@
         <v>208</v>
       </c>
       <c r="D31" s="7">
-        <f>IFERROR(B31/C31," ")</f>
+        <f t="shared" si="2"/>
         <v>2.403846153846154E-2</v>
       </c>
       <c r="E31" t="s">
@@ -1375,7 +1358,7 @@
         <v>128</v>
       </c>
       <c r="D32" s="7">
-        <f>IFERROR(B32/C32," ")</f>
+        <f t="shared" si="2"/>
         <v>2.34375E-2</v>
       </c>
       <c r="E32" t="s">
@@ -1393,7 +1376,7 @@
         <v>224</v>
       </c>
       <c r="D33" s="7">
-        <f>IFERROR(B33/C33," ")</f>
+        <f t="shared" si="2"/>
         <v>2.2321428571428572E-2</v>
       </c>
       <c r="E33" t="s">
@@ -1411,7 +1394,7 @@
         <v>228</v>
       </c>
       <c r="D34" s="7">
-        <f>IFERROR(B34/C34," ")</f>
+        <f t="shared" si="2"/>
         <v>2.1929824561403508E-2</v>
       </c>
       <c r="E34" t="s">
@@ -1429,7 +1412,7 @@
         <v>191</v>
       </c>
       <c r="D35" s="7">
-        <f>IFERROR(B35/C35," ")</f>
+        <f t="shared" si="2"/>
         <v>2.0942408376963352E-2</v>
       </c>
       <c r="E35" t="s">
@@ -1447,7 +1430,7 @@
         <v>192</v>
       </c>
       <c r="D36" s="7">
-        <f>IFERROR(B36/C36," ")</f>
+        <f t="shared" si="2"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="E36" t="s">
@@ -1465,7 +1448,7 @@
         <v>198</v>
       </c>
       <c r="D37" s="7">
-        <f>IFERROR(B37/C37," ")</f>
+        <f t="shared" si="2"/>
         <v>2.0202020202020204E-2</v>
       </c>
       <c r="E37" t="s">
@@ -1483,7 +1466,7 @@
         <v>258</v>
       </c>
       <c r="D38" s="7">
-        <f>IFERROR(B38/C38," ")</f>
+        <f t="shared" si="2"/>
         <v>1.937984496124031E-2</v>
       </c>
       <c r="E38" t="s">
@@ -1501,7 +1484,7 @@
         <v>157</v>
       </c>
       <c r="D39" s="7">
-        <f>IFERROR(B39/C39," ")</f>
+        <f t="shared" si="2"/>
         <v>1.9108280254777069E-2</v>
       </c>
       <c r="E39" t="s">
@@ -1519,7 +1502,7 @@
         <v>160</v>
       </c>
       <c r="D40" s="7">
-        <f>IFERROR(B40/C40," ")</f>
+        <f t="shared" si="2"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="E40" t="s">
@@ -1537,7 +1520,7 @@
         <v>224</v>
       </c>
       <c r="D41" s="7">
-        <f>IFERROR(B41/C41," ")</f>
+        <f t="shared" si="2"/>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="E41" t="s">
@@ -1555,7 +1538,7 @@
         <v>226</v>
       </c>
       <c r="D42" s="7">
-        <f>IFERROR(B42/C42," ")</f>
+        <f t="shared" si="2"/>
         <v>1.7699115044247787E-2</v>
       </c>
       <c r="E42" t="s">
@@ -1573,7 +1556,7 @@
         <v>288</v>
       </c>
       <c r="D43" s="7">
-        <f>IFERROR(B43/C43," ")</f>
+        <f t="shared" si="2"/>
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="E43" t="s">
@@ -1591,7 +1574,7 @@
         <v>231</v>
       </c>
       <c r="D44" s="7">
-        <f>IFERROR(B44/C44," ")</f>
+        <f t="shared" si="2"/>
         <v>1.7316017316017316E-2</v>
       </c>
       <c r="E44" t="s">
@@ -1609,7 +1592,7 @@
         <v>181</v>
       </c>
       <c r="D45" s="7">
-        <f>IFERROR(B45/C45," ")</f>
+        <f t="shared" si="2"/>
         <v>1.6574585635359115E-2</v>
       </c>
       <c r="E45" t="s">
@@ -1627,7 +1610,7 @@
         <v>182</v>
       </c>
       <c r="D46" s="7">
-        <f>IFERROR(B46/C46," ")</f>
+        <f t="shared" si="2"/>
         <v>1.6483516483516484E-2</v>
       </c>
       <c r="E46" t="s">
@@ -1645,7 +1628,7 @@
         <v>250</v>
       </c>
       <c r="D47" s="7">
-        <f>IFERROR(B47/C47," ")</f>
+        <f t="shared" si="2"/>
         <v>1.6E-2</v>
       </c>
       <c r="E47" t="s">
@@ -1663,7 +1646,7 @@
         <v>266</v>
       </c>
       <c r="D48" s="7">
-        <f>IFERROR(B48/C48," ")</f>
+        <f t="shared" si="2"/>
         <v>1.5037593984962405E-2</v>
       </c>
       <c r="E48" t="s">
@@ -1681,7 +1664,7 @@
         <v>336</v>
       </c>
       <c r="D49" s="7">
-        <f>IFERROR(B49/C49," ")</f>
+        <f t="shared" si="2"/>
         <v>1.488095238095238E-2</v>
       </c>
       <c r="E49" t="s">
@@ -1699,7 +1682,7 @@
         <v>137</v>
       </c>
       <c r="D50" s="7">
-        <f>IFERROR(B50/C50," ")</f>
+        <f t="shared" si="2"/>
         <v>1.4598540145985401E-2</v>
       </c>
       <c r="E50" t="s">
@@ -1717,7 +1700,7 @@
         <v>276</v>
       </c>
       <c r="D51" s="7">
-        <f>IFERROR(B51/C51," ")</f>
+        <f t="shared" si="2"/>
         <v>1.4492753623188406E-2</v>
       </c>
       <c r="E51" t="s">
@@ -1735,7 +1718,7 @@
         <v>208</v>
       </c>
       <c r="D52" s="7">
-        <f>IFERROR(B52/C52," ")</f>
+        <f t="shared" si="2"/>
         <v>1.4423076923076924E-2</v>
       </c>
       <c r="E52" t="s">
@@ -1753,7 +1736,7 @@
         <v>213</v>
       </c>
       <c r="D53" s="7">
-        <f>IFERROR(B53/C53," ")</f>
+        <f t="shared" si="2"/>
         <v>1.4084507042253521E-2</v>
       </c>
       <c r="E53" t="s">
@@ -1771,7 +1754,7 @@
         <v>220</v>
       </c>
       <c r="D54" s="7">
-        <f>IFERROR(B54/C54," ")</f>
+        <f t="shared" si="2"/>
         <v>1.3636363636363636E-2</v>
       </c>
       <c r="E54" t="s">
@@ -1789,7 +1772,7 @@
         <v>368</v>
       </c>
       <c r="D55" s="7">
-        <f>IFERROR(B55/C55," ")</f>
+        <f t="shared" si="2"/>
         <v>1.358695652173913E-2</v>
       </c>
       <c r="E55" t="s">
@@ -1807,7 +1790,7 @@
         <v>320</v>
       </c>
       <c r="D56" s="7">
-        <f>IFERROR(B56/C56," ")</f>
+        <f t="shared" si="2"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="E56" t="s">
@@ -1825,7 +1808,7 @@
         <v>160</v>
       </c>
       <c r="D57" s="7">
-        <f>IFERROR(B57/C57," ")</f>
+        <f t="shared" si="2"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="E57" t="s">
@@ -1843,7 +1826,7 @@
         <v>336</v>
       </c>
       <c r="D58" s="7">
-        <f>IFERROR(B58/C58," ")</f>
+        <f t="shared" si="2"/>
         <v>1.1904761904761904E-2</v>
       </c>
       <c r="E58" t="s">
@@ -1861,7 +1844,7 @@
         <v>256</v>
       </c>
       <c r="D59" s="7">
-        <f>IFERROR(B59/C59," ")</f>
+        <f t="shared" si="2"/>
         <v>1.171875E-2</v>
       </c>
       <c r="E59" t="s">
@@ -1879,7 +1862,7 @@
         <v>256</v>
       </c>
       <c r="D60" s="7">
-        <f>IFERROR(B60/C60," ")</f>
+        <f t="shared" si="2"/>
         <v>1.171875E-2</v>
       </c>
       <c r="E60" t="s">
@@ -1897,7 +1880,7 @@
         <v>432</v>
       </c>
       <c r="D61" s="7">
-        <f>IFERROR(B61/C61," ")</f>
+        <f t="shared" si="2"/>
         <v>1.1574074074074073E-2</v>
       </c>
       <c r="E61" t="s">
@@ -1915,7 +1898,7 @@
         <v>264</v>
       </c>
       <c r="D62" s="7">
-        <f>IFERROR(B62/C62," ")</f>
+        <f t="shared" si="2"/>
         <v>1.1363636363636364E-2</v>
       </c>
       <c r="E62" t="s">
@@ -1933,7 +1916,7 @@
         <v>352</v>
       </c>
       <c r="D63" s="7">
-        <f>IFERROR(B63/C63," ")</f>
+        <f t="shared" si="2"/>
         <v>1.1363636363636364E-2</v>
       </c>
       <c r="E63" t="s">
@@ -1951,7 +1934,7 @@
         <v>266</v>
       </c>
       <c r="D64" s="7">
-        <f>IFERROR(B64/C64," ")</f>
+        <f t="shared" si="2"/>
         <v>1.1278195488721804E-2</v>
       </c>
       <c r="E64" t="s">
@@ -1969,7 +1952,7 @@
         <v>277</v>
       </c>
       <c r="D65" s="7">
-        <f>IFERROR(B65/C65," ")</f>
+        <f t="shared" si="2"/>
         <v>1.0830324909747292E-2</v>
       </c>
       <c r="E65" t="s">
@@ -1987,7 +1970,7 @@
         <v>384</v>
       </c>
       <c r="D66" s="7">
-        <f>IFERROR(B66/C66," ")</f>
+        <f t="shared" si="2"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E66" t="s">
@@ -2005,7 +1988,7 @@
         <v>384</v>
       </c>
       <c r="D67" s="7">
-        <f>IFERROR(B67/C67," ")</f>
+        <f t="shared" si="2"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E67" t="s">
@@ -2023,7 +2006,7 @@
         <v>288</v>
       </c>
       <c r="D68" s="7">
-        <f>IFERROR(B68/C68," ")</f>
+        <f t="shared" si="2"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E68" t="s">
@@ -2041,7 +2024,7 @@
         <v>288</v>
       </c>
       <c r="D69" s="7">
-        <f>IFERROR(B69/C69," ")</f>
+        <f t="shared" si="2"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E69" t="s">
@@ -2059,7 +2042,7 @@
         <v>400</v>
       </c>
       <c r="D70" s="7">
-        <f>IFERROR(B70/C70," ")</f>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="E70" t="s">
@@ -2077,7 +2060,7 @@
         <v>200</v>
       </c>
       <c r="D71" s="7">
-        <f>IFERROR(B71/C71," ")</f>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="E71" t="s">
@@ -2095,7 +2078,7 @@
         <v>400</v>
       </c>
       <c r="D72" s="7">
-        <f>IFERROR(B72/C72," ")</f>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="E72" t="s">
@@ -2113,7 +2096,7 @@
         <v>416</v>
       </c>
       <c r="D73" s="7">
-        <f>IFERROR(B73/C73," ")</f>
+        <f t="shared" si="2"/>
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="E73" t="s">
@@ -2131,7 +2114,7 @@
         <v>208</v>
       </c>
       <c r="D74" s="7">
-        <f>IFERROR(B74/C74," ")</f>
+        <f t="shared" si="2"/>
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="E74" t="s">
@@ -2149,7 +2132,7 @@
         <v>208</v>
       </c>
       <c r="D75" s="7">
-        <f>IFERROR(B75/C75," ")</f>
+        <f t="shared" si="2"/>
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="E75" t="s">
@@ -2167,7 +2150,7 @@
         <v>312</v>
       </c>
       <c r="D76" s="7">
-        <f>IFERROR(B76/C76," ")</f>
+        <f t="shared" si="2"/>
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="E76" t="s">
@@ -2185,7 +2168,7 @@
         <v>316</v>
       </c>
       <c r="D77" s="7">
-        <f>IFERROR(B77/C77," ")</f>
+        <f t="shared" si="2"/>
         <v>9.4936708860759497E-3</v>
       </c>
       <c r="E77" t="s">
@@ -2203,7 +2186,7 @@
         <v>432</v>
       </c>
       <c r="D78" s="7">
-        <f>IFERROR(B78/C78," ")</f>
+        <f t="shared" si="2"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="E78" t="s">
@@ -2221,7 +2204,7 @@
         <v>436</v>
       </c>
       <c r="D79" s="7">
-        <f>IFERROR(B79/C79," ")</f>
+        <f t="shared" si="2"/>
         <v>9.1743119266055051E-3</v>
       </c>
       <c r="E79" t="s">
@@ -2239,7 +2222,7 @@
         <v>444</v>
       </c>
       <c r="D80" s="7">
-        <f>IFERROR(B80/C80," ")</f>
+        <f t="shared" si="2"/>
         <v>9.0090090090090089E-3</v>
       </c>
       <c r="E80" t="s">
@@ -2257,7 +2240,7 @@
         <v>336</v>
       </c>
       <c r="D81" s="7">
-        <f>IFERROR(B81/C81," ")</f>
+        <f t="shared" si="2"/>
         <v>8.9285714285714281E-3</v>
       </c>
       <c r="E81" t="s">
@@ -2275,7 +2258,7 @@
         <v>225</v>
       </c>
       <c r="D82" s="7">
-        <f>IFERROR(B82/C82," ")</f>
+        <f t="shared" si="2"/>
         <v>8.8888888888888889E-3</v>
       </c>
       <c r="E82" t="s">
@@ -2293,7 +2276,7 @@
         <v>344</v>
       </c>
       <c r="D83" s="7">
-        <f>IFERROR(B83/C83," ")</f>
+        <f t="shared" si="2"/>
         <v>8.7209302325581394E-3</v>
       </c>
       <c r="E83" t="s">
@@ -2311,7 +2294,7 @@
         <v>464</v>
       </c>
       <c r="D84" s="7">
-        <f>IFERROR(B84/C84," ")</f>
+        <f t="shared" si="2"/>
         <v>8.6206896551724137E-3</v>
       </c>
       <c r="E84" t="s">
@@ -2329,7 +2312,7 @@
         <v>464</v>
       </c>
       <c r="D85" s="7">
-        <f>IFERROR(B85/C85," ")</f>
+        <f t="shared" ref="D85:D148" si="3">IFERROR(B85/C85," ")</f>
         <v>8.6206896551724137E-3</v>
       </c>
       <c r="E85" t="s">
@@ -2347,7 +2330,7 @@
         <v>352</v>
       </c>
       <c r="D86" s="7">
-        <f>IFERROR(B86/C86," ")</f>
+        <f t="shared" si="3"/>
         <v>8.5227272727272721E-3</v>
       </c>
       <c r="E86" t="s">
@@ -2365,7 +2348,7 @@
         <v>352</v>
       </c>
       <c r="D87" s="7">
-        <f>IFERROR(B87/C87," ")</f>
+        <f t="shared" si="3"/>
         <v>8.5227272727272721E-3</v>
       </c>
       <c r="E87" t="s">
@@ -2383,7 +2366,7 @@
         <v>480</v>
       </c>
       <c r="D88" s="7">
-        <f>IFERROR(B88/C88," ")</f>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="E88" t="s">
@@ -2401,7 +2384,7 @@
         <v>360</v>
       </c>
       <c r="D89" s="7">
-        <f>IFERROR(B89/C89," ")</f>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="E89" t="s">
@@ -2419,7 +2402,7 @@
         <v>240</v>
       </c>
       <c r="D90" s="7">
-        <f>IFERROR(B90/C90," ")</f>
+        <f t="shared" si="3"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="E90" t="s">
@@ -2437,7 +2420,7 @@
         <v>368</v>
       </c>
       <c r="D91" s="7">
-        <f>IFERROR(B91/C91," ")</f>
+        <f t="shared" si="3"/>
         <v>8.152173913043478E-3</v>
       </c>
       <c r="E91" t="s">
@@ -2455,7 +2438,7 @@
         <v>368</v>
       </c>
       <c r="D92" s="7">
-        <f>IFERROR(B92/C92," ")</f>
+        <f t="shared" si="3"/>
         <v>8.152173913043478E-3</v>
       </c>
       <c r="E92" t="s">
@@ -2473,7 +2456,7 @@
         <v>371</v>
       </c>
       <c r="D93" s="7">
-        <f>IFERROR(B93/C93," ")</f>
+        <f t="shared" si="3"/>
         <v>8.0862533692722376E-3</v>
       </c>
       <c r="E93" t="s">
@@ -2491,7 +2474,7 @@
         <v>499</v>
       </c>
       <c r="D94" s="7">
-        <f>IFERROR(B94/C94," ")</f>
+        <f t="shared" si="3"/>
         <v>8.0160320641282558E-3</v>
       </c>
       <c r="E94" t="s">
@@ -2509,7 +2492,7 @@
         <v>250</v>
       </c>
       <c r="D95" s="7">
-        <f>IFERROR(B95/C95," ")</f>
+        <f t="shared" si="3"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E95" t="s">
@@ -2527,7 +2510,7 @@
         <v>512</v>
       </c>
       <c r="D96" s="7">
-        <f>IFERROR(B96/C96," ")</f>
+        <f t="shared" si="3"/>
         <v>7.8125E-3</v>
       </c>
       <c r="E96" t="s">
@@ -2545,7 +2528,7 @@
         <v>512</v>
       </c>
       <c r="D97" s="7">
-        <f>IFERROR(B97/C97," ")</f>
+        <f t="shared" si="3"/>
         <v>7.8125E-3</v>
       </c>
       <c r="E97" t="s">
@@ -2563,7 +2546,7 @@
         <v>264</v>
       </c>
       <c r="D98" s="7">
-        <f>IFERROR(B98/C98," ")</f>
+        <f t="shared" si="3"/>
         <v>7.575757575757576E-3</v>
       </c>
       <c r="E98" t="s">
@@ -2581,7 +2564,7 @@
         <v>400</v>
       </c>
       <c r="D99" s="7">
-        <f>IFERROR(B99/C99," ")</f>
+        <f t="shared" si="3"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E99" t="s">
@@ -2599,7 +2582,7 @@
         <v>544</v>
       </c>
       <c r="D100" s="7">
-        <f>IFERROR(B100/C100," ")</f>
+        <f t="shared" si="3"/>
         <v>7.3529411764705881E-3</v>
       </c>
       <c r="E100" t="s">
@@ -2617,7 +2600,7 @@
         <v>416</v>
       </c>
       <c r="D101" s="7">
-        <f>IFERROR(B101/C101," ")</f>
+        <f t="shared" si="3"/>
         <v>7.2115384615384619E-3</v>
       </c>
       <c r="E101" t="s">
@@ -2635,7 +2618,7 @@
         <v>560</v>
       </c>
       <c r="D102" s="7">
-        <f>IFERROR(B102/C102," ")</f>
+        <f t="shared" si="3"/>
         <v>7.1428571428571426E-3</v>
       </c>
       <c r="E102" t="s">
@@ -2653,7 +2636,7 @@
         <v>284</v>
       </c>
       <c r="D103" s="7">
-        <f>IFERROR(B103/C103," ")</f>
+        <f t="shared" si="3"/>
         <v>7.0422535211267607E-3</v>
       </c>
       <c r="E103" t="s">
@@ -2671,7 +2654,7 @@
         <v>288</v>
       </c>
       <c r="D104" s="7">
-        <f>IFERROR(B104/C104," ")</f>
+        <f t="shared" si="3"/>
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="E104" t="s">
@@ -2689,7 +2672,7 @@
         <v>736</v>
       </c>
       <c r="D105" s="7">
-        <f>IFERROR(B105/C105," ")</f>
+        <f t="shared" si="3"/>
         <v>6.793478260869565E-3</v>
       </c>
       <c r="E105" t="s">
@@ -2707,7 +2690,7 @@
         <v>148</v>
       </c>
       <c r="D106" s="7">
-        <f>IFERROR(B106/C106," ")</f>
+        <f t="shared" si="3"/>
         <v>6.7567567567567571E-3</v>
       </c>
       <c r="E106" t="s">
@@ -2725,7 +2708,7 @@
         <v>450</v>
       </c>
       <c r="D107" s="7">
-        <f>IFERROR(B107/C107," ")</f>
+        <f t="shared" si="3"/>
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="E107" t="s">
@@ -2743,7 +2726,7 @@
         <v>464</v>
       </c>
       <c r="D108" s="7">
-        <f>IFERROR(B108/C108," ")</f>
+        <f t="shared" si="3"/>
         <v>6.4655172413793103E-3</v>
       </c>
       <c r="E108" t="s">
@@ -2761,7 +2744,7 @@
         <v>480</v>
       </c>
       <c r="D109" s="7">
-        <f>IFERROR(B109/C109," ")</f>
+        <f t="shared" si="3"/>
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="E109" t="s">
@@ -2779,7 +2762,7 @@
         <v>480</v>
       </c>
       <c r="D110" s="7">
-        <f>IFERROR(B110/C110," ")</f>
+        <f t="shared" si="3"/>
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="E110" t="s">
@@ -2797,7 +2780,7 @@
         <v>488</v>
       </c>
       <c r="D111" s="7">
-        <f>IFERROR(B111/C111," ")</f>
+        <f t="shared" si="3"/>
         <v>6.1475409836065573E-3</v>
       </c>
       <c r="E111" t="s">
@@ -2815,7 +2798,7 @@
         <v>332</v>
       </c>
       <c r="D112" s="7">
-        <f>IFERROR(B112/C112," ")</f>
+        <f t="shared" si="3"/>
         <v>6.024096385542169E-3</v>
       </c>
       <c r="E112" t="s">
@@ -2833,7 +2816,7 @@
         <v>332</v>
       </c>
       <c r="D113" s="7">
-        <f>IFERROR(B113/C113," ")</f>
+        <f t="shared" si="3"/>
         <v>6.024096385542169E-3</v>
       </c>
       <c r="E113" t="s">
@@ -2851,7 +2834,7 @@
         <v>344</v>
       </c>
       <c r="D114" s="7">
-        <f>IFERROR(B114/C114," ")</f>
+        <f t="shared" si="3"/>
         <v>5.8139534883720929E-3</v>
       </c>
       <c r="E114" t="s">
@@ -2869,7 +2852,7 @@
         <v>704</v>
       </c>
       <c r="D115" s="7">
-        <f>IFERROR(B115/C115," ")</f>
+        <f t="shared" si="3"/>
         <v>5.681818181818182E-3</v>
       </c>
       <c r="E115" t="s">
@@ -2887,7 +2870,7 @@
         <v>366</v>
       </c>
       <c r="D116" s="7">
-        <f>IFERROR(B116/C116," ")</f>
+        <f t="shared" si="3"/>
         <v>5.4644808743169399E-3</v>
       </c>
       <c r="E116" t="s">
@@ -2905,7 +2888,7 @@
         <v>736</v>
       </c>
       <c r="D117" s="7">
-        <f>IFERROR(B117/C117," ")</f>
+        <f t="shared" si="3"/>
         <v>5.434782608695652E-3</v>
       </c>
       <c r="E117" t="s">
@@ -2923,7 +2906,7 @@
         <v>373</v>
       </c>
       <c r="D118" s="7">
-        <f>IFERROR(B118/C118," ")</f>
+        <f t="shared" si="3"/>
         <v>5.3619302949061663E-3</v>
       </c>
       <c r="E118" t="s">
@@ -2941,7 +2924,7 @@
         <v>560</v>
       </c>
       <c r="D119" s="7">
-        <f>IFERROR(B119/C119," ")</f>
+        <f t="shared" si="3"/>
         <v>5.3571428571428572E-3</v>
       </c>
       <c r="E119" t="s">
@@ -2959,7 +2942,7 @@
         <v>560</v>
       </c>
       <c r="D120" s="7">
-        <f>IFERROR(B120/C120," ")</f>
+        <f t="shared" si="3"/>
         <v>5.3571428571428572E-3</v>
       </c>
       <c r="E120" t="s">
@@ -2977,7 +2960,7 @@
         <v>576</v>
       </c>
       <c r="D121" s="7">
-        <f>IFERROR(B121/C121," ")</f>
+        <f t="shared" si="3"/>
         <v>5.208333333333333E-3</v>
       </c>
       <c r="E121" t="s">
@@ -2995,7 +2978,7 @@
         <v>384</v>
       </c>
       <c r="D122" s="7">
-        <f>IFERROR(B122/C122," ")</f>
+        <f t="shared" si="3"/>
         <v>5.208333333333333E-3</v>
       </c>
       <c r="E122" t="s">
@@ -3013,7 +2996,7 @@
         <v>200</v>
       </c>
       <c r="D123" s="7">
-        <f>IFERROR(B123/C123," ")</f>
+        <f t="shared" si="3"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E123" t="s">
@@ -3031,7 +3014,7 @@
         <v>400</v>
       </c>
       <c r="D124" s="7">
-        <f>IFERROR(B124/C124," ")</f>
+        <f t="shared" si="3"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E124" t="s">
@@ -3049,7 +3032,7 @@
         <v>416</v>
       </c>
       <c r="D125" s="7">
-        <f>IFERROR(B125/C125," ")</f>
+        <f t="shared" si="3"/>
         <v>4.807692307692308E-3</v>
       </c>
       <c r="E125" t="s">
@@ -3067,7 +3050,7 @@
         <v>416</v>
       </c>
       <c r="D126" s="7">
-        <f>IFERROR(B126/C126," ")</f>
+        <f t="shared" si="3"/>
         <v>4.807692307692308E-3</v>
       </c>
       <c r="E126" t="s">
@@ -3085,7 +3068,7 @@
         <v>848</v>
       </c>
       <c r="D127" s="7">
-        <f>IFERROR(B127/C127," ")</f>
+        <f t="shared" si="3"/>
         <v>4.7169811320754715E-3</v>
       </c>
       <c r="E127" t="s">
@@ -3103,7 +3086,7 @@
         <v>440</v>
       </c>
       <c r="D128" s="7">
-        <f>IFERROR(B128/C128," ")</f>
+        <f t="shared" si="3"/>
         <v>4.5454545454545452E-3</v>
       </c>
       <c r="E128" t="s">
@@ -3121,7 +3104,7 @@
         <v>456</v>
       </c>
       <c r="D129" s="7">
-        <f>IFERROR(B129/C129," ")</f>
+        <f t="shared" si="3"/>
         <v>4.3859649122807015E-3</v>
       </c>
       <c r="E129" t="s">
@@ -3130,535 +3113,535 @@
     </row>
     <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D130" s="7" t="str">
-        <f>IFERROR(B130/C130," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D131" s="7" t="str">
-        <f>IFERROR(B131/C131," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D132" s="7" t="str">
-        <f>IFERROR(B132/C132," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D133" s="7" t="str">
-        <f>IFERROR(B133/C133," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D134" s="7" t="str">
-        <f>IFERROR(B134/C134," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D135" s="7" t="str">
-        <f>IFERROR(B135/C135," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D136" s="7" t="str">
-        <f>IFERROR(B136/C136," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D137" s="7" t="str">
-        <f>IFERROR(B137/C137," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D138" s="7" t="str">
-        <f>IFERROR(B138/C138," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D139" s="7" t="str">
-        <f>IFERROR(B139/C139," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D140" s="7" t="str">
-        <f>IFERROR(B140/C140," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D141" s="7" t="str">
-        <f>IFERROR(B141/C141," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D142" s="7" t="str">
-        <f>IFERROR(B142/C142," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D143" s="7" t="str">
-        <f>IFERROR(B143/C143," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D144" s="7" t="str">
-        <f>IFERROR(B144/C144," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="145" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D145" s="7" t="str">
-        <f>IFERROR(B145/C145," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="146" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D146" s="7" t="str">
-        <f>IFERROR(B146/C146," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="147" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D147" s="7" t="str">
-        <f>IFERROR(B147/C147," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="148" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D148" s="7" t="str">
-        <f>IFERROR(B148/C148," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="149" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D149" s="7" t="str">
-        <f>IFERROR(B149/C149," ")</f>
+        <f t="shared" ref="D149:D212" si="4">IFERROR(B149/C149," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="150" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D150" s="7" t="str">
-        <f>IFERROR(B150/C150," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="151" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D151" s="7" t="str">
-        <f>IFERROR(B151/C151," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="152" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D152" s="7" t="str">
-        <f>IFERROR(B152/C152," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="153" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D153" s="7" t="str">
-        <f>IFERROR(B153/C153," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="154" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D154" s="7" t="str">
-        <f>IFERROR(B154/C154," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="155" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D155" s="7" t="str">
-        <f>IFERROR(B155/C155," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="156" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D156" s="7" t="str">
-        <f>IFERROR(B156/C156," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="157" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D157" s="7" t="str">
-        <f>IFERROR(B157/C157," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="158" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D158" s="7" t="str">
-        <f>IFERROR(B158/C158," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="159" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D159" s="7" t="str">
-        <f>IFERROR(B159/C159," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="160" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D160" s="7" t="str">
-        <f>IFERROR(B160/C160," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="161" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D161" s="7" t="str">
-        <f>IFERROR(B161/C161," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="162" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D162" s="7" t="str">
-        <f>IFERROR(B162/C162," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="163" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D163" s="7" t="str">
-        <f>IFERROR(B163/C163," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="164" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D164" s="7" t="str">
-        <f>IFERROR(B164/C164," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="165" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D165" s="7" t="str">
-        <f>IFERROR(B165/C165," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="166" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D166" s="7" t="str">
-        <f>IFERROR(B166/C166," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="167" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D167" s="7" t="str">
-        <f>IFERROR(B167/C167," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="168" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D168" s="7" t="str">
-        <f>IFERROR(B168/C168," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="169" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D169" s="7" t="str">
-        <f>IFERROR(B169/C169," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="170" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D170" s="7" t="str">
-        <f>IFERROR(B170/C170," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="171" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D171" s="7" t="str">
-        <f>IFERROR(B171/C171," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="172" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D172" s="7" t="str">
-        <f>IFERROR(B172/C172," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="173" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D173" s="7" t="str">
-        <f>IFERROR(B173/C173," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="174" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D174" s="7" t="str">
-        <f>IFERROR(B174/C174," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="175" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D175" s="7" t="str">
-        <f>IFERROR(B175/C175," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="176" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D176" s="7" t="str">
-        <f>IFERROR(B176/C176," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="177" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D177" s="7" t="str">
-        <f>IFERROR(B177/C177," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="178" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D178" s="7" t="str">
-        <f>IFERROR(B178/C178," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="179" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D179" s="7" t="str">
-        <f>IFERROR(B179/C179," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="180" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D180" s="7" t="str">
-        <f>IFERROR(B180/C180," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="181" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D181" s="7" t="str">
-        <f>IFERROR(B181/C181," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="182" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D182" s="7" t="str">
-        <f>IFERROR(B182/C182," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="183" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D183" s="7" t="str">
-        <f>IFERROR(B183/C183," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="184" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D184" s="7" t="str">
-        <f>IFERROR(B184/C184," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="185" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D185" s="7" t="str">
-        <f>IFERROR(B185/C185," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="186" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D186" s="7" t="str">
-        <f>IFERROR(B186/C186," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="187" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D187" s="7" t="str">
-        <f>IFERROR(B187/C187," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="188" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D188" s="7" t="str">
-        <f>IFERROR(B188/C188," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="189" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D189" s="7" t="str">
-        <f>IFERROR(B189/C189," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="190" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D190" s="7" t="str">
-        <f>IFERROR(B190/C190," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="191" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D191" s="7" t="str">
-        <f>IFERROR(B191/C191," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="192" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D192" s="7" t="str">
-        <f>IFERROR(B192/C192," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="193" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D193" s="7" t="str">
-        <f>IFERROR(B193/C193," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="194" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D194" s="7" t="str">
-        <f>IFERROR(B194/C194," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="195" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D195" s="7" t="str">
-        <f>IFERROR(B195/C195," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="196" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D196" s="7" t="str">
-        <f>IFERROR(B196/C196," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="197" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D197" s="7" t="str">
-        <f>IFERROR(B197/C197," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="198" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D198" s="7" t="str">
-        <f>IFERROR(B198/C198," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="199" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D199" s="7" t="str">
-        <f>IFERROR(B199/C199," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="200" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D200" s="7" t="str">
-        <f>IFERROR(B200/C200," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="201" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D201" s="7" t="str">
-        <f>IFERROR(B201/C201," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="202" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D202" s="7" t="str">
-        <f>IFERROR(B202/C202," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="203" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D203" s="7" t="str">
-        <f>IFERROR(B203/C203," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="204" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D204" s="7" t="str">
-        <f>IFERROR(B204/C204," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="205" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D205" s="7" t="str">
-        <f>IFERROR(B205/C205," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="206" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D206" s="7" t="str">
-        <f>IFERROR(B206/C206," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="207" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D207" s="7" t="str">
-        <f>IFERROR(B207/C207," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="208" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D208" s="7" t="str">
-        <f>IFERROR(B208/C208," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D209" s="7" t="str">
-        <f>IFERROR(B209/C209," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D210" s="7" t="str">
-        <f>IFERROR(B210/C210," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D211" s="7" t="str">
-        <f>IFERROR(B211/C211," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D212" s="7" t="str">
-        <f>IFERROR(B212/C212," ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D213" s="7" t="str">
-        <f>IFERROR(B213/C213," ")</f>
+        <f t="shared" ref="D213:D276" si="5">IFERROR(B213/C213," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D214" s="7" t="str">
-        <f>IFERROR(B214/C214," ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D215" s="7" t="str">
-        <f>IFERROR(B215/C215," ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D216" s="7" t="str">
-        <f>IFERROR(B216/C216," ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D217" s="7" t="str">
-        <f>IFERROR(B217/C217," ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D218" s="7" t="str">
-        <f>IFERROR(B218/C218," ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -3673,7 +3656,7 @@
         <v>528</v>
       </c>
       <c r="D219" s="7">
-        <f>IFERROR(B219/C219," ")</f>
+        <f t="shared" si="5"/>
         <v>3.787878787878788E-3</v>
       </c>
       <c r="E219" t="s">
@@ -3691,7 +3674,7 @@
         <v>544</v>
       </c>
       <c r="D220" s="7">
-        <f>IFERROR(B220/C220," ")</f>
+        <f t="shared" si="5"/>
         <v>3.6764705882352941E-3</v>
       </c>
       <c r="E220" t="s">
@@ -3709,7 +3692,7 @@
         <v>848</v>
       </c>
       <c r="D221" s="7">
-        <f>IFERROR(B221/C221," ")</f>
+        <f t="shared" si="5"/>
         <v>3.5377358490566039E-3</v>
       </c>
       <c r="E221" t="s">
@@ -3727,7 +3710,7 @@
         <v>864</v>
       </c>
       <c r="D222" s="7">
-        <f>IFERROR(B222/C222," ")</f>
+        <f t="shared" si="5"/>
         <v>3.472222222222222E-3</v>
       </c>
       <c r="E222" t="s">
@@ -3745,7 +3728,7 @@
         <v>616</v>
       </c>
       <c r="D223" s="7">
-        <f>IFERROR(B223/C223," ")</f>
+        <f t="shared" si="5"/>
         <v>3.246753246753247E-3</v>
       </c>
       <c r="E223" t="s">
@@ -3763,7 +3746,7 @@
         <v>320</v>
       </c>
       <c r="D224" s="7">
-        <f>IFERROR(B224/C224," ")</f>
+        <f t="shared" si="5"/>
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="E224" t="s">
@@ -3781,7 +3764,7 @@
         <v>1280</v>
       </c>
       <c r="D225" s="7">
-        <f>IFERROR(B225/C225," ")</f>
+        <f t="shared" si="5"/>
         <v>2.3437499999999999E-3</v>
       </c>
       <c r="E225" t="s">

--- a/Book Ranking.xlsx
+++ b/Book Ranking.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="145">
   <si>
     <t>Book Ranking</t>
   </si>
@@ -450,6 +450,9 @@
   </si>
   <si>
     <t>Self-organised criticality-what it is and what it isn't (Report)</t>
+  </si>
+  <si>
+    <t>Would it kill you to stop doing that?</t>
   </si>
 </sst>
 </file>
@@ -815,11 +818,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E225"/>
+  <dimension ref="A1:E226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <pane ySplit="2" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D226" sqref="D226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3611,7 +3614,7 @@
     </row>
     <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D213" s="7" t="str">
-        <f t="shared" ref="D213:D276" si="5">IFERROR(B213/C213," ")</f>
+        <f t="shared" ref="D213:D225" si="5">IFERROR(B213/C213," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -3768,6 +3771,17 @@
         <v>2.3437499999999999E-3</v>
       </c>
       <c r="E225" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B226" s="3">
+        <v>3</v>
+      </c>
+      <c r="E226" t="s">
         <v>72</v>
       </c>
     </row>

--- a/Book Ranking.xlsx
+++ b/Book Ranking.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="147">
   <si>
     <t>Book Ranking</t>
   </si>
@@ -453,6 +453,12 @@
   </si>
   <si>
     <t>Would it kill you to stop doing that?</t>
+  </si>
+  <si>
+    <t>Complex Organizations (Charles Perrow)</t>
+  </si>
+  <si>
+    <t>Normal Accidents: Living with High Risk Technologies (Charles Perrow)</t>
   </si>
 </sst>
 </file>
@@ -818,11 +824,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E226"/>
+  <dimension ref="A1:E228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D226" sqref="D226"/>
+      <selection pane="bottomLeft" activeCell="E225" sqref="E225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3782,6 +3788,28 @@
         <v>3</v>
       </c>
       <c r="E226" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B227" s="3">
+        <v>4</v>
+      </c>
+      <c r="E227" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B228" s="3">
+        <v>4</v>
+      </c>
+      <c r="E228" t="s">
         <v>72</v>
       </c>
     </row>

--- a/Book Ranking.xlsx
+++ b/Book Ranking.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$E$218</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$E$228</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -827,8 +827,8 @@
   <dimension ref="A1:E228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E225" sqref="E225"/>
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,7 +1032,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>141</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1122,7 +1122,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>144</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>146</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>145</v>
       </c>
@@ -3814,7 +3814,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E218">
+  <autoFilter ref="A2:E228">
     <filterColumn colId="3">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/Book Ranking.xlsx
+++ b/Book Ranking.xlsx
@@ -7,18 +7,20 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Unread" sheetId="1" r:id="rId1"/>
+    <sheet name="Read" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$E$228</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Read!$A$2:$E$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Unread!$A$2:$E$228</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="147">
   <si>
     <t>Book Ranking</t>
   </si>
@@ -827,8 +829,8 @@
   <dimension ref="A1:E228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3815,13 +3817,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:E228">
-    <filterColumn colId="3">
+    <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
     <filterColumn colId="4">
-      <filters>
+      <filters blank="1">
         <filter val="No"/>
       </filters>
     </filterColumn>
@@ -3848,6 +3850,2898 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E131"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.28515625" customWidth="1"/>
+    <col min="2" max="5" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>Unread!A3</f>
+        <v>The Rubaiyat</v>
+      </c>
+      <c r="B3">
+        <f>Unread!B3</f>
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <f>Unread!C3</f>
+        <v>46</v>
+      </c>
+      <c r="D3">
+        <f>Unread!D3</f>
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="E3" t="str">
+        <f>Unread!E3</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>Unread!A4</f>
+        <v>World War I at Home</v>
+      </c>
+      <c r="B4">
+        <f>Unread!B4</f>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f>Unread!C4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" t="str">
+        <f>Unread!D4</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E4" t="str">
+        <f>Unread!E4</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>Unread!A5</f>
+        <v>World War I (Baldwin)</v>
+      </c>
+      <c r="B5">
+        <f>Unread!B5</f>
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f>Unread!C5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" t="str">
+        <f>Unread!D5</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E5" t="str">
+        <f>Unread!E5</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>Unread!A6</f>
+        <v>Cavalry of the Clouds</v>
+      </c>
+      <c r="B6">
+        <f>Unread!B6</f>
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <f>Unread!C6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" t="str">
+        <f>Unread!D6</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E6" t="str">
+        <f>Unread!E6</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>Unread!A7</f>
+        <v>Undertones of War</v>
+      </c>
+      <c r="B7">
+        <f>Unread!B7</f>
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f>Unread!C7</f>
+        <v>0</v>
+      </c>
+      <c r="D7" t="str">
+        <f>Unread!D7</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E7" t="str">
+        <f>Unread!E7</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>Unread!A8</f>
+        <v>Sinking of the Titanic</v>
+      </c>
+      <c r="B8">
+        <f>Unread!B8</f>
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <f>Unread!C8</f>
+        <v>0</v>
+      </c>
+      <c r="D8" t="str">
+        <f>Unread!D8</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E8" t="str">
+        <f>Unread!E8</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>Unread!A9</f>
+        <v>History of the World War (March)</v>
+      </c>
+      <c r="B9">
+        <f>Unread!B9</f>
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <f>Unread!C9</f>
+        <v>0</v>
+      </c>
+      <c r="D9" t="str">
+        <f>Unread!D9</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E9" t="str">
+        <f>Unread!E9</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>Unread!A10</f>
+        <v>World War for Humanity</v>
+      </c>
+      <c r="B10">
+        <f>Unread!B10</f>
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <f>Unread!C10</f>
+        <v>0</v>
+      </c>
+      <c r="D10" t="str">
+        <f>Unread!D10</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E10" t="str">
+        <f>Unread!E10</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>Unread!A11</f>
+        <v>School for Soldiers</v>
+      </c>
+      <c r="B11">
+        <f>Unread!B11</f>
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <f>Unread!C11</f>
+        <v>0</v>
+      </c>
+      <c r="D11" t="str">
+        <f>Unread!D11</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E11" t="str">
+        <f>Unread!E11</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>Unread!A12</f>
+        <v>The First World War (Strachan)</v>
+      </c>
+      <c r="B12">
+        <f>Unread!B12</f>
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <f>Unread!C12</f>
+        <v>0</v>
+      </c>
+      <c r="D12" t="str">
+        <f>Unread!D12</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E12" t="str">
+        <f>Unread!E12</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>Unread!A13</f>
+        <v>Soldier from the Wars Returning (Carrington)</v>
+      </c>
+      <c r="B13">
+        <f>Unread!B13</f>
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <f>Unread!C13</f>
+        <v>0</v>
+      </c>
+      <c r="D13" t="str">
+        <f>Unread!D13</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E13" t="str">
+        <f>Unread!E13</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>Unread!A14</f>
+        <v>Randomness and Mathematical Proof (Report)</v>
+      </c>
+      <c r="B14">
+        <f>Unread!B14</f>
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <f>Unread!C14</f>
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <f>Unread!D14</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E14" t="str">
+        <f>Unread!E14</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>Unread!A15</f>
+        <v>The Waste Land: Poem</v>
+      </c>
+      <c r="B15">
+        <f>Unread!B15</f>
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <f>Unread!C15</f>
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <f>Unread!D15</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="E15" t="str">
+        <f>Unread!E15</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>Unread!A16</f>
+        <v>Wisdom and the Context of Knowledge: Knowing that One Doesn't Know: Meacham (Report)</v>
+      </c>
+      <c r="B16">
+        <f>Unread!B16</f>
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <f>Unread!C16</f>
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <f>Unread!D16</f>
+        <v>0.2</v>
+      </c>
+      <c r="E16" t="str">
+        <f>Unread!E16</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>Unread!A17</f>
+        <v>Self-organised criticality-what it is and what it isn't (Report)</v>
+      </c>
+      <c r="B17">
+        <f>Unread!B17</f>
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <f>Unread!C17</f>
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <f>Unread!D17</f>
+        <v>0.15</v>
+      </c>
+      <c r="E17" t="str">
+        <f>Unread!E17</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>Unread!A18</f>
+        <v>Power laws, Pareto distributinos and Zipf's Law (Report)</v>
+      </c>
+      <c r="B18">
+        <f>Unread!B18</f>
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <f>Unread!C18</f>
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <f>Unread!D18</f>
+        <v>0.12</v>
+      </c>
+      <c r="E18" t="str">
+        <f>Unread!E18</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>Unread!A19</f>
+        <v>Zoar (Pamphlet)</v>
+      </c>
+      <c r="B19">
+        <f>Unread!B19</f>
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <f>Unread!C19</f>
+        <v>73</v>
+      </c>
+      <c r="D19">
+        <f>Unread!D19</f>
+        <v>6.8493150684931503E-2</v>
+      </c>
+      <c r="E19" t="str">
+        <f>Unread!E19</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>Unread!A20</f>
+        <v xml:space="preserve">On the Decay of the Art of Lying  </v>
+      </c>
+      <c r="B20">
+        <f>Unread!B20</f>
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <f>Unread!C20</f>
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <f>Unread!D20</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E20" t="str">
+        <f>Unread!E20</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>Unread!A21</f>
+        <v>A Mathematica Theory of Communication: CE Shannon (Report)</v>
+      </c>
+      <c r="B21">
+        <f>Unread!B21</f>
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <f>Unread!C21</f>
+        <v>55</v>
+      </c>
+      <c r="D21">
+        <f>Unread!D21</f>
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="E21" t="str">
+        <f>Unread!E21</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>Unread!A22</f>
+        <v>Guerilla Warfare Mao</v>
+      </c>
+      <c r="B22">
+        <f>Unread!B22</f>
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <f>Unread!C22</f>
+        <v>74</v>
+      </c>
+      <c r="D22">
+        <f>Unread!D22</f>
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="E22" t="str">
+        <f>Unread!E22</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>Unread!A23</f>
+        <v>Thermodynamics</v>
+      </c>
+      <c r="B23">
+        <f>Unread!B23</f>
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <f>Unread!C23</f>
+        <v>120</v>
+      </c>
+      <c r="D23">
+        <f>Unread!D23</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E23" t="str">
+        <f>Unread!E23</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>Unread!A24</f>
+        <v>Campaigns of General Custer</v>
+      </c>
+      <c r="B24">
+        <f>Unread!B24</f>
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <f>Unread!C24</f>
+        <v>72</v>
+      </c>
+      <c r="D24">
+        <f>Unread!D24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E24" t="str">
+        <f>Unread!E24</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>Unread!A25</f>
+        <v>A Monk's Guide to a Clean House</v>
+      </c>
+      <c r="B25">
+        <f>Unread!B25</f>
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <f>Unread!C25</f>
+        <v>128</v>
+      </c>
+      <c r="D25">
+        <f>Unread!D25</f>
+        <v>3.90625E-2</v>
+      </c>
+      <c r="E25" t="str">
+        <f>Unread!E25</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>Unread!A26</f>
+        <v>Maneuver Warfare Handbook</v>
+      </c>
+      <c r="B26">
+        <f>Unread!B26</f>
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <f>Unread!C26</f>
+        <v>133</v>
+      </c>
+      <c r="D26">
+        <f>Unread!D26</f>
+        <v>3.7593984962406013E-2</v>
+      </c>
+      <c r="E26" t="str">
+        <f>Unread!E26</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>Unread!A27</f>
+        <v xml:space="preserve">Drop the Rock: Removing Character Defects - Steps Six and Seven  </v>
+      </c>
+      <c r="B27">
+        <f>Unread!B27</f>
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <f>Unread!C27</f>
+        <v>132</v>
+      </c>
+      <c r="D27">
+        <f>Unread!D27</f>
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="E27" t="str">
+        <f>Unread!E27</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>Unread!A28</f>
+        <v>The Parent's Tao Te Ching</v>
+      </c>
+      <c r="B28">
+        <f>Unread!B28</f>
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <f>Unread!C28</f>
+        <v>160</v>
+      </c>
+      <c r="D28">
+        <f>Unread!D28</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E28" t="str">
+        <f>Unread!E28</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>Unread!A29</f>
+        <v xml:space="preserve">The Gnosis of the Light  </v>
+      </c>
+      <c r="B29">
+        <f>Unread!B29</f>
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <f>Unread!C29</f>
+        <v>80</v>
+      </c>
+      <c r="D29">
+        <f>Unread!D29</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E29" t="str">
+        <f>Unread!E29</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>Unread!A30</f>
+        <v>The Elements of Zen</v>
+      </c>
+      <c r="B30">
+        <f>Unread!B30</f>
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <f>Unread!C30</f>
+        <v>124</v>
+      </c>
+      <c r="D30">
+        <f>Unread!D30</f>
+        <v>2.4193548387096774E-2</v>
+      </c>
+      <c r="E30" t="str">
+        <f>Unread!E30</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>Unread!A31</f>
+        <v>Impeachment: A Citizen's Guide</v>
+      </c>
+      <c r="B31">
+        <f>Unread!B31</f>
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <f>Unread!C31</f>
+        <v>208</v>
+      </c>
+      <c r="D31">
+        <f>Unread!D31</f>
+        <v>2.403846153846154E-2</v>
+      </c>
+      <c r="E31" t="str">
+        <f>Unread!E31</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>Unread!A32</f>
+        <v xml:space="preserve">On Tyranny: Twenty Lessons From the Twentieth Century  </v>
+      </c>
+      <c r="B32">
+        <f>Unread!B32</f>
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <f>Unread!C32</f>
+        <v>128</v>
+      </c>
+      <c r="D32">
+        <f>Unread!D32</f>
+        <v>2.34375E-2</v>
+      </c>
+      <c r="E32" t="str">
+        <f>Unread!E32</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>Unread!A33</f>
+        <v>Advice Not Given: A Guide for Getting Over Yourself</v>
+      </c>
+      <c r="B33">
+        <f>Unread!B33</f>
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <f>Unread!C33</f>
+        <v>224</v>
+      </c>
+      <c r="D33">
+        <f>Unread!D33</f>
+        <v>2.2321428571428572E-2</v>
+      </c>
+      <c r="E33" t="str">
+        <f>Unread!E33</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>Unread!A34</f>
+        <v xml:space="preserve">Left of Bang: How the Marine Corps' Combat Hunter Program Can Save Your Life  </v>
+      </c>
+      <c r="B34">
+        <f>Unread!B34</f>
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <f>Unread!C34</f>
+        <v>228</v>
+      </c>
+      <c r="D34">
+        <f>Unread!D34</f>
+        <v>2.1929824561403508E-2</v>
+      </c>
+      <c r="E34" t="str">
+        <f>Unread!E34</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>Unread!A35</f>
+        <v>Markings (Dag)</v>
+      </c>
+      <c r="B35">
+        <f>Unread!B35</f>
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <f>Unread!C35</f>
+        <v>191</v>
+      </c>
+      <c r="D35">
+        <f>Unread!D35</f>
+        <v>2.0942408376963352E-2</v>
+      </c>
+      <c r="E35" t="str">
+        <f>Unread!E35</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>Unread!A36</f>
+        <v xml:space="preserve">Simplicity: The Freedom of Letting Go  </v>
+      </c>
+      <c r="B36">
+        <f>Unread!B36</f>
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <f>Unread!C36</f>
+        <v>192</v>
+      </c>
+      <c r="D36">
+        <f>Unread!D36</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E36" t="str">
+        <f>Unread!E36</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>Unread!A37</f>
+        <v>Dr. Seuss: American Icon</v>
+      </c>
+      <c r="B37">
+        <f>Unread!B37</f>
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <f>Unread!C37</f>
+        <v>198</v>
+      </c>
+      <c r="D37">
+        <f>Unread!D37</f>
+        <v>2.0202020202020204E-2</v>
+      </c>
+      <c r="E37" t="str">
+        <f>Unread!E37</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>Unread!A38</f>
+        <v>Promise me Dad</v>
+      </c>
+      <c r="B38">
+        <f>Unread!B38</f>
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <f>Unread!C38</f>
+        <v>258</v>
+      </c>
+      <c r="D38">
+        <f>Unread!D38</f>
+        <v>1.937984496124031E-2</v>
+      </c>
+      <c r="E38" t="str">
+        <f>Unread!E38</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>Unread!A39</f>
+        <v>Norman Rockwell: A Sixty Year Retrospective</v>
+      </c>
+      <c r="B39">
+        <f>Unread!B39</f>
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <f>Unread!C39</f>
+        <v>157</v>
+      </c>
+      <c r="D39">
+        <f>Unread!D39</f>
+        <v>1.9108280254777069E-2</v>
+      </c>
+      <c r="E39" t="str">
+        <f>Unread!E39</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f>Unread!A40</f>
+        <v xml:space="preserve">The Wisdom of Insecurity  </v>
+      </c>
+      <c r="B40">
+        <f>Unread!B40</f>
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <f>Unread!C40</f>
+        <v>160</v>
+      </c>
+      <c r="D40">
+        <f>Unread!D40</f>
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="E40" t="str">
+        <f>Unread!E40</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>Unread!A41</f>
+        <v xml:space="preserve">The Obstacle Is the Way: The Timeless Art of Turning Trials Into Triumph  </v>
+      </c>
+      <c r="B41">
+        <f>Unread!B41</f>
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <f>Unread!C41</f>
+        <v>224</v>
+      </c>
+      <c r="D41">
+        <f>Unread!D41</f>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="E41" t="str">
+        <f>Unread!E41</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f>Unread!A42</f>
+        <v>Flight of the Wild Gander</v>
+      </c>
+      <c r="B42">
+        <f>Unread!B42</f>
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <f>Unread!C42</f>
+        <v>226</v>
+      </c>
+      <c r="D42">
+        <f>Unread!D42</f>
+        <v>1.7699115044247787E-2</v>
+      </c>
+      <c r="E42" t="str">
+        <f>Unread!E42</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>Unread!A43</f>
+        <v xml:space="preserve">Sprint: How to Solve Big Problems and Test New Ideas in Just Five Days  </v>
+      </c>
+      <c r="B43">
+        <f>Unread!B43</f>
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <f>Unread!C43</f>
+        <v>288</v>
+      </c>
+      <c r="D43">
+        <f>Unread!D43</f>
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="E43" t="str">
+        <f>Unread!E43</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>Unread!A44</f>
+        <v>Buddhism: An Introduction and Guide</v>
+      </c>
+      <c r="B44">
+        <f>Unread!B44</f>
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <f>Unread!C44</f>
+        <v>231</v>
+      </c>
+      <c r="D44">
+        <f>Unread!D44</f>
+        <v>1.7316017316017316E-2</v>
+      </c>
+      <c r="E44" t="str">
+        <f>Unread!E44</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>Unread!A45</f>
+        <v>The Ransom of Russian Art</v>
+      </c>
+      <c r="B45">
+        <f>Unread!B45</f>
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <f>Unread!C45</f>
+        <v>181</v>
+      </c>
+      <c r="D45">
+        <f>Unread!D45</f>
+        <v>1.6574585635359115E-2</v>
+      </c>
+      <c r="E45" t="str">
+        <f>Unread!E45</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>Unread!A46</f>
+        <v>The Gnostic Gospels.</v>
+      </c>
+      <c r="B46">
+        <f>Unread!B46</f>
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <f>Unread!C46</f>
+        <v>182</v>
+      </c>
+      <c r="D46">
+        <f>Unread!D46</f>
+        <v>1.6483516483516484E-2</v>
+      </c>
+      <c r="E46" t="str">
+        <f>Unread!E46</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>Unread!A47</f>
+        <v>Tao of Jeet Kune Do</v>
+      </c>
+      <c r="B47">
+        <f>Unread!B47</f>
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <f>Unread!C47</f>
+        <v>250</v>
+      </c>
+      <c r="D47">
+        <f>Unread!D47</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="E47" t="str">
+        <f>Unread!E47</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f>Unread!A48</f>
+        <v>Myths to Live By</v>
+      </c>
+      <c r="B48">
+        <f>Unread!B48</f>
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <f>Unread!C48</f>
+        <v>266</v>
+      </c>
+      <c r="D48">
+        <f>Unread!D48</f>
+        <v>1.5037593984962405E-2</v>
+      </c>
+      <c r="E48" t="str">
+        <f>Unread!E48</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>Unread!A49</f>
+        <v xml:space="preserve">Why Buddhism Is True: The Science and Philosophy of Meditation and Enlightenment  </v>
+      </c>
+      <c r="B49">
+        <f>Unread!B49</f>
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <f>Unread!C49</f>
+        <v>336</v>
+      </c>
+      <c r="D49">
+        <f>Unread!D49</f>
+        <v>1.488095238095238E-2</v>
+      </c>
+      <c r="E49" t="str">
+        <f>Unread!E49</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>Unread!A50</f>
+        <v>Mooney</v>
+      </c>
+      <c r="B50">
+        <f>Unread!B50</f>
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <f>Unread!C50</f>
+        <v>137</v>
+      </c>
+      <c r="D50">
+        <f>Unread!D50</f>
+        <v>1.4598540145985401E-2</v>
+      </c>
+      <c r="E50" t="str">
+        <f>Unread!E50</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f>Unread!A51</f>
+        <v>Letters from a Stoic</v>
+      </c>
+      <c r="B51">
+        <f>Unread!B51</f>
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <f>Unread!C51</f>
+        <v>276</v>
+      </c>
+      <c r="D51">
+        <f>Unread!D51</f>
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="E51" t="str">
+        <f>Unread!E51</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f>Unread!A52</f>
+        <v xml:space="preserve">Probably Approximately Correct: Nature's Algorithms for Learning and Prospering in a Complex World  </v>
+      </c>
+      <c r="B52">
+        <f>Unread!B52</f>
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <f>Unread!C52</f>
+        <v>208</v>
+      </c>
+      <c r="D52">
+        <f>Unread!D52</f>
+        <v>1.4423076923076924E-2</v>
+      </c>
+      <c r="E52" t="str">
+        <f>Unread!E52</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f>Unread!A53</f>
+        <v>The Penguin Guide to the United States Constitution</v>
+      </c>
+      <c r="B53">
+        <f>Unread!B53</f>
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <f>Unread!C53</f>
+        <v>213</v>
+      </c>
+      <c r="D53">
+        <f>Unread!D53</f>
+        <v>1.4084507042253521E-2</v>
+      </c>
+      <c r="E53" t="str">
+        <f>Unread!E53</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f>Unread!A54</f>
+        <v>Rifleman Dodd</v>
+      </c>
+      <c r="B54">
+        <f>Unread!B54</f>
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <f>Unread!C54</f>
+        <v>220</v>
+      </c>
+      <c r="D54">
+        <f>Unread!D54</f>
+        <v>1.3636363636363636E-2</v>
+      </c>
+      <c r="E54" t="str">
+        <f>Unread!E54</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f>Unread!A55</f>
+        <v>The Thirteenth Turn: A History of the Noose</v>
+      </c>
+      <c r="B55">
+        <f>Unread!B55</f>
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <f>Unread!C55</f>
+        <v>368</v>
+      </c>
+      <c r="D55">
+        <f>Unread!D55</f>
+        <v>1.358695652173913E-2</v>
+      </c>
+      <c r="E55" t="str">
+        <f>Unread!E55</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f>Unread!A56</f>
+        <v xml:space="preserve">How We Decide  </v>
+      </c>
+      <c r="B56">
+        <f>Unread!B56</f>
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <f>Unread!C56</f>
+        <v>320</v>
+      </c>
+      <c r="D56">
+        <f>Unread!D56</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E56" t="str">
+        <f>Unread!E56</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f>Unread!A57</f>
+        <v>Finite and Infinite Games</v>
+      </c>
+      <c r="B57">
+        <f>Unread!B57</f>
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <f>Unread!C57</f>
+        <v>160</v>
+      </c>
+      <c r="D57">
+        <f>Unread!D57</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E57" t="str">
+        <f>Unread!E57</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f>Unread!A58</f>
+        <v xml:space="preserve">The Bread Baker's Apprentice: Mastering the Art of Extraordinary Bread  </v>
+      </c>
+      <c r="B58">
+        <f>Unread!B58</f>
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <f>Unread!C58</f>
+        <v>336</v>
+      </c>
+      <c r="D58">
+        <f>Unread!D58</f>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="E58" t="str">
+        <f>Unread!E58</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f>Unread!A59</f>
+        <v>Backbone</v>
+      </c>
+      <c r="B59">
+        <f>Unread!B59</f>
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <f>Unread!C59</f>
+        <v>256</v>
+      </c>
+      <c r="D59">
+        <f>Unread!D59</f>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="E59" t="str">
+        <f>Unread!E59</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f>Unread!A60</f>
+        <v>Johnny Got His Gun</v>
+      </c>
+      <c r="B60">
+        <f>Unread!B60</f>
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <f>Unread!C60</f>
+        <v>256</v>
+      </c>
+      <c r="D60">
+        <f>Unread!D60</f>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="E60" t="str">
+        <f>Unread!E60</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f>Unread!A61</f>
+        <v>The Hero with a Thousand Faces</v>
+      </c>
+      <c r="B61">
+        <f>Unread!B61</f>
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <f>Unread!C61</f>
+        <v>432</v>
+      </c>
+      <c r="D61">
+        <f>Unread!D61</f>
+        <v>1.1574074074074073E-2</v>
+      </c>
+      <c r="E61" t="str">
+        <f>Unread!E61</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f>Unread!A62</f>
+        <v xml:space="preserve">Mind in the Balance: Meditation in Science, Buddhism, and Christianity  </v>
+      </c>
+      <c r="B62">
+        <f>Unread!B62</f>
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <f>Unread!C62</f>
+        <v>264</v>
+      </c>
+      <c r="D62">
+        <f>Unread!D62</f>
+        <v>1.1363636363636364E-2</v>
+      </c>
+      <c r="E62" t="str">
+        <f>Unread!E62</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f>Unread!A63</f>
+        <v>The Elements of Journalism</v>
+      </c>
+      <c r="B63">
+        <f>Unread!B63</f>
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <f>Unread!C63</f>
+        <v>352</v>
+      </c>
+      <c r="D63">
+        <f>Unread!D63</f>
+        <v>1.1363636363636364E-2</v>
+      </c>
+      <c r="E63" t="str">
+        <f>Unread!E63</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f>Unread!A64</f>
+        <v>Custer's Last Stand: The Anatomy of an American Myth</v>
+      </c>
+      <c r="B64">
+        <f>Unread!B64</f>
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <f>Unread!C64</f>
+        <v>266</v>
+      </c>
+      <c r="D64">
+        <f>Unread!D64</f>
+        <v>1.1278195488721804E-2</v>
+      </c>
+      <c r="E64" t="str">
+        <f>Unread!E64</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f>Unread!A65</f>
+        <v>History of Nevada: Elliot</v>
+      </c>
+      <c r="B65">
+        <f>Unread!B65</f>
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <f>Unread!C65</f>
+        <v>277</v>
+      </c>
+      <c r="D65">
+        <f>Unread!D65</f>
+        <v>1.0830324909747292E-2</v>
+      </c>
+      <c r="E65" t="str">
+        <f>Unread!E65</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f>Unread!A66</f>
+        <v>One Man Against the World</v>
+      </c>
+      <c r="B66">
+        <f>Unread!B66</f>
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <f>Unread!C66</f>
+        <v>384</v>
+      </c>
+      <c r="D66">
+        <f>Unread!D66</f>
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E66" t="str">
+        <f>Unread!E66</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f>Unread!A67</f>
+        <v xml:space="preserve">The Gatekeepers: How the White House Chiefs of Staff Define Every Presidency  </v>
+      </c>
+      <c r="B67">
+        <f>Unread!B67</f>
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <f>Unread!C67</f>
+        <v>384</v>
+      </c>
+      <c r="D67">
+        <f>Unread!D67</f>
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E67" t="str">
+        <f>Unread!E67</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f>Unread!A68</f>
+        <v xml:space="preserve">Storm in a Teacup: The Physics of Everyday Life  </v>
+      </c>
+      <c r="B68">
+        <f>Unread!B68</f>
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <f>Unread!C68</f>
+        <v>288</v>
+      </c>
+      <c r="D68">
+        <f>Unread!D68</f>
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E68" t="str">
+        <f>Unread!E68</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f>Unread!A69</f>
+        <v>14-18: Understanding the Great War</v>
+      </c>
+      <c r="B69">
+        <f>Unread!B69</f>
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <f>Unread!C69</f>
+        <v>288</v>
+      </c>
+      <c r="D69">
+        <f>Unread!D69</f>
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E69" t="str">
+        <f>Unread!E69</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f>Unread!A70</f>
+        <v>The Age of American Unreason</v>
+      </c>
+      <c r="B70">
+        <f>Unread!B70</f>
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <f>Unread!C70</f>
+        <v>400</v>
+      </c>
+      <c r="D70">
+        <f>Unread!D70</f>
+        <v>0.01</v>
+      </c>
+      <c r="E70" t="str">
+        <f>Unread!E70</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f>Unread!A71</f>
+        <v>Ohio A Personal Portrait of the 17th State</v>
+      </c>
+      <c r="B71">
+        <f>Unread!B71</f>
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <f>Unread!C71</f>
+        <v>200</v>
+      </c>
+      <c r="D71">
+        <f>Unread!D71</f>
+        <v>0.01</v>
+      </c>
+      <c r="E71" t="str">
+        <f>Unread!E71</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f>Unread!A72</f>
+        <v>Guidebook for Marines</v>
+      </c>
+      <c r="B72">
+        <f>Unread!B72</f>
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <f>Unread!C72</f>
+        <v>400</v>
+      </c>
+      <c r="D72">
+        <f>Unread!D72</f>
+        <v>0.01</v>
+      </c>
+      <c r="E72" t="str">
+        <f>Unread!E72</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f>Unread!A73</f>
+        <v xml:space="preserve">The Gamble: General Petraeus and the American Military Adventure in Iraq  </v>
+      </c>
+      <c r="B73">
+        <f>Unread!B73</f>
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <f>Unread!C73</f>
+        <v>416</v>
+      </c>
+      <c r="D73">
+        <f>Unread!D73</f>
+        <v>9.6153846153846159E-3</v>
+      </c>
+      <c r="E73" t="str">
+        <f>Unread!E73</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f>Unread!A74</f>
+        <v>The Alchemist</v>
+      </c>
+      <c r="B74">
+        <f>Unread!B74</f>
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <f>Unread!C74</f>
+        <v>208</v>
+      </c>
+      <c r="D74">
+        <f>Unread!D74</f>
+        <v>9.6153846153846159E-3</v>
+      </c>
+      <c r="E74" t="str">
+        <f>Unread!E74</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f>Unread!A75</f>
+        <v xml:space="preserve">Physics Made Simple: A Complete Introduction to the Basic Principles of This Fundamental Science (Made    - Simple (Broadway Books))  </v>
+      </c>
+      <c r="B75">
+        <f>Unread!B75</f>
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <f>Unread!C75</f>
+        <v>208</v>
+      </c>
+      <c r="D75">
+        <f>Unread!D75</f>
+        <v>9.6153846153846159E-3</v>
+      </c>
+      <c r="E75" t="str">
+        <f>Unread!E75</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f>Unread!A76</f>
+        <v>Knocking on Labor's Door</v>
+      </c>
+      <c r="B76">
+        <f>Unread!B76</f>
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <f>Unread!C76</f>
+        <v>312</v>
+      </c>
+      <c r="D76">
+        <f>Unread!D76</f>
+        <v>9.6153846153846159E-3</v>
+      </c>
+      <c r="E76" t="str">
+        <f>Unread!E76</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f>Unread!A77</f>
+        <v>Boots and Saddles</v>
+      </c>
+      <c r="B77">
+        <f>Unread!B77</f>
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <f>Unread!C77</f>
+        <v>316</v>
+      </c>
+      <c r="D77">
+        <f>Unread!D77</f>
+        <v>9.4936708860759497E-3</v>
+      </c>
+      <c r="E77" t="str">
+        <f>Unread!E77</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f>Unread!A78</f>
+        <v>Bringing up Bebe</v>
+      </c>
+      <c r="B78">
+        <f>Unread!B78</f>
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <f>Unread!C78</f>
+        <v>432</v>
+      </c>
+      <c r="D78">
+        <f>Unread!D78</f>
+        <v>9.2592592592592587E-3</v>
+      </c>
+      <c r="E78" t="str">
+        <f>Unread!E78</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f>Unread!A79</f>
+        <v xml:space="preserve">I Am a Strange Loop  </v>
+      </c>
+      <c r="B79">
+        <f>Unread!B79</f>
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <f>Unread!C79</f>
+        <v>436</v>
+      </c>
+      <c r="D79">
+        <f>Unread!D79</f>
+        <v>9.1743119266055051E-3</v>
+      </c>
+      <c r="E79" t="str">
+        <f>Unread!E79</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f>Unread!A80</f>
+        <v>The Black Swan</v>
+      </c>
+      <c r="B80">
+        <f>Unread!B80</f>
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <f>Unread!C80</f>
+        <v>444</v>
+      </c>
+      <c r="D80">
+        <f>Unread!D80</f>
+        <v>9.0090090090090089E-3</v>
+      </c>
+      <c r="E80" t="str">
+        <f>Unread!E80</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f>Unread!A81</f>
+        <v xml:space="preserve">Eichmann in Jerusalem: A Report on the Banality of Evil (Penguin Classics)  </v>
+      </c>
+      <c r="B81">
+        <f>Unread!B81</f>
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <f>Unread!C81</f>
+        <v>336</v>
+      </c>
+      <c r="D81">
+        <f>Unread!D81</f>
+        <v>8.9285714285714281E-3</v>
+      </c>
+      <c r="E81" t="str">
+        <f>Unread!E81</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f>Unread!A82</f>
+        <v>The Relativity of Wrong (Asimov)</v>
+      </c>
+      <c r="B82">
+        <f>Unread!B82</f>
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <f>Unread!C82</f>
+        <v>225</v>
+      </c>
+      <c r="D82">
+        <f>Unread!D82</f>
+        <v>8.8888888888888889E-3</v>
+      </c>
+      <c r="E82" t="str">
+        <f>Unread!E82</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f>Unread!A83</f>
+        <v>Nuclear Weapons and Coercive Diplomacy</v>
+      </c>
+      <c r="B83">
+        <f>Unread!B83</f>
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <f>Unread!C83</f>
+        <v>344</v>
+      </c>
+      <c r="D83">
+        <f>Unread!D83</f>
+        <v>8.7209302325581394E-3</v>
+      </c>
+      <c r="E83" t="str">
+        <f>Unread!E83</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f>Unread!A84</f>
+        <v>A Generation of Sociopaths</v>
+      </c>
+      <c r="B84">
+        <f>Unread!B84</f>
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <f>Unread!C84</f>
+        <v>464</v>
+      </c>
+      <c r="D84">
+        <f>Unread!D84</f>
+        <v>8.6206896551724137E-3</v>
+      </c>
+      <c r="E84" t="str">
+        <f>Unread!E84</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f>Unread!A85</f>
+        <v xml:space="preserve">Abraham Lincoln and the Structure of Reason  </v>
+      </c>
+      <c r="B85">
+        <f>Unread!B85</f>
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <f>Unread!C85</f>
+        <v>464</v>
+      </c>
+      <c r="D85">
+        <f>Unread!D85</f>
+        <v>8.6206896551724137E-3</v>
+      </c>
+      <c r="E85" t="str">
+        <f>Unread!E85</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f>Unread!A86</f>
+        <v xml:space="preserve">Silence: A Christian History  </v>
+      </c>
+      <c r="B86">
+        <f>Unread!B86</f>
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <f>Unread!C86</f>
+        <v>352</v>
+      </c>
+      <c r="D86">
+        <f>Unread!D86</f>
+        <v>8.5227272727272721E-3</v>
+      </c>
+      <c r="E86" t="str">
+        <f>Unread!E86</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f>Unread!A87</f>
+        <v>The Eastern Front 1914-1917</v>
+      </c>
+      <c r="B87">
+        <f>Unread!B87</f>
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <f>Unread!C87</f>
+        <v>352</v>
+      </c>
+      <c r="D87">
+        <f>Unread!D87</f>
+        <v>8.5227272727272721E-3</v>
+      </c>
+      <c r="E87" t="str">
+        <f>Unread!E87</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f>Unread!A88</f>
+        <v>The Battle for God</v>
+      </c>
+      <c r="B88">
+        <f>Unread!B88</f>
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <f>Unread!C88</f>
+        <v>480</v>
+      </c>
+      <c r="D88">
+        <f>Unread!D88</f>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="E88" t="str">
+        <f>Unread!E88</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <f>Unread!A89</f>
+        <v>Warriors and Citizens</v>
+      </c>
+      <c r="B89">
+        <f>Unread!B89</f>
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <f>Unread!C89</f>
+        <v>360</v>
+      </c>
+      <c r="D89">
+        <f>Unread!D89</f>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="E89" t="str">
+        <f>Unread!E89</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <f>Unread!A90</f>
+        <v>Bible Nation</v>
+      </c>
+      <c r="B90">
+        <f>Unread!B90</f>
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <f>Unread!C90</f>
+        <v>240</v>
+      </c>
+      <c r="D90">
+        <f>Unread!D90</f>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="E90" t="str">
+        <f>Unread!E90</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <f>Unread!A91</f>
+        <v>Leaders Eat Last</v>
+      </c>
+      <c r="B91">
+        <f>Unread!B91</f>
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <f>Unread!C91</f>
+        <v>368</v>
+      </c>
+      <c r="D91">
+        <f>Unread!D91</f>
+        <v>8.152173913043478E-3</v>
+      </c>
+      <c r="E91" t="str">
+        <f>Unread!E91</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
+        <f>Unread!A92</f>
+        <v>Legionnaire</v>
+      </c>
+      <c r="B92">
+        <f>Unread!B92</f>
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <f>Unread!C92</f>
+        <v>368</v>
+      </c>
+      <c r="D92">
+        <f>Unread!D92</f>
+        <v>8.152173913043478E-3</v>
+      </c>
+      <c r="E92" t="str">
+        <f>Unread!E92</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
+        <f>Unread!A93</f>
+        <v>Empire of the Summer Moon: Quanah Parker and the Rise and Fall of the Comanche's, the Most Powerful</v>
+      </c>
+      <c r="B93">
+        <f>Unread!B93</f>
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <f>Unread!C93</f>
+        <v>371</v>
+      </c>
+      <c r="D93">
+        <f>Unread!D93</f>
+        <v>8.0862533692722376E-3</v>
+      </c>
+      <c r="E93" t="str">
+        <f>Unread!E93</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
+        <f>Unread!A94</f>
+        <v>Thinking Fast and Slow</v>
+      </c>
+      <c r="B94">
+        <f>Unread!B94</f>
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <f>Unread!C94</f>
+        <v>499</v>
+      </c>
+      <c r="D94">
+        <f>Unread!D94</f>
+        <v>8.0160320641282558E-3</v>
+      </c>
+      <c r="E94" t="str">
+        <f>Unread!E94</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
+        <f>Unread!A95</f>
+        <v xml:space="preserve">Living Buddha, Living Christ 10th Anniversary Edition  </v>
+      </c>
+      <c r="B95">
+        <f>Unread!B95</f>
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <f>Unread!C95</f>
+        <v>250</v>
+      </c>
+      <c r="D95">
+        <f>Unread!D95</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E95" t="str">
+        <f>Unread!E95</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
+        <f>Unread!A96</f>
+        <v>Jerusalem: One City Three Faiths</v>
+      </c>
+      <c r="B96">
+        <f>Unread!B96</f>
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <f>Unread!C96</f>
+        <v>512</v>
+      </c>
+      <c r="D96">
+        <f>Unread!D96</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="E96" t="str">
+        <f>Unread!E96</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <f>Unread!A97</f>
+        <v>Fiasco</v>
+      </c>
+      <c r="B97">
+        <f>Unread!B97</f>
+        <v>4</v>
+      </c>
+      <c r="C97">
+        <f>Unread!C97</f>
+        <v>512</v>
+      </c>
+      <c r="D97">
+        <f>Unread!D97</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="E97" t="str">
+        <f>Unread!E97</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
+        <f>Unread!A98</f>
+        <v>Wrapped in the Flag: A Personal History of America's Radical Right</v>
+      </c>
+      <c r="B98">
+        <f>Unread!B98</f>
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <f>Unread!C98</f>
+        <v>264</v>
+      </c>
+      <c r="D98">
+        <f>Unread!D98</f>
+        <v>7.575757575757576E-3</v>
+      </c>
+      <c r="E98" t="str">
+        <f>Unread!E98</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <f>Unread!A99</f>
+        <v xml:space="preserve">War Against War: The American Fight for Peace, 1914-1918    </v>
+      </c>
+      <c r="B99">
+        <f>Unread!B99</f>
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <f>Unread!C99</f>
+        <v>400</v>
+      </c>
+      <c r="D99">
+        <f>Unread!D99</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="E99" t="str">
+        <f>Unread!E99</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
+        <f>Unread!A100</f>
+        <v>The Information: A History, A Theory, A Flood</v>
+      </c>
+      <c r="B100">
+        <f>Unread!B100</f>
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <f>Unread!C100</f>
+        <v>544</v>
+      </c>
+      <c r="D100">
+        <f>Unread!D100</f>
+        <v>7.3529411764705881E-3</v>
+      </c>
+      <c r="E100" t="str">
+        <f>Unread!E100</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <f>Unread!A101</f>
+        <v>On Killing</v>
+      </c>
+      <c r="B101">
+        <f>Unread!B101</f>
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <f>Unread!C101</f>
+        <v>416</v>
+      </c>
+      <c r="D101">
+        <f>Unread!D101</f>
+        <v>7.2115384615384619E-3</v>
+      </c>
+      <c r="E101" t="str">
+        <f>Unread!E101</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
+        <f>Unread!A102</f>
+        <v>Don't Know Much About Mythology</v>
+      </c>
+      <c r="B102">
+        <f>Unread!B102</f>
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <f>Unread!C102</f>
+        <v>560</v>
+      </c>
+      <c r="D102">
+        <f>Unread!D102</f>
+        <v>7.1428571428571426E-3</v>
+      </c>
+      <c r="E102" t="str">
+        <f>Unread!E102</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
+        <f>Unread!A103</f>
+        <v>A Saturnalia of Bunk</v>
+      </c>
+      <c r="B103">
+        <f>Unread!B103</f>
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <f>Unread!C103</f>
+        <v>284</v>
+      </c>
+      <c r="D103">
+        <f>Unread!D103</f>
+        <v>7.0422535211267607E-3</v>
+      </c>
+      <c r="E103" t="str">
+        <f>Unread!E103</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
+        <f>Unread!A104</f>
+        <v xml:space="preserve">The Psychopath Test: A Journey Through the Madness Industry  </v>
+      </c>
+      <c r="B104">
+        <f>Unread!B104</f>
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <f>Unread!C104</f>
+        <v>288</v>
+      </c>
+      <c r="D104">
+        <f>Unread!D104</f>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E104" t="str">
+        <f>Unread!E104</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
+        <f>Unread!A105</f>
+        <v>A Testament of Hope: The Essential Writings and Speeches (MLK)</v>
+      </c>
+      <c r="B105">
+        <f>Unread!B105</f>
+        <v>5</v>
+      </c>
+      <c r="C105">
+        <f>Unread!C105</f>
+        <v>736</v>
+      </c>
+      <c r="D105">
+        <f>Unread!D105</f>
+        <v>6.793478260869565E-3</v>
+      </c>
+      <c r="E105" t="str">
+        <f>Unread!E105</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
+        <f>Unread!A106</f>
+        <v xml:space="preserve">History of Religion a Sketch of Primitive Religious Beliefs and Practices, and of the Origin and Character of the Great Systems  </v>
+      </c>
+      <c r="B106">
+        <f>Unread!B106</f>
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <f>Unread!C106</f>
+        <v>148</v>
+      </c>
+      <c r="D106">
+        <f>Unread!D106</f>
+        <v>6.7567567567567571E-3</v>
+      </c>
+      <c r="E106" t="str">
+        <f>Unread!E106</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
+        <f>Unread!A107</f>
+        <v>The Big Bonanza</v>
+      </c>
+      <c r="B107">
+        <f>Unread!B107</f>
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <f>Unread!C107</f>
+        <v>450</v>
+      </c>
+      <c r="D107">
+        <f>Unread!D107</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="E107" t="str">
+        <f>Unread!E107</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
+        <f>Unread!A108</f>
+        <v>The New Knighthood</v>
+      </c>
+      <c r="B108">
+        <f>Unread!B108</f>
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <f>Unread!C108</f>
+        <v>464</v>
+      </c>
+      <c r="D108">
+        <f>Unread!D108</f>
+        <v>6.4655172413793103E-3</v>
+      </c>
+      <c r="E108" t="str">
+        <f>Unread!E108</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
+        <f>Unread!A109</f>
+        <v>Hard Times</v>
+      </c>
+      <c r="B109">
+        <f>Unread!B109</f>
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <f>Unread!C109</f>
+        <v>480</v>
+      </c>
+      <c r="D109">
+        <f>Unread!D109</f>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="E109" t="str">
+        <f>Unread!E109</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
+        <f>Unread!A110</f>
+        <v xml:space="preserve">Black Earth: The Holocaust as History and Warning  </v>
+      </c>
+      <c r="B110">
+        <f>Unread!B110</f>
+        <v>3</v>
+      </c>
+      <c r="C110">
+        <f>Unread!C110</f>
+        <v>480</v>
+      </c>
+      <c r="D110">
+        <f>Unread!D110</f>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="E110" t="str">
+        <f>Unread!E110</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
+        <f>Unread!A111</f>
+        <v xml:space="preserve">Liberty or Death: The French Revolution </v>
+      </c>
+      <c r="B111">
+        <f>Unread!B111</f>
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <f>Unread!C111</f>
+        <v>488</v>
+      </c>
+      <c r="D111">
+        <f>Unread!D111</f>
+        <v>6.1475409836065573E-3</v>
+      </c>
+      <c r="E111" t="str">
+        <f>Unread!E111</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
+        <f>Unread!A112</f>
+        <v>How Democracies Die</v>
+      </c>
+      <c r="B112">
+        <f>Unread!B112</f>
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <f>Unread!C112</f>
+        <v>332</v>
+      </c>
+      <c r="D112">
+        <f>Unread!D112</f>
+        <v>6.024096385542169E-3</v>
+      </c>
+      <c r="E112" t="str">
+        <f>Unread!E112</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
+        <f>Unread!A113</f>
+        <v>Venetian Masque</v>
+      </c>
+      <c r="B113">
+        <f>Unread!B113</f>
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <f>Unread!C113</f>
+        <v>332</v>
+      </c>
+      <c r="D113">
+        <f>Unread!D113</f>
+        <v>6.024096385542169E-3</v>
+      </c>
+      <c r="E113" t="str">
+        <f>Unread!E113</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="str">
+        <f>Unread!A114</f>
+        <v>A Pictorial History of the Great Lakes</v>
+      </c>
+      <c r="B114">
+        <f>Unread!B114</f>
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <f>Unread!C114</f>
+        <v>344</v>
+      </c>
+      <c r="D114">
+        <f>Unread!D114</f>
+        <v>5.8139534883720929E-3</v>
+      </c>
+      <c r="E114" t="str">
+        <f>Unread!E114</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
+        <f>Unread!A115</f>
+        <v>A Man in Full</v>
+      </c>
+      <c r="B115">
+        <f>Unread!B115</f>
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <f>Unread!C115</f>
+        <v>704</v>
+      </c>
+      <c r="D115">
+        <f>Unread!D115</f>
+        <v>5.681818181818182E-3</v>
+      </c>
+      <c r="E115" t="str">
+        <f>Unread!E115</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="str">
+        <f>Unread!A116</f>
+        <v>The Last King</v>
+      </c>
+      <c r="B116">
+        <f>Unread!B116</f>
+        <v>2</v>
+      </c>
+      <c r="C116">
+        <f>Unread!C116</f>
+        <v>366</v>
+      </c>
+      <c r="D116">
+        <f>Unread!D116</f>
+        <v>5.4644808743169399E-3</v>
+      </c>
+      <c r="E116" t="str">
+        <f>Unread!E116</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="str">
+        <f>Unread!A117</f>
+        <v xml:space="preserve">Tools of Titans: The Tactics, Routines, and Habits of Billionaires, Icons, and World-Class Performers  </v>
+      </c>
+      <c r="B117">
+        <f>Unread!B117</f>
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <f>Unread!C117</f>
+        <v>736</v>
+      </c>
+      <c r="D117">
+        <f>Unread!D117</f>
+        <v>5.434782608695652E-3</v>
+      </c>
+      <c r="E117" t="str">
+        <f>Unread!E117</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="str">
+        <f>Unread!A118</f>
+        <v xml:space="preserve">Nom De Plume: A (Secret) History of Pseudonyms </v>
+      </c>
+      <c r="B118">
+        <f>Unread!B118</f>
+        <v>2</v>
+      </c>
+      <c r="C118">
+        <f>Unread!C118</f>
+        <v>373</v>
+      </c>
+      <c r="D118">
+        <f>Unread!D118</f>
+        <v>5.3619302949061663E-3</v>
+      </c>
+      <c r="E118" t="str">
+        <f>Unread!E118</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="str">
+        <f>Unread!A119</f>
+        <v>Enemies: A History of the FBI</v>
+      </c>
+      <c r="B119">
+        <f>Unread!B119</f>
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <f>Unread!C119</f>
+        <v>560</v>
+      </c>
+      <c r="D119">
+        <f>Unread!D119</f>
+        <v>5.3571428571428572E-3</v>
+      </c>
+      <c r="E119" t="str">
+        <f>Unread!E119</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="str">
+        <f>Unread!A120</f>
+        <v>Don't Know Much About the Bible</v>
+      </c>
+      <c r="B120">
+        <f>Unread!B120</f>
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <f>Unread!C120</f>
+        <v>560</v>
+      </c>
+      <c r="D120">
+        <f>Unread!D120</f>
+        <v>5.3571428571428572E-3</v>
+      </c>
+      <c r="E120" t="str">
+        <f>Unread!E120</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="str">
+        <f>Unread!A121</f>
+        <v xml:space="preserve">The Origins of Totalitarianism </v>
+      </c>
+      <c r="B121">
+        <f>Unread!B121</f>
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <f>Unread!C121</f>
+        <v>576</v>
+      </c>
+      <c r="D121">
+        <f>Unread!D121</f>
+        <v>5.208333333333333E-3</v>
+      </c>
+      <c r="E121" t="str">
+        <f>Unread!E121</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="str">
+        <f>Unread!A122</f>
+        <v>How Music Works</v>
+      </c>
+      <c r="B122">
+        <f>Unread!B122</f>
+        <v>2</v>
+      </c>
+      <c r="C122">
+        <f>Unread!C122</f>
+        <v>384</v>
+      </c>
+      <c r="D122">
+        <f>Unread!D122</f>
+        <v>5.208333333333333E-3</v>
+      </c>
+      <c r="E122" t="str">
+        <f>Unread!E122</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="str">
+        <f>Unread!A123</f>
+        <v>The Great Unknown</v>
+      </c>
+      <c r="B123">
+        <f>Unread!B123</f>
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <f>Unread!C123</f>
+        <v>200</v>
+      </c>
+      <c r="D123">
+        <f>Unread!D123</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E123" t="str">
+        <f>Unread!E123</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="str">
+        <f>Unread!A124</f>
+        <v>The Way of the Knife</v>
+      </c>
+      <c r="B124">
+        <f>Unread!B124</f>
+        <v>2</v>
+      </c>
+      <c r="C124">
+        <f>Unread!C124</f>
+        <v>400</v>
+      </c>
+      <c r="D124">
+        <f>Unread!D124</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E124" t="str">
+        <f>Unread!E124</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="str">
+        <f>Unread!A125</f>
+        <v>Biblical Literalism</v>
+      </c>
+      <c r="B125">
+        <f>Unread!B125</f>
+        <v>2</v>
+      </c>
+      <c r="C125">
+        <f>Unread!C125</f>
+        <v>416</v>
+      </c>
+      <c r="D125">
+        <f>Unread!D125</f>
+        <v>4.807692307692308E-3</v>
+      </c>
+      <c r="E125" t="str">
+        <f>Unread!E125</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="str">
+        <f>Unread!A126</f>
+        <v xml:space="preserve">Red Notice: A True Story of High Finance, Murder, and One Man’s Fight for Justice  </v>
+      </c>
+      <c r="B126">
+        <f>Unread!B126</f>
+        <v>2</v>
+      </c>
+      <c r="C126">
+        <f>Unread!C126</f>
+        <v>416</v>
+      </c>
+      <c r="D126">
+        <f>Unread!D126</f>
+        <v>4.807692307692308E-3</v>
+      </c>
+      <c r="E126" t="str">
+        <f>Unread!E126</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="str">
+        <f>Unread!A127</f>
+        <v>An Unfinished Life</v>
+      </c>
+      <c r="B127">
+        <f>Unread!B127</f>
+        <v>4</v>
+      </c>
+      <c r="C127">
+        <f>Unread!C127</f>
+        <v>848</v>
+      </c>
+      <c r="D127">
+        <f>Unread!D127</f>
+        <v>4.7169811320754715E-3</v>
+      </c>
+      <c r="E127" t="str">
+        <f>Unread!E127</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="str">
+        <f>Unread!A128</f>
+        <v>The War To End All Wars (Coffman)</v>
+      </c>
+      <c r="B128">
+        <f>Unread!B128</f>
+        <v>2</v>
+      </c>
+      <c r="C128">
+        <f>Unread!C128</f>
+        <v>440</v>
+      </c>
+      <c r="D128">
+        <f>Unread!D128</f>
+        <v>4.5454545454545452E-3</v>
+      </c>
+      <c r="E128" t="str">
+        <f>Unread!E128</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="str">
+        <f>Unread!A129</f>
+        <v>1000 Beautiful Things</v>
+      </c>
+      <c r="B129">
+        <f>Unread!B129</f>
+        <v>2</v>
+      </c>
+      <c r="C129">
+        <f>Unread!C129</f>
+        <v>456</v>
+      </c>
+      <c r="D129">
+        <f>Unread!D129</f>
+        <v>4.3859649122807015E-3</v>
+      </c>
+      <c r="E129" t="str">
+        <f>Unread!E129</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f>Unread!A130</f>
+        <v>0</v>
+      </c>
+      <c r="B130">
+        <f>Unread!B130</f>
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <f>Unread!C130</f>
+        <v>0</v>
+      </c>
+      <c r="D130" t="str">
+        <f>Unread!D130</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E130">
+        <f>Unread!E130</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f>Unread!A131</f>
+        <v>0</v>
+      </c>
+      <c r="B131">
+        <f>Unread!B131</f>
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <f>Unread!C131</f>
+        <v>0</v>
+      </c>
+      <c r="D131" t="str">
+        <f>Unread!D131</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E131">
+        <f>Unread!E131</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:E131">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Book Ranking.xlsx
+++ b/Book Ranking.xlsx
@@ -9,18 +9,19 @@
   <sheets>
     <sheet name="Unread" sheetId="1" r:id="rId1"/>
     <sheet name="Read" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Dropdown" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Read!$A$2:$E$131</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Unread!$A$2:$E$228</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Unread!$A$2:$F$231</definedName>
+    <definedName name="Media">Dropdown!$C$2:$C$5</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="155">
   <si>
     <t>Book Ranking</t>
   </si>
@@ -461,6 +462,30 @@
   </si>
   <si>
     <t>Normal Accidents: Living with High Risk Technologies (Charles Perrow)</t>
+  </si>
+  <si>
+    <t>Algorithmic Accountability: On the Investigation of Black Boxes</t>
+  </si>
+  <si>
+    <t>Algorithmic bias (W)</t>
+  </si>
+  <si>
+    <t>Enhancing our Grasp of Comples Arguments (Paper)</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>Research Paper</t>
+  </si>
+  <si>
+    <t>Online Article</t>
+  </si>
+  <si>
+    <t>Wikipedia</t>
   </si>
 </sst>
 </file>
@@ -826,3011 +851,3019 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E228"/>
+  <dimension ref="A1:F231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A127" sqref="A127"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="125.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="17.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="4"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="2"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
+      <c r="B2" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="3">
-        <v>4</v>
-      </c>
       <c r="C3" s="3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
         <v>46</v>
       </c>
-      <c r="D3" s="7">
-        <f t="shared" ref="D3" si="0">B3/C3</f>
+      <c r="E3" s="7">
+        <f t="shared" ref="E3" si="0">C3/D3</f>
         <v>8.6956521739130432E-2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="7" t="str">
-        <f t="shared" ref="D4:D13" si="1">IFERROR(B4/C4," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7" t="str">
+        <f t="shared" ref="E4:E13" si="1">IFERROR(C4/D4," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7" t="str">
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7" t="str">
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="7" t="str">
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="7" t="str">
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="7" t="str">
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="3">
-        <v>2</v>
-      </c>
-      <c r="D10" s="7" t="str">
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="3">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7" t="str">
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="7" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="3">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7" t="str">
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13" s="7" t="str">
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="7" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B14" s="3">
-        <v>4</v>
-      </c>
       <c r="C14" s="3">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3">
         <v>9</v>
       </c>
-      <c r="D14" s="7">
-        <f>IFERROR(B14/C14," ")</f>
+      <c r="E14" s="7">
+        <f>IFERROR(C14/D14," ")</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3">
+        <v>11</v>
+      </c>
+      <c r="E15" s="7">
+        <f>IFERROR(C15/D15," ")</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3">
+        <v>14</v>
+      </c>
+      <c r="E16" s="7">
+        <f>IFERROR(C16/D16," ")</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>12</v>
+      </c>
+      <c r="E17" s="7">
+        <f>IFERROR(C17/D17," ")</f>
+        <v>0.25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="3">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3">
         <v>14</v>
       </c>
-      <c r="D15" s="7">
-        <f>IFERROR(B15/C15," ")</f>
+      <c r="E18" s="7">
+        <f>IFERROR(C18/D18," ")</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="E15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" s="3">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3">
-        <v>20</v>
-      </c>
-      <c r="D16" s="7">
-        <f>IFERROR(B16/C16," ")</f>
-        <v>0.2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="3">
-        <v>3</v>
-      </c>
-      <c r="C17" s="3">
-        <v>20</v>
-      </c>
-      <c r="D17" s="7">
-        <f>IFERROR(B17/C17," ")</f>
-        <v>0.15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="3">
-        <v>3</v>
-      </c>
-      <c r="C18" s="3">
-        <v>25</v>
-      </c>
-      <c r="D18" s="7">
-        <f>IFERROR(B18/C18," ")</f>
-        <v>0.12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="3">
+      <c r="C19" s="3">
         <v>5</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
         <v>73</v>
       </c>
-      <c r="D19" s="7">
-        <f>B19/C19</f>
+      <c r="E19" s="7">
+        <f>C19/D19</f>
         <v>6.8493150684931503E-2</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4</v>
+      </c>
+      <c r="D20" s="3">
+        <v>20</v>
+      </c>
+      <c r="E20" s="7">
+        <f>IFERROR(C20/D20," ")</f>
+        <v>0.2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3">
+        <v>20</v>
+      </c>
+      <c r="E21" s="7">
+        <f>IFERROR(C21/D21," ")</f>
+        <v>0.15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3">
+        <v>25</v>
+      </c>
+      <c r="E22" s="7">
+        <f>IFERROR(C22/D22," ")</f>
+        <v>0.12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="3">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
         <v>30</v>
       </c>
-      <c r="D20" s="7">
-        <f>B20/C20</f>
+      <c r="E23" s="7">
+        <f>C23/D23</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="F23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="3">
-        <v>3</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="C24" s="3">
+        <v>3</v>
+      </c>
+      <c r="D24" s="3">
         <v>55</v>
       </c>
-      <c r="D21" s="7">
-        <f t="shared" ref="D21:D84" si="2">IFERROR(B21/C21," ")</f>
+      <c r="E24" s="7">
+        <f>IFERROR(C24/D24," ")</f>
         <v>5.4545454545454543E-2</v>
       </c>
-      <c r="E21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="F24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="3">
-        <v>4</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="C25" s="3">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3">
         <v>74</v>
       </c>
-      <c r="D22" s="7">
-        <f t="shared" si="2"/>
+      <c r="E25" s="7">
+        <f>IFERROR(C25/D25," ")</f>
         <v>5.4054054054054057E-2</v>
       </c>
-      <c r="E22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="F25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="3">
+      <c r="C26" s="3">
         <v>5</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D26" s="3">
         <v>120</v>
       </c>
-      <c r="D23" s="7">
-        <f t="shared" si="2"/>
+      <c r="E26" s="7">
+        <f>IFERROR(C26/D26," ")</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="F26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="3">
-        <v>3</v>
-      </c>
-      <c r="C24" s="3">
-        <v>72</v>
-      </c>
-      <c r="D24" s="7">
-        <f t="shared" si="2"/>
+      <c r="C27" s="3">
+        <v>3</v>
+      </c>
+      <c r="D27" s="3">
+        <v>72</v>
+      </c>
+      <c r="E27" s="7">
+        <f>IFERROR(C27/D27," ")</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="F27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B25" s="3">
+      <c r="C28" s="3">
         <v>5</v>
       </c>
-      <c r="C25" s="3">
+      <c r="D28" s="3">
         <v>128</v>
       </c>
-      <c r="D25" s="7">
-        <f t="shared" si="2"/>
+      <c r="E28" s="7">
+        <f>IFERROR(C28/D28," ")</f>
         <v>3.90625E-2</v>
       </c>
-      <c r="E25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="F28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="3">
+      <c r="C29" s="3">
         <v>5</v>
       </c>
-      <c r="C26" s="3">
+      <c r="D29" s="3">
         <v>133</v>
       </c>
-      <c r="D26" s="7">
-        <f t="shared" si="2"/>
+      <c r="E29" s="7">
+        <f>IFERROR(C29/D29," ")</f>
         <v>3.7593984962406013E-2</v>
       </c>
-      <c r="E26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="F29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="3">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="C30" s="3">
+        <v>4</v>
+      </c>
+      <c r="D30" s="3">
         <v>132</v>
       </c>
-      <c r="D27" s="7">
-        <f t="shared" si="2"/>
+      <c r="E30" s="7">
+        <f>IFERROR(C30/D30," ")</f>
         <v>3.0303030303030304E-2</v>
       </c>
-      <c r="E27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="F30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="3">
-        <v>4</v>
-      </c>
-      <c r="C28" s="3">
+      <c r="C31" s="3">
+        <v>4</v>
+      </c>
+      <c r="D31" s="3">
         <v>160</v>
       </c>
-      <c r="D28" s="7">
-        <f t="shared" si="2"/>
+      <c r="E31" s="7">
+        <f>IFERROR(C31/D31," ")</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="F31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B29" s="3">
-        <v>2</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="C32" s="3">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3">
         <v>80</v>
       </c>
-      <c r="D29" s="7">
-        <f t="shared" si="2"/>
+      <c r="E32" s="7">
+        <f>IFERROR(C32/D32," ")</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="F32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="3">
-        <v>3</v>
-      </c>
-      <c r="C30" s="3">
+      <c r="C33" s="3">
+        <v>3</v>
+      </c>
+      <c r="D33" s="3">
         <v>124</v>
       </c>
-      <c r="D30" s="7">
-        <f t="shared" si="2"/>
+      <c r="E33" s="7">
+        <f>IFERROR(C33/D33," ")</f>
         <v>2.4193548387096774E-2</v>
       </c>
-      <c r="E30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="F33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="3">
+      <c r="C34" s="3">
         <v>5</v>
       </c>
-      <c r="C31" s="3">
+      <c r="D34" s="3">
         <v>208</v>
       </c>
-      <c r="D31" s="7">
-        <f t="shared" si="2"/>
+      <c r="E34" s="7">
+        <f>IFERROR(C34/D34," ")</f>
         <v>2.403846153846154E-2</v>
       </c>
-      <c r="E31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="F34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="3">
-        <v>3</v>
-      </c>
-      <c r="C32" s="3">
+      <c r="C35" s="3">
+        <v>3</v>
+      </c>
+      <c r="D35" s="3">
         <v>128</v>
       </c>
-      <c r="D32" s="7">
-        <f t="shared" si="2"/>
+      <c r="E35" s="7">
+        <f>IFERROR(C35/D35," ")</f>
         <v>2.34375E-2</v>
       </c>
-      <c r="E32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="F35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="3">
+      <c r="C36" s="3">
         <v>5</v>
       </c>
-      <c r="C33" s="3">
+      <c r="D36" s="3">
         <v>224</v>
       </c>
-      <c r="D33" s="7">
-        <f t="shared" si="2"/>
+      <c r="E36" s="7">
+        <f>IFERROR(C36/D36," ")</f>
         <v>2.2321428571428572E-2</v>
       </c>
-      <c r="E33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="F36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="3">
+      <c r="C37" s="3">
         <v>5</v>
       </c>
-      <c r="C34" s="3">
+      <c r="D37" s="3">
         <v>228</v>
       </c>
-      <c r="D34" s="7">
-        <f t="shared" si="2"/>
+      <c r="E37" s="7">
+        <f>IFERROR(C37/D37," ")</f>
         <v>2.1929824561403508E-2</v>
       </c>
-      <c r="E34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="F37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="3">
-        <v>4</v>
-      </c>
-      <c r="C35" s="3">
+      <c r="C38" s="3">
+        <v>4</v>
+      </c>
+      <c r="D38" s="3">
         <v>191</v>
       </c>
-      <c r="D35" s="7">
-        <f t="shared" si="2"/>
+      <c r="E38" s="7">
+        <f>IFERROR(C38/D38," ")</f>
         <v>2.0942408376963352E-2</v>
       </c>
-      <c r="E35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="F38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="3">
-        <v>4</v>
-      </c>
-      <c r="C36" s="3">
+      <c r="C39" s="3">
+        <v>4</v>
+      </c>
+      <c r="D39" s="3">
         <v>192</v>
       </c>
-      <c r="D36" s="7">
-        <f t="shared" si="2"/>
+      <c r="E39" s="7">
+        <f>IFERROR(C39/D39," ")</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="F39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="3">
-        <v>4</v>
-      </c>
-      <c r="C37" s="3">
+      <c r="C40" s="3">
+        <v>4</v>
+      </c>
+      <c r="D40" s="3">
         <v>198</v>
       </c>
-      <c r="D37" s="7">
-        <f t="shared" si="2"/>
+      <c r="E40" s="7">
+        <f>IFERROR(C40/D40," ")</f>
         <v>2.0202020202020204E-2</v>
       </c>
-      <c r="E37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="F40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="3">
+      <c r="C41" s="3">
         <v>5</v>
       </c>
-      <c r="C38" s="3">
+      <c r="D41" s="3">
         <v>258</v>
       </c>
-      <c r="D38" s="7">
-        <f t="shared" si="2"/>
+      <c r="E41" s="7">
+        <f>IFERROR(C41/D41," ")</f>
         <v>1.937984496124031E-2</v>
       </c>
-      <c r="E38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="F41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="3">
-        <v>3</v>
-      </c>
-      <c r="C39" s="3">
+      <c r="C42" s="3">
+        <v>3</v>
+      </c>
+      <c r="D42" s="3">
         <v>157</v>
       </c>
-      <c r="D39" s="7">
-        <f t="shared" si="2"/>
+      <c r="E42" s="7">
+        <f>IFERROR(C42/D42," ")</f>
         <v>1.9108280254777069E-2</v>
       </c>
-      <c r="E39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="F42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="3">
-        <v>3</v>
-      </c>
-      <c r="C40" s="3">
+      <c r="C43" s="3">
+        <v>3</v>
+      </c>
+      <c r="D43" s="3">
         <v>160</v>
       </c>
-      <c r="D40" s="7">
-        <f t="shared" si="2"/>
+      <c r="E43" s="7">
+        <f>IFERROR(C43/D43," ")</f>
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="E40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="F43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="3">
-        <v>4</v>
-      </c>
-      <c r="C41" s="3">
+      <c r="C44" s="3">
+        <v>4</v>
+      </c>
+      <c r="D44" s="3">
         <v>224</v>
       </c>
-      <c r="D41" s="7">
-        <f t="shared" si="2"/>
+      <c r="E44" s="7">
+        <f>IFERROR(C44/D44," ")</f>
         <v>1.7857142857142856E-2</v>
       </c>
-      <c r="E41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="F44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="3">
-        <v>4</v>
-      </c>
-      <c r="C42" s="3">
+      <c r="C45" s="3">
+        <v>4</v>
+      </c>
+      <c r="D45" s="3">
         <v>226</v>
       </c>
-      <c r="D42" s="7">
-        <f t="shared" si="2"/>
+      <c r="E45" s="7">
+        <f>IFERROR(C45/D45," ")</f>
         <v>1.7699115044247787E-2</v>
       </c>
-      <c r="E42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="F45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="3">
+      <c r="C46" s="3">
         <v>5</v>
       </c>
-      <c r="C43" s="3">
+      <c r="D46" s="3">
         <v>288</v>
       </c>
-      <c r="D43" s="7">
-        <f t="shared" si="2"/>
+      <c r="E46" s="7">
+        <f>IFERROR(C46/D46," ")</f>
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="E43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="F46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="3">
-        <v>4</v>
-      </c>
-      <c r="C44" s="3">
+      <c r="C47" s="3">
+        <v>4</v>
+      </c>
+      <c r="D47" s="3">
         <v>231</v>
       </c>
-      <c r="D44" s="7">
-        <f t="shared" si="2"/>
+      <c r="E47" s="7">
+        <f>IFERROR(C47/D47," ")</f>
         <v>1.7316017316017316E-2</v>
       </c>
-      <c r="E44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="F47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B45" s="3">
-        <v>3</v>
-      </c>
-      <c r="C45" s="3">
+      <c r="C48" s="3">
+        <v>3</v>
+      </c>
+      <c r="D48" s="3">
         <v>181</v>
       </c>
-      <c r="D45" s="7">
-        <f t="shared" si="2"/>
+      <c r="E48" s="7">
+        <f>IFERROR(C48/D48," ")</f>
         <v>1.6574585635359115E-2</v>
       </c>
-      <c r="E45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="F48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="3">
-        <v>3</v>
-      </c>
-      <c r="C46" s="3">
+      <c r="C49" s="3">
+        <v>3</v>
+      </c>
+      <c r="D49" s="3">
         <v>182</v>
       </c>
-      <c r="D46" s="7">
-        <f t="shared" si="2"/>
+      <c r="E49" s="7">
+        <f>IFERROR(C49/D49," ")</f>
         <v>1.6483516483516484E-2</v>
       </c>
-      <c r="E46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="F49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="3">
-        <v>4</v>
-      </c>
-      <c r="C47" s="3">
+      <c r="C50" s="3">
+        <v>4</v>
+      </c>
+      <c r="D50" s="3">
         <v>250</v>
       </c>
-      <c r="D47" s="7">
-        <f t="shared" si="2"/>
+      <c r="E50" s="7">
+        <f>IFERROR(C50/D50," ")</f>
         <v>1.6E-2</v>
       </c>
-      <c r="E47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="F50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="3">
-        <v>4</v>
-      </c>
-      <c r="C48" s="3">
+      <c r="C51" s="3">
+        <v>4</v>
+      </c>
+      <c r="D51" s="3">
         <v>266</v>
       </c>
-      <c r="D48" s="7">
-        <f t="shared" si="2"/>
+      <c r="E51" s="7">
+        <f>IFERROR(C51/D51," ")</f>
         <v>1.5037593984962405E-2</v>
       </c>
-      <c r="E48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="F51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="3">
+      <c r="C52" s="3">
         <v>5</v>
       </c>
-      <c r="C49" s="3">
+      <c r="D52" s="3">
         <v>336</v>
       </c>
-      <c r="D49" s="7">
-        <f t="shared" si="2"/>
+      <c r="E52" s="7">
+        <f>IFERROR(C52/D52," ")</f>
         <v>1.488095238095238E-2</v>
       </c>
-      <c r="E49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="F52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="3">
-        <v>2</v>
-      </c>
-      <c r="C50" s="3">
+      <c r="C53" s="3">
+        <v>2</v>
+      </c>
+      <c r="D53" s="3">
         <v>137</v>
       </c>
-      <c r="D50" s="7">
-        <f t="shared" si="2"/>
+      <c r="E53" s="7">
+        <f>IFERROR(C53/D53," ")</f>
         <v>1.4598540145985401E-2</v>
       </c>
-      <c r="E50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="F53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="3">
-        <v>4</v>
-      </c>
-      <c r="C51" s="3">
+      <c r="C54" s="3">
+        <v>4</v>
+      </c>
+      <c r="D54" s="3">
         <v>276</v>
       </c>
-      <c r="D51" s="7">
-        <f t="shared" si="2"/>
+      <c r="E54" s="7">
+        <f>IFERROR(C54/D54," ")</f>
         <v>1.4492753623188406E-2</v>
       </c>
-      <c r="E51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="F54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="3">
-        <v>3</v>
-      </c>
-      <c r="C52" s="3">
+      <c r="C55" s="3">
+        <v>3</v>
+      </c>
+      <c r="D55" s="3">
         <v>208</v>
       </c>
-      <c r="D52" s="7">
-        <f t="shared" si="2"/>
+      <c r="E55" s="7">
+        <f>IFERROR(C55/D55," ")</f>
         <v>1.4423076923076924E-2</v>
       </c>
-      <c r="E52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="F55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B53" s="3">
-        <v>3</v>
-      </c>
-      <c r="C53" s="3">
+      <c r="C56" s="3">
+        <v>3</v>
+      </c>
+      <c r="D56" s="3">
         <v>213</v>
       </c>
-      <c r="D53" s="7">
-        <f t="shared" si="2"/>
+      <c r="E56" s="7">
+        <f>IFERROR(C56/D56," ")</f>
         <v>1.4084507042253521E-2</v>
       </c>
-      <c r="E53" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="F56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="3">
-        <v>3</v>
-      </c>
-      <c r="C54" s="3">
+      <c r="C57" s="3">
+        <v>3</v>
+      </c>
+      <c r="D57" s="3">
         <v>220</v>
       </c>
-      <c r="D54" s="7">
-        <f t="shared" si="2"/>
+      <c r="E57" s="7">
+        <f>IFERROR(C57/D57," ")</f>
         <v>1.3636363636363636E-2</v>
       </c>
-      <c r="E54" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="F57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="3">
+      <c r="C58" s="3">
         <v>5</v>
       </c>
-      <c r="C55" s="3">
+      <c r="D58" s="3">
         <v>368</v>
       </c>
-      <c r="D55" s="7">
-        <f t="shared" si="2"/>
+      <c r="E58" s="7">
+        <f>IFERROR(C58/D58," ")</f>
         <v>1.358695652173913E-2</v>
       </c>
-      <c r="E55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="F58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="3">
-        <v>4</v>
-      </c>
-      <c r="C56" s="3">
+      <c r="C59" s="3">
+        <v>4</v>
+      </c>
+      <c r="D59" s="3">
         <v>320</v>
       </c>
-      <c r="D56" s="7">
-        <f t="shared" si="2"/>
+      <c r="E59" s="7">
+        <f>IFERROR(C59/D59," ")</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="E56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="F59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B57" s="3">
-        <v>2</v>
-      </c>
-      <c r="C57" s="3">
+      <c r="C60" s="3">
+        <v>2</v>
+      </c>
+      <c r="D60" s="3">
         <v>160</v>
       </c>
-      <c r="D57" s="7">
-        <f t="shared" si="2"/>
+      <c r="E60" s="7">
+        <f>IFERROR(C60/D60," ")</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="E57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="F60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="3">
-        <v>4</v>
-      </c>
-      <c r="C58" s="3">
+      <c r="C61" s="3">
+        <v>4</v>
+      </c>
+      <c r="D61" s="3">
         <v>336</v>
       </c>
-      <c r="D58" s="7">
-        <f t="shared" si="2"/>
+      <c r="E61" s="7">
+        <f>IFERROR(C61/D61," ")</f>
         <v>1.1904761904761904E-2</v>
       </c>
-      <c r="E58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="F61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="3">
-        <v>3</v>
-      </c>
-      <c r="C59" s="3">
+      <c r="C62" s="3">
+        <v>3</v>
+      </c>
+      <c r="D62" s="3">
         <v>256</v>
       </c>
-      <c r="D59" s="7">
-        <f t="shared" si="2"/>
+      <c r="E62" s="7">
+        <f>IFERROR(C62/D62," ")</f>
         <v>1.171875E-2</v>
       </c>
-      <c r="E59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="F62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B60" s="3">
-        <v>3</v>
-      </c>
-      <c r="C60" s="3">
+      <c r="C63" s="3">
+        <v>3</v>
+      </c>
+      <c r="D63" s="3">
         <v>256</v>
       </c>
-      <c r="D60" s="7">
-        <f t="shared" si="2"/>
+      <c r="E63" s="7">
+        <f>IFERROR(C63/D63," ")</f>
         <v>1.171875E-2</v>
       </c>
-      <c r="E60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="F63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B61" s="3">
+      <c r="C64" s="3">
         <v>5</v>
       </c>
-      <c r="C61" s="3">
+      <c r="D64" s="3">
         <v>432</v>
       </c>
-      <c r="D61" s="7">
-        <f t="shared" si="2"/>
+      <c r="E64" s="7">
+        <f>IFERROR(C64/D64," ")</f>
         <v>1.1574074074074073E-2</v>
       </c>
-      <c r="E61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="F64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="3">
-        <v>3</v>
-      </c>
-      <c r="C62" s="3">
+      <c r="C65" s="3">
+        <v>3</v>
+      </c>
+      <c r="D65" s="3">
         <v>264</v>
       </c>
-      <c r="D62" s="7">
-        <f t="shared" si="2"/>
+      <c r="E65" s="7">
+        <f>IFERROR(C65/D65," ")</f>
         <v>1.1363636363636364E-2</v>
       </c>
-      <c r="E62" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+      <c r="F65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B63" s="3">
-        <v>4</v>
-      </c>
-      <c r="C63" s="3">
+      <c r="C66" s="3">
+        <v>4</v>
+      </c>
+      <c r="D66" s="3">
         <v>352</v>
       </c>
-      <c r="D63" s="7">
-        <f t="shared" si="2"/>
+      <c r="E66" s="7">
+        <f>IFERROR(C66/D66," ")</f>
         <v>1.1363636363636364E-2</v>
       </c>
-      <c r="E63" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="F66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B64" s="3">
-        <v>3</v>
-      </c>
-      <c r="C64" s="3">
+      <c r="C67" s="3">
+        <v>3</v>
+      </c>
+      <c r="D67" s="3">
         <v>266</v>
       </c>
-      <c r="D64" s="7">
-        <f t="shared" si="2"/>
+      <c r="E67" s="7">
+        <f>IFERROR(C67/D67," ")</f>
         <v>1.1278195488721804E-2</v>
       </c>
-      <c r="E64" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="F67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B65" s="3">
-        <v>3</v>
-      </c>
-      <c r="C65" s="3">
+      <c r="C68" s="3">
+        <v>3</v>
+      </c>
+      <c r="D68" s="3">
         <v>277</v>
       </c>
-      <c r="D65" s="7">
-        <f t="shared" si="2"/>
+      <c r="E68" s="7">
+        <f>IFERROR(C68/D68," ")</f>
         <v>1.0830324909747292E-2</v>
       </c>
-      <c r="E65" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="F68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="3">
-        <v>4</v>
-      </c>
-      <c r="C66" s="3">
+      <c r="C69" s="3">
+        <v>4</v>
+      </c>
+      <c r="D69" s="3">
         <v>384</v>
       </c>
-      <c r="D66" s="7">
-        <f t="shared" si="2"/>
+      <c r="E69" s="7">
+        <f>IFERROR(C69/D69," ")</f>
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="E66" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="F69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="3">
-        <v>4</v>
-      </c>
-      <c r="C67" s="3">
+      <c r="C70" s="3">
+        <v>4</v>
+      </c>
+      <c r="D70" s="3">
         <v>384</v>
       </c>
-      <c r="D67" s="7">
-        <f t="shared" si="2"/>
+      <c r="E70" s="7">
+        <f>IFERROR(C70/D70," ")</f>
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="E67" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="F70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="3">
-        <v>3</v>
-      </c>
-      <c r="C68" s="3">
+      <c r="C71" s="3">
+        <v>3</v>
+      </c>
+      <c r="D71" s="3">
         <v>288</v>
       </c>
-      <c r="D68" s="7">
-        <f t="shared" si="2"/>
+      <c r="E71" s="7">
+        <f>IFERROR(C71/D71," ")</f>
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="E68" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="F71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B69" s="3">
-        <v>3</v>
-      </c>
-      <c r="C69" s="3">
+      <c r="C72" s="3">
+        <v>3</v>
+      </c>
+      <c r="D72" s="3">
         <v>288</v>
       </c>
-      <c r="D69" s="7">
-        <f t="shared" si="2"/>
+      <c r="E72" s="7">
+        <f>IFERROR(C72/D72," ")</f>
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="E69" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+      <c r="F72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B70" s="3">
-        <v>4</v>
-      </c>
-      <c r="C70" s="3">
+      <c r="C73" s="3">
+        <v>4</v>
+      </c>
+      <c r="D73" s="3">
         <v>400</v>
       </c>
-      <c r="D70" s="7">
-        <f t="shared" si="2"/>
+      <c r="E73" s="7">
+        <f>IFERROR(C73/D73," ")</f>
         <v>0.01</v>
       </c>
-      <c r="E70" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+      <c r="F73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B71" s="3">
-        <v>2</v>
-      </c>
-      <c r="C71" s="3">
+      <c r="C74" s="3">
+        <v>2</v>
+      </c>
+      <c r="D74" s="3">
         <v>200</v>
       </c>
-      <c r="D71" s="7">
-        <f t="shared" si="2"/>
+      <c r="E74" s="7">
+        <f>IFERROR(C74/D74," ")</f>
         <v>0.01</v>
       </c>
-      <c r="E71" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+      <c r="F74" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B72" s="3">
-        <v>4</v>
-      </c>
-      <c r="C72" s="3">
+      <c r="C75" s="3">
+        <v>4</v>
+      </c>
+      <c r="D75" s="3">
         <v>400</v>
       </c>
-      <c r="D72" s="7">
-        <f t="shared" si="2"/>
+      <c r="E75" s="7">
+        <f>IFERROR(C75/D75," ")</f>
         <v>0.01</v>
       </c>
-      <c r="E72" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+      <c r="F75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B73" s="3">
-        <v>4</v>
-      </c>
-      <c r="C73" s="3">
+      <c r="C76" s="3">
+        <v>4</v>
+      </c>
+      <c r="D76" s="3">
         <v>416</v>
       </c>
-      <c r="D73" s="7">
-        <f t="shared" si="2"/>
+      <c r="E76" s="7">
+        <f>IFERROR(C76/D76," ")</f>
         <v>9.6153846153846159E-3</v>
       </c>
-      <c r="E73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+      <c r="F76" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B74" s="8">
-        <v>2</v>
-      </c>
-      <c r="C74" s="3">
+      <c r="C77" s="8">
+        <v>2</v>
+      </c>
+      <c r="D77" s="3">
         <v>208</v>
       </c>
-      <c r="D74" s="7">
-        <f t="shared" si="2"/>
+      <c r="E77" s="7">
+        <f>IFERROR(C77/D77," ")</f>
         <v>9.6153846153846159E-3</v>
       </c>
-      <c r="E74" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+      <c r="F77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B75" s="3">
-        <v>2</v>
-      </c>
-      <c r="C75" s="3">
+      <c r="C78" s="3">
+        <v>2</v>
+      </c>
+      <c r="D78" s="3">
         <v>208</v>
       </c>
-      <c r="D75" s="7">
-        <f t="shared" si="2"/>
+      <c r="E78" s="7">
+        <f>IFERROR(C78/D78," ")</f>
         <v>9.6153846153846159E-3</v>
       </c>
-      <c r="E75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+      <c r="F78" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B76" s="3">
-        <v>3</v>
-      </c>
-      <c r="C76" s="3">
+      <c r="C79" s="3">
+        <v>3</v>
+      </c>
+      <c r="D79" s="3">
         <v>312</v>
       </c>
-      <c r="D76" s="7">
-        <f t="shared" si="2"/>
+      <c r="E79" s="7">
+        <f>IFERROR(C79/D79," ")</f>
         <v>9.6153846153846159E-3</v>
       </c>
-      <c r="E76" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+      <c r="F79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B77" s="3">
-        <v>3</v>
-      </c>
-      <c r="C77" s="3">
+      <c r="C80" s="3">
+        <v>3</v>
+      </c>
+      <c r="D80" s="3">
         <v>316</v>
       </c>
-      <c r="D77" s="7">
-        <f t="shared" si="2"/>
+      <c r="E80" s="7">
+        <f>IFERROR(C80/D80," ")</f>
         <v>9.4936708860759497E-3</v>
       </c>
-      <c r="E77" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+      <c r="F80" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B78" s="3">
-        <v>4</v>
-      </c>
-      <c r="C78" s="3">
+      <c r="C81" s="3">
+        <v>4</v>
+      </c>
+      <c r="D81" s="3">
         <v>432</v>
       </c>
-      <c r="D78" s="7">
-        <f t="shared" si="2"/>
+      <c r="E81" s="7">
+        <f>IFERROR(C81/D81," ")</f>
         <v>9.2592592592592587E-3</v>
       </c>
-      <c r="E78" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+      <c r="F81" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B79" s="3">
-        <v>4</v>
-      </c>
-      <c r="C79" s="3">
+      <c r="C82" s="3">
+        <v>4</v>
+      </c>
+      <c r="D82" s="3">
         <v>436</v>
       </c>
-      <c r="D79" s="7">
-        <f t="shared" si="2"/>
+      <c r="E82" s="7">
+        <f>IFERROR(C82/D82," ")</f>
         <v>9.1743119266055051E-3</v>
       </c>
-      <c r="E79" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+      <c r="F82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B80" s="3">
-        <v>4</v>
-      </c>
-      <c r="C80" s="3">
+      <c r="C83" s="3">
+        <v>4</v>
+      </c>
+      <c r="D83" s="3">
         <v>444</v>
       </c>
-      <c r="D80" s="7">
-        <f t="shared" si="2"/>
+      <c r="E83" s="7">
+        <f>IFERROR(C83/D83," ")</f>
         <v>9.0090090090090089E-3</v>
       </c>
-      <c r="E80" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+      <c r="F83" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B81" s="3">
-        <v>3</v>
-      </c>
-      <c r="C81" s="3">
+      <c r="C84" s="3">
+        <v>3</v>
+      </c>
+      <c r="D84" s="3">
         <v>336</v>
       </c>
-      <c r="D81" s="7">
-        <f t="shared" si="2"/>
+      <c r="E84" s="7">
+        <f>IFERROR(C84/D84," ")</f>
         <v>8.9285714285714281E-3</v>
       </c>
-      <c r="E81" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+      <c r="F84" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B82" s="3">
-        <v>2</v>
-      </c>
-      <c r="C82" s="3">
+      <c r="C85" s="3">
+        <v>2</v>
+      </c>
+      <c r="D85" s="3">
         <v>225</v>
       </c>
-      <c r="D82" s="7">
-        <f t="shared" si="2"/>
+      <c r="E85" s="7">
+        <f>IFERROR(C85/D85," ")</f>
         <v>8.8888888888888889E-3</v>
       </c>
-      <c r="E82" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+      <c r="F85" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B83" s="3">
-        <v>3</v>
-      </c>
-      <c r="C83" s="3">
+      <c r="C86" s="3">
+        <v>3</v>
+      </c>
+      <c r="D86" s="3">
         <v>344</v>
       </c>
-      <c r="D83" s="7">
-        <f t="shared" si="2"/>
+      <c r="E86" s="7">
+        <f>IFERROR(C86/D86," ")</f>
         <v>8.7209302325581394E-3</v>
       </c>
-      <c r="E83" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+      <c r="F86" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="3">
-        <v>4</v>
-      </c>
-      <c r="C84" s="3">
+      <c r="C87" s="3">
+        <v>4</v>
+      </c>
+      <c r="D87" s="3">
         <v>464</v>
       </c>
-      <c r="D84" s="7">
-        <f t="shared" si="2"/>
+      <c r="E87" s="7">
+        <f>IFERROR(C87/D87," ")</f>
         <v>8.6206896551724137E-3</v>
       </c>
-      <c r="E84" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+      <c r="F87" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B85" s="3">
-        <v>4</v>
-      </c>
-      <c r="C85" s="3">
+      <c r="C88" s="3">
+        <v>4</v>
+      </c>
+      <c r="D88" s="3">
         <v>464</v>
       </c>
-      <c r="D85" s="7">
-        <f t="shared" ref="D85:D148" si="3">IFERROR(B85/C85," ")</f>
+      <c r="E88" s="7">
+        <f>IFERROR(C88/D88," ")</f>
         <v>8.6206896551724137E-3</v>
       </c>
-      <c r="E85" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+      <c r="F88" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B86" s="3">
-        <v>3</v>
-      </c>
-      <c r="C86" s="3">
+      <c r="C89" s="3">
+        <v>3</v>
+      </c>
+      <c r="D89" s="3">
         <v>352</v>
       </c>
-      <c r="D86" s="7">
-        <f t="shared" si="3"/>
+      <c r="E89" s="7">
+        <f>IFERROR(C89/D89," ")</f>
         <v>8.5227272727272721E-3</v>
       </c>
-      <c r="E86" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+      <c r="F89" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B87" s="3">
-        <v>3</v>
-      </c>
-      <c r="C87" s="3">
+      <c r="C90" s="3">
+        <v>3</v>
+      </c>
+      <c r="D90" s="3">
         <v>352</v>
       </c>
-      <c r="D87" s="7">
-        <f t="shared" si="3"/>
+      <c r="E90" s="7">
+        <f>IFERROR(C90/D90," ")</f>
         <v>8.5227272727272721E-3</v>
       </c>
-      <c r="E87" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+      <c r="F90" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B88" s="3">
-        <v>4</v>
-      </c>
-      <c r="C88" s="3">
+      <c r="C91" s="3">
+        <v>4</v>
+      </c>
+      <c r="D91" s="3">
         <v>480</v>
       </c>
-      <c r="D88" s="7">
-        <f t="shared" si="3"/>
+      <c r="E91" s="7">
+        <f>IFERROR(C91/D91," ")</f>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="E88" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+      <c r="F91" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B89" s="3">
-        <v>3</v>
-      </c>
-      <c r="C89" s="3">
+      <c r="C92" s="3">
+        <v>3</v>
+      </c>
+      <c r="D92" s="3">
         <v>360</v>
       </c>
-      <c r="D89" s="7">
-        <f t="shared" si="3"/>
+      <c r="E92" s="7">
+        <f>IFERROR(C92/D92," ")</f>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="E89" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+      <c r="F92" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="3">
-        <v>2</v>
-      </c>
-      <c r="C90" s="3">
+      <c r="C93" s="3">
+        <v>2</v>
+      </c>
+      <c r="D93" s="3">
         <v>240</v>
       </c>
-      <c r="D90" s="7">
-        <f t="shared" si="3"/>
+      <c r="E93" s="7">
+        <f>IFERROR(C93/D93," ")</f>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="E90" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+      <c r="F93" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B91" s="3">
-        <v>3</v>
-      </c>
-      <c r="C91" s="3">
+      <c r="C94" s="3">
+        <v>3</v>
+      </c>
+      <c r="D94" s="3">
         <v>368</v>
       </c>
-      <c r="D91" s="7">
-        <f t="shared" si="3"/>
+      <c r="E94" s="7">
+        <f>IFERROR(C94/D94," ")</f>
         <v>8.152173913043478E-3</v>
       </c>
-      <c r="E91" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+      <c r="F94" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B92" s="3">
-        <v>3</v>
-      </c>
-      <c r="C92" s="3">
+      <c r="C95" s="3">
+        <v>3</v>
+      </c>
+      <c r="D95" s="3">
         <v>368</v>
       </c>
-      <c r="D92" s="7">
-        <f t="shared" si="3"/>
+      <c r="E95" s="7">
+        <f>IFERROR(C95/D95," ")</f>
         <v>8.152173913043478E-3</v>
       </c>
-      <c r="E92" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+      <c r="F95" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B93" s="3">
-        <v>3</v>
-      </c>
-      <c r="C93" s="3">
+      <c r="C96" s="3">
+        <v>3</v>
+      </c>
+      <c r="D96" s="3">
         <v>371</v>
       </c>
-      <c r="D93" s="7">
-        <f t="shared" si="3"/>
+      <c r="E96" s="7">
+        <f>IFERROR(C96/D96," ")</f>
         <v>8.0862533692722376E-3</v>
       </c>
-      <c r="E93" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+      <c r="F96" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B94" s="3">
-        <v>4</v>
-      </c>
-      <c r="C94" s="3">
+      <c r="C97" s="3">
+        <v>4</v>
+      </c>
+      <c r="D97" s="3">
         <v>499</v>
       </c>
-      <c r="D94" s="7">
-        <f t="shared" si="3"/>
+      <c r="E97" s="7">
+        <f>IFERROR(C97/D97," ")</f>
         <v>8.0160320641282558E-3</v>
       </c>
-      <c r="E94" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+      <c r="F97" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B95" s="3">
-        <v>2</v>
-      </c>
-      <c r="C95" s="3">
+      <c r="C98" s="3">
+        <v>2</v>
+      </c>
+      <c r="D98" s="3">
         <v>250</v>
       </c>
-      <c r="D95" s="7">
-        <f t="shared" si="3"/>
+      <c r="E98" s="7">
+        <f>IFERROR(C98/D98," ")</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E95" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+      <c r="F98" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B96" s="3">
-        <v>4</v>
-      </c>
-      <c r="C96" s="3">
+      <c r="C99" s="3">
+        <v>4</v>
+      </c>
+      <c r="D99" s="3">
         <v>512</v>
       </c>
-      <c r="D96" s="7">
-        <f t="shared" si="3"/>
+      <c r="E99" s="7">
+        <f>IFERROR(C99/D99," ")</f>
         <v>7.8125E-3</v>
       </c>
-      <c r="E96" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+      <c r="F99" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B97" s="3">
-        <v>4</v>
-      </c>
-      <c r="C97" s="3">
+      <c r="C100" s="3">
+        <v>4</v>
+      </c>
+      <c r="D100" s="3">
         <v>512</v>
       </c>
-      <c r="D97" s="7">
-        <f t="shared" si="3"/>
+      <c r="E100" s="7">
+        <f>IFERROR(C100/D100," ")</f>
         <v>7.8125E-3</v>
       </c>
-      <c r="E97" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
+      <c r="F100" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B98" s="3">
-        <v>2</v>
-      </c>
-      <c r="C98" s="3">
+      <c r="C101" s="3">
+        <v>2</v>
+      </c>
+      <c r="D101" s="3">
         <v>264</v>
       </c>
-      <c r="D98" s="7">
-        <f t="shared" si="3"/>
+      <c r="E101" s="7">
+        <f>IFERROR(C101/D101," ")</f>
         <v>7.575757575757576E-3</v>
       </c>
-      <c r="E98" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
+      <c r="F101" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B99" s="3">
-        <v>3</v>
-      </c>
-      <c r="C99" s="3">
+      <c r="C102" s="3">
+        <v>3</v>
+      </c>
+      <c r="D102" s="3">
         <v>400</v>
       </c>
-      <c r="D99" s="7">
-        <f t="shared" si="3"/>
+      <c r="E102" s="7">
+        <f>IFERROR(C102/D102," ")</f>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="E99" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
+      <c r="F102" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B100" s="3">
-        <v>4</v>
-      </c>
-      <c r="C100" s="3">
+      <c r="C103" s="3">
+        <v>4</v>
+      </c>
+      <c r="D103" s="3">
         <v>544</v>
       </c>
-      <c r="D100" s="7">
-        <f t="shared" si="3"/>
+      <c r="E103" s="7">
+        <f>IFERROR(C103/D103," ")</f>
         <v>7.3529411764705881E-3</v>
       </c>
-      <c r="E100" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
+      <c r="F103" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B101" s="3">
-        <v>3</v>
-      </c>
-      <c r="C101" s="3">
+      <c r="C104" s="3">
+        <v>3</v>
+      </c>
+      <c r="D104" s="3">
         <v>416</v>
       </c>
-      <c r="D101" s="7">
-        <f t="shared" si="3"/>
+      <c r="E104" s="7">
+        <f>IFERROR(C104/D104," ")</f>
         <v>7.2115384615384619E-3</v>
       </c>
-      <c r="E101" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
+      <c r="F104" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B102" s="3">
-        <v>4</v>
-      </c>
-      <c r="C102" s="3">
+      <c r="C105" s="3">
+        <v>4</v>
+      </c>
+      <c r="D105" s="3">
         <v>560</v>
       </c>
-      <c r="D102" s="7">
-        <f t="shared" si="3"/>
+      <c r="E105" s="7">
+        <f>IFERROR(C105/D105," ")</f>
         <v>7.1428571428571426E-3</v>
       </c>
-      <c r="E102" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
+      <c r="F105" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B103" s="3">
-        <v>2</v>
-      </c>
-      <c r="C103" s="3">
+      <c r="C106" s="3">
+        <v>2</v>
+      </c>
+      <c r="D106" s="3">
         <v>284</v>
       </c>
-      <c r="D103" s="7">
-        <f t="shared" si="3"/>
+      <c r="E106" s="7">
+        <f>IFERROR(C106/D106," ")</f>
         <v>7.0422535211267607E-3</v>
       </c>
-      <c r="E103" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
+      <c r="F106" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B104" s="3">
-        <v>2</v>
-      </c>
-      <c r="C104" s="3">
+      <c r="C107" s="3">
+        <v>2</v>
+      </c>
+      <c r="D107" s="3">
         <v>288</v>
       </c>
-      <c r="D104" s="7">
-        <f t="shared" si="3"/>
+      <c r="E107" s="7">
+        <f>IFERROR(C107/D107," ")</f>
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="E104" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
+      <c r="F107" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B105" s="3">
+      <c r="C108" s="3">
         <v>5</v>
       </c>
-      <c r="C105" s="3">
+      <c r="D108" s="3">
         <v>736</v>
       </c>
-      <c r="D105" s="7">
-        <f t="shared" si="3"/>
+      <c r="E108" s="7">
+        <f>IFERROR(C108/D108," ")</f>
         <v>6.793478260869565E-3</v>
       </c>
-      <c r="E105" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
+      <c r="F108" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B106" s="3">
+      <c r="C109" s="3">
         <v>1</v>
       </c>
-      <c r="C106" s="3">
+      <c r="D109" s="3">
         <v>148</v>
       </c>
-      <c r="D106" s="7">
-        <f t="shared" si="3"/>
+      <c r="E109" s="7">
+        <f>IFERROR(C109/D109," ")</f>
         <v>6.7567567567567571E-3</v>
       </c>
-      <c r="E106" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
+      <c r="F109" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B107" s="3">
-        <v>3</v>
-      </c>
-      <c r="C107" s="3">
+      <c r="C110" s="3">
+        <v>3</v>
+      </c>
+      <c r="D110" s="3">
         <v>450</v>
       </c>
-      <c r="D107" s="7">
-        <f t="shared" si="3"/>
+      <c r="E110" s="7">
+        <f>IFERROR(C110/D110," ")</f>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="E107" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
+      <c r="F110" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B108" s="3">
-        <v>3</v>
-      </c>
-      <c r="C108" s="3">
+      <c r="C111" s="3">
+        <v>3</v>
+      </c>
+      <c r="D111" s="3">
         <v>464</v>
       </c>
-      <c r="D108" s="7">
-        <f t="shared" si="3"/>
+      <c r="E111" s="7">
+        <f>IFERROR(C111/D111," ")</f>
         <v>6.4655172413793103E-3</v>
       </c>
-      <c r="E108" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
+      <c r="F111" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="3">
-        <v>3</v>
-      </c>
-      <c r="C109" s="3">
+      <c r="C112" s="3">
+        <v>3</v>
+      </c>
+      <c r="D112" s="3">
         <v>480</v>
       </c>
-      <c r="D109" s="7">
-        <f t="shared" si="3"/>
+      <c r="E112" s="7">
+        <f>IFERROR(C112/D112," ")</f>
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="E109" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
+      <c r="F112" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B110" s="3">
-        <v>3</v>
-      </c>
-      <c r="C110" s="3">
+      <c r="C113" s="3">
+        <v>3</v>
+      </c>
+      <c r="D113" s="3">
         <v>480</v>
       </c>
-      <c r="D110" s="7">
-        <f t="shared" si="3"/>
+      <c r="E113" s="7">
+        <f>IFERROR(C113/D113," ")</f>
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="E110" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
+      <c r="F113" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B111" s="3">
-        <v>3</v>
-      </c>
-      <c r="C111" s="3">
+      <c r="C114" s="3">
+        <v>3</v>
+      </c>
+      <c r="D114" s="3">
         <v>488</v>
       </c>
-      <c r="D111" s="7">
-        <f t="shared" si="3"/>
+      <c r="E114" s="7">
+        <f>IFERROR(C114/D114," ")</f>
         <v>6.1475409836065573E-3</v>
       </c>
-      <c r="E111" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
+      <c r="F114" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B112" s="3">
-        <v>2</v>
-      </c>
-      <c r="C112" s="3">
+      <c r="C115" s="3">
+        <v>2</v>
+      </c>
+      <c r="D115" s="3">
         <v>332</v>
       </c>
-      <c r="D112" s="7">
-        <f t="shared" si="3"/>
+      <c r="E115" s="7">
+        <f>IFERROR(C115/D115," ")</f>
         <v>6.024096385542169E-3</v>
       </c>
-      <c r="E112" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
+      <c r="F115" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B113" s="3">
-        <v>2</v>
-      </c>
-      <c r="C113" s="3">
+      <c r="C116" s="3">
+        <v>2</v>
+      </c>
+      <c r="D116" s="3">
         <v>332</v>
       </c>
-      <c r="D113" s="7">
-        <f t="shared" si="3"/>
+      <c r="E116" s="7">
+        <f>IFERROR(C116/D116," ")</f>
         <v>6.024096385542169E-3</v>
       </c>
-      <c r="E113" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
+      <c r="F116" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B114" s="3">
-        <v>2</v>
-      </c>
-      <c r="C114" s="3">
+      <c r="C117" s="3">
+        <v>2</v>
+      </c>
+      <c r="D117" s="3">
         <v>344</v>
       </c>
-      <c r="D114" s="7">
-        <f t="shared" si="3"/>
+      <c r="E117" s="7">
+        <f>IFERROR(C117/D117," ")</f>
         <v>5.8139534883720929E-3</v>
       </c>
-      <c r="E114" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
+      <c r="F117" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B115" s="3">
-        <v>4</v>
-      </c>
-      <c r="C115" s="3">
+      <c r="C118" s="3">
+        <v>4</v>
+      </c>
+      <c r="D118" s="3">
         <v>704</v>
       </c>
-      <c r="D115" s="7">
-        <f t="shared" si="3"/>
+      <c r="E118" s="7">
+        <f>IFERROR(C118/D118," ")</f>
         <v>5.681818181818182E-3</v>
       </c>
-      <c r="E115" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
+      <c r="F118" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B116" s="3">
-        <v>2</v>
-      </c>
-      <c r="C116" s="3">
+      <c r="C119" s="3">
+        <v>2</v>
+      </c>
+      <c r="D119" s="3">
         <v>366</v>
       </c>
-      <c r="D116" s="7">
-        <f t="shared" si="3"/>
+      <c r="E119" s="7">
+        <f>IFERROR(C119/D119," ")</f>
         <v>5.4644808743169399E-3</v>
       </c>
-      <c r="E116" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
+      <c r="F119" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B117" s="3">
-        <v>4</v>
-      </c>
-      <c r="C117" s="3">
+      <c r="C120" s="3">
+        <v>4</v>
+      </c>
+      <c r="D120" s="3">
         <v>736</v>
       </c>
-      <c r="D117" s="7">
-        <f t="shared" si="3"/>
+      <c r="E120" s="7">
+        <f>IFERROR(C120/D120," ")</f>
         <v>5.434782608695652E-3</v>
       </c>
-      <c r="E117" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
+      <c r="F120" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B118" s="3">
-        <v>2</v>
-      </c>
-      <c r="C118" s="3">
+      <c r="C121" s="3">
+        <v>2</v>
+      </c>
+      <c r="D121" s="3">
         <v>373</v>
       </c>
-      <c r="D118" s="7">
-        <f t="shared" si="3"/>
+      <c r="E121" s="7">
+        <f>IFERROR(C121/D121," ")</f>
         <v>5.3619302949061663E-3</v>
       </c>
-      <c r="E118" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
+      <c r="F121" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B119" s="3">
-        <v>3</v>
-      </c>
-      <c r="C119" s="3">
+      <c r="C122" s="3">
+        <v>3</v>
+      </c>
+      <c r="D122" s="3">
         <v>560</v>
       </c>
-      <c r="D119" s="7">
-        <f t="shared" si="3"/>
+      <c r="E122" s="7">
+        <f>IFERROR(C122/D122," ")</f>
         <v>5.3571428571428572E-3</v>
       </c>
-      <c r="E119" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
+      <c r="F122" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B120" s="3">
-        <v>3</v>
-      </c>
-      <c r="C120" s="3">
+      <c r="C123" s="3">
+        <v>3</v>
+      </c>
+      <c r="D123" s="3">
         <v>560</v>
       </c>
-      <c r="D120" s="7">
-        <f t="shared" si="3"/>
+      <c r="E123" s="7">
+        <f>IFERROR(C123/D123," ")</f>
         <v>5.3571428571428572E-3</v>
       </c>
-      <c r="E120" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
+      <c r="F123" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B121" s="3">
-        <v>3</v>
-      </c>
-      <c r="C121" s="3">
+      <c r="C124" s="3">
+        <v>3</v>
+      </c>
+      <c r="D124" s="3">
         <v>576</v>
       </c>
-      <c r="D121" s="7">
-        <f t="shared" si="3"/>
+      <c r="E124" s="7">
+        <f>IFERROR(C124/D124," ")</f>
         <v>5.208333333333333E-3</v>
       </c>
-      <c r="E121" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
+      <c r="F124" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B122" s="3">
-        <v>2</v>
-      </c>
-      <c r="C122" s="3">
+      <c r="C125" s="3">
+        <v>2</v>
+      </c>
+      <c r="D125" s="3">
         <v>384</v>
       </c>
-      <c r="D122" s="7">
-        <f t="shared" si="3"/>
+      <c r="E125" s="7">
+        <f>IFERROR(C125/D125," ")</f>
         <v>5.208333333333333E-3</v>
       </c>
-      <c r="E122" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
+      <c r="F125" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B123" s="3">
+      <c r="C126" s="3">
         <v>1</v>
       </c>
-      <c r="C123" s="3">
+      <c r="D126" s="3">
         <v>200</v>
       </c>
-      <c r="D123" s="7">
-        <f t="shared" si="3"/>
+      <c r="E126" s="7">
+        <f>IFERROR(C126/D126," ")</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E123" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
+      <c r="F126" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B124" s="3">
-        <v>2</v>
-      </c>
-      <c r="C124" s="3">
+      <c r="C127" s="3">
+        <v>2</v>
+      </c>
+      <c r="D127" s="3">
         <v>400</v>
       </c>
-      <c r="D124" s="7">
-        <f t="shared" si="3"/>
+      <c r="E127" s="7">
+        <f>IFERROR(C127/D127," ")</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E124" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
+      <c r="F127" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B125" s="3">
-        <v>2</v>
-      </c>
-      <c r="C125" s="3">
+      <c r="C128" s="3">
+        <v>2</v>
+      </c>
+      <c r="D128" s="3">
         <v>416</v>
       </c>
-      <c r="D125" s="7">
-        <f t="shared" si="3"/>
+      <c r="E128" s="7">
+        <f>IFERROR(C128/D128," ")</f>
         <v>4.807692307692308E-3</v>
       </c>
-      <c r="E125" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
+      <c r="F128" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B126" s="3">
-        <v>2</v>
-      </c>
-      <c r="C126" s="3">
+      <c r="C129" s="3">
+        <v>2</v>
+      </c>
+      <c r="D129" s="3">
         <v>416</v>
       </c>
-      <c r="D126" s="7">
-        <f t="shared" si="3"/>
+      <c r="E129" s="7">
+        <f>IFERROR(C129/D129," ")</f>
         <v>4.807692307692308E-3</v>
       </c>
-      <c r="E126" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
+      <c r="F129" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B127" s="3">
-        <v>4</v>
-      </c>
-      <c r="C127" s="3">
+      <c r="C130" s="3">
+        <v>4</v>
+      </c>
+      <c r="D130" s="3">
         <v>848</v>
       </c>
-      <c r="D127" s="7">
-        <f t="shared" si="3"/>
+      <c r="E130" s="7">
+        <f>IFERROR(C130/D130," ")</f>
         <v>4.7169811320754715E-3</v>
       </c>
-      <c r="E127" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
+      <c r="F130" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B128" s="3">
-        <v>2</v>
-      </c>
-      <c r="C128" s="3">
+      <c r="C131" s="3">
+        <v>2</v>
+      </c>
+      <c r="D131" s="3">
         <v>440</v>
       </c>
-      <c r="D128" s="7">
-        <f t="shared" si="3"/>
+      <c r="E131" s="7">
+        <f>IFERROR(C131/D131," ")</f>
         <v>4.5454545454545452E-3</v>
       </c>
-      <c r="E128" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
+      <c r="F131" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B129" s="3">
-        <v>2</v>
-      </c>
-      <c r="C129" s="3">
+      <c r="C132" s="3">
+        <v>2</v>
+      </c>
+      <c r="D132" s="3">
         <v>456</v>
       </c>
-      <c r="D129" s="7">
-        <f t="shared" si="3"/>
+      <c r="E132" s="7">
+        <f>IFERROR(C132/D132," ")</f>
         <v>4.3859649122807015E-3</v>
       </c>
-      <c r="E129" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D130" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D131" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D132" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D133" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D134" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D135" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D136" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D137" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D138" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D139" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D140" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D141" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D142" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D143" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D144" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="145" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D145" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="146" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D146" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="147" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D147" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="148" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D148" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="149" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D149" s="7" t="str">
-        <f t="shared" ref="D149:D212" si="4">IFERROR(B149/C149," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="150" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D150" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="151" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D151" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="152" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D152" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="153" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D153" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="154" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D154" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="155" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D155" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="156" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D156" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="157" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D157" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="158" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D158" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="159" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D159" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="160" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D160" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="161" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D161" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="162" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D162" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="163" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D163" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="164" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D164" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="165" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D165" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="166" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D166" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="167" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D167" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="168" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D168" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="169" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D169" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="170" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D170" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="171" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D171" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="172" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D172" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="173" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D173" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="174" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D174" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="175" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D175" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="176" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D176" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="177" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D177" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="178" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D178" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="179" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D179" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="180" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D180" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="181" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D181" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="182" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D182" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="183" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D183" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="184" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D184" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="185" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D185" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="186" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D186" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="187" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D187" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="188" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D188" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="189" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D189" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="190" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D190" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="191" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D191" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="192" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D192" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="193" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D193" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="194" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D194" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="195" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D195" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="196" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D196" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="197" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D197" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="198" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D198" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="199" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D199" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="200" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D200" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="201" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D201" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="202" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D202" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="203" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D203" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="204" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D204" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="205" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D205" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="206" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D206" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="207" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D207" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="208" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D208" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D209" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D210" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D211" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D212" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D213" s="7" t="str">
-        <f t="shared" ref="D213:D225" si="5">IFERROR(B213/C213," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D214" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D215" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D216" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D217" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D218" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="5" t="s">
+      <c r="F132" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B219" s="3">
-        <v>2</v>
-      </c>
-      <c r="C219" s="3">
+      <c r="C133" s="3">
+        <v>2</v>
+      </c>
+      <c r="D133" s="3">
         <v>528</v>
       </c>
-      <c r="D219" s="7">
-        <f t="shared" si="5"/>
+      <c r="E133" s="7">
+        <f>IFERROR(C133/D133," ")</f>
         <v>3.787878787878788E-3</v>
       </c>
-      <c r="E219" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="5" t="s">
+      <c r="F133" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B220" s="3">
-        <v>2</v>
-      </c>
-      <c r="C220" s="3">
+      <c r="C134" s="3">
+        <v>2</v>
+      </c>
+      <c r="D134" s="3">
         <v>544</v>
       </c>
-      <c r="D220" s="7">
-        <f t="shared" si="5"/>
+      <c r="E134" s="7">
+        <f>IFERROR(C134/D134," ")</f>
         <v>3.6764705882352941E-3</v>
       </c>
-      <c r="E220" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="5" t="s">
+      <c r="F134" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B221" s="3">
-        <v>3</v>
-      </c>
-      <c r="C221" s="3">
+      <c r="C135" s="3">
+        <v>3</v>
+      </c>
+      <c r="D135" s="3">
         <v>848</v>
       </c>
-      <c r="D221" s="7">
-        <f t="shared" si="5"/>
+      <c r="E135" s="7">
+        <f>IFERROR(C135/D135," ")</f>
         <v>3.5377358490566039E-3</v>
       </c>
-      <c r="E221" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="5" t="s">
+      <c r="F135" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B222" s="3">
-        <v>3</v>
-      </c>
-      <c r="C222" s="3">
+      <c r="C136" s="3">
+        <v>3</v>
+      </c>
+      <c r="D136" s="3">
         <v>864</v>
       </c>
-      <c r="D222" s="7">
-        <f t="shared" si="5"/>
+      <c r="E136" s="7">
+        <f>IFERROR(C136/D136," ")</f>
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E222" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="5" t="s">
+      <c r="F136" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C137" s="3">
+        <v>3</v>
+      </c>
+      <c r="F137" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C138" s="3">
+        <v>4</v>
+      </c>
+      <c r="F138" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C139" s="3">
+        <v>4</v>
+      </c>
+      <c r="F139" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B223" s="3">
-        <v>2</v>
-      </c>
-      <c r="C223" s="3">
+      <c r="C140" s="3">
+        <v>2</v>
+      </c>
+      <c r="D140" s="3">
         <v>616</v>
       </c>
-      <c r="D223" s="7">
-        <f t="shared" si="5"/>
+      <c r="E140" s="7">
+        <f>IFERROR(C140/D140," ")</f>
         <v>3.246753246753247E-3</v>
       </c>
-      <c r="E223" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="5" t="s">
+      <c r="F140" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B224" s="3">
+      <c r="C141" s="3">
         <v>1</v>
       </c>
-      <c r="C224" s="3">
+      <c r="D141" s="3">
         <v>320</v>
       </c>
-      <c r="D224" s="7">
-        <f t="shared" si="5"/>
+      <c r="E141" s="7">
+        <f>IFERROR(C141/D141," ")</f>
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="E224" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="5" t="s">
+      <c r="F141" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B225" s="3">
-        <v>3</v>
-      </c>
-      <c r="C225" s="3">
+      <c r="C142" s="3">
+        <v>3</v>
+      </c>
+      <c r="D142" s="3">
         <v>1280</v>
       </c>
-      <c r="D225" s="7">
-        <f t="shared" si="5"/>
+      <c r="E142" s="7">
+        <f>IFERROR(C142/D142," ")</f>
         <v>2.3437499999999999E-3</v>
       </c>
-      <c r="E225" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B226" s="3">
-        <v>3</v>
-      </c>
-      <c r="E226" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B227" s="3">
-        <v>4</v>
-      </c>
-      <c r="E227" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B228" s="3">
-        <v>4</v>
-      </c>
-      <c r="E228" t="s">
-        <v>72</v>
-      </c>
-    </row>
+      <c r="F142" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E143" s="7" t="str">
+        <f>IFERROR(C143/D143," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E144" s="7" t="str">
+        <f>IFERROR(C144/D144," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="145" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E145" s="7" t="str">
+        <f>IFERROR(C145/D145," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="146" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E146" s="7" t="str">
+        <f>IFERROR(C146/D146," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="147" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E147" s="7" t="str">
+        <f>IFERROR(C147/D147," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="148" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E148" s="7" t="str">
+        <f>IFERROR(C148/D148," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="149" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E149" s="7" t="str">
+        <f>IFERROR(C149/D149," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="150" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E150" s="7" t="str">
+        <f>IFERROR(C150/D150," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="151" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E151" s="7" t="str">
+        <f>IFERROR(C151/D151," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="152" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E152" s="7" t="str">
+        <f>IFERROR(C152/D152," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="153" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E153" s="7" t="str">
+        <f>IFERROR(C153/D153," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="154" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E154" s="7" t="str">
+        <f>IFERROR(C154/D154," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="155" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E155" s="7" t="str">
+        <f>IFERROR(C155/D155," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="156" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E156" s="7" t="str">
+        <f>IFERROR(C156/D156," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="157" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E157" s="7" t="str">
+        <f>IFERROR(C157/D157," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="158" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E158" s="7" t="str">
+        <f>IFERROR(C158/D158," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="159" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E159" s="7" t="str">
+        <f>IFERROR(C159/D159," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="160" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E160" s="7" t="str">
+        <f>IFERROR(C160/D160," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="161" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E161" s="7" t="str">
+        <f>IFERROR(C161/D161," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="162" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E162" s="7" t="str">
+        <f>IFERROR(C162/D162," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="163" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E163" s="7" t="str">
+        <f>IFERROR(C163/D163," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="164" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E164" s="7" t="str">
+        <f>IFERROR(C164/D164," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="165" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E165" s="7" t="str">
+        <f>IFERROR(C165/D165," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="166" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E166" s="7" t="str">
+        <f>IFERROR(C166/D166," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="167" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E167" s="7" t="str">
+        <f>IFERROR(C167/D167," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="168" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E168" s="7" t="str">
+        <f>IFERROR(C168/D168," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="169" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E169" s="7" t="str">
+        <f>IFERROR(C169/D169," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="170" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E170" s="7" t="str">
+        <f>IFERROR(C170/D170," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="171" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E171" s="7" t="str">
+        <f>IFERROR(C171/D171," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="172" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E172" s="7" t="str">
+        <f>IFERROR(C172/D172," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="173" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E173" s="7" t="str">
+        <f>IFERROR(C173/D173," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="174" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E174" s="7" t="str">
+        <f>IFERROR(C174/D174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="175" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E175" s="7" t="str">
+        <f>IFERROR(C175/D175," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="176" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E176" s="7" t="str">
+        <f>IFERROR(C176/D176," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="177" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E177" s="7" t="str">
+        <f>IFERROR(C177/D177," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="178" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E178" s="7" t="str">
+        <f>IFERROR(C178/D178," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="179" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E179" s="7" t="str">
+        <f>IFERROR(C179/D179," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="180" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E180" s="7" t="str">
+        <f>IFERROR(C180/D180," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="181" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E181" s="7" t="str">
+        <f>IFERROR(C181/D181," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="182" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E182" s="7" t="str">
+        <f>IFERROR(C182/D182," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="183" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E183" s="7" t="str">
+        <f>IFERROR(C183/D183," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="184" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E184" s="7" t="str">
+        <f>IFERROR(C184/D184," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="185" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E185" s="7" t="str">
+        <f>IFERROR(C185/D185," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="186" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E186" s="7" t="str">
+        <f>IFERROR(C186/D186," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="187" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E187" s="7" t="str">
+        <f>IFERROR(C187/D187," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="188" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E188" s="7" t="str">
+        <f>IFERROR(C188/D188," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="189" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E189" s="7" t="str">
+        <f>IFERROR(C189/D189," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="190" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E190" s="7" t="str">
+        <f>IFERROR(C190/D190," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="191" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E191" s="7" t="str">
+        <f>IFERROR(C191/D191," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="192" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E192" s="7" t="str">
+        <f>IFERROR(C192/D192," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="193" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E193" s="7" t="str">
+        <f>IFERROR(C193/D193," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="194" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E194" s="7" t="str">
+        <f>IFERROR(C194/D194," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="195" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E195" s="7" t="str">
+        <f>IFERROR(C195/D195," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="196" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E196" s="7" t="str">
+        <f>IFERROR(C196/D196," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="197" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E197" s="7" t="str">
+        <f>IFERROR(C197/D197," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="198" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E198" s="7" t="str">
+        <f>IFERROR(C198/D198," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="199" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E199" s="7" t="str">
+        <f>IFERROR(C199/D199," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="200" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E200" s="7" t="str">
+        <f>IFERROR(C200/D200," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="201" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E201" s="7" t="str">
+        <f>IFERROR(C201/D201," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="202" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E202" s="7" t="str">
+        <f>IFERROR(C202/D202," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="203" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E203" s="7" t="str">
+        <f>IFERROR(C203/D203," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="204" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E204" s="7" t="str">
+        <f>IFERROR(C204/D204," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="205" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E205" s="7" t="str">
+        <f>IFERROR(C205/D205," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="206" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E206" s="7" t="str">
+        <f>IFERROR(C206/D206," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="207" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E207" s="7" t="str">
+        <f>IFERROR(C207/D207," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="208" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E208" s="7" t="str">
+        <f>IFERROR(C208/D208," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="209" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E209" s="7" t="str">
+        <f>IFERROR(C209/D209," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="210" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E210" s="7" t="str">
+        <f>IFERROR(C210/D210," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="211" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E211" s="7" t="str">
+        <f>IFERROR(C211/D211," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="212" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E212" s="7" t="str">
+        <f>IFERROR(C212/D212," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="213" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E213" s="7" t="str">
+        <f>IFERROR(C213/D213," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="214" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E214" s="7" t="str">
+        <f>IFERROR(C214/D214," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="215" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E215" s="7" t="str">
+        <f>IFERROR(C215/D215," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="216" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E216" s="7" t="str">
+        <f>IFERROR(C216/D216," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="217" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E217" s="7" t="str">
+        <f>IFERROR(C217/D217," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="218" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E218" s="7" t="str">
+        <f>IFERROR(C218/D218," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="219" spans="5:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="220" spans="5:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="5:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="5:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="5:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="224" spans="5:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A2:E228">
-    <filterColumn colId="2">
+  <autoFilter ref="A2:F231">
+    <filterColumn colId="4">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="4">
+    <filterColumn colId="5">
       <filters blank="1">
         <filter val="No"/>
       </filters>
     </filterColumn>
-    <sortState ref="A14:E225">
-      <sortCondition descending="1" ref="D2:D218"/>
+    <sortState ref="A15:F231">
+      <sortCondition descending="1" ref="E2:E229"/>
     </sortState>
   </autoFilter>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B218">
+      <formula1>Media</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
@@ -3838,9 +3871,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet2!$A$2:$A$4</xm:f>
+            <xm:f>Dropdown!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E125 E127:E138</xm:sqref>
+          <xm:sqref>F3:F125 F127:F129</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3896,19 +3929,19 @@
         <v>The Rubaiyat</v>
       </c>
       <c r="B3">
-        <f>Unread!B3</f>
+        <f>Unread!C3</f>
         <v>4</v>
       </c>
       <c r="C3">
-        <f>Unread!C3</f>
+        <f>Unread!D3</f>
         <v>46</v>
       </c>
       <c r="D3">
-        <f>Unread!D3</f>
+        <f>Unread!E3</f>
         <v>8.6956521739130432E-2</v>
       </c>
       <c r="E3" t="str">
-        <f>Unread!E3</f>
+        <f>Unread!F3</f>
         <v>Yes</v>
       </c>
     </row>
@@ -3918,19 +3951,19 @@
         <v>World War I at Home</v>
       </c>
       <c r="B4">
-        <f>Unread!B4</f>
+        <f>Unread!C4</f>
         <v>2</v>
       </c>
       <c r="C4">
-        <f>Unread!C4</f>
+        <f>Unread!D4</f>
         <v>0</v>
       </c>
       <c r="D4" t="str">
-        <f>Unread!D4</f>
+        <f>Unread!E4</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E4" t="str">
-        <f>Unread!E4</f>
+        <f>Unread!F4</f>
         <v>No</v>
       </c>
     </row>
@@ -3940,19 +3973,19 @@
         <v>World War I (Baldwin)</v>
       </c>
       <c r="B5">
-        <f>Unread!B5</f>
+        <f>Unread!C5</f>
         <v>2</v>
       </c>
       <c r="C5">
-        <f>Unread!C5</f>
+        <f>Unread!D5</f>
         <v>0</v>
       </c>
       <c r="D5" t="str">
-        <f>Unread!D5</f>
+        <f>Unread!E5</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E5" t="str">
-        <f>Unread!E5</f>
+        <f>Unread!F5</f>
         <v>No</v>
       </c>
     </row>
@@ -3962,19 +3995,19 @@
         <v>Cavalry of the Clouds</v>
       </c>
       <c r="B6">
-        <f>Unread!B6</f>
+        <f>Unread!C6</f>
         <v>2</v>
       </c>
       <c r="C6">
-        <f>Unread!C6</f>
+        <f>Unread!D6</f>
         <v>0</v>
       </c>
       <c r="D6" t="str">
-        <f>Unread!D6</f>
+        <f>Unread!E6</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E6" t="str">
-        <f>Unread!E6</f>
+        <f>Unread!F6</f>
         <v>No</v>
       </c>
     </row>
@@ -3984,19 +4017,19 @@
         <v>Undertones of War</v>
       </c>
       <c r="B7">
-        <f>Unread!B7</f>
+        <f>Unread!C7</f>
         <v>2</v>
       </c>
       <c r="C7">
-        <f>Unread!C7</f>
+        <f>Unread!D7</f>
         <v>0</v>
       </c>
       <c r="D7" t="str">
-        <f>Unread!D7</f>
+        <f>Unread!E7</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E7" t="str">
-        <f>Unread!E7</f>
+        <f>Unread!F7</f>
         <v>No</v>
       </c>
     </row>
@@ -4006,19 +4039,19 @@
         <v>Sinking of the Titanic</v>
       </c>
       <c r="B8">
-        <f>Unread!B8</f>
+        <f>Unread!C8</f>
         <v>2</v>
       </c>
       <c r="C8">
-        <f>Unread!C8</f>
+        <f>Unread!D8</f>
         <v>0</v>
       </c>
       <c r="D8" t="str">
-        <f>Unread!D8</f>
+        <f>Unread!E8</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E8" t="str">
-        <f>Unread!E8</f>
+        <f>Unread!F8</f>
         <v>No</v>
       </c>
     </row>
@@ -4028,19 +4061,19 @@
         <v>History of the World War (March)</v>
       </c>
       <c r="B9">
-        <f>Unread!B9</f>
+        <f>Unread!C9</f>
         <v>2</v>
       </c>
       <c r="C9">
-        <f>Unread!C9</f>
+        <f>Unread!D9</f>
         <v>0</v>
       </c>
       <c r="D9" t="str">
-        <f>Unread!D9</f>
+        <f>Unread!E9</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E9" t="str">
-        <f>Unread!E9</f>
+        <f>Unread!F9</f>
         <v>No</v>
       </c>
     </row>
@@ -4050,19 +4083,19 @@
         <v>World War for Humanity</v>
       </c>
       <c r="B10">
-        <f>Unread!B10</f>
+        <f>Unread!C10</f>
         <v>2</v>
       </c>
       <c r="C10">
-        <f>Unread!C10</f>
+        <f>Unread!D10</f>
         <v>0</v>
       </c>
       <c r="D10" t="str">
-        <f>Unread!D10</f>
+        <f>Unread!E10</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E10" t="str">
-        <f>Unread!E10</f>
+        <f>Unread!F10</f>
         <v>No</v>
       </c>
     </row>
@@ -4072,19 +4105,19 @@
         <v>School for Soldiers</v>
       </c>
       <c r="B11">
-        <f>Unread!B11</f>
+        <f>Unread!C11</f>
         <v>2</v>
       </c>
       <c r="C11">
-        <f>Unread!C11</f>
+        <f>Unread!D11</f>
         <v>0</v>
       </c>
       <c r="D11" t="str">
-        <f>Unread!D11</f>
+        <f>Unread!E11</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E11" t="str">
-        <f>Unread!E11</f>
+        <f>Unread!F11</f>
         <v>No</v>
       </c>
     </row>
@@ -4094,19 +4127,19 @@
         <v>The First World War (Strachan)</v>
       </c>
       <c r="B12">
-        <f>Unread!B12</f>
+        <f>Unread!C12</f>
         <v>2</v>
       </c>
       <c r="C12">
-        <f>Unread!C12</f>
+        <f>Unread!D12</f>
         <v>0</v>
       </c>
       <c r="D12" t="str">
-        <f>Unread!D12</f>
+        <f>Unread!E12</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E12" t="str">
-        <f>Unread!E12</f>
+        <f>Unread!F12</f>
         <v>No</v>
       </c>
     </row>
@@ -4116,19 +4149,19 @@
         <v>Soldier from the Wars Returning (Carrington)</v>
       </c>
       <c r="B13">
-        <f>Unread!B13</f>
+        <f>Unread!C13</f>
         <v>2</v>
       </c>
       <c r="C13">
-        <f>Unread!C13</f>
+        <f>Unread!D13</f>
         <v>0</v>
       </c>
       <c r="D13" t="str">
-        <f>Unread!D13</f>
+        <f>Unread!E13</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E13" t="str">
-        <f>Unread!E13</f>
+        <f>Unread!F13</f>
         <v>No</v>
       </c>
     </row>
@@ -4138,107 +4171,107 @@
         <v>Randomness and Mathematical Proof (Report)</v>
       </c>
       <c r="B14">
-        <f>Unread!B14</f>
+        <f>Unread!C14</f>
         <v>4</v>
       </c>
       <c r="C14">
-        <f>Unread!C14</f>
+        <f>Unread!D14</f>
         <v>9</v>
       </c>
       <c r="D14">
-        <f>Unread!D14</f>
+        <f>Unread!E14</f>
         <v>0.44444444444444442</v>
       </c>
       <c r="E14" t="str">
-        <f>Unread!E14</f>
+        <f>Unread!F14</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>Unread!A15</f>
-        <v>The Waste Land: Poem</v>
+        <v>Enhancing our Grasp of Comples Arguments (Paper)</v>
       </c>
       <c r="B15">
-        <f>Unread!B15</f>
-        <v>3</v>
+        <f>Unread!C15</f>
+        <v>4</v>
       </c>
       <c r="C15">
-        <f>Unread!C15</f>
-        <v>14</v>
+        <f>Unread!D15</f>
+        <v>11</v>
       </c>
       <c r="D15">
-        <f>Unread!D15</f>
-        <v>0.21428571428571427</v>
+        <f>Unread!E15</f>
+        <v>0.36363636363636365</v>
       </c>
       <c r="E15" t="str">
-        <f>Unread!E15</f>
+        <f>Unread!F15</f>
         <v>No</v>
       </c>
     </row>
     <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>Unread!A16</f>
-        <v>Wisdom and the Context of Knowledge: Knowing that One Doesn't Know: Meacham (Report)</v>
+        <v>Algorithmic Accountability: On the Investigation of Black Boxes</v>
       </c>
       <c r="B16">
-        <f>Unread!B16</f>
+        <f>Unread!C16</f>
         <v>4</v>
       </c>
       <c r="C16">
-        <f>Unread!C16</f>
-        <v>20</v>
+        <f>Unread!D16</f>
+        <v>14</v>
       </c>
       <c r="D16">
-        <f>Unread!D16</f>
-        <v>0.2</v>
+        <f>Unread!E16</f>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E16" t="str">
-        <f>Unread!E16</f>
+        <f>Unread!F16</f>
         <v>No</v>
       </c>
     </row>
     <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>Unread!A17</f>
-        <v>Self-organised criticality-what it is and what it isn't (Report)</v>
+        <v>Algorithmic bias (W)</v>
       </c>
       <c r="B17">
-        <f>Unread!B17</f>
+        <f>Unread!C17</f>
         <v>3</v>
       </c>
       <c r="C17">
-        <f>Unread!C17</f>
-        <v>20</v>
+        <f>Unread!D17</f>
+        <v>12</v>
       </c>
       <c r="D17">
-        <f>Unread!D17</f>
-        <v>0.15</v>
+        <f>Unread!E17</f>
+        <v>0.25</v>
       </c>
       <c r="E17" t="str">
-        <f>Unread!E17</f>
+        <f>Unread!F17</f>
         <v>No</v>
       </c>
     </row>
     <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>Unread!A18</f>
-        <v>Power laws, Pareto distributinos and Zipf's Law (Report)</v>
+        <v>The Waste Land: Poem</v>
       </c>
       <c r="B18">
-        <f>Unread!B18</f>
+        <f>Unread!C18</f>
         <v>3</v>
       </c>
       <c r="C18">
-        <f>Unread!C18</f>
-        <v>25</v>
+        <f>Unread!D18</f>
+        <v>14</v>
       </c>
       <c r="D18">
-        <f>Unread!D18</f>
-        <v>0.12</v>
+        <f>Unread!E18</f>
+        <v>0.21428571428571427</v>
       </c>
       <c r="E18" t="str">
-        <f>Unread!E18</f>
+        <f>Unread!F18</f>
         <v>No</v>
       </c>
     </row>
@@ -4248,2484 +4281,2484 @@
         <v>Zoar (Pamphlet)</v>
       </c>
       <c r="B19">
-        <f>Unread!B19</f>
+        <f>Unread!C19</f>
         <v>5</v>
       </c>
       <c r="C19">
-        <f>Unread!C19</f>
+        <f>Unread!D19</f>
         <v>73</v>
       </c>
       <c r="D19">
-        <f>Unread!D19</f>
+        <f>Unread!E19</f>
         <v>6.8493150684931503E-2</v>
       </c>
       <c r="E19" t="str">
-        <f>Unread!E19</f>
+        <f>Unread!F19</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>Unread!A20</f>
-        <v xml:space="preserve">On the Decay of the Art of Lying  </v>
+        <v>Wisdom and the Context of Knowledge: Knowing that One Doesn't Know: Meacham (Report)</v>
       </c>
       <c r="B20">
-        <f>Unread!B20</f>
-        <v>2</v>
+        <f>Unread!C20</f>
+        <v>4</v>
       </c>
       <c r="C20">
-        <f>Unread!C20</f>
-        <v>30</v>
+        <f>Unread!D20</f>
+        <v>20</v>
       </c>
       <c r="D20">
-        <f>Unread!D20</f>
-        <v>6.6666666666666666E-2</v>
+        <f>Unread!E20</f>
+        <v>0.2</v>
       </c>
       <c r="E20" t="str">
-        <f>Unread!E20</f>
+        <f>Unread!F20</f>
         <v>No</v>
       </c>
     </row>
     <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>Unread!A21</f>
-        <v>A Mathematica Theory of Communication: CE Shannon (Report)</v>
+        <v>Self-organised criticality-what it is and what it isn't (Report)</v>
       </c>
       <c r="B21">
-        <f>Unread!B21</f>
+        <f>Unread!C21</f>
         <v>3</v>
       </c>
       <c r="C21">
-        <f>Unread!C21</f>
-        <v>55</v>
+        <f>Unread!D21</f>
+        <v>20</v>
       </c>
       <c r="D21">
-        <f>Unread!D21</f>
-        <v>5.4545454545454543E-2</v>
+        <f>Unread!E21</f>
+        <v>0.15</v>
       </c>
       <c r="E21" t="str">
-        <f>Unread!E21</f>
+        <f>Unread!F21</f>
         <v>No</v>
       </c>
     </row>
     <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>Unread!A22</f>
-        <v>Guerilla Warfare Mao</v>
+        <v>Power laws, Pareto distributinos and Zipf's Law (Report)</v>
       </c>
       <c r="B22">
-        <f>Unread!B22</f>
-        <v>4</v>
+        <f>Unread!C22</f>
+        <v>3</v>
       </c>
       <c r="C22">
-        <f>Unread!C22</f>
-        <v>74</v>
+        <f>Unread!D22</f>
+        <v>25</v>
       </c>
       <c r="D22">
-        <f>Unread!D22</f>
-        <v>5.4054054054054057E-2</v>
+        <f>Unread!E22</f>
+        <v>0.12</v>
       </c>
       <c r="E22" t="str">
-        <f>Unread!E22</f>
+        <f>Unread!F22</f>
         <v>No</v>
       </c>
     </row>
     <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>Unread!A23</f>
-        <v>Thermodynamics</v>
+        <v xml:space="preserve">On the Decay of the Art of Lying  </v>
       </c>
       <c r="B23">
-        <f>Unread!B23</f>
-        <v>5</v>
+        <f>Unread!C23</f>
+        <v>2</v>
       </c>
       <c r="C23">
-        <f>Unread!C23</f>
-        <v>120</v>
+        <f>Unread!D23</f>
+        <v>30</v>
       </c>
       <c r="D23">
-        <f>Unread!D23</f>
-        <v>4.1666666666666664E-2</v>
+        <f>Unread!E23</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="E23" t="str">
-        <f>Unread!E23</f>
+        <f>Unread!F23</f>
         <v>No</v>
       </c>
     </row>
     <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>Unread!A24</f>
-        <v>Campaigns of General Custer</v>
+        <v>A Mathematica Theory of Communication: CE Shannon (Report)</v>
       </c>
       <c r="B24">
-        <f>Unread!B24</f>
+        <f>Unread!C24</f>
         <v>3</v>
       </c>
       <c r="C24">
-        <f>Unread!C24</f>
-        <v>72</v>
+        <f>Unread!D24</f>
+        <v>55</v>
       </c>
       <c r="D24">
-        <f>Unread!D24</f>
-        <v>4.1666666666666664E-2</v>
+        <f>Unread!E24</f>
+        <v>5.4545454545454543E-2</v>
       </c>
       <c r="E24" t="str">
-        <f>Unread!E24</f>
+        <f>Unread!F24</f>
         <v>No</v>
       </c>
     </row>
     <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>Unread!A25</f>
-        <v>A Monk's Guide to a Clean House</v>
+        <v>Guerilla Warfare Mao</v>
       </c>
       <c r="B25">
-        <f>Unread!B25</f>
-        <v>5</v>
+        <f>Unread!C25</f>
+        <v>4</v>
       </c>
       <c r="C25">
-        <f>Unread!C25</f>
-        <v>128</v>
+        <f>Unread!D25</f>
+        <v>74</v>
       </c>
       <c r="D25">
-        <f>Unread!D25</f>
-        <v>3.90625E-2</v>
+        <f>Unread!E25</f>
+        <v>5.4054054054054057E-2</v>
       </c>
       <c r="E25" t="str">
-        <f>Unread!E25</f>
+        <f>Unread!F25</f>
         <v>No</v>
       </c>
     </row>
     <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>Unread!A26</f>
-        <v>Maneuver Warfare Handbook</v>
+        <v>Thermodynamics</v>
       </c>
       <c r="B26">
-        <f>Unread!B26</f>
+        <f>Unread!C26</f>
         <v>5</v>
       </c>
       <c r="C26">
-        <f>Unread!C26</f>
-        <v>133</v>
+        <f>Unread!D26</f>
+        <v>120</v>
       </c>
       <c r="D26">
-        <f>Unread!D26</f>
-        <v>3.7593984962406013E-2</v>
+        <f>Unread!E26</f>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E26" t="str">
-        <f>Unread!E26</f>
+        <f>Unread!F26</f>
         <v>No</v>
       </c>
     </row>
     <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>Unread!A27</f>
-        <v xml:space="preserve">Drop the Rock: Removing Character Defects - Steps Six and Seven  </v>
+        <v>Campaigns of General Custer</v>
       </c>
       <c r="B27">
-        <f>Unread!B27</f>
-        <v>4</v>
+        <f>Unread!C27</f>
+        <v>3</v>
       </c>
       <c r="C27">
-        <f>Unread!C27</f>
-        <v>132</v>
+        <f>Unread!D27</f>
+        <v>72</v>
       </c>
       <c r="D27">
-        <f>Unread!D27</f>
-        <v>3.0303030303030304E-2</v>
+        <f>Unread!E27</f>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E27" t="str">
-        <f>Unread!E27</f>
+        <f>Unread!F27</f>
         <v>No</v>
       </c>
     </row>
     <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>Unread!A28</f>
-        <v>The Parent's Tao Te Ching</v>
+        <v>A Monk's Guide to a Clean House</v>
       </c>
       <c r="B28">
-        <f>Unread!B28</f>
-        <v>4</v>
+        <f>Unread!C28</f>
+        <v>5</v>
       </c>
       <c r="C28">
-        <f>Unread!C28</f>
-        <v>160</v>
+        <f>Unread!D28</f>
+        <v>128</v>
       </c>
       <c r="D28">
-        <f>Unread!D28</f>
-        <v>2.5000000000000001E-2</v>
+        <f>Unread!E28</f>
+        <v>3.90625E-2</v>
       </c>
       <c r="E28" t="str">
-        <f>Unread!E28</f>
+        <f>Unread!F28</f>
         <v>No</v>
       </c>
     </row>
     <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>Unread!A29</f>
-        <v xml:space="preserve">The Gnosis of the Light  </v>
+        <v>Maneuver Warfare Handbook</v>
       </c>
       <c r="B29">
-        <f>Unread!B29</f>
-        <v>2</v>
+        <f>Unread!C29</f>
+        <v>5</v>
       </c>
       <c r="C29">
-        <f>Unread!C29</f>
-        <v>80</v>
+        <f>Unread!D29</f>
+        <v>133</v>
       </c>
       <c r="D29">
-        <f>Unread!D29</f>
-        <v>2.5000000000000001E-2</v>
+        <f>Unread!E29</f>
+        <v>3.7593984962406013E-2</v>
       </c>
       <c r="E29" t="str">
-        <f>Unread!E29</f>
+        <f>Unread!F29</f>
         <v>No</v>
       </c>
     </row>
     <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>Unread!A30</f>
-        <v>The Elements of Zen</v>
+        <v xml:space="preserve">Drop the Rock: Removing Character Defects - Steps Six and Seven  </v>
       </c>
       <c r="B30">
-        <f>Unread!B30</f>
-        <v>3</v>
+        <f>Unread!C30</f>
+        <v>4</v>
       </c>
       <c r="C30">
-        <f>Unread!C30</f>
-        <v>124</v>
+        <f>Unread!D30</f>
+        <v>132</v>
       </c>
       <c r="D30">
-        <f>Unread!D30</f>
-        <v>2.4193548387096774E-2</v>
+        <f>Unread!E30</f>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="E30" t="str">
-        <f>Unread!E30</f>
+        <f>Unread!F30</f>
         <v>No</v>
       </c>
     </row>
     <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>Unread!A31</f>
-        <v>Impeachment: A Citizen's Guide</v>
+        <v>The Parent's Tao Te Ching</v>
       </c>
       <c r="B31">
-        <f>Unread!B31</f>
-        <v>5</v>
+        <f>Unread!C31</f>
+        <v>4</v>
       </c>
       <c r="C31">
-        <f>Unread!C31</f>
-        <v>208</v>
+        <f>Unread!D31</f>
+        <v>160</v>
       </c>
       <c r="D31">
-        <f>Unread!D31</f>
-        <v>2.403846153846154E-2</v>
+        <f>Unread!E31</f>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E31" t="str">
-        <f>Unread!E31</f>
+        <f>Unread!F31</f>
         <v>No</v>
       </c>
     </row>
     <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>Unread!A32</f>
-        <v xml:space="preserve">On Tyranny: Twenty Lessons From the Twentieth Century  </v>
+        <v xml:space="preserve">The Gnosis of the Light  </v>
       </c>
       <c r="B32">
-        <f>Unread!B32</f>
-        <v>3</v>
+        <f>Unread!C32</f>
+        <v>2</v>
       </c>
       <c r="C32">
-        <f>Unread!C32</f>
-        <v>128</v>
+        <f>Unread!D32</f>
+        <v>80</v>
       </c>
       <c r="D32">
-        <f>Unread!D32</f>
-        <v>2.34375E-2</v>
+        <f>Unread!E32</f>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E32" t="str">
-        <f>Unread!E32</f>
+        <f>Unread!F32</f>
         <v>No</v>
       </c>
     </row>
     <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>Unread!A33</f>
-        <v>Advice Not Given: A Guide for Getting Over Yourself</v>
+        <v>The Elements of Zen</v>
       </c>
       <c r="B33">
-        <f>Unread!B33</f>
-        <v>5</v>
+        <f>Unread!C33</f>
+        <v>3</v>
       </c>
       <c r="C33">
-        <f>Unread!C33</f>
-        <v>224</v>
+        <f>Unread!D33</f>
+        <v>124</v>
       </c>
       <c r="D33">
-        <f>Unread!D33</f>
-        <v>2.2321428571428572E-2</v>
+        <f>Unread!E33</f>
+        <v>2.4193548387096774E-2</v>
       </c>
       <c r="E33" t="str">
-        <f>Unread!E33</f>
+        <f>Unread!F33</f>
         <v>No</v>
       </c>
     </row>
     <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>Unread!A34</f>
-        <v xml:space="preserve">Left of Bang: How the Marine Corps' Combat Hunter Program Can Save Your Life  </v>
+        <v>Impeachment: A Citizen's Guide</v>
       </c>
       <c r="B34">
-        <f>Unread!B34</f>
+        <f>Unread!C34</f>
         <v>5</v>
       </c>
       <c r="C34">
-        <f>Unread!C34</f>
-        <v>228</v>
+        <f>Unread!D34</f>
+        <v>208</v>
       </c>
       <c r="D34">
-        <f>Unread!D34</f>
-        <v>2.1929824561403508E-2</v>
+        <f>Unread!E34</f>
+        <v>2.403846153846154E-2</v>
       </c>
       <c r="E34" t="str">
-        <f>Unread!E34</f>
+        <f>Unread!F34</f>
         <v>No</v>
       </c>
     </row>
     <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>Unread!A35</f>
-        <v>Markings (Dag)</v>
+        <v xml:space="preserve">On Tyranny: Twenty Lessons From the Twentieth Century  </v>
       </c>
       <c r="B35">
-        <f>Unread!B35</f>
-        <v>4</v>
+        <f>Unread!C35</f>
+        <v>3</v>
       </c>
       <c r="C35">
-        <f>Unread!C35</f>
-        <v>191</v>
+        <f>Unread!D35</f>
+        <v>128</v>
       </c>
       <c r="D35">
-        <f>Unread!D35</f>
-        <v>2.0942408376963352E-2</v>
+        <f>Unread!E35</f>
+        <v>2.34375E-2</v>
       </c>
       <c r="E35" t="str">
-        <f>Unread!E35</f>
+        <f>Unread!F35</f>
         <v>No</v>
       </c>
     </row>
     <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>Unread!A36</f>
-        <v xml:space="preserve">Simplicity: The Freedom of Letting Go  </v>
+        <v>Advice Not Given: A Guide for Getting Over Yourself</v>
       </c>
       <c r="B36">
-        <f>Unread!B36</f>
-        <v>4</v>
+        <f>Unread!C36</f>
+        <v>5</v>
       </c>
       <c r="C36">
-        <f>Unread!C36</f>
-        <v>192</v>
+        <f>Unread!D36</f>
+        <v>224</v>
       </c>
       <c r="D36">
-        <f>Unread!D36</f>
-        <v>2.0833333333333332E-2</v>
+        <f>Unread!E36</f>
+        <v>2.2321428571428572E-2</v>
       </c>
       <c r="E36" t="str">
-        <f>Unread!E36</f>
+        <f>Unread!F36</f>
         <v>No</v>
       </c>
     </row>
     <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>Unread!A37</f>
-        <v>Dr. Seuss: American Icon</v>
+        <v xml:space="preserve">Left of Bang: How the Marine Corps' Combat Hunter Program Can Save Your Life  </v>
       </c>
       <c r="B37">
-        <f>Unread!B37</f>
-        <v>4</v>
+        <f>Unread!C37</f>
+        <v>5</v>
       </c>
       <c r="C37">
-        <f>Unread!C37</f>
-        <v>198</v>
+        <f>Unread!D37</f>
+        <v>228</v>
       </c>
       <c r="D37">
-        <f>Unread!D37</f>
-        <v>2.0202020202020204E-2</v>
+        <f>Unread!E37</f>
+        <v>2.1929824561403508E-2</v>
       </c>
       <c r="E37" t="str">
-        <f>Unread!E37</f>
+        <f>Unread!F37</f>
         <v>No</v>
       </c>
     </row>
     <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>Unread!A38</f>
-        <v>Promise me Dad</v>
+        <v>Markings (Dag)</v>
       </c>
       <c r="B38">
-        <f>Unread!B38</f>
-        <v>5</v>
+        <f>Unread!C38</f>
+        <v>4</v>
       </c>
       <c r="C38">
-        <f>Unread!C38</f>
-        <v>258</v>
+        <f>Unread!D38</f>
+        <v>191</v>
       </c>
       <c r="D38">
-        <f>Unread!D38</f>
-        <v>1.937984496124031E-2</v>
+        <f>Unread!E38</f>
+        <v>2.0942408376963352E-2</v>
       </c>
       <c r="E38" t="str">
-        <f>Unread!E38</f>
+        <f>Unread!F38</f>
         <v>No</v>
       </c>
     </row>
     <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>Unread!A39</f>
-        <v>Norman Rockwell: A Sixty Year Retrospective</v>
+        <v xml:space="preserve">Simplicity: The Freedom of Letting Go  </v>
       </c>
       <c r="B39">
-        <f>Unread!B39</f>
-        <v>3</v>
+        <f>Unread!C39</f>
+        <v>4</v>
       </c>
       <c r="C39">
-        <f>Unread!C39</f>
-        <v>157</v>
+        <f>Unread!D39</f>
+        <v>192</v>
       </c>
       <c r="D39">
-        <f>Unread!D39</f>
-        <v>1.9108280254777069E-2</v>
+        <f>Unread!E39</f>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E39" t="str">
-        <f>Unread!E39</f>
+        <f>Unread!F39</f>
         <v>No</v>
       </c>
     </row>
     <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>Unread!A40</f>
-        <v xml:space="preserve">The Wisdom of Insecurity  </v>
+        <v>Dr. Seuss: American Icon</v>
       </c>
       <c r="B40">
-        <f>Unread!B40</f>
-        <v>3</v>
+        <f>Unread!C40</f>
+        <v>4</v>
       </c>
       <c r="C40">
-        <f>Unread!C40</f>
-        <v>160</v>
+        <f>Unread!D40</f>
+        <v>198</v>
       </c>
       <c r="D40">
-        <f>Unread!D40</f>
-        <v>1.8749999999999999E-2</v>
+        <f>Unread!E40</f>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="E40" t="str">
-        <f>Unread!E40</f>
+        <f>Unread!F40</f>
         <v>No</v>
       </c>
     </row>
     <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>Unread!A41</f>
-        <v xml:space="preserve">The Obstacle Is the Way: The Timeless Art of Turning Trials Into Triumph  </v>
+        <v>Promise me Dad</v>
       </c>
       <c r="B41">
-        <f>Unread!B41</f>
-        <v>4</v>
+        <f>Unread!C41</f>
+        <v>5</v>
       </c>
       <c r="C41">
-        <f>Unread!C41</f>
-        <v>224</v>
+        <f>Unread!D41</f>
+        <v>258</v>
       </c>
       <c r="D41">
-        <f>Unread!D41</f>
-        <v>1.7857142857142856E-2</v>
+        <f>Unread!E41</f>
+        <v>1.937984496124031E-2</v>
       </c>
       <c r="E41" t="str">
-        <f>Unread!E41</f>
+        <f>Unread!F41</f>
         <v>No</v>
       </c>
     </row>
     <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>Unread!A42</f>
-        <v>Flight of the Wild Gander</v>
+        <v>Norman Rockwell: A Sixty Year Retrospective</v>
       </c>
       <c r="B42">
-        <f>Unread!B42</f>
-        <v>4</v>
+        <f>Unread!C42</f>
+        <v>3</v>
       </c>
       <c r="C42">
-        <f>Unread!C42</f>
-        <v>226</v>
+        <f>Unread!D42</f>
+        <v>157</v>
       </c>
       <c r="D42">
-        <f>Unread!D42</f>
-        <v>1.7699115044247787E-2</v>
+        <f>Unread!E42</f>
+        <v>1.9108280254777069E-2</v>
       </c>
       <c r="E42" t="str">
-        <f>Unread!E42</f>
+        <f>Unread!F42</f>
         <v>No</v>
       </c>
     </row>
     <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>Unread!A43</f>
-        <v xml:space="preserve">Sprint: How to Solve Big Problems and Test New Ideas in Just Five Days  </v>
+        <v xml:space="preserve">The Wisdom of Insecurity  </v>
       </c>
       <c r="B43">
-        <f>Unread!B43</f>
-        <v>5</v>
+        <f>Unread!C43</f>
+        <v>3</v>
       </c>
       <c r="C43">
-        <f>Unread!C43</f>
-        <v>288</v>
+        <f>Unread!D43</f>
+        <v>160</v>
       </c>
       <c r="D43">
-        <f>Unread!D43</f>
-        <v>1.7361111111111112E-2</v>
+        <f>Unread!E43</f>
+        <v>1.8749999999999999E-2</v>
       </c>
       <c r="E43" t="str">
-        <f>Unread!E43</f>
+        <f>Unread!F43</f>
         <v>No</v>
       </c>
     </row>
     <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>Unread!A44</f>
-        <v>Buddhism: An Introduction and Guide</v>
+        <v xml:space="preserve">The Obstacle Is the Way: The Timeless Art of Turning Trials Into Triumph  </v>
       </c>
       <c r="B44">
-        <f>Unread!B44</f>
+        <f>Unread!C44</f>
         <v>4</v>
       </c>
       <c r="C44">
-        <f>Unread!C44</f>
-        <v>231</v>
+        <f>Unread!D44</f>
+        <v>224</v>
       </c>
       <c r="D44">
-        <f>Unread!D44</f>
-        <v>1.7316017316017316E-2</v>
+        <f>Unread!E44</f>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="E44" t="str">
-        <f>Unread!E44</f>
+        <f>Unread!F44</f>
         <v>No</v>
       </c>
     </row>
     <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>Unread!A45</f>
-        <v>The Ransom of Russian Art</v>
+        <v>Flight of the Wild Gander</v>
       </c>
       <c r="B45">
-        <f>Unread!B45</f>
-        <v>3</v>
+        <f>Unread!C45</f>
+        <v>4</v>
       </c>
       <c r="C45">
-        <f>Unread!C45</f>
-        <v>181</v>
+        <f>Unread!D45</f>
+        <v>226</v>
       </c>
       <c r="D45">
-        <f>Unread!D45</f>
-        <v>1.6574585635359115E-2</v>
+        <f>Unread!E45</f>
+        <v>1.7699115044247787E-2</v>
       </c>
       <c r="E45" t="str">
-        <f>Unread!E45</f>
+        <f>Unread!F45</f>
         <v>No</v>
       </c>
     </row>
     <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>Unread!A46</f>
-        <v>The Gnostic Gospels.</v>
+        <v xml:space="preserve">Sprint: How to Solve Big Problems and Test New Ideas in Just Five Days  </v>
       </c>
       <c r="B46">
-        <f>Unread!B46</f>
-        <v>3</v>
+        <f>Unread!C46</f>
+        <v>5</v>
       </c>
       <c r="C46">
-        <f>Unread!C46</f>
-        <v>182</v>
+        <f>Unread!D46</f>
+        <v>288</v>
       </c>
       <c r="D46">
-        <f>Unread!D46</f>
-        <v>1.6483516483516484E-2</v>
+        <f>Unread!E46</f>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="E46" t="str">
-        <f>Unread!E46</f>
+        <f>Unread!F46</f>
         <v>No</v>
       </c>
     </row>
     <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>Unread!A47</f>
-        <v>Tao of Jeet Kune Do</v>
+        <v>Buddhism: An Introduction and Guide</v>
       </c>
       <c r="B47">
-        <f>Unread!B47</f>
+        <f>Unread!C47</f>
         <v>4</v>
       </c>
       <c r="C47">
-        <f>Unread!C47</f>
-        <v>250</v>
+        <f>Unread!D47</f>
+        <v>231</v>
       </c>
       <c r="D47">
-        <f>Unread!D47</f>
-        <v>1.6E-2</v>
+        <f>Unread!E47</f>
+        <v>1.7316017316017316E-2</v>
       </c>
       <c r="E47" t="str">
-        <f>Unread!E47</f>
+        <f>Unread!F47</f>
         <v>No</v>
       </c>
     </row>
     <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>Unread!A48</f>
-        <v>Myths to Live By</v>
+        <v>The Ransom of Russian Art</v>
       </c>
       <c r="B48">
-        <f>Unread!B48</f>
-        <v>4</v>
+        <f>Unread!C48</f>
+        <v>3</v>
       </c>
       <c r="C48">
-        <f>Unread!C48</f>
-        <v>266</v>
+        <f>Unread!D48</f>
+        <v>181</v>
       </c>
       <c r="D48">
-        <f>Unread!D48</f>
-        <v>1.5037593984962405E-2</v>
+        <f>Unread!E48</f>
+        <v>1.6574585635359115E-2</v>
       </c>
       <c r="E48" t="str">
-        <f>Unread!E48</f>
+        <f>Unread!F48</f>
         <v>No</v>
       </c>
     </row>
     <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>Unread!A49</f>
-        <v xml:space="preserve">Why Buddhism Is True: The Science and Philosophy of Meditation and Enlightenment  </v>
+        <v>The Gnostic Gospels.</v>
       </c>
       <c r="B49">
-        <f>Unread!B49</f>
-        <v>5</v>
+        <f>Unread!C49</f>
+        <v>3</v>
       </c>
       <c r="C49">
-        <f>Unread!C49</f>
-        <v>336</v>
+        <f>Unread!D49</f>
+        <v>182</v>
       </c>
       <c r="D49">
-        <f>Unread!D49</f>
-        <v>1.488095238095238E-2</v>
+        <f>Unread!E49</f>
+        <v>1.6483516483516484E-2</v>
       </c>
       <c r="E49" t="str">
-        <f>Unread!E49</f>
+        <f>Unread!F49</f>
         <v>No</v>
       </c>
     </row>
     <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>Unread!A50</f>
-        <v>Mooney</v>
+        <v>Tao of Jeet Kune Do</v>
       </c>
       <c r="B50">
-        <f>Unread!B50</f>
-        <v>2</v>
+        <f>Unread!C50</f>
+        <v>4</v>
       </c>
       <c r="C50">
-        <f>Unread!C50</f>
-        <v>137</v>
+        <f>Unread!D50</f>
+        <v>250</v>
       </c>
       <c r="D50">
-        <f>Unread!D50</f>
-        <v>1.4598540145985401E-2</v>
+        <f>Unread!E50</f>
+        <v>1.6E-2</v>
       </c>
       <c r="E50" t="str">
-        <f>Unread!E50</f>
+        <f>Unread!F50</f>
         <v>No</v>
       </c>
     </row>
     <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>Unread!A51</f>
-        <v>Letters from a Stoic</v>
+        <v>Myths to Live By</v>
       </c>
       <c r="B51">
-        <f>Unread!B51</f>
+        <f>Unread!C51</f>
         <v>4</v>
       </c>
       <c r="C51">
-        <f>Unread!C51</f>
-        <v>276</v>
+        <f>Unread!D51</f>
+        <v>266</v>
       </c>
       <c r="D51">
-        <f>Unread!D51</f>
-        <v>1.4492753623188406E-2</v>
+        <f>Unread!E51</f>
+        <v>1.5037593984962405E-2</v>
       </c>
       <c r="E51" t="str">
-        <f>Unread!E51</f>
+        <f>Unread!F51</f>
         <v>No</v>
       </c>
     </row>
     <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>Unread!A52</f>
-        <v xml:space="preserve">Probably Approximately Correct: Nature's Algorithms for Learning and Prospering in a Complex World  </v>
+        <v xml:space="preserve">Why Buddhism Is True: The Science and Philosophy of Meditation and Enlightenment  </v>
       </c>
       <c r="B52">
-        <f>Unread!B52</f>
-        <v>3</v>
+        <f>Unread!C52</f>
+        <v>5</v>
       </c>
       <c r="C52">
-        <f>Unread!C52</f>
-        <v>208</v>
+        <f>Unread!D52</f>
+        <v>336</v>
       </c>
       <c r="D52">
-        <f>Unread!D52</f>
-        <v>1.4423076923076924E-2</v>
+        <f>Unread!E52</f>
+        <v>1.488095238095238E-2</v>
       </c>
       <c r="E52" t="str">
-        <f>Unread!E52</f>
+        <f>Unread!F52</f>
         <v>No</v>
       </c>
     </row>
     <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>Unread!A53</f>
-        <v>The Penguin Guide to the United States Constitution</v>
+        <v>Mooney</v>
       </c>
       <c r="B53">
-        <f>Unread!B53</f>
-        <v>3</v>
+        <f>Unread!C53</f>
+        <v>2</v>
       </c>
       <c r="C53">
-        <f>Unread!C53</f>
-        <v>213</v>
+        <f>Unread!D53</f>
+        <v>137</v>
       </c>
       <c r="D53">
-        <f>Unread!D53</f>
-        <v>1.4084507042253521E-2</v>
+        <f>Unread!E53</f>
+        <v>1.4598540145985401E-2</v>
       </c>
       <c r="E53" t="str">
-        <f>Unread!E53</f>
+        <f>Unread!F53</f>
         <v>No</v>
       </c>
     </row>
     <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>Unread!A54</f>
-        <v>Rifleman Dodd</v>
+        <v>Letters from a Stoic</v>
       </c>
       <c r="B54">
-        <f>Unread!B54</f>
-        <v>3</v>
+        <f>Unread!C54</f>
+        <v>4</v>
       </c>
       <c r="C54">
-        <f>Unread!C54</f>
-        <v>220</v>
+        <f>Unread!D54</f>
+        <v>276</v>
       </c>
       <c r="D54">
-        <f>Unread!D54</f>
-        <v>1.3636363636363636E-2</v>
+        <f>Unread!E54</f>
+        <v>1.4492753623188406E-2</v>
       </c>
       <c r="E54" t="str">
-        <f>Unread!E54</f>
+        <f>Unread!F54</f>
         <v>No</v>
       </c>
     </row>
     <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>Unread!A55</f>
-        <v>The Thirteenth Turn: A History of the Noose</v>
+        <v xml:space="preserve">Probably Approximately Correct: Nature's Algorithms for Learning and Prospering in a Complex World  </v>
       </c>
       <c r="B55">
-        <f>Unread!B55</f>
-        <v>5</v>
+        <f>Unread!C55</f>
+        <v>3</v>
       </c>
       <c r="C55">
-        <f>Unread!C55</f>
-        <v>368</v>
+        <f>Unread!D55</f>
+        <v>208</v>
       </c>
       <c r="D55">
-        <f>Unread!D55</f>
-        <v>1.358695652173913E-2</v>
+        <f>Unread!E55</f>
+        <v>1.4423076923076924E-2</v>
       </c>
       <c r="E55" t="str">
-        <f>Unread!E55</f>
+        <f>Unread!F55</f>
         <v>No</v>
       </c>
     </row>
     <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>Unread!A56</f>
-        <v xml:space="preserve">How We Decide  </v>
+        <v>The Penguin Guide to the United States Constitution</v>
       </c>
       <c r="B56">
-        <f>Unread!B56</f>
-        <v>4</v>
+        <f>Unread!C56</f>
+        <v>3</v>
       </c>
       <c r="C56">
-        <f>Unread!C56</f>
-        <v>320</v>
+        <f>Unread!D56</f>
+        <v>213</v>
       </c>
       <c r="D56">
-        <f>Unread!D56</f>
-        <v>1.2500000000000001E-2</v>
+        <f>Unread!E56</f>
+        <v>1.4084507042253521E-2</v>
       </c>
       <c r="E56" t="str">
-        <f>Unread!E56</f>
+        <f>Unread!F56</f>
         <v>No</v>
       </c>
     </row>
     <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>Unread!A57</f>
-        <v>Finite and Infinite Games</v>
+        <v>Rifleman Dodd</v>
       </c>
       <c r="B57">
-        <f>Unread!B57</f>
-        <v>2</v>
+        <f>Unread!C57</f>
+        <v>3</v>
       </c>
       <c r="C57">
-        <f>Unread!C57</f>
-        <v>160</v>
+        <f>Unread!D57</f>
+        <v>220</v>
       </c>
       <c r="D57">
-        <f>Unread!D57</f>
-        <v>1.2500000000000001E-2</v>
+        <f>Unread!E57</f>
+        <v>1.3636363636363636E-2</v>
       </c>
       <c r="E57" t="str">
-        <f>Unread!E57</f>
+        <f>Unread!F57</f>
         <v>No</v>
       </c>
     </row>
     <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>Unread!A58</f>
-        <v xml:space="preserve">The Bread Baker's Apprentice: Mastering the Art of Extraordinary Bread  </v>
+        <v>The Thirteenth Turn: A History of the Noose</v>
       </c>
       <c r="B58">
-        <f>Unread!B58</f>
-        <v>4</v>
+        <f>Unread!C58</f>
+        <v>5</v>
       </c>
       <c r="C58">
-        <f>Unread!C58</f>
-        <v>336</v>
+        <f>Unread!D58</f>
+        <v>368</v>
       </c>
       <c r="D58">
-        <f>Unread!D58</f>
-        <v>1.1904761904761904E-2</v>
+        <f>Unread!E58</f>
+        <v>1.358695652173913E-2</v>
       </c>
       <c r="E58" t="str">
-        <f>Unread!E58</f>
+        <f>Unread!F58</f>
         <v>No</v>
       </c>
     </row>
     <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>Unread!A59</f>
-        <v>Backbone</v>
+        <v xml:space="preserve">How We Decide  </v>
       </c>
       <c r="B59">
-        <f>Unread!B59</f>
-        <v>3</v>
+        <f>Unread!C59</f>
+        <v>4</v>
       </c>
       <c r="C59">
-        <f>Unread!C59</f>
-        <v>256</v>
+        <f>Unread!D59</f>
+        <v>320</v>
       </c>
       <c r="D59">
-        <f>Unread!D59</f>
-        <v>1.171875E-2</v>
+        <f>Unread!E59</f>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="E59" t="str">
-        <f>Unread!E59</f>
+        <f>Unread!F59</f>
         <v>No</v>
       </c>
     </row>
     <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>Unread!A60</f>
-        <v>Johnny Got His Gun</v>
+        <v>Finite and Infinite Games</v>
       </c>
       <c r="B60">
-        <f>Unread!B60</f>
-        <v>3</v>
+        <f>Unread!C60</f>
+        <v>2</v>
       </c>
       <c r="C60">
-        <f>Unread!C60</f>
-        <v>256</v>
+        <f>Unread!D60</f>
+        <v>160</v>
       </c>
       <c r="D60">
-        <f>Unread!D60</f>
-        <v>1.171875E-2</v>
+        <f>Unread!E60</f>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="E60" t="str">
-        <f>Unread!E60</f>
+        <f>Unread!F60</f>
         <v>No</v>
       </c>
     </row>
     <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>Unread!A61</f>
-        <v>The Hero with a Thousand Faces</v>
+        <v xml:space="preserve">The Bread Baker's Apprentice: Mastering the Art of Extraordinary Bread  </v>
       </c>
       <c r="B61">
-        <f>Unread!B61</f>
-        <v>5</v>
+        <f>Unread!C61</f>
+        <v>4</v>
       </c>
       <c r="C61">
-        <f>Unread!C61</f>
-        <v>432</v>
+        <f>Unread!D61</f>
+        <v>336</v>
       </c>
       <c r="D61">
-        <f>Unread!D61</f>
-        <v>1.1574074074074073E-2</v>
+        <f>Unread!E61</f>
+        <v>1.1904761904761904E-2</v>
       </c>
       <c r="E61" t="str">
-        <f>Unread!E61</f>
+        <f>Unread!F61</f>
         <v>No</v>
       </c>
     </row>
     <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f>Unread!A62</f>
-        <v xml:space="preserve">Mind in the Balance: Meditation in Science, Buddhism, and Christianity  </v>
+        <v>Backbone</v>
       </c>
       <c r="B62">
-        <f>Unread!B62</f>
+        <f>Unread!C62</f>
         <v>3</v>
       </c>
       <c r="C62">
-        <f>Unread!C62</f>
-        <v>264</v>
+        <f>Unread!D62</f>
+        <v>256</v>
       </c>
       <c r="D62">
-        <f>Unread!D62</f>
-        <v>1.1363636363636364E-2</v>
+        <f>Unread!E62</f>
+        <v>1.171875E-2</v>
       </c>
       <c r="E62" t="str">
-        <f>Unread!E62</f>
+        <f>Unread!F62</f>
         <v>No</v>
       </c>
     </row>
     <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>Unread!A63</f>
-        <v>The Elements of Journalism</v>
+        <v>Johnny Got His Gun</v>
       </c>
       <c r="B63">
-        <f>Unread!B63</f>
-        <v>4</v>
+        <f>Unread!C63</f>
+        <v>3</v>
       </c>
       <c r="C63">
-        <f>Unread!C63</f>
-        <v>352</v>
+        <f>Unread!D63</f>
+        <v>256</v>
       </c>
       <c r="D63">
-        <f>Unread!D63</f>
-        <v>1.1363636363636364E-2</v>
+        <f>Unread!E63</f>
+        <v>1.171875E-2</v>
       </c>
       <c r="E63" t="str">
-        <f>Unread!E63</f>
+        <f>Unread!F63</f>
         <v>No</v>
       </c>
     </row>
     <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>Unread!A64</f>
-        <v>Custer's Last Stand: The Anatomy of an American Myth</v>
+        <v>The Hero with a Thousand Faces</v>
       </c>
       <c r="B64">
-        <f>Unread!B64</f>
-        <v>3</v>
+        <f>Unread!C64</f>
+        <v>5</v>
       </c>
       <c r="C64">
-        <f>Unread!C64</f>
-        <v>266</v>
+        <f>Unread!D64</f>
+        <v>432</v>
       </c>
       <c r="D64">
-        <f>Unread!D64</f>
-        <v>1.1278195488721804E-2</v>
+        <f>Unread!E64</f>
+        <v>1.1574074074074073E-2</v>
       </c>
       <c r="E64" t="str">
-        <f>Unread!E64</f>
+        <f>Unread!F64</f>
         <v>No</v>
       </c>
     </row>
     <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f>Unread!A65</f>
-        <v>History of Nevada: Elliot</v>
+        <v xml:space="preserve">Mind in the Balance: Meditation in Science, Buddhism, and Christianity  </v>
       </c>
       <c r="B65">
-        <f>Unread!B65</f>
+        <f>Unread!C65</f>
         <v>3</v>
       </c>
       <c r="C65">
-        <f>Unread!C65</f>
-        <v>277</v>
+        <f>Unread!D65</f>
+        <v>264</v>
       </c>
       <c r="D65">
-        <f>Unread!D65</f>
-        <v>1.0830324909747292E-2</v>
+        <f>Unread!E65</f>
+        <v>1.1363636363636364E-2</v>
       </c>
       <c r="E65" t="str">
-        <f>Unread!E65</f>
+        <f>Unread!F65</f>
         <v>No</v>
       </c>
     </row>
     <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f>Unread!A66</f>
-        <v>One Man Against the World</v>
+        <v>The Elements of Journalism</v>
       </c>
       <c r="B66">
-        <f>Unread!B66</f>
+        <f>Unread!C66</f>
         <v>4</v>
       </c>
       <c r="C66">
-        <f>Unread!C66</f>
-        <v>384</v>
+        <f>Unread!D66</f>
+        <v>352</v>
       </c>
       <c r="D66">
-        <f>Unread!D66</f>
-        <v>1.0416666666666666E-2</v>
+        <f>Unread!E66</f>
+        <v>1.1363636363636364E-2</v>
       </c>
       <c r="E66" t="str">
-        <f>Unread!E66</f>
+        <f>Unread!F66</f>
         <v>No</v>
       </c>
     </row>
     <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f>Unread!A67</f>
-        <v xml:space="preserve">The Gatekeepers: How the White House Chiefs of Staff Define Every Presidency  </v>
+        <v>Custer's Last Stand: The Anatomy of an American Myth</v>
       </c>
       <c r="B67">
-        <f>Unread!B67</f>
-        <v>4</v>
+        <f>Unread!C67</f>
+        <v>3</v>
       </c>
       <c r="C67">
-        <f>Unread!C67</f>
-        <v>384</v>
+        <f>Unread!D67</f>
+        <v>266</v>
       </c>
       <c r="D67">
-        <f>Unread!D67</f>
-        <v>1.0416666666666666E-2</v>
+        <f>Unread!E67</f>
+        <v>1.1278195488721804E-2</v>
       </c>
       <c r="E67" t="str">
-        <f>Unread!E67</f>
+        <f>Unread!F67</f>
         <v>No</v>
       </c>
     </row>
     <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>Unread!A68</f>
-        <v xml:space="preserve">Storm in a Teacup: The Physics of Everyday Life  </v>
+        <v>History of Nevada: Elliot</v>
       </c>
       <c r="B68">
-        <f>Unread!B68</f>
+        <f>Unread!C68</f>
         <v>3</v>
       </c>
       <c r="C68">
-        <f>Unread!C68</f>
-        <v>288</v>
+        <f>Unread!D68</f>
+        <v>277</v>
       </c>
       <c r="D68">
-        <f>Unread!D68</f>
-        <v>1.0416666666666666E-2</v>
+        <f>Unread!E68</f>
+        <v>1.0830324909747292E-2</v>
       </c>
       <c r="E68" t="str">
-        <f>Unread!E68</f>
+        <f>Unread!F68</f>
         <v>No</v>
       </c>
     </row>
     <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>Unread!A69</f>
-        <v>14-18: Understanding the Great War</v>
+        <v>One Man Against the World</v>
       </c>
       <c r="B69">
-        <f>Unread!B69</f>
-        <v>3</v>
+        <f>Unread!C69</f>
+        <v>4</v>
       </c>
       <c r="C69">
-        <f>Unread!C69</f>
-        <v>288</v>
+        <f>Unread!D69</f>
+        <v>384</v>
       </c>
       <c r="D69">
-        <f>Unread!D69</f>
+        <f>Unread!E69</f>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E69" t="str">
-        <f>Unread!E69</f>
+        <f>Unread!F69</f>
         <v>No</v>
       </c>
     </row>
     <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f>Unread!A70</f>
-        <v>The Age of American Unreason</v>
+        <v xml:space="preserve">The Gatekeepers: How the White House Chiefs of Staff Define Every Presidency  </v>
       </c>
       <c r="B70">
-        <f>Unread!B70</f>
+        <f>Unread!C70</f>
         <v>4</v>
       </c>
       <c r="C70">
-        <f>Unread!C70</f>
-        <v>400</v>
+        <f>Unread!D70</f>
+        <v>384</v>
       </c>
       <c r="D70">
-        <f>Unread!D70</f>
-        <v>0.01</v>
+        <f>Unread!E70</f>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E70" t="str">
-        <f>Unread!E70</f>
+        <f>Unread!F70</f>
         <v>No</v>
       </c>
     </row>
     <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f>Unread!A71</f>
-        <v>Ohio A Personal Portrait of the 17th State</v>
+        <v xml:space="preserve">Storm in a Teacup: The Physics of Everyday Life  </v>
       </c>
       <c r="B71">
-        <f>Unread!B71</f>
-        <v>2</v>
+        <f>Unread!C71</f>
+        <v>3</v>
       </c>
       <c r="C71">
-        <f>Unread!C71</f>
-        <v>200</v>
+        <f>Unread!D71</f>
+        <v>288</v>
       </c>
       <c r="D71">
-        <f>Unread!D71</f>
-        <v>0.01</v>
+        <f>Unread!E71</f>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E71" t="str">
-        <f>Unread!E71</f>
+        <f>Unread!F71</f>
         <v>No</v>
       </c>
     </row>
     <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f>Unread!A72</f>
-        <v>Guidebook for Marines</v>
+        <v>14-18: Understanding the Great War</v>
       </c>
       <c r="B72">
-        <f>Unread!B72</f>
-        <v>4</v>
+        <f>Unread!C72</f>
+        <v>3</v>
       </c>
       <c r="C72">
-        <f>Unread!C72</f>
-        <v>400</v>
+        <f>Unread!D72</f>
+        <v>288</v>
       </c>
       <c r="D72">
-        <f>Unread!D72</f>
-        <v>0.01</v>
+        <f>Unread!E72</f>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E72" t="str">
-        <f>Unread!E72</f>
+        <f>Unread!F72</f>
         <v>No</v>
       </c>
     </row>
     <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f>Unread!A73</f>
-        <v xml:space="preserve">The Gamble: General Petraeus and the American Military Adventure in Iraq  </v>
+        <v>The Age of American Unreason</v>
       </c>
       <c r="B73">
-        <f>Unread!B73</f>
+        <f>Unread!C73</f>
         <v>4</v>
       </c>
       <c r="C73">
-        <f>Unread!C73</f>
-        <v>416</v>
+        <f>Unread!D73</f>
+        <v>400</v>
       </c>
       <c r="D73">
-        <f>Unread!D73</f>
-        <v>9.6153846153846159E-3</v>
+        <f>Unread!E73</f>
+        <v>0.01</v>
       </c>
       <c r="E73" t="str">
-        <f>Unread!E73</f>
+        <f>Unread!F73</f>
         <v>No</v>
       </c>
     </row>
     <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f>Unread!A74</f>
-        <v>The Alchemist</v>
+        <v>Ohio A Personal Portrait of the 17th State</v>
       </c>
       <c r="B74">
-        <f>Unread!B74</f>
+        <f>Unread!C74</f>
         <v>2</v>
       </c>
       <c r="C74">
-        <f>Unread!C74</f>
-        <v>208</v>
+        <f>Unread!D74</f>
+        <v>200</v>
       </c>
       <c r="D74">
-        <f>Unread!D74</f>
-        <v>9.6153846153846159E-3</v>
+        <f>Unread!E74</f>
+        <v>0.01</v>
       </c>
       <c r="E74" t="str">
-        <f>Unread!E74</f>
+        <f>Unread!F74</f>
         <v>No</v>
       </c>
     </row>
     <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f>Unread!A75</f>
-        <v xml:space="preserve">Physics Made Simple: A Complete Introduction to the Basic Principles of This Fundamental Science (Made    - Simple (Broadway Books))  </v>
+        <v>Guidebook for Marines</v>
       </c>
       <c r="B75">
-        <f>Unread!B75</f>
-        <v>2</v>
+        <f>Unread!C75</f>
+        <v>4</v>
       </c>
       <c r="C75">
-        <f>Unread!C75</f>
-        <v>208</v>
+        <f>Unread!D75</f>
+        <v>400</v>
       </c>
       <c r="D75">
-        <f>Unread!D75</f>
-        <v>9.6153846153846159E-3</v>
+        <f>Unread!E75</f>
+        <v>0.01</v>
       </c>
       <c r="E75" t="str">
-        <f>Unread!E75</f>
+        <f>Unread!F75</f>
         <v>No</v>
       </c>
     </row>
     <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f>Unread!A76</f>
-        <v>Knocking on Labor's Door</v>
+        <v xml:space="preserve">The Gamble: General Petraeus and the American Military Adventure in Iraq  </v>
       </c>
       <c r="B76">
-        <f>Unread!B76</f>
-        <v>3</v>
+        <f>Unread!C76</f>
+        <v>4</v>
       </c>
       <c r="C76">
-        <f>Unread!C76</f>
-        <v>312</v>
+        <f>Unread!D76</f>
+        <v>416</v>
       </c>
       <c r="D76">
-        <f>Unread!D76</f>
+        <f>Unread!E76</f>
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="E76" t="str">
-        <f>Unread!E76</f>
+        <f>Unread!F76</f>
         <v>No</v>
       </c>
     </row>
     <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f>Unread!A77</f>
-        <v>Boots and Saddles</v>
+        <v>The Alchemist</v>
       </c>
       <c r="B77">
-        <f>Unread!B77</f>
-        <v>3</v>
+        <f>Unread!C77</f>
+        <v>2</v>
       </c>
       <c r="C77">
-        <f>Unread!C77</f>
-        <v>316</v>
+        <f>Unread!D77</f>
+        <v>208</v>
       </c>
       <c r="D77">
-        <f>Unread!D77</f>
-        <v>9.4936708860759497E-3</v>
+        <f>Unread!E77</f>
+        <v>9.6153846153846159E-3</v>
       </c>
       <c r="E77" t="str">
-        <f>Unread!E77</f>
+        <f>Unread!F77</f>
         <v>No</v>
       </c>
     </row>
     <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f>Unread!A78</f>
-        <v>Bringing up Bebe</v>
+        <v xml:space="preserve">Physics Made Simple: A Complete Introduction to the Basic Principles of This Fundamental Science (Made    - Simple (Broadway Books))  </v>
       </c>
       <c r="B78">
-        <f>Unread!B78</f>
-        <v>4</v>
+        <f>Unread!C78</f>
+        <v>2</v>
       </c>
       <c r="C78">
-        <f>Unread!C78</f>
-        <v>432</v>
+        <f>Unread!D78</f>
+        <v>208</v>
       </c>
       <c r="D78">
-        <f>Unread!D78</f>
-        <v>9.2592592592592587E-3</v>
+        <f>Unread!E78</f>
+        <v>9.6153846153846159E-3</v>
       </c>
       <c r="E78" t="str">
-        <f>Unread!E78</f>
+        <f>Unread!F78</f>
         <v>No</v>
       </c>
     </row>
     <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f>Unread!A79</f>
-        <v xml:space="preserve">I Am a Strange Loop  </v>
+        <v>Knocking on Labor's Door</v>
       </c>
       <c r="B79">
-        <f>Unread!B79</f>
-        <v>4</v>
+        <f>Unread!C79</f>
+        <v>3</v>
       </c>
       <c r="C79">
-        <f>Unread!C79</f>
-        <v>436</v>
+        <f>Unread!D79</f>
+        <v>312</v>
       </c>
       <c r="D79">
-        <f>Unread!D79</f>
-        <v>9.1743119266055051E-3</v>
+        <f>Unread!E79</f>
+        <v>9.6153846153846159E-3</v>
       </c>
       <c r="E79" t="str">
-        <f>Unread!E79</f>
+        <f>Unread!F79</f>
         <v>No</v>
       </c>
     </row>
     <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f>Unread!A80</f>
-        <v>The Black Swan</v>
+        <v>Boots and Saddles</v>
       </c>
       <c r="B80">
-        <f>Unread!B80</f>
-        <v>4</v>
+        <f>Unread!C80</f>
+        <v>3</v>
       </c>
       <c r="C80">
-        <f>Unread!C80</f>
-        <v>444</v>
+        <f>Unread!D80</f>
+        <v>316</v>
       </c>
       <c r="D80">
-        <f>Unread!D80</f>
-        <v>9.0090090090090089E-3</v>
+        <f>Unread!E80</f>
+        <v>9.4936708860759497E-3</v>
       </c>
       <c r="E80" t="str">
-        <f>Unread!E80</f>
+        <f>Unread!F80</f>
         <v>No</v>
       </c>
     </row>
     <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f>Unread!A81</f>
-        <v xml:space="preserve">Eichmann in Jerusalem: A Report on the Banality of Evil (Penguin Classics)  </v>
+        <v>Bringing up Bebe</v>
       </c>
       <c r="B81">
-        <f>Unread!B81</f>
-        <v>3</v>
+        <f>Unread!C81</f>
+        <v>4</v>
       </c>
       <c r="C81">
-        <f>Unread!C81</f>
-        <v>336</v>
+        <f>Unread!D81</f>
+        <v>432</v>
       </c>
       <c r="D81">
-        <f>Unread!D81</f>
-        <v>8.9285714285714281E-3</v>
+        <f>Unread!E81</f>
+        <v>9.2592592592592587E-3</v>
       </c>
       <c r="E81" t="str">
-        <f>Unread!E81</f>
+        <f>Unread!F81</f>
         <v>No</v>
       </c>
     </row>
     <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f>Unread!A82</f>
-        <v>The Relativity of Wrong (Asimov)</v>
+        <v xml:space="preserve">I Am a Strange Loop  </v>
       </c>
       <c r="B82">
-        <f>Unread!B82</f>
-        <v>2</v>
+        <f>Unread!C82</f>
+        <v>4</v>
       </c>
       <c r="C82">
-        <f>Unread!C82</f>
-        <v>225</v>
+        <f>Unread!D82</f>
+        <v>436</v>
       </c>
       <c r="D82">
-        <f>Unread!D82</f>
-        <v>8.8888888888888889E-3</v>
+        <f>Unread!E82</f>
+        <v>9.1743119266055051E-3</v>
       </c>
       <c r="E82" t="str">
-        <f>Unread!E82</f>
+        <f>Unread!F82</f>
         <v>No</v>
       </c>
     </row>
     <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f>Unread!A83</f>
-        <v>Nuclear Weapons and Coercive Diplomacy</v>
+        <v>The Black Swan</v>
       </c>
       <c r="B83">
-        <f>Unread!B83</f>
-        <v>3</v>
+        <f>Unread!C83</f>
+        <v>4</v>
       </c>
       <c r="C83">
-        <f>Unread!C83</f>
-        <v>344</v>
+        <f>Unread!D83</f>
+        <v>444</v>
       </c>
       <c r="D83">
-        <f>Unread!D83</f>
-        <v>8.7209302325581394E-3</v>
+        <f>Unread!E83</f>
+        <v>9.0090090090090089E-3</v>
       </c>
       <c r="E83" t="str">
-        <f>Unread!E83</f>
+        <f>Unread!F83</f>
         <v>No</v>
       </c>
     </row>
     <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f>Unread!A84</f>
-        <v>A Generation of Sociopaths</v>
+        <v xml:space="preserve">Eichmann in Jerusalem: A Report on the Banality of Evil (Penguin Classics)  </v>
       </c>
       <c r="B84">
-        <f>Unread!B84</f>
-        <v>4</v>
+        <f>Unread!C84</f>
+        <v>3</v>
       </c>
       <c r="C84">
-        <f>Unread!C84</f>
-        <v>464</v>
+        <f>Unread!D84</f>
+        <v>336</v>
       </c>
       <c r="D84">
-        <f>Unread!D84</f>
-        <v>8.6206896551724137E-3</v>
+        <f>Unread!E84</f>
+        <v>8.9285714285714281E-3</v>
       </c>
       <c r="E84" t="str">
-        <f>Unread!E84</f>
+        <f>Unread!F84</f>
         <v>No</v>
       </c>
     </row>
     <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f>Unread!A85</f>
-        <v xml:space="preserve">Abraham Lincoln and the Structure of Reason  </v>
+        <v>The Relativity of Wrong (Asimov)</v>
       </c>
       <c r="B85">
-        <f>Unread!B85</f>
-        <v>4</v>
+        <f>Unread!C85</f>
+        <v>2</v>
       </c>
       <c r="C85">
-        <f>Unread!C85</f>
-        <v>464</v>
+        <f>Unread!D85</f>
+        <v>225</v>
       </c>
       <c r="D85">
-        <f>Unread!D85</f>
-        <v>8.6206896551724137E-3</v>
+        <f>Unread!E85</f>
+        <v>8.8888888888888889E-3</v>
       </c>
       <c r="E85" t="str">
-        <f>Unread!E85</f>
+        <f>Unread!F85</f>
         <v>No</v>
       </c>
     </row>
     <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f>Unread!A86</f>
-        <v xml:space="preserve">Silence: A Christian History  </v>
+        <v>Nuclear Weapons and Coercive Diplomacy</v>
       </c>
       <c r="B86">
-        <f>Unread!B86</f>
+        <f>Unread!C86</f>
         <v>3</v>
       </c>
       <c r="C86">
-        <f>Unread!C86</f>
-        <v>352</v>
+        <f>Unread!D86</f>
+        <v>344</v>
       </c>
       <c r="D86">
-        <f>Unread!D86</f>
-        <v>8.5227272727272721E-3</v>
+        <f>Unread!E86</f>
+        <v>8.7209302325581394E-3</v>
       </c>
       <c r="E86" t="str">
-        <f>Unread!E86</f>
+        <f>Unread!F86</f>
         <v>No</v>
       </c>
     </row>
     <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f>Unread!A87</f>
-        <v>The Eastern Front 1914-1917</v>
+        <v>A Generation of Sociopaths</v>
       </c>
       <c r="B87">
-        <f>Unread!B87</f>
-        <v>3</v>
+        <f>Unread!C87</f>
+        <v>4</v>
       </c>
       <c r="C87">
-        <f>Unread!C87</f>
-        <v>352</v>
+        <f>Unread!D87</f>
+        <v>464</v>
       </c>
       <c r="D87">
-        <f>Unread!D87</f>
-        <v>8.5227272727272721E-3</v>
+        <f>Unread!E87</f>
+        <v>8.6206896551724137E-3</v>
       </c>
       <c r="E87" t="str">
-        <f>Unread!E87</f>
+        <f>Unread!F87</f>
         <v>No</v>
       </c>
     </row>
     <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f>Unread!A88</f>
-        <v>The Battle for God</v>
+        <v xml:space="preserve">Abraham Lincoln and the Structure of Reason  </v>
       </c>
       <c r="B88">
-        <f>Unread!B88</f>
+        <f>Unread!C88</f>
         <v>4</v>
       </c>
       <c r="C88">
-        <f>Unread!C88</f>
-        <v>480</v>
+        <f>Unread!D88</f>
+        <v>464</v>
       </c>
       <c r="D88">
-        <f>Unread!D88</f>
-        <v>8.3333333333333332E-3</v>
+        <f>Unread!E88</f>
+        <v>8.6206896551724137E-3</v>
       </c>
       <c r="E88" t="str">
-        <f>Unread!E88</f>
+        <f>Unread!F88</f>
         <v>No</v>
       </c>
     </row>
     <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f>Unread!A89</f>
-        <v>Warriors and Citizens</v>
+        <v xml:space="preserve">Silence: A Christian History  </v>
       </c>
       <c r="B89">
-        <f>Unread!B89</f>
+        <f>Unread!C89</f>
         <v>3</v>
       </c>
       <c r="C89">
-        <f>Unread!C89</f>
-        <v>360</v>
+        <f>Unread!D89</f>
+        <v>352</v>
       </c>
       <c r="D89">
-        <f>Unread!D89</f>
-        <v>8.3333333333333332E-3</v>
+        <f>Unread!E89</f>
+        <v>8.5227272727272721E-3</v>
       </c>
       <c r="E89" t="str">
-        <f>Unread!E89</f>
+        <f>Unread!F89</f>
         <v>No</v>
       </c>
     </row>
     <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f>Unread!A90</f>
-        <v>Bible Nation</v>
+        <v>The Eastern Front 1914-1917</v>
       </c>
       <c r="B90">
-        <f>Unread!B90</f>
-        <v>2</v>
+        <f>Unread!C90</f>
+        <v>3</v>
       </c>
       <c r="C90">
-        <f>Unread!C90</f>
-        <v>240</v>
+        <f>Unread!D90</f>
+        <v>352</v>
       </c>
       <c r="D90">
-        <f>Unread!D90</f>
-        <v>8.3333333333333332E-3</v>
+        <f>Unread!E90</f>
+        <v>8.5227272727272721E-3</v>
       </c>
       <c r="E90" t="str">
-        <f>Unread!E90</f>
+        <f>Unread!F90</f>
         <v>No</v>
       </c>
     </row>
     <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f>Unread!A91</f>
-        <v>Leaders Eat Last</v>
+        <v>The Battle for God</v>
       </c>
       <c r="B91">
-        <f>Unread!B91</f>
-        <v>3</v>
+        <f>Unread!C91</f>
+        <v>4</v>
       </c>
       <c r="C91">
-        <f>Unread!C91</f>
-        <v>368</v>
+        <f>Unread!D91</f>
+        <v>480</v>
       </c>
       <c r="D91">
-        <f>Unread!D91</f>
-        <v>8.152173913043478E-3</v>
+        <f>Unread!E91</f>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E91" t="str">
-        <f>Unread!E91</f>
+        <f>Unread!F91</f>
         <v>No</v>
       </c>
     </row>
     <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f>Unread!A92</f>
-        <v>Legionnaire</v>
+        <v>Warriors and Citizens</v>
       </c>
       <c r="B92">
-        <f>Unread!B92</f>
+        <f>Unread!C92</f>
         <v>3</v>
       </c>
       <c r="C92">
-        <f>Unread!C92</f>
-        <v>368</v>
+        <f>Unread!D92</f>
+        <v>360</v>
       </c>
       <c r="D92">
-        <f>Unread!D92</f>
-        <v>8.152173913043478E-3</v>
+        <f>Unread!E92</f>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E92" t="str">
-        <f>Unread!E92</f>
+        <f>Unread!F92</f>
         <v>No</v>
       </c>
     </row>
     <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f>Unread!A93</f>
-        <v>Empire of the Summer Moon: Quanah Parker and the Rise and Fall of the Comanche's, the Most Powerful</v>
+        <v>Bible Nation</v>
       </c>
       <c r="B93">
-        <f>Unread!B93</f>
-        <v>3</v>
+        <f>Unread!C93</f>
+        <v>2</v>
       </c>
       <c r="C93">
-        <f>Unread!C93</f>
-        <v>371</v>
+        <f>Unread!D93</f>
+        <v>240</v>
       </c>
       <c r="D93">
-        <f>Unread!D93</f>
-        <v>8.0862533692722376E-3</v>
+        <f>Unread!E93</f>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E93" t="str">
-        <f>Unread!E93</f>
+        <f>Unread!F93</f>
         <v>No</v>
       </c>
     </row>
     <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f>Unread!A94</f>
-        <v>Thinking Fast and Slow</v>
+        <v>Leaders Eat Last</v>
       </c>
       <c r="B94">
-        <f>Unread!B94</f>
-        <v>4</v>
+        <f>Unread!C94</f>
+        <v>3</v>
       </c>
       <c r="C94">
-        <f>Unread!C94</f>
-        <v>499</v>
+        <f>Unread!D94</f>
+        <v>368</v>
       </c>
       <c r="D94">
-        <f>Unread!D94</f>
-        <v>8.0160320641282558E-3</v>
+        <f>Unread!E94</f>
+        <v>8.152173913043478E-3</v>
       </c>
       <c r="E94" t="str">
-        <f>Unread!E94</f>
+        <f>Unread!F94</f>
         <v>No</v>
       </c>
     </row>
     <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f>Unread!A95</f>
-        <v xml:space="preserve">Living Buddha, Living Christ 10th Anniversary Edition  </v>
+        <v>Legionnaire</v>
       </c>
       <c r="B95">
-        <f>Unread!B95</f>
-        <v>2</v>
+        <f>Unread!C95</f>
+        <v>3</v>
       </c>
       <c r="C95">
-        <f>Unread!C95</f>
-        <v>250</v>
+        <f>Unread!D95</f>
+        <v>368</v>
       </c>
       <c r="D95">
-        <f>Unread!D95</f>
-        <v>8.0000000000000002E-3</v>
+        <f>Unread!E95</f>
+        <v>8.152173913043478E-3</v>
       </c>
       <c r="E95" t="str">
-        <f>Unread!E95</f>
+        <f>Unread!F95</f>
         <v>No</v>
       </c>
     </row>
     <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f>Unread!A96</f>
-        <v>Jerusalem: One City Three Faiths</v>
+        <v>Empire of the Summer Moon: Quanah Parker and the Rise and Fall of the Comanche's, the Most Powerful</v>
       </c>
       <c r="B96">
-        <f>Unread!B96</f>
-        <v>4</v>
+        <f>Unread!C96</f>
+        <v>3</v>
       </c>
       <c r="C96">
-        <f>Unread!C96</f>
-        <v>512</v>
+        <f>Unread!D96</f>
+        <v>371</v>
       </c>
       <c r="D96">
-        <f>Unread!D96</f>
-        <v>7.8125E-3</v>
+        <f>Unread!E96</f>
+        <v>8.0862533692722376E-3</v>
       </c>
       <c r="E96" t="str">
-        <f>Unread!E96</f>
+        <f>Unread!F96</f>
         <v>No</v>
       </c>
     </row>
     <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f>Unread!A97</f>
-        <v>Fiasco</v>
+        <v>Thinking Fast and Slow</v>
       </c>
       <c r="B97">
-        <f>Unread!B97</f>
+        <f>Unread!C97</f>
         <v>4</v>
       </c>
       <c r="C97">
-        <f>Unread!C97</f>
-        <v>512</v>
+        <f>Unread!D97</f>
+        <v>499</v>
       </c>
       <c r="D97">
-        <f>Unread!D97</f>
-        <v>7.8125E-3</v>
+        <f>Unread!E97</f>
+        <v>8.0160320641282558E-3</v>
       </c>
       <c r="E97" t="str">
-        <f>Unread!E97</f>
+        <f>Unread!F97</f>
         <v>No</v>
       </c>
     </row>
     <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f>Unread!A98</f>
-        <v>Wrapped in the Flag: A Personal History of America's Radical Right</v>
+        <v xml:space="preserve">Living Buddha, Living Christ 10th Anniversary Edition  </v>
       </c>
       <c r="B98">
-        <f>Unread!B98</f>
+        <f>Unread!C98</f>
         <v>2</v>
       </c>
       <c r="C98">
-        <f>Unread!C98</f>
-        <v>264</v>
+        <f>Unread!D98</f>
+        <v>250</v>
       </c>
       <c r="D98">
-        <f>Unread!D98</f>
-        <v>7.575757575757576E-3</v>
+        <f>Unread!E98</f>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E98" t="str">
-        <f>Unread!E98</f>
+        <f>Unread!F98</f>
         <v>No</v>
       </c>
     </row>
     <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f>Unread!A99</f>
-        <v xml:space="preserve">War Against War: The American Fight for Peace, 1914-1918    </v>
+        <v>Jerusalem: One City Three Faiths</v>
       </c>
       <c r="B99">
-        <f>Unread!B99</f>
-        <v>3</v>
+        <f>Unread!C99</f>
+        <v>4</v>
       </c>
       <c r="C99">
-        <f>Unread!C99</f>
-        <v>400</v>
+        <f>Unread!D99</f>
+        <v>512</v>
       </c>
       <c r="D99">
-        <f>Unread!D99</f>
-        <v>7.4999999999999997E-3</v>
+        <f>Unread!E99</f>
+        <v>7.8125E-3</v>
       </c>
       <c r="E99" t="str">
-        <f>Unread!E99</f>
+        <f>Unread!F99</f>
         <v>No</v>
       </c>
     </row>
     <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f>Unread!A100</f>
-        <v>The Information: A History, A Theory, A Flood</v>
+        <v>Fiasco</v>
       </c>
       <c r="B100">
-        <f>Unread!B100</f>
+        <f>Unread!C100</f>
         <v>4</v>
       </c>
       <c r="C100">
-        <f>Unread!C100</f>
-        <v>544</v>
+        <f>Unread!D100</f>
+        <v>512</v>
       </c>
       <c r="D100">
-        <f>Unread!D100</f>
-        <v>7.3529411764705881E-3</v>
+        <f>Unread!E100</f>
+        <v>7.8125E-3</v>
       </c>
       <c r="E100" t="str">
-        <f>Unread!E100</f>
+        <f>Unread!F100</f>
         <v>No</v>
       </c>
     </row>
     <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f>Unread!A101</f>
-        <v>On Killing</v>
+        <v>Wrapped in the Flag: A Personal History of America's Radical Right</v>
       </c>
       <c r="B101">
-        <f>Unread!B101</f>
-        <v>3</v>
+        <f>Unread!C101</f>
+        <v>2</v>
       </c>
       <c r="C101">
-        <f>Unread!C101</f>
-        <v>416</v>
+        <f>Unread!D101</f>
+        <v>264</v>
       </c>
       <c r="D101">
-        <f>Unread!D101</f>
-        <v>7.2115384615384619E-3</v>
+        <f>Unread!E101</f>
+        <v>7.575757575757576E-3</v>
       </c>
       <c r="E101" t="str">
-        <f>Unread!E101</f>
+        <f>Unread!F101</f>
         <v>No</v>
       </c>
     </row>
     <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f>Unread!A102</f>
-        <v>Don't Know Much About Mythology</v>
+        <v xml:space="preserve">War Against War: The American Fight for Peace, 1914-1918    </v>
       </c>
       <c r="B102">
-        <f>Unread!B102</f>
-        <v>4</v>
+        <f>Unread!C102</f>
+        <v>3</v>
       </c>
       <c r="C102">
-        <f>Unread!C102</f>
-        <v>560</v>
+        <f>Unread!D102</f>
+        <v>400</v>
       </c>
       <c r="D102">
-        <f>Unread!D102</f>
-        <v>7.1428571428571426E-3</v>
+        <f>Unread!E102</f>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="E102" t="str">
-        <f>Unread!E102</f>
+        <f>Unread!F102</f>
         <v>No</v>
       </c>
     </row>
     <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f>Unread!A103</f>
-        <v>A Saturnalia of Bunk</v>
+        <v>The Information: A History, A Theory, A Flood</v>
       </c>
       <c r="B103">
-        <f>Unread!B103</f>
-        <v>2</v>
+        <f>Unread!C103</f>
+        <v>4</v>
       </c>
       <c r="C103">
-        <f>Unread!C103</f>
-        <v>284</v>
+        <f>Unread!D103</f>
+        <v>544</v>
       </c>
       <c r="D103">
-        <f>Unread!D103</f>
-        <v>7.0422535211267607E-3</v>
+        <f>Unread!E103</f>
+        <v>7.3529411764705881E-3</v>
       </c>
       <c r="E103" t="str">
-        <f>Unread!E103</f>
+        <f>Unread!F103</f>
         <v>No</v>
       </c>
     </row>
     <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f>Unread!A104</f>
-        <v xml:space="preserve">The Psychopath Test: A Journey Through the Madness Industry  </v>
+        <v>On Killing</v>
       </c>
       <c r="B104">
-        <f>Unread!B104</f>
-        <v>2</v>
+        <f>Unread!C104</f>
+        <v>3</v>
       </c>
       <c r="C104">
-        <f>Unread!C104</f>
-        <v>288</v>
+        <f>Unread!D104</f>
+        <v>416</v>
       </c>
       <c r="D104">
-        <f>Unread!D104</f>
-        <v>6.9444444444444441E-3</v>
+        <f>Unread!E104</f>
+        <v>7.2115384615384619E-3</v>
       </c>
       <c r="E104" t="str">
-        <f>Unread!E104</f>
+        <f>Unread!F104</f>
         <v>No</v>
       </c>
     </row>
     <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f>Unread!A105</f>
-        <v>A Testament of Hope: The Essential Writings and Speeches (MLK)</v>
+        <v>Don't Know Much About Mythology</v>
       </c>
       <c r="B105">
-        <f>Unread!B105</f>
-        <v>5</v>
+        <f>Unread!C105</f>
+        <v>4</v>
       </c>
       <c r="C105">
-        <f>Unread!C105</f>
-        <v>736</v>
+        <f>Unread!D105</f>
+        <v>560</v>
       </c>
       <c r="D105">
-        <f>Unread!D105</f>
-        <v>6.793478260869565E-3</v>
+        <f>Unread!E105</f>
+        <v>7.1428571428571426E-3</v>
       </c>
       <c r="E105" t="str">
-        <f>Unread!E105</f>
+        <f>Unread!F105</f>
         <v>No</v>
       </c>
     </row>
     <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f>Unread!A106</f>
-        <v xml:space="preserve">History of Religion a Sketch of Primitive Religious Beliefs and Practices, and of the Origin and Character of the Great Systems  </v>
+        <v>A Saturnalia of Bunk</v>
       </c>
       <c r="B106">
-        <f>Unread!B106</f>
-        <v>1</v>
+        <f>Unread!C106</f>
+        <v>2</v>
       </c>
       <c r="C106">
-        <f>Unread!C106</f>
-        <v>148</v>
+        <f>Unread!D106</f>
+        <v>284</v>
       </c>
       <c r="D106">
-        <f>Unread!D106</f>
-        <v>6.7567567567567571E-3</v>
+        <f>Unread!E106</f>
+        <v>7.0422535211267607E-3</v>
       </c>
       <c r="E106" t="str">
-        <f>Unread!E106</f>
+        <f>Unread!F106</f>
         <v>No</v>
       </c>
     </row>
     <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f>Unread!A107</f>
-        <v>The Big Bonanza</v>
+        <v xml:space="preserve">The Psychopath Test: A Journey Through the Madness Industry  </v>
       </c>
       <c r="B107">
-        <f>Unread!B107</f>
-        <v>3</v>
+        <f>Unread!C107</f>
+        <v>2</v>
       </c>
       <c r="C107">
-        <f>Unread!C107</f>
-        <v>450</v>
+        <f>Unread!D107</f>
+        <v>288</v>
       </c>
       <c r="D107">
-        <f>Unread!D107</f>
-        <v>6.6666666666666671E-3</v>
+        <f>Unread!E107</f>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="E107" t="str">
-        <f>Unread!E107</f>
+        <f>Unread!F107</f>
         <v>No</v>
       </c>
     </row>
     <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f>Unread!A108</f>
-        <v>The New Knighthood</v>
+        <v>A Testament of Hope: The Essential Writings and Speeches (MLK)</v>
       </c>
       <c r="B108">
-        <f>Unread!B108</f>
-        <v>3</v>
+        <f>Unread!C108</f>
+        <v>5</v>
       </c>
       <c r="C108">
-        <f>Unread!C108</f>
-        <v>464</v>
+        <f>Unread!D108</f>
+        <v>736</v>
       </c>
       <c r="D108">
-        <f>Unread!D108</f>
-        <v>6.4655172413793103E-3</v>
+        <f>Unread!E108</f>
+        <v>6.793478260869565E-3</v>
       </c>
       <c r="E108" t="str">
-        <f>Unread!E108</f>
+        <f>Unread!F108</f>
         <v>No</v>
       </c>
     </row>
     <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f>Unread!A109</f>
-        <v>Hard Times</v>
+        <v xml:space="preserve">History of Religion a Sketch of Primitive Religious Beliefs and Practices, and of the Origin and Character of the Great Systems  </v>
       </c>
       <c r="B109">
-        <f>Unread!B109</f>
-        <v>3</v>
+        <f>Unread!C109</f>
+        <v>1</v>
       </c>
       <c r="C109">
-        <f>Unread!C109</f>
-        <v>480</v>
+        <f>Unread!D109</f>
+        <v>148</v>
       </c>
       <c r="D109">
-        <f>Unread!D109</f>
-        <v>6.2500000000000003E-3</v>
+        <f>Unread!E109</f>
+        <v>6.7567567567567571E-3</v>
       </c>
       <c r="E109" t="str">
-        <f>Unread!E109</f>
+        <f>Unread!F109</f>
         <v>No</v>
       </c>
     </row>
     <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f>Unread!A110</f>
-        <v xml:space="preserve">Black Earth: The Holocaust as History and Warning  </v>
+        <v>The Big Bonanza</v>
       </c>
       <c r="B110">
-        <f>Unread!B110</f>
+        <f>Unread!C110</f>
         <v>3</v>
       </c>
       <c r="C110">
-        <f>Unread!C110</f>
-        <v>480</v>
+        <f>Unread!D110</f>
+        <v>450</v>
       </c>
       <c r="D110">
-        <f>Unread!D110</f>
-        <v>6.2500000000000003E-3</v>
+        <f>Unread!E110</f>
+        <v>6.6666666666666671E-3</v>
       </c>
       <c r="E110" t="str">
-        <f>Unread!E110</f>
+        <f>Unread!F110</f>
         <v>No</v>
       </c>
     </row>
     <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f>Unread!A111</f>
-        <v xml:space="preserve">Liberty or Death: The French Revolution </v>
+        <v>The New Knighthood</v>
       </c>
       <c r="B111">
-        <f>Unread!B111</f>
+        <f>Unread!C111</f>
         <v>3</v>
       </c>
       <c r="C111">
-        <f>Unread!C111</f>
-        <v>488</v>
+        <f>Unread!D111</f>
+        <v>464</v>
       </c>
       <c r="D111">
-        <f>Unread!D111</f>
-        <v>6.1475409836065573E-3</v>
+        <f>Unread!E111</f>
+        <v>6.4655172413793103E-3</v>
       </c>
       <c r="E111" t="str">
-        <f>Unread!E111</f>
+        <f>Unread!F111</f>
         <v>No</v>
       </c>
     </row>
     <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f>Unread!A112</f>
-        <v>How Democracies Die</v>
+        <v>Hard Times</v>
       </c>
       <c r="B112">
-        <f>Unread!B112</f>
-        <v>2</v>
+        <f>Unread!C112</f>
+        <v>3</v>
       </c>
       <c r="C112">
-        <f>Unread!C112</f>
-        <v>332</v>
+        <f>Unread!D112</f>
+        <v>480</v>
       </c>
       <c r="D112">
-        <f>Unread!D112</f>
-        <v>6.024096385542169E-3</v>
+        <f>Unread!E112</f>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="E112" t="str">
-        <f>Unread!E112</f>
+        <f>Unread!F112</f>
         <v>No</v>
       </c>
     </row>
     <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f>Unread!A113</f>
-        <v>Venetian Masque</v>
+        <v xml:space="preserve">Black Earth: The Holocaust as History and Warning  </v>
       </c>
       <c r="B113">
-        <f>Unread!B113</f>
-        <v>2</v>
+        <f>Unread!C113</f>
+        <v>3</v>
       </c>
       <c r="C113">
-        <f>Unread!C113</f>
-        <v>332</v>
+        <f>Unread!D113</f>
+        <v>480</v>
       </c>
       <c r="D113">
-        <f>Unread!D113</f>
-        <v>6.024096385542169E-3</v>
+        <f>Unread!E113</f>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="E113" t="str">
-        <f>Unread!E113</f>
+        <f>Unread!F113</f>
         <v>No</v>
       </c>
     </row>
     <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f>Unread!A114</f>
-        <v>A Pictorial History of the Great Lakes</v>
+        <v xml:space="preserve">Liberty or Death: The French Revolution </v>
       </c>
       <c r="B114">
-        <f>Unread!B114</f>
-        <v>2</v>
+        <f>Unread!C114</f>
+        <v>3</v>
       </c>
       <c r="C114">
-        <f>Unread!C114</f>
-        <v>344</v>
+        <f>Unread!D114</f>
+        <v>488</v>
       </c>
       <c r="D114">
-        <f>Unread!D114</f>
-        <v>5.8139534883720929E-3</v>
+        <f>Unread!E114</f>
+        <v>6.1475409836065573E-3</v>
       </c>
       <c r="E114" t="str">
-        <f>Unread!E114</f>
+        <f>Unread!F114</f>
         <v>No</v>
       </c>
     </row>
     <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f>Unread!A115</f>
-        <v>A Man in Full</v>
+        <v>How Democracies Die</v>
       </c>
       <c r="B115">
-        <f>Unread!B115</f>
-        <v>4</v>
+        <f>Unread!C115</f>
+        <v>2</v>
       </c>
       <c r="C115">
-        <f>Unread!C115</f>
-        <v>704</v>
+        <f>Unread!D115</f>
+        <v>332</v>
       </c>
       <c r="D115">
-        <f>Unread!D115</f>
-        <v>5.681818181818182E-3</v>
+        <f>Unread!E115</f>
+        <v>6.024096385542169E-3</v>
       </c>
       <c r="E115" t="str">
-        <f>Unread!E115</f>
+        <f>Unread!F115</f>
         <v>No</v>
       </c>
     </row>
     <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f>Unread!A116</f>
-        <v>The Last King</v>
+        <v>Venetian Masque</v>
       </c>
       <c r="B116">
-        <f>Unread!B116</f>
+        <f>Unread!C116</f>
         <v>2</v>
       </c>
       <c r="C116">
-        <f>Unread!C116</f>
-        <v>366</v>
+        <f>Unread!D116</f>
+        <v>332</v>
       </c>
       <c r="D116">
-        <f>Unread!D116</f>
-        <v>5.4644808743169399E-3</v>
+        <f>Unread!E116</f>
+        <v>6.024096385542169E-3</v>
       </c>
       <c r="E116" t="str">
-        <f>Unread!E116</f>
+        <f>Unread!F116</f>
         <v>No</v>
       </c>
     </row>
     <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f>Unread!A117</f>
-        <v xml:space="preserve">Tools of Titans: The Tactics, Routines, and Habits of Billionaires, Icons, and World-Class Performers  </v>
+        <v>A Pictorial History of the Great Lakes</v>
       </c>
       <c r="B117">
-        <f>Unread!B117</f>
-        <v>4</v>
+        <f>Unread!C117</f>
+        <v>2</v>
       </c>
       <c r="C117">
-        <f>Unread!C117</f>
-        <v>736</v>
+        <f>Unread!D117</f>
+        <v>344</v>
       </c>
       <c r="D117">
-        <f>Unread!D117</f>
-        <v>5.434782608695652E-3</v>
+        <f>Unread!E117</f>
+        <v>5.8139534883720929E-3</v>
       </c>
       <c r="E117" t="str">
-        <f>Unread!E117</f>
+        <f>Unread!F117</f>
         <v>No</v>
       </c>
     </row>
     <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f>Unread!A118</f>
-        <v xml:space="preserve">Nom De Plume: A (Secret) History of Pseudonyms </v>
+        <v>A Man in Full</v>
       </c>
       <c r="B118">
-        <f>Unread!B118</f>
-        <v>2</v>
+        <f>Unread!C118</f>
+        <v>4</v>
       </c>
       <c r="C118">
-        <f>Unread!C118</f>
-        <v>373</v>
+        <f>Unread!D118</f>
+        <v>704</v>
       </c>
       <c r="D118">
-        <f>Unread!D118</f>
-        <v>5.3619302949061663E-3</v>
+        <f>Unread!E118</f>
+        <v>5.681818181818182E-3</v>
       </c>
       <c r="E118" t="str">
-        <f>Unread!E118</f>
+        <f>Unread!F118</f>
         <v>No</v>
       </c>
     </row>
     <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f>Unread!A119</f>
-        <v>Enemies: A History of the FBI</v>
+        <v>The Last King</v>
       </c>
       <c r="B119">
-        <f>Unread!B119</f>
-        <v>3</v>
+        <f>Unread!C119</f>
+        <v>2</v>
       </c>
       <c r="C119">
-        <f>Unread!C119</f>
-        <v>560</v>
+        <f>Unread!D119</f>
+        <v>366</v>
       </c>
       <c r="D119">
-        <f>Unread!D119</f>
-        <v>5.3571428571428572E-3</v>
+        <f>Unread!E119</f>
+        <v>5.4644808743169399E-3</v>
       </c>
       <c r="E119" t="str">
-        <f>Unread!E119</f>
+        <f>Unread!F119</f>
         <v>No</v>
       </c>
     </row>
     <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f>Unread!A120</f>
-        <v>Don't Know Much About the Bible</v>
+        <v xml:space="preserve">Tools of Titans: The Tactics, Routines, and Habits of Billionaires, Icons, and World-Class Performers  </v>
       </c>
       <c r="B120">
-        <f>Unread!B120</f>
-        <v>3</v>
+        <f>Unread!C120</f>
+        <v>4</v>
       </c>
       <c r="C120">
-        <f>Unread!C120</f>
-        <v>560</v>
+        <f>Unread!D120</f>
+        <v>736</v>
       </c>
       <c r="D120">
-        <f>Unread!D120</f>
-        <v>5.3571428571428572E-3</v>
+        <f>Unread!E120</f>
+        <v>5.434782608695652E-3</v>
       </c>
       <c r="E120" t="str">
-        <f>Unread!E120</f>
+        <f>Unread!F120</f>
         <v>No</v>
       </c>
     </row>
     <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f>Unread!A121</f>
-        <v xml:space="preserve">The Origins of Totalitarianism </v>
+        <v xml:space="preserve">Nom De Plume: A (Secret) History of Pseudonyms </v>
       </c>
       <c r="B121">
-        <f>Unread!B121</f>
-        <v>3</v>
+        <f>Unread!C121</f>
+        <v>2</v>
       </c>
       <c r="C121">
-        <f>Unread!C121</f>
-        <v>576</v>
+        <f>Unread!D121</f>
+        <v>373</v>
       </c>
       <c r="D121">
-        <f>Unread!D121</f>
-        <v>5.208333333333333E-3</v>
+        <f>Unread!E121</f>
+        <v>5.3619302949061663E-3</v>
       </c>
       <c r="E121" t="str">
-        <f>Unread!E121</f>
+        <f>Unread!F121</f>
         <v>No</v>
       </c>
     </row>
     <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f>Unread!A122</f>
-        <v>How Music Works</v>
+        <v>Enemies: A History of the FBI</v>
       </c>
       <c r="B122">
-        <f>Unread!B122</f>
-        <v>2</v>
+        <f>Unread!C122</f>
+        <v>3</v>
       </c>
       <c r="C122">
-        <f>Unread!C122</f>
-        <v>384</v>
+        <f>Unread!D122</f>
+        <v>560</v>
       </c>
       <c r="D122">
-        <f>Unread!D122</f>
-        <v>5.208333333333333E-3</v>
+        <f>Unread!E122</f>
+        <v>5.3571428571428572E-3</v>
       </c>
       <c r="E122" t="str">
-        <f>Unread!E122</f>
+        <f>Unread!F122</f>
         <v>No</v>
       </c>
     </row>
     <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f>Unread!A123</f>
-        <v>The Great Unknown</v>
+        <v>Don't Know Much About the Bible</v>
       </c>
       <c r="B123">
-        <f>Unread!B123</f>
-        <v>1</v>
+        <f>Unread!C123</f>
+        <v>3</v>
       </c>
       <c r="C123">
-        <f>Unread!C123</f>
-        <v>200</v>
+        <f>Unread!D123</f>
+        <v>560</v>
       </c>
       <c r="D123">
-        <f>Unread!D123</f>
-        <v>5.0000000000000001E-3</v>
+        <f>Unread!E123</f>
+        <v>5.3571428571428572E-3</v>
       </c>
       <c r="E123" t="str">
-        <f>Unread!E123</f>
+        <f>Unread!F123</f>
         <v>No</v>
       </c>
     </row>
     <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f>Unread!A124</f>
-        <v>The Way of the Knife</v>
+        <v xml:space="preserve">The Origins of Totalitarianism </v>
       </c>
       <c r="B124">
-        <f>Unread!B124</f>
-        <v>2</v>
+        <f>Unread!C124</f>
+        <v>3</v>
       </c>
       <c r="C124">
-        <f>Unread!C124</f>
-        <v>400</v>
+        <f>Unread!D124</f>
+        <v>576</v>
       </c>
       <c r="D124">
-        <f>Unread!D124</f>
-        <v>5.0000000000000001E-3</v>
+        <f>Unread!E124</f>
+        <v>5.208333333333333E-3</v>
       </c>
       <c r="E124" t="str">
-        <f>Unread!E124</f>
+        <f>Unread!F124</f>
         <v>No</v>
       </c>
     </row>
     <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f>Unread!A125</f>
-        <v>Biblical Literalism</v>
+        <v>How Music Works</v>
       </c>
       <c r="B125">
-        <f>Unread!B125</f>
+        <f>Unread!C125</f>
         <v>2</v>
       </c>
       <c r="C125">
-        <f>Unread!C125</f>
-        <v>416</v>
+        <f>Unread!D125</f>
+        <v>384</v>
       </c>
       <c r="D125">
-        <f>Unread!D125</f>
-        <v>4.807692307692308E-3</v>
+        <f>Unread!E125</f>
+        <v>5.208333333333333E-3</v>
       </c>
       <c r="E125" t="str">
-        <f>Unread!E125</f>
+        <f>Unread!F125</f>
         <v>No</v>
       </c>
     </row>
     <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f>Unread!A126</f>
-        <v xml:space="preserve">Red Notice: A True Story of High Finance, Murder, and One Man’s Fight for Justice  </v>
+        <v>The Great Unknown</v>
       </c>
       <c r="B126">
-        <f>Unread!B126</f>
-        <v>2</v>
+        <f>Unread!C126</f>
+        <v>1</v>
       </c>
       <c r="C126">
-        <f>Unread!C126</f>
-        <v>416</v>
+        <f>Unread!D126</f>
+        <v>200</v>
       </c>
       <c r="D126">
-        <f>Unread!D126</f>
-        <v>4.807692307692308E-3</v>
+        <f>Unread!E126</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E126" t="str">
-        <f>Unread!E126</f>
+        <f>Unread!F126</f>
         <v>No</v>
       </c>
     </row>
     <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f>Unread!A127</f>
-        <v>An Unfinished Life</v>
+        <v>The Way of the Knife</v>
       </c>
       <c r="B127">
-        <f>Unread!B127</f>
-        <v>4</v>
+        <f>Unread!C127</f>
+        <v>2</v>
       </c>
       <c r="C127">
-        <f>Unread!C127</f>
-        <v>848</v>
+        <f>Unread!D127</f>
+        <v>400</v>
       </c>
       <c r="D127">
-        <f>Unread!D127</f>
-        <v>4.7169811320754715E-3</v>
+        <f>Unread!E127</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E127" t="str">
-        <f>Unread!E127</f>
+        <f>Unread!F127</f>
         <v>No</v>
       </c>
     </row>
     <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f>Unread!A128</f>
-        <v>The War To End All Wars (Coffman)</v>
+        <v>Biblical Literalism</v>
       </c>
       <c r="B128">
-        <f>Unread!B128</f>
+        <f>Unread!C128</f>
         <v>2</v>
       </c>
       <c r="C128">
-        <f>Unread!C128</f>
-        <v>440</v>
+        <f>Unread!D128</f>
+        <v>416</v>
       </c>
       <c r="D128">
-        <f>Unread!D128</f>
-        <v>4.5454545454545452E-3</v>
+        <f>Unread!E128</f>
+        <v>4.807692307692308E-3</v>
       </c>
       <c r="E128" t="str">
-        <f>Unread!E128</f>
+        <f>Unread!F128</f>
         <v>No</v>
       </c>
     </row>
     <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f>Unread!A129</f>
-        <v>1000 Beautiful Things</v>
+        <v xml:space="preserve">Red Notice: A True Story of High Finance, Murder, and One Man’s Fight for Justice  </v>
       </c>
       <c r="B129">
-        <f>Unread!B129</f>
+        <f>Unread!C129</f>
         <v>2</v>
       </c>
       <c r="C129">
-        <f>Unread!C129</f>
-        <v>456</v>
+        <f>Unread!D129</f>
+        <v>416</v>
       </c>
       <c r="D129">
-        <f>Unread!D129</f>
-        <v>4.3859649122807015E-3</v>
+        <f>Unread!E129</f>
+        <v>4.807692307692308E-3</v>
       </c>
       <c r="E129" t="str">
-        <f>Unread!E129</f>
+        <f>Unread!F129</f>
         <v>No</v>
       </c>
     </row>
     <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <f>Unread!A130</f>
-        <v>0</v>
-      </c>
-      <c r="B130">
-        <f>Unread!B130</f>
-        <v>0</v>
-      </c>
-      <c r="C130">
-        <f>Unread!C130</f>
-        <v>0</v>
-      </c>
-      <c r="D130" t="str">
-        <f>Unread!D130</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E130">
-        <f>Unread!E130</f>
-        <v>0</v>
+      <c r="A130" t="e">
+        <f>Unread!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B130" t="e">
+        <f>Unread!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C130" t="e">
+        <f>Unread!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D130" t="e">
+        <f>Unread!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E130" t="e">
+        <f>Unread!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <f>Unread!A131</f>
-        <v>0</v>
-      </c>
-      <c r="B131">
-        <f>Unread!B131</f>
-        <v>0</v>
-      </c>
-      <c r="C131">
-        <f>Unread!C131</f>
-        <v>0</v>
-      </c>
-      <c r="D131" t="str">
-        <f>Unread!D131</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E131">
-        <f>Unread!E131</f>
-        <v>0</v>
+      <c r="A131" t="e">
+        <f>Unread!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B131" t="e">
+        <f>Unread!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C131" t="e">
+        <f>Unread!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D131" t="e">
+        <f>Unread!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E131" t="e">
+        <f>Unread!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -6742,32 +6775,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Book Ranking.xlsx
+++ b/Book Ranking.xlsx
@@ -14,14 +14,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Read!$A$2:$E$131</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Unread!$A$2:$F$231</definedName>
-    <definedName name="Media">Dropdown!$C$2:$C$5</definedName>
+    <definedName name="Media">Dropdown!$C$2:$C$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="157">
   <si>
     <t>Book Ranking</t>
   </si>
@@ -470,9 +470,6 @@
     <t>Algorithmic bias (W)</t>
   </si>
   <si>
-    <t>Enhancing our Grasp of Comples Arguments (Paper)</t>
-  </si>
-  <si>
     <t>Media</t>
   </si>
   <si>
@@ -486,6 +483,15 @@
   </si>
   <si>
     <t>Wikipedia</t>
+  </si>
+  <si>
+    <t>Dhammapada</t>
+  </si>
+  <si>
+    <t>Enhancing our Grasp of Complex Arguments (Paper)</t>
+  </si>
+  <si>
+    <t>Online Text</t>
   </si>
 </sst>
 </file>
@@ -881,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -1084,10 +1090,10 @@
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C15" s="3">
         <v>4</v>
@@ -1108,7 +1114,7 @@
         <v>147</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C16" s="3">
         <v>4</v>
@@ -1129,7 +1135,7 @@
         <v>148</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
@@ -1149,6 +1155,9 @@
       <c r="A18" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="B18" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="C18" s="3">
         <v>3</v>
       </c>
@@ -1201,17 +1210,20 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>143</v>
+        <v>154</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="C21" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" s="3">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E21" s="7">
         <f>IFERROR(C21/D21," ")</f>
-        <v>0.15</v>
+        <v>0.17241379310344829</v>
       </c>
       <c r="F21" t="s">
         <v>72</v>
@@ -1219,17 +1231,17 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
       </c>
       <c r="D22" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E22" s="7">
         <f>IFERROR(C22/D22," ")</f>
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="F22" t="s">
         <v>72</v>
@@ -1237,17 +1249,17 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="C23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E23" s="7">
-        <f>C23/D23</f>
-        <v>6.6666666666666666E-2</v>
+        <f>IFERROR(C23/D23," ")</f>
+        <v>0.12</v>
       </c>
       <c r="F23" t="s">
         <v>72</v>
@@ -1255,17 +1267,17 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="C24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="3">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E24" s="7">
-        <f>IFERROR(C24/D24," ")</f>
-        <v>5.4545454545454543E-2</v>
+        <f>C24/D24</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="F24" t="s">
         <v>72</v>
@@ -1273,17 +1285,17 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="C25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="3">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E25" s="7">
-        <f>IFERROR(C25/D25," ")</f>
-        <v>5.4054054054054057E-2</v>
+        <f t="shared" ref="E25:E56" si="2">IFERROR(C25/D25," ")</f>
+        <v>5.4545454545454543E-2</v>
       </c>
       <c r="F25" t="s">
         <v>72</v>
@@ -1291,17 +1303,17 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C26" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="3">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="E26" s="7">
-        <f>IFERROR(C26/D26," ")</f>
-        <v>4.1666666666666664E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.4054054054054057E-2</v>
       </c>
       <c r="F26" t="s">
         <v>72</v>
@@ -1309,16 +1321,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="C27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" s="3">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="E27" s="7">
-        <f>IFERROR(C27/D27," ")</f>
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F27" t="s">
@@ -1327,17 +1339,17 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="C28" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" s="3">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="E28" s="7">
-        <f>IFERROR(C28/D28," ")</f>
-        <v>3.90625E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="F28" t="s">
         <v>72</v>
@@ -1345,17 +1357,17 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="C29" s="3">
         <v>5</v>
       </c>
       <c r="D29" s="3">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E29" s="7">
-        <f>IFERROR(C29/D29," ")</f>
-        <v>3.7593984962406013E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.90625E-2</v>
       </c>
       <c r="F29" t="s">
         <v>72</v>
@@ -1363,17 +1375,17 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C30" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" s="3">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E30" s="7">
-        <f>IFERROR(C30/D30," ")</f>
-        <v>3.0303030303030304E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.7593984962406013E-2</v>
       </c>
       <c r="F30" t="s">
         <v>72</v>
@@ -1381,17 +1393,17 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C31" s="3">
         <v>4</v>
       </c>
       <c r="D31" s="3">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="E31" s="7">
-        <f>IFERROR(C31/D31," ")</f>
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="F31" t="s">
         <v>72</v>
@@ -1399,16 +1411,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="C32" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="E32" s="7">
-        <f>IFERROR(C32/D32," ")</f>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F32" t="s">
@@ -1417,17 +1429,17 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="C33" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" s="3">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="E33" s="7">
-        <f>IFERROR(C33/D33," ")</f>
-        <v>2.4193548387096774E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F33" t="s">
         <v>72</v>
@@ -1435,17 +1447,17 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="C34" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" s="3">
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="E34" s="7">
-        <f>IFERROR(C34/D34," ")</f>
-        <v>2.403846153846154E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.4193548387096774E-2</v>
       </c>
       <c r="F34" t="s">
         <v>72</v>
@@ -1453,17 +1465,17 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="C35" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" s="3">
-        <v>128</v>
+        <v>208</v>
       </c>
       <c r="E35" s="7">
-        <f>IFERROR(C35/D35," ")</f>
-        <v>2.34375E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.403846153846154E-2</v>
       </c>
       <c r="F35" t="s">
         <v>72</v>
@@ -1471,17 +1483,17 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="C36" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" s="3">
-        <v>224</v>
+        <v>128</v>
       </c>
       <c r="E36" s="7">
-        <f>IFERROR(C36/D36," ")</f>
-        <v>2.2321428571428572E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.34375E-2</v>
       </c>
       <c r="F36" t="s">
         <v>72</v>
@@ -1489,17 +1501,17 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="C37" s="3">
         <v>5</v>
       </c>
       <c r="D37" s="3">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E37" s="7">
-        <f>IFERROR(C37/D37," ")</f>
-        <v>2.1929824561403508E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.2321428571428572E-2</v>
       </c>
       <c r="F37" t="s">
         <v>72</v>
@@ -1507,17 +1519,17 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="C38" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" s="3">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="E38" s="7">
-        <f>IFERROR(C38/D38," ")</f>
-        <v>2.0942408376963352E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.1929824561403508E-2</v>
       </c>
       <c r="F38" t="s">
         <v>72</v>
@@ -1525,17 +1537,17 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C39" s="3">
         <v>4</v>
       </c>
       <c r="D39" s="3">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E39" s="7">
-        <f>IFERROR(C39/D39," ")</f>
-        <v>2.0833333333333332E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.0942408376963352E-2</v>
       </c>
       <c r="F39" t="s">
         <v>72</v>
@@ -1543,17 +1555,17 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="C40" s="3">
         <v>4</v>
       </c>
       <c r="D40" s="3">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E40" s="7">
-        <f>IFERROR(C40/D40," ")</f>
-        <v>2.0202020202020204E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="F40" t="s">
         <v>72</v>
@@ -1561,17 +1573,17 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="C41" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" s="3">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="E41" s="7">
-        <f>IFERROR(C41/D41," ")</f>
-        <v>1.937984496124031E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="F41" t="s">
         <v>72</v>
@@ -1579,17 +1591,17 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C42" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" s="3">
-        <v>157</v>
+        <v>258</v>
       </c>
       <c r="E42" s="7">
-        <f>IFERROR(C42/D42," ")</f>
-        <v>1.9108280254777069E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.937984496124031E-2</v>
       </c>
       <c r="F42" t="s">
         <v>72</v>
@@ -1597,17 +1609,17 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C43" s="3">
         <v>3</v>
       </c>
       <c r="D43" s="3">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E43" s="7">
-        <f>IFERROR(C43/D43," ")</f>
-        <v>1.8749999999999999E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.9108280254777069E-2</v>
       </c>
       <c r="F43" t="s">
         <v>72</v>
@@ -1615,17 +1627,17 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C44" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" s="3">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="E44" s="7">
-        <f>IFERROR(C44/D44," ")</f>
-        <v>1.7857142857142856E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.8749999999999999E-2</v>
       </c>
       <c r="F44" t="s">
         <v>72</v>
@@ -1633,17 +1645,17 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C45" s="3">
         <v>4</v>
       </c>
       <c r="D45" s="3">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E45" s="7">
-        <f>IFERROR(C45/D45," ")</f>
-        <v>1.7699115044247787E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="F45" t="s">
         <v>72</v>
@@ -1651,17 +1663,17 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C46" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" s="3">
-        <v>288</v>
+        <v>226</v>
       </c>
       <c r="E46" s="7">
-        <f>IFERROR(C46/D46," ")</f>
-        <v>1.7361111111111112E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7699115044247787E-2</v>
       </c>
       <c r="F46" t="s">
         <v>72</v>
@@ -1669,17 +1681,17 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C47" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" s="3">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="E47" s="7">
-        <f>IFERROR(C47/D47," ")</f>
-        <v>1.7316017316017316E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="F47" t="s">
         <v>72</v>
@@ -1687,17 +1699,17 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="C48" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" s="3">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="E48" s="7">
-        <f>IFERROR(C48/D48," ")</f>
-        <v>1.6574585635359115E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7316017316017316E-2</v>
       </c>
       <c r="F48" t="s">
         <v>72</v>
@@ -1705,17 +1717,17 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="C49" s="3">
         <v>3</v>
       </c>
       <c r="D49" s="3">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E49" s="7">
-        <f>IFERROR(C49/D49," ")</f>
-        <v>1.6483516483516484E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.6574585635359115E-2</v>
       </c>
       <c r="F49" t="s">
         <v>72</v>
@@ -1723,17 +1735,17 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C50" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" s="3">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="E50" s="7">
-        <f>IFERROR(C50/D50," ")</f>
-        <v>1.6E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.6483516483516484E-2</v>
       </c>
       <c r="F50" t="s">
         <v>72</v>
@@ -1741,17 +1753,17 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="C51" s="3">
         <v>4</v>
       </c>
       <c r="D51" s="3">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="E51" s="7">
-        <f>IFERROR(C51/D51," ")</f>
-        <v>1.5037593984962405E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.6E-2</v>
       </c>
       <c r="F51" t="s">
         <v>72</v>
@@ -1759,17 +1771,17 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="C52" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" s="3">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="E52" s="7">
-        <f>IFERROR(C52/D52," ")</f>
-        <v>1.488095238095238E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.5037593984962405E-2</v>
       </c>
       <c r="F52" t="s">
         <v>72</v>
@@ -1777,17 +1789,17 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="C53" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" s="3">
-        <v>137</v>
+        <v>336</v>
       </c>
       <c r="E53" s="7">
-        <f>IFERROR(C53/D53," ")</f>
-        <v>1.4598540145985401E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.488095238095238E-2</v>
       </c>
       <c r="F53" t="s">
         <v>72</v>
@@ -1795,17 +1807,17 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C54" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" s="3">
-        <v>276</v>
+        <v>137</v>
       </c>
       <c r="E54" s="7">
-        <f>IFERROR(C54/D54," ")</f>
-        <v>1.4492753623188406E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.4598540145985401E-2</v>
       </c>
       <c r="F54" t="s">
         <v>72</v>
@@ -1813,17 +1825,17 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="C55" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" s="3">
-        <v>208</v>
+        <v>276</v>
       </c>
       <c r="E55" s="7">
-        <f>IFERROR(C55/D55," ")</f>
-        <v>1.4423076923076924E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.4492753623188406E-2</v>
       </c>
       <c r="F55" t="s">
         <v>72</v>
@@ -1831,17 +1843,17 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="C56" s="3">
         <v>3</v>
       </c>
       <c r="D56" s="3">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E56" s="7">
-        <f>IFERROR(C56/D56," ")</f>
-        <v>1.4084507042253521E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.4423076923076924E-2</v>
       </c>
       <c r="F56" t="s">
         <v>72</v>
@@ -1849,17 +1861,17 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C57" s="3">
         <v>3</v>
       </c>
       <c r="D57" s="3">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E57" s="7">
-        <f>IFERROR(C57/D57," ")</f>
-        <v>1.3636363636363636E-2</v>
+        <f t="shared" ref="E57:E88" si="3">IFERROR(C57/D57," ")</f>
+        <v>1.4084507042253521E-2</v>
       </c>
       <c r="F57" t="s">
         <v>72</v>
@@ -1867,17 +1879,17 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="C58" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" s="3">
-        <v>368</v>
+        <v>220</v>
       </c>
       <c r="E58" s="7">
-        <f>IFERROR(C58/D58," ")</f>
-        <v>1.358695652173913E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.3636363636363636E-2</v>
       </c>
       <c r="F58" t="s">
         <v>72</v>
@@ -1885,17 +1897,17 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C59" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" s="3">
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="E59" s="7">
-        <f>IFERROR(C59/D59," ")</f>
-        <v>1.2500000000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.358695652173913E-2</v>
       </c>
       <c r="F59" t="s">
         <v>72</v>
@@ -1903,16 +1915,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C60" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" s="3">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="E60" s="7">
-        <f>IFERROR(C60/D60," ")</f>
+        <f t="shared" si="3"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="F60" t="s">
@@ -1921,17 +1933,17 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C61" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" s="3">
-        <v>336</v>
+        <v>160</v>
       </c>
       <c r="E61" s="7">
-        <f>IFERROR(C61/D61," ")</f>
-        <v>1.1904761904761904E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="F61" t="s">
         <v>72</v>
@@ -1939,17 +1951,17 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C62" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" s="3">
-        <v>256</v>
+        <v>336</v>
       </c>
       <c r="E62" s="7">
-        <f>IFERROR(C62/D62," ")</f>
-        <v>1.171875E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.1904761904761904E-2</v>
       </c>
       <c r="F62" t="s">
         <v>72</v>
@@ -1957,7 +1969,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="C63" s="3">
         <v>3</v>
@@ -1966,7 +1978,7 @@
         <v>256</v>
       </c>
       <c r="E63" s="7">
-        <f>IFERROR(C63/D63," ")</f>
+        <f t="shared" si="3"/>
         <v>1.171875E-2</v>
       </c>
       <c r="F63" t="s">
@@ -1975,17 +1987,17 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="C64" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" s="3">
-        <v>432</v>
+        <v>256</v>
       </c>
       <c r="E64" s="7">
-        <f>IFERROR(C64/D64," ")</f>
-        <v>1.1574074074074073E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.171875E-2</v>
       </c>
       <c r="F64" t="s">
         <v>72</v>
@@ -1993,17 +2005,17 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C65" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" s="3">
-        <v>264</v>
+        <v>432</v>
       </c>
       <c r="E65" s="7">
-        <f>IFERROR(C65/D65," ")</f>
-        <v>1.1363636363636364E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.1574074074074073E-2</v>
       </c>
       <c r="F65" t="s">
         <v>72</v>
@@ -2011,16 +2023,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="C66" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" s="3">
-        <v>352</v>
+        <v>264</v>
       </c>
       <c r="E66" s="7">
-        <f>IFERROR(C66/D66," ")</f>
+        <f t="shared" si="3"/>
         <v>1.1363636363636364E-2</v>
       </c>
       <c r="F66" t="s">
@@ -2029,17 +2041,17 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="C67" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" s="3">
-        <v>266</v>
+        <v>352</v>
       </c>
       <c r="E67" s="7">
-        <f>IFERROR(C67/D67," ")</f>
-        <v>1.1278195488721804E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.1363636363636364E-2</v>
       </c>
       <c r="F67" t="s">
         <v>72</v>
@@ -2047,17 +2059,17 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C68" s="3">
         <v>3</v>
       </c>
       <c r="D68" s="3">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="E68" s="7">
-        <f>IFERROR(C68/D68," ")</f>
-        <v>1.0830324909747292E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.1278195488721804E-2</v>
       </c>
       <c r="F68" t="s">
         <v>72</v>
@@ -2065,17 +2077,17 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="C69" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" s="3">
-        <v>384</v>
+        <v>277</v>
       </c>
       <c r="E69" s="7">
-        <f>IFERROR(C69/D69," ")</f>
-        <v>1.0416666666666666E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.0830324909747292E-2</v>
       </c>
       <c r="F69" t="s">
         <v>72</v>
@@ -2083,7 +2095,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="C70" s="3">
         <v>4</v>
@@ -2092,7 +2104,7 @@
         <v>384</v>
       </c>
       <c r="E70" s="7">
-        <f>IFERROR(C70/D70," ")</f>
+        <f t="shared" si="3"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="F70" t="s">
@@ -2101,16 +2113,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C71" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" s="3">
-        <v>288</v>
+        <v>384</v>
       </c>
       <c r="E71" s="7">
-        <f>IFERROR(C71/D71," ")</f>
+        <f t="shared" si="3"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="F71" t="s">
@@ -2119,7 +2131,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="C72" s="3">
         <v>3</v>
@@ -2128,7 +2140,7 @@
         <v>288</v>
       </c>
       <c r="E72" s="7">
-        <f>IFERROR(C72/D72," ")</f>
+        <f t="shared" si="3"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="F72" t="s">
@@ -2137,17 +2149,17 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="C73" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" s="3">
-        <v>400</v>
+        <v>288</v>
       </c>
       <c r="E73" s="7">
-        <f>IFERROR(C73/D73," ")</f>
-        <v>0.01</v>
+        <f t="shared" si="3"/>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="F73" t="s">
         <v>72</v>
@@ -2155,16 +2167,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="C74" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E74" s="7">
-        <f>IFERROR(C74/D74," ")</f>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
       <c r="F74" t="s">
@@ -2173,16 +2185,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C75" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E75" s="7">
-        <f>IFERROR(C75/D75," ")</f>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
       <c r="F75" t="s">
@@ -2191,17 +2203,17 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C76" s="3">
         <v>4</v>
       </c>
       <c r="D76" s="3">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="E76" s="7">
-        <f>IFERROR(C76/D76," ")</f>
-        <v>9.6153846153846159E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.01</v>
       </c>
       <c r="F76" t="s">
         <v>72</v>
@@ -2209,16 +2221,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" s="8">
-        <v>2</v>
+        <v>82</v>
+      </c>
+      <c r="C77" s="3">
+        <v>4</v>
       </c>
       <c r="D77" s="3">
-        <v>208</v>
+        <v>416</v>
       </c>
       <c r="E77" s="7">
-        <f>IFERROR(C77/D77," ")</f>
+        <f t="shared" si="3"/>
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="F77" t="s">
@@ -2227,16 +2239,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C78" s="3">
+        <v>15</v>
+      </c>
+      <c r="C78" s="8">
         <v>2</v>
       </c>
       <c r="D78" s="3">
         <v>208</v>
       </c>
       <c r="E78" s="7">
-        <f>IFERROR(C78/D78," ")</f>
+        <f t="shared" si="3"/>
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="F78" t="s">
@@ -2245,16 +2257,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="C79" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" s="3">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="E79" s="7">
-        <f>IFERROR(C79/D79," ")</f>
+        <f t="shared" si="3"/>
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="F79" t="s">
@@ -2263,17 +2275,17 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="C80" s="3">
         <v>3</v>
       </c>
       <c r="D80" s="3">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E80" s="7">
-        <f>IFERROR(C80/D80," ")</f>
-        <v>9.4936708860759497E-3</v>
+        <f t="shared" si="3"/>
+        <v>9.6153846153846159E-3</v>
       </c>
       <c r="F80" t="s">
         <v>72</v>
@@ -2281,17 +2293,17 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="C81" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" s="3">
-        <v>432</v>
+        <v>316</v>
       </c>
       <c r="E81" s="7">
-        <f>IFERROR(C81/D81," ")</f>
-        <v>9.2592592592592587E-3</v>
+        <f t="shared" si="3"/>
+        <v>9.4936708860759497E-3</v>
       </c>
       <c r="F81" t="s">
         <v>72</v>
@@ -2299,17 +2311,17 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="C82" s="3">
         <v>4</v>
       </c>
       <c r="D82" s="3">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E82" s="7">
-        <f>IFERROR(C82/D82," ")</f>
-        <v>9.1743119266055051E-3</v>
+        <f t="shared" si="3"/>
+        <v>9.2592592592592587E-3</v>
       </c>
       <c r="F82" t="s">
         <v>72</v>
@@ -2317,17 +2329,17 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C83" s="3">
         <v>4</v>
       </c>
       <c r="D83" s="3">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E83" s="7">
-        <f>IFERROR(C83/D83," ")</f>
-        <v>9.0090090090090089E-3</v>
+        <f t="shared" si="3"/>
+        <v>9.1743119266055051E-3</v>
       </c>
       <c r="F83" t="s">
         <v>72</v>
@@ -2335,17 +2347,17 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C84" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" s="3">
-        <v>336</v>
+        <v>444</v>
       </c>
       <c r="E84" s="7">
-        <f>IFERROR(C84/D84," ")</f>
-        <v>8.9285714285714281E-3</v>
+        <f t="shared" si="3"/>
+        <v>9.0090090090090089E-3</v>
       </c>
       <c r="F84" t="s">
         <v>72</v>
@@ -2353,17 +2365,17 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C85" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" s="3">
-        <v>225</v>
+        <v>336</v>
       </c>
       <c r="E85" s="7">
-        <f>IFERROR(C85/D85," ")</f>
-        <v>8.8888888888888889E-3</v>
+        <f t="shared" si="3"/>
+        <v>8.9285714285714281E-3</v>
       </c>
       <c r="F85" t="s">
         <v>72</v>
@@ -2371,17 +2383,17 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C86" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" s="3">
-        <v>344</v>
+        <v>225</v>
       </c>
       <c r="E86" s="7">
-        <f>IFERROR(C86/D86," ")</f>
-        <v>8.7209302325581394E-3</v>
+        <f t="shared" si="3"/>
+        <v>8.8888888888888889E-3</v>
       </c>
       <c r="F86" t="s">
         <v>72</v>
@@ -2389,17 +2401,17 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="C87" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" s="3">
-        <v>464</v>
+        <v>344</v>
       </c>
       <c r="E87" s="7">
-        <f>IFERROR(C87/D87," ")</f>
-        <v>8.6206896551724137E-3</v>
+        <f t="shared" si="3"/>
+        <v>8.7209302325581394E-3</v>
       </c>
       <c r="F87" t="s">
         <v>72</v>
@@ -2407,7 +2419,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C88" s="3">
         <v>4</v>
@@ -2416,7 +2428,7 @@
         <v>464</v>
       </c>
       <c r="E88" s="7">
-        <f>IFERROR(C88/D88," ")</f>
+        <f t="shared" si="3"/>
         <v>8.6206896551724137E-3</v>
       </c>
       <c r="F88" t="s">
@@ -2425,17 +2437,17 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C89" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" s="3">
-        <v>352</v>
+        <v>464</v>
       </c>
       <c r="E89" s="7">
-        <f>IFERROR(C89/D89," ")</f>
-        <v>8.5227272727272721E-3</v>
+        <f t="shared" ref="E89:E120" si="4">IFERROR(C89/D89," ")</f>
+        <v>8.6206896551724137E-3</v>
       </c>
       <c r="F89" t="s">
         <v>72</v>
@@ -2443,7 +2455,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="C90" s="3">
         <v>3</v>
@@ -2452,7 +2464,7 @@
         <v>352</v>
       </c>
       <c r="E90" s="7">
-        <f>IFERROR(C90/D90," ")</f>
+        <f t="shared" si="4"/>
         <v>8.5227272727272721E-3</v>
       </c>
       <c r="F90" t="s">
@@ -2461,17 +2473,17 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="C91" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" s="3">
-        <v>480</v>
+        <v>352</v>
       </c>
       <c r="E91" s="7">
-        <f>IFERROR(C91/D91," ")</f>
-        <v>8.3333333333333332E-3</v>
+        <f t="shared" si="4"/>
+        <v>8.5227272727272721E-3</v>
       </c>
       <c r="F91" t="s">
         <v>72</v>
@@ -2479,16 +2491,16 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C92" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" s="3">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="E92" s="7">
-        <f>IFERROR(C92/D92," ")</f>
+        <f t="shared" si="4"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="F92" t="s">
@@ -2497,16 +2509,16 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C93" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" s="3">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="E93" s="7">
-        <f>IFERROR(C93/D93," ")</f>
+        <f t="shared" si="4"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="F93" t="s">
@@ -2515,17 +2527,17 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C94" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" s="3">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="E94" s="7">
-        <f>IFERROR(C94/D94," ")</f>
-        <v>8.152173913043478E-3</v>
+        <f t="shared" si="4"/>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="F94" t="s">
         <v>72</v>
@@ -2533,7 +2545,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C95" s="3">
         <v>3</v>
@@ -2542,7 +2554,7 @@
         <v>368</v>
       </c>
       <c r="E95" s="7">
-        <f>IFERROR(C95/D95," ")</f>
+        <f t="shared" si="4"/>
         <v>8.152173913043478E-3</v>
       </c>
       <c r="F95" t="s">
@@ -2551,17 +2563,17 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="C96" s="3">
         <v>3</v>
       </c>
       <c r="D96" s="3">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E96" s="7">
-        <f>IFERROR(C96/D96," ")</f>
-        <v>8.0862533692722376E-3</v>
+        <f t="shared" si="4"/>
+        <v>8.152173913043478E-3</v>
       </c>
       <c r="F96" t="s">
         <v>72</v>
@@ -2569,17 +2581,17 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="C97" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" s="3">
-        <v>499</v>
+        <v>371</v>
       </c>
       <c r="E97" s="7">
-        <f>IFERROR(C97/D97," ")</f>
-        <v>8.0160320641282558E-3</v>
+        <f t="shared" si="4"/>
+        <v>8.0862533692722376E-3</v>
       </c>
       <c r="F97" t="s">
         <v>72</v>
@@ -2587,17 +2599,17 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C98" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" s="3">
-        <v>250</v>
+        <v>499</v>
       </c>
       <c r="E98" s="7">
-        <f>IFERROR(C98/D98," ")</f>
-        <v>8.0000000000000002E-3</v>
+        <f t="shared" si="4"/>
+        <v>8.0160320641282558E-3</v>
       </c>
       <c r="F98" t="s">
         <v>72</v>
@@ -2605,17 +2617,17 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C99" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" s="3">
-        <v>512</v>
+        <v>250</v>
       </c>
       <c r="E99" s="7">
-        <f>IFERROR(C99/D99," ")</f>
-        <v>7.8125E-3</v>
+        <f t="shared" si="4"/>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F99" t="s">
         <v>72</v>
@@ -2623,7 +2635,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="C100" s="3">
         <v>4</v>
@@ -2632,7 +2644,7 @@
         <v>512</v>
       </c>
       <c r="E100" s="7">
-        <f>IFERROR(C100/D100," ")</f>
+        <f t="shared" si="4"/>
         <v>7.8125E-3</v>
       </c>
       <c r="F100" t="s">
@@ -2641,17 +2653,17 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C101" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" s="3">
-        <v>264</v>
+        <v>512</v>
       </c>
       <c r="E101" s="7">
-        <f>IFERROR(C101/D101," ")</f>
-        <v>7.575757575757576E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.8125E-3</v>
       </c>
       <c r="F101" t="s">
         <v>72</v>
@@ -2659,17 +2671,17 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C102" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D102" s="3">
-        <v>400</v>
+        <v>264</v>
       </c>
       <c r="E102" s="7">
-        <f>IFERROR(C102/D102," ")</f>
-        <v>7.4999999999999997E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.575757575757576E-3</v>
       </c>
       <c r="F102" t="s">
         <v>72</v>
@@ -2677,17 +2689,17 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C103" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D103" s="3">
-        <v>544</v>
+        <v>400</v>
       </c>
       <c r="E103" s="7">
-        <f>IFERROR(C103/D103," ")</f>
-        <v>7.3529411764705881E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="F103" t="s">
         <v>72</v>
@@ -2695,17 +2707,17 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="C104" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D104" s="3">
-        <v>416</v>
+        <v>544</v>
       </c>
       <c r="E104" s="7">
-        <f>IFERROR(C104/D104," ")</f>
-        <v>7.2115384615384619E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.3529411764705881E-3</v>
       </c>
       <c r="F104" t="s">
         <v>72</v>
@@ -2713,17 +2725,17 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="C105" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D105" s="3">
-        <v>560</v>
+        <v>416</v>
       </c>
       <c r="E105" s="7">
-        <f>IFERROR(C105/D105," ")</f>
-        <v>7.1428571428571426E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.2115384615384619E-3</v>
       </c>
       <c r="F105" t="s">
         <v>72</v>
@@ -2731,17 +2743,17 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C106" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D106" s="3">
-        <v>284</v>
+        <v>560</v>
       </c>
       <c r="E106" s="7">
-        <f>IFERROR(C106/D106," ")</f>
-        <v>7.0422535211267607E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.1428571428571426E-3</v>
       </c>
       <c r="F106" t="s">
         <v>72</v>
@@ -2749,17 +2761,17 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C107" s="3">
         <v>2</v>
       </c>
       <c r="D107" s="3">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E107" s="7">
-        <f>IFERROR(C107/D107," ")</f>
-        <v>6.9444444444444441E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0422535211267607E-3</v>
       </c>
       <c r="F107" t="s">
         <v>72</v>
@@ -2767,17 +2779,17 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="C108" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D108" s="3">
-        <v>736</v>
+        <v>288</v>
       </c>
       <c r="E108" s="7">
-        <f>IFERROR(C108/D108," ")</f>
-        <v>6.793478260869565E-3</v>
+        <f t="shared" si="4"/>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="F108" t="s">
         <v>72</v>
@@ -2785,17 +2797,17 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="C109" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D109" s="3">
-        <v>148</v>
+        <v>736</v>
       </c>
       <c r="E109" s="7">
-        <f>IFERROR(C109/D109," ")</f>
-        <v>6.7567567567567571E-3</v>
+        <f t="shared" si="4"/>
+        <v>6.793478260869565E-3</v>
       </c>
       <c r="F109" t="s">
         <v>72</v>
@@ -2803,17 +2815,17 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C110" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D110" s="3">
-        <v>450</v>
+        <v>148</v>
       </c>
       <c r="E110" s="7">
-        <f>IFERROR(C110/D110," ")</f>
-        <v>6.6666666666666671E-3</v>
+        <f t="shared" si="4"/>
+        <v>6.7567567567567571E-3</v>
       </c>
       <c r="F110" t="s">
         <v>72</v>
@@ -2821,17 +2833,17 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C111" s="3">
         <v>3</v>
       </c>
       <c r="D111" s="3">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="E111" s="7">
-        <f>IFERROR(C111/D111," ")</f>
-        <v>6.4655172413793103E-3</v>
+        <f t="shared" si="4"/>
+        <v>6.6666666666666671E-3</v>
       </c>
       <c r="F111" t="s">
         <v>72</v>
@@ -2839,17 +2851,17 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="C112" s="3">
         <v>3</v>
       </c>
       <c r="D112" s="3">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="E112" s="7">
-        <f>IFERROR(C112/D112," ")</f>
-        <v>6.2500000000000003E-3</v>
+        <f t="shared" si="4"/>
+        <v>6.4655172413793103E-3</v>
       </c>
       <c r="F112" t="s">
         <v>72</v>
@@ -2857,7 +2869,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C113" s="3">
         <v>3</v>
@@ -2866,7 +2878,7 @@
         <v>480</v>
       </c>
       <c r="E113" s="7">
-        <f>IFERROR(C113/D113," ")</f>
+        <f t="shared" si="4"/>
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="F113" t="s">
@@ -2875,17 +2887,17 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C114" s="3">
         <v>3</v>
       </c>
       <c r="D114" s="3">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E114" s="7">
-        <f>IFERROR(C114/D114," ")</f>
-        <v>6.1475409836065573E-3</v>
+        <f t="shared" si="4"/>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="F114" t="s">
         <v>72</v>
@@ -2893,17 +2905,17 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C115" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D115" s="3">
-        <v>332</v>
+        <v>488</v>
       </c>
       <c r="E115" s="7">
-        <f>IFERROR(C115/D115," ")</f>
-        <v>6.024096385542169E-3</v>
+        <f t="shared" si="4"/>
+        <v>6.1475409836065573E-3</v>
       </c>
       <c r="F115" t="s">
         <v>72</v>
@@ -2911,7 +2923,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="C116" s="3">
         <v>2</v>
@@ -2920,7 +2932,7 @@
         <v>332</v>
       </c>
       <c r="E116" s="7">
-        <f>IFERROR(C116/D116," ")</f>
+        <f t="shared" si="4"/>
         <v>6.024096385542169E-3</v>
       </c>
       <c r="F116" t="s">
@@ -2929,17 +2941,17 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C117" s="3">
         <v>2</v>
       </c>
       <c r="D117" s="3">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="E117" s="7">
-        <f>IFERROR(C117/D117," ")</f>
-        <v>5.8139534883720929E-3</v>
+        <f t="shared" si="4"/>
+        <v>6.024096385542169E-3</v>
       </c>
       <c r="F117" t="s">
         <v>72</v>
@@ -2947,17 +2959,17 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="C118" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D118" s="3">
-        <v>704</v>
+        <v>344</v>
       </c>
       <c r="E118" s="7">
-        <f>IFERROR(C118/D118," ")</f>
-        <v>5.681818181818182E-3</v>
+        <f t="shared" si="4"/>
+        <v>5.8139534883720929E-3</v>
       </c>
       <c r="F118" t="s">
         <v>72</v>
@@ -2965,17 +2977,17 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="C119" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D119" s="3">
-        <v>366</v>
+        <v>704</v>
       </c>
       <c r="E119" s="7">
-        <f>IFERROR(C119/D119," ")</f>
-        <v>5.4644808743169399E-3</v>
+        <f t="shared" si="4"/>
+        <v>5.681818181818182E-3</v>
       </c>
       <c r="F119" t="s">
         <v>72</v>
@@ -2983,17 +2995,17 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="C120" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D120" s="3">
-        <v>736</v>
+        <v>366</v>
       </c>
       <c r="E120" s="7">
-        <f>IFERROR(C120/D120," ")</f>
-        <v>5.434782608695652E-3</v>
+        <f t="shared" si="4"/>
+        <v>5.4644808743169399E-3</v>
       </c>
       <c r="F120" t="s">
         <v>72</v>
@@ -3001,17 +3013,17 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C121" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D121" s="3">
-        <v>373</v>
+        <v>736</v>
       </c>
       <c r="E121" s="7">
-        <f>IFERROR(C121/D121," ")</f>
-        <v>5.3619302949061663E-3</v>
+        <f t="shared" ref="E121:E152" si="5">IFERROR(C121/D121," ")</f>
+        <v>5.434782608695652E-3</v>
       </c>
       <c r="F121" t="s">
         <v>72</v>
@@ -3019,17 +3031,17 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C122" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D122" s="3">
-        <v>560</v>
+        <v>373</v>
       </c>
       <c r="E122" s="7">
-        <f>IFERROR(C122/D122," ")</f>
-        <v>5.3571428571428572E-3</v>
+        <f t="shared" si="5"/>
+        <v>5.3619302949061663E-3</v>
       </c>
       <c r="F122" t="s">
         <v>72</v>
@@ -3037,7 +3049,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C123" s="3">
         <v>3</v>
@@ -3046,7 +3058,7 @@
         <v>560</v>
       </c>
       <c r="E123" s="7">
-        <f>IFERROR(C123/D123," ")</f>
+        <f t="shared" si="5"/>
         <v>5.3571428571428572E-3</v>
       </c>
       <c r="F123" t="s">
@@ -3055,17 +3067,17 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C124" s="3">
         <v>3</v>
       </c>
       <c r="D124" s="3">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="E124" s="7">
-        <f>IFERROR(C124/D124," ")</f>
-        <v>5.208333333333333E-3</v>
+        <f t="shared" si="5"/>
+        <v>5.3571428571428572E-3</v>
       </c>
       <c r="F124" t="s">
         <v>72</v>
@@ -3073,16 +3085,16 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C125" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D125" s="3">
-        <v>384</v>
+        <v>576</v>
       </c>
       <c r="E125" s="7">
-        <f>IFERROR(C125/D125," ")</f>
+        <f t="shared" si="5"/>
         <v>5.208333333333333E-3</v>
       </c>
       <c r="F125" t="s">
@@ -3091,17 +3103,17 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="C126" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126" s="3">
-        <v>200</v>
+        <v>384</v>
       </c>
       <c r="E126" s="7">
-        <f>IFERROR(C126/D126," ")</f>
-        <v>5.0000000000000001E-3</v>
+        <f t="shared" si="5"/>
+        <v>5.208333333333333E-3</v>
       </c>
       <c r="F126" t="s">
         <v>72</v>
@@ -3109,16 +3121,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="C127" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D127" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E127" s="7">
-        <f>IFERROR(C127/D127," ")</f>
+        <f t="shared" si="5"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F127" t="s">
@@ -3127,17 +3139,17 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C128" s="3">
         <v>2</v>
       </c>
       <c r="D128" s="3">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="E128" s="7">
-        <f>IFERROR(C128/D128," ")</f>
-        <v>4.807692307692308E-3</v>
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F128" t="s">
         <v>72</v>
@@ -3145,7 +3157,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="C129" s="3">
         <v>2</v>
@@ -3154,7 +3166,7 @@
         <v>416</v>
       </c>
       <c r="E129" s="7">
-        <f>IFERROR(C129/D129," ")</f>
+        <f t="shared" si="5"/>
         <v>4.807692307692308E-3</v>
       </c>
       <c r="F129" t="s">
@@ -3163,17 +3175,17 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="C130" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D130" s="3">
-        <v>848</v>
+        <v>416</v>
       </c>
       <c r="E130" s="7">
-        <f>IFERROR(C130/D130," ")</f>
-        <v>4.7169811320754715E-3</v>
+        <f t="shared" si="5"/>
+        <v>4.807692307692308E-3</v>
       </c>
       <c r="F130" t="s">
         <v>72</v>
@@ -3181,17 +3193,17 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C131" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D131" s="3">
-        <v>440</v>
+        <v>848</v>
       </c>
       <c r="E131" s="7">
-        <f>IFERROR(C131/D131," ")</f>
-        <v>4.5454545454545452E-3</v>
+        <f t="shared" si="5"/>
+        <v>4.7169811320754715E-3</v>
       </c>
       <c r="F131" t="s">
         <v>72</v>
@@ -3199,17 +3211,17 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C132" s="3">
         <v>2</v>
       </c>
       <c r="D132" s="3">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="E132" s="7">
-        <f>IFERROR(C132/D132," ")</f>
-        <v>4.3859649122807015E-3</v>
+        <f t="shared" si="5"/>
+        <v>4.5454545454545452E-3</v>
       </c>
       <c r="F132" t="s">
         <v>72</v>
@@ -3217,17 +3229,17 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C133" s="3">
         <v>2</v>
       </c>
       <c r="D133" s="3">
-        <v>528</v>
+        <v>456</v>
       </c>
       <c r="E133" s="7">
-        <f>IFERROR(C133/D133," ")</f>
-        <v>3.787878787878788E-3</v>
+        <f t="shared" si="5"/>
+        <v>4.3859649122807015E-3</v>
       </c>
       <c r="F133" t="s">
         <v>72</v>
@@ -3235,17 +3247,17 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C134" s="3">
         <v>2</v>
       </c>
       <c r="D134" s="3">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="E134" s="7">
-        <f>IFERROR(C134/D134," ")</f>
-        <v>3.6764705882352941E-3</v>
+        <f t="shared" si="5"/>
+        <v>3.787878787878788E-3</v>
       </c>
       <c r="F134" t="s">
         <v>72</v>
@@ -3253,17 +3265,17 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="C135" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D135" s="3">
-        <v>848</v>
+        <v>544</v>
       </c>
       <c r="E135" s="7">
-        <f>IFERROR(C135/D135," ")</f>
-        <v>3.5377358490566039E-3</v>
+        <f t="shared" si="5"/>
+        <v>3.6764705882352941E-3</v>
       </c>
       <c r="F135" t="s">
         <v>72</v>
@@ -3271,17 +3283,17 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="C136" s="3">
         <v>3</v>
       </c>
       <c r="D136" s="3">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="E136" s="7">
-        <f>IFERROR(C136/D136," ")</f>
-        <v>3.472222222222222E-3</v>
+        <f t="shared" si="5"/>
+        <v>3.5377358490566039E-3</v>
       </c>
       <c r="F136" t="s">
         <v>72</v>
@@ -3322,17 +3334,17 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="C140" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D140" s="3">
-        <v>616</v>
+        <v>864</v>
       </c>
       <c r="E140" s="7">
-        <f>IFERROR(C140/D140," ")</f>
-        <v>3.246753246753247E-3</v>
+        <f t="shared" ref="E140:E171" si="6">IFERROR(C140/D140," ")</f>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="F140" t="s">
         <v>72</v>
@@ -3340,17 +3352,17 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="C141" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D141" s="3">
-        <v>320</v>
+        <v>616</v>
       </c>
       <c r="E141" s="7">
-        <f>IFERROR(C141/D141," ")</f>
-        <v>3.1250000000000002E-3</v>
+        <f t="shared" si="6"/>
+        <v>3.246753246753247E-3</v>
       </c>
       <c r="F141" t="s">
         <v>72</v>
@@ -3358,17 +3370,17 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C142" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D142" s="3">
-        <v>1280</v>
+        <v>320</v>
       </c>
       <c r="E142" s="7">
-        <f>IFERROR(C142/D142," ")</f>
-        <v>2.3437499999999999E-3</v>
+        <f t="shared" si="6"/>
+        <v>3.1250000000000002E-3</v>
       </c>
       <c r="F142" t="s">
         <v>72</v>
@@ -3376,466 +3388,483 @@
     </row>
     <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E143" s="7" t="str">
-        <f>IFERROR(C143/D143," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E144" s="7" t="str">
-        <f>IFERROR(C144/D144," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="145" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E145" s="7" t="str">
-        <f>IFERROR(C145/D145," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="146" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E146" s="7" t="str">
-        <f>IFERROR(C146/D146," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="147" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E147" s="7" t="str">
-        <f>IFERROR(C147/D147," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="148" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E148" s="7" t="str">
-        <f>IFERROR(C148/D148," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="149" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E149" s="7" t="str">
-        <f>IFERROR(C149/D149," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="150" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E150" s="7" t="str">
-        <f>IFERROR(C150/D150," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="151" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E151" s="7" t="str">
-        <f>IFERROR(C151/D151," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="152" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E152" s="7" t="str">
-        <f>IFERROR(C152/D152," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="153" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E153" s="7" t="str">
-        <f>IFERROR(C153/D153," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="154" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E154" s="7" t="str">
-        <f>IFERROR(C154/D154," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="155" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E155" s="7" t="str">
-        <f>IFERROR(C155/D155," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="156" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E156" s="7" t="str">
-        <f>IFERROR(C156/D156," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="157" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E157" s="7" t="str">
-        <f>IFERROR(C157/D157," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="158" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E158" s="7" t="str">
-        <f>IFERROR(C158/D158," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="159" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E159" s="7" t="str">
-        <f>IFERROR(C159/D159," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="160" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E160" s="7" t="str">
-        <f>IFERROR(C160/D160," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="161" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E161" s="7" t="str">
-        <f>IFERROR(C161/D161," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="162" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E162" s="7" t="str">
-        <f>IFERROR(C162/D162," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="163" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E163" s="7" t="str">
-        <f>IFERROR(C163/D163," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="164" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E164" s="7" t="str">
-        <f>IFERROR(C164/D164," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="165" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E165" s="7" t="str">
-        <f>IFERROR(C165/D165," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="166" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E166" s="7" t="str">
-        <f>IFERROR(C166/D166," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="167" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E167" s="7" t="str">
-        <f>IFERROR(C167/D167," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="168" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E168" s="7" t="str">
-        <f>IFERROR(C168/D168," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="169" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E169" s="7" t="str">
-        <f>IFERROR(C169/D169," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="170" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E170" s="7" t="str">
-        <f>IFERROR(C170/D170," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="171" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E171" s="7" t="str">
-        <f>IFERROR(C171/D171," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="172" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E172" s="7" t="str">
-        <f>IFERROR(C172/D172," ")</f>
+        <f t="shared" ref="E172:E203" si="7">IFERROR(C172/D172," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="173" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E173" s="7" t="str">
-        <f>IFERROR(C173/D173," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="174" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E174" s="7" t="str">
-        <f>IFERROR(C174/D174," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="175" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E175" s="7" t="str">
-        <f>IFERROR(C175/D175," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="176" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E176" s="7" t="str">
-        <f>IFERROR(C176/D176," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="177" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E177" s="7" t="str">
-        <f>IFERROR(C177/D177," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="178" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E178" s="7" t="str">
-        <f>IFERROR(C178/D178," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="179" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E179" s="7" t="str">
-        <f>IFERROR(C179/D179," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="180" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E180" s="7" t="str">
-        <f>IFERROR(C180/D180," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="181" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E181" s="7" t="str">
-        <f>IFERROR(C181/D181," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="182" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E182" s="7" t="str">
-        <f>IFERROR(C182/D182," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="183" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E183" s="7" t="str">
-        <f>IFERROR(C183/D183," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="184" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E184" s="7" t="str">
-        <f>IFERROR(C184/D184," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="185" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E185" s="7" t="str">
-        <f>IFERROR(C185/D185," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="186" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E186" s="7" t="str">
-        <f>IFERROR(C186/D186," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="187" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E187" s="7" t="str">
-        <f>IFERROR(C187/D187," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="188" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E188" s="7" t="str">
-        <f>IFERROR(C188/D188," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="189" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E189" s="7" t="str">
-        <f>IFERROR(C189/D189," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="190" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E190" s="7" t="str">
-        <f>IFERROR(C190/D190," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="191" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E191" s="7" t="str">
-        <f>IFERROR(C191/D191," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="192" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E192" s="7" t="str">
-        <f>IFERROR(C192/D192," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="193" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E193" s="7" t="str">
-        <f>IFERROR(C193/D193," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="194" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E194" s="7" t="str">
-        <f>IFERROR(C194/D194," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="195" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E195" s="7" t="str">
-        <f>IFERROR(C195/D195," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="196" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E196" s="7" t="str">
-        <f>IFERROR(C196/D196," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="197" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E197" s="7" t="str">
-        <f>IFERROR(C197/D197," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="198" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E198" s="7" t="str">
-        <f>IFERROR(C198/D198," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="199" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E199" s="7" t="str">
-        <f>IFERROR(C199/D199," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="200" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E200" s="7" t="str">
-        <f>IFERROR(C200/D200," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="201" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E201" s="7" t="str">
-        <f>IFERROR(C201/D201," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="202" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E202" s="7" t="str">
-        <f>IFERROR(C202/D202," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="203" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E203" s="7" t="str">
-        <f>IFERROR(C203/D203," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="204" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E204" s="7" t="str">
-        <f>IFERROR(C204/D204," ")</f>
+        <f t="shared" ref="E204:E235" si="8">IFERROR(C204/D204," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="205" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E205" s="7" t="str">
-        <f>IFERROR(C205/D205," ")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="206" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E206" s="7" t="str">
-        <f>IFERROR(C206/D206," ")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="207" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E207" s="7" t="str">
-        <f>IFERROR(C207/D207," ")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="208" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E208" s="7" t="str">
-        <f>IFERROR(C208/D208," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="209" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E209" s="7" t="str">
-        <f>IFERROR(C209/D209," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="210" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E210" s="7" t="str">
-        <f>IFERROR(C210/D210," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="211" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E211" s="7" t="str">
-        <f>IFERROR(C211/D211," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="212" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E212" s="7" t="str">
-        <f>IFERROR(C212/D212," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="213" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E213" s="7" t="str">
-        <f>IFERROR(C213/D213," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="214" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E214" s="7" t="str">
-        <f>IFERROR(C214/D214," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="215" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E215" s="7" t="str">
-        <f>IFERROR(C215/D215," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="216" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E216" s="7" t="str">
-        <f>IFERROR(C216/D216," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="217" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E217" s="7" t="str">
-        <f>IFERROR(C217/D217," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="218" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E218" s="7" t="str">
-        <f>IFERROR(C218/D218," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="219" spans="5:5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="220" spans="5:5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" spans="5:5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="222" spans="5:5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="223" spans="5:5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" spans="5:5" hidden="1" x14ac:dyDescent="0.25"/>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C219" s="3">
+        <v>3</v>
+      </c>
+      <c r="D219" s="3">
+        <v>1280</v>
+      </c>
+      <c r="E219" s="7">
+        <f t="shared" si="8"/>
+        <v>2.3437499999999999E-3</v>
+      </c>
+      <c r="F219" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
@@ -3851,12 +3880,12 @@
       </customFilters>
     </filterColumn>
     <filterColumn colId="5">
-      <filters blank="1">
+      <filters>
         <filter val="No"/>
       </filters>
     </filterColumn>
-    <sortState ref="A15:F231">
-      <sortCondition descending="1" ref="E2:E229"/>
+    <sortState ref="A15:F219">
+      <sortCondition descending="1" ref="E2:E231"/>
     </sortState>
   </autoFilter>
   <dataValidations count="1">
@@ -4190,7 +4219,7 @@
     <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>Unread!A15</f>
-        <v>Enhancing our Grasp of Comples Arguments (Paper)</v>
+        <v>Enhancing our Grasp of Complex Arguments (Paper)</v>
       </c>
       <c r="B15">
         <f>Unread!C15</f>
@@ -4322,19 +4351,19 @@
     <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>Unread!A21</f>
-        <v>Self-organised criticality-what it is and what it isn't (Report)</v>
+        <v>Dhammapada</v>
       </c>
       <c r="B21">
         <f>Unread!C21</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <f>Unread!D21</f>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D21">
         <f>Unread!E21</f>
-        <v>0.15</v>
+        <v>0.17241379310344829</v>
       </c>
       <c r="E21" t="str">
         <f>Unread!F21</f>
@@ -4344,7 +4373,7 @@
     <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>Unread!A22</f>
-        <v>Power laws, Pareto distributinos and Zipf's Law (Report)</v>
+        <v>Self-organised criticality-what it is and what it isn't (Report)</v>
       </c>
       <c r="B22">
         <f>Unread!C22</f>
@@ -4352,11 +4381,11 @@
       </c>
       <c r="C22">
         <f>Unread!D22</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D22">
         <f>Unread!E22</f>
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="E22" t="str">
         <f>Unread!F22</f>
@@ -4366,19 +4395,19 @@
     <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>Unread!A23</f>
-        <v xml:space="preserve">On the Decay of the Art of Lying  </v>
+        <v>Power laws, Pareto distributinos and Zipf's Law (Report)</v>
       </c>
       <c r="B23">
         <f>Unread!C23</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <f>Unread!D23</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D23">
         <f>Unread!E23</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.12</v>
       </c>
       <c r="E23" t="str">
         <f>Unread!F23</f>
@@ -4388,19 +4417,19 @@
     <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>Unread!A24</f>
-        <v>A Mathematica Theory of Communication: CE Shannon (Report)</v>
+        <v xml:space="preserve">On the Decay of the Art of Lying  </v>
       </c>
       <c r="B24">
         <f>Unread!C24</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <f>Unread!D24</f>
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D24">
         <f>Unread!E24</f>
-        <v>5.4545454545454543E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="E24" t="str">
         <f>Unread!F24</f>
@@ -4410,19 +4439,19 @@
     <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>Unread!A25</f>
-        <v>Guerilla Warfare Mao</v>
+        <v>A Mathematica Theory of Communication: CE Shannon (Report)</v>
       </c>
       <c r="B25">
         <f>Unread!C25</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <f>Unread!D25</f>
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D25">
         <f>Unread!E25</f>
-        <v>5.4054054054054057E-2</v>
+        <v>5.4545454545454543E-2</v>
       </c>
       <c r="E25" t="str">
         <f>Unread!F25</f>
@@ -4432,19 +4461,19 @@
     <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>Unread!A26</f>
-        <v>Thermodynamics</v>
+        <v>Guerilla Warfare Mao</v>
       </c>
       <c r="B26">
         <f>Unread!C26</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <f>Unread!D26</f>
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="D26">
         <f>Unread!E26</f>
-        <v>4.1666666666666664E-2</v>
+        <v>5.4054054054054057E-2</v>
       </c>
       <c r="E26" t="str">
         <f>Unread!F26</f>
@@ -4454,15 +4483,15 @@
     <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>Unread!A27</f>
-        <v>Campaigns of General Custer</v>
+        <v>Thermodynamics</v>
       </c>
       <c r="B27">
         <f>Unread!C27</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <f>Unread!D27</f>
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D27">
         <f>Unread!E27</f>
@@ -4476,19 +4505,19 @@
     <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>Unread!A28</f>
-        <v>A Monk's Guide to a Clean House</v>
+        <v>Campaigns of General Custer</v>
       </c>
       <c r="B28">
         <f>Unread!C28</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C28">
         <f>Unread!D28</f>
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="D28">
         <f>Unread!E28</f>
-        <v>3.90625E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E28" t="str">
         <f>Unread!F28</f>
@@ -4498,7 +4527,7 @@
     <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>Unread!A29</f>
-        <v>Maneuver Warfare Handbook</v>
+        <v>A Monk's Guide to a Clean House</v>
       </c>
       <c r="B29">
         <f>Unread!C29</f>
@@ -4506,11 +4535,11 @@
       </c>
       <c r="C29">
         <f>Unread!D29</f>
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D29">
         <f>Unread!E29</f>
-        <v>3.7593984962406013E-2</v>
+        <v>3.90625E-2</v>
       </c>
       <c r="E29" t="str">
         <f>Unread!F29</f>
@@ -4520,19 +4549,19 @@
     <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>Unread!A30</f>
-        <v xml:space="preserve">Drop the Rock: Removing Character Defects - Steps Six and Seven  </v>
+        <v>Maneuver Warfare Handbook</v>
       </c>
       <c r="B30">
         <f>Unread!C30</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30">
         <f>Unread!D30</f>
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D30">
         <f>Unread!E30</f>
-        <v>3.0303030303030304E-2</v>
+        <v>3.7593984962406013E-2</v>
       </c>
       <c r="E30" t="str">
         <f>Unread!F30</f>
@@ -4542,7 +4571,7 @@
     <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>Unread!A31</f>
-        <v>The Parent's Tao Te Ching</v>
+        <v xml:space="preserve">Drop the Rock: Removing Character Defects - Steps Six and Seven  </v>
       </c>
       <c r="B31">
         <f>Unread!C31</f>
@@ -4550,11 +4579,11 @@
       </c>
       <c r="C31">
         <f>Unread!D31</f>
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="D31">
         <f>Unread!E31</f>
-        <v>2.5000000000000001E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="E31" t="str">
         <f>Unread!F31</f>
@@ -4564,15 +4593,15 @@
     <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>Unread!A32</f>
-        <v xml:space="preserve">The Gnosis of the Light  </v>
+        <v>The Parent's Tao Te Ching</v>
       </c>
       <c r="B32">
         <f>Unread!C32</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C32">
         <f>Unread!D32</f>
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D32">
         <f>Unread!E32</f>
@@ -4586,19 +4615,19 @@
     <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>Unread!A33</f>
-        <v>The Elements of Zen</v>
+        <v xml:space="preserve">The Gnosis of the Light  </v>
       </c>
       <c r="B33">
         <f>Unread!C33</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <f>Unread!D33</f>
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D33">
         <f>Unread!E33</f>
-        <v>2.4193548387096774E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E33" t="str">
         <f>Unread!F33</f>
@@ -4608,19 +4637,19 @@
     <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>Unread!A34</f>
-        <v>Impeachment: A Citizen's Guide</v>
+        <v>The Elements of Zen</v>
       </c>
       <c r="B34">
         <f>Unread!C34</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <f>Unread!D34</f>
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="D34">
         <f>Unread!E34</f>
-        <v>2.403846153846154E-2</v>
+        <v>2.4193548387096774E-2</v>
       </c>
       <c r="E34" t="str">
         <f>Unread!F34</f>
@@ -4630,19 +4659,19 @@
     <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>Unread!A35</f>
-        <v xml:space="preserve">On Tyranny: Twenty Lessons From the Twentieth Century  </v>
+        <v>Impeachment: A Citizen's Guide</v>
       </c>
       <c r="B35">
         <f>Unread!C35</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <f>Unread!D35</f>
-        <v>128</v>
+        <v>208</v>
       </c>
       <c r="D35">
         <f>Unread!E35</f>
-        <v>2.34375E-2</v>
+        <v>2.403846153846154E-2</v>
       </c>
       <c r="E35" t="str">
         <f>Unread!F35</f>
@@ -4652,19 +4681,19 @@
     <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>Unread!A36</f>
-        <v>Advice Not Given: A Guide for Getting Over Yourself</v>
+        <v xml:space="preserve">On Tyranny: Twenty Lessons From the Twentieth Century  </v>
       </c>
       <c r="B36">
         <f>Unread!C36</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <f>Unread!D36</f>
-        <v>224</v>
+        <v>128</v>
       </c>
       <c r="D36">
         <f>Unread!E36</f>
-        <v>2.2321428571428572E-2</v>
+        <v>2.34375E-2</v>
       </c>
       <c r="E36" t="str">
         <f>Unread!F36</f>
@@ -4674,7 +4703,7 @@
     <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>Unread!A37</f>
-        <v xml:space="preserve">Left of Bang: How the Marine Corps' Combat Hunter Program Can Save Your Life  </v>
+        <v>Advice Not Given: A Guide for Getting Over Yourself</v>
       </c>
       <c r="B37">
         <f>Unread!C37</f>
@@ -4682,11 +4711,11 @@
       </c>
       <c r="C37">
         <f>Unread!D37</f>
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D37">
         <f>Unread!E37</f>
-        <v>2.1929824561403508E-2</v>
+        <v>2.2321428571428572E-2</v>
       </c>
       <c r="E37" t="str">
         <f>Unread!F37</f>
@@ -4696,19 +4725,19 @@
     <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>Unread!A38</f>
-        <v>Markings (Dag)</v>
+        <v xml:space="preserve">Left of Bang: How the Marine Corps' Combat Hunter Program Can Save Your Life  </v>
       </c>
       <c r="B38">
         <f>Unread!C38</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <f>Unread!D38</f>
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="D38">
         <f>Unread!E38</f>
-        <v>2.0942408376963352E-2</v>
+        <v>2.1929824561403508E-2</v>
       </c>
       <c r="E38" t="str">
         <f>Unread!F38</f>
@@ -4718,7 +4747,7 @@
     <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>Unread!A39</f>
-        <v xml:space="preserve">Simplicity: The Freedom of Letting Go  </v>
+        <v>Markings (Dag)</v>
       </c>
       <c r="B39">
         <f>Unread!C39</f>
@@ -4726,11 +4755,11 @@
       </c>
       <c r="C39">
         <f>Unread!D39</f>
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D39">
         <f>Unread!E39</f>
-        <v>2.0833333333333332E-2</v>
+        <v>2.0942408376963352E-2</v>
       </c>
       <c r="E39" t="str">
         <f>Unread!F39</f>
@@ -4740,7 +4769,7 @@
     <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>Unread!A40</f>
-        <v>Dr. Seuss: American Icon</v>
+        <v xml:space="preserve">Simplicity: The Freedom of Letting Go  </v>
       </c>
       <c r="B40">
         <f>Unread!C40</f>
@@ -4748,11 +4777,11 @@
       </c>
       <c r="C40">
         <f>Unread!D40</f>
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D40">
         <f>Unread!E40</f>
-        <v>2.0202020202020204E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E40" t="str">
         <f>Unread!F40</f>
@@ -4762,19 +4791,19 @@
     <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>Unread!A41</f>
-        <v>Promise me Dad</v>
+        <v>Dr. Seuss: American Icon</v>
       </c>
       <c r="B41">
         <f>Unread!C41</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41">
         <f>Unread!D41</f>
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="D41">
         <f>Unread!E41</f>
-        <v>1.937984496124031E-2</v>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="E41" t="str">
         <f>Unread!F41</f>
@@ -4784,19 +4813,19 @@
     <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>Unread!A42</f>
-        <v>Norman Rockwell: A Sixty Year Retrospective</v>
+        <v>Promise me Dad</v>
       </c>
       <c r="B42">
         <f>Unread!C42</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C42">
         <f>Unread!D42</f>
-        <v>157</v>
+        <v>258</v>
       </c>
       <c r="D42">
         <f>Unread!E42</f>
-        <v>1.9108280254777069E-2</v>
+        <v>1.937984496124031E-2</v>
       </c>
       <c r="E42" t="str">
         <f>Unread!F42</f>
@@ -4806,7 +4835,7 @@
     <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>Unread!A43</f>
-        <v xml:space="preserve">The Wisdom of Insecurity  </v>
+        <v>Norman Rockwell: A Sixty Year Retrospective</v>
       </c>
       <c r="B43">
         <f>Unread!C43</f>
@@ -4814,11 +4843,11 @@
       </c>
       <c r="C43">
         <f>Unread!D43</f>
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D43">
         <f>Unread!E43</f>
-        <v>1.8749999999999999E-2</v>
+        <v>1.9108280254777069E-2</v>
       </c>
       <c r="E43" t="str">
         <f>Unread!F43</f>
@@ -4828,19 +4857,19 @@
     <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>Unread!A44</f>
-        <v xml:space="preserve">The Obstacle Is the Way: The Timeless Art of Turning Trials Into Triumph  </v>
+        <v xml:space="preserve">The Wisdom of Insecurity  </v>
       </c>
       <c r="B44">
         <f>Unread!C44</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44">
         <f>Unread!D44</f>
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="D44">
         <f>Unread!E44</f>
-        <v>1.7857142857142856E-2</v>
+        <v>1.8749999999999999E-2</v>
       </c>
       <c r="E44" t="str">
         <f>Unread!F44</f>
@@ -4850,7 +4879,7 @@
     <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>Unread!A45</f>
-        <v>Flight of the Wild Gander</v>
+        <v xml:space="preserve">The Obstacle Is the Way: The Timeless Art of Turning Trials Into Triumph  </v>
       </c>
       <c r="B45">
         <f>Unread!C45</f>
@@ -4858,11 +4887,11 @@
       </c>
       <c r="C45">
         <f>Unread!D45</f>
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D45">
         <f>Unread!E45</f>
-        <v>1.7699115044247787E-2</v>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="E45" t="str">
         <f>Unread!F45</f>
@@ -4872,19 +4901,19 @@
     <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>Unread!A46</f>
-        <v xml:space="preserve">Sprint: How to Solve Big Problems and Test New Ideas in Just Five Days  </v>
+        <v>Flight of the Wild Gander</v>
       </c>
       <c r="B46">
         <f>Unread!C46</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46">
         <f>Unread!D46</f>
-        <v>288</v>
+        <v>226</v>
       </c>
       <c r="D46">
         <f>Unread!E46</f>
-        <v>1.7361111111111112E-2</v>
+        <v>1.7699115044247787E-2</v>
       </c>
       <c r="E46" t="str">
         <f>Unread!F46</f>
@@ -4894,19 +4923,19 @@
     <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>Unread!A47</f>
-        <v>Buddhism: An Introduction and Guide</v>
+        <v xml:space="preserve">Sprint: How to Solve Big Problems and Test New Ideas in Just Five Days  </v>
       </c>
       <c r="B47">
         <f>Unread!C47</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C47">
         <f>Unread!D47</f>
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="D47">
         <f>Unread!E47</f>
-        <v>1.7316017316017316E-2</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="E47" t="str">
         <f>Unread!F47</f>
@@ -4916,19 +4945,19 @@
     <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>Unread!A48</f>
-        <v>The Ransom of Russian Art</v>
+        <v>Buddhism: An Introduction and Guide</v>
       </c>
       <c r="B48">
         <f>Unread!C48</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C48">
         <f>Unread!D48</f>
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="D48">
         <f>Unread!E48</f>
-        <v>1.6574585635359115E-2</v>
+        <v>1.7316017316017316E-2</v>
       </c>
       <c r="E48" t="str">
         <f>Unread!F48</f>
@@ -4938,7 +4967,7 @@
     <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>Unread!A49</f>
-        <v>The Gnostic Gospels.</v>
+        <v>The Ransom of Russian Art</v>
       </c>
       <c r="B49">
         <f>Unread!C49</f>
@@ -4946,11 +4975,11 @@
       </c>
       <c r="C49">
         <f>Unread!D49</f>
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D49">
         <f>Unread!E49</f>
-        <v>1.6483516483516484E-2</v>
+        <v>1.6574585635359115E-2</v>
       </c>
       <c r="E49" t="str">
         <f>Unread!F49</f>
@@ -4960,19 +4989,19 @@
     <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>Unread!A50</f>
-        <v>Tao of Jeet Kune Do</v>
+        <v>The Gnostic Gospels.</v>
       </c>
       <c r="B50">
         <f>Unread!C50</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50">
         <f>Unread!D50</f>
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="D50">
         <f>Unread!E50</f>
-        <v>1.6E-2</v>
+        <v>1.6483516483516484E-2</v>
       </c>
       <c r="E50" t="str">
         <f>Unread!F50</f>
@@ -4982,7 +5011,7 @@
     <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>Unread!A51</f>
-        <v>Myths to Live By</v>
+        <v>Tao of Jeet Kune Do</v>
       </c>
       <c r="B51">
         <f>Unread!C51</f>
@@ -4990,11 +5019,11 @@
       </c>
       <c r="C51">
         <f>Unread!D51</f>
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="D51">
         <f>Unread!E51</f>
-        <v>1.5037593984962405E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E51" t="str">
         <f>Unread!F51</f>
@@ -5004,19 +5033,19 @@
     <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>Unread!A52</f>
-        <v xml:space="preserve">Why Buddhism Is True: The Science and Philosophy of Meditation and Enlightenment  </v>
+        <v>Myths to Live By</v>
       </c>
       <c r="B52">
         <f>Unread!C52</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52">
         <f>Unread!D52</f>
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="D52">
         <f>Unread!E52</f>
-        <v>1.488095238095238E-2</v>
+        <v>1.5037593984962405E-2</v>
       </c>
       <c r="E52" t="str">
         <f>Unread!F52</f>
@@ -5026,19 +5055,19 @@
     <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>Unread!A53</f>
-        <v>Mooney</v>
+        <v xml:space="preserve">Why Buddhism Is True: The Science and Philosophy of Meditation and Enlightenment  </v>
       </c>
       <c r="B53">
         <f>Unread!C53</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C53">
         <f>Unread!D53</f>
-        <v>137</v>
+        <v>336</v>
       </c>
       <c r="D53">
         <f>Unread!E53</f>
-        <v>1.4598540145985401E-2</v>
+        <v>1.488095238095238E-2</v>
       </c>
       <c r="E53" t="str">
         <f>Unread!F53</f>
@@ -5048,19 +5077,19 @@
     <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>Unread!A54</f>
-        <v>Letters from a Stoic</v>
+        <v>Mooney</v>
       </c>
       <c r="B54">
         <f>Unread!C54</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C54">
         <f>Unread!D54</f>
-        <v>276</v>
+        <v>137</v>
       </c>
       <c r="D54">
         <f>Unread!E54</f>
-        <v>1.4492753623188406E-2</v>
+        <v>1.4598540145985401E-2</v>
       </c>
       <c r="E54" t="str">
         <f>Unread!F54</f>
@@ -5070,19 +5099,19 @@
     <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>Unread!A55</f>
-        <v xml:space="preserve">Probably Approximately Correct: Nature's Algorithms for Learning and Prospering in a Complex World  </v>
+        <v>Letters from a Stoic</v>
       </c>
       <c r="B55">
         <f>Unread!C55</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C55">
         <f>Unread!D55</f>
-        <v>208</v>
+        <v>276</v>
       </c>
       <c r="D55">
         <f>Unread!E55</f>
-        <v>1.4423076923076924E-2</v>
+        <v>1.4492753623188406E-2</v>
       </c>
       <c r="E55" t="str">
         <f>Unread!F55</f>
@@ -5092,7 +5121,7 @@
     <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>Unread!A56</f>
-        <v>The Penguin Guide to the United States Constitution</v>
+        <v xml:space="preserve">Probably Approximately Correct: Nature's Algorithms for Learning and Prospering in a Complex World  </v>
       </c>
       <c r="B56">
         <f>Unread!C56</f>
@@ -5100,11 +5129,11 @@
       </c>
       <c r="C56">
         <f>Unread!D56</f>
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D56">
         <f>Unread!E56</f>
-        <v>1.4084507042253521E-2</v>
+        <v>1.4423076923076924E-2</v>
       </c>
       <c r="E56" t="str">
         <f>Unread!F56</f>
@@ -5114,7 +5143,7 @@
     <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>Unread!A57</f>
-        <v>Rifleman Dodd</v>
+        <v>The Penguin Guide to the United States Constitution</v>
       </c>
       <c r="B57">
         <f>Unread!C57</f>
@@ -5122,11 +5151,11 @@
       </c>
       <c r="C57">
         <f>Unread!D57</f>
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D57">
         <f>Unread!E57</f>
-        <v>1.3636363636363636E-2</v>
+        <v>1.4084507042253521E-2</v>
       </c>
       <c r="E57" t="str">
         <f>Unread!F57</f>
@@ -5136,19 +5165,19 @@
     <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>Unread!A58</f>
-        <v>The Thirteenth Turn: A History of the Noose</v>
+        <v>Rifleman Dodd</v>
       </c>
       <c r="B58">
         <f>Unread!C58</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C58">
         <f>Unread!D58</f>
-        <v>368</v>
+        <v>220</v>
       </c>
       <c r="D58">
         <f>Unread!E58</f>
-        <v>1.358695652173913E-2</v>
+        <v>1.3636363636363636E-2</v>
       </c>
       <c r="E58" t="str">
         <f>Unread!F58</f>
@@ -5158,19 +5187,19 @@
     <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>Unread!A59</f>
-        <v xml:space="preserve">How We Decide  </v>
+        <v>The Thirteenth Turn: A History of the Noose</v>
       </c>
       <c r="B59">
         <f>Unread!C59</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C59">
         <f>Unread!D59</f>
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="D59">
         <f>Unread!E59</f>
-        <v>1.2500000000000001E-2</v>
+        <v>1.358695652173913E-2</v>
       </c>
       <c r="E59" t="str">
         <f>Unread!F59</f>
@@ -5180,15 +5209,15 @@
     <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>Unread!A60</f>
-        <v>Finite and Infinite Games</v>
+        <v xml:space="preserve">How We Decide  </v>
       </c>
       <c r="B60">
         <f>Unread!C60</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C60">
         <f>Unread!D60</f>
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="D60">
         <f>Unread!E60</f>
@@ -5202,19 +5231,19 @@
     <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>Unread!A61</f>
-        <v xml:space="preserve">The Bread Baker's Apprentice: Mastering the Art of Extraordinary Bread  </v>
+        <v>Finite and Infinite Games</v>
       </c>
       <c r="B61">
         <f>Unread!C61</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C61">
         <f>Unread!D61</f>
-        <v>336</v>
+        <v>160</v>
       </c>
       <c r="D61">
         <f>Unread!E61</f>
-        <v>1.1904761904761904E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="E61" t="str">
         <f>Unread!F61</f>
@@ -5224,19 +5253,19 @@
     <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f>Unread!A62</f>
-        <v>Backbone</v>
+        <v xml:space="preserve">The Bread Baker's Apprentice: Mastering the Art of Extraordinary Bread  </v>
       </c>
       <c r="B62">
         <f>Unread!C62</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C62">
         <f>Unread!D62</f>
-        <v>256</v>
+        <v>336</v>
       </c>
       <c r="D62">
         <f>Unread!E62</f>
-        <v>1.171875E-2</v>
+        <v>1.1904761904761904E-2</v>
       </c>
       <c r="E62" t="str">
         <f>Unread!F62</f>
@@ -5246,7 +5275,7 @@
     <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>Unread!A63</f>
-        <v>Johnny Got His Gun</v>
+        <v>Backbone</v>
       </c>
       <c r="B63">
         <f>Unread!C63</f>
@@ -5268,19 +5297,19 @@
     <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>Unread!A64</f>
-        <v>The Hero with a Thousand Faces</v>
+        <v>Johnny Got His Gun</v>
       </c>
       <c r="B64">
         <f>Unread!C64</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C64">
         <f>Unread!D64</f>
-        <v>432</v>
+        <v>256</v>
       </c>
       <c r="D64">
         <f>Unread!E64</f>
-        <v>1.1574074074074073E-2</v>
+        <v>1.171875E-2</v>
       </c>
       <c r="E64" t="str">
         <f>Unread!F64</f>
@@ -5290,19 +5319,19 @@
     <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f>Unread!A65</f>
-        <v xml:space="preserve">Mind in the Balance: Meditation in Science, Buddhism, and Christianity  </v>
+        <v>The Hero with a Thousand Faces</v>
       </c>
       <c r="B65">
         <f>Unread!C65</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C65">
         <f>Unread!D65</f>
-        <v>264</v>
+        <v>432</v>
       </c>
       <c r="D65">
         <f>Unread!E65</f>
-        <v>1.1363636363636364E-2</v>
+        <v>1.1574074074074073E-2</v>
       </c>
       <c r="E65" t="str">
         <f>Unread!F65</f>
@@ -5312,15 +5341,15 @@
     <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f>Unread!A66</f>
-        <v>The Elements of Journalism</v>
+        <v xml:space="preserve">Mind in the Balance: Meditation in Science, Buddhism, and Christianity  </v>
       </c>
       <c r="B66">
         <f>Unread!C66</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66">
         <f>Unread!D66</f>
-        <v>352</v>
+        <v>264</v>
       </c>
       <c r="D66">
         <f>Unread!E66</f>
@@ -5334,19 +5363,19 @@
     <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f>Unread!A67</f>
-        <v>Custer's Last Stand: The Anatomy of an American Myth</v>
+        <v>The Elements of Journalism</v>
       </c>
       <c r="B67">
         <f>Unread!C67</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C67">
         <f>Unread!D67</f>
-        <v>266</v>
+        <v>352</v>
       </c>
       <c r="D67">
         <f>Unread!E67</f>
-        <v>1.1278195488721804E-2</v>
+        <v>1.1363636363636364E-2</v>
       </c>
       <c r="E67" t="str">
         <f>Unread!F67</f>
@@ -5356,7 +5385,7 @@
     <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>Unread!A68</f>
-        <v>History of Nevada: Elliot</v>
+        <v>Custer's Last Stand: The Anatomy of an American Myth</v>
       </c>
       <c r="B68">
         <f>Unread!C68</f>
@@ -5364,11 +5393,11 @@
       </c>
       <c r="C68">
         <f>Unread!D68</f>
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="D68">
         <f>Unread!E68</f>
-        <v>1.0830324909747292E-2</v>
+        <v>1.1278195488721804E-2</v>
       </c>
       <c r="E68" t="str">
         <f>Unread!F68</f>
@@ -5378,19 +5407,19 @@
     <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>Unread!A69</f>
-        <v>One Man Against the World</v>
+        <v>History of Nevada: Elliot</v>
       </c>
       <c r="B69">
         <f>Unread!C69</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C69">
         <f>Unread!D69</f>
-        <v>384</v>
+        <v>277</v>
       </c>
       <c r="D69">
         <f>Unread!E69</f>
-        <v>1.0416666666666666E-2</v>
+        <v>1.0830324909747292E-2</v>
       </c>
       <c r="E69" t="str">
         <f>Unread!F69</f>
@@ -5400,7 +5429,7 @@
     <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f>Unread!A70</f>
-        <v xml:space="preserve">The Gatekeepers: How the White House Chiefs of Staff Define Every Presidency  </v>
+        <v>One Man Against the World</v>
       </c>
       <c r="B70">
         <f>Unread!C70</f>
@@ -5422,15 +5451,15 @@
     <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f>Unread!A71</f>
-        <v xml:space="preserve">Storm in a Teacup: The Physics of Everyday Life  </v>
+        <v xml:space="preserve">The Gatekeepers: How the White House Chiefs of Staff Define Every Presidency  </v>
       </c>
       <c r="B71">
         <f>Unread!C71</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C71">
         <f>Unread!D71</f>
-        <v>288</v>
+        <v>384</v>
       </c>
       <c r="D71">
         <f>Unread!E71</f>
@@ -5444,7 +5473,7 @@
     <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f>Unread!A72</f>
-        <v>14-18: Understanding the Great War</v>
+        <v xml:space="preserve">Storm in a Teacup: The Physics of Everyday Life  </v>
       </c>
       <c r="B72">
         <f>Unread!C72</f>
@@ -5466,19 +5495,19 @@
     <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f>Unread!A73</f>
-        <v>The Age of American Unreason</v>
+        <v>14-18: Understanding the Great War</v>
       </c>
       <c r="B73">
         <f>Unread!C73</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C73">
         <f>Unread!D73</f>
-        <v>400</v>
+        <v>288</v>
       </c>
       <c r="D73">
         <f>Unread!E73</f>
-        <v>0.01</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E73" t="str">
         <f>Unread!F73</f>
@@ -5488,15 +5517,15 @@
     <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f>Unread!A74</f>
-        <v>Ohio A Personal Portrait of the 17th State</v>
+        <v>The Age of American Unreason</v>
       </c>
       <c r="B74">
         <f>Unread!C74</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C74">
         <f>Unread!D74</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D74">
         <f>Unread!E74</f>
@@ -5510,15 +5539,15 @@
     <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f>Unread!A75</f>
-        <v>Guidebook for Marines</v>
+        <v>Ohio A Personal Portrait of the 17th State</v>
       </c>
       <c r="B75">
         <f>Unread!C75</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C75">
         <f>Unread!D75</f>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D75">
         <f>Unread!E75</f>
@@ -5532,7 +5561,7 @@
     <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f>Unread!A76</f>
-        <v xml:space="preserve">The Gamble: General Petraeus and the American Military Adventure in Iraq  </v>
+        <v>Guidebook for Marines</v>
       </c>
       <c r="B76">
         <f>Unread!C76</f>
@@ -5540,11 +5569,11 @@
       </c>
       <c r="C76">
         <f>Unread!D76</f>
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="D76">
         <f>Unread!E76</f>
-        <v>9.6153846153846159E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E76" t="str">
         <f>Unread!F76</f>
@@ -5554,15 +5583,15 @@
     <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f>Unread!A77</f>
-        <v>The Alchemist</v>
+        <v xml:space="preserve">The Gamble: General Petraeus and the American Military Adventure in Iraq  </v>
       </c>
       <c r="B77">
         <f>Unread!C77</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C77">
         <f>Unread!D77</f>
-        <v>208</v>
+        <v>416</v>
       </c>
       <c r="D77">
         <f>Unread!E77</f>
@@ -5576,7 +5605,7 @@
     <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f>Unread!A78</f>
-        <v xml:space="preserve">Physics Made Simple: A Complete Introduction to the Basic Principles of This Fundamental Science (Made    - Simple (Broadway Books))  </v>
+        <v>The Alchemist</v>
       </c>
       <c r="B78">
         <f>Unread!C78</f>
@@ -5598,15 +5627,15 @@
     <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f>Unread!A79</f>
-        <v>Knocking on Labor's Door</v>
+        <v xml:space="preserve">Physics Made Simple: A Complete Introduction to the Basic Principles of This Fundamental Science (Made    - Simple (Broadway Books))  </v>
       </c>
       <c r="B79">
         <f>Unread!C79</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C79">
         <f>Unread!D79</f>
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="D79">
         <f>Unread!E79</f>
@@ -5620,7 +5649,7 @@
     <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f>Unread!A80</f>
-        <v>Boots and Saddles</v>
+        <v>Knocking on Labor's Door</v>
       </c>
       <c r="B80">
         <f>Unread!C80</f>
@@ -5628,11 +5657,11 @@
       </c>
       <c r="C80">
         <f>Unread!D80</f>
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D80">
         <f>Unread!E80</f>
-        <v>9.4936708860759497E-3</v>
+        <v>9.6153846153846159E-3</v>
       </c>
       <c r="E80" t="str">
         <f>Unread!F80</f>
@@ -5642,19 +5671,19 @@
     <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f>Unread!A81</f>
-        <v>Bringing up Bebe</v>
+        <v>Boots and Saddles</v>
       </c>
       <c r="B81">
         <f>Unread!C81</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81">
         <f>Unread!D81</f>
-        <v>432</v>
+        <v>316</v>
       </c>
       <c r="D81">
         <f>Unread!E81</f>
-        <v>9.2592592592592587E-3</v>
+        <v>9.4936708860759497E-3</v>
       </c>
       <c r="E81" t="str">
         <f>Unread!F81</f>
@@ -5664,7 +5693,7 @@
     <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f>Unread!A82</f>
-        <v xml:space="preserve">I Am a Strange Loop  </v>
+        <v>Bringing up Bebe</v>
       </c>
       <c r="B82">
         <f>Unread!C82</f>
@@ -5672,11 +5701,11 @@
       </c>
       <c r="C82">
         <f>Unread!D82</f>
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D82">
         <f>Unread!E82</f>
-        <v>9.1743119266055051E-3</v>
+        <v>9.2592592592592587E-3</v>
       </c>
       <c r="E82" t="str">
         <f>Unread!F82</f>
@@ -5686,7 +5715,7 @@
     <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f>Unread!A83</f>
-        <v>The Black Swan</v>
+        <v xml:space="preserve">I Am a Strange Loop  </v>
       </c>
       <c r="B83">
         <f>Unread!C83</f>
@@ -5694,11 +5723,11 @@
       </c>
       <c r="C83">
         <f>Unread!D83</f>
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="D83">
         <f>Unread!E83</f>
-        <v>9.0090090090090089E-3</v>
+        <v>9.1743119266055051E-3</v>
       </c>
       <c r="E83" t="str">
         <f>Unread!F83</f>
@@ -5708,19 +5737,19 @@
     <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f>Unread!A84</f>
-        <v xml:space="preserve">Eichmann in Jerusalem: A Report on the Banality of Evil (Penguin Classics)  </v>
+        <v>The Black Swan</v>
       </c>
       <c r="B84">
         <f>Unread!C84</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C84">
         <f>Unread!D84</f>
-        <v>336</v>
+        <v>444</v>
       </c>
       <c r="D84">
         <f>Unread!E84</f>
-        <v>8.9285714285714281E-3</v>
+        <v>9.0090090090090089E-3</v>
       </c>
       <c r="E84" t="str">
         <f>Unread!F84</f>
@@ -5730,19 +5759,19 @@
     <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f>Unread!A85</f>
-        <v>The Relativity of Wrong (Asimov)</v>
+        <v xml:space="preserve">Eichmann in Jerusalem: A Report on the Banality of Evil (Penguin Classics)  </v>
       </c>
       <c r="B85">
         <f>Unread!C85</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C85">
         <f>Unread!D85</f>
-        <v>225</v>
+        <v>336</v>
       </c>
       <c r="D85">
         <f>Unread!E85</f>
-        <v>8.8888888888888889E-3</v>
+        <v>8.9285714285714281E-3</v>
       </c>
       <c r="E85" t="str">
         <f>Unread!F85</f>
@@ -5752,19 +5781,19 @@
     <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f>Unread!A86</f>
-        <v>Nuclear Weapons and Coercive Diplomacy</v>
+        <v>The Relativity of Wrong (Asimov)</v>
       </c>
       <c r="B86">
         <f>Unread!C86</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C86">
         <f>Unread!D86</f>
-        <v>344</v>
+        <v>225</v>
       </c>
       <c r="D86">
         <f>Unread!E86</f>
-        <v>8.7209302325581394E-3</v>
+        <v>8.8888888888888889E-3</v>
       </c>
       <c r="E86" t="str">
         <f>Unread!F86</f>
@@ -5774,19 +5803,19 @@
     <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f>Unread!A87</f>
-        <v>A Generation of Sociopaths</v>
+        <v>Nuclear Weapons and Coercive Diplomacy</v>
       </c>
       <c r="B87">
         <f>Unread!C87</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C87">
         <f>Unread!D87</f>
-        <v>464</v>
+        <v>344</v>
       </c>
       <c r="D87">
         <f>Unread!E87</f>
-        <v>8.6206896551724137E-3</v>
+        <v>8.7209302325581394E-3</v>
       </c>
       <c r="E87" t="str">
         <f>Unread!F87</f>
@@ -5796,7 +5825,7 @@
     <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f>Unread!A88</f>
-        <v xml:space="preserve">Abraham Lincoln and the Structure of Reason  </v>
+        <v>A Generation of Sociopaths</v>
       </c>
       <c r="B88">
         <f>Unread!C88</f>
@@ -5818,19 +5847,19 @@
     <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f>Unread!A89</f>
-        <v xml:space="preserve">Silence: A Christian History  </v>
+        <v xml:space="preserve">Abraham Lincoln and the Structure of Reason  </v>
       </c>
       <c r="B89">
         <f>Unread!C89</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C89">
         <f>Unread!D89</f>
-        <v>352</v>
+        <v>464</v>
       </c>
       <c r="D89">
         <f>Unread!E89</f>
-        <v>8.5227272727272721E-3</v>
+        <v>8.6206896551724137E-3</v>
       </c>
       <c r="E89" t="str">
         <f>Unread!F89</f>
@@ -5840,7 +5869,7 @@
     <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f>Unread!A90</f>
-        <v>The Eastern Front 1914-1917</v>
+        <v xml:space="preserve">Silence: A Christian History  </v>
       </c>
       <c r="B90">
         <f>Unread!C90</f>
@@ -5862,19 +5891,19 @@
     <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f>Unread!A91</f>
-        <v>The Battle for God</v>
+        <v>The Eastern Front 1914-1917</v>
       </c>
       <c r="B91">
         <f>Unread!C91</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C91">
         <f>Unread!D91</f>
-        <v>480</v>
+        <v>352</v>
       </c>
       <c r="D91">
         <f>Unread!E91</f>
-        <v>8.3333333333333332E-3</v>
+        <v>8.5227272727272721E-3</v>
       </c>
       <c r="E91" t="str">
         <f>Unread!F91</f>
@@ -5884,15 +5913,15 @@
     <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f>Unread!A92</f>
-        <v>Warriors and Citizens</v>
+        <v>The Battle for God</v>
       </c>
       <c r="B92">
         <f>Unread!C92</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C92">
         <f>Unread!D92</f>
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D92">
         <f>Unread!E92</f>
@@ -5906,15 +5935,15 @@
     <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f>Unread!A93</f>
-        <v>Bible Nation</v>
+        <v>Warriors and Citizens</v>
       </c>
       <c r="B93">
         <f>Unread!C93</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C93">
         <f>Unread!D93</f>
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="D93">
         <f>Unread!E93</f>
@@ -5928,19 +5957,19 @@
     <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f>Unread!A94</f>
-        <v>Leaders Eat Last</v>
+        <v>Bible Nation</v>
       </c>
       <c r="B94">
         <f>Unread!C94</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94">
         <f>Unread!D94</f>
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="D94">
         <f>Unread!E94</f>
-        <v>8.152173913043478E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E94" t="str">
         <f>Unread!F94</f>
@@ -5950,7 +5979,7 @@
     <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f>Unread!A95</f>
-        <v>Legionnaire</v>
+        <v>Leaders Eat Last</v>
       </c>
       <c r="B95">
         <f>Unread!C95</f>
@@ -5972,7 +6001,7 @@
     <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f>Unread!A96</f>
-        <v>Empire of the Summer Moon: Quanah Parker and the Rise and Fall of the Comanche's, the Most Powerful</v>
+        <v>Legionnaire</v>
       </c>
       <c r="B96">
         <f>Unread!C96</f>
@@ -5980,11 +6009,11 @@
       </c>
       <c r="C96">
         <f>Unread!D96</f>
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D96">
         <f>Unread!E96</f>
-        <v>8.0862533692722376E-3</v>
+        <v>8.152173913043478E-3</v>
       </c>
       <c r="E96" t="str">
         <f>Unread!F96</f>
@@ -5994,19 +6023,19 @@
     <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f>Unread!A97</f>
-        <v>Thinking Fast and Slow</v>
+        <v>Empire of the Summer Moon: Quanah Parker and the Rise and Fall of the Comanche's, the Most Powerful</v>
       </c>
       <c r="B97">
         <f>Unread!C97</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C97">
         <f>Unread!D97</f>
-        <v>499</v>
+        <v>371</v>
       </c>
       <c r="D97">
         <f>Unread!E97</f>
-        <v>8.0160320641282558E-3</v>
+        <v>8.0862533692722376E-3</v>
       </c>
       <c r="E97" t="str">
         <f>Unread!F97</f>
@@ -6016,19 +6045,19 @@
     <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f>Unread!A98</f>
-        <v xml:space="preserve">Living Buddha, Living Christ 10th Anniversary Edition  </v>
+        <v>Thinking Fast and Slow</v>
       </c>
       <c r="B98">
         <f>Unread!C98</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C98">
         <f>Unread!D98</f>
-        <v>250</v>
+        <v>499</v>
       </c>
       <c r="D98">
         <f>Unread!E98</f>
-        <v>8.0000000000000002E-3</v>
+        <v>8.0160320641282558E-3</v>
       </c>
       <c r="E98" t="str">
         <f>Unread!F98</f>
@@ -6038,19 +6067,19 @@
     <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f>Unread!A99</f>
-        <v>Jerusalem: One City Three Faiths</v>
+        <v xml:space="preserve">Living Buddha, Living Christ 10th Anniversary Edition  </v>
       </c>
       <c r="B99">
         <f>Unread!C99</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C99">
         <f>Unread!D99</f>
-        <v>512</v>
+        <v>250</v>
       </c>
       <c r="D99">
         <f>Unread!E99</f>
-        <v>7.8125E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E99" t="str">
         <f>Unread!F99</f>
@@ -6060,7 +6089,7 @@
     <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f>Unread!A100</f>
-        <v>Fiasco</v>
+        <v>Jerusalem: One City Three Faiths</v>
       </c>
       <c r="B100">
         <f>Unread!C100</f>
@@ -6082,19 +6111,19 @@
     <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f>Unread!A101</f>
-        <v>Wrapped in the Flag: A Personal History of America's Radical Right</v>
+        <v>Fiasco</v>
       </c>
       <c r="B101">
         <f>Unread!C101</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C101">
         <f>Unread!D101</f>
-        <v>264</v>
+        <v>512</v>
       </c>
       <c r="D101">
         <f>Unread!E101</f>
-        <v>7.575757575757576E-3</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="E101" t="str">
         <f>Unread!F101</f>
@@ -6104,19 +6133,19 @@
     <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f>Unread!A102</f>
-        <v xml:space="preserve">War Against War: The American Fight for Peace, 1914-1918    </v>
+        <v>Wrapped in the Flag: A Personal History of America's Radical Right</v>
       </c>
       <c r="B102">
         <f>Unread!C102</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C102">
         <f>Unread!D102</f>
-        <v>400</v>
+        <v>264</v>
       </c>
       <c r="D102">
         <f>Unread!E102</f>
-        <v>7.4999999999999997E-3</v>
+        <v>7.575757575757576E-3</v>
       </c>
       <c r="E102" t="str">
         <f>Unread!F102</f>
@@ -6126,19 +6155,19 @@
     <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f>Unread!A103</f>
-        <v>The Information: A History, A Theory, A Flood</v>
+        <v xml:space="preserve">War Against War: The American Fight for Peace, 1914-1918    </v>
       </c>
       <c r="B103">
         <f>Unread!C103</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C103">
         <f>Unread!D103</f>
-        <v>544</v>
+        <v>400</v>
       </c>
       <c r="D103">
         <f>Unread!E103</f>
-        <v>7.3529411764705881E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="E103" t="str">
         <f>Unread!F103</f>
@@ -6148,19 +6177,19 @@
     <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f>Unread!A104</f>
-        <v>On Killing</v>
+        <v>The Information: A History, A Theory, A Flood</v>
       </c>
       <c r="B104">
         <f>Unread!C104</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C104">
         <f>Unread!D104</f>
-        <v>416</v>
+        <v>544</v>
       </c>
       <c r="D104">
         <f>Unread!E104</f>
-        <v>7.2115384615384619E-3</v>
+        <v>7.3529411764705881E-3</v>
       </c>
       <c r="E104" t="str">
         <f>Unread!F104</f>
@@ -6170,19 +6199,19 @@
     <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f>Unread!A105</f>
-        <v>Don't Know Much About Mythology</v>
+        <v>On Killing</v>
       </c>
       <c r="B105">
         <f>Unread!C105</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C105">
         <f>Unread!D105</f>
-        <v>560</v>
+        <v>416</v>
       </c>
       <c r="D105">
         <f>Unread!E105</f>
-        <v>7.1428571428571426E-3</v>
+        <v>7.2115384615384619E-3</v>
       </c>
       <c r="E105" t="str">
         <f>Unread!F105</f>
@@ -6192,19 +6221,19 @@
     <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f>Unread!A106</f>
-        <v>A Saturnalia of Bunk</v>
+        <v>Don't Know Much About Mythology</v>
       </c>
       <c r="B106">
         <f>Unread!C106</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C106">
         <f>Unread!D106</f>
-        <v>284</v>
+        <v>560</v>
       </c>
       <c r="D106">
         <f>Unread!E106</f>
-        <v>7.0422535211267607E-3</v>
+        <v>7.1428571428571426E-3</v>
       </c>
       <c r="E106" t="str">
         <f>Unread!F106</f>
@@ -6214,7 +6243,7 @@
     <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f>Unread!A107</f>
-        <v xml:space="preserve">The Psychopath Test: A Journey Through the Madness Industry  </v>
+        <v>A Saturnalia of Bunk</v>
       </c>
       <c r="B107">
         <f>Unread!C107</f>
@@ -6222,11 +6251,11 @@
       </c>
       <c r="C107">
         <f>Unread!D107</f>
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D107">
         <f>Unread!E107</f>
-        <v>6.9444444444444441E-3</v>
+        <v>7.0422535211267607E-3</v>
       </c>
       <c r="E107" t="str">
         <f>Unread!F107</f>
@@ -6236,19 +6265,19 @@
     <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f>Unread!A108</f>
-        <v>A Testament of Hope: The Essential Writings and Speeches (MLK)</v>
+        <v xml:space="preserve">The Psychopath Test: A Journey Through the Madness Industry  </v>
       </c>
       <c r="B108">
         <f>Unread!C108</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C108">
         <f>Unread!D108</f>
-        <v>736</v>
+        <v>288</v>
       </c>
       <c r="D108">
         <f>Unread!E108</f>
-        <v>6.793478260869565E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="E108" t="str">
         <f>Unread!F108</f>
@@ -6258,19 +6287,19 @@
     <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f>Unread!A109</f>
-        <v xml:space="preserve">History of Religion a Sketch of Primitive Religious Beliefs and Practices, and of the Origin and Character of the Great Systems  </v>
+        <v>A Testament of Hope: The Essential Writings and Speeches (MLK)</v>
       </c>
       <c r="B109">
         <f>Unread!C109</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C109">
         <f>Unread!D109</f>
-        <v>148</v>
+        <v>736</v>
       </c>
       <c r="D109">
         <f>Unread!E109</f>
-        <v>6.7567567567567571E-3</v>
+        <v>6.793478260869565E-3</v>
       </c>
       <c r="E109" t="str">
         <f>Unread!F109</f>
@@ -6280,19 +6309,19 @@
     <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f>Unread!A110</f>
-        <v>The Big Bonanza</v>
+        <v xml:space="preserve">History of Religion a Sketch of Primitive Religious Beliefs and Practices, and of the Origin and Character of the Great Systems  </v>
       </c>
       <c r="B110">
         <f>Unread!C110</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C110">
         <f>Unread!D110</f>
-        <v>450</v>
+        <v>148</v>
       </c>
       <c r="D110">
         <f>Unread!E110</f>
-        <v>6.6666666666666671E-3</v>
+        <v>6.7567567567567571E-3</v>
       </c>
       <c r="E110" t="str">
         <f>Unread!F110</f>
@@ -6302,7 +6331,7 @@
     <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f>Unread!A111</f>
-        <v>The New Knighthood</v>
+        <v>The Big Bonanza</v>
       </c>
       <c r="B111">
         <f>Unread!C111</f>
@@ -6310,11 +6339,11 @@
       </c>
       <c r="C111">
         <f>Unread!D111</f>
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="D111">
         <f>Unread!E111</f>
-        <v>6.4655172413793103E-3</v>
+        <v>6.6666666666666671E-3</v>
       </c>
       <c r="E111" t="str">
         <f>Unread!F111</f>
@@ -6324,7 +6353,7 @@
     <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f>Unread!A112</f>
-        <v>Hard Times</v>
+        <v>The New Knighthood</v>
       </c>
       <c r="B112">
         <f>Unread!C112</f>
@@ -6332,11 +6361,11 @@
       </c>
       <c r="C112">
         <f>Unread!D112</f>
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="D112">
         <f>Unread!E112</f>
-        <v>6.2500000000000003E-3</v>
+        <v>6.4655172413793103E-3</v>
       </c>
       <c r="E112" t="str">
         <f>Unread!F112</f>
@@ -6346,7 +6375,7 @@
     <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f>Unread!A113</f>
-        <v xml:space="preserve">Black Earth: The Holocaust as History and Warning  </v>
+        <v>Hard Times</v>
       </c>
       <c r="B113">
         <f>Unread!C113</f>
@@ -6368,7 +6397,7 @@
     <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f>Unread!A114</f>
-        <v xml:space="preserve">Liberty or Death: The French Revolution </v>
+        <v xml:space="preserve">Black Earth: The Holocaust as History and Warning  </v>
       </c>
       <c r="B114">
         <f>Unread!C114</f>
@@ -6376,11 +6405,11 @@
       </c>
       <c r="C114">
         <f>Unread!D114</f>
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D114">
         <f>Unread!E114</f>
-        <v>6.1475409836065573E-3</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="E114" t="str">
         <f>Unread!F114</f>
@@ -6390,19 +6419,19 @@
     <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f>Unread!A115</f>
-        <v>How Democracies Die</v>
+        <v xml:space="preserve">Liberty or Death: The French Revolution </v>
       </c>
       <c r="B115">
         <f>Unread!C115</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C115">
         <f>Unread!D115</f>
-        <v>332</v>
+        <v>488</v>
       </c>
       <c r="D115">
         <f>Unread!E115</f>
-        <v>6.024096385542169E-3</v>
+        <v>6.1475409836065573E-3</v>
       </c>
       <c r="E115" t="str">
         <f>Unread!F115</f>
@@ -6412,7 +6441,7 @@
     <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f>Unread!A116</f>
-        <v>Venetian Masque</v>
+        <v>How Democracies Die</v>
       </c>
       <c r="B116">
         <f>Unread!C116</f>
@@ -6434,7 +6463,7 @@
     <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f>Unread!A117</f>
-        <v>A Pictorial History of the Great Lakes</v>
+        <v>Venetian Masque</v>
       </c>
       <c r="B117">
         <f>Unread!C117</f>
@@ -6442,11 +6471,11 @@
       </c>
       <c r="C117">
         <f>Unread!D117</f>
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="D117">
         <f>Unread!E117</f>
-        <v>5.8139534883720929E-3</v>
+        <v>6.024096385542169E-3</v>
       </c>
       <c r="E117" t="str">
         <f>Unread!F117</f>
@@ -6456,19 +6485,19 @@
     <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f>Unread!A118</f>
-        <v>A Man in Full</v>
+        <v>A Pictorial History of the Great Lakes</v>
       </c>
       <c r="B118">
         <f>Unread!C118</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C118">
         <f>Unread!D118</f>
-        <v>704</v>
+        <v>344</v>
       </c>
       <c r="D118">
         <f>Unread!E118</f>
-        <v>5.681818181818182E-3</v>
+        <v>5.8139534883720929E-3</v>
       </c>
       <c r="E118" t="str">
         <f>Unread!F118</f>
@@ -6478,19 +6507,19 @@
     <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f>Unread!A119</f>
-        <v>The Last King</v>
+        <v>A Man in Full</v>
       </c>
       <c r="B119">
         <f>Unread!C119</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C119">
         <f>Unread!D119</f>
-        <v>366</v>
+        <v>704</v>
       </c>
       <c r="D119">
         <f>Unread!E119</f>
-        <v>5.4644808743169399E-3</v>
+        <v>5.681818181818182E-3</v>
       </c>
       <c r="E119" t="str">
         <f>Unread!F119</f>
@@ -6500,19 +6529,19 @@
     <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f>Unread!A120</f>
-        <v xml:space="preserve">Tools of Titans: The Tactics, Routines, and Habits of Billionaires, Icons, and World-Class Performers  </v>
+        <v>The Last King</v>
       </c>
       <c r="B120">
         <f>Unread!C120</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C120">
         <f>Unread!D120</f>
-        <v>736</v>
+        <v>366</v>
       </c>
       <c r="D120">
         <f>Unread!E120</f>
-        <v>5.434782608695652E-3</v>
+        <v>5.4644808743169399E-3</v>
       </c>
       <c r="E120" t="str">
         <f>Unread!F120</f>
@@ -6522,19 +6551,19 @@
     <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f>Unread!A121</f>
-        <v xml:space="preserve">Nom De Plume: A (Secret) History of Pseudonyms </v>
+        <v xml:space="preserve">Tools of Titans: The Tactics, Routines, and Habits of Billionaires, Icons, and World-Class Performers  </v>
       </c>
       <c r="B121">
         <f>Unread!C121</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C121">
         <f>Unread!D121</f>
-        <v>373</v>
+        <v>736</v>
       </c>
       <c r="D121">
         <f>Unread!E121</f>
-        <v>5.3619302949061663E-3</v>
+        <v>5.434782608695652E-3</v>
       </c>
       <c r="E121" t="str">
         <f>Unread!F121</f>
@@ -6544,19 +6573,19 @@
     <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f>Unread!A122</f>
-        <v>Enemies: A History of the FBI</v>
+        <v xml:space="preserve">Nom De Plume: A (Secret) History of Pseudonyms </v>
       </c>
       <c r="B122">
         <f>Unread!C122</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C122">
         <f>Unread!D122</f>
-        <v>560</v>
+        <v>373</v>
       </c>
       <c r="D122">
         <f>Unread!E122</f>
-        <v>5.3571428571428572E-3</v>
+        <v>5.3619302949061663E-3</v>
       </c>
       <c r="E122" t="str">
         <f>Unread!F122</f>
@@ -6566,7 +6595,7 @@
     <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f>Unread!A123</f>
-        <v>Don't Know Much About the Bible</v>
+        <v>Enemies: A History of the FBI</v>
       </c>
       <c r="B123">
         <f>Unread!C123</f>
@@ -6588,7 +6617,7 @@
     <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f>Unread!A124</f>
-        <v xml:space="preserve">The Origins of Totalitarianism </v>
+        <v>Don't Know Much About the Bible</v>
       </c>
       <c r="B124">
         <f>Unread!C124</f>
@@ -6596,11 +6625,11 @@
       </c>
       <c r="C124">
         <f>Unread!D124</f>
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="D124">
         <f>Unread!E124</f>
-        <v>5.208333333333333E-3</v>
+        <v>5.3571428571428572E-3</v>
       </c>
       <c r="E124" t="str">
         <f>Unread!F124</f>
@@ -6610,15 +6639,15 @@
     <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f>Unread!A125</f>
-        <v>How Music Works</v>
+        <v xml:space="preserve">The Origins of Totalitarianism </v>
       </c>
       <c r="B125">
         <f>Unread!C125</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C125">
         <f>Unread!D125</f>
-        <v>384</v>
+        <v>576</v>
       </c>
       <c r="D125">
         <f>Unread!E125</f>
@@ -6632,19 +6661,19 @@
     <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f>Unread!A126</f>
-        <v>The Great Unknown</v>
+        <v>How Music Works</v>
       </c>
       <c r="B126">
         <f>Unread!C126</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C126">
         <f>Unread!D126</f>
-        <v>200</v>
+        <v>384</v>
       </c>
       <c r="D126">
         <f>Unread!E126</f>
-        <v>5.0000000000000001E-3</v>
+        <v>5.208333333333333E-3</v>
       </c>
       <c r="E126" t="str">
         <f>Unread!F126</f>
@@ -6654,15 +6683,15 @@
     <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f>Unread!A127</f>
-        <v>The Way of the Knife</v>
+        <v>The Great Unknown</v>
       </c>
       <c r="B127">
         <f>Unread!C127</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C127">
         <f>Unread!D127</f>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D127">
         <f>Unread!E127</f>
@@ -6676,7 +6705,7 @@
     <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f>Unread!A128</f>
-        <v>Biblical Literalism</v>
+        <v>The Way of the Knife</v>
       </c>
       <c r="B128">
         <f>Unread!C128</f>
@@ -6684,11 +6713,11 @@
       </c>
       <c r="C128">
         <f>Unread!D128</f>
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="D128">
         <f>Unread!E128</f>
-        <v>4.807692307692308E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E128" t="str">
         <f>Unread!F128</f>
@@ -6698,7 +6727,7 @@
     <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f>Unread!A129</f>
-        <v xml:space="preserve">Red Notice: A True Story of High Finance, Murder, and One Man’s Fight for Justice  </v>
+        <v>Biblical Literalism</v>
       </c>
       <c r="B129">
         <f>Unread!C129</f>
@@ -6775,10 +6804,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6788,7 +6817,7 @@
         <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6796,7 +6825,7 @@
         <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6804,7 +6833,7 @@
         <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6812,12 +6841,22 @@
         <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/Book Ranking.xlsx
+++ b/Book Ranking.xlsx
@@ -4,24 +4,29 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Unread" sheetId="1" r:id="rId1"/>
-    <sheet name="Read" sheetId="3" r:id="rId2"/>
-    <sheet name="Dropdown" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
+    <sheet name="Unread" sheetId="1" r:id="rId2"/>
+    <sheet name="Read" sheetId="3" r:id="rId3"/>
+    <sheet name="Dropdown" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Read!$A$2:$E$131</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Unread!$A$2:$F$231</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Read!$A$2:$E$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Unread!$A$2:$F$231</definedName>
+    <definedName name="Book">Unread!$A$2:$F$142</definedName>
     <definedName name="Media">Dropdown!$C$2:$C$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="17" r:id="rId5"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="161">
   <si>
     <t>Book Ranking</t>
   </si>
@@ -492,6 +497,18 @@
   </si>
   <si>
     <t>Online Text</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -538,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -552,11 +569,22 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -567,6 +595,2853 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="43133.579439236113" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="217">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A2:F219" sheet="Unread"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Title" numFmtId="0">
+      <sharedItems containsBlank="1" count="142">
+        <s v="The Rubaiyat"/>
+        <s v="World War I at Home"/>
+        <s v="World War I (Baldwin)"/>
+        <s v="Cavalry of the Clouds"/>
+        <s v="Undertones of War"/>
+        <s v="Sinking of the Titanic"/>
+        <s v="History of the World War (March)"/>
+        <s v="World War for Humanity"/>
+        <s v="School for Soldiers"/>
+        <s v="The First World War (Strachan)"/>
+        <s v="Soldier from the Wars Returning (Carrington)"/>
+        <s v="Randomness and Mathematical Proof (Report)"/>
+        <s v="Enhancing our Grasp of Complex Arguments (Paper)"/>
+        <s v="Algorithmic Accountability: On the Investigation of Black Boxes"/>
+        <s v="Algorithmic bias (W)"/>
+        <s v="The Waste Land: Poem"/>
+        <s v="Zoar (Pamphlet)"/>
+        <s v="Wisdom and the Context of Knowledge: Knowing that One Doesn't Know: Meacham (Report)"/>
+        <s v="Dhammapada"/>
+        <s v="Self-organised criticality-what it is and what it isn't (Report)"/>
+        <s v="Power laws, Pareto distributinos and Zipf's Law (Report)"/>
+        <s v="On the Decay of the Art of Lying  "/>
+        <s v="A Mathematica Theory of Communication: CE Shannon (Report)"/>
+        <s v="Guerilla Warfare Mao"/>
+        <s v="Thermodynamics"/>
+        <s v="Campaigns of General Custer"/>
+        <s v="A Monk's Guide to a Clean House"/>
+        <s v="Maneuver Warfare Handbook"/>
+        <s v="Drop the Rock: Removing Character Defects - Steps Six and Seven  "/>
+        <s v="The Parent's Tao Te Ching"/>
+        <s v="The Gnosis of the Light  "/>
+        <s v="The Elements of Zen"/>
+        <s v="Impeachment: A Citizen's Guide"/>
+        <s v="On Tyranny: Twenty Lessons From the Twentieth Century  "/>
+        <s v="Advice Not Given: A Guide for Getting Over Yourself"/>
+        <s v="Left of Bang: How the Marine Corps' Combat Hunter Program Can Save Your Life  "/>
+        <s v="Markings (Dag)"/>
+        <s v="Simplicity: The Freedom of Letting Go  "/>
+        <s v="Dr. Seuss: American Icon"/>
+        <s v="Promise me Dad"/>
+        <s v="Norman Rockwell: A Sixty Year Retrospective"/>
+        <s v="The Wisdom of Insecurity  "/>
+        <s v="The Obstacle Is the Way: The Timeless Art of Turning Trials Into Triumph  "/>
+        <s v="Flight of the Wild Gander"/>
+        <s v="Sprint: How to Solve Big Problems and Test New Ideas in Just Five Days  "/>
+        <s v="Buddhism: An Introduction and Guide"/>
+        <s v="The Ransom of Russian Art"/>
+        <s v="The Gnostic Gospels."/>
+        <s v="Tao of Jeet Kune Do"/>
+        <s v="Myths to Live By"/>
+        <s v="Why Buddhism Is True: The Science and Philosophy of Meditation and Enlightenment  "/>
+        <s v="Mooney"/>
+        <s v="Letters from a Stoic"/>
+        <s v="Probably Approximately Correct: Nature's Algorithms for Learning and Prospering in a Complex World  "/>
+        <s v="The Penguin Guide to the United States Constitution"/>
+        <s v="Rifleman Dodd"/>
+        <s v="The Thirteenth Turn: A History of the Noose"/>
+        <s v="How We Decide  "/>
+        <s v="Finite and Infinite Games"/>
+        <s v="The Bread Baker's Apprentice: Mastering the Art of Extraordinary Bread  "/>
+        <s v="Backbone"/>
+        <s v="Johnny Got His Gun"/>
+        <s v="The Hero with a Thousand Faces"/>
+        <s v="Mind in the Balance: Meditation in Science, Buddhism, and Christianity  "/>
+        <s v="The Elements of Journalism"/>
+        <s v="Custer's Last Stand: The Anatomy of an American Myth"/>
+        <s v="History of Nevada: Elliot"/>
+        <s v="One Man Against the World"/>
+        <s v="The Gatekeepers: How the White House Chiefs of Staff Define Every Presidency  "/>
+        <s v="Storm in a Teacup: The Physics of Everyday Life  "/>
+        <s v="14-18: Understanding the Great War"/>
+        <s v="Thinking Fast and Slow"/>
+        <s v="The Age of American Unreason"/>
+        <s v="Ohio A Personal Portrait of the 17th State"/>
+        <s v="Guidebook for Marines"/>
+        <s v="The Gamble: General Petraeus and the American Military Adventure in Iraq  "/>
+        <s v="The Alchemist"/>
+        <s v="Physics Made Simple: A Complete Introduction to the Basic Principles of This Fundamental Science (Made    - Simple (Broadway Books))  "/>
+        <s v="Knocking on Labor's Door"/>
+        <s v="Boots and Saddles"/>
+        <s v="Bringing up Bebe"/>
+        <s v="I Am a Strange Loop  "/>
+        <s v="The Black Swan"/>
+        <s v="Eichmann in Jerusalem: A Report on the Banality of Evil (Penguin Classics)  "/>
+        <s v="The Relativity of Wrong (Asimov)"/>
+        <s v="Nuclear Weapons and Coercive Diplomacy"/>
+        <s v="A Generation of Sociopaths"/>
+        <s v="Abraham Lincoln and the Structure of Reason  "/>
+        <s v="Silence: A Christian History  "/>
+        <s v="The Eastern Front 1914-1917"/>
+        <s v="The Battle for God"/>
+        <s v="Warriors and Citizens"/>
+        <s v="Bible Nation"/>
+        <s v="Leaders Eat Last"/>
+        <s v="Legionnaire"/>
+        <s v="Empire of the Summer Moon: Quanah Parker and the Rise and Fall of the Comanche's, the Most Powerful"/>
+        <s v="Living Buddha, Living Christ 10th Anniversary Edition  "/>
+        <s v="Jerusalem: One City Three Faiths"/>
+        <s v="Fiasco"/>
+        <s v="Wrapped in the Flag: A Personal History of America's Radical Right"/>
+        <s v="War Against War: The American Fight for Peace, 1914-1918    "/>
+        <s v="The Information: A History, A Theory, A Flood"/>
+        <s v="On Killing"/>
+        <s v="Don't Know Much About Mythology"/>
+        <s v="A Saturnalia of Bunk"/>
+        <s v="The Psychopath Test: A Journey Through the Madness Industry  "/>
+        <s v="A Testament of Hope: The Essential Writings and Speeches (MLK)"/>
+        <s v="History of Religion a Sketch of Primitive Religious Beliefs and Practices, and of the Origin and Character of the Great Systems  "/>
+        <s v="The Big Bonanza"/>
+        <s v="The New Knighthood"/>
+        <s v="Hard Times"/>
+        <s v="Black Earth: The Holocaust as History and Warning  "/>
+        <s v="Liberty or Death: The French Revolution "/>
+        <s v="How Democracies Die"/>
+        <s v="Venetian Masque"/>
+        <s v="A Pictorial History of the Great Lakes"/>
+        <s v="A Man in Full"/>
+        <s v="The Last King"/>
+        <s v="Tools of Titans: The Tactics, Routines, and Habits of Billionaires, Icons, and World-Class Performers  "/>
+        <s v="Nom De Plume: A (Secret) History of Pseudonyms "/>
+        <s v="Enemies: A History of the FBI"/>
+        <s v="Don't Know Much About the Bible"/>
+        <s v="The Origins of Totalitarianism "/>
+        <s v="How Music Works"/>
+        <s v="The Great Unknown"/>
+        <s v="The Way of the Knife"/>
+        <s v="Biblical Literalism"/>
+        <s v="Red Notice: A True Story of High Finance, Murder, and One Man’s Fight for Justice  "/>
+        <s v="An Unfinished Life"/>
+        <s v="The War To End All Wars (Coffman)"/>
+        <s v="1000 Beautiful Things"/>
+        <s v="The Righteous Mind: Why Good People Are Divided by Politics and Religion  "/>
+        <s v="The American Bible-Whose America Is This?: How Our Words Unite, Divide, and Define a Nation  "/>
+        <s v="Legacy of Ashes"/>
+        <s v="Would it kill you to stop doing that?"/>
+        <s v="Normal Accidents: Living with High Risk Technologies (Charles Perrow)"/>
+        <s v="Complex Organizations (Charles Perrow)"/>
+        <s v="A Global History of Architecture"/>
+        <s v="The New testament: A Translation"/>
+        <s v="Irish Life in the Seventeenth Century"/>
+        <m/>
+        <s v="Rise and Fall of the Third Reich"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Media" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <m/>
+        <s v="Online Article"/>
+        <s v="Wikipedia"/>
+        <s v="Online Text"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Value" numFmtId="2">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="6">
+        <n v="4"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="5"/>
+        <n v="1"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Page Numbers" numFmtId="2">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="9" maxValue="1280" count="84">
+        <n v="46"/>
+        <m/>
+        <n v="9"/>
+        <n v="11"/>
+        <n v="14"/>
+        <n v="12"/>
+        <n v="73"/>
+        <n v="20"/>
+        <n v="29"/>
+        <n v="25"/>
+        <n v="30"/>
+        <n v="55"/>
+        <n v="74"/>
+        <n v="120"/>
+        <n v="72"/>
+        <n v="128"/>
+        <n v="133"/>
+        <n v="132"/>
+        <n v="160"/>
+        <n v="80"/>
+        <n v="124"/>
+        <n v="208"/>
+        <n v="224"/>
+        <n v="228"/>
+        <n v="191"/>
+        <n v="192"/>
+        <n v="198"/>
+        <n v="258"/>
+        <n v="157"/>
+        <n v="226"/>
+        <n v="288"/>
+        <n v="231"/>
+        <n v="181"/>
+        <n v="182"/>
+        <n v="250"/>
+        <n v="266"/>
+        <n v="336"/>
+        <n v="137"/>
+        <n v="276"/>
+        <n v="213"/>
+        <n v="220"/>
+        <n v="368"/>
+        <n v="320"/>
+        <n v="256"/>
+        <n v="432"/>
+        <n v="264"/>
+        <n v="352"/>
+        <n v="277"/>
+        <n v="384"/>
+        <n v="499"/>
+        <n v="400"/>
+        <n v="200"/>
+        <n v="416"/>
+        <n v="312"/>
+        <n v="316"/>
+        <n v="436"/>
+        <n v="444"/>
+        <n v="225"/>
+        <n v="344"/>
+        <n v="464"/>
+        <n v="480"/>
+        <n v="360"/>
+        <n v="240"/>
+        <n v="371"/>
+        <n v="512"/>
+        <n v="544"/>
+        <n v="560"/>
+        <n v="284"/>
+        <n v="736"/>
+        <n v="148"/>
+        <n v="450"/>
+        <n v="488"/>
+        <n v="332"/>
+        <n v="704"/>
+        <n v="366"/>
+        <n v="373"/>
+        <n v="576"/>
+        <n v="848"/>
+        <n v="440"/>
+        <n v="456"/>
+        <n v="528"/>
+        <n v="864"/>
+        <n v="616"/>
+        <n v="1280"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Result" numFmtId="164">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="2.3437499999999999E-3" maxValue="0.44444444444444442" count="105">
+        <n v="8.6956521739130432E-2"/>
+        <s v=" "/>
+        <n v="0.44444444444444442"/>
+        <n v="0.36363636363636365"/>
+        <n v="0.2857142857142857"/>
+        <n v="0.25"/>
+        <n v="0.21428571428571427"/>
+        <n v="6.8493150684931503E-2"/>
+        <n v="0.2"/>
+        <n v="0.17241379310344829"/>
+        <n v="0.15"/>
+        <n v="0.12"/>
+        <n v="6.6666666666666666E-2"/>
+        <n v="5.4545454545454543E-2"/>
+        <n v="5.4054054054054057E-2"/>
+        <n v="4.1666666666666664E-2"/>
+        <n v="3.90625E-2"/>
+        <n v="3.7593984962406013E-2"/>
+        <n v="3.0303030303030304E-2"/>
+        <n v="2.5000000000000001E-2"/>
+        <n v="2.4193548387096774E-2"/>
+        <n v="2.403846153846154E-2"/>
+        <n v="2.34375E-2"/>
+        <n v="2.2321428571428572E-2"/>
+        <n v="2.1929824561403508E-2"/>
+        <n v="2.0942408376963352E-2"/>
+        <n v="2.0833333333333332E-2"/>
+        <n v="2.0202020202020204E-2"/>
+        <n v="1.937984496124031E-2"/>
+        <n v="1.9108280254777069E-2"/>
+        <n v="1.8749999999999999E-2"/>
+        <n v="1.7857142857142856E-2"/>
+        <n v="1.7699115044247787E-2"/>
+        <n v="1.7361111111111112E-2"/>
+        <n v="1.7316017316017316E-2"/>
+        <n v="1.6574585635359115E-2"/>
+        <n v="1.6483516483516484E-2"/>
+        <n v="1.6E-2"/>
+        <n v="1.5037593984962405E-2"/>
+        <n v="1.488095238095238E-2"/>
+        <n v="1.4598540145985401E-2"/>
+        <n v="1.4492753623188406E-2"/>
+        <n v="1.4423076923076924E-2"/>
+        <n v="1.4084507042253521E-2"/>
+        <n v="1.3636363636363636E-2"/>
+        <n v="1.358695652173913E-2"/>
+        <n v="1.2500000000000001E-2"/>
+        <n v="1.1904761904761904E-2"/>
+        <n v="1.171875E-2"/>
+        <n v="1.1574074074074073E-2"/>
+        <n v="1.1363636363636364E-2"/>
+        <n v="1.1278195488721804E-2"/>
+        <n v="1.0830324909747292E-2"/>
+        <n v="1.0416666666666666E-2"/>
+        <n v="1.002004008016032E-2"/>
+        <n v="0.01"/>
+        <n v="9.6153846153846159E-3"/>
+        <n v="9.4936708860759497E-3"/>
+        <n v="9.2592592592592587E-3"/>
+        <n v="9.1743119266055051E-3"/>
+        <n v="9.0090090090090089E-3"/>
+        <n v="8.9285714285714281E-3"/>
+        <n v="8.8888888888888889E-3"/>
+        <n v="8.7209302325581394E-3"/>
+        <n v="8.6206896551724137E-3"/>
+        <n v="8.5227272727272721E-3"/>
+        <n v="8.3333333333333332E-3"/>
+        <n v="8.152173913043478E-3"/>
+        <n v="8.0862533692722376E-3"/>
+        <n v="8.0000000000000002E-3"/>
+        <n v="7.8125E-3"/>
+        <n v="7.575757575757576E-3"/>
+        <n v="7.4999999999999997E-3"/>
+        <n v="7.3529411764705881E-3"/>
+        <n v="7.2115384615384619E-3"/>
+        <n v="7.1428571428571426E-3"/>
+        <n v="7.0422535211267607E-3"/>
+        <n v="6.9444444444444441E-3"/>
+        <n v="6.793478260869565E-3"/>
+        <n v="6.7567567567567571E-3"/>
+        <n v="6.6666666666666671E-3"/>
+        <n v="6.4655172413793103E-3"/>
+        <n v="6.2500000000000003E-3"/>
+        <n v="6.1475409836065573E-3"/>
+        <n v="6.024096385542169E-3"/>
+        <n v="5.8139534883720929E-3"/>
+        <n v="5.681818181818182E-3"/>
+        <n v="5.4644808743169399E-3"/>
+        <n v="5.434782608695652E-3"/>
+        <n v="5.3619302949061663E-3"/>
+        <n v="5.3571428571428572E-3"/>
+        <n v="5.208333333333333E-3"/>
+        <n v="5.0000000000000001E-3"/>
+        <n v="4.807692307692308E-3"/>
+        <n v="4.7169811320754715E-3"/>
+        <n v="4.5454545454545452E-3"/>
+        <n v="4.3859649122807015E-3"/>
+        <n v="3.787878787878788E-3"/>
+        <n v="3.6764705882352941E-3"/>
+        <n v="3.5377358490566039E-3"/>
+        <m/>
+        <n v="3.472222222222222E-3"/>
+        <n v="3.246753246753247E-3"/>
+        <n v="3.1250000000000002E-3"/>
+        <n v="2.3437499999999999E-3"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Read" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="Yes"/>
+        <s v="No"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="217">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="12"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="14"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="13"/>
+    <x v="15"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="15"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="15"/>
+    <x v="16"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="16"/>
+    <x v="17"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="18"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="18"/>
+    <x v="19"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="22"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="22"/>
+    <x v="23"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="23"/>
+    <x v="24"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="24"/>
+    <x v="25"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="26"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="26"/>
+    <x v="27"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="27"/>
+    <x v="28"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="28"/>
+    <x v="29"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="30"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="31"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="29"/>
+    <x v="32"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="30"/>
+    <x v="33"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="31"/>
+    <x v="34"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="32"/>
+    <x v="35"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="33"/>
+    <x v="36"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="34"/>
+    <x v="37"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="35"/>
+    <x v="38"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="36"/>
+    <x v="39"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="37"/>
+    <x v="40"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="38"/>
+    <x v="41"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="21"/>
+    <x v="42"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="39"/>
+    <x v="43"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="40"/>
+    <x v="44"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="41"/>
+    <x v="45"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="42"/>
+    <x v="46"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="18"/>
+    <x v="46"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="36"/>
+    <x v="47"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="43"/>
+    <x v="48"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="43"/>
+    <x v="48"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="44"/>
+    <x v="49"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="45"/>
+    <x v="50"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="46"/>
+    <x v="50"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="35"/>
+    <x v="51"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="47"/>
+    <x v="52"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="48"/>
+    <x v="53"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="48"/>
+    <x v="53"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="30"/>
+    <x v="53"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="30"/>
+    <x v="53"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="49"/>
+    <x v="54"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="50"/>
+    <x v="55"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="51"/>
+    <x v="55"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="50"/>
+    <x v="55"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="52"/>
+    <x v="56"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="21"/>
+    <x v="56"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="21"/>
+    <x v="56"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="53"/>
+    <x v="56"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="54"/>
+    <x v="57"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="44"/>
+    <x v="58"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="55"/>
+    <x v="59"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="56"/>
+    <x v="60"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="36"/>
+    <x v="61"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="57"/>
+    <x v="62"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="58"/>
+    <x v="63"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="59"/>
+    <x v="64"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="59"/>
+    <x v="64"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="46"/>
+    <x v="65"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="46"/>
+    <x v="65"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="60"/>
+    <x v="66"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="61"/>
+    <x v="66"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="62"/>
+    <x v="66"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="41"/>
+    <x v="67"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="41"/>
+    <x v="67"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="63"/>
+    <x v="68"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="34"/>
+    <x v="69"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="64"/>
+    <x v="70"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="98"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="64"/>
+    <x v="70"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="99"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="45"/>
+    <x v="71"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="100"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="50"/>
+    <x v="72"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="101"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="65"/>
+    <x v="73"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="52"/>
+    <x v="74"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="103"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="66"/>
+    <x v="75"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="104"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="67"/>
+    <x v="76"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="105"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="30"/>
+    <x v="77"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="106"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="68"/>
+    <x v="78"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="107"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="69"/>
+    <x v="79"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="108"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="70"/>
+    <x v="80"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="59"/>
+    <x v="81"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="110"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="60"/>
+    <x v="82"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="111"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="60"/>
+    <x v="82"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="112"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="71"/>
+    <x v="83"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="113"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="72"/>
+    <x v="84"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="114"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="72"/>
+    <x v="84"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="58"/>
+    <x v="85"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="116"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="73"/>
+    <x v="86"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="117"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="74"/>
+    <x v="87"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="118"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="68"/>
+    <x v="88"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="119"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="75"/>
+    <x v="89"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="120"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="66"/>
+    <x v="90"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="121"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="66"/>
+    <x v="90"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="122"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="76"/>
+    <x v="91"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="123"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="48"/>
+    <x v="91"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="124"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="51"/>
+    <x v="92"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="125"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="50"/>
+    <x v="92"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="126"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="52"/>
+    <x v="93"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="127"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="52"/>
+    <x v="93"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="128"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="77"/>
+    <x v="94"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="129"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="78"/>
+    <x v="95"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="130"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="79"/>
+    <x v="96"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="131"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="80"/>
+    <x v="97"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="132"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="65"/>
+    <x v="98"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="133"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="77"/>
+    <x v="99"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="134"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="100"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="135"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="100"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="136"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="100"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="137"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="81"/>
+    <x v="101"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="138"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="82"/>
+    <x v="102"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="139"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="42"/>
+    <x v="103"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="141"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="83"/>
+    <x v="104"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1">
+  <location ref="A4:A110" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="143">
+        <item x="130"/>
+        <item x="70"/>
+        <item x="86"/>
+        <item x="137"/>
+        <item x="116"/>
+        <item x="22"/>
+        <item x="26"/>
+        <item x="115"/>
+        <item x="104"/>
+        <item x="106"/>
+        <item x="87"/>
+        <item x="34"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="128"/>
+        <item x="60"/>
+        <item x="92"/>
+        <item x="126"/>
+        <item x="111"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="45"/>
+        <item x="25"/>
+        <item x="3"/>
+        <item x="136"/>
+        <item x="65"/>
+        <item x="18"/>
+        <item x="103"/>
+        <item x="121"/>
+        <item x="38"/>
+        <item x="28"/>
+        <item x="83"/>
+        <item x="95"/>
+        <item x="120"/>
+        <item x="12"/>
+        <item x="98"/>
+        <item x="58"/>
+        <item x="43"/>
+        <item x="23"/>
+        <item x="74"/>
+        <item x="110"/>
+        <item x="66"/>
+        <item x="107"/>
+        <item x="6"/>
+        <item x="113"/>
+        <item x="123"/>
+        <item x="57"/>
+        <item x="81"/>
+        <item x="32"/>
+        <item x="139"/>
+        <item x="97"/>
+        <item x="61"/>
+        <item x="78"/>
+        <item x="93"/>
+        <item x="35"/>
+        <item x="133"/>
+        <item x="94"/>
+        <item x="52"/>
+        <item x="112"/>
+        <item x="96"/>
+        <item x="27"/>
+        <item x="36"/>
+        <item x="63"/>
+        <item x="51"/>
+        <item x="49"/>
+        <item x="119"/>
+        <item x="135"/>
+        <item x="40"/>
+        <item x="85"/>
+        <item x="73"/>
+        <item x="102"/>
+        <item x="21"/>
+        <item x="33"/>
+        <item x="67"/>
+        <item x="77"/>
+        <item x="20"/>
+        <item x="53"/>
+        <item x="39"/>
+        <item x="11"/>
+        <item x="127"/>
+        <item x="55"/>
+        <item x="141"/>
+        <item x="8"/>
+        <item x="19"/>
+        <item x="88"/>
+        <item x="37"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="44"/>
+        <item x="69"/>
+        <item x="48"/>
+        <item x="72"/>
+        <item x="76"/>
+        <item x="132"/>
+        <item x="90"/>
+        <item x="108"/>
+        <item x="82"/>
+        <item x="59"/>
+        <item x="89"/>
+        <item x="64"/>
+        <item x="31"/>
+        <item x="9"/>
+        <item x="75"/>
+        <item x="68"/>
+        <item x="30"/>
+        <item x="47"/>
+        <item x="124"/>
+        <item x="62"/>
+        <item x="101"/>
+        <item x="117"/>
+        <item x="109"/>
+        <item x="138"/>
+        <item x="42"/>
+        <item x="122"/>
+        <item x="29"/>
+        <item x="54"/>
+        <item x="105"/>
+        <item x="46"/>
+        <item x="84"/>
+        <item x="131"/>
+        <item x="0"/>
+        <item x="56"/>
+        <item x="129"/>
+        <item x="15"/>
+        <item x="125"/>
+        <item x="41"/>
+        <item x="24"/>
+        <item x="71"/>
+        <item x="118"/>
+        <item x="4"/>
+        <item x="114"/>
+        <item x="100"/>
+        <item x="91"/>
+        <item x="50"/>
+        <item x="17"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="134"/>
+        <item x="99"/>
+        <item x="16"/>
+        <item x="140"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="85">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="13"/>
+        <item x="20"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="37"/>
+        <item x="69"/>
+        <item x="28"/>
+        <item x="18"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="51"/>
+        <item x="21"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="22"/>
+        <item x="57"/>
+        <item x="29"/>
+        <item x="23"/>
+        <item x="31"/>
+        <item x="62"/>
+        <item x="34"/>
+        <item x="43"/>
+        <item x="27"/>
+        <item x="45"/>
+        <item x="35"/>
+        <item x="38"/>
+        <item x="47"/>
+        <item x="67"/>
+        <item x="30"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="42"/>
+        <item x="72"/>
+        <item x="36"/>
+        <item x="58"/>
+        <item x="46"/>
+        <item x="61"/>
+        <item x="74"/>
+        <item x="41"/>
+        <item x="63"/>
+        <item x="75"/>
+        <item x="48"/>
+        <item x="50"/>
+        <item x="52"/>
+        <item x="44"/>
+        <item x="55"/>
+        <item x="78"/>
+        <item x="56"/>
+        <item x="70"/>
+        <item x="79"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="71"/>
+        <item x="49"/>
+        <item x="64"/>
+        <item x="80"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="76"/>
+        <item x="82"/>
+        <item x="73"/>
+        <item x="68"/>
+        <item x="77"/>
+        <item x="81"/>
+        <item x="83"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="descending" maxSubtotal="1">
+      <items count="106">
+        <item sd="0" x="100"/>
+        <item sd="0" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="32"/>
+        <item sd="0" x="33"/>
+        <item sd="0" x="34"/>
+        <item sd="0" x="35"/>
+        <item sd="0" x="36"/>
+        <item sd="0" x="37"/>
+        <item sd="0" x="38"/>
+        <item sd="0" x="39"/>
+        <item sd="0" x="40"/>
+        <item sd="0" x="41"/>
+        <item sd="0" x="42"/>
+        <item sd="0" x="43"/>
+        <item sd="0" x="44"/>
+        <item sd="0" x="45"/>
+        <item sd="0" x="46"/>
+        <item sd="0" x="47"/>
+        <item sd="0" x="48"/>
+        <item sd="0" x="49"/>
+        <item sd="0" x="50"/>
+        <item sd="0" x="51"/>
+        <item sd="0" x="52"/>
+        <item sd="0" x="53"/>
+        <item sd="0" x="54"/>
+        <item sd="0" x="55"/>
+        <item sd="0" x="56"/>
+        <item sd="0" x="57"/>
+        <item sd="0" x="58"/>
+        <item sd="0" x="59"/>
+        <item sd="0" x="60"/>
+        <item sd="0" x="61"/>
+        <item sd="0" x="62"/>
+        <item sd="0" x="63"/>
+        <item sd="0" x="64"/>
+        <item sd="0" x="65"/>
+        <item sd="0" x="66"/>
+        <item sd="0" x="67"/>
+        <item sd="0" x="68"/>
+        <item sd="0" x="69"/>
+        <item sd="0" x="70"/>
+        <item sd="0" x="71"/>
+        <item sd="0" x="72"/>
+        <item sd="0" x="73"/>
+        <item sd="0" x="74"/>
+        <item sd="0" x="75"/>
+        <item sd="0" x="76"/>
+        <item sd="0" x="77"/>
+        <item sd="0" x="78"/>
+        <item sd="0" x="79"/>
+        <item sd="0" x="80"/>
+        <item sd="0" x="81"/>
+        <item sd="0" x="82"/>
+        <item sd="0" x="83"/>
+        <item sd="0" x="84"/>
+        <item sd="0" x="85"/>
+        <item sd="0" x="86"/>
+        <item sd="0" x="87"/>
+        <item sd="0" x="88"/>
+        <item sd="0" x="89"/>
+        <item sd="0" x="90"/>
+        <item sd="0" x="91"/>
+        <item sd="0" x="92"/>
+        <item sd="0" x="93"/>
+        <item sd="0" x="94"/>
+        <item sd="0" x="95"/>
+        <item sd="0" x="96"/>
+        <item sd="0" x="97"/>
+        <item sd="0" x="98"/>
+        <item sd="0" x="99"/>
+        <item sd="0" x="101"/>
+        <item sd="0" x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item t="max" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="4"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="106">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="92"/>
+    </i>
+    <i>
+      <x v="93"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i r="1">
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i r="1">
+      <x v="81"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="5" item="0" hier="-1"/>
+  </pageFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -856,12 +3731,2137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B558"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="7" customWidth="1"/>
+    <col min="3" max="102" width="16.28515625" customWidth="1"/>
+    <col min="103" max="104" width="11.28515625" customWidth="1"/>
+    <col min="105" max="105" width="22.42578125" customWidth="1"/>
+    <col min="106" max="106" width="19.85546875" customWidth="1"/>
+    <col min="107" max="107" width="19" customWidth="1"/>
+    <col min="108" max="108" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="12.42578125" customWidth="1"/>
+    <col min="111" max="111" width="19.85546875" customWidth="1"/>
+    <col min="112" max="112" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="67.140625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="28" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="24" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="48.7109375" customWidth="1"/>
+    <col min="117" max="117" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="31" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="70.42578125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="21.5703125" customWidth="1"/>
+    <col min="124" max="124" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="21.42578125" customWidth="1"/>
+    <col min="128" max="128" width="91.140625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="18.28515625" customWidth="1"/>
+    <col min="130" max="130" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="79.42578125" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="85.42578125" customWidth="1"/>
+    <col min="135" max="135" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="21" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="19.85546875" customWidth="1"/>
+    <col min="138" max="138" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="11.28515625" customWidth="1"/>
+    <col min="141" max="141" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="14" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="7.85546875" customWidth="1"/>
+    <col min="171" max="171" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="14" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="7.28515625" customWidth="1"/>
+    <col min="191" max="191" width="8.85546875" customWidth="1"/>
+    <col min="192" max="192" width="7.28515625" customWidth="1"/>
+    <col min="193" max="193" width="8.85546875" customWidth="1"/>
+    <col min="194" max="194" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="7.28515625" customWidth="1"/>
+    <col min="197" max="197" width="7.85546875" customWidth="1"/>
+    <col min="198" max="198" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="8.85546875" customWidth="1"/>
+    <col min="202" max="202" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="7.28515625" customWidth="1"/>
+    <col min="209" max="209" width="5.7109375" customWidth="1"/>
+    <col min="211" max="211" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="B7"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="B9"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="B10"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="B11"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="B12"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>0.17241379310344829</v>
+      </c>
+      <c r="B13"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="B14"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="B15"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="B16"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="B18"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="B19"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>3.90625E-2</v>
+      </c>
+      <c r="B20"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>3.7593984962406013E-2</v>
+      </c>
+      <c r="B21"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="B22"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B23"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>2.4193548387096774E-2</v>
+      </c>
+      <c r="B24"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>2.403846153846154E-2</v>
+      </c>
+      <c r="B25"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>2.34375E-2</v>
+      </c>
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>2.2321428571428572E-2</v>
+      </c>
+      <c r="B27"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>2.1929824561403508E-2</v>
+      </c>
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>2.0942408376963352E-2</v>
+      </c>
+      <c r="B29"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>2.0202020202020204E-2</v>
+      </c>
+      <c r="B31"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>1.937984496124031E-2</v>
+      </c>
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>1.9108280254777069E-2</v>
+      </c>
+      <c r="B33"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="B35"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>1.7699115044247787E-2</v>
+      </c>
+      <c r="B36"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="B37"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>1.7316017316017316E-2</v>
+      </c>
+      <c r="B38"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>1.6574585635359115E-2</v>
+      </c>
+      <c r="B39"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>1.6483516483516484E-2</v>
+      </c>
+      <c r="B40"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>1.6E-2</v>
+      </c>
+      <c r="B41"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <v>1.5037593984962405E-2</v>
+      </c>
+      <c r="B42"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>1.488095238095238E-2</v>
+      </c>
+      <c r="B43"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>1.4598540145985401E-2</v>
+      </c>
+      <c r="B44"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>1.4492753623188406E-2</v>
+      </c>
+      <c r="B45"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>1.4423076923076924E-2</v>
+      </c>
+      <c r="B46"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>1.4084507042253521E-2</v>
+      </c>
+      <c r="B47"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>1.3636363636363636E-2</v>
+      </c>
+      <c r="B48"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>1.358695652173913E-2</v>
+      </c>
+      <c r="B49"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="B50"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="B51"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>1.171875E-2</v>
+      </c>
+      <c r="B52"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>1.1574074074074073E-2</v>
+      </c>
+      <c r="B53"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <v>1.1363636363636364E-2</v>
+      </c>
+      <c r="B54"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <v>1.1278195488721804E-2</v>
+      </c>
+      <c r="B55"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>1.0830324909747292E-2</v>
+      </c>
+      <c r="B56"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="B57"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>1.002004008016032E-2</v>
+      </c>
+      <c r="B58"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="B59"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>9.6153846153846159E-3</v>
+      </c>
+      <c r="B60"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>9.4936708860759497E-3</v>
+      </c>
+      <c r="B61"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>9.2592592592592587E-3</v>
+      </c>
+      <c r="B62"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <v>9.1743119266055051E-3</v>
+      </c>
+      <c r="B63"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
+        <v>9.0090090090090089E-3</v>
+      </c>
+      <c r="B64"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
+        <v>8.9285714285714281E-3</v>
+      </c>
+      <c r="B65"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
+        <v>8.8888888888888889E-3</v>
+      </c>
+      <c r="B66"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
+        <v>8.7209302325581394E-3</v>
+      </c>
+      <c r="B67"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
+        <v>8.6206896551724137E-3</v>
+      </c>
+      <c r="B68"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
+        <v>8.5227272727272721E-3</v>
+      </c>
+      <c r="B69"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="B70"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
+        <v>8.152173913043478E-3</v>
+      </c>
+      <c r="B71"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
+        <v>8.0862533692722376E-3</v>
+      </c>
+      <c r="B72"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="B73"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="B74"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="10">
+        <v>7.575757575757576E-3</v>
+      </c>
+      <c r="B75"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="B76"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="10">
+        <v>7.3529411764705881E-3</v>
+      </c>
+      <c r="B77"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="10">
+        <v>7.2115384615384619E-3</v>
+      </c>
+      <c r="B78"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="10">
+        <v>7.1428571428571426E-3</v>
+      </c>
+      <c r="B79"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="10">
+        <v>7.0422535211267607E-3</v>
+      </c>
+      <c r="B80"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="10">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="B81"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="10">
+        <v>6.793478260869565E-3</v>
+      </c>
+      <c r="B82"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="10">
+        <v>6.7567567567567571E-3</v>
+      </c>
+      <c r="B83"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="10">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="B84"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="10">
+        <v>6.4655172413793103E-3</v>
+      </c>
+      <c r="B85"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="10">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="B86"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="10">
+        <v>6.1475409836065573E-3</v>
+      </c>
+      <c r="B87"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="10">
+        <v>6.024096385542169E-3</v>
+      </c>
+      <c r="B88"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="10">
+        <v>5.8139534883720929E-3</v>
+      </c>
+      <c r="B89"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="10">
+        <v>5.681818181818182E-3</v>
+      </c>
+      <c r="B90"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="10">
+        <v>5.4644808743169399E-3</v>
+      </c>
+      <c r="B91"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="10">
+        <v>5.434782608695652E-3</v>
+      </c>
+      <c r="B92"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="10">
+        <v>5.3619302949061663E-3</v>
+      </c>
+      <c r="B93"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="10">
+        <v>5.3571428571428572E-3</v>
+      </c>
+      <c r="B94"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="10">
+        <v>5.208333333333333E-3</v>
+      </c>
+      <c r="B95"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B96"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="10">
+        <v>4.807692307692308E-3</v>
+      </c>
+      <c r="B97"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="10">
+        <v>4.7169811320754715E-3</v>
+      </c>
+      <c r="B98"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="10">
+        <v>4.5454545454545452E-3</v>
+      </c>
+      <c r="B99"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="10">
+        <v>4.3859649122807015E-3</v>
+      </c>
+      <c r="B100"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="10">
+        <v>3.787878787878788E-3</v>
+      </c>
+      <c r="B101"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="10">
+        <v>3.6764705882352941E-3</v>
+      </c>
+      <c r="B102"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="10">
+        <v>3.5377358490566039E-3</v>
+      </c>
+      <c r="B103"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="10">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="B104"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="10">
+        <v>3.246753246753247E-3</v>
+      </c>
+      <c r="B105"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="10">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="B106"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B107"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="10">
+        <v>2.3437499999999999E-3</v>
+      </c>
+      <c r="B108"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B109"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B110"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B111"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B112"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168"/>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B169"/>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B170"/>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B171"/>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B172"/>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B173"/>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B174"/>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B175"/>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B176"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B180"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B182"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B183"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B184"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B185"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B186"/>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B187"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B188"/>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B189"/>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B190"/>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B191"/>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B192"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B193"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B194"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B195"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B196"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B197"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B198"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B199"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B200"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B201"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B202"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B203"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B204"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B205"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B206"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B207"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B208"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214"/>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B215"/>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B216"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217"/>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B218"/>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B219"/>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B220"/>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B221"/>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B222"/>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B223"/>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B224"/>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B225"/>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B226"/>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B227"/>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B228"/>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B229"/>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B230"/>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B231"/>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232"/>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B233"/>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B234"/>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B235"/>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B236"/>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B237"/>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B238"/>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B239"/>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B240"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242"/>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B243"/>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B244"/>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245"/>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246"/>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B247"/>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B248"/>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249"/>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B250"/>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B251"/>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B252"/>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B253"/>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B254"/>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B255"/>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B256"/>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B257"/>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B258"/>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259"/>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B260"/>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B261"/>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B262"/>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B263"/>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B264"/>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B265"/>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B266"/>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B267"/>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B268"/>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B269"/>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B270"/>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B271"/>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B272"/>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B273"/>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B274"/>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B275"/>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B276"/>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B277"/>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B278"/>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B279"/>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B280"/>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B281"/>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B282"/>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B283"/>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B284"/>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B285"/>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B286"/>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B287"/>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B288"/>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B289"/>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B290"/>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B291"/>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B292"/>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B293"/>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B294"/>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B295"/>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B296"/>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B297"/>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B298"/>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B299"/>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B300"/>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B301"/>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B302"/>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B303"/>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B304"/>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B305"/>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B306"/>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B307"/>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B308"/>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B309"/>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B310"/>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B311"/>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B312"/>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B313"/>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B314"/>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B315"/>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B316"/>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B317"/>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B318"/>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B319"/>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B320"/>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B321"/>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B322"/>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B323"/>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B324"/>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B325"/>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B326"/>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B327"/>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B328"/>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B329"/>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B330"/>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B331"/>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B332"/>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B333"/>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B334"/>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B335"/>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B336"/>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B337"/>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B338"/>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B339"/>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B340"/>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B341"/>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B342"/>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B343"/>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B344"/>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B345"/>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B346"/>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B347"/>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B348"/>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B349"/>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B350"/>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B351"/>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B352"/>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B353"/>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B354"/>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B355"/>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B356"/>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B357"/>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B358"/>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B359"/>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B360"/>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B361"/>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B362"/>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B363"/>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B364"/>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B365"/>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B366"/>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B367"/>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B368"/>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B369"/>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B370"/>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B371"/>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B372"/>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B373"/>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B374"/>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B375"/>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B376"/>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B377"/>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B378"/>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B379"/>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B380"/>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B381"/>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B382"/>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B383"/>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B384"/>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B385"/>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B386"/>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B387"/>
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B388"/>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B389"/>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B390"/>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B391"/>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B392"/>
+    </row>
+    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B393"/>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B394"/>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B395"/>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B396"/>
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B397"/>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B398"/>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B399"/>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B400"/>
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B401"/>
+    </row>
+    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B402"/>
+    </row>
+    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B403"/>
+    </row>
+    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B404"/>
+    </row>
+    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B405"/>
+    </row>
+    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B406"/>
+    </row>
+    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B407"/>
+    </row>
+    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B408"/>
+    </row>
+    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B409"/>
+    </row>
+    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B410"/>
+    </row>
+    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B411"/>
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B412"/>
+    </row>
+    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B413"/>
+    </row>
+    <row r="414" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B414"/>
+    </row>
+    <row r="415" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B415"/>
+    </row>
+    <row r="416" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B416"/>
+    </row>
+    <row r="417" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B417"/>
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B418"/>
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B419"/>
+    </row>
+    <row r="420" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B420"/>
+    </row>
+    <row r="421" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B421"/>
+    </row>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B422"/>
+    </row>
+    <row r="423" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B423"/>
+    </row>
+    <row r="424" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B424"/>
+    </row>
+    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B425"/>
+    </row>
+    <row r="426" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B426"/>
+    </row>
+    <row r="427" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B427"/>
+    </row>
+    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B428"/>
+    </row>
+    <row r="429" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B429"/>
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B430"/>
+    </row>
+    <row r="431" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B431"/>
+    </row>
+    <row r="432" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B432"/>
+    </row>
+    <row r="433" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B433"/>
+    </row>
+    <row r="434" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B434"/>
+    </row>
+    <row r="435" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B435"/>
+    </row>
+    <row r="436" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B436"/>
+    </row>
+    <row r="437" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B437"/>
+    </row>
+    <row r="438" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B438"/>
+    </row>
+    <row r="439" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B439"/>
+    </row>
+    <row r="440" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B440"/>
+    </row>
+    <row r="441" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B441"/>
+    </row>
+    <row r="442" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B442"/>
+    </row>
+    <row r="443" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B443"/>
+    </row>
+    <row r="444" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B444"/>
+    </row>
+    <row r="445" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B445"/>
+    </row>
+    <row r="446" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B446"/>
+    </row>
+    <row r="447" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B447"/>
+    </row>
+    <row r="448" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B448"/>
+    </row>
+    <row r="449" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B449"/>
+    </row>
+    <row r="450" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B450"/>
+    </row>
+    <row r="451" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B451"/>
+    </row>
+    <row r="452" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B452"/>
+    </row>
+    <row r="453" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B453"/>
+    </row>
+    <row r="454" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B454"/>
+    </row>
+    <row r="455" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B455"/>
+    </row>
+    <row r="456" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B456"/>
+    </row>
+    <row r="457" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B457"/>
+    </row>
+    <row r="458" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B458"/>
+    </row>
+    <row r="459" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B459"/>
+    </row>
+    <row r="460" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B460"/>
+    </row>
+    <row r="461" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B461"/>
+    </row>
+    <row r="462" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B462"/>
+    </row>
+    <row r="463" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B463"/>
+    </row>
+    <row r="464" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B464"/>
+    </row>
+    <row r="465" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B465"/>
+    </row>
+    <row r="466" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B466"/>
+    </row>
+    <row r="467" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B467"/>
+    </row>
+    <row r="468" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B468"/>
+    </row>
+    <row r="469" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B469"/>
+    </row>
+    <row r="470" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B470"/>
+    </row>
+    <row r="471" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B471"/>
+    </row>
+    <row r="472" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B472"/>
+    </row>
+    <row r="473" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B473"/>
+    </row>
+    <row r="474" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B474"/>
+    </row>
+    <row r="475" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B475"/>
+    </row>
+    <row r="476" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B476"/>
+    </row>
+    <row r="477" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B477"/>
+    </row>
+    <row r="478" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B478"/>
+    </row>
+    <row r="479" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B479"/>
+    </row>
+    <row r="480" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B480"/>
+    </row>
+    <row r="481" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B481"/>
+    </row>
+    <row r="482" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B482"/>
+    </row>
+    <row r="483" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B483"/>
+    </row>
+    <row r="484" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B484"/>
+    </row>
+    <row r="485" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B485"/>
+    </row>
+    <row r="486" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B486"/>
+    </row>
+    <row r="487" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B487"/>
+    </row>
+    <row r="488" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B488"/>
+    </row>
+    <row r="489" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B489"/>
+    </row>
+    <row r="490" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B490"/>
+    </row>
+    <row r="491" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B491"/>
+    </row>
+    <row r="492" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B492"/>
+    </row>
+    <row r="493" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B493"/>
+    </row>
+    <row r="494" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B494"/>
+    </row>
+    <row r="495" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B495"/>
+    </row>
+    <row r="496" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B496"/>
+    </row>
+    <row r="497" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B497"/>
+    </row>
+    <row r="498" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B498"/>
+    </row>
+    <row r="499" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B499"/>
+    </row>
+    <row r="500" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B500"/>
+    </row>
+    <row r="501" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B501"/>
+    </row>
+    <row r="502" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B502"/>
+    </row>
+    <row r="503" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B503"/>
+    </row>
+    <row r="504" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B504"/>
+    </row>
+    <row r="505" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B505"/>
+    </row>
+    <row r="506" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B506"/>
+    </row>
+    <row r="507" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B507"/>
+    </row>
+    <row r="508" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B508"/>
+    </row>
+    <row r="509" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B509"/>
+    </row>
+    <row r="510" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B510"/>
+    </row>
+    <row r="511" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B511"/>
+    </row>
+    <row r="512" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B512"/>
+    </row>
+    <row r="513" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B513"/>
+    </row>
+    <row r="514" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B514"/>
+    </row>
+    <row r="515" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B515"/>
+    </row>
+    <row r="516" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B516"/>
+    </row>
+    <row r="517" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B517"/>
+    </row>
+    <row r="518" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B518"/>
+    </row>
+    <row r="519" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B519"/>
+    </row>
+    <row r="520" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B520"/>
+    </row>
+    <row r="521" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B521"/>
+    </row>
+    <row r="522" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B522"/>
+    </row>
+    <row r="523" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B523"/>
+    </row>
+    <row r="524" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B524"/>
+    </row>
+    <row r="525" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B525"/>
+    </row>
+    <row r="526" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B526"/>
+    </row>
+    <row r="527" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B527"/>
+    </row>
+    <row r="528" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B528"/>
+    </row>
+    <row r="529" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B529"/>
+    </row>
+    <row r="530" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B530"/>
+    </row>
+    <row r="531" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B531"/>
+    </row>
+    <row r="532" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B532"/>
+    </row>
+    <row r="533" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B533"/>
+    </row>
+    <row r="534" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B534"/>
+    </row>
+    <row r="535" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B535"/>
+    </row>
+    <row r="536" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B536"/>
+    </row>
+    <row r="537" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B537"/>
+    </row>
+    <row r="538" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B538"/>
+    </row>
+    <row r="539" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B539"/>
+    </row>
+    <row r="540" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B540"/>
+    </row>
+    <row r="541" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B541"/>
+    </row>
+    <row r="542" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B542"/>
+    </row>
+    <row r="543" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B543"/>
+    </row>
+    <row r="544" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B544"/>
+    </row>
+    <row r="545" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B545"/>
+    </row>
+    <row r="546" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B546"/>
+    </row>
+    <row r="547" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B547"/>
+    </row>
+    <row r="548" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B548"/>
+    </row>
+    <row r="549" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B549"/>
+    </row>
+    <row r="550" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B550"/>
+    </row>
+    <row r="551" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B551"/>
+    </row>
+    <row r="552" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B552"/>
+    </row>
+    <row r="553" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B553"/>
+    </row>
+    <row r="554" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B554"/>
+    </row>
+    <row r="555" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B555"/>
+    </row>
+    <row r="556" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B556"/>
+    </row>
+    <row r="557" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B557"/>
+    </row>
+    <row r="558" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B558"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,7 +5928,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f t="shared" ref="E4:E13" si="1">IFERROR(C4/D4," ")</f>
+        <f>IFERROR(C4/D4," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F4" t="s">
@@ -943,7 +5943,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(C5/D5," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F5" t="s">
@@ -958,7 +5958,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(C6/D6," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F6" t="s">
@@ -973,7 +5973,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(C7/D7," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F7" t="s">
@@ -988,7 +5988,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(C8/D8," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F8" t="s">
@@ -1003,7 +6003,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(C9/D9," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F9" t="s">
@@ -1018,7 +6018,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(C10/D10," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F10" t="s">
@@ -1033,7 +6033,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(C11/D11," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F11" t="s">
@@ -1048,7 +6048,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(C12/D12," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F12" t="s">
@@ -1063,7 +6063,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IFERROR(C13/D13," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F13" t="s">
@@ -1294,7 +6294,7 @@
         <v>55</v>
       </c>
       <c r="E25" s="7">
-        <f t="shared" ref="E25:E56" si="2">IFERROR(C25/D25," ")</f>
+        <f>IFERROR(C25/D25," ")</f>
         <v>5.4545454545454543E-2</v>
       </c>
       <c r="F25" t="s">
@@ -1312,7 +6312,7 @@
         <v>74</v>
       </c>
       <c r="E26" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C26/D26," ")</f>
         <v>5.4054054054054057E-2</v>
       </c>
       <c r="F26" t="s">
@@ -1330,7 +6330,7 @@
         <v>120</v>
       </c>
       <c r="E27" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C27/D27," ")</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F27" t="s">
@@ -1348,7 +6348,7 @@
         <v>72</v>
       </c>
       <c r="E28" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C28/D28," ")</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F28" t="s">
@@ -1366,7 +6366,7 @@
         <v>128</v>
       </c>
       <c r="E29" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C29/D29," ")</f>
         <v>3.90625E-2</v>
       </c>
       <c r="F29" t="s">
@@ -1384,7 +6384,7 @@
         <v>133</v>
       </c>
       <c r="E30" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C30/D30," ")</f>
         <v>3.7593984962406013E-2</v>
       </c>
       <c r="F30" t="s">
@@ -1402,7 +6402,7 @@
         <v>132</v>
       </c>
       <c r="E31" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C31/D31," ")</f>
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="F31" t="s">
@@ -1420,7 +6420,7 @@
         <v>160</v>
       </c>
       <c r="E32" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C32/D32," ")</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F32" t="s">
@@ -1438,7 +6438,7 @@
         <v>80</v>
       </c>
       <c r="E33" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C33/D33," ")</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F33" t="s">
@@ -1456,7 +6456,7 @@
         <v>124</v>
       </c>
       <c r="E34" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C34/D34," ")</f>
         <v>2.4193548387096774E-2</v>
       </c>
       <c r="F34" t="s">
@@ -1474,7 +6474,7 @@
         <v>208</v>
       </c>
       <c r="E35" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C35/D35," ")</f>
         <v>2.403846153846154E-2</v>
       </c>
       <c r="F35" t="s">
@@ -1492,7 +6492,7 @@
         <v>128</v>
       </c>
       <c r="E36" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C36/D36," ")</f>
         <v>2.34375E-2</v>
       </c>
       <c r="F36" t="s">
@@ -1510,7 +6510,7 @@
         <v>224</v>
       </c>
       <c r="E37" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C37/D37," ")</f>
         <v>2.2321428571428572E-2</v>
       </c>
       <c r="F37" t="s">
@@ -1528,7 +6528,7 @@
         <v>228</v>
       </c>
       <c r="E38" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C38/D38," ")</f>
         <v>2.1929824561403508E-2</v>
       </c>
       <c r="F38" t="s">
@@ -1546,7 +6546,7 @@
         <v>191</v>
       </c>
       <c r="E39" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C39/D39," ")</f>
         <v>2.0942408376963352E-2</v>
       </c>
       <c r="F39" t="s">
@@ -1564,7 +6564,7 @@
         <v>192</v>
       </c>
       <c r="E40" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C40/D40," ")</f>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="F40" t="s">
@@ -1582,7 +6582,7 @@
         <v>198</v>
       </c>
       <c r="E41" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C41/D41," ")</f>
         <v>2.0202020202020204E-2</v>
       </c>
       <c r="F41" t="s">
@@ -1600,7 +6600,7 @@
         <v>258</v>
       </c>
       <c r="E42" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C42/D42," ")</f>
         <v>1.937984496124031E-2</v>
       </c>
       <c r="F42" t="s">
@@ -1618,7 +6618,7 @@
         <v>157</v>
       </c>
       <c r="E43" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C43/D43," ")</f>
         <v>1.9108280254777069E-2</v>
       </c>
       <c r="F43" t="s">
@@ -1636,7 +6636,7 @@
         <v>160</v>
       </c>
       <c r="E44" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C44/D44," ")</f>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="F44" t="s">
@@ -1654,7 +6654,7 @@
         <v>224</v>
       </c>
       <c r="E45" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C45/D45," ")</f>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="F45" t="s">
@@ -1672,7 +6672,7 @@
         <v>226</v>
       </c>
       <c r="E46" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C46/D46," ")</f>
         <v>1.7699115044247787E-2</v>
       </c>
       <c r="F46" t="s">
@@ -1690,7 +6690,7 @@
         <v>288</v>
       </c>
       <c r="E47" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C47/D47," ")</f>
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="F47" t="s">
@@ -1708,7 +6708,7 @@
         <v>231</v>
       </c>
       <c r="E48" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C48/D48," ")</f>
         <v>1.7316017316017316E-2</v>
       </c>
       <c r="F48" t="s">
@@ -1726,7 +6726,7 @@
         <v>181</v>
       </c>
       <c r="E49" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C49/D49," ")</f>
         <v>1.6574585635359115E-2</v>
       </c>
       <c r="F49" t="s">
@@ -1744,7 +6744,7 @@
         <v>182</v>
       </c>
       <c r="E50" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C50/D50," ")</f>
         <v>1.6483516483516484E-2</v>
       </c>
       <c r="F50" t="s">
@@ -1762,7 +6762,7 @@
         <v>250</v>
       </c>
       <c r="E51" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C51/D51," ")</f>
         <v>1.6E-2</v>
       </c>
       <c r="F51" t="s">
@@ -1780,7 +6780,7 @@
         <v>266</v>
       </c>
       <c r="E52" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C52/D52," ")</f>
         <v>1.5037593984962405E-2</v>
       </c>
       <c r="F52" t="s">
@@ -1798,7 +6798,7 @@
         <v>336</v>
       </c>
       <c r="E53" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C53/D53," ")</f>
         <v>1.488095238095238E-2</v>
       </c>
       <c r="F53" t="s">
@@ -1816,7 +6816,7 @@
         <v>137</v>
       </c>
       <c r="E54" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C54/D54," ")</f>
         <v>1.4598540145985401E-2</v>
       </c>
       <c r="F54" t="s">
@@ -1834,7 +6834,7 @@
         <v>276</v>
       </c>
       <c r="E55" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C55/D55," ")</f>
         <v>1.4492753623188406E-2</v>
       </c>
       <c r="F55" t="s">
@@ -1852,7 +6852,7 @@
         <v>208</v>
       </c>
       <c r="E56" s="7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(C56/D56," ")</f>
         <v>1.4423076923076924E-2</v>
       </c>
       <c r="F56" t="s">
@@ -1870,7 +6870,7 @@
         <v>213</v>
       </c>
       <c r="E57" s="7">
-        <f t="shared" ref="E57:E88" si="3">IFERROR(C57/D57," ")</f>
+        <f>IFERROR(C57/D57," ")</f>
         <v>1.4084507042253521E-2</v>
       </c>
       <c r="F57" t="s">
@@ -1888,7 +6888,7 @@
         <v>220</v>
       </c>
       <c r="E58" s="7">
-        <f t="shared" si="3"/>
+        <f>IFERROR(C58/D58," ")</f>
         <v>1.3636363636363636E-2</v>
       </c>
       <c r="F58" t="s">
@@ -1906,7 +6906,7 @@
         <v>368</v>
       </c>
       <c r="E59" s="7">
-        <f t="shared" si="3"/>
+        <f>IFERROR(C59/D59," ")</f>
         <v>1.358695652173913E-2</v>
       </c>
       <c r="F59" t="s">
@@ -1924,7 +6924,7 @@
         <v>320</v>
       </c>
       <c r="E60" s="7">
-        <f t="shared" si="3"/>
+        <f>IFERROR(C60/D60," ")</f>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="F60" t="s">
@@ -1942,7 +6942,7 @@
         <v>160</v>
       </c>
       <c r="E61" s="7">
-        <f t="shared" si="3"/>
+        <f>IFERROR(C61/D61," ")</f>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="F61" t="s">
@@ -1960,7 +6960,7 @@
         <v>336</v>
       </c>
       <c r="E62" s="7">
-        <f t="shared" si="3"/>
+        <f>IFERROR(C62/D62," ")</f>
         <v>1.1904761904761904E-2</v>
       </c>
       <c r="F62" t="s">
@@ -1978,7 +6978,7 @@
         <v>256</v>
       </c>
       <c r="E63" s="7">
-        <f t="shared" si="3"/>
+        <f>IFERROR(C63/D63," ")</f>
         <v>1.171875E-2</v>
       </c>
       <c r="F63" t="s">
@@ -1996,7 +6996,7 @@
         <v>256</v>
       </c>
       <c r="E64" s="7">
-        <f t="shared" si="3"/>
+        <f>IFERROR(C64/D64," ")</f>
         <v>1.171875E-2</v>
       </c>
       <c r="F64" t="s">
@@ -2014,7 +7014,7 @@
         <v>432</v>
       </c>
       <c r="E65" s="7">
-        <f t="shared" si="3"/>
+        <f>IFERROR(C65/D65," ")</f>
         <v>1.1574074074074073E-2</v>
       </c>
       <c r="F65" t="s">
@@ -2032,7 +7032,7 @@
         <v>264</v>
       </c>
       <c r="E66" s="7">
-        <f t="shared" si="3"/>
+        <f>IFERROR(C66/D66," ")</f>
         <v>1.1363636363636364E-2</v>
       </c>
       <c r="F66" t="s">
@@ -2050,7 +7050,7 @@
         <v>352</v>
       </c>
       <c r="E67" s="7">
-        <f t="shared" si="3"/>
+        <f>IFERROR(C67/D67," ")</f>
         <v>1.1363636363636364E-2</v>
       </c>
       <c r="F67" t="s">
@@ -2068,7 +7068,7 @@
         <v>266</v>
       </c>
       <c r="E68" s="7">
-        <f t="shared" si="3"/>
+        <f>IFERROR(C68/D68," ")</f>
         <v>1.1278195488721804E-2</v>
       </c>
       <c r="F68" t="s">
@@ -2086,7 +7086,7 @@
         <v>277</v>
       </c>
       <c r="E69" s="7">
-        <f t="shared" si="3"/>
+        <f>IFERROR(C69/D69," ")</f>
         <v>1.0830324909747292E-2</v>
       </c>
       <c r="F69" t="s">
@@ -2104,7 +7104,7 @@
         <v>384</v>
       </c>
       <c r="E70" s="7">
-        <f t="shared" si="3"/>
+        <f>IFERROR(C70/D70," ")</f>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="F70" t="s">
@@ -2122,7 +7122,7 @@
         <v>384</v>
       </c>
       <c r="E71" s="7">
-        <f t="shared" si="3"/>
+        <f>IFERROR(C71/D71," ")</f>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="F71" t="s">
@@ -2140,7 +7140,7 @@
         <v>288</v>
       </c>
       <c r="E72" s="7">
-        <f t="shared" si="3"/>
+        <f>IFERROR(C72/D72," ")</f>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="F72" t="s">
@@ -2158,7 +7158,7 @@
         <v>288</v>
       </c>
       <c r="E73" s="7">
-        <f t="shared" si="3"/>
+        <f>IFERROR(C73/D73," ")</f>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="F73" t="s">
@@ -2167,17 +7167,17 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C74" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" s="3">
-        <v>400</v>
+        <v>499</v>
       </c>
       <c r="E74" s="7">
-        <f t="shared" si="3"/>
-        <v>0.01</v>
+        <f>IFERROR(C74/D74," ")</f>
+        <v>1.002004008016032E-2</v>
       </c>
       <c r="F74" t="s">
         <v>72</v>
@@ -2185,16 +7185,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="C75" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E75" s="7">
-        <f t="shared" si="3"/>
+        <f>IFERROR(C75/D75," ")</f>
         <v>0.01</v>
       </c>
       <c r="F75" t="s">
@@ -2203,16 +7203,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C76" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E76" s="7">
-        <f t="shared" si="3"/>
+        <f>IFERROR(C76/D76," ")</f>
         <v>0.01</v>
       </c>
       <c r="F76" t="s">
@@ -2221,17 +7221,17 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C77" s="3">
         <v>4</v>
       </c>
       <c r="D77" s="3">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="E77" s="7">
-        <f t="shared" si="3"/>
-        <v>9.6153846153846159E-3</v>
+        <f>IFERROR(C77/D77," ")</f>
+        <v>0.01</v>
       </c>
       <c r="F77" t="s">
         <v>72</v>
@@ -2239,16 +7239,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C78" s="8">
-        <v>2</v>
+        <v>82</v>
+      </c>
+      <c r="C78" s="3">
+        <v>4</v>
       </c>
       <c r="D78" s="3">
-        <v>208</v>
+        <v>416</v>
       </c>
       <c r="E78" s="7">
-        <f t="shared" si="3"/>
+        <f>IFERROR(C78/D78," ")</f>
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="F78" t="s">
@@ -2257,16 +7257,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C79" s="3">
+        <v>15</v>
+      </c>
+      <c r="C79" s="8">
         <v>2</v>
       </c>
       <c r="D79" s="3">
         <v>208</v>
       </c>
       <c r="E79" s="7">
-        <f t="shared" si="3"/>
+        <f>IFERROR(C79/D79," ")</f>
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="F79" t="s">
@@ -2275,16 +7275,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="C80" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" s="3">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="E80" s="7">
-        <f t="shared" si="3"/>
+        <f>IFERROR(C80/D80," ")</f>
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="F80" t="s">
@@ -2293,17 +7293,17 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="C81" s="3">
         <v>3</v>
       </c>
       <c r="D81" s="3">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E81" s="7">
-        <f t="shared" si="3"/>
-        <v>9.4936708860759497E-3</v>
+        <f>IFERROR(C81/D81," ")</f>
+        <v>9.6153846153846159E-3</v>
       </c>
       <c r="F81" t="s">
         <v>72</v>
@@ -2311,17 +7311,17 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="C82" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" s="3">
-        <v>432</v>
+        <v>316</v>
       </c>
       <c r="E82" s="7">
-        <f t="shared" si="3"/>
-        <v>9.2592592592592587E-3</v>
+        <f>IFERROR(C82/D82," ")</f>
+        <v>9.4936708860759497E-3</v>
       </c>
       <c r="F82" t="s">
         <v>72</v>
@@ -2329,17 +7329,17 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="C83" s="3">
         <v>4</v>
       </c>
       <c r="D83" s="3">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E83" s="7">
-        <f t="shared" si="3"/>
-        <v>9.1743119266055051E-3</v>
+        <f>IFERROR(C83/D83," ")</f>
+        <v>9.2592592592592587E-3</v>
       </c>
       <c r="F83" t="s">
         <v>72</v>
@@ -2347,17 +7347,17 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C84" s="3">
         <v>4</v>
       </c>
       <c r="D84" s="3">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E84" s="7">
-        <f t="shared" si="3"/>
-        <v>9.0090090090090089E-3</v>
+        <f>IFERROR(C84/D84," ")</f>
+        <v>9.1743119266055051E-3</v>
       </c>
       <c r="F84" t="s">
         <v>72</v>
@@ -2365,17 +7365,17 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C85" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" s="3">
-        <v>336</v>
+        <v>444</v>
       </c>
       <c r="E85" s="7">
-        <f t="shared" si="3"/>
-        <v>8.9285714285714281E-3</v>
+        <f>IFERROR(C85/D85," ")</f>
+        <v>9.0090090090090089E-3</v>
       </c>
       <c r="F85" t="s">
         <v>72</v>
@@ -2383,17 +7383,17 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C86" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" s="3">
-        <v>225</v>
+        <v>336</v>
       </c>
       <c r="E86" s="7">
-        <f t="shared" si="3"/>
-        <v>8.8888888888888889E-3</v>
+        <f>IFERROR(C86/D86," ")</f>
+        <v>8.9285714285714281E-3</v>
       </c>
       <c r="F86" t="s">
         <v>72</v>
@@ -2401,17 +7401,17 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C87" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" s="3">
-        <v>344</v>
+        <v>225</v>
       </c>
       <c r="E87" s="7">
-        <f t="shared" si="3"/>
-        <v>8.7209302325581394E-3</v>
+        <f>IFERROR(C87/D87," ")</f>
+        <v>8.8888888888888889E-3</v>
       </c>
       <c r="F87" t="s">
         <v>72</v>
@@ -2419,17 +7419,17 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="C88" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" s="3">
-        <v>464</v>
+        <v>344</v>
       </c>
       <c r="E88" s="7">
-        <f t="shared" si="3"/>
-        <v>8.6206896551724137E-3</v>
+        <f>IFERROR(C88/D88," ")</f>
+        <v>8.7209302325581394E-3</v>
       </c>
       <c r="F88" t="s">
         <v>72</v>
@@ -2437,7 +7437,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C89" s="3">
         <v>4</v>
@@ -2446,7 +7446,7 @@
         <v>464</v>
       </c>
       <c r="E89" s="7">
-        <f t="shared" ref="E89:E120" si="4">IFERROR(C89/D89," ")</f>
+        <f>IFERROR(C89/D89," ")</f>
         <v>8.6206896551724137E-3</v>
       </c>
       <c r="F89" t="s">
@@ -2455,17 +7455,17 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C90" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" s="3">
-        <v>352</v>
+        <v>464</v>
       </c>
       <c r="E90" s="7">
-        <f t="shared" si="4"/>
-        <v>8.5227272727272721E-3</v>
+        <f>IFERROR(C90/D90," ")</f>
+        <v>8.6206896551724137E-3</v>
       </c>
       <c r="F90" t="s">
         <v>72</v>
@@ -2473,7 +7473,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="C91" s="3">
         <v>3</v>
@@ -2482,7 +7482,7 @@
         <v>352</v>
       </c>
       <c r="E91" s="7">
-        <f t="shared" si="4"/>
+        <f>IFERROR(C91/D91," ")</f>
         <v>8.5227272727272721E-3</v>
       </c>
       <c r="F91" t="s">
@@ -2491,17 +7491,17 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="C92" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" s="3">
-        <v>480</v>
+        <v>352</v>
       </c>
       <c r="E92" s="7">
-        <f t="shared" si="4"/>
-        <v>8.3333333333333332E-3</v>
+        <f>IFERROR(C92/D92," ")</f>
+        <v>8.5227272727272721E-3</v>
       </c>
       <c r="F92" t="s">
         <v>72</v>
@@ -2509,16 +7509,16 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C93" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" s="3">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="E93" s="7">
-        <f t="shared" si="4"/>
+        <f>IFERROR(C93/D93," ")</f>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="F93" t="s">
@@ -2527,16 +7527,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C94" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" s="3">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="E94" s="7">
-        <f t="shared" si="4"/>
+        <f>IFERROR(C94/D94," ")</f>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="F94" t="s">
@@ -2545,17 +7545,17 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C95" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" s="3">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="E95" s="7">
-        <f t="shared" si="4"/>
-        <v>8.152173913043478E-3</v>
+        <f>IFERROR(C95/D95," ")</f>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="F95" t="s">
         <v>72</v>
@@ -2563,7 +7563,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C96" s="3">
         <v>3</v>
@@ -2572,7 +7572,7 @@
         <v>368</v>
       </c>
       <c r="E96" s="7">
-        <f t="shared" si="4"/>
+        <f>IFERROR(C96/D96," ")</f>
         <v>8.152173913043478E-3</v>
       </c>
       <c r="F96" t="s">
@@ -2581,17 +7581,17 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="C97" s="3">
         <v>3</v>
       </c>
       <c r="D97" s="3">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E97" s="7">
-        <f t="shared" si="4"/>
-        <v>8.0862533692722376E-3</v>
+        <f>IFERROR(C97/D97," ")</f>
+        <v>8.152173913043478E-3</v>
       </c>
       <c r="F97" t="s">
         <v>72</v>
@@ -2599,17 +7599,17 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="C98" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" s="3">
-        <v>499</v>
+        <v>371</v>
       </c>
       <c r="E98" s="7">
-        <f t="shared" si="4"/>
-        <v>8.0160320641282558E-3</v>
+        <f>IFERROR(C98/D98," ")</f>
+        <v>8.0862533692722376E-3</v>
       </c>
       <c r="F98" t="s">
         <v>72</v>
@@ -2626,7 +7626,7 @@
         <v>250</v>
       </c>
       <c r="E99" s="7">
-        <f t="shared" si="4"/>
+        <f>IFERROR(C99/D99," ")</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="F99" t="s">
@@ -2644,7 +7644,7 @@
         <v>512</v>
       </c>
       <c r="E100" s="7">
-        <f t="shared" si="4"/>
+        <f>IFERROR(C100/D100," ")</f>
         <v>7.8125E-3</v>
       </c>
       <c r="F100" t="s">
@@ -2662,7 +7662,7 @@
         <v>512</v>
       </c>
       <c r="E101" s="7">
-        <f t="shared" si="4"/>
+        <f>IFERROR(C101/D101," ")</f>
         <v>7.8125E-3</v>
       </c>
       <c r="F101" t="s">
@@ -2680,7 +7680,7 @@
         <v>264</v>
       </c>
       <c r="E102" s="7">
-        <f t="shared" si="4"/>
+        <f>IFERROR(C102/D102," ")</f>
         <v>7.575757575757576E-3</v>
       </c>
       <c r="F102" t="s">
@@ -2698,7 +7698,7 @@
         <v>400</v>
       </c>
       <c r="E103" s="7">
-        <f t="shared" si="4"/>
+        <f>IFERROR(C103/D103," ")</f>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="F103" t="s">
@@ -2716,7 +7716,7 @@
         <v>544</v>
       </c>
       <c r="E104" s="7">
-        <f t="shared" si="4"/>
+        <f>IFERROR(C104/D104," ")</f>
         <v>7.3529411764705881E-3</v>
       </c>
       <c r="F104" t="s">
@@ -2734,7 +7734,7 @@
         <v>416</v>
       </c>
       <c r="E105" s="7">
-        <f t="shared" si="4"/>
+        <f>IFERROR(C105/D105," ")</f>
         <v>7.2115384615384619E-3</v>
       </c>
       <c r="F105" t="s">
@@ -2752,7 +7752,7 @@
         <v>560</v>
       </c>
       <c r="E106" s="7">
-        <f t="shared" si="4"/>
+        <f>IFERROR(C106/D106," ")</f>
         <v>7.1428571428571426E-3</v>
       </c>
       <c r="F106" t="s">
@@ -2770,7 +7770,7 @@
         <v>284</v>
       </c>
       <c r="E107" s="7">
-        <f t="shared" si="4"/>
+        <f>IFERROR(C107/D107," ")</f>
         <v>7.0422535211267607E-3</v>
       </c>
       <c r="F107" t="s">
@@ -2788,7 +7788,7 @@
         <v>288</v>
       </c>
       <c r="E108" s="7">
-        <f t="shared" si="4"/>
+        <f>IFERROR(C108/D108," ")</f>
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F108" t="s">
@@ -2806,7 +7806,7 @@
         <v>736</v>
       </c>
       <c r="E109" s="7">
-        <f t="shared" si="4"/>
+        <f>IFERROR(C109/D109," ")</f>
         <v>6.793478260869565E-3</v>
       </c>
       <c r="F109" t="s">
@@ -2824,7 +7824,7 @@
         <v>148</v>
       </c>
       <c r="E110" s="7">
-        <f t="shared" si="4"/>
+        <f>IFERROR(C110/D110," ")</f>
         <v>6.7567567567567571E-3</v>
       </c>
       <c r="F110" t="s">
@@ -2842,7 +7842,7 @@
         <v>450</v>
       </c>
       <c r="E111" s="7">
-        <f t="shared" si="4"/>
+        <f>IFERROR(C111/D111," ")</f>
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="F111" t="s">
@@ -2860,7 +7860,7 @@
         <v>464</v>
       </c>
       <c r="E112" s="7">
-        <f t="shared" si="4"/>
+        <f>IFERROR(C112/D112," ")</f>
         <v>6.4655172413793103E-3</v>
       </c>
       <c r="F112" t="s">
@@ -2878,7 +7878,7 @@
         <v>480</v>
       </c>
       <c r="E113" s="7">
-        <f t="shared" si="4"/>
+        <f>IFERROR(C113/D113," ")</f>
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="F113" t="s">
@@ -2896,7 +7896,7 @@
         <v>480</v>
       </c>
       <c r="E114" s="7">
-        <f t="shared" si="4"/>
+        <f>IFERROR(C114/D114," ")</f>
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="F114" t="s">
@@ -2914,7 +7914,7 @@
         <v>488</v>
       </c>
       <c r="E115" s="7">
-        <f t="shared" si="4"/>
+        <f>IFERROR(C115/D115," ")</f>
         <v>6.1475409836065573E-3</v>
       </c>
       <c r="F115" t="s">
@@ -2932,7 +7932,7 @@
         <v>332</v>
       </c>
       <c r="E116" s="7">
-        <f t="shared" si="4"/>
+        <f>IFERROR(C116/D116," ")</f>
         <v>6.024096385542169E-3</v>
       </c>
       <c r="F116" t="s">
@@ -2950,7 +7950,7 @@
         <v>332</v>
       </c>
       <c r="E117" s="7">
-        <f t="shared" si="4"/>
+        <f>IFERROR(C117/D117," ")</f>
         <v>6.024096385542169E-3</v>
       </c>
       <c r="F117" t="s">
@@ -2968,7 +7968,7 @@
         <v>344</v>
       </c>
       <c r="E118" s="7">
-        <f t="shared" si="4"/>
+        <f>IFERROR(C118/D118," ")</f>
         <v>5.8139534883720929E-3</v>
       </c>
       <c r="F118" t="s">
@@ -2986,7 +7986,7 @@
         <v>704</v>
       </c>
       <c r="E119" s="7">
-        <f t="shared" si="4"/>
+        <f>IFERROR(C119/D119," ")</f>
         <v>5.681818181818182E-3</v>
       </c>
       <c r="F119" t="s">
@@ -3004,7 +8004,7 @@
         <v>366</v>
       </c>
       <c r="E120" s="7">
-        <f t="shared" si="4"/>
+        <f>IFERROR(C120/D120," ")</f>
         <v>5.4644808743169399E-3</v>
       </c>
       <c r="F120" t="s">
@@ -3022,7 +8022,7 @@
         <v>736</v>
       </c>
       <c r="E121" s="7">
-        <f t="shared" ref="E121:E152" si="5">IFERROR(C121/D121," ")</f>
+        <f>IFERROR(C121/D121," ")</f>
         <v>5.434782608695652E-3</v>
       </c>
       <c r="F121" t="s">
@@ -3040,7 +8040,7 @@
         <v>373</v>
       </c>
       <c r="E122" s="7">
-        <f t="shared" si="5"/>
+        <f>IFERROR(C122/D122," ")</f>
         <v>5.3619302949061663E-3</v>
       </c>
       <c r="F122" t="s">
@@ -3058,7 +8058,7 @@
         <v>560</v>
       </c>
       <c r="E123" s="7">
-        <f t="shared" si="5"/>
+        <f>IFERROR(C123/D123," ")</f>
         <v>5.3571428571428572E-3</v>
       </c>
       <c r="F123" t="s">
@@ -3076,7 +8076,7 @@
         <v>560</v>
       </c>
       <c r="E124" s="7">
-        <f t="shared" si="5"/>
+        <f>IFERROR(C124/D124," ")</f>
         <v>5.3571428571428572E-3</v>
       </c>
       <c r="F124" t="s">
@@ -3094,7 +8094,7 @@
         <v>576</v>
       </c>
       <c r="E125" s="7">
-        <f t="shared" si="5"/>
+        <f>IFERROR(C125/D125," ")</f>
         <v>5.208333333333333E-3</v>
       </c>
       <c r="F125" t="s">
@@ -3112,7 +8112,7 @@
         <v>384</v>
       </c>
       <c r="E126" s="7">
-        <f t="shared" si="5"/>
+        <f>IFERROR(C126/D126," ")</f>
         <v>5.208333333333333E-3</v>
       </c>
       <c r="F126" t="s">
@@ -3130,7 +8130,7 @@
         <v>200</v>
       </c>
       <c r="E127" s="7">
-        <f t="shared" si="5"/>
+        <f>IFERROR(C127/D127," ")</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F127" t="s">
@@ -3148,7 +8148,7 @@
         <v>400</v>
       </c>
       <c r="E128" s="7">
-        <f t="shared" si="5"/>
+        <f>IFERROR(C128/D128," ")</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F128" t="s">
@@ -3166,7 +8166,7 @@
         <v>416</v>
       </c>
       <c r="E129" s="7">
-        <f t="shared" si="5"/>
+        <f>IFERROR(C129/D129," ")</f>
         <v>4.807692307692308E-3</v>
       </c>
       <c r="F129" t="s">
@@ -3184,7 +8184,7 @@
         <v>416</v>
       </c>
       <c r="E130" s="7">
-        <f t="shared" si="5"/>
+        <f>IFERROR(C130/D130," ")</f>
         <v>4.807692307692308E-3</v>
       </c>
       <c r="F130" t="s">
@@ -3202,7 +8202,7 @@
         <v>848</v>
       </c>
       <c r="E131" s="7">
-        <f t="shared" si="5"/>
+        <f>IFERROR(C131/D131," ")</f>
         <v>4.7169811320754715E-3</v>
       </c>
       <c r="F131" t="s">
@@ -3220,7 +8220,7 @@
         <v>440</v>
       </c>
       <c r="E132" s="7">
-        <f t="shared" si="5"/>
+        <f>IFERROR(C132/D132," ")</f>
         <v>4.5454545454545452E-3</v>
       </c>
       <c r="F132" t="s">
@@ -3238,7 +8238,7 @@
         <v>456</v>
       </c>
       <c r="E133" s="7">
-        <f t="shared" si="5"/>
+        <f>IFERROR(C133/D133," ")</f>
         <v>4.3859649122807015E-3</v>
       </c>
       <c r="F133" t="s">
@@ -3256,7 +8256,7 @@
         <v>528</v>
       </c>
       <c r="E134" s="7">
-        <f t="shared" si="5"/>
+        <f>IFERROR(C134/D134," ")</f>
         <v>3.787878787878788E-3</v>
       </c>
       <c r="F134" t="s">
@@ -3274,7 +8274,7 @@
         <v>544</v>
       </c>
       <c r="E135" s="7">
-        <f t="shared" si="5"/>
+        <f>IFERROR(C135/D135," ")</f>
         <v>3.6764705882352941E-3</v>
       </c>
       <c r="F135" t="s">
@@ -3292,41 +8292,62 @@
         <v>848</v>
       </c>
       <c r="E136" s="7">
-        <f t="shared" si="5"/>
+        <f>IFERROR(C136/D136," ")</f>
         <v>3.5377358490566039E-3</v>
       </c>
       <c r="F136" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="C137" s="3">
         <v>3</v>
       </c>
+      <c r="D137" s="3">
+        <v>864</v>
+      </c>
+      <c r="E137" s="7">
+        <f>IFERROR(C137/D137," ")</f>
+        <v>3.472222222222222E-3</v>
+      </c>
       <c r="F137" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>146</v>
+        <v>6</v>
       </c>
       <c r="C138" s="3">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D138" s="3">
+        <v>616</v>
+      </c>
+      <c r="E138" s="7">
+        <f>IFERROR(C138/D138," ")</f>
+        <v>3.246753246753247E-3</v>
       </c>
       <c r="F138" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="C139" s="3">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="D139" s="3">
+        <v>320</v>
+      </c>
+      <c r="E139" s="7">
+        <f>IFERROR(C139/D139," ")</f>
+        <v>3.1250000000000002E-3</v>
       </c>
       <c r="F139" t="s">
         <v>72</v>
@@ -3334,53 +8355,39 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C140" s="3">
         <v>3</v>
       </c>
       <c r="D140" s="3">
-        <v>864</v>
+        <v>1280</v>
       </c>
       <c r="E140" s="7">
-        <f t="shared" ref="E140:E171" si="6">IFERROR(C140/D140," ")</f>
-        <v>3.472222222222222E-3</v>
+        <f>IFERROR(C140/D140," ")</f>
+        <v>2.3437499999999999E-3</v>
       </c>
       <c r="F140" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="C141" s="3">
-        <v>2</v>
-      </c>
-      <c r="D141" s="3">
-        <v>616</v>
-      </c>
-      <c r="E141" s="7">
-        <f t="shared" si="6"/>
-        <v>3.246753246753247E-3</v>
+        <v>3</v>
       </c>
       <c r="F141" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="C142" s="3">
-        <v>1</v>
-      </c>
-      <c r="D142" s="3">
-        <v>320</v>
-      </c>
-      <c r="E142" s="7">
-        <f t="shared" si="6"/>
-        <v>3.1250000000000002E-3</v>
+        <v>4</v>
       </c>
       <c r="F142" t="s">
         <v>72</v>
@@ -3388,473 +8395,466 @@
     </row>
     <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E143" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(C143/D143," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E144" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(C144/D144," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="145" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E145" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(C145/D145," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="146" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E146" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(C146/D146," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="147" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E147" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(C147/D147," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="148" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E148" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(C148/D148," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="149" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E149" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(C149/D149," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="150" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E150" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(C150/D150," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="151" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E151" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(C151/D151," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="152" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E152" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(C152/D152," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="153" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E153" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(C153/D153," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="154" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E154" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(C154/D154," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="155" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E155" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(C155/D155," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="156" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E156" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(C156/D156," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="157" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E157" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(C157/D157," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="158" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E158" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(C158/D158," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="159" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E159" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(C159/D159," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="160" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E160" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(C160/D160," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="161" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E161" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(C161/D161," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="162" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E162" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(C162/D162," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="163" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E163" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(C163/D163," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="164" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E164" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(C164/D164," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="165" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E165" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(C165/D165," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="166" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E166" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(C166/D166," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="167" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E167" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(C167/D167," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="168" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E168" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(C168/D168," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="169" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E169" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(C169/D169," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="170" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E170" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(C170/D170," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="171" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E171" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(C171/D171," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="172" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E172" s="7" t="str">
-        <f t="shared" ref="E172:E203" si="7">IFERROR(C172/D172," ")</f>
+        <f>IFERROR(C172/D172," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="173" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E173" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C173/D173," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="174" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E174" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C174/D174," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="175" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E175" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C175/D175," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="176" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E176" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C176/D176," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="177" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E177" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C177/D177," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="178" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E178" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C178/D178," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="179" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E179" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C179/D179," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="180" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E180" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C180/D180," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="181" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E181" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C181/D181," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="182" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E182" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C182/D182," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="183" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E183" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C183/D183," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="184" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E184" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C184/D184," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="185" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E185" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C185/D185," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="186" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E186" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C186/D186," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="187" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E187" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C187/D187," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="188" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E188" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C188/D188," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="189" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E189" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C189/D189," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="190" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E190" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C190/D190," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="191" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E191" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C191/D191," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="192" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E192" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C192/D192," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="193" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E193" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C193/D193," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="194" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E194" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C194/D194," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="195" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E195" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C195/D195," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="196" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E196" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C196/D196," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="197" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E197" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C197/D197," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="198" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E198" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C198/D198," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="199" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E199" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C199/D199," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="200" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E200" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C200/D200," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="201" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E201" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C201/D201," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="202" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E202" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C202/D202," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="203" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E203" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IFERROR(C203/D203," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="204" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E204" s="7" t="str">
-        <f t="shared" ref="E204:E235" si="8">IFERROR(C204/D204," ")</f>
+        <f>IFERROR(C204/D204," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="205" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E205" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f>IFERROR(C205/D205," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="206" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E206" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f>IFERROR(C206/D206," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="207" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E207" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f>IFERROR(C207/D207," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="208" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E208" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f>IFERROR(C208/D208," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E209" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f>IFERROR(C209/D209," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E210" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f>IFERROR(C210/D210," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E211" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f>IFERROR(C211/D211," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E212" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f>IFERROR(C212/D212," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E213" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f>IFERROR(C213/D213," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E214" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f>IFERROR(C214/D214," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E215" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f>IFERROR(C215/D215," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E216" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f>IFERROR(C216/D216," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E217" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f>IFERROR(C217/D217," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E218" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f>IFERROR(C218/D218," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="C219" s="3">
-        <v>3</v>
-      </c>
-      <c r="D219" s="3">
-        <v>1280</v>
-      </c>
-      <c r="E219" s="7">
-        <f t="shared" si="8"/>
-        <v>2.3437499999999999E-3</v>
+        <v>4</v>
       </c>
       <c r="F219" t="s">
         <v>72</v>
@@ -3874,7 +8874,7 @@
     <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A2:F231">
-    <filterColumn colId="4">
+    <filterColumn colId="3">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
@@ -3884,7 +8884,7 @@
         <filter val="No"/>
       </filters>
     </filterColumn>
-    <sortState ref="A15:F219">
+    <sortState ref="A4:F219">
       <sortCondition descending="1" ref="E2:E231"/>
     </sortState>
   </autoFilter>
@@ -3910,7 +8910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E131"/>
@@ -5517,19 +10517,19 @@
     <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f>Unread!A74</f>
-        <v>The Age of American Unreason</v>
+        <v>Thinking Fast and Slow</v>
       </c>
       <c r="B74">
         <f>Unread!C74</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C74">
         <f>Unread!D74</f>
-        <v>400</v>
+        <v>499</v>
       </c>
       <c r="D74">
         <f>Unread!E74</f>
-        <v>0.01</v>
+        <v>1.002004008016032E-2</v>
       </c>
       <c r="E74" t="str">
         <f>Unread!F74</f>
@@ -5539,15 +10539,15 @@
     <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f>Unread!A75</f>
-        <v>Ohio A Personal Portrait of the 17th State</v>
+        <v>The Age of American Unreason</v>
       </c>
       <c r="B75">
         <f>Unread!C75</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C75">
         <f>Unread!D75</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D75">
         <f>Unread!E75</f>
@@ -5561,15 +10561,15 @@
     <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f>Unread!A76</f>
-        <v>Guidebook for Marines</v>
+        <v>Ohio A Personal Portrait of the 17th State</v>
       </c>
       <c r="B76">
         <f>Unread!C76</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C76">
         <f>Unread!D76</f>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D76">
         <f>Unread!E76</f>
@@ -5583,7 +10583,7 @@
     <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f>Unread!A77</f>
-        <v xml:space="preserve">The Gamble: General Petraeus and the American Military Adventure in Iraq  </v>
+        <v>Guidebook for Marines</v>
       </c>
       <c r="B77">
         <f>Unread!C77</f>
@@ -5591,11 +10591,11 @@
       </c>
       <c r="C77">
         <f>Unread!D77</f>
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="D77">
         <f>Unread!E77</f>
-        <v>9.6153846153846159E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E77" t="str">
         <f>Unread!F77</f>
@@ -5605,15 +10605,15 @@
     <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f>Unread!A78</f>
-        <v>The Alchemist</v>
+        <v xml:space="preserve">The Gamble: General Petraeus and the American Military Adventure in Iraq  </v>
       </c>
       <c r="B78">
         <f>Unread!C78</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C78">
         <f>Unread!D78</f>
-        <v>208</v>
+        <v>416</v>
       </c>
       <c r="D78">
         <f>Unread!E78</f>
@@ -5627,7 +10627,7 @@
     <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f>Unread!A79</f>
-        <v xml:space="preserve">Physics Made Simple: A Complete Introduction to the Basic Principles of This Fundamental Science (Made    - Simple (Broadway Books))  </v>
+        <v>The Alchemist</v>
       </c>
       <c r="B79">
         <f>Unread!C79</f>
@@ -5649,15 +10649,15 @@
     <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f>Unread!A80</f>
-        <v>Knocking on Labor's Door</v>
+        <v xml:space="preserve">Physics Made Simple: A Complete Introduction to the Basic Principles of This Fundamental Science (Made    - Simple (Broadway Books))  </v>
       </c>
       <c r="B80">
         <f>Unread!C80</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80">
         <f>Unread!D80</f>
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="D80">
         <f>Unread!E80</f>
@@ -5671,7 +10671,7 @@
     <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f>Unread!A81</f>
-        <v>Boots and Saddles</v>
+        <v>Knocking on Labor's Door</v>
       </c>
       <c r="B81">
         <f>Unread!C81</f>
@@ -5679,11 +10679,11 @@
       </c>
       <c r="C81">
         <f>Unread!D81</f>
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D81">
         <f>Unread!E81</f>
-        <v>9.4936708860759497E-3</v>
+        <v>9.6153846153846159E-3</v>
       </c>
       <c r="E81" t="str">
         <f>Unread!F81</f>
@@ -5693,19 +10693,19 @@
     <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f>Unread!A82</f>
-        <v>Bringing up Bebe</v>
+        <v>Boots and Saddles</v>
       </c>
       <c r="B82">
         <f>Unread!C82</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C82">
         <f>Unread!D82</f>
-        <v>432</v>
+        <v>316</v>
       </c>
       <c r="D82">
         <f>Unread!E82</f>
-        <v>9.2592592592592587E-3</v>
+        <v>9.4936708860759497E-3</v>
       </c>
       <c r="E82" t="str">
         <f>Unread!F82</f>
@@ -5715,7 +10715,7 @@
     <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f>Unread!A83</f>
-        <v xml:space="preserve">I Am a Strange Loop  </v>
+        <v>Bringing up Bebe</v>
       </c>
       <c r="B83">
         <f>Unread!C83</f>
@@ -5723,11 +10723,11 @@
       </c>
       <c r="C83">
         <f>Unread!D83</f>
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D83">
         <f>Unread!E83</f>
-        <v>9.1743119266055051E-3</v>
+        <v>9.2592592592592587E-3</v>
       </c>
       <c r="E83" t="str">
         <f>Unread!F83</f>
@@ -5737,7 +10737,7 @@
     <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f>Unread!A84</f>
-        <v>The Black Swan</v>
+        <v xml:space="preserve">I Am a Strange Loop  </v>
       </c>
       <c r="B84">
         <f>Unread!C84</f>
@@ -5745,11 +10745,11 @@
       </c>
       <c r="C84">
         <f>Unread!D84</f>
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="D84">
         <f>Unread!E84</f>
-        <v>9.0090090090090089E-3</v>
+        <v>9.1743119266055051E-3</v>
       </c>
       <c r="E84" t="str">
         <f>Unread!F84</f>
@@ -5759,19 +10759,19 @@
     <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f>Unread!A85</f>
-        <v xml:space="preserve">Eichmann in Jerusalem: A Report on the Banality of Evil (Penguin Classics)  </v>
+        <v>The Black Swan</v>
       </c>
       <c r="B85">
         <f>Unread!C85</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C85">
         <f>Unread!D85</f>
-        <v>336</v>
+        <v>444</v>
       </c>
       <c r="D85">
         <f>Unread!E85</f>
-        <v>8.9285714285714281E-3</v>
+        <v>9.0090090090090089E-3</v>
       </c>
       <c r="E85" t="str">
         <f>Unread!F85</f>
@@ -5781,19 +10781,19 @@
     <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f>Unread!A86</f>
-        <v>The Relativity of Wrong (Asimov)</v>
+        <v xml:space="preserve">Eichmann in Jerusalem: A Report on the Banality of Evil (Penguin Classics)  </v>
       </c>
       <c r="B86">
         <f>Unread!C86</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C86">
         <f>Unread!D86</f>
-        <v>225</v>
+        <v>336</v>
       </c>
       <c r="D86">
         <f>Unread!E86</f>
-        <v>8.8888888888888889E-3</v>
+        <v>8.9285714285714281E-3</v>
       </c>
       <c r="E86" t="str">
         <f>Unread!F86</f>
@@ -5803,19 +10803,19 @@
     <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f>Unread!A87</f>
-        <v>Nuclear Weapons and Coercive Diplomacy</v>
+        <v>The Relativity of Wrong (Asimov)</v>
       </c>
       <c r="B87">
         <f>Unread!C87</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87">
         <f>Unread!D87</f>
-        <v>344</v>
+        <v>225</v>
       </c>
       <c r="D87">
         <f>Unread!E87</f>
-        <v>8.7209302325581394E-3</v>
+        <v>8.8888888888888889E-3</v>
       </c>
       <c r="E87" t="str">
         <f>Unread!F87</f>
@@ -5825,19 +10825,19 @@
     <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f>Unread!A88</f>
-        <v>A Generation of Sociopaths</v>
+        <v>Nuclear Weapons and Coercive Diplomacy</v>
       </c>
       <c r="B88">
         <f>Unread!C88</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C88">
         <f>Unread!D88</f>
-        <v>464</v>
+        <v>344</v>
       </c>
       <c r="D88">
         <f>Unread!E88</f>
-        <v>8.6206896551724137E-3</v>
+        <v>8.7209302325581394E-3</v>
       </c>
       <c r="E88" t="str">
         <f>Unread!F88</f>
@@ -5847,7 +10847,7 @@
     <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f>Unread!A89</f>
-        <v xml:space="preserve">Abraham Lincoln and the Structure of Reason  </v>
+        <v>A Generation of Sociopaths</v>
       </c>
       <c r="B89">
         <f>Unread!C89</f>
@@ -5869,19 +10869,19 @@
     <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f>Unread!A90</f>
-        <v xml:space="preserve">Silence: A Christian History  </v>
+        <v xml:space="preserve">Abraham Lincoln and the Structure of Reason  </v>
       </c>
       <c r="B90">
         <f>Unread!C90</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C90">
         <f>Unread!D90</f>
-        <v>352</v>
+        <v>464</v>
       </c>
       <c r="D90">
         <f>Unread!E90</f>
-        <v>8.5227272727272721E-3</v>
+        <v>8.6206896551724137E-3</v>
       </c>
       <c r="E90" t="str">
         <f>Unread!F90</f>
@@ -5891,7 +10891,7 @@
     <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f>Unread!A91</f>
-        <v>The Eastern Front 1914-1917</v>
+        <v xml:space="preserve">Silence: A Christian History  </v>
       </c>
       <c r="B91">
         <f>Unread!C91</f>
@@ -5913,19 +10913,19 @@
     <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f>Unread!A92</f>
-        <v>The Battle for God</v>
+        <v>The Eastern Front 1914-1917</v>
       </c>
       <c r="B92">
         <f>Unread!C92</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C92">
         <f>Unread!D92</f>
-        <v>480</v>
+        <v>352</v>
       </c>
       <c r="D92">
         <f>Unread!E92</f>
-        <v>8.3333333333333332E-3</v>
+        <v>8.5227272727272721E-3</v>
       </c>
       <c r="E92" t="str">
         <f>Unread!F92</f>
@@ -5935,15 +10935,15 @@
     <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f>Unread!A93</f>
-        <v>Warriors and Citizens</v>
+        <v>The Battle for God</v>
       </c>
       <c r="B93">
         <f>Unread!C93</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C93">
         <f>Unread!D93</f>
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D93">
         <f>Unread!E93</f>
@@ -5957,15 +10957,15 @@
     <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f>Unread!A94</f>
-        <v>Bible Nation</v>
+        <v>Warriors and Citizens</v>
       </c>
       <c r="B94">
         <f>Unread!C94</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C94">
         <f>Unread!D94</f>
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="D94">
         <f>Unread!E94</f>
@@ -5979,19 +10979,19 @@
     <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f>Unread!A95</f>
-        <v>Leaders Eat Last</v>
+        <v>Bible Nation</v>
       </c>
       <c r="B95">
         <f>Unread!C95</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C95">
         <f>Unread!D95</f>
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="D95">
         <f>Unread!E95</f>
-        <v>8.152173913043478E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="E95" t="str">
         <f>Unread!F95</f>
@@ -6001,7 +11001,7 @@
     <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f>Unread!A96</f>
-        <v>Legionnaire</v>
+        <v>Leaders Eat Last</v>
       </c>
       <c r="B96">
         <f>Unread!C96</f>
@@ -6023,7 +11023,7 @@
     <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f>Unread!A97</f>
-        <v>Empire of the Summer Moon: Quanah Parker and the Rise and Fall of the Comanche's, the Most Powerful</v>
+        <v>Legionnaire</v>
       </c>
       <c r="B97">
         <f>Unread!C97</f>
@@ -6031,11 +11031,11 @@
       </c>
       <c r="C97">
         <f>Unread!D97</f>
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D97">
         <f>Unread!E97</f>
-        <v>8.0862533692722376E-3</v>
+        <v>8.152173913043478E-3</v>
       </c>
       <c r="E97" t="str">
         <f>Unread!F97</f>
@@ -6045,19 +11045,19 @@
     <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f>Unread!A98</f>
-        <v>Thinking Fast and Slow</v>
+        <v>Empire of the Summer Moon: Quanah Parker and the Rise and Fall of the Comanche's, the Most Powerful</v>
       </c>
       <c r="B98">
         <f>Unread!C98</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C98">
         <f>Unread!D98</f>
-        <v>499</v>
+        <v>371</v>
       </c>
       <c r="D98">
         <f>Unread!E98</f>
-        <v>8.0160320641282558E-3</v>
+        <v>8.0862533692722376E-3</v>
       </c>
       <c r="E98" t="str">
         <f>Unread!F98</f>
@@ -6802,7 +11802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>

--- a/Book Ranking.xlsx
+++ b/Book Ranking.xlsx
@@ -20,13 +20,13 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="161">
   <si>
     <t>Book Ranking</t>
   </si>
@@ -600,7 +600,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="43133.579439236113" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="217">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:F219" sheet="Unread"/>
+    <worksheetSource ref="A2:F219" sheet="Unread" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Title" numFmtId="0">
@@ -2722,7 +2722,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1">
   <location ref="A4:A110" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -5861,7 +5861,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5928,7 +5928,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>IFERROR(C4/D4," ")</f>
+        <f t="shared" ref="E4:E18" si="1">IFERROR(C4/D4," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F4" t="s">
@@ -5943,7 +5943,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>IFERROR(C5/D5," ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F5" t="s">
@@ -5958,7 +5958,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>IFERROR(C6/D6," ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F6" t="s">
@@ -5973,7 +5973,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>IFERROR(C7/D7," ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F7" t="s">
@@ -5988,7 +5988,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>IFERROR(C8/D8," ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F8" t="s">
@@ -6003,7 +6003,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>IFERROR(C9/D9," ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F9" t="s">
@@ -6018,7 +6018,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>IFERROR(C10/D10," ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F10" t="s">
@@ -6033,7 +6033,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>IFERROR(C11/D11," ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F11" t="s">
@@ -6048,7 +6048,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="7" t="str">
-        <f>IFERROR(C12/D12," ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F12" t="s">
@@ -6063,7 +6063,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="7" t="str">
-        <f>IFERROR(C13/D13," ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F13" t="s">
@@ -6081,7 +6081,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="7">
-        <f>IFERROR(C14/D14," ")</f>
+        <f t="shared" si="1"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="F14" t="s">
@@ -6102,7 +6102,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="7">
-        <f>IFERROR(C15/D15," ")</f>
+        <f t="shared" si="1"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="F15" t="s">
@@ -6123,7 +6123,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="7">
-        <f>IFERROR(C16/D16," ")</f>
+        <f t="shared" si="1"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="F16" t="s">
@@ -6144,7 +6144,7 @@
         <v>12</v>
       </c>
       <c r="E17" s="7">
-        <f>IFERROR(C17/D17," ")</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="F17" t="s">
@@ -6165,7 +6165,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="7">
-        <f>IFERROR(C18/D18," ")</f>
+        <f t="shared" si="1"/>
         <v>0.21428571428571427</v>
       </c>
       <c r="F18" t="s">
@@ -6194,6 +6194,9 @@
       <c r="A20" s="5" t="s">
         <v>138</v>
       </c>
+      <c r="B20" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="C20" s="3">
         <v>4</v>
       </c>
@@ -6229,9 +6232,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>143</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
@@ -6247,9 +6253,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>142</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="C23" s="3">
         <v>3</v>
@@ -6269,6 +6278,9 @@
       <c r="A24" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="B24" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C24" s="3">
         <v>2</v>
       </c>
@@ -6283,10 +6295,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>139</v>
       </c>
+      <c r="B25" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="C25" s="3">
         <v>3</v>
       </c>
@@ -6294,7 +6309,7 @@
         <v>55</v>
       </c>
       <c r="E25" s="7">
-        <f>IFERROR(C25/D25," ")</f>
+        <f t="shared" ref="E25:E56" si="2">IFERROR(C25/D25," ")</f>
         <v>5.4545454545454543E-2</v>
       </c>
       <c r="F25" t="s">
@@ -6305,6 +6320,9 @@
       <c r="A26" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="B26" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C26" s="3">
         <v>4</v>
       </c>
@@ -6312,7 +6330,7 @@
         <v>74</v>
       </c>
       <c r="E26" s="7">
-        <f>IFERROR(C26/D26," ")</f>
+        <f t="shared" si="2"/>
         <v>5.4054054054054057E-2</v>
       </c>
       <c r="F26" t="s">
@@ -6323,6 +6341,9 @@
       <c r="A27" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="B27" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C27" s="3">
         <v>5</v>
       </c>
@@ -6330,7 +6351,7 @@
         <v>120</v>
       </c>
       <c r="E27" s="7">
-        <f>IFERROR(C27/D27," ")</f>
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F27" t="s">
@@ -6341,6 +6362,9 @@
       <c r="A28" s="5" t="s">
         <v>93</v>
       </c>
+      <c r="B28" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C28" s="3">
         <v>3</v>
       </c>
@@ -6348,7 +6372,7 @@
         <v>72</v>
       </c>
       <c r="E28" s="7">
-        <f>IFERROR(C28/D28," ")</f>
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F28" t="s">
@@ -6359,6 +6383,9 @@
       <c r="A29" s="5" t="s">
         <v>127</v>
       </c>
+      <c r="B29" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C29" s="3">
         <v>5</v>
       </c>
@@ -6366,7 +6393,7 @@
         <v>128</v>
       </c>
       <c r="E29" s="7">
-        <f>IFERROR(C29/D29," ")</f>
+        <f t="shared" si="2"/>
         <v>3.90625E-2</v>
       </c>
       <c r="F29" t="s">
@@ -6377,6 +6404,9 @@
       <c r="A30" s="5" t="s">
         <v>76</v>
       </c>
+      <c r="B30" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C30" s="3">
         <v>5</v>
       </c>
@@ -6384,7 +6414,7 @@
         <v>133</v>
       </c>
       <c r="E30" s="7">
-        <f>IFERROR(C30/D30," ")</f>
+        <f t="shared" si="2"/>
         <v>3.7593984962406013E-2</v>
       </c>
       <c r="F30" t="s">
@@ -6395,6 +6425,9 @@
       <c r="A31" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="B31" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C31" s="3">
         <v>4</v>
       </c>
@@ -6402,7 +6435,7 @@
         <v>132</v>
       </c>
       <c r="E31" s="7">
-        <f>IFERROR(C31/D31," ")</f>
+        <f t="shared" si="2"/>
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="F31" t="s">
@@ -6413,6 +6446,9 @@
       <c r="A32" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="B32" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C32" s="3">
         <v>4</v>
       </c>
@@ -6420,7 +6456,7 @@
         <v>160</v>
       </c>
       <c r="E32" s="7">
-        <f>IFERROR(C32/D32," ")</f>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F32" t="s">
@@ -6431,6 +6467,9 @@
       <c r="A33" s="5" t="s">
         <v>129</v>
       </c>
+      <c r="B33" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C33" s="3">
         <v>2</v>
       </c>
@@ -6438,7 +6477,7 @@
         <v>80</v>
       </c>
       <c r="E33" s="7">
-        <f>IFERROR(C33/D33," ")</f>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F33" t="s">
@@ -6449,6 +6488,9 @@
       <c r="A34" s="5" t="s">
         <v>84</v>
       </c>
+      <c r="B34" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C34" s="3">
         <v>3</v>
       </c>
@@ -6456,7 +6498,7 @@
         <v>124</v>
       </c>
       <c r="E34" s="7">
-        <f>IFERROR(C34/D34," ")</f>
+        <f t="shared" si="2"/>
         <v>2.4193548387096774E-2</v>
       </c>
       <c r="F34" t="s">
@@ -6467,6 +6509,9 @@
       <c r="A35" s="5" t="s">
         <v>136</v>
       </c>
+      <c r="B35" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C35" s="3">
         <v>5</v>
       </c>
@@ -6474,7 +6519,7 @@
         <v>208</v>
       </c>
       <c r="E35" s="7">
-        <f>IFERROR(C35/D35," ")</f>
+        <f t="shared" si="2"/>
         <v>2.403846153846154E-2</v>
       </c>
       <c r="F35" t="s">
@@ -6485,6 +6530,9 @@
       <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C36" s="3">
         <v>3</v>
       </c>
@@ -6492,7 +6540,7 @@
         <v>128</v>
       </c>
       <c r="E36" s="7">
-        <f>IFERROR(C36/D36," ")</f>
+        <f t="shared" si="2"/>
         <v>2.34375E-2</v>
       </c>
       <c r="F36" t="s">
@@ -6503,6 +6551,9 @@
       <c r="A37" s="5" t="s">
         <v>137</v>
       </c>
+      <c r="B37" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C37" s="3">
         <v>5</v>
       </c>
@@ -6510,7 +6561,7 @@
         <v>224</v>
       </c>
       <c r="E37" s="7">
-        <f>IFERROR(C37/D37," ")</f>
+        <f t="shared" si="2"/>
         <v>2.2321428571428572E-2</v>
       </c>
       <c r="F37" t="s">
@@ -6521,6 +6572,9 @@
       <c r="A38" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="B38" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C38" s="3">
         <v>5</v>
       </c>
@@ -6528,7 +6582,7 @@
         <v>228</v>
       </c>
       <c r="E38" s="7">
-        <f>IFERROR(C38/D38," ")</f>
+        <f t="shared" si="2"/>
         <v>2.1929824561403508E-2</v>
       </c>
       <c r="F38" t="s">
@@ -6539,6 +6593,9 @@
       <c r="A39" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="B39" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C39" s="3">
         <v>4</v>
       </c>
@@ -6546,7 +6603,7 @@
         <v>191</v>
       </c>
       <c r="E39" s="7">
-        <f>IFERROR(C39/D39," ")</f>
+        <f t="shared" si="2"/>
         <v>2.0942408376963352E-2</v>
       </c>
       <c r="F39" t="s">
@@ -6557,6 +6614,9 @@
       <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="B40" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C40" s="3">
         <v>4</v>
       </c>
@@ -6564,7 +6624,7 @@
         <v>192</v>
       </c>
       <c r="E40" s="7">
-        <f>IFERROR(C40/D40," ")</f>
+        <f t="shared" si="2"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="F40" t="s">
@@ -6575,6 +6635,9 @@
       <c r="A41" s="5" t="s">
         <v>130</v>
       </c>
+      <c r="B41" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C41" s="3">
         <v>4</v>
       </c>
@@ -6582,7 +6645,7 @@
         <v>198</v>
       </c>
       <c r="E41" s="7">
-        <f>IFERROR(C41/D41," ")</f>
+        <f t="shared" si="2"/>
         <v>2.0202020202020204E-2</v>
       </c>
       <c r="F41" t="s">
@@ -6593,6 +6656,9 @@
       <c r="A42" s="5" t="s">
         <v>83</v>
       </c>
+      <c r="B42" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C42" s="3">
         <v>5</v>
       </c>
@@ -6600,7 +6666,7 @@
         <v>258</v>
       </c>
       <c r="E42" s="7">
-        <f>IFERROR(C42/D42," ")</f>
+        <f t="shared" si="2"/>
         <v>1.937984496124031E-2</v>
       </c>
       <c r="F42" t="s">
@@ -6611,6 +6677,9 @@
       <c r="A43" s="5" t="s">
         <v>97</v>
       </c>
+      <c r="B43" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C43" s="3">
         <v>3</v>
       </c>
@@ -6618,7 +6687,7 @@
         <v>157</v>
       </c>
       <c r="E43" s="7">
-        <f>IFERROR(C43/D43," ")</f>
+        <f t="shared" si="2"/>
         <v>1.9108280254777069E-2</v>
       </c>
       <c r="F43" t="s">
@@ -6629,6 +6698,9 @@
       <c r="A44" s="5" t="s">
         <v>52</v>
       </c>
+      <c r="B44" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C44" s="3">
         <v>3</v>
       </c>
@@ -6636,7 +6708,7 @@
         <v>160</v>
       </c>
       <c r="E44" s="7">
-        <f>IFERROR(C44/D44," ")</f>
+        <f t="shared" si="2"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="F44" t="s">
@@ -6647,6 +6719,9 @@
       <c r="A45" s="5" t="s">
         <v>65</v>
       </c>
+      <c r="B45" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C45" s="3">
         <v>4</v>
       </c>
@@ -6654,7 +6729,7 @@
         <v>224</v>
       </c>
       <c r="E45" s="7">
-        <f>IFERROR(C45/D45," ")</f>
+        <f t="shared" si="2"/>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="F45" t="s">
@@ -6665,6 +6740,9 @@
       <c r="A46" s="5" t="s">
         <v>86</v>
       </c>
+      <c r="B46" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C46" s="3">
         <v>4</v>
       </c>
@@ -6672,7 +6750,7 @@
         <v>226</v>
       </c>
       <c r="E46" s="7">
-        <f>IFERROR(C46/D46," ")</f>
+        <f t="shared" si="2"/>
         <v>1.7699115044247787E-2</v>
       </c>
       <c r="F46" t="s">
@@ -6683,6 +6761,9 @@
       <c r="A47" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="B47" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C47" s="3">
         <v>5</v>
       </c>
@@ -6690,7 +6771,7 @@
         <v>288</v>
       </c>
       <c r="E47" s="7">
-        <f>IFERROR(C47/D47," ")</f>
+        <f t="shared" si="2"/>
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="F47" t="s">
@@ -6701,6 +6782,9 @@
       <c r="A48" s="5" t="s">
         <v>79</v>
       </c>
+      <c r="B48" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C48" s="3">
         <v>4</v>
       </c>
@@ -6708,7 +6792,7 @@
         <v>231</v>
       </c>
       <c r="E48" s="7">
-        <f>IFERROR(C48/D48," ")</f>
+        <f t="shared" si="2"/>
         <v>1.7316017316017316E-2</v>
       </c>
       <c r="F48" t="s">
@@ -6719,6 +6803,9 @@
       <c r="A49" s="5" t="s">
         <v>123</v>
       </c>
+      <c r="B49" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C49" s="3">
         <v>3</v>
       </c>
@@ -6726,7 +6813,7 @@
         <v>181</v>
       </c>
       <c r="E49" s="7">
-        <f>IFERROR(C49/D49," ")</f>
+        <f t="shared" si="2"/>
         <v>1.6574585635359115E-2</v>
       </c>
       <c r="F49" t="s">
@@ -6737,6 +6824,9 @@
       <c r="A50" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="B50" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C50" s="3">
         <v>3</v>
       </c>
@@ -6744,7 +6834,7 @@
         <v>182</v>
       </c>
       <c r="E50" s="7">
-        <f>IFERROR(C50/D50," ")</f>
+        <f t="shared" si="2"/>
         <v>1.6483516483516484E-2</v>
       </c>
       <c r="F50" t="s">
@@ -6755,6 +6845,9 @@
       <c r="A51" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="B51" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C51" s="3">
         <v>4</v>
       </c>
@@ -6762,7 +6855,7 @@
         <v>250</v>
       </c>
       <c r="E51" s="7">
-        <f>IFERROR(C51/D51," ")</f>
+        <f t="shared" si="2"/>
         <v>1.6E-2</v>
       </c>
       <c r="F51" t="s">
@@ -6773,6 +6866,9 @@
       <c r="A52" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="B52" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C52" s="3">
         <v>4</v>
       </c>
@@ -6780,7 +6876,7 @@
         <v>266</v>
       </c>
       <c r="E52" s="7">
-        <f>IFERROR(C52/D52," ")</f>
+        <f t="shared" si="2"/>
         <v>1.5037593984962405E-2</v>
       </c>
       <c r="F52" t="s">
@@ -6791,6 +6887,9 @@
       <c r="A53" s="5" t="s">
         <v>47</v>
       </c>
+      <c r="B53" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C53" s="3">
         <v>5</v>
       </c>
@@ -6798,7 +6897,7 @@
         <v>336</v>
       </c>
       <c r="E53" s="7">
-        <f>IFERROR(C53/D53," ")</f>
+        <f t="shared" si="2"/>
         <v>1.488095238095238E-2</v>
       </c>
       <c r="F53" t="s">
@@ -6809,6 +6908,9 @@
       <c r="A54" s="5" t="s">
         <v>99</v>
       </c>
+      <c r="B54" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C54" s="3">
         <v>2</v>
       </c>
@@ -6816,7 +6918,7 @@
         <v>137</v>
       </c>
       <c r="E54" s="7">
-        <f>IFERROR(C54/D54," ")</f>
+        <f t="shared" si="2"/>
         <v>1.4598540145985401E-2</v>
       </c>
       <c r="F54" t="s">
@@ -6827,6 +6929,9 @@
       <c r="A55" s="5" t="s">
         <v>80</v>
       </c>
+      <c r="B55" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C55" s="3">
         <v>4</v>
       </c>
@@ -6834,7 +6939,7 @@
         <v>276</v>
       </c>
       <c r="E55" s="7">
-        <f>IFERROR(C55/D55," ")</f>
+        <f t="shared" si="2"/>
         <v>1.4492753623188406E-2</v>
       </c>
       <c r="F55" t="s">
@@ -6845,6 +6950,9 @@
       <c r="A56" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="B56" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C56" s="3">
         <v>3</v>
       </c>
@@ -6852,7 +6960,7 @@
         <v>208</v>
       </c>
       <c r="E56" s="7">
-        <f>IFERROR(C56/D56," ")</f>
+        <f t="shared" si="2"/>
         <v>1.4423076923076924E-2</v>
       </c>
       <c r="F56" t="s">
@@ -6863,6 +6971,9 @@
       <c r="A57" s="5" t="s">
         <v>78</v>
       </c>
+      <c r="B57" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C57" s="3">
         <v>3</v>
       </c>
@@ -6870,7 +6981,7 @@
         <v>213</v>
       </c>
       <c r="E57" s="7">
-        <f>IFERROR(C57/D57," ")</f>
+        <f t="shared" ref="E57:E88" si="3">IFERROR(C57/D57," ")</f>
         <v>1.4084507042253521E-2</v>
       </c>
       <c r="F57" t="s">
@@ -6881,6 +6992,9 @@
       <c r="A58" s="5" t="s">
         <v>105</v>
       </c>
+      <c r="B58" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C58" s="3">
         <v>3</v>
       </c>
@@ -6888,7 +7002,7 @@
         <v>220</v>
       </c>
       <c r="E58" s="7">
-        <f>IFERROR(C58/D58," ")</f>
+        <f t="shared" si="3"/>
         <v>1.3636363636363636E-2</v>
       </c>
       <c r="F58" t="s">
@@ -6899,6 +7013,9 @@
       <c r="A59" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="B59" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C59" s="3">
         <v>5</v>
       </c>
@@ -6906,7 +7023,7 @@
         <v>368</v>
       </c>
       <c r="E59" s="7">
-        <f>IFERROR(C59/D59," ")</f>
+        <f t="shared" si="3"/>
         <v>1.358695652173913E-2</v>
       </c>
       <c r="F59" t="s">
@@ -6917,6 +7034,9 @@
       <c r="A60" s="5" t="s">
         <v>66</v>
       </c>
+      <c r="B60" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C60" s="3">
         <v>4</v>
       </c>
@@ -6924,7 +7044,7 @@
         <v>320</v>
       </c>
       <c r="E60" s="7">
-        <f>IFERROR(C60/D60," ")</f>
+        <f t="shared" si="3"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="F60" t="s">
@@ -6935,6 +7055,9 @@
       <c r="A61" s="5" t="s">
         <v>89</v>
       </c>
+      <c r="B61" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C61" s="3">
         <v>2</v>
       </c>
@@ -6942,7 +7065,7 @@
         <v>160</v>
       </c>
       <c r="E61" s="7">
-        <f>IFERROR(C61/D61," ")</f>
+        <f t="shared" si="3"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="F61" t="s">
@@ -6953,6 +7076,9 @@
       <c r="A62" s="5" t="s">
         <v>67</v>
       </c>
+      <c r="B62" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C62" s="3">
         <v>4</v>
       </c>
@@ -6960,7 +7086,7 @@
         <v>336</v>
       </c>
       <c r="E62" s="7">
-        <f>IFERROR(C62/D62," ")</f>
+        <f t="shared" si="3"/>
         <v>1.1904761904761904E-2</v>
       </c>
       <c r="F62" t="s">
@@ -6971,6 +7097,9 @@
       <c r="A63" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="B63" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C63" s="3">
         <v>3</v>
       </c>
@@ -6978,7 +7107,7 @@
         <v>256</v>
       </c>
       <c r="E63" s="7">
-        <f>IFERROR(C63/D63," ")</f>
+        <f t="shared" si="3"/>
         <v>1.171875E-2</v>
       </c>
       <c r="F63" t="s">
@@ -6989,6 +7118,9 @@
       <c r="A64" s="5" t="s">
         <v>108</v>
       </c>
+      <c r="B64" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C64" s="3">
         <v>3</v>
       </c>
@@ -6996,7 +7128,7 @@
         <v>256</v>
       </c>
       <c r="E64" s="7">
-        <f>IFERROR(C64/D64," ")</f>
+        <f t="shared" si="3"/>
         <v>1.171875E-2</v>
       </c>
       <c r="F64" t="s">
@@ -7007,6 +7139,9 @@
       <c r="A65" s="5" t="s">
         <v>75</v>
       </c>
+      <c r="B65" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C65" s="3">
         <v>5</v>
       </c>
@@ -7014,7 +7149,7 @@
         <v>432</v>
       </c>
       <c r="E65" s="7">
-        <f>IFERROR(C65/D65," ")</f>
+        <f t="shared" si="3"/>
         <v>1.1574074074074073E-2</v>
       </c>
       <c r="F65" t="s">
@@ -7025,6 +7160,9 @@
       <c r="A66" s="5" t="s">
         <v>55</v>
       </c>
+      <c r="B66" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C66" s="3">
         <v>3</v>
       </c>
@@ -7032,7 +7170,7 @@
         <v>264</v>
       </c>
       <c r="E66" s="7">
-        <f>IFERROR(C66/D66," ")</f>
+        <f t="shared" si="3"/>
         <v>1.1363636363636364E-2</v>
       </c>
       <c r="F66" t="s">
@@ -7043,6 +7181,9 @@
       <c r="A67" s="5" t="s">
         <v>126</v>
       </c>
+      <c r="B67" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C67" s="3">
         <v>4</v>
       </c>
@@ -7050,7 +7191,7 @@
         <v>352</v>
       </c>
       <c r="E67" s="7">
-        <f>IFERROR(C67/D67," ")</f>
+        <f t="shared" si="3"/>
         <v>1.1363636363636364E-2</v>
       </c>
       <c r="F67" t="s">
@@ -7061,6 +7202,9 @@
       <c r="A68" s="5" t="s">
         <v>91</v>
       </c>
+      <c r="B68" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C68" s="3">
         <v>3</v>
       </c>
@@ -7068,7 +7212,7 @@
         <v>266</v>
       </c>
       <c r="E68" s="7">
-        <f>IFERROR(C68/D68," ")</f>
+        <f t="shared" si="3"/>
         <v>1.1278195488721804E-2</v>
       </c>
       <c r="F68" t="s">
@@ -7079,6 +7223,9 @@
       <c r="A69" s="5" t="s">
         <v>100</v>
       </c>
+      <c r="B69" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C69" s="3">
         <v>3</v>
       </c>
@@ -7086,7 +7233,7 @@
         <v>277</v>
       </c>
       <c r="E69" s="7">
-        <f>IFERROR(C69/D69," ")</f>
+        <f t="shared" si="3"/>
         <v>1.0830324909747292E-2</v>
       </c>
       <c r="F69" t="s">
@@ -7097,6 +7244,9 @@
       <c r="A70" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="B70" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C70" s="3">
         <v>4</v>
       </c>
@@ -7104,7 +7254,7 @@
         <v>384</v>
       </c>
       <c r="E70" s="7">
-        <f>IFERROR(C70/D70," ")</f>
+        <f t="shared" si="3"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="F70" t="s">
@@ -7115,6 +7265,9 @@
       <c r="A71" s="5" t="s">
         <v>68</v>
       </c>
+      <c r="B71" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C71" s="3">
         <v>4</v>
       </c>
@@ -7122,7 +7275,7 @@
         <v>384</v>
       </c>
       <c r="E71" s="7">
-        <f>IFERROR(C71/D71," ")</f>
+        <f t="shared" si="3"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="F71" t="s">
@@ -7133,6 +7286,9 @@
       <c r="A72" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="B72" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C72" s="3">
         <v>3</v>
       </c>
@@ -7140,7 +7296,7 @@
         <v>288</v>
       </c>
       <c r="E72" s="7">
-        <f>IFERROR(C72/D72," ")</f>
+        <f t="shared" si="3"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="F72" t="s">
@@ -7151,6 +7307,9 @@
       <c r="A73" s="5" t="s">
         <v>113</v>
       </c>
+      <c r="B73" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C73" s="3">
         <v>3</v>
       </c>
@@ -7158,7 +7317,7 @@
         <v>288</v>
       </c>
       <c r="E73" s="7">
-        <f>IFERROR(C73/D73," ")</f>
+        <f t="shared" si="3"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="F73" t="s">
@@ -7169,6 +7328,9 @@
       <c r="A74" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="B74" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C74" s="3">
         <v>5</v>
       </c>
@@ -7176,7 +7338,7 @@
         <v>499</v>
       </c>
       <c r="E74" s="7">
-        <f>IFERROR(C74/D74," ")</f>
+        <f t="shared" si="3"/>
         <v>1.002004008016032E-2</v>
       </c>
       <c r="F74" t="s">
@@ -7187,6 +7349,9 @@
       <c r="A75" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="B75" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C75" s="3">
         <v>4</v>
       </c>
@@ -7194,7 +7359,7 @@
         <v>400</v>
       </c>
       <c r="E75" s="7">
-        <f>IFERROR(C75/D75," ")</f>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
       <c r="F75" t="s">
@@ -7205,6 +7370,9 @@
       <c r="A76" s="5" t="s">
         <v>104</v>
       </c>
+      <c r="B76" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C76" s="3">
         <v>2</v>
       </c>
@@ -7212,7 +7380,7 @@
         <v>200</v>
       </c>
       <c r="E76" s="7">
-        <f>IFERROR(C76/D76," ")</f>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
       <c r="F76" t="s">
@@ -7223,6 +7391,9 @@
       <c r="A77" s="5" t="s">
         <v>111</v>
       </c>
+      <c r="B77" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C77" s="3">
         <v>4</v>
       </c>
@@ -7230,7 +7401,7 @@
         <v>400</v>
       </c>
       <c r="E77" s="7">
-        <f>IFERROR(C77/D77," ")</f>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
       <c r="F77" t="s">
@@ -7241,6 +7412,9 @@
       <c r="A78" s="5" t="s">
         <v>82</v>
       </c>
+      <c r="B78" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C78" s="3">
         <v>4</v>
       </c>
@@ -7248,7 +7422,7 @@
         <v>416</v>
       </c>
       <c r="E78" s="7">
-        <f>IFERROR(C78/D78," ")</f>
+        <f t="shared" si="3"/>
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="F78" t="s">
@@ -7259,6 +7433,9 @@
       <c r="A79" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="B79" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C79" s="8">
         <v>2</v>
       </c>
@@ -7266,7 +7443,7 @@
         <v>208</v>
       </c>
       <c r="E79" s="7">
-        <f>IFERROR(C79/D79," ")</f>
+        <f t="shared" si="3"/>
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="F79" t="s">
@@ -7277,6 +7454,9 @@
       <c r="A80" s="5" t="s">
         <v>58</v>
       </c>
+      <c r="B80" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C80" s="3">
         <v>2</v>
       </c>
@@ -7284,7 +7464,7 @@
         <v>208</v>
       </c>
       <c r="E80" s="7">
-        <f>IFERROR(C80/D80," ")</f>
+        <f t="shared" si="3"/>
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="F80" t="s">
@@ -7295,6 +7475,9 @@
       <c r="A81" s="5" t="s">
         <v>135</v>
       </c>
+      <c r="B81" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C81" s="3">
         <v>3</v>
       </c>
@@ -7302,7 +7485,7 @@
         <v>312</v>
       </c>
       <c r="E81" s="7">
-        <f>IFERROR(C81/D81," ")</f>
+        <f t="shared" si="3"/>
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="F81" t="s">
@@ -7313,6 +7496,9 @@
       <c r="A82" s="5" t="s">
         <v>92</v>
       </c>
+      <c r="B82" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C82" s="3">
         <v>3</v>
       </c>
@@ -7320,7 +7506,7 @@
         <v>316</v>
       </c>
       <c r="E82" s="7">
-        <f>IFERROR(C82/D82," ")</f>
+        <f t="shared" si="3"/>
         <v>9.4936708860759497E-3</v>
       </c>
       <c r="F82" t="s">
@@ -7331,6 +7517,9 @@
       <c r="A83" s="5" t="s">
         <v>131</v>
       </c>
+      <c r="B83" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C83" s="3">
         <v>4</v>
       </c>
@@ -7338,7 +7527,7 @@
         <v>432</v>
       </c>
       <c r="E83" s="7">
-        <f>IFERROR(C83/D83," ")</f>
+        <f t="shared" si="3"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="F83" t="s">
@@ -7349,6 +7538,9 @@
       <c r="A84" s="5" t="s">
         <v>49</v>
       </c>
+      <c r="B84" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C84" s="3">
         <v>4</v>
       </c>
@@ -7356,7 +7548,7 @@
         <v>436</v>
       </c>
       <c r="E84" s="7">
-        <f>IFERROR(C84/D84," ")</f>
+        <f t="shared" si="3"/>
         <v>9.1743119266055051E-3</v>
       </c>
       <c r="F84" t="s">
@@ -7367,6 +7559,9 @@
       <c r="A85" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="B85" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C85" s="3">
         <v>4</v>
       </c>
@@ -7374,7 +7569,7 @@
         <v>444</v>
       </c>
       <c r="E85" s="7">
-        <f>IFERROR(C85/D85," ")</f>
+        <f t="shared" si="3"/>
         <v>9.0090090090090089E-3</v>
       </c>
       <c r="F85" t="s">
@@ -7385,6 +7580,9 @@
       <c r="A86" s="5" t="s">
         <v>54</v>
       </c>
+      <c r="B86" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C86" s="3">
         <v>3</v>
       </c>
@@ -7392,7 +7590,7 @@
         <v>336</v>
       </c>
       <c r="E86" s="7">
-        <f>IFERROR(C86/D86," ")</f>
+        <f t="shared" si="3"/>
         <v>8.9285714285714281E-3</v>
       </c>
       <c r="F86" t="s">
@@ -7403,6 +7601,9 @@
       <c r="A87" s="5" t="s">
         <v>74</v>
       </c>
+      <c r="B87" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C87" s="3">
         <v>2</v>
       </c>
@@ -7410,7 +7611,7 @@
         <v>225</v>
       </c>
       <c r="E87" s="7">
-        <f>IFERROR(C87/D87," ")</f>
+        <f t="shared" si="3"/>
         <v>8.8888888888888889E-3</v>
       </c>
       <c r="F87" t="s">
@@ -7421,6 +7622,9 @@
       <c r="A88" s="5" t="s">
         <v>90</v>
       </c>
+      <c r="B88" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C88" s="3">
         <v>3</v>
       </c>
@@ -7428,7 +7632,7 @@
         <v>344</v>
       </c>
       <c r="E88" s="7">
-        <f>IFERROR(C88/D88," ")</f>
+        <f t="shared" si="3"/>
         <v>8.7209302325581394E-3</v>
       </c>
       <c r="F88" t="s">
@@ -7439,6 +7643,9 @@
       <c r="A89" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="B89" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C89" s="3">
         <v>4</v>
       </c>
@@ -7446,7 +7653,7 @@
         <v>464</v>
       </c>
       <c r="E89" s="7">
-        <f>IFERROR(C89/D89," ")</f>
+        <f t="shared" ref="E89:E120" si="4">IFERROR(C89/D89," ")</f>
         <v>8.6206896551724137E-3</v>
       </c>
       <c r="F89" t="s">
@@ -7457,6 +7664,9 @@
       <c r="A90" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="B90" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C90" s="3">
         <v>4</v>
       </c>
@@ -7464,7 +7674,7 @@
         <v>464</v>
       </c>
       <c r="E90" s="7">
-        <f>IFERROR(C90/D90," ")</f>
+        <f t="shared" si="4"/>
         <v>8.6206896551724137E-3</v>
       </c>
       <c r="F90" t="s">
@@ -7475,6 +7685,9 @@
       <c r="A91" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="B91" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C91" s="3">
         <v>3</v>
       </c>
@@ -7482,7 +7695,7 @@
         <v>352</v>
       </c>
       <c r="E91" s="7">
-        <f>IFERROR(C91/D91," ")</f>
+        <f t="shared" si="4"/>
         <v>8.5227272727272721E-3</v>
       </c>
       <c r="F91" t="s">
@@ -7493,6 +7706,9 @@
       <c r="A92" s="5" t="s">
         <v>110</v>
       </c>
+      <c r="B92" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C92" s="3">
         <v>3</v>
       </c>
@@ -7500,7 +7716,7 @@
         <v>352</v>
       </c>
       <c r="E92" s="7">
-        <f>IFERROR(C92/D92," ")</f>
+        <f t="shared" si="4"/>
         <v>8.5227272727272721E-3</v>
       </c>
       <c r="F92" t="s">
@@ -7511,6 +7727,9 @@
       <c r="A93" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="B93" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C93" s="3">
         <v>4</v>
       </c>
@@ -7518,7 +7737,7 @@
         <v>480</v>
       </c>
       <c r="E93" s="7">
-        <f>IFERROR(C93/D93," ")</f>
+        <f t="shared" si="4"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="F93" t="s">
@@ -7529,6 +7748,9 @@
       <c r="A94" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="B94" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C94" s="3">
         <v>3</v>
       </c>
@@ -7536,7 +7758,7 @@
         <v>360</v>
       </c>
       <c r="E94" s="7">
-        <f>IFERROR(C94/D94," ")</f>
+        <f t="shared" si="4"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="F94" t="s">
@@ -7547,6 +7769,9 @@
       <c r="A95" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="B95" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C95" s="3">
         <v>2</v>
       </c>
@@ -7554,7 +7779,7 @@
         <v>240</v>
       </c>
       <c r="E95" s="7">
-        <f>IFERROR(C95/D95," ")</f>
+        <f t="shared" si="4"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="F95" t="s">
@@ -7565,6 +7790,9 @@
       <c r="A96" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="B96" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C96" s="3">
         <v>3</v>
       </c>
@@ -7572,7 +7800,7 @@
         <v>368</v>
       </c>
       <c r="E96" s="7">
-        <f>IFERROR(C96/D96," ")</f>
+        <f t="shared" si="4"/>
         <v>8.152173913043478E-3</v>
       </c>
       <c r="F96" t="s">
@@ -7583,6 +7811,9 @@
       <c r="A97" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="B97" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C97" s="3">
         <v>3</v>
       </c>
@@ -7590,7 +7821,7 @@
         <v>368</v>
       </c>
       <c r="E97" s="7">
-        <f>IFERROR(C97/D97," ")</f>
+        <f t="shared" si="4"/>
         <v>8.152173913043478E-3</v>
       </c>
       <c r="F97" t="s">
@@ -7601,6 +7832,9 @@
       <c r="A98" s="5" t="s">
         <v>132</v>
       </c>
+      <c r="B98" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C98" s="3">
         <v>3</v>
       </c>
@@ -7608,7 +7842,7 @@
         <v>371</v>
       </c>
       <c r="E98" s="7">
-        <f>IFERROR(C98/D98," ")</f>
+        <f t="shared" si="4"/>
         <v>8.0862533692722376E-3</v>
       </c>
       <c r="F98" t="s">
@@ -7619,6 +7853,9 @@
       <c r="A99" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="B99" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C99" s="3">
         <v>2</v>
       </c>
@@ -7626,7 +7863,7 @@
         <v>250</v>
       </c>
       <c r="E99" s="7">
-        <f>IFERROR(C99/D99," ")</f>
+        <f t="shared" si="4"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="F99" t="s">
@@ -7637,6 +7874,9 @@
       <c r="A100" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="B100" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C100" s="3">
         <v>4</v>
       </c>
@@ -7644,7 +7884,7 @@
         <v>512</v>
       </c>
       <c r="E100" s="7">
-        <f>IFERROR(C100/D100," ")</f>
+        <f t="shared" si="4"/>
         <v>7.8125E-3</v>
       </c>
       <c r="F100" t="s">
@@ -7655,6 +7895,9 @@
       <c r="A101" s="5" t="s">
         <v>73</v>
       </c>
+      <c r="B101" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C101" s="3">
         <v>4</v>
       </c>
@@ -7662,7 +7905,7 @@
         <v>512</v>
       </c>
       <c r="E101" s="7">
-        <f>IFERROR(C101/D101," ")</f>
+        <f t="shared" si="4"/>
         <v>7.8125E-3</v>
       </c>
       <c r="F101" t="s">
@@ -7673,6 +7916,9 @@
       <c r="A102" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="B102" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C102" s="3">
         <v>2</v>
       </c>
@@ -7680,7 +7926,7 @@
         <v>264</v>
       </c>
       <c r="E102" s="7">
-        <f>IFERROR(C102/D102," ")</f>
+        <f t="shared" si="4"/>
         <v>7.575757575757576E-3</v>
       </c>
       <c r="F102" t="s">
@@ -7691,6 +7937,9 @@
       <c r="A103" s="5" t="s">
         <v>53</v>
       </c>
+      <c r="B103" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C103" s="3">
         <v>3</v>
       </c>
@@ -7698,7 +7947,7 @@
         <v>400</v>
       </c>
       <c r="E103" s="7">
-        <f>IFERROR(C103/D103," ")</f>
+        <f t="shared" si="4"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="F103" t="s">
@@ -7709,6 +7958,9 @@
       <c r="A104" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="B104" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C104" s="3">
         <v>4</v>
       </c>
@@ -7716,7 +7968,7 @@
         <v>544</v>
       </c>
       <c r="E104" s="7">
-        <f>IFERROR(C104/D104," ")</f>
+        <f t="shared" si="4"/>
         <v>7.3529411764705881E-3</v>
       </c>
       <c r="F104" t="s">
@@ -7727,6 +7979,9 @@
       <c r="A105" s="5" t="s">
         <v>112</v>
       </c>
+      <c r="B105" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C105" s="3">
         <v>3</v>
       </c>
@@ -7734,7 +7989,7 @@
         <v>416</v>
       </c>
       <c r="E105" s="7">
-        <f>IFERROR(C105/D105," ")</f>
+        <f t="shared" si="4"/>
         <v>7.2115384615384619E-3</v>
       </c>
       <c r="F105" t="s">
@@ -7745,6 +8000,9 @@
       <c r="A106" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="B106" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C106" s="3">
         <v>4</v>
       </c>
@@ -7752,7 +8010,7 @@
         <v>560</v>
       </c>
       <c r="E106" s="7">
-        <f>IFERROR(C106/D106," ")</f>
+        <f t="shared" si="4"/>
         <v>7.1428571428571426E-3</v>
       </c>
       <c r="F106" t="s">
@@ -7763,6 +8021,9 @@
       <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="B107" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C107" s="3">
         <v>2</v>
       </c>
@@ -7770,7 +8031,7 @@
         <v>284</v>
       </c>
       <c r="E107" s="7">
-        <f>IFERROR(C107/D107," ")</f>
+        <f t="shared" si="4"/>
         <v>7.0422535211267607E-3</v>
       </c>
       <c r="F107" t="s">
@@ -7781,6 +8042,9 @@
       <c r="A108" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="B108" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C108" s="3">
         <v>2</v>
       </c>
@@ -7788,7 +8052,7 @@
         <v>288</v>
       </c>
       <c r="E108" s="7">
-        <f>IFERROR(C108/D108," ")</f>
+        <f t="shared" si="4"/>
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F108" t="s">
@@ -7799,6 +8063,9 @@
       <c r="A109" s="5" t="s">
         <v>134</v>
       </c>
+      <c r="B109" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C109" s="3">
         <v>5</v>
       </c>
@@ -7806,7 +8073,7 @@
         <v>736</v>
       </c>
       <c r="E109" s="7">
-        <f>IFERROR(C109/D109," ")</f>
+        <f t="shared" si="4"/>
         <v>6.793478260869565E-3</v>
       </c>
       <c r="F109" t="s">
@@ -7817,6 +8084,9 @@
       <c r="A110" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="B110" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C110" s="3">
         <v>1</v>
       </c>
@@ -7824,7 +8094,7 @@
         <v>148</v>
       </c>
       <c r="E110" s="7">
-        <f>IFERROR(C110/D110," ")</f>
+        <f t="shared" si="4"/>
         <v>6.7567567567567571E-3</v>
       </c>
       <c r="F110" t="s">
@@ -7835,6 +8105,9 @@
       <c r="A111" s="5" t="s">
         <v>94</v>
       </c>
+      <c r="B111" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C111" s="3">
         <v>3</v>
       </c>
@@ -7842,7 +8115,7 @@
         <v>450</v>
       </c>
       <c r="E111" s="7">
-        <f>IFERROR(C111/D111," ")</f>
+        <f t="shared" si="4"/>
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="F111" t="s">
@@ -7853,6 +8126,9 @@
       <c r="A112" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="B112" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C112" s="3">
         <v>3</v>
       </c>
@@ -7860,7 +8136,7 @@
         <v>464</v>
       </c>
       <c r="E112" s="7">
-        <f>IFERROR(C112/D112," ")</f>
+        <f t="shared" si="4"/>
         <v>6.4655172413793103E-3</v>
       </c>
       <c r="F112" t="s">
@@ -7871,6 +8147,9 @@
       <c r="A113" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="B113" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C113" s="3">
         <v>3</v>
       </c>
@@ -7878,7 +8157,7 @@
         <v>480</v>
       </c>
       <c r="E113" s="7">
-        <f>IFERROR(C113/D113," ")</f>
+        <f t="shared" si="4"/>
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="F113" t="s">
@@ -7889,6 +8168,9 @@
       <c r="A114" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="B114" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C114" s="3">
         <v>3</v>
       </c>
@@ -7896,7 +8178,7 @@
         <v>480</v>
       </c>
       <c r="E114" s="7">
-        <f>IFERROR(C114/D114," ")</f>
+        <f t="shared" si="4"/>
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="F114" t="s">
@@ -7907,6 +8189,9 @@
       <c r="A115" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="B115" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C115" s="3">
         <v>3</v>
       </c>
@@ -7914,7 +8199,7 @@
         <v>488</v>
       </c>
       <c r="E115" s="7">
-        <f>IFERROR(C115/D115," ")</f>
+        <f t="shared" si="4"/>
         <v>6.1475409836065573E-3</v>
       </c>
       <c r="F115" t="s">
@@ -7925,6 +8210,9 @@
       <c r="A116" s="5" t="s">
         <v>62</v>
       </c>
+      <c r="B116" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C116" s="3">
         <v>2</v>
       </c>
@@ -7932,7 +8220,7 @@
         <v>332</v>
       </c>
       <c r="E116" s="7">
-        <f>IFERROR(C116/D116," ")</f>
+        <f t="shared" si="4"/>
         <v>6.024096385542169E-3</v>
       </c>
       <c r="F116" t="s">
@@ -7943,6 +8231,9 @@
       <c r="A117" s="5" t="s">
         <v>102</v>
       </c>
+      <c r="B117" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C117" s="3">
         <v>2</v>
       </c>
@@ -7950,7 +8241,7 @@
         <v>332</v>
       </c>
       <c r="E117" s="7">
-        <f>IFERROR(C117/D117," ")</f>
+        <f t="shared" si="4"/>
         <v>6.024096385542169E-3</v>
       </c>
       <c r="F117" t="s">
@@ -7961,6 +8252,9 @@
       <c r="A118" s="5" t="s">
         <v>133</v>
       </c>
+      <c r="B118" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C118" s="3">
         <v>2</v>
       </c>
@@ -7968,7 +8262,7 @@
         <v>344</v>
       </c>
       <c r="E118" s="7">
-        <f>IFERROR(C118/D118," ")</f>
+        <f t="shared" si="4"/>
         <v>5.8139534883720929E-3</v>
       </c>
       <c r="F118" t="s">
@@ -7979,6 +8273,9 @@
       <c r="A119" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="B119" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C119" s="3">
         <v>4</v>
       </c>
@@ -7986,7 +8283,7 @@
         <v>704</v>
       </c>
       <c r="E119" s="7">
-        <f>IFERROR(C119/D119," ")</f>
+        <f t="shared" si="4"/>
         <v>5.681818181818182E-3</v>
       </c>
       <c r="F119" t="s">
@@ -7997,6 +8294,9 @@
       <c r="A120" s="5" t="s">
         <v>103</v>
       </c>
+      <c r="B120" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C120" s="3">
         <v>2</v>
       </c>
@@ -8004,7 +8304,7 @@
         <v>366</v>
       </c>
       <c r="E120" s="7">
-        <f>IFERROR(C120/D120," ")</f>
+        <f t="shared" si="4"/>
         <v>5.4644808743169399E-3</v>
       </c>
       <c r="F120" t="s">
@@ -8015,6 +8315,9 @@
       <c r="A121" s="5" t="s">
         <v>70</v>
       </c>
+      <c r="B121" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C121" s="3">
         <v>4</v>
       </c>
@@ -8022,7 +8325,7 @@
         <v>736</v>
       </c>
       <c r="E121" s="7">
-        <f>IFERROR(C121/D121," ")</f>
+        <f t="shared" ref="E121:E152" si="5">IFERROR(C121/D121," ")</f>
         <v>5.434782608695652E-3</v>
       </c>
       <c r="F121" t="s">
@@ -8033,6 +8336,9 @@
       <c r="A122" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="B122" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C122" s="3">
         <v>2</v>
       </c>
@@ -8040,7 +8346,7 @@
         <v>373</v>
       </c>
       <c r="E122" s="7">
-        <f>IFERROR(C122/D122," ")</f>
+        <f t="shared" si="5"/>
         <v>5.3619302949061663E-3</v>
       </c>
       <c r="F122" t="s">
@@ -8051,6 +8357,9 @@
       <c r="A123" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="B123" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C123" s="3">
         <v>3</v>
       </c>
@@ -8058,7 +8367,7 @@
         <v>560</v>
       </c>
       <c r="E123" s="7">
-        <f>IFERROR(C123/D123," ")</f>
+        <f t="shared" si="5"/>
         <v>5.3571428571428572E-3</v>
       </c>
       <c r="F123" t="s">
@@ -8069,6 +8378,9 @@
       <c r="A124" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="B124" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C124" s="3">
         <v>3</v>
       </c>
@@ -8076,7 +8388,7 @@
         <v>560</v>
       </c>
       <c r="E124" s="7">
-        <f>IFERROR(C124/D124," ")</f>
+        <f t="shared" si="5"/>
         <v>5.3571428571428572E-3</v>
       </c>
       <c r="F124" t="s">
@@ -8087,6 +8399,9 @@
       <c r="A125" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="B125" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C125" s="3">
         <v>3</v>
       </c>
@@ -8094,7 +8409,7 @@
         <v>576</v>
       </c>
       <c r="E125" s="7">
-        <f>IFERROR(C125/D125," ")</f>
+        <f t="shared" si="5"/>
         <v>5.208333333333333E-3</v>
       </c>
       <c r="F125" t="s">
@@ -8105,6 +8420,9 @@
       <c r="A126" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="B126" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C126" s="3">
         <v>2</v>
       </c>
@@ -8112,7 +8430,7 @@
         <v>384</v>
       </c>
       <c r="E126" s="7">
-        <f>IFERROR(C126/D126," ")</f>
+        <f t="shared" si="5"/>
         <v>5.208333333333333E-3</v>
       </c>
       <c r="F126" t="s">
@@ -8123,6 +8441,9 @@
       <c r="A127" s="5" t="s">
         <v>81</v>
       </c>
+      <c r="B127" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C127" s="3">
         <v>1</v>
       </c>
@@ -8130,7 +8451,7 @@
         <v>200</v>
       </c>
       <c r="E127" s="7">
-        <f>IFERROR(C127/D127," ")</f>
+        <f t="shared" si="5"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F127" t="s">
@@ -8141,6 +8462,9 @@
       <c r="A128" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="B128" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C128" s="3">
         <v>2</v>
       </c>
@@ -8148,7 +8472,7 @@
         <v>400</v>
       </c>
       <c r="E128" s="7">
-        <f>IFERROR(C128/D128," ")</f>
+        <f t="shared" si="5"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F128" t="s">
@@ -8159,6 +8483,9 @@
       <c r="A129" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="B129" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C129" s="3">
         <v>2</v>
       </c>
@@ -8166,7 +8493,7 @@
         <v>416</v>
       </c>
       <c r="E129" s="7">
-        <f>IFERROR(C129/D129," ")</f>
+        <f t="shared" si="5"/>
         <v>4.807692307692308E-3</v>
       </c>
       <c r="F129" t="s">
@@ -8177,6 +8504,9 @@
       <c r="A130" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="B130" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C130" s="3">
         <v>2</v>
       </c>
@@ -8184,7 +8514,7 @@
         <v>416</v>
       </c>
       <c r="E130" s="7">
-        <f>IFERROR(C130/D130," ")</f>
+        <f t="shared" si="5"/>
         <v>4.807692307692308E-3</v>
       </c>
       <c r="F130" t="s">
@@ -8195,6 +8525,9 @@
       <c r="A131" s="5" t="s">
         <v>96</v>
       </c>
+      <c r="B131" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C131" s="3">
         <v>4</v>
       </c>
@@ -8202,7 +8535,7 @@
         <v>848</v>
       </c>
       <c r="E131" s="7">
-        <f>IFERROR(C131/D131," ")</f>
+        <f t="shared" si="5"/>
         <v>4.7169811320754715E-3</v>
       </c>
       <c r="F131" t="s">
@@ -8213,6 +8546,9 @@
       <c r="A132" s="5" t="s">
         <v>107</v>
       </c>
+      <c r="B132" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C132" s="3">
         <v>2</v>
       </c>
@@ -8220,7 +8556,7 @@
         <v>440</v>
       </c>
       <c r="E132" s="7">
-        <f>IFERROR(C132/D132," ")</f>
+        <f t="shared" si="5"/>
         <v>4.5454545454545452E-3</v>
       </c>
       <c r="F132" t="s">
@@ -8231,6 +8567,9 @@
       <c r="A133" s="5" t="s">
         <v>101</v>
       </c>
+      <c r="B133" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C133" s="3">
         <v>2</v>
       </c>
@@ -8238,7 +8577,7 @@
         <v>456</v>
       </c>
       <c r="E133" s="7">
-        <f>IFERROR(C133/D133," ")</f>
+        <f t="shared" si="5"/>
         <v>4.3859649122807015E-3</v>
       </c>
       <c r="F133" t="s">
@@ -8249,6 +8588,9 @@
       <c r="A134" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="B134" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C134" s="3">
         <v>2</v>
       </c>
@@ -8256,7 +8598,7 @@
         <v>528</v>
       </c>
       <c r="E134" s="7">
-        <f>IFERROR(C134/D134," ")</f>
+        <f t="shared" si="5"/>
         <v>3.787878787878788E-3</v>
       </c>
       <c r="F134" t="s">
@@ -8267,6 +8609,9 @@
       <c r="A135" s="5" t="s">
         <v>60</v>
       </c>
+      <c r="B135" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C135" s="3">
         <v>2</v>
       </c>
@@ -8274,7 +8619,7 @@
         <v>544</v>
       </c>
       <c r="E135" s="7">
-        <f>IFERROR(C135/D135," ")</f>
+        <f t="shared" si="5"/>
         <v>3.6764705882352941E-3</v>
       </c>
       <c r="F135" t="s">
@@ -8285,6 +8630,9 @@
       <c r="A136" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="B136" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C136" s="3">
         <v>3</v>
       </c>
@@ -8292,7 +8640,7 @@
         <v>848</v>
       </c>
       <c r="E136" s="7">
-        <f>IFERROR(C136/D136," ")</f>
+        <f t="shared" si="5"/>
         <v>3.5377358490566039E-3</v>
       </c>
       <c r="F136" t="s">
@@ -8303,6 +8651,9 @@
       <c r="A137" s="5" t="s">
         <v>98</v>
       </c>
+      <c r="B137" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C137" s="3">
         <v>3</v>
       </c>
@@ -8310,7 +8661,7 @@
         <v>864</v>
       </c>
       <c r="E137" s="7">
-        <f>IFERROR(C137/D137," ")</f>
+        <f t="shared" si="5"/>
         <v>3.472222222222222E-3</v>
       </c>
       <c r="F137" t="s">
@@ -8321,6 +8672,9 @@
       <c r="A138" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="B138" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C138" s="3">
         <v>2</v>
       </c>
@@ -8328,7 +8682,7 @@
         <v>616</v>
       </c>
       <c r="E138" s="7">
-        <f>IFERROR(C138/D138," ")</f>
+        <f t="shared" si="5"/>
         <v>3.246753246753247E-3</v>
       </c>
       <c r="F138" t="s">
@@ -8339,6 +8693,9 @@
       <c r="A139" s="5" t="s">
         <v>95</v>
       </c>
+      <c r="B139" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C139" s="3">
         <v>1</v>
       </c>
@@ -8346,7 +8703,7 @@
         <v>320</v>
       </c>
       <c r="E139" s="7">
-        <f>IFERROR(C139/D139," ")</f>
+        <f t="shared" si="5"/>
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="F139" t="s">
@@ -8357,6 +8714,9 @@
       <c r="A140" s="5" t="s">
         <v>87</v>
       </c>
+      <c r="B140" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C140" s="3">
         <v>3</v>
       </c>
@@ -8364,7 +8724,7 @@
         <v>1280</v>
       </c>
       <c r="E140" s="7">
-        <f>IFERROR(C140/D140," ")</f>
+        <f t="shared" si="5"/>
         <v>2.3437499999999999E-3</v>
       </c>
       <c r="F140" t="s">
@@ -8395,457 +8755,457 @@
     </row>
     <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E143" s="7" t="str">
-        <f>IFERROR(C143/D143," ")</f>
+        <f t="shared" ref="E143:E174" si="6">IFERROR(C143/D143," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E144" s="7" t="str">
-        <f>IFERROR(C144/D144," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="145" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E145" s="7" t="str">
-        <f>IFERROR(C145/D145," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="146" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E146" s="7" t="str">
-        <f>IFERROR(C146/D146," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="147" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E147" s="7" t="str">
-        <f>IFERROR(C147/D147," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="148" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E148" s="7" t="str">
-        <f>IFERROR(C148/D148," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="149" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E149" s="7" t="str">
-        <f>IFERROR(C149/D149," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="150" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E150" s="7" t="str">
-        <f>IFERROR(C150/D150," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="151" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E151" s="7" t="str">
-        <f>IFERROR(C151/D151," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="152" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E152" s="7" t="str">
-        <f>IFERROR(C152/D152," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="153" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E153" s="7" t="str">
-        <f>IFERROR(C153/D153," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="154" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E154" s="7" t="str">
-        <f>IFERROR(C154/D154," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="155" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E155" s="7" t="str">
-        <f>IFERROR(C155/D155," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="156" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E156" s="7" t="str">
-        <f>IFERROR(C156/D156," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="157" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E157" s="7" t="str">
-        <f>IFERROR(C157/D157," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="158" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E158" s="7" t="str">
-        <f>IFERROR(C158/D158," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="159" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E159" s="7" t="str">
-        <f>IFERROR(C159/D159," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="160" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E160" s="7" t="str">
-        <f>IFERROR(C160/D160," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="161" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E161" s="7" t="str">
-        <f>IFERROR(C161/D161," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="162" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E162" s="7" t="str">
-        <f>IFERROR(C162/D162," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="163" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E163" s="7" t="str">
-        <f>IFERROR(C163/D163," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="164" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E164" s="7" t="str">
-        <f>IFERROR(C164/D164," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="165" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E165" s="7" t="str">
-        <f>IFERROR(C165/D165," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="166" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E166" s="7" t="str">
-        <f>IFERROR(C166/D166," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="167" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E167" s="7" t="str">
-        <f>IFERROR(C167/D167," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="168" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E168" s="7" t="str">
-        <f>IFERROR(C168/D168," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="169" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E169" s="7" t="str">
-        <f>IFERROR(C169/D169," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="170" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E170" s="7" t="str">
-        <f>IFERROR(C170/D170," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="171" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E171" s="7" t="str">
-        <f>IFERROR(C171/D171," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="172" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E172" s="7" t="str">
-        <f>IFERROR(C172/D172," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="173" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E173" s="7" t="str">
-        <f>IFERROR(C173/D173," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="174" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E174" s="7" t="str">
-        <f>IFERROR(C174/D174," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="175" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E175" s="7" t="str">
-        <f>IFERROR(C175/D175," ")</f>
+        <f t="shared" ref="E175:E206" si="7">IFERROR(C175/D175," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="176" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E176" s="7" t="str">
-        <f>IFERROR(C176/D176," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="177" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E177" s="7" t="str">
-        <f>IFERROR(C177/D177," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="178" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E178" s="7" t="str">
-        <f>IFERROR(C178/D178," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="179" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E179" s="7" t="str">
-        <f>IFERROR(C179/D179," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="180" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E180" s="7" t="str">
-        <f>IFERROR(C180/D180," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="181" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E181" s="7" t="str">
-        <f>IFERROR(C181/D181," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="182" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E182" s="7" t="str">
-        <f>IFERROR(C182/D182," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="183" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E183" s="7" t="str">
-        <f>IFERROR(C183/D183," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="184" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E184" s="7" t="str">
-        <f>IFERROR(C184/D184," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="185" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E185" s="7" t="str">
-        <f>IFERROR(C185/D185," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="186" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E186" s="7" t="str">
-        <f>IFERROR(C186/D186," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="187" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E187" s="7" t="str">
-        <f>IFERROR(C187/D187," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="188" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E188" s="7" t="str">
-        <f>IFERROR(C188/D188," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="189" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E189" s="7" t="str">
-        <f>IFERROR(C189/D189," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="190" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E190" s="7" t="str">
-        <f>IFERROR(C190/D190," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="191" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E191" s="7" t="str">
-        <f>IFERROR(C191/D191," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="192" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E192" s="7" t="str">
-        <f>IFERROR(C192/D192," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="193" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E193" s="7" t="str">
-        <f>IFERROR(C193/D193," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="194" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E194" s="7" t="str">
-        <f>IFERROR(C194/D194," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="195" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E195" s="7" t="str">
-        <f>IFERROR(C195/D195," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="196" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E196" s="7" t="str">
-        <f>IFERROR(C196/D196," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="197" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E197" s="7" t="str">
-        <f>IFERROR(C197/D197," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="198" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E198" s="7" t="str">
-        <f>IFERROR(C198/D198," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="199" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E199" s="7" t="str">
-        <f>IFERROR(C199/D199," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="200" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E200" s="7" t="str">
-        <f>IFERROR(C200/D200," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="201" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E201" s="7" t="str">
-        <f>IFERROR(C201/D201," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="202" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E202" s="7" t="str">
-        <f>IFERROR(C202/D202," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="203" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E203" s="7" t="str">
-        <f>IFERROR(C203/D203," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="204" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E204" s="7" t="str">
-        <f>IFERROR(C204/D204," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="205" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E205" s="7" t="str">
-        <f>IFERROR(C205/D205," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="206" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E206" s="7" t="str">
-        <f>IFERROR(C206/D206," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="207" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E207" s="7" t="str">
-        <f>IFERROR(C207/D207," ")</f>
+        <f t="shared" ref="E207:E238" si="8">IFERROR(C207/D207," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="208" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E208" s="7" t="str">
-        <f>IFERROR(C208/D208," ")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E209" s="7" t="str">
-        <f>IFERROR(C209/D209," ")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E210" s="7" t="str">
-        <f>IFERROR(C210/D210," ")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E211" s="7" t="str">
-        <f>IFERROR(C211/D211," ")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E212" s="7" t="str">
-        <f>IFERROR(C212/D212," ")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E213" s="7" t="str">
-        <f>IFERROR(C213/D213," ")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E214" s="7" t="str">
-        <f>IFERROR(C214/D214," ")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E215" s="7" t="str">
-        <f>IFERROR(C215/D215," ")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E216" s="7" t="str">
-        <f>IFERROR(C216/D216," ")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E217" s="7" t="str">
-        <f>IFERROR(C217/D217," ")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E218" s="7" t="str">
-        <f>IFERROR(C218/D218," ")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>

--- a/Book Ranking.xlsx
+++ b/Book Ranking.xlsx
@@ -20,13 +20,13 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="163">
   <si>
     <t>Book Ranking</t>
   </si>
@@ -509,6 +509,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Scattered</t>
+  </si>
+  <si>
+    <t>Managing the Unexpected</t>
   </si>
 </sst>
 </file>
@@ -2722,7 +2728,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1">
   <location ref="A4:A110" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -5861,7 +5867,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6088,7 +6094,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>155</v>
       </c>
@@ -6106,7 +6112,7 @@
         <v>0.36363636363636365</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6151,7 +6157,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>140</v>
       </c>
@@ -6169,7 +6175,7 @@
         <v>0.21428571428571427</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -8325,7 +8331,7 @@
         <v>736</v>
       </c>
       <c r="E121" s="7">
-        <f t="shared" ref="E121:E152" si="5">IFERROR(C121/D121," ")</f>
+        <f t="shared" ref="E121:E140" si="5">IFERROR(C121/D121," ")</f>
         <v>5.434782608695652E-3</v>
       </c>
       <c r="F121" t="s">
@@ -9139,7 +9145,7 @@
     </row>
     <row r="207" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E207" s="7" t="str">
-        <f t="shared" ref="E207:E238" si="8">IFERROR(C207/D207," ")</f>
+        <f t="shared" ref="E207:E218" si="8">IFERROR(C207/D207," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -9220,8 +9226,34 @@
         <v>72</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C220" s="3">
+        <v>4</v>
+      </c>
+      <c r="F220" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C221" s="3">
+        <v>3</v>
+      </c>
+      <c r="F221" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
@@ -9576,7 +9608,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>Unread!A15</f>
         <v>Enhancing our Grasp of Complex Arguments (Paper)</v>
@@ -9595,7 +9627,7 @@
       </c>
       <c r="E15" t="str">
         <f>Unread!F15</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -9642,7 +9674,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>Unread!A18</f>
         <v>The Waste Land: Poem</v>
@@ -9661,7 +9693,7 @@
       </c>
       <c r="E18" t="str">
         <f>Unread!F18</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">

--- a/Book Ranking.xlsx
+++ b/Book Ranking.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="162">
   <si>
     <t>Book Ranking</t>
   </si>
@@ -502,6 +502,12 @@
   </si>
   <si>
     <t>God: A Human History</t>
+  </si>
+  <si>
+    <t>Winning Arguments</t>
+  </si>
+  <si>
+    <t>Cornered: The New Monopoly</t>
   </si>
 </sst>
 </file>
@@ -938,7 +944,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f t="shared" ref="E4:E18" si="1">IFERROR(C4/D4," ")</f>
+        <f t="shared" ref="E4:E15" si="1">IFERROR(C4/D4," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F4" t="s">
@@ -1319,7 +1325,7 @@
         <v>55</v>
       </c>
       <c r="E25" s="7">
-        <f>IFERROR(C25/D25," ")</f>
+        <f t="shared" ref="E25:E56" si="2">IFERROR(C25/D25," ")</f>
         <v>5.4545454545454543E-2</v>
       </c>
       <c r="F25" t="s">
@@ -1340,7 +1346,7 @@
         <v>74</v>
       </c>
       <c r="E26" s="7">
-        <f>IFERROR(C26/D26," ")</f>
+        <f t="shared" si="2"/>
         <v>5.4054054054054057E-2</v>
       </c>
       <c r="F26" t="s">
@@ -1361,7 +1367,7 @@
         <v>120</v>
       </c>
       <c r="E27" s="7">
-        <f>IFERROR(C27/D27," ")</f>
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F27" t="s">
@@ -1382,7 +1388,7 @@
         <v>72</v>
       </c>
       <c r="E28" s="7">
-        <f>IFERROR(C28/D28," ")</f>
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F28" t="s">
@@ -1403,7 +1409,7 @@
         <v>128</v>
       </c>
       <c r="E29" s="7">
-        <f>IFERROR(C29/D29," ")</f>
+        <f t="shared" si="2"/>
         <v>3.90625E-2</v>
       </c>
       <c r="F29" t="s">
@@ -1424,7 +1430,7 @@
         <v>133</v>
       </c>
       <c r="E30" s="7">
-        <f>IFERROR(C30/D30," ")</f>
+        <f t="shared" si="2"/>
         <v>3.7593984962406013E-2</v>
       </c>
       <c r="F30" t="s">
@@ -1445,7 +1451,7 @@
         <v>132</v>
       </c>
       <c r="E31" s="7">
-        <f>IFERROR(C31/D31," ")</f>
+        <f t="shared" si="2"/>
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="F31" t="s">
@@ -1466,7 +1472,7 @@
         <v>160</v>
       </c>
       <c r="E32" s="7">
-        <f>IFERROR(C32/D32," ")</f>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F32" t="s">
@@ -1487,7 +1493,7 @@
         <v>80</v>
       </c>
       <c r="E33" s="7">
-        <f>IFERROR(C33/D33," ")</f>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F33" t="s">
@@ -1508,7 +1514,7 @@
         <v>124</v>
       </c>
       <c r="E34" s="7">
-        <f>IFERROR(C34/D34," ")</f>
+        <f t="shared" si="2"/>
         <v>2.4193548387096774E-2</v>
       </c>
       <c r="F34" t="s">
@@ -1529,7 +1535,7 @@
         <v>208</v>
       </c>
       <c r="E35" s="7">
-        <f>IFERROR(C35/D35," ")</f>
+        <f t="shared" si="2"/>
         <v>2.403846153846154E-2</v>
       </c>
       <c r="F35" t="s">
@@ -1550,7 +1556,7 @@
         <v>128</v>
       </c>
       <c r="E36" s="7">
-        <f>IFERROR(C36/D36," ")</f>
+        <f t="shared" si="2"/>
         <v>2.34375E-2</v>
       </c>
       <c r="F36" t="s">
@@ -1571,7 +1577,7 @@
         <v>224</v>
       </c>
       <c r="E37" s="7">
-        <f>IFERROR(C37/D37," ")</f>
+        <f t="shared" si="2"/>
         <v>2.2321428571428572E-2</v>
       </c>
       <c r="F37" t="s">
@@ -1592,7 +1598,7 @@
         <v>228</v>
       </c>
       <c r="E38" s="7">
-        <f>IFERROR(C38/D38," ")</f>
+        <f t="shared" si="2"/>
         <v>2.1929824561403508E-2</v>
       </c>
       <c r="F38" t="s">
@@ -1613,7 +1619,7 @@
         <v>191</v>
       </c>
       <c r="E39" s="7">
-        <f>IFERROR(C39/D39," ")</f>
+        <f t="shared" si="2"/>
         <v>2.0942408376963352E-2</v>
       </c>
       <c r="F39" t="s">
@@ -1634,7 +1640,7 @@
         <v>192</v>
       </c>
       <c r="E40" s="7">
-        <f>IFERROR(C40/D40," ")</f>
+        <f t="shared" si="2"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="F40" t="s">
@@ -1655,7 +1661,7 @@
         <v>198</v>
       </c>
       <c r="E41" s="7">
-        <f>IFERROR(C41/D41," ")</f>
+        <f t="shared" si="2"/>
         <v>2.0202020202020204E-2</v>
       </c>
       <c r="F41" t="s">
@@ -1676,7 +1682,7 @@
         <v>258</v>
       </c>
       <c r="E42" s="7">
-        <f>IFERROR(C42/D42," ")</f>
+        <f t="shared" si="2"/>
         <v>1.937984496124031E-2</v>
       </c>
       <c r="F42" t="s">
@@ -1697,7 +1703,7 @@
         <v>157</v>
       </c>
       <c r="E43" s="7">
-        <f>IFERROR(C43/D43," ")</f>
+        <f t="shared" si="2"/>
         <v>1.9108280254777069E-2</v>
       </c>
       <c r="F43" t="s">
@@ -1718,7 +1724,7 @@
         <v>160</v>
       </c>
       <c r="E44" s="7">
-        <f>IFERROR(C44/D44," ")</f>
+        <f t="shared" si="2"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="F44" t="s">
@@ -1739,7 +1745,7 @@
         <v>224</v>
       </c>
       <c r="E45" s="7">
-        <f>IFERROR(C45/D45," ")</f>
+        <f t="shared" si="2"/>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="F45" t="s">
@@ -1760,7 +1766,7 @@
         <v>226</v>
       </c>
       <c r="E46" s="7">
-        <f>IFERROR(C46/D46," ")</f>
+        <f t="shared" si="2"/>
         <v>1.7699115044247787E-2</v>
       </c>
       <c r="F46" t="s">
@@ -1781,7 +1787,7 @@
         <v>288</v>
       </c>
       <c r="E47" s="7">
-        <f>IFERROR(C47/D47," ")</f>
+        <f t="shared" si="2"/>
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="F47" t="s">
@@ -1802,7 +1808,7 @@
         <v>231</v>
       </c>
       <c r="E48" s="7">
-        <f>IFERROR(C48/D48," ")</f>
+        <f t="shared" si="2"/>
         <v>1.7316017316017316E-2</v>
       </c>
       <c r="F48" t="s">
@@ -1823,7 +1829,7 @@
         <v>181</v>
       </c>
       <c r="E49" s="7">
-        <f>IFERROR(C49/D49," ")</f>
+        <f t="shared" si="2"/>
         <v>1.6574585635359115E-2</v>
       </c>
       <c r="F49" t="s">
@@ -1844,7 +1850,7 @@
         <v>182</v>
       </c>
       <c r="E50" s="7">
-        <f>IFERROR(C50/D50," ")</f>
+        <f t="shared" si="2"/>
         <v>1.6483516483516484E-2</v>
       </c>
       <c r="F50" t="s">
@@ -1865,7 +1871,7 @@
         <v>250</v>
       </c>
       <c r="E51" s="7">
-        <f>IFERROR(C51/D51," ")</f>
+        <f t="shared" si="2"/>
         <v>1.6E-2</v>
       </c>
       <c r="F51" t="s">
@@ -1886,7 +1892,7 @@
         <v>320</v>
       </c>
       <c r="E52" s="7">
-        <f>IFERROR(C52/D52," ")</f>
+        <f t="shared" si="2"/>
         <v>1.5625E-2</v>
       </c>
       <c r="F52" t="s">
@@ -1907,7 +1913,7 @@
         <v>266</v>
       </c>
       <c r="E53" s="7">
-        <f>IFERROR(C53/D53," ")</f>
+        <f t="shared" si="2"/>
         <v>1.5037593984962405E-2</v>
       </c>
       <c r="F53" t="s">
@@ -1928,7 +1934,7 @@
         <v>336</v>
       </c>
       <c r="E54" s="7">
-        <f>IFERROR(C54/D54," ")</f>
+        <f t="shared" si="2"/>
         <v>1.488095238095238E-2</v>
       </c>
       <c r="F54" t="s">
@@ -1949,7 +1955,7 @@
         <v>137</v>
       </c>
       <c r="E55" s="7">
-        <f>IFERROR(C55/D55," ")</f>
+        <f t="shared" si="2"/>
         <v>1.4598540145985401E-2</v>
       </c>
       <c r="F55" t="s">
@@ -1970,7 +1976,7 @@
         <v>276</v>
       </c>
       <c r="E56" s="7">
-        <f>IFERROR(C56/D56," ")</f>
+        <f t="shared" si="2"/>
         <v>1.4492753623188406E-2</v>
       </c>
       <c r="F56" t="s">
@@ -1991,7 +1997,7 @@
         <v>208</v>
       </c>
       <c r="E57" s="7">
-        <f>IFERROR(C57/D57," ")</f>
+        <f t="shared" ref="E57:E88" si="3">IFERROR(C57/D57," ")</f>
         <v>1.4423076923076924E-2</v>
       </c>
       <c r="F57" t="s">
@@ -2012,7 +2018,7 @@
         <v>213</v>
       </c>
       <c r="E58" s="7">
-        <f>IFERROR(C58/D58," ")</f>
+        <f t="shared" si="3"/>
         <v>1.4084507042253521E-2</v>
       </c>
       <c r="F58" t="s">
@@ -2033,7 +2039,7 @@
         <v>220</v>
       </c>
       <c r="E59" s="7">
-        <f>IFERROR(C59/D59," ")</f>
+        <f t="shared" si="3"/>
         <v>1.3636363636363636E-2</v>
       </c>
       <c r="F59" t="s">
@@ -2054,7 +2060,7 @@
         <v>368</v>
       </c>
       <c r="E60" s="7">
-        <f>IFERROR(C60/D60," ")</f>
+        <f t="shared" si="3"/>
         <v>1.358695652173913E-2</v>
       </c>
       <c r="F60" t="s">
@@ -2075,7 +2081,7 @@
         <v>224</v>
       </c>
       <c r="E61" s="7">
-        <f>IFERROR(C61/D61," ")</f>
+        <f t="shared" si="3"/>
         <v>1.3392857142857142E-2</v>
       </c>
       <c r="F61" t="s">
@@ -2096,7 +2102,7 @@
         <v>320</v>
       </c>
       <c r="E62" s="7">
-        <f>IFERROR(C62/D62," ")</f>
+        <f t="shared" si="3"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="F62" t="s">
@@ -2117,7 +2123,7 @@
         <v>160</v>
       </c>
       <c r="E63" s="7">
-        <f>IFERROR(C63/D63," ")</f>
+        <f t="shared" si="3"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="F63" t="s">
@@ -2138,7 +2144,7 @@
         <v>320</v>
       </c>
       <c r="E64" s="7">
-        <f>IFERROR(C64/D64," ")</f>
+        <f t="shared" si="3"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="F64" t="s">
@@ -2159,7 +2165,7 @@
         <v>336</v>
       </c>
       <c r="E65" s="7">
-        <f>IFERROR(C65/D65," ")</f>
+        <f t="shared" si="3"/>
         <v>1.1904761904761904E-2</v>
       </c>
       <c r="F65" t="s">
@@ -2180,7 +2186,7 @@
         <v>256</v>
       </c>
       <c r="E66" s="7">
-        <f>IFERROR(C66/D66," ")</f>
+        <f t="shared" si="3"/>
         <v>1.171875E-2</v>
       </c>
       <c r="F66" t="s">
@@ -2201,7 +2207,7 @@
         <v>256</v>
       </c>
       <c r="E67" s="7">
-        <f>IFERROR(C67/D67," ")</f>
+        <f t="shared" si="3"/>
         <v>1.171875E-2</v>
       </c>
       <c r="F67" t="s">
@@ -2222,7 +2228,7 @@
         <v>256</v>
       </c>
       <c r="E68" s="7">
-        <f>IFERROR(C68/D68," ")</f>
+        <f t="shared" si="3"/>
         <v>1.171875E-2</v>
       </c>
       <c r="F68" t="s">
@@ -2243,7 +2249,7 @@
         <v>432</v>
       </c>
       <c r="E69" s="7">
-        <f>IFERROR(C69/D69," ")</f>
+        <f t="shared" si="3"/>
         <v>1.1574074074074073E-2</v>
       </c>
       <c r="F69" t="s">
@@ -2264,7 +2270,7 @@
         <v>264</v>
       </c>
       <c r="E70" s="7">
-        <f>IFERROR(C70/D70," ")</f>
+        <f t="shared" si="3"/>
         <v>1.1363636363636364E-2</v>
       </c>
       <c r="F70" t="s">
@@ -2285,7 +2291,7 @@
         <v>352</v>
       </c>
       <c r="E71" s="7">
-        <f>IFERROR(C71/D71," ")</f>
+        <f t="shared" si="3"/>
         <v>1.1363636363636364E-2</v>
       </c>
       <c r="F71" t="s">
@@ -2306,7 +2312,7 @@
         <v>266</v>
       </c>
       <c r="E72" s="7">
-        <f>IFERROR(C72/D72," ")</f>
+        <f t="shared" si="3"/>
         <v>1.1278195488721804E-2</v>
       </c>
       <c r="F72" t="s">
@@ -2327,7 +2333,7 @@
         <v>368</v>
       </c>
       <c r="E73" s="7">
-        <f>IFERROR(C73/D73," ")</f>
+        <f t="shared" si="3"/>
         <v>1.0869565217391304E-2</v>
       </c>
       <c r="F73" t="s">
@@ -2348,7 +2354,7 @@
         <v>277</v>
       </c>
       <c r="E74" s="7">
-        <f>IFERROR(C74/D74," ")</f>
+        <f t="shared" si="3"/>
         <v>1.0830324909747292E-2</v>
       </c>
       <c r="F74" t="s">
@@ -2369,7 +2375,7 @@
         <v>384</v>
       </c>
       <c r="E75" s="7">
-        <f>IFERROR(C75/D75," ")</f>
+        <f t="shared" si="3"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="F75" t="s">
@@ -2390,7 +2396,7 @@
         <v>384</v>
       </c>
       <c r="E76" s="7">
-        <f>IFERROR(C76/D76," ")</f>
+        <f t="shared" si="3"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="F76" t="s">
@@ -2411,7 +2417,7 @@
         <v>288</v>
       </c>
       <c r="E77" s="7">
-        <f>IFERROR(C77/D77," ")</f>
+        <f t="shared" si="3"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="F77" t="s">
@@ -2432,7 +2438,7 @@
         <v>288</v>
       </c>
       <c r="E78" s="7">
-        <f>IFERROR(C78/D78," ")</f>
+        <f t="shared" si="3"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="F78" t="s">
@@ -2453,7 +2459,7 @@
         <v>499</v>
       </c>
       <c r="E79" s="7">
-        <f>IFERROR(C79/D79," ")</f>
+        <f t="shared" si="3"/>
         <v>1.002004008016032E-2</v>
       </c>
       <c r="F79" t="s">
@@ -2474,7 +2480,7 @@
         <v>400</v>
       </c>
       <c r="E80" s="7">
-        <f>IFERROR(C80/D80," ")</f>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
       <c r="F80" t="s">
@@ -2495,7 +2501,7 @@
         <v>200</v>
       </c>
       <c r="E81" s="7">
-        <f>IFERROR(C81/D81," ")</f>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
       <c r="F81" t="s">
@@ -2516,7 +2522,7 @@
         <v>400</v>
       </c>
       <c r="E82" s="7">
-        <f>IFERROR(C82/D82," ")</f>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
       <c r="F82" t="s">
@@ -2537,7 +2543,7 @@
         <v>416</v>
       </c>
       <c r="E83" s="7">
-        <f>IFERROR(C83/D83," ")</f>
+        <f t="shared" si="3"/>
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="F83" t="s">
@@ -2558,7 +2564,7 @@
         <v>208</v>
       </c>
       <c r="E84" s="7">
-        <f>IFERROR(C84/D84," ")</f>
+        <f t="shared" si="3"/>
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="F84" t="s">
@@ -2579,7 +2585,7 @@
         <v>208</v>
       </c>
       <c r="E85" s="7">
-        <f>IFERROR(C85/D85," ")</f>
+        <f t="shared" si="3"/>
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="F85" t="s">
@@ -2600,7 +2606,7 @@
         <v>312</v>
       </c>
       <c r="E86" s="7">
-        <f>IFERROR(C86/D86," ")</f>
+        <f t="shared" si="3"/>
         <v>9.6153846153846159E-3</v>
       </c>
       <c r="F86" t="s">
@@ -2621,7 +2627,7 @@
         <v>316</v>
       </c>
       <c r="E87" s="7">
-        <f>IFERROR(C87/D87," ")</f>
+        <f t="shared" si="3"/>
         <v>9.4936708860759497E-3</v>
       </c>
       <c r="F87" t="s">
@@ -2642,7 +2648,7 @@
         <v>432</v>
       </c>
       <c r="E88" s="7">
-        <f>IFERROR(C88/D88," ")</f>
+        <f t="shared" si="3"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="F88" t="s">
@@ -2663,7 +2669,7 @@
         <v>436</v>
       </c>
       <c r="E89" s="7">
-        <f>IFERROR(C89/D89," ")</f>
+        <f t="shared" ref="E89:E120" si="4">IFERROR(C89/D89," ")</f>
         <v>9.1743119266055051E-3</v>
       </c>
       <c r="F89" t="s">
@@ -2684,7 +2690,7 @@
         <v>444</v>
       </c>
       <c r="E90" s="7">
-        <f>IFERROR(C90/D90," ")</f>
+        <f t="shared" si="4"/>
         <v>9.0090090090090089E-3</v>
       </c>
       <c r="F90" t="s">
@@ -2705,7 +2711,7 @@
         <v>336</v>
       </c>
       <c r="E91" s="7">
-        <f>IFERROR(C91/D91," ")</f>
+        <f t="shared" si="4"/>
         <v>8.9285714285714281E-3</v>
       </c>
       <c r="F91" t="s">
@@ -2726,7 +2732,7 @@
         <v>225</v>
       </c>
       <c r="E92" s="7">
-        <f>IFERROR(C92/D92," ")</f>
+        <f t="shared" si="4"/>
         <v>8.8888888888888889E-3</v>
       </c>
       <c r="F92" t="s">
@@ -2747,7 +2753,7 @@
         <v>344</v>
       </c>
       <c r="E93" s="7">
-        <f>IFERROR(C93/D93," ")</f>
+        <f t="shared" si="4"/>
         <v>8.7209302325581394E-3</v>
       </c>
       <c r="F93" t="s">
@@ -2768,7 +2774,7 @@
         <v>464</v>
       </c>
       <c r="E94" s="7">
-        <f>IFERROR(C94/D94," ")</f>
+        <f t="shared" si="4"/>
         <v>8.6206896551724137E-3</v>
       </c>
       <c r="F94" t="s">
@@ -2789,7 +2795,7 @@
         <v>464</v>
       </c>
       <c r="E95" s="7">
-        <f>IFERROR(C95/D95," ")</f>
+        <f t="shared" si="4"/>
         <v>8.6206896551724137E-3</v>
       </c>
       <c r="F95" t="s">
@@ -2810,7 +2816,7 @@
         <v>464</v>
       </c>
       <c r="E96" s="7">
-        <f>IFERROR(C96/D96," ")</f>
+        <f t="shared" si="4"/>
         <v>8.6206896551724137E-3</v>
       </c>
       <c r="F96" t="s">
@@ -2831,7 +2837,7 @@
         <v>352</v>
       </c>
       <c r="E97" s="7">
-        <f>IFERROR(C97/D97," ")</f>
+        <f t="shared" si="4"/>
         <v>8.5227272727272721E-3</v>
       </c>
       <c r="F97" t="s">
@@ -2852,7 +2858,7 @@
         <v>352</v>
       </c>
       <c r="E98" s="7">
-        <f>IFERROR(C98/D98," ")</f>
+        <f t="shared" si="4"/>
         <v>8.5227272727272721E-3</v>
       </c>
       <c r="F98" t="s">
@@ -2873,7 +2879,7 @@
         <v>480</v>
       </c>
       <c r="E99" s="7">
-        <f>IFERROR(C99/D99," ")</f>
+        <f t="shared" si="4"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="F99" t="s">
@@ -2894,7 +2900,7 @@
         <v>360</v>
       </c>
       <c r="E100" s="7">
-        <f>IFERROR(C100/D100," ")</f>
+        <f t="shared" si="4"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="F100" t="s">
@@ -2915,7 +2921,7 @@
         <v>240</v>
       </c>
       <c r="E101" s="7">
-        <f>IFERROR(C101/D101," ")</f>
+        <f t="shared" si="4"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="F101" t="s">
@@ -2936,7 +2942,7 @@
         <v>368</v>
       </c>
       <c r="E102" s="7">
-        <f>IFERROR(C102/D102," ")</f>
+        <f t="shared" si="4"/>
         <v>8.152173913043478E-3</v>
       </c>
       <c r="F102" t="s">
@@ -2957,7 +2963,7 @@
         <v>368</v>
       </c>
       <c r="E103" s="7">
-        <f>IFERROR(C103/D103," ")</f>
+        <f t="shared" si="4"/>
         <v>8.152173913043478E-3</v>
       </c>
       <c r="F103" t="s">
@@ -2978,7 +2984,7 @@
         <v>371</v>
       </c>
       <c r="E104" s="7">
-        <f>IFERROR(C104/D104," ")</f>
+        <f t="shared" si="4"/>
         <v>8.0862533692722376E-3</v>
       </c>
       <c r="F104" t="s">
@@ -2999,7 +3005,7 @@
         <v>250</v>
       </c>
       <c r="E105" s="7">
-        <f>IFERROR(C105/D105," ")</f>
+        <f t="shared" si="4"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="F105" t="s">
@@ -3020,7 +3026,7 @@
         <v>512</v>
       </c>
       <c r="E106" s="7">
-        <f>IFERROR(C106/D106," ")</f>
+        <f t="shared" si="4"/>
         <v>7.8125E-3</v>
       </c>
       <c r="F106" t="s">
@@ -3041,7 +3047,7 @@
         <v>512</v>
       </c>
       <c r="E107" s="7">
-        <f>IFERROR(C107/D107," ")</f>
+        <f t="shared" si="4"/>
         <v>7.8125E-3</v>
       </c>
       <c r="F107" t="s">
@@ -3062,7 +3068,7 @@
         <v>264</v>
       </c>
       <c r="E108" s="7">
-        <f>IFERROR(C108/D108," ")</f>
+        <f t="shared" si="4"/>
         <v>7.575757575757576E-3</v>
       </c>
       <c r="F108" t="s">
@@ -3083,7 +3089,7 @@
         <v>400</v>
       </c>
       <c r="E109" s="7">
-        <f>IFERROR(C109/D109," ")</f>
+        <f t="shared" si="4"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="F109" t="s">
@@ -3104,7 +3110,7 @@
         <v>544</v>
       </c>
       <c r="E110" s="7">
-        <f>IFERROR(C110/D110," ")</f>
+        <f t="shared" si="4"/>
         <v>7.3529411764705881E-3</v>
       </c>
       <c r="F110" t="s">
@@ -3125,7 +3131,7 @@
         <v>416</v>
       </c>
       <c r="E111" s="7">
-        <f>IFERROR(C111/D111," ")</f>
+        <f t="shared" si="4"/>
         <v>7.2115384615384619E-3</v>
       </c>
       <c r="F111" t="s">
@@ -3146,7 +3152,7 @@
         <v>560</v>
       </c>
       <c r="E112" s="7">
-        <f>IFERROR(C112/D112," ")</f>
+        <f t="shared" si="4"/>
         <v>7.1428571428571426E-3</v>
       </c>
       <c r="F112" t="s">
@@ -3167,7 +3173,7 @@
         <v>284</v>
       </c>
       <c r="E113" s="7">
-        <f>IFERROR(C113/D113," ")</f>
+        <f t="shared" si="4"/>
         <v>7.0422535211267607E-3</v>
       </c>
       <c r="F113" t="s">
@@ -3188,7 +3194,7 @@
         <v>288</v>
       </c>
       <c r="E114" s="7">
-        <f>IFERROR(C114/D114," ")</f>
+        <f t="shared" si="4"/>
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F114" t="s">
@@ -3209,7 +3215,7 @@
         <v>736</v>
       </c>
       <c r="E115" s="7">
-        <f>IFERROR(C115/D115," ")</f>
+        <f t="shared" si="4"/>
         <v>6.793478260869565E-3</v>
       </c>
       <c r="F115" t="s">
@@ -3230,7 +3236,7 @@
         <v>148</v>
       </c>
       <c r="E116" s="7">
-        <f>IFERROR(C116/D116," ")</f>
+        <f t="shared" si="4"/>
         <v>6.7567567567567571E-3</v>
       </c>
       <c r="F116" t="s">
@@ -3251,7 +3257,7 @@
         <v>450</v>
       </c>
       <c r="E117" s="7">
-        <f>IFERROR(C117/D117," ")</f>
+        <f t="shared" si="4"/>
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="F117" t="s">
@@ -3272,7 +3278,7 @@
         <v>464</v>
       </c>
       <c r="E118" s="7">
-        <f>IFERROR(C118/D118," ")</f>
+        <f t="shared" si="4"/>
         <v>6.4655172413793103E-3</v>
       </c>
       <c r="F118" t="s">
@@ -3293,7 +3299,7 @@
         <v>480</v>
       </c>
       <c r="E119" s="7">
-        <f>IFERROR(C119/D119," ")</f>
+        <f t="shared" si="4"/>
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="F119" t="s">
@@ -3314,7 +3320,7 @@
         <v>480</v>
       </c>
       <c r="E120" s="7">
-        <f>IFERROR(C120/D120," ")</f>
+        <f t="shared" si="4"/>
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="F120" t="s">
@@ -3335,7 +3341,7 @@
         <v>488</v>
       </c>
       <c r="E121" s="7">
-        <f>IFERROR(C121/D121," ")</f>
+        <f t="shared" ref="E121:E152" si="5">IFERROR(C121/D121," ")</f>
         <v>6.1475409836065573E-3</v>
       </c>
       <c r="F121" t="s">
@@ -3356,7 +3362,7 @@
         <v>332</v>
       </c>
       <c r="E122" s="7">
-        <f>IFERROR(C122/D122," ")</f>
+        <f t="shared" si="5"/>
         <v>6.024096385542169E-3</v>
       </c>
       <c r="F122" t="s">
@@ -3377,7 +3383,7 @@
         <v>332</v>
       </c>
       <c r="E123" s="7">
-        <f>IFERROR(C123/D123," ")</f>
+        <f t="shared" si="5"/>
         <v>6.024096385542169E-3</v>
       </c>
       <c r="F123" t="s">
@@ -3398,7 +3404,7 @@
         <v>344</v>
       </c>
       <c r="E124" s="7">
-        <f>IFERROR(C124/D124," ")</f>
+        <f t="shared" si="5"/>
         <v>5.8139534883720929E-3</v>
       </c>
       <c r="F124" t="s">
@@ -3419,7 +3425,7 @@
         <v>704</v>
       </c>
       <c r="E125" s="7">
-        <f>IFERROR(C125/D125," ")</f>
+        <f t="shared" si="5"/>
         <v>5.681818181818182E-3</v>
       </c>
       <c r="F125" t="s">
@@ -3440,7 +3446,7 @@
         <v>366</v>
       </c>
       <c r="E126" s="7">
-        <f>IFERROR(C126/D126," ")</f>
+        <f t="shared" si="5"/>
         <v>5.4644808743169399E-3</v>
       </c>
       <c r="F126" t="s">
@@ -3461,7 +3467,7 @@
         <v>736</v>
       </c>
       <c r="E127" s="7">
-        <f>IFERROR(C127/D127," ")</f>
+        <f t="shared" si="5"/>
         <v>5.434782608695652E-3</v>
       </c>
       <c r="F127" t="s">
@@ -3482,7 +3488,7 @@
         <v>373</v>
       </c>
       <c r="E128" s="7">
-        <f>IFERROR(C128/D128," ")</f>
+        <f t="shared" si="5"/>
         <v>5.3619302949061663E-3</v>
       </c>
       <c r="F128" t="s">
@@ -3503,7 +3509,7 @@
         <v>560</v>
       </c>
       <c r="E129" s="7">
-        <f>IFERROR(C129/D129," ")</f>
+        <f t="shared" si="5"/>
         <v>5.3571428571428572E-3</v>
       </c>
       <c r="F129" t="s">
@@ -3524,7 +3530,7 @@
         <v>560</v>
       </c>
       <c r="E130" s="7">
-        <f>IFERROR(C130/D130," ")</f>
+        <f t="shared" si="5"/>
         <v>5.3571428571428572E-3</v>
       </c>
       <c r="F130" t="s">
@@ -3545,7 +3551,7 @@
         <v>576</v>
       </c>
       <c r="E131" s="7">
-        <f>IFERROR(C131/D131," ")</f>
+        <f t="shared" si="5"/>
         <v>5.208333333333333E-3</v>
       </c>
       <c r="F131" t="s">
@@ -3566,7 +3572,7 @@
         <v>384</v>
       </c>
       <c r="E132" s="7">
-        <f>IFERROR(C132/D132," ")</f>
+        <f t="shared" si="5"/>
         <v>5.208333333333333E-3</v>
       </c>
       <c r="F132" t="s">
@@ -3587,7 +3593,7 @@
         <v>200</v>
       </c>
       <c r="E133" s="7">
-        <f>IFERROR(C133/D133," ")</f>
+        <f t="shared" si="5"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F133" t="s">
@@ -3608,7 +3614,7 @@
         <v>400</v>
       </c>
       <c r="E134" s="7">
-        <f>IFERROR(C134/D134," ")</f>
+        <f t="shared" si="5"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F134" t="s">
@@ -3629,7 +3635,7 @@
         <v>416</v>
       </c>
       <c r="E135" s="7">
-        <f>IFERROR(C135/D135," ")</f>
+        <f t="shared" si="5"/>
         <v>4.807692307692308E-3</v>
       </c>
       <c r="F135" t="s">
@@ -3650,7 +3656,7 @@
         <v>416</v>
       </c>
       <c r="E136" s="7">
-        <f>IFERROR(C136/D136," ")</f>
+        <f t="shared" si="5"/>
         <v>4.807692307692308E-3</v>
       </c>
       <c r="F136" t="s">
@@ -3671,7 +3677,7 @@
         <v>848</v>
       </c>
       <c r="E137" s="7">
-        <f>IFERROR(C137/D137," ")</f>
+        <f t="shared" si="5"/>
         <v>4.7169811320754715E-3</v>
       </c>
       <c r="F137" t="s">
@@ -3692,7 +3698,7 @@
         <v>440</v>
       </c>
       <c r="E138" s="7">
-        <f>IFERROR(C138/D138," ")</f>
+        <f t="shared" si="5"/>
         <v>4.5454545454545452E-3</v>
       </c>
       <c r="F138" t="s">
@@ -3713,7 +3719,7 @@
         <v>456</v>
       </c>
       <c r="E139" s="7">
-        <f>IFERROR(C139/D139," ")</f>
+        <f t="shared" si="5"/>
         <v>4.3859649122807015E-3</v>
       </c>
       <c r="F139" t="s">
@@ -3734,7 +3740,7 @@
         <v>528</v>
       </c>
       <c r="E140" s="7">
-        <f>IFERROR(C140/D140," ")</f>
+        <f t="shared" si="5"/>
         <v>3.787878787878788E-3</v>
       </c>
       <c r="F140" t="s">
@@ -3755,7 +3761,7 @@
         <v>544</v>
       </c>
       <c r="E141" s="7">
-        <f>IFERROR(C141/D141," ")</f>
+        <f t="shared" si="5"/>
         <v>3.6764705882352941E-3</v>
       </c>
       <c r="F141" t="s">
@@ -3776,7 +3782,7 @@
         <v>848</v>
       </c>
       <c r="E142" s="7">
-        <f>IFERROR(C142/D142," ")</f>
+        <f t="shared" si="5"/>
         <v>3.5377358490566039E-3</v>
       </c>
       <c r="F142" t="s">
@@ -3785,457 +3791,457 @@
     </row>
     <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E143" s="7" t="str">
-        <f>IFERROR(C143/D143," ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E144" s="7" t="str">
-        <f>IFERROR(C144/D144," ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="145" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E145" s="7" t="str">
-        <f>IFERROR(C145/D145," ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="146" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E146" s="7" t="str">
-        <f>IFERROR(C146/D146," ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="147" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E147" s="7" t="str">
-        <f>IFERROR(C147/D147," ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="148" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E148" s="7" t="str">
-        <f>IFERROR(C148/D148," ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="149" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E149" s="7" t="str">
-        <f>IFERROR(C149/D149," ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="150" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E150" s="7" t="str">
-        <f>IFERROR(C150/D150," ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="151" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E151" s="7" t="str">
-        <f>IFERROR(C151/D151," ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="152" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E152" s="7" t="str">
-        <f>IFERROR(C152/D152," ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="153" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E153" s="7" t="str">
-        <f>IFERROR(C153/D153," ")</f>
+        <f t="shared" ref="E153:E184" si="6">IFERROR(C153/D153," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="154" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E154" s="7" t="str">
-        <f>IFERROR(C154/D154," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="155" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E155" s="7" t="str">
-        <f>IFERROR(C155/D155," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="156" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E156" s="7" t="str">
-        <f>IFERROR(C156/D156," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="157" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E157" s="7" t="str">
-        <f>IFERROR(C157/D157," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="158" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E158" s="7" t="str">
-        <f>IFERROR(C158/D158," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="159" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E159" s="7" t="str">
-        <f>IFERROR(C159/D159," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="160" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E160" s="7" t="str">
-        <f>IFERROR(C160/D160," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="161" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E161" s="7" t="str">
-        <f>IFERROR(C161/D161," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="162" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E162" s="7" t="str">
-        <f>IFERROR(C162/D162," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="163" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E163" s="7" t="str">
-        <f>IFERROR(C163/D163," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="164" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E164" s="7" t="str">
-        <f>IFERROR(C164/D164," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="165" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E165" s="7" t="str">
-        <f>IFERROR(C165/D165," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="166" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E166" s="7" t="str">
-        <f>IFERROR(C166/D166," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="167" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E167" s="7" t="str">
-        <f>IFERROR(C167/D167," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="168" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E168" s="7" t="str">
-        <f>IFERROR(C168/D168," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="169" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E169" s="7" t="str">
-        <f>IFERROR(C169/D169," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="170" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E170" s="7" t="str">
-        <f>IFERROR(C170/D170," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="171" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E171" s="7" t="str">
-        <f>IFERROR(C171/D171," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="172" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E172" s="7" t="str">
-        <f>IFERROR(C172/D172," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="173" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E173" s="7" t="str">
-        <f>IFERROR(C173/D173," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="174" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E174" s="7" t="str">
-        <f>IFERROR(C174/D174," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="175" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E175" s="7" t="str">
-        <f>IFERROR(C175/D175," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="176" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E176" s="7" t="str">
-        <f>IFERROR(C176/D176," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="177" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E177" s="7" t="str">
-        <f>IFERROR(C177/D177," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="178" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E178" s="7" t="str">
-        <f>IFERROR(C178/D178," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="179" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E179" s="7" t="str">
-        <f>IFERROR(C179/D179," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="180" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E180" s="7" t="str">
-        <f>IFERROR(C180/D180," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="181" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E181" s="7" t="str">
-        <f>IFERROR(C181/D181," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="182" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E182" s="7" t="str">
-        <f>IFERROR(C182/D182," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="183" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E183" s="7" t="str">
-        <f>IFERROR(C183/D183," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="184" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E184" s="7" t="str">
-        <f>IFERROR(C184/D184," ")</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="185" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E185" s="7" t="str">
-        <f>IFERROR(C185/D185," ")</f>
+        <f t="shared" ref="E185:E216" si="7">IFERROR(C185/D185," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="186" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E186" s="7" t="str">
-        <f>IFERROR(C186/D186," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="187" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E187" s="7" t="str">
-        <f>IFERROR(C187/D187," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="188" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E188" s="7" t="str">
-        <f>IFERROR(C188/D188," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="189" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E189" s="7" t="str">
-        <f>IFERROR(C189/D189," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="190" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E190" s="7" t="str">
-        <f>IFERROR(C190/D190," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="191" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E191" s="7" t="str">
-        <f>IFERROR(C191/D191," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="192" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E192" s="7" t="str">
-        <f>IFERROR(C192/D192," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="193" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E193" s="7" t="str">
-        <f>IFERROR(C193/D193," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="194" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E194" s="7" t="str">
-        <f>IFERROR(C194/D194," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="195" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E195" s="7" t="str">
-        <f>IFERROR(C195/D195," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="196" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E196" s="7" t="str">
-        <f>IFERROR(C196/D196," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="197" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E197" s="7" t="str">
-        <f>IFERROR(C197/D197," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="198" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E198" s="7" t="str">
-        <f>IFERROR(C198/D198," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="199" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E199" s="7" t="str">
-        <f>IFERROR(C199/D199," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="200" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E200" s="7" t="str">
-        <f>IFERROR(C200/D200," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="201" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E201" s="7" t="str">
-        <f>IFERROR(C201/D201," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="202" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E202" s="7" t="str">
-        <f>IFERROR(C202/D202," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="203" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E203" s="7" t="str">
-        <f>IFERROR(C203/D203," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="204" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E204" s="7" t="str">
-        <f>IFERROR(C204/D204," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="205" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E205" s="7" t="str">
-        <f>IFERROR(C205/D205," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="206" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E206" s="7" t="str">
-        <f>IFERROR(C206/D206," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="207" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E207" s="7" t="str">
-        <f>IFERROR(C207/D207," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="208" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="E208" s="7" t="str">
-        <f>IFERROR(C208/D208," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E209" s="7" t="str">
-        <f>IFERROR(C209/D209," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E210" s="7" t="str">
-        <f>IFERROR(C210/D210," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E211" s="7" t="str">
-        <f>IFERROR(C211/D211," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E212" s="7" t="str">
-        <f>IFERROR(C212/D212," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E213" s="7" t="str">
-        <f>IFERROR(C213/D213," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E214" s="7" t="str">
-        <f>IFERROR(C214/D214," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E215" s="7" t="str">
-        <f>IFERROR(C215/D215," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E216" s="7" t="str">
-        <f>IFERROR(C216/D216," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E217" s="7" t="str">
-        <f>IFERROR(C217/D217," ")</f>
+        <f t="shared" ref="E217:E224" si="8">IFERROR(C217/D217," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E218" s="7" t="str">
-        <f>IFERROR(C218/D218," ")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -4253,7 +4259,7 @@
         <v>864</v>
       </c>
       <c r="E219" s="7">
-        <f>IFERROR(C219/D219," ")</f>
+        <f t="shared" si="8"/>
         <v>3.472222222222222E-3</v>
       </c>
       <c r="F219" t="s">
@@ -4274,7 +4280,7 @@
         <v>616</v>
       </c>
       <c r="E220" s="7">
-        <f>IFERROR(C220/D220," ")</f>
+        <f t="shared" si="8"/>
         <v>3.246753246753247E-3</v>
       </c>
       <c r="F220" t="s">
@@ -4295,7 +4301,7 @@
         <v>320</v>
       </c>
       <c r="E221" s="7">
-        <f>IFERROR(C221/D221," ")</f>
+        <f t="shared" si="8"/>
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="F221" t="s">
@@ -4316,15 +4322,52 @@
         <v>1280</v>
       </c>
       <c r="E222" s="7">
-        <f>IFERROR(C222/D222," ")</f>
+        <f t="shared" si="8"/>
         <v>2.3437499999999999E-3</v>
       </c>
       <c r="F222" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C223" s="3">
+        <v>4</v>
+      </c>
+      <c r="D223" s="3">
+        <v>224</v>
+      </c>
+      <c r="E223" s="7">
+        <f t="shared" si="8"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="F223" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C224" s="3">
+        <v>3</v>
+      </c>
+      <c r="E224" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F224" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
